--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56532460-175E-9344-875E-9FDB4ABE1543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989B7E7-6839-7B44-8866-163D82210301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="706">
   <si>
     <t>ID</t>
   </si>
@@ -665,15 +665,6 @@
     <t>Daily cannabis use</t>
   </si>
   <si>
-    <t>Daily cigarette consumption</t>
-  </si>
-  <si>
-    <t>The number of cigarettes smoked per day.</t>
-  </si>
-  <si>
-    <t>Everyday cigarette consumption</t>
-  </si>
-  <si>
     <t>Daily cigarette use</t>
   </si>
   <si>
@@ -2105,9 +2096,6 @@
     <t>A  behavioural attribute  that indicates the duration of concurrent use by a person of both e-cigarettes and cigarettes.</t>
   </si>
   <si>
-    <t>Behavioural attribute</t>
-  </si>
-  <si>
     <t>A consumption behaviour that involves concurrent use by a person of e-cigarettes and cigarettes.</t>
   </si>
   <si>
@@ -2120,16 +2108,40 @@
     <t xml:space="preserve">Dual use </t>
   </si>
   <si>
-    <t>Cigarette consumption that involves smoking a cigarette at least once per day.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A consumption behaviour that involves smoking a cigarette. </t>
   </si>
   <si>
-    <t xml:space="preserve">A consumption behaviour that involve using an e-cigarette for vaping. </t>
-  </si>
-  <si>
     <t>E-cigarette use that involves using an e-cigarette at least once per day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour pattern that involves purchasing a product. </t>
+  </si>
+  <si>
+    <t>Ever smoked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobacco purchase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour pattern that involves the act of puffing on a cigarette. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour attribute that involves ever use of a cigarette. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour attribute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviour pattern </t>
+  </si>
+  <si>
+    <t>A behaviour pattern that involves smoking a cigarette at least once per day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyday cigarette consumption; Daily cigarette consumption </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour pattern that involve using an e-cigarette for vaping. </t>
   </si>
 </sst>
 </file>
@@ -2687,11 +2699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T426"/>
+  <dimension ref="A1:T425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2879,7 +2891,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>40</v>
@@ -3869,7 +3881,7 @@
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="13" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>23</v>
@@ -3891,7 +3903,7 @@
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="13" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>23</v>
@@ -3913,7 +3925,7 @@
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="13" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>23</v>
@@ -4024,7 +4036,7 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4084,7 +4096,7 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>151</v>
@@ -4119,7 +4131,7 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>155</v>
@@ -4636,7 +4648,7 @@
         <v>175</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
@@ -4659,7 +4671,7 @@
         <v>26</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q64" s="31" t="s">
         <v>27</v>
@@ -4694,64 +4706,95 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9" t="s">
+    <row r="66" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-    </row>
-    <row r="67" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B67" s="19" t="s">
+      <c r="C66" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q66" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+    </row>
+    <row r="67" spans="1:19" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B67" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="G67" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K67" s="11"/>
-      <c r="O67" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S67" s="11"/>
-    </row>
-    <row r="68" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B68" s="19" t="s">
+      <c r="C67" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="K67" s="30"/>
+      <c r="O67" s="29">
+        <v>1</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S67" s="30"/>
+    </row>
+    <row r="68" spans="1:19" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B68" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="G68" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K68" s="11"/>
-      <c r="O68" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S68" s="11"/>
+      <c r="C68" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="30"/>
+      <c r="O68" s="29">
+        <v>1</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S68" s="30"/>
     </row>
     <row r="69" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A69" s="9"/>
@@ -5385,67 +5428,68 @@
       <c r="R92" s="9"/>
       <c r="S92" s="9"/>
     </row>
-    <row r="93" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A93" s="9"/>
-      <c r="B93" s="19" t="s">
+    <row r="93" spans="1:19" s="29" customFormat="1" ht="32" customHeight="1">
+      <c r="B93" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="K93" s="30"/>
+      <c r="O93" s="29">
+        <v>1</v>
+      </c>
+      <c r="P93" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q93" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S93" s="30"/>
+    </row>
+    <row r="94" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F93" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K93" s="11"/>
-      <c r="O93" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S93" s="9"/>
-    </row>
-    <row r="94" spans="1:19" s="29" customFormat="1" ht="32" customHeight="1">
-      <c r="B94" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K94" s="30"/>
-      <c r="O94" s="29">
-        <v>1</v>
-      </c>
-      <c r="P94" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q94" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S94" s="30"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
     </row>
     <row r="95" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -5469,108 +5513,122 @@
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
     </row>
-    <row r="96" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P96" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q96" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R96" s="31"/>
+      <c r="S96" s="31"/>
+    </row>
+    <row r="97" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+    </row>
+    <row r="98" spans="1:20" s="27" customFormat="1" ht="80" customHeight="1">
+      <c r="A98" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-    </row>
-    <row r="97" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31" t="s">
+      <c r="B98" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C97" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="F97" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G97" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31" t="s">
-        <v>690</v>
-      </c>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31" t="s">
+      <c r="C98" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L98" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P97" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q97" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R97" s="31"/>
-      <c r="S97" s="31"/>
-    </row>
-    <row r="98" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-    </row>
-    <row r="99" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
+      <c r="P98" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q98" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="R98" s="28"/>
+      <c r="S98" s="28"/>
+    </row>
+    <row r="99" spans="1:20" s="27" customFormat="1" ht="80" customHeight="1">
       <c r="A99" s="28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28" t="s">
@@ -5584,18 +5642,16 @@
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
       <c r="K99" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="L99" s="28" t="s">
-        <v>225</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="L99" s="28"/>
       <c r="M99" s="28"/>
       <c r="N99" s="28"/>
       <c r="O99" s="28" t="s">
         <v>26</v>
       </c>
       <c r="P99" s="28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q99" s="28" t="s">
         <v>114</v>
@@ -5603,49 +5659,37 @@
       <c r="R99" s="28"/>
       <c r="S99" s="28"/>
     </row>
-    <row r="100" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
-      <c r="A100" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="B100" s="26" t="s">
+    <row r="100" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C100" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P100" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q100" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="R100" s="28"/>
-      <c r="S100" s="28"/>
-    </row>
-    <row r="101" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+    </row>
+    <row r="101" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -5669,10 +5713,10 @@
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
     </row>
-    <row r="102" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="102" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -5696,10 +5740,10 @@
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
     </row>
-    <row r="103" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="103" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -5723,10 +5767,10 @@
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
     </row>
-    <row r="104" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="104" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -5750,10 +5794,10 @@
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
     </row>
-    <row r="105" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="105" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -5777,10 +5821,10 @@
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
     </row>
-    <row r="106" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="106" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -5804,12 +5848,14 @@
       <c r="R106" s="9"/>
       <c r="S106" s="9"/>
     </row>
-    <row r="107" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="107" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -5831,67 +5877,67 @@
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
     </row>
-    <row r="108" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9" t="s">
+    <row r="108" spans="1:20" s="22" customFormat="1" ht="32" customHeight="1">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+    </row>
+    <row r="109" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-    </row>
-    <row r="109" spans="1:19" s="22" customFormat="1" ht="32" customHeight="1">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20" t="s">
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R109" s="20"/>
-      <c r="S109" s="20"/>
-    </row>
-    <row r="110" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+    </row>
+    <row r="110" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -5902,9 +5948,6 @@
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
@@ -5917,10 +5960,10 @@
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
     </row>
-    <row r="111" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="111" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -5931,6 +5974,7 @@
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
@@ -5943,10 +5987,10 @@
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
     </row>
-    <row r="112" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="112" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -5969,11 +6013,12 @@
       </c>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
-    </row>
-    <row r="113" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="T112" s="9"/>
+    </row>
+    <row r="113" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -6001,7 +6046,7 @@
     <row r="114" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -6027,13 +6072,19 @@
       <c r="T114" s="9"/>
     </row>
     <row r="115" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A115" s="9"/>
+      <c r="A115" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="B115" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C115" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9" t="s">
         <v>24</v>
@@ -6055,19 +6106,13 @@
       <c r="T115" s="9"/>
     </row>
     <row r="116" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>249</v>
-      </c>
+      <c r="A116" s="9"/>
       <c r="B116" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>250</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C116" s="9"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9" t="s">
         <v>24</v>
@@ -6091,7 +6136,7 @@
     <row r="117" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -6119,7 +6164,7 @@
     <row r="118" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -6147,7 +6192,7 @@
     <row r="119" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -6172,83 +6217,87 @@
       <c r="S119" s="9"/>
       <c r="T119" s="9"/>
     </row>
-    <row r="120" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-    </row>
-    <row r="121" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
-      <c r="A121" s="31"/>
-      <c r="B121" s="32" t="s">
-        <v>255</v>
+    <row r="120" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
+      <c r="A120" s="31"/>
+      <c r="B120" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="K120" s="31"/>
+      <c r="L120" s="31"/>
+      <c r="M120" s="31"/>
+      <c r="N120" s="31"/>
+      <c r="O120" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P120" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q120" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R120" s="31"/>
+      <c r="S120" s="31"/>
+      <c r="T120" s="31"/>
+    </row>
+    <row r="121" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B121" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F121" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G121" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="K121" s="31"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="31"/>
-      <c r="N121" s="31"/>
-      <c r="O121" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="P121" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q121" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R121" s="31"/>
-      <c r="S121" s="31"/>
-      <c r="T121" s="31"/>
+      <c r="G121" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J121" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K121" s="30"/>
+      <c r="O121" s="29">
+        <v>1</v>
+      </c>
+      <c r="P121" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q121" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S121" s="30"/>
+      <c r="T121" s="33"/>
     </row>
     <row r="122" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B122" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F122" s="29" t="s">
         <v>44</v>
@@ -6257,14 +6306,14 @@
         <v>24</v>
       </c>
       <c r="J122" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K122" s="30"/>
       <c r="O122" s="29">
         <v>1</v>
       </c>
       <c r="P122" s="29" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q122" s="29" t="s">
         <v>27</v>
@@ -6272,73 +6321,69 @@
       <c r="S122" s="30"/>
       <c r="T122" s="33"/>
     </row>
-    <row r="123" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B123" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="F123" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G123" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J123" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="K123" s="30"/>
-      <c r="O123" s="29">
-        <v>1</v>
-      </c>
-      <c r="P123" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q123" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S123" s="30"/>
-      <c r="T123" s="33"/>
+    <row r="123" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B123" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="G123" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" s="11"/>
+      <c r="O123" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S123" s="11"/>
+      <c r="T123" s="9"/>
     </row>
     <row r="124" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A124" s="9"/>
       <c r="B124" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D124" s="9"/>
-      <c r="G124" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K124" s="11"/>
-      <c r="O124" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S124" s="11"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
       <c r="T124" s="9"/>
     </row>
     <row r="125" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="s">
-        <v>261</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H125" s="9"/>
-      <c r="I125" s="9" t="s">
-        <v>262</v>
-      </c>
+      <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -6355,8 +6400,8 @@
     </row>
     <row r="126" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A126" s="9"/>
-      <c r="B126" s="9" t="s">
-        <v>263</v>
+      <c r="B126" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -6381,66 +6426,55 @@
       <c r="S126" s="9"/>
       <c r="T126" s="9"/>
     </row>
-    <row r="127" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="19" t="s">
+    <row r="127" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="B127" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K127" s="34"/>
+      <c r="O127" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S127" s="34"/>
+      <c r="T127" s="31"/>
+    </row>
+    <row r="128" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B128" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R127" s="9"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
-    </row>
-    <row r="128" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
-      <c r="B128" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E128" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="G128" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K128" s="34"/>
-      <c r="O128" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S128" s="34"/>
-      <c r="T128" s="31"/>
+      <c r="K128" s="11"/>
+      <c r="O128" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S128" s="11"/>
+      <c r="T128" s="9"/>
     </row>
     <row r="129" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B129" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G129" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J129" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="K129" s="11"/>
       <c r="O129" s="19">
@@ -6454,7 +6488,7 @@
     </row>
     <row r="130" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B130" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G130" s="19" t="s">
         <v>24</v>
@@ -6471,7 +6505,7 @@
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B131" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>24</v>
@@ -6488,7 +6522,7 @@
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B132" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>24</v>
@@ -6505,7 +6539,7 @@
     </row>
     <row r="133" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B133" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G133" s="19" t="s">
         <v>24</v>
@@ -6520,49 +6554,49 @@
       <c r="S133" s="11"/>
       <c r="T133" s="9"/>
     </row>
-    <row r="134" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B134" s="19" t="s">
+    <row r="134" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B134" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K134" s="30"/>
+      <c r="O134" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S134" s="30"/>
+      <c r="T134" s="33"/>
+    </row>
+    <row r="135" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B135" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" s="11"/>
+      <c r="O135" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S135" s="11"/>
+      <c r="T135" s="9"/>
+    </row>
+    <row r="136" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B136" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K134" s="11"/>
-      <c r="O134" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S134" s="11"/>
-      <c r="T134" s="9"/>
-    </row>
-    <row r="135" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B135" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G135" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K135" s="30"/>
-      <c r="O135" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S135" s="30"/>
-      <c r="T135" s="33"/>
-    </row>
-    <row r="136" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B136" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="G136" s="19" t="s">
         <v>24</v>
@@ -6577,9 +6611,9 @@
       <c r="S136" s="11"/>
       <c r="T136" s="9"/>
     </row>
-    <row r="137" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="137" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B137" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>24</v>
@@ -6596,7 +6630,7 @@
     </row>
     <row r="138" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B138" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G138" s="19" t="s">
         <v>24</v>
@@ -6613,7 +6647,7 @@
     </row>
     <row r="139" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B139" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G139" s="19" t="s">
         <v>24</v>
@@ -6629,8 +6663,8 @@
       <c r="T139" s="9"/>
     </row>
     <row r="140" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B140" s="19" t="s">
-        <v>278</v>
+      <c r="B140" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>24</v>
@@ -6646,26 +6680,37 @@
       <c r="T140" s="9"/>
     </row>
     <row r="141" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A141" s="9"/>
       <c r="B141" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G141" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K141" s="11"/>
-      <c r="O141" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S141" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
       <c r="T141" s="9"/>
     </row>
     <row r="142" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -6692,8 +6737,8 @@
     </row>
     <row r="143" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A143" s="9"/>
-      <c r="B143" s="9" t="s">
-        <v>281</v>
+      <c r="B143" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -6719,54 +6764,54 @@
       <c r="T143" s="9"/>
     </row>
     <row r="144" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
+      <c r="B144" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" s="11"/>
+      <c r="O144" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S144" s="11"/>
       <c r="T144" s="9"/>
     </row>
     <row r="145" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A145" s="9"/>
       <c r="B145" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K145" s="11"/>
-      <c r="O145" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S145" s="11"/>
+        <v>281</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
       <c r="T145" s="9"/>
     </row>
     <row r="146" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -6791,19 +6836,23 @@
       <c r="S146" s="9"/>
       <c r="T146" s="9"/>
     </row>
-    <row r="147" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="147" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C147" s="9"/>
+        <v>283</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H147" s="9"/>
+      <c r="H147" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
@@ -6819,23 +6868,17 @@
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
     </row>
-    <row r="148" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
+    <row r="148" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C148" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H148" s="9" t="s">
-        <v>288</v>
-      </c>
+      <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -6854,8 +6897,10 @@
     <row r="149" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>289</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9" t="s">
@@ -6880,7 +6925,7 @@
     <row r="150" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -6905,76 +6950,76 @@
       <c r="S150" s="9"/>
       <c r="T150" s="9"/>
     </row>
-    <row r="151" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9" t="s">
+    <row r="151" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
+      <c r="A151" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C151" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
-      <c r="N151" s="9"/>
-      <c r="O151" s="9"/>
-      <c r="P151" s="9"/>
-      <c r="Q151" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R151" s="9"/>
-      <c r="S151" s="9"/>
-      <c r="T151" s="9"/>
-    </row>
-    <row r="152" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
-      <c r="A152" s="14" t="s">
+      <c r="D151" s="14"/>
+      <c r="E151" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P151" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q151" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R151" s="14"/>
+      <c r="S151" s="14"/>
+      <c r="T151" s="14"/>
+    </row>
+    <row r="152" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B152" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="14"/>
-      <c r="K152" s="14"/>
-      <c r="L152" s="14"/>
-      <c r="M152" s="14"/>
-      <c r="N152" s="14"/>
-      <c r="O152" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P152" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q152" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="R152" s="14"/>
-      <c r="S152" s="14"/>
-      <c r="T152" s="14"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R152" s="9"/>
+      <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
     </row>
     <row r="153" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -7002,7 +7047,7 @@
     <row r="154" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -7029,8 +7074,8 @@
     </row>
     <row r="155" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A155" s="9"/>
-      <c r="B155" s="9" t="s">
-        <v>297</v>
+      <c r="B155" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -7056,64 +7101,64 @@
       <c r="T155" s="9"/>
     </row>
     <row r="156" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A156" s="9"/>
-      <c r="B156" s="19" t="s">
+      <c r="B156" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K156" s="11"/>
+      <c r="O156" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S156" s="11"/>
+      <c r="T156" s="9"/>
+    </row>
+    <row r="157" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
-      <c r="N156" s="9"/>
-      <c r="O156" s="9"/>
-      <c r="P156" s="9"/>
-      <c r="Q156" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R156" s="9"/>
-      <c r="S156" s="9"/>
-      <c r="T156" s="9"/>
-    </row>
-    <row r="157" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B157" s="9" t="s">
+      <c r="C157" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G157" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K157" s="11"/>
-      <c r="O157" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q157" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S157" s="11"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9">
+        <v>1</v>
+      </c>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R157" s="9"/>
+      <c r="S157" s="9"/>
       <c r="T157" s="9"/>
     </row>
     <row r="158" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="9"/>
+      <c r="B158" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9" t="s">
         <v>24</v>
@@ -7124,9 +7169,7 @@
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
-      <c r="N158" s="9">
-        <v>1</v>
-      </c>
+      <c r="N158" s="9"/>
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
       <c r="Q158" s="9" t="s">
@@ -7137,55 +7180,57 @@
       <c r="T158" s="9"/>
     </row>
     <row r="159" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A159" s="9"/>
-      <c r="B159" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
-      <c r="M159" s="9"/>
-      <c r="N159" s="9"/>
-      <c r="O159" s="9"/>
-      <c r="P159" s="9"/>
-      <c r="Q159" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R159" s="9"/>
-      <c r="S159" s="9"/>
+      <c r="B159" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K159" s="11"/>
+      <c r="N159" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O159" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S159" s="11"/>
       <c r="T159" s="9"/>
     </row>
     <row r="160" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A160" s="9"/>
       <c r="B160" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="G160" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K160" s="11"/>
-      <c r="N160" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O160" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q160" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S160" s="11"/>
+        <v>302</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R160" s="9"/>
+      <c r="S160" s="9"/>
       <c r="T160" s="9"/>
     </row>
     <row r="161" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A161" s="9"/>
       <c r="B161" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -7196,7 +7241,9 @@
       </c>
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
+      <c r="J161" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
@@ -7210,10 +7257,10 @@
       <c r="S161" s="9"/>
       <c r="T161" s="9"/>
     </row>
-    <row r="162" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="162" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A162" s="9"/>
       <c r="B162" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -7224,9 +7271,7 @@
       </c>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
-      <c r="J162" s="9" t="s">
-        <v>307</v>
-      </c>
+      <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
@@ -7240,10 +7285,10 @@
       <c r="S162" s="9"/>
       <c r="T162" s="9"/>
     </row>
-    <row r="163" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="163" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A163" s="9"/>
       <c r="B163" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -7271,7 +7316,7 @@
     <row r="164" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -7299,7 +7344,7 @@
     <row r="165" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -7327,7 +7372,7 @@
     <row r="166" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -7355,7 +7400,7 @@
     <row r="167" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -7383,7 +7428,7 @@
     <row r="168" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -7411,7 +7456,7 @@
     <row r="169" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -7439,7 +7484,7 @@
     <row r="170" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -7467,7 +7512,7 @@
     <row r="171" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -7495,7 +7540,7 @@
     <row r="172" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -7523,7 +7568,7 @@
     <row r="173" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -7550,8 +7595,8 @@
     </row>
     <row r="174" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A174" s="9"/>
-      <c r="B174" s="9" t="s">
-        <v>319</v>
+      <c r="B174" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -7562,7 +7607,9 @@
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
+      <c r="J174" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
       <c r="M174" s="9"/>
@@ -7578,10 +7625,12 @@
     </row>
     <row r="175" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A175" s="9"/>
-      <c r="B175" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C175" s="9"/>
+      <c r="B175" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>319</v>
+      </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
@@ -7589,10 +7638,10 @@
         <v>24</v>
       </c>
       <c r="H175" s="9"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9" t="s">
-        <v>248</v>
-      </c>
+      <c r="I175" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
       <c r="M175" s="9"/>
@@ -7611,9 +7660,7 @@
       <c r="B176" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C176" s="9" t="s">
-        <v>322</v>
-      </c>
+      <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
@@ -7621,9 +7668,7 @@
         <v>24</v>
       </c>
       <c r="H176" s="9"/>
-      <c r="I176" s="9" t="s">
-        <v>323</v>
-      </c>
+      <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
@@ -7641,7 +7686,7 @@
     <row r="177" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -7667,14 +7712,22 @@
       <c r="T177" s="9"/>
     </row>
     <row r="178" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A178" s="9"/>
+      <c r="A178" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="B178" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C178" s="9"/>
       <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
+      <c r="E178" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G178" s="9" t="s">
         <v>24</v>
       </c>
@@ -7695,78 +7748,59 @@
       <c r="T178" s="9"/>
     </row>
     <row r="179" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F179" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G179" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="9"/>
-      <c r="N179" s="9"/>
-      <c r="O179" s="9"/>
-      <c r="P179" s="9"/>
-      <c r="Q179" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R179" s="9"/>
-      <c r="S179" s="9"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
       <c r="T179" s="9"/>
     </row>
     <row r="180" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A180" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C180" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D180" s="18"/>
-      <c r="E180" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
-      <c r="L180" s="10"/>
-      <c r="M180" s="10"/>
-      <c r="N180" s="10"/>
-      <c r="O180" s="10"/>
-      <c r="P180" s="10"/>
-      <c r="Q180" s="10"/>
-      <c r="R180" s="10"/>
-      <c r="S180" s="10"/>
+      <c r="G180" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K180" s="11"/>
+      <c r="O180" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S180" s="11"/>
       <c r="T180" s="9"/>
     </row>
     <row r="181" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B181" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G181" s="19" t="s">
         <v>24</v>
@@ -7782,71 +7816,82 @@
       <c r="T181" s="9"/>
     </row>
     <row r="182" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B182" s="19" t="s">
+      <c r="A182" s="9"/>
+      <c r="B182" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R182" s="9"/>
+      <c r="S182" s="9"/>
+      <c r="T182" s="9"/>
+    </row>
+    <row r="183" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B183" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G183" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K183" s="11"/>
+      <c r="O183" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S183" s="11"/>
+      <c r="T183" s="9"/>
+    </row>
+    <row r="184" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G182" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K182" s="11"/>
-      <c r="O182" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q182" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S182" s="11"/>
-      <c r="T182" s="9"/>
-    </row>
-    <row r="183" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
-      <c r="K183" s="9"/>
-      <c r="L183" s="9"/>
-      <c r="M183" s="9"/>
-      <c r="N183" s="9"/>
-      <c r="O183" s="9"/>
-      <c r="P183" s="9"/>
-      <c r="Q183" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R183" s="9"/>
-      <c r="S183" s="9"/>
-      <c r="T183" s="9"/>
-    </row>
-    <row r="184" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B184" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G184" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K184" s="11"/>
-      <c r="O184" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q184" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S184" s="11"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="9"/>
+      <c r="O184" s="9"/>
+      <c r="P184" s="9"/>
+      <c r="Q184" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R184" s="9"/>
+      <c r="S184" s="9"/>
       <c r="T184" s="9"/>
     </row>
     <row r="185" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -7874,7 +7919,7 @@
     <row r="186" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
@@ -7902,7 +7947,7 @@
     <row r="187" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -7928,54 +7973,54 @@
       <c r="T187" s="9"/>
     </row>
     <row r="188" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H188" s="9"/>
-      <c r="I188" s="9"/>
-      <c r="J188" s="9"/>
-      <c r="K188" s="9"/>
-      <c r="L188" s="9"/>
-      <c r="M188" s="9"/>
-      <c r="N188" s="9"/>
-      <c r="O188" s="9"/>
-      <c r="P188" s="9"/>
-      <c r="Q188" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R188" s="9"/>
-      <c r="S188" s="9"/>
+      <c r="B188" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="G188" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K188" s="11"/>
+      <c r="O188" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S188" s="11"/>
       <c r="T188" s="9"/>
     </row>
     <row r="189" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B189" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="G189" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K189" s="11"/>
-      <c r="O189" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q189" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S189" s="11"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="9"/>
+      <c r="Q189" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R189" s="9"/>
+      <c r="S189" s="9"/>
       <c r="T189" s="9"/>
     </row>
-    <row r="190" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="190" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -8000,10 +8045,10 @@
       <c r="S190" s="9"/>
       <c r="T190" s="9"/>
     </row>
-    <row r="191" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="191" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -8031,7 +8076,7 @@
     <row r="192" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -8059,7 +8104,7 @@
     <row r="193" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -8087,7 +8132,7 @@
     <row r="194" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -8113,81 +8158,70 @@
       <c r="T194" s="9"/>
     </row>
     <row r="195" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="G195" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K195" s="11"/>
+      <c r="O195" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S195" s="11"/>
+      <c r="T195" s="9"/>
+    </row>
+    <row r="196" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A196" s="9"/>
+      <c r="B196" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+      <c r="O196" s="9"/>
+      <c r="P196" s="9"/>
+      <c r="Q196" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R196" s="9"/>
+      <c r="S196" s="9"/>
+      <c r="T196" s="9"/>
+    </row>
+    <row r="197" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B197" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H195" s="9"/>
-      <c r="I195" s="9"/>
-      <c r="J195" s="9"/>
-      <c r="K195" s="9"/>
-      <c r="L195" s="9"/>
-      <c r="M195" s="9"/>
-      <c r="N195" s="9"/>
-      <c r="O195" s="9"/>
-      <c r="P195" s="9"/>
-      <c r="Q195" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R195" s="9"/>
-      <c r="S195" s="9"/>
-      <c r="T195" s="9"/>
-    </row>
-    <row r="196" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B196" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="G196" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K196" s="11"/>
-      <c r="O196" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q196" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S196" s="11"/>
-      <c r="T196" s="9"/>
-    </row>
-    <row r="197" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H197" s="9"/>
-      <c r="I197" s="9"/>
-      <c r="J197" s="9"/>
-      <c r="K197" s="9"/>
-      <c r="L197" s="9"/>
-      <c r="M197" s="9"/>
-      <c r="N197" s="9"/>
-      <c r="O197" s="9"/>
-      <c r="P197" s="9"/>
-      <c r="Q197" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R197" s="9"/>
-      <c r="S197" s="9"/>
+      <c r="G197" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K197" s="11"/>
+      <c r="O197" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S197" s="11"/>
       <c r="T197" s="9"/>
     </row>
     <row r="198" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B198" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G198" s="19" t="s">
         <v>24</v>
@@ -8204,7 +8238,7 @@
     </row>
     <row r="199" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B199" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G199" s="19" t="s">
         <v>24</v>
@@ -8221,7 +8255,7 @@
     </row>
     <row r="200" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B200" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G200" s="19" t="s">
         <v>24</v>
@@ -8238,7 +8272,7 @@
     </row>
     <row r="201" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B201" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G201" s="19" t="s">
         <v>24</v>
@@ -8255,7 +8289,7 @@
     </row>
     <row r="202" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B202" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>24</v>
@@ -8271,71 +8305,82 @@
       <c r="T202" s="9"/>
     </row>
     <row r="203" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B203" s="19" t="s">
+      <c r="A203" s="9"/>
+      <c r="B203" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="9"/>
+      <c r="M203" s="9"/>
+      <c r="N203" s="9"/>
+      <c r="O203" s="9"/>
+      <c r="P203" s="9"/>
+      <c r="Q203" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R203" s="9"/>
+      <c r="S203" s="9"/>
+      <c r="T203" s="9"/>
+    </row>
+    <row r="204" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B204" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="G204" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K204" s="11"/>
+      <c r="O204" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S204" s="11"/>
+      <c r="T204" s="9"/>
+    </row>
+    <row r="205" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A205" s="9"/>
+      <c r="B205" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G203" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K203" s="11"/>
-      <c r="O203" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q203" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S203" s="11"/>
-      <c r="T203" s="9"/>
-    </row>
-    <row r="204" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H204" s="9"/>
-      <c r="I204" s="9"/>
-      <c r="J204" s="9"/>
-      <c r="K204" s="9"/>
-      <c r="L204" s="9"/>
-      <c r="M204" s="9"/>
-      <c r="N204" s="9"/>
-      <c r="O204" s="9"/>
-      <c r="P204" s="9"/>
-      <c r="Q204" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R204" s="9"/>
-      <c r="S204" s="9"/>
-      <c r="T204" s="9"/>
-    </row>
-    <row r="205" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B205" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="G205" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K205" s="11"/>
-      <c r="O205" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q205" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S205" s="11"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H205" s="9"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="9"/>
+      <c r="K205" s="9"/>
+      <c r="L205" s="9"/>
+      <c r="M205" s="9"/>
+      <c r="N205" s="9"/>
+      <c r="O205" s="9"/>
+      <c r="P205" s="9"/>
+      <c r="Q205" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R205" s="9"/>
+      <c r="S205" s="9"/>
       <c r="T205" s="9"/>
     </row>
     <row r="206" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -8363,7 +8408,7 @@
     <row r="207" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -8391,7 +8436,7 @@
     <row r="208" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -8417,39 +8462,31 @@
       <c r="T208" s="9"/>
     </row>
     <row r="209" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G209" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K209" s="11"/>
+      <c r="O209" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S209" s="11"/>
+      <c r="T209" s="9"/>
+    </row>
+    <row r="210" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B210" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="G210" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J210" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H209" s="9"/>
-      <c r="I209" s="9"/>
-      <c r="J209" s="9"/>
-      <c r="K209" s="9"/>
-      <c r="L209" s="9"/>
-      <c r="M209" s="9"/>
-      <c r="N209" s="9"/>
-      <c r="O209" s="9"/>
-      <c r="P209" s="9"/>
-      <c r="Q209" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R209" s="9"/>
-      <c r="S209" s="9"/>
-      <c r="T209" s="9"/>
-    </row>
-    <row r="210" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B210" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="G210" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="K210" s="11"/>
       <c r="O210" s="19">
@@ -8461,30 +8498,38 @@
       <c r="S210" s="11"/>
       <c r="T210" s="9"/>
     </row>
-    <row r="211" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="B211" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="G211" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J211" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="K211" s="11"/>
-      <c r="O211" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q211" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S211" s="11"/>
+    <row r="211" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A211" s="9"/>
+      <c r="B211" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
+      <c r="M211" s="9"/>
+      <c r="N211" s="9"/>
+      <c r="O211" s="9"/>
+      <c r="P211" s="9"/>
+      <c r="Q211" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R211" s="9"/>
+      <c r="S211" s="9"/>
       <c r="T211" s="9"/>
     </row>
-    <row r="212" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="212" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -8512,7 +8557,7 @@
     <row r="213" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -8537,10 +8582,10 @@
       <c r="S213" s="9"/>
       <c r="T213" s="9"/>
     </row>
-    <row r="214" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="214" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -8568,7 +8613,7 @@
     <row r="215" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -8596,7 +8641,7 @@
     <row r="216" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -8622,54 +8667,54 @@
       <c r="T216" s="9"/>
     </row>
     <row r="217" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="9"/>
-      <c r="L217" s="9"/>
-      <c r="M217" s="9"/>
-      <c r="N217" s="9"/>
-      <c r="O217" s="9"/>
-      <c r="P217" s="9"/>
-      <c r="Q217" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R217" s="9"/>
-      <c r="S217" s="9"/>
+      <c r="B217" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="G217" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K217" s="11"/>
+      <c r="O217" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S217" s="11"/>
       <c r="T217" s="9"/>
     </row>
-    <row r="218" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B218" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="G218" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K218" s="11"/>
-      <c r="O218" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q218" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S218" s="11"/>
+    <row r="218" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A218" s="9"/>
+      <c r="B218" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
+      <c r="L218" s="9"/>
+      <c r="M218" s="9"/>
+      <c r="N218" s="9"/>
+      <c r="O218" s="9"/>
+      <c r="P218" s="9"/>
+      <c r="Q218" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R218" s="9"/>
+      <c r="S218" s="9"/>
       <c r="T218" s="9"/>
     </row>
     <row r="219" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -8697,7 +8742,7 @@
     <row r="220" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -8708,7 +8753,9 @@
       </c>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
-      <c r="J220" s="9"/>
+      <c r="J220" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="K220" s="9"/>
       <c r="L220" s="9"/>
       <c r="M220" s="9"/>
@@ -8725,7 +8772,7 @@
     <row r="221" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A221" s="9"/>
       <c r="B221" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -8736,9 +8783,7 @@
       </c>
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
-      <c r="J221" s="9" t="s">
-        <v>375</v>
-      </c>
+      <c r="J221" s="9"/>
       <c r="K221" s="9"/>
       <c r="L221" s="9"/>
       <c r="M221" s="9"/>
@@ -8752,55 +8797,55 @@
       <c r="S221" s="9"/>
       <c r="T221" s="9"/>
     </row>
-    <row r="222" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H222" s="9"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="9"/>
-      <c r="L222" s="9"/>
-      <c r="M222" s="9"/>
-      <c r="N222" s="9"/>
-      <c r="O222" s="9"/>
-      <c r="P222" s="9"/>
-      <c r="Q222" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R222" s="9"/>
-      <c r="S222" s="9"/>
+    <row r="222" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B222" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G222" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K222" s="11"/>
+      <c r="O222" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S222" s="11"/>
       <c r="T222" s="9"/>
     </row>
     <row r="223" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B223" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G223" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K223" s="11"/>
-      <c r="O223" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q223" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S223" s="11"/>
+      <c r="A223" s="9"/>
+      <c r="B223" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H223" s="9"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
+      <c r="L223" s="9"/>
+      <c r="M223" s="9"/>
+      <c r="N223" s="9"/>
+      <c r="O223" s="9"/>
+      <c r="P223" s="9"/>
+      <c r="Q223" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R223" s="9"/>
+      <c r="S223" s="9"/>
       <c r="T223" s="9"/>
     </row>
     <row r="224" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -8828,7 +8873,7 @@
     <row r="225" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -8856,7 +8901,7 @@
     <row r="226" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A226" s="9"/>
       <c r="B226" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
@@ -8884,7 +8929,7 @@
     <row r="227" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
@@ -8912,7 +8957,7 @@
     <row r="228" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -8940,7 +8985,7 @@
     <row r="229" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -8968,7 +9013,7 @@
     <row r="230" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -8996,7 +9041,7 @@
     <row r="231" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -9021,10 +9066,10 @@
       <c r="S231" s="9"/>
       <c r="T231" s="9"/>
     </row>
-    <row r="232" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="232" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -9049,10 +9094,10 @@
       <c r="S232" s="9"/>
       <c r="T232" s="9"/>
     </row>
-    <row r="233" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="233" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -9078,36 +9123,25 @@
       <c r="T233" s="9"/>
     </row>
     <row r="234" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A234" s="9"/>
-      <c r="B234" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H234" s="9"/>
-      <c r="I234" s="9"/>
-      <c r="J234" s="9"/>
-      <c r="K234" s="9"/>
-      <c r="L234" s="9"/>
-      <c r="M234" s="9"/>
-      <c r="N234" s="9"/>
-      <c r="O234" s="9"/>
-      <c r="P234" s="9"/>
-      <c r="Q234" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R234" s="9"/>
-      <c r="S234" s="9"/>
+      <c r="B234" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G234" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K234" s="11"/>
+      <c r="O234" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q234" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S234" s="11"/>
       <c r="T234" s="9"/>
     </row>
     <row r="235" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B235" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G235" s="19" t="s">
         <v>24</v>
@@ -9122,9 +9156,12 @@
       <c r="S235" s="11"/>
       <c r="T235" s="9"/>
     </row>
-    <row r="236" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="236" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="B236" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="G236" s="19" t="s">
         <v>24</v>
@@ -9139,12 +9176,9 @@
       <c r="S236" s="11"/>
       <c r="T236" s="9"/>
     </row>
-    <row r="237" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+    <row r="237" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B237" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="C237" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G237" s="19" t="s">
         <v>24</v>
@@ -9160,26 +9194,37 @@
       <c r="T237" s="9"/>
     </row>
     <row r="238" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B238" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="G238" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K238" s="11"/>
-      <c r="O238" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q238" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S238" s="11"/>
+      <c r="A238" s="9"/>
+      <c r="B238" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+      <c r="L238" s="9"/>
+      <c r="M238" s="9"/>
+      <c r="N238" s="9"/>
+      <c r="O238" s="9"/>
+      <c r="P238" s="9"/>
+      <c r="Q238" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R238" s="9"/>
+      <c r="S238" s="9"/>
       <c r="T238" s="9"/>
     </row>
     <row r="239" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -9207,7 +9252,7 @@
     <row r="240" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -9235,7 +9280,7 @@
     <row r="241" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -9263,7 +9308,7 @@
     <row r="242" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -9291,7 +9336,7 @@
     <row r="243" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -9319,7 +9364,7 @@
     <row r="244" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -9347,7 +9392,7 @@
     <row r="245" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -9375,7 +9420,7 @@
     <row r="246" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -9403,7 +9448,7 @@
     <row r="247" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -9414,7 +9459,9 @@
       </c>
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
-      <c r="J247" s="9"/>
+      <c r="J247" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="K247" s="9"/>
       <c r="L247" s="9"/>
       <c r="M247" s="9"/>
@@ -9431,7 +9478,7 @@
     <row r="248" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -9442,9 +9489,7 @@
       </c>
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
-      <c r="J248" s="9" t="s">
-        <v>403</v>
-      </c>
+      <c r="J248" s="9"/>
       <c r="K248" s="9"/>
       <c r="L248" s="9"/>
       <c r="M248" s="9"/>
@@ -9461,7 +9506,7 @@
     <row r="249" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -9489,7 +9534,7 @@
     <row r="250" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -9517,7 +9562,7 @@
     <row r="251" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -9542,12 +9587,14 @@
       <c r="S251" s="9"/>
       <c r="T251" s="9"/>
     </row>
-    <row r="252" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="252" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C252" s="9"/>
+        <v>405</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>406</v>
+      </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
@@ -9570,14 +9617,12 @@
       <c r="S252" s="9"/>
       <c r="T252" s="9"/>
     </row>
-    <row r="253" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="253" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>409</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
@@ -9603,7 +9648,7 @@
     <row r="254" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
@@ -9631,7 +9676,7 @@
     <row r="255" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -9659,7 +9704,7 @@
     <row r="256" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
@@ -9687,7 +9732,7 @@
     <row r="257" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
@@ -9713,13 +9758,19 @@
       <c r="T257" s="9"/>
     </row>
     <row r="258" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A258" s="9"/>
+      <c r="A258" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="B258" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C258" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C258" s="9"/>
       <c r="D258" s="9"/>
-      <c r="E258" s="9"/>
+      <c r="E258" s="9" t="s">
+        <v>684</v>
+      </c>
       <c r="F258" s="9"/>
       <c r="G258" s="9" t="s">
         <v>24</v>
@@ -9733,51 +9784,34 @@
       <c r="N258" s="9"/>
       <c r="O258" s="9"/>
       <c r="P258" s="9"/>
-      <c r="Q258" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q258" s="9"/>
       <c r="R258" s="9"/>
       <c r="S258" s="9"/>
       <c r="T258" s="9"/>
     </row>
-    <row r="259" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A259" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B259" s="9" t="s">
+    <row r="259" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B259" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C259" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="C259" s="9" t="s">
+      <c r="G259" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K259" s="11"/>
+      <c r="O259" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q259" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S259" s="11"/>
+      <c r="T259" s="9"/>
+    </row>
+    <row r="260" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B260" s="19" t="s">
         <v>417</v>
-      </c>
-      <c r="D259" s="9"/>
-      <c r="E259" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="F259" s="9"/>
-      <c r="G259" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H259" s="9"/>
-      <c r="I259" s="9"/>
-      <c r="J259" s="9"/>
-      <c r="K259" s="9"/>
-      <c r="L259" s="9"/>
-      <c r="M259" s="9"/>
-      <c r="N259" s="9"/>
-      <c r="O259" s="9"/>
-      <c r="P259" s="9"/>
-      <c r="Q259" s="9"/>
-      <c r="R259" s="9"/>
-      <c r="S259" s="9"/>
-      <c r="T259" s="9"/>
-    </row>
-    <row r="260" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="B260" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C260" s="19" t="s">
-        <v>419</v>
       </c>
       <c r="G260" s="19" t="s">
         <v>24</v>
@@ -9792,56 +9826,67 @@
       <c r="S260" s="11"/>
       <c r="T260" s="9"/>
     </row>
-    <row r="261" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B261" s="19" t="s">
+    <row r="261" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
+      <c r="A261" t="s">
+        <v>418</v>
+      </c>
+      <c r="B261" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C261" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="G261" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K261" s="11"/>
-      <c r="O261" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q261" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S261" s="11"/>
-      <c r="T261" s="9"/>
-    </row>
-    <row r="262" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
-      <c r="A262" t="s">
+      <c r="E261" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="G261" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K261" s="26"/>
+      <c r="O261" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P261" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q261" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S261" s="26"/>
+      <c r="T261" s="28"/>
+    </row>
+    <row r="262" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A262" s="9"/>
+      <c r="B262" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B262" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="C262" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="E262" s="27" t="s">
-        <v>685</v>
-      </c>
-      <c r="G262" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K262" s="26"/>
-      <c r="O262" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P262" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q262" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="S262" s="26"/>
-      <c r="T262" s="28"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H262" s="9"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="9"/>
+      <c r="K262" s="9"/>
+      <c r="L262" s="9"/>
+      <c r="M262" s="9"/>
+      <c r="N262" s="9"/>
+      <c r="O262" s="9"/>
+      <c r="P262" s="9"/>
+      <c r="Q262" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R262" s="9"/>
+      <c r="S262" s="9"/>
+      <c r="T262" s="9"/>
     </row>
     <row r="263" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A263" s="9"/>
       <c r="B263" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
@@ -9869,7 +9914,7 @@
     <row r="264" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A264" s="9"/>
       <c r="B264" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
@@ -9897,7 +9942,7 @@
     <row r="265" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A265" s="9"/>
       <c r="B265" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -9925,7 +9970,7 @@
     <row r="266" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
@@ -9951,63 +9996,63 @@
       <c r="T266" s="9"/>
     </row>
     <row r="267" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A267" s="9"/>
-      <c r="B267" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="9"/>
-      <c r="F267" s="9"/>
-      <c r="G267" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H267" s="9"/>
-      <c r="I267" s="9"/>
-      <c r="J267" s="9"/>
-      <c r="K267" s="9"/>
-      <c r="L267" s="9"/>
-      <c r="M267" s="9"/>
-      <c r="N267" s="9"/>
-      <c r="O267" s="9"/>
-      <c r="P267" s="9"/>
-      <c r="Q267" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R267" s="9"/>
-      <c r="S267" s="9"/>
+      <c r="A267" s="10"/>
+      <c r="B267" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C267" s="10"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="O267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="10"/>
+      <c r="R267" s="10"/>
+      <c r="S267" s="10"/>
       <c r="T267" s="9"/>
     </row>
     <row r="268" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A268" s="10"/>
-      <c r="B268" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C268" s="10"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
-      <c r="G268" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H268" s="10"/>
-      <c r="I268" s="10"/>
-      <c r="J268" s="10"/>
-      <c r="K268" s="10"/>
-      <c r="L268" s="10"/>
-      <c r="M268" s="10"/>
-      <c r="N268" s="10"/>
-      <c r="O268" s="10"/>
-      <c r="P268" s="10"/>
-      <c r="Q268" s="10"/>
-      <c r="R268" s="10"/>
-      <c r="S268" s="10"/>
+      <c r="A268" s="9"/>
+      <c r="B268" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H268" s="9"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
+      <c r="L268" s="9"/>
+      <c r="M268" s="9"/>
+      <c r="N268" s="9"/>
+      <c r="O268" s="9"/>
+      <c r="P268" s="9"/>
+      <c r="Q268" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R268" s="9"/>
+      <c r="S268" s="9"/>
       <c r="T268" s="9"/>
     </row>
     <row r="269" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
@@ -10035,7 +10080,7 @@
     <row r="270" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
@@ -10063,7 +10108,7 @@
     <row r="271" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A271" s="9"/>
       <c r="B271" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
@@ -10091,7 +10136,7 @@
     <row r="272" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
@@ -10116,79 +10161,81 @@
       <c r="S272" s="9"/>
       <c r="T272" s="9"/>
     </row>
-    <row r="273" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A273" s="9"/>
-      <c r="B273" s="9" t="s">
+    <row r="273" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+      <c r="A273" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C273" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
-      <c r="E273" s="9"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H273" s="9"/>
-      <c r="I273" s="9"/>
-      <c r="J273" s="9"/>
-      <c r="K273" s="9"/>
-      <c r="L273" s="9"/>
-      <c r="M273" s="9"/>
-      <c r="N273" s="9"/>
-      <c r="O273" s="9"/>
-      <c r="P273" s="9"/>
-      <c r="Q273" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E273" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G273" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H273" s="10"/>
+      <c r="I273" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="J273" s="10"/>
+      <c r="K273" s="10"/>
+      <c r="L273" s="10"/>
+      <c r="M273" s="10">
+        <v>1</v>
+      </c>
+      <c r="N273" s="10"/>
+      <c r="O273" s="10"/>
+      <c r="P273" s="10"/>
+      <c r="Q273" s="10"/>
       <c r="R273" s="9"/>
       <c r="S273" s="9"/>
       <c r="T273" s="9"/>
     </row>
-    <row r="274" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
-      <c r="A274" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B274" s="11" t="s">
+    <row r="274" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A274" s="9"/>
+      <c r="B274" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C274" s="12" t="s">
+      <c r="C274" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="E274" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="F274" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G274" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H274" s="10"/>
-      <c r="I274" s="11" t="s">
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H274" s="9"/>
+      <c r="I274" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J274" s="10"/>
-      <c r="K274" s="10"/>
-      <c r="L274" s="10"/>
-      <c r="M274" s="10">
-        <v>1</v>
-      </c>
-      <c r="N274" s="10"/>
-      <c r="O274" s="10"/>
-      <c r="P274" s="10"/>
-      <c r="Q274" s="10"/>
+      <c r="J274" s="9"/>
+      <c r="K274" s="9"/>
+      <c r="L274" s="9"/>
+      <c r="M274" s="9"/>
+      <c r="N274" s="9"/>
+      <c r="O274" s="9"/>
+      <c r="P274" s="9"/>
+      <c r="Q274" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R274" s="9"/>
       <c r="S274" s="9"/>
       <c r="T274" s="9"/>
     </row>
-    <row r="275" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="275" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C275" s="9" t="s">
-        <v>440</v>
-      </c>
+      <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
@@ -10196,9 +10243,7 @@
         <v>24</v>
       </c>
       <c r="H275" s="9"/>
-      <c r="I275" s="9" t="s">
-        <v>441</v>
-      </c>
+      <c r="I275" s="9"/>
       <c r="J275" s="9"/>
       <c r="K275" s="9"/>
       <c r="L275" s="9"/>
@@ -10214,36 +10259,25 @@
       <c r="T275" s="9"/>
     </row>
     <row r="276" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A276" s="9"/>
-      <c r="B276" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9"/>
-      <c r="E276" s="9"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H276" s="9"/>
-      <c r="I276" s="9"/>
-      <c r="J276" s="9"/>
-      <c r="K276" s="9"/>
-      <c r="L276" s="9"/>
-      <c r="M276" s="9"/>
-      <c r="N276" s="9"/>
-      <c r="O276" s="9"/>
-      <c r="P276" s="9"/>
-      <c r="Q276" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R276" s="9"/>
-      <c r="S276" s="9"/>
+      <c r="B276" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="G276" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K276" s="11"/>
+      <c r="O276" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q276" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S276" s="11"/>
       <c r="T276" s="9"/>
     </row>
     <row r="277" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B277" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G277" s="19" t="s">
         <v>24</v>
@@ -10258,9 +10292,12 @@
       <c r="S277" s="11"/>
       <c r="T277" s="9"/>
     </row>
-    <row r="278" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="278" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B278" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="G278" s="19" t="s">
         <v>24</v>
@@ -10275,12 +10312,9 @@
       <c r="S278" s="11"/>
       <c r="T278" s="9"/>
     </row>
-    <row r="279" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="279" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B279" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C279" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G279" s="19" t="s">
         <v>24</v>
@@ -10297,7 +10331,7 @@
     </row>
     <row r="280" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B280" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G280" s="19" t="s">
         <v>24</v>
@@ -10314,7 +10348,7 @@
     </row>
     <row r="281" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B281" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G281" s="19" t="s">
         <v>24</v>
@@ -10331,7 +10365,7 @@
     </row>
     <row r="282" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B282" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G282" s="19" t="s">
         <v>24</v>
@@ -10348,7 +10382,7 @@
     </row>
     <row r="283" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B283" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G283" s="19" t="s">
         <v>24</v>
@@ -10365,7 +10399,7 @@
     </row>
     <row r="284" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B284" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G284" s="19" t="s">
         <v>24</v>
@@ -10382,7 +10416,7 @@
     </row>
     <row r="285" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B285" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G285" s="19" t="s">
         <v>24</v>
@@ -10399,7 +10433,7 @@
     </row>
     <row r="286" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B286" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G286" s="19" t="s">
         <v>24</v>
@@ -10416,7 +10450,7 @@
     </row>
     <row r="287" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B287" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G287" s="19" t="s">
         <v>24</v>
@@ -10433,7 +10467,7 @@
     </row>
     <row r="288" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B288" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G288" s="19" t="s">
         <v>24</v>
@@ -10450,7 +10484,7 @@
     </row>
     <row r="289" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B289" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G289" s="19" t="s">
         <v>24</v>
@@ -10467,7 +10501,7 @@
     </row>
     <row r="290" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B290" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>24</v>
@@ -10484,7 +10518,7 @@
     </row>
     <row r="291" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B291" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G291" s="19" t="s">
         <v>24</v>
@@ -10501,7 +10535,7 @@
     </row>
     <row r="292" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B292" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G292" s="19" t="s">
         <v>24</v>
@@ -10517,26 +10551,37 @@
       <c r="T292" s="9"/>
     </row>
     <row r="293" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B293" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="G293" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K293" s="11"/>
-      <c r="O293" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q293" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S293" s="11"/>
+      <c r="A293" s="9"/>
+      <c r="B293" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H293" s="9"/>
+      <c r="I293" s="9"/>
+      <c r="J293" s="9"/>
+      <c r="K293" s="9"/>
+      <c r="L293" s="9"/>
+      <c r="M293" s="9"/>
+      <c r="N293" s="9"/>
+      <c r="O293" s="9"/>
+      <c r="P293" s="9"/>
+      <c r="Q293" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R293" s="9"/>
+      <c r="S293" s="9"/>
       <c r="T293" s="9"/>
     </row>
     <row r="294" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A294" s="9"/>
       <c r="B294" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
@@ -10564,7 +10609,7 @@
     <row r="295" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A295" s="9"/>
       <c r="B295" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -10590,54 +10635,54 @@
       <c r="T295" s="9"/>
     </row>
     <row r="296" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A296" s="9"/>
-      <c r="B296" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="E296" s="9"/>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H296" s="9"/>
-      <c r="I296" s="9"/>
-      <c r="J296" s="9"/>
-      <c r="K296" s="9"/>
-      <c r="L296" s="9"/>
-      <c r="M296" s="9"/>
-      <c r="N296" s="9"/>
-      <c r="O296" s="9"/>
-      <c r="P296" s="9"/>
-      <c r="Q296" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R296" s="9"/>
-      <c r="S296" s="9"/>
+      <c r="B296" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="G296" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K296" s="11"/>
+      <c r="O296" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S296" s="11"/>
       <c r="T296" s="9"/>
     </row>
     <row r="297" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B297" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="G297" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K297" s="11"/>
-      <c r="O297" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q297" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S297" s="11"/>
+      <c r="A297" s="9"/>
+      <c r="B297" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H297" s="9"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="9"/>
+      <c r="L297" s="9"/>
+      <c r="M297" s="9"/>
+      <c r="N297" s="9"/>
+      <c r="O297" s="9"/>
+      <c r="P297" s="9"/>
+      <c r="Q297" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R297" s="9"/>
+      <c r="S297" s="9"/>
       <c r="T297" s="9"/>
     </row>
     <row r="298" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -10648,7 +10693,9 @@
       </c>
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
-      <c r="J298" s="9"/>
+      <c r="J298" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
       <c r="M298" s="9"/>
@@ -10665,7 +10712,7 @@
     <row r="299" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -10676,9 +10723,7 @@
       </c>
       <c r="H299" s="9"/>
       <c r="I299" s="9"/>
-      <c r="J299" s="9" t="s">
-        <v>467</v>
-      </c>
+      <c r="J299" s="9"/>
       <c r="K299" s="9"/>
       <c r="L299" s="9"/>
       <c r="M299" s="9"/>
@@ -10695,7 +10740,7 @@
     <row r="300" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
@@ -10721,36 +10766,25 @@
       <c r="T300" s="9"/>
     </row>
     <row r="301" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A301" s="9"/>
-      <c r="B301" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
-      <c r="E301" s="9"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H301" s="9"/>
-      <c r="I301" s="9"/>
-      <c r="J301" s="9"/>
-      <c r="K301" s="9"/>
-      <c r="L301" s="9"/>
-      <c r="M301" s="9"/>
-      <c r="N301" s="9"/>
-      <c r="O301" s="9"/>
-      <c r="P301" s="9"/>
-      <c r="Q301" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R301" s="9"/>
-      <c r="S301" s="9"/>
+      <c r="B301" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="G301" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K301" s="11"/>
+      <c r="O301" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S301" s="11"/>
       <c r="T301" s="9"/>
     </row>
-    <row r="302" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="302" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B302" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G302" s="19" t="s">
         <v>24</v>
@@ -10765,27 +10799,38 @@
       <c r="S302" s="11"/>
       <c r="T302" s="9"/>
     </row>
-    <row r="303" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="B303" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="G303" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K303" s="11"/>
-      <c r="O303" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q303" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S303" s="11"/>
+    <row r="303" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A303" s="9"/>
+      <c r="B303" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="9"/>
+      <c r="N303" s="9"/>
+      <c r="O303" s="9"/>
+      <c r="P303" s="9"/>
+      <c r="Q303" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R303" s="9"/>
+      <c r="S303" s="9"/>
       <c r="T303" s="9"/>
     </row>
     <row r="304" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -10813,7 +10858,7 @@
     <row r="305" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
@@ -10841,7 +10886,7 @@
     <row r="306" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
@@ -10869,7 +10914,7 @@
     <row r="307" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -10897,7 +10942,7 @@
     <row r="308" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
@@ -10925,7 +10970,7 @@
     <row r="309" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
@@ -10953,7 +10998,7 @@
     <row r="310" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
@@ -10981,7 +11026,7 @@
     <row r="311" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
@@ -11009,7 +11054,7 @@
     <row r="312" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
@@ -11035,99 +11080,99 @@
       <c r="T312" s="9"/>
     </row>
     <row r="313" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A313" s="9"/>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G313" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K313" s="11"/>
+      <c r="O313" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q313" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S313" s="11"/>
+      <c r="T313" s="9"/>
+    </row>
+    <row r="314" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A314" s="9"/>
+      <c r="B314" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C314" s="9"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H314" s="9"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="9"/>
+      <c r="K314" s="9"/>
+      <c r="L314" s="9"/>
+      <c r="M314" s="9"/>
+      <c r="N314" s="9"/>
+      <c r="O314" s="9"/>
+      <c r="P314" s="9"/>
+      <c r="Q314" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R314" s="9"/>
+      <c r="S314" s="9"/>
+      <c r="T314" s="9"/>
+    </row>
+    <row r="315" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B315" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C313" s="9"/>
-      <c r="D313" s="9"/>
-      <c r="E313" s="9"/>
-      <c r="F313" s="9"/>
-      <c r="G313" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H313" s="9"/>
-      <c r="I313" s="9"/>
-      <c r="J313" s="9"/>
-      <c r="K313" s="9"/>
-      <c r="L313" s="9"/>
-      <c r="M313" s="9"/>
-      <c r="N313" s="9"/>
-      <c r="O313" s="9"/>
-      <c r="P313" s="9"/>
-      <c r="Q313" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R313" s="9"/>
-      <c r="S313" s="9"/>
-      <c r="T313" s="9"/>
-    </row>
-    <row r="314" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B314" s="19" t="s">
+      <c r="G315" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K315" s="11"/>
+      <c r="O315" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S315" s="11"/>
+      <c r="T315" s="9"/>
+    </row>
+    <row r="316" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A316" s="9"/>
+      <c r="B316" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="G314" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K314" s="11"/>
-      <c r="O314" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q314" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S314" s="11"/>
-      <c r="T314" s="9"/>
-    </row>
-    <row r="315" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A315" s="9"/>
-      <c r="B315" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C315" s="9"/>
-      <c r="D315" s="9"/>
-      <c r="E315" s="9"/>
-      <c r="F315" s="9"/>
-      <c r="G315" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H315" s="9"/>
-      <c r="I315" s="9"/>
-      <c r="J315" s="9"/>
-      <c r="K315" s="9"/>
-      <c r="L315" s="9"/>
-      <c r="M315" s="9"/>
-      <c r="N315" s="9"/>
-      <c r="O315" s="9"/>
-      <c r="P315" s="9"/>
-      <c r="Q315" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R315" s="9"/>
-      <c r="S315" s="9"/>
-      <c r="T315" s="9"/>
-    </row>
-    <row r="316" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B316" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="G316" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K316" s="11"/>
-      <c r="O316" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q316" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S316" s="11"/>
+      <c r="C316" s="9"/>
+      <c r="D316" s="9"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H316" s="9"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="9"/>
+      <c r="K316" s="9"/>
+      <c r="L316" s="9"/>
+      <c r="M316" s="9"/>
+      <c r="N316" s="9"/>
+      <c r="O316" s="9"/>
+      <c r="P316" s="9"/>
+      <c r="Q316" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R316" s="9"/>
+      <c r="S316" s="9"/>
       <c r="T316" s="9"/>
     </row>
     <row r="317" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A317" s="9"/>
       <c r="B317" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
@@ -11155,7 +11200,7 @@
     <row r="318" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A318" s="9"/>
       <c r="B318" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
@@ -11183,7 +11228,7 @@
     <row r="319" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A319" s="9"/>
       <c r="B319" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
@@ -11211,7 +11256,7 @@
     <row r="320" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A320" s="9"/>
       <c r="B320" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
@@ -11239,7 +11284,7 @@
     <row r="321" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
@@ -11267,7 +11312,7 @@
     <row r="322" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
@@ -11295,7 +11340,7 @@
     <row r="323" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -11323,7 +11368,7 @@
     <row r="324" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -11351,7 +11396,7 @@
     <row r="325" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -11377,39 +11422,28 @@
       <c r="T325" s="9"/>
     </row>
     <row r="326" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A326" s="9"/>
-      <c r="B326" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C326" s="9"/>
-      <c r="D326" s="9"/>
-      <c r="E326" s="9"/>
-      <c r="F326" s="9"/>
-      <c r="G326" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H326" s="9"/>
-      <c r="I326" s="9"/>
-      <c r="J326" s="9"/>
-      <c r="K326" s="9"/>
-      <c r="L326" s="9"/>
-      <c r="M326" s="9"/>
-      <c r="N326" s="9"/>
-      <c r="O326" s="9"/>
-      <c r="P326" s="9"/>
-      <c r="Q326" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R326" s="9"/>
-      <c r="S326" s="9"/>
+      <c r="B326" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="G326" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K326" s="11"/>
+      <c r="O326" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q326" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S326" s="11"/>
       <c r="T326" s="9"/>
     </row>
     <row r="327" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B327" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="C327" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G327" s="19" t="s">
         <v>24</v>
@@ -11425,26 +11459,37 @@
       <c r="T327" s="9"/>
     </row>
     <row r="328" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B328" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="G328" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K328" s="11"/>
-      <c r="O328" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q328" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S328" s="11"/>
+      <c r="A328" s="9"/>
+      <c r="B328" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H328" s="9"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="9"/>
+      <c r="L328" s="9"/>
+      <c r="M328" s="9"/>
+      <c r="N328" s="9"/>
+      <c r="O328" s="9"/>
+      <c r="P328" s="9"/>
+      <c r="Q328" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R328" s="9"/>
+      <c r="S328" s="9"/>
       <c r="T328" s="9"/>
     </row>
     <row r="329" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A329" s="9"/>
       <c r="B329" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
@@ -11470,42 +11515,34 @@
       <c r="T329" s="9"/>
     </row>
     <row r="330" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A330" s="9"/>
-      <c r="B330" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C330" s="9"/>
-      <c r="D330" s="9"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="9"/>
-      <c r="G330" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H330" s="9"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-      <c r="K330" s="9"/>
-      <c r="L330" s="9"/>
-      <c r="M330" s="9"/>
-      <c r="N330" s="9"/>
-      <c r="O330" s="9"/>
-      <c r="P330" s="9"/>
-      <c r="Q330" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R330" s="9"/>
-      <c r="S330" s="9"/>
+      <c r="B330" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G330" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J330" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="K330" s="11"/>
+      <c r="O330" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q330" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S330" s="11"/>
       <c r="T330" s="9"/>
     </row>
     <row r="331" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B331" s="19" t="s">
-        <v>36</v>
+        <v>498</v>
       </c>
       <c r="G331" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J331" s="19" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="K331" s="11"/>
       <c r="O331" s="19">
@@ -11519,13 +11556,10 @@
     </row>
     <row r="332" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B332" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G332" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J332" s="19" t="s">
-        <v>456</v>
       </c>
       <c r="K332" s="11"/>
       <c r="O332" s="19">
@@ -11539,10 +11573,13 @@
     </row>
     <row r="333" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B333" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G333" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="J333" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="K333" s="11"/>
       <c r="O333" s="19">
@@ -11556,13 +11593,10 @@
     </row>
     <row r="334" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B334" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G334" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J334" s="19" t="s">
-        <v>459</v>
       </c>
       <c r="K334" s="11"/>
       <c r="O334" s="19">
@@ -11576,7 +11610,7 @@
     </row>
     <row r="335" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B335" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G335" s="19" t="s">
         <v>24</v>
@@ -11593,7 +11627,7 @@
     </row>
     <row r="336" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B336" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G336" s="19" t="s">
         <v>24</v>
@@ -11610,7 +11644,7 @@
     </row>
     <row r="337" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B337" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>24</v>
@@ -11627,7 +11661,7 @@
     </row>
     <row r="338" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B338" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G338" s="19" t="s">
         <v>24</v>
@@ -11644,7 +11678,7 @@
     </row>
     <row r="339" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B339" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G339" s="19" t="s">
         <v>24</v>
@@ -11660,26 +11694,37 @@
       <c r="T339" s="9"/>
     </row>
     <row r="340" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B340" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="G340" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K340" s="11"/>
-      <c r="O340" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q340" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S340" s="11"/>
+      <c r="A340" s="9"/>
+      <c r="B340" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C340" s="9"/>
+      <c r="D340" s="9"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="9"/>
+      <c r="G340" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H340" s="9"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="9"/>
+      <c r="K340" s="9"/>
+      <c r="L340" s="9"/>
+      <c r="M340" s="9"/>
+      <c r="N340" s="9"/>
+      <c r="O340" s="9"/>
+      <c r="P340" s="9"/>
+      <c r="Q340" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R340" s="9"/>
+      <c r="S340" s="9"/>
       <c r="T340" s="9"/>
     </row>
     <row r="341" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A341" s="9"/>
       <c r="B341" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -11707,7 +11752,7 @@
     <row r="342" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A342" s="9"/>
       <c r="B342" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -11732,10 +11777,10 @@
       <c r="S342" s="9"/>
       <c r="T342" s="9"/>
     </row>
-    <row r="343" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="343" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A343" s="9"/>
       <c r="B343" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -11760,10 +11805,10 @@
       <c r="S343" s="9"/>
       <c r="T343" s="9"/>
     </row>
-    <row r="344" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="344" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A344" s="9"/>
       <c r="B344" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -11791,7 +11836,7 @@
     <row r="345" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A345" s="9"/>
       <c r="B345" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -11816,43 +11861,46 @@
       <c r="S345" s="9"/>
       <c r="T345" s="9"/>
     </row>
-    <row r="346" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A346" s="9"/>
-      <c r="B346" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C346" s="9"/>
-      <c r="D346" s="9"/>
-      <c r="E346" s="9"/>
-      <c r="F346" s="9"/>
-      <c r="G346" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H346" s="9"/>
-      <c r="I346" s="9"/>
-      <c r="J346" s="9"/>
-      <c r="K346" s="9"/>
-      <c r="L346" s="9"/>
-      <c r="M346" s="9"/>
-      <c r="N346" s="9"/>
-      <c r="O346" s="9"/>
-      <c r="P346" s="9"/>
-      <c r="Q346" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R346" s="9"/>
-      <c r="S346" s="9"/>
-      <c r="T346" s="9"/>
-    </row>
-    <row r="347" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
+    <row r="346" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
+      <c r="A346" s="20"/>
+      <c r="B346" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C346" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D346" s="24"/>
+      <c r="E346" s="20"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H346" s="20"/>
+      <c r="I346" s="20"/>
+      <c r="K346" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="L346" s="20"/>
+      <c r="M346" s="20"/>
+      <c r="N346" s="20"/>
+      <c r="O346" s="20"/>
+      <c r="P346" s="20"/>
+      <c r="Q346" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R346" s="20"/>
+      <c r="S346" s="20"/>
+      <c r="T346" s="20"/>
+    </row>
+    <row r="347" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="A347" s="20"/>
       <c r="B347" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C347" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="C347" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="D347" s="24"/>
+      <c r="D347" s="20"/>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
       <c r="G347" s="20" t="s">
@@ -11860,9 +11908,8 @@
       </c>
       <c r="H347" s="20"/>
       <c r="I347" s="20"/>
-      <c r="K347" s="20" t="s">
-        <v>517</v>
-      </c>
+      <c r="J347" s="20"/>
+      <c r="K347" s="20"/>
       <c r="L347" s="20"/>
       <c r="M347" s="20"/>
       <c r="N347" s="20"/>
@@ -11875,40 +11922,38 @@
       <c r="S347" s="20"/>
       <c r="T347" s="20"/>
     </row>
-    <row r="348" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
-      <c r="A348" s="20"/>
-      <c r="B348" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="C348" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D348" s="20"/>
-      <c r="E348" s="20"/>
-      <c r="F348" s="20"/>
-      <c r="G348" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H348" s="20"/>
-      <c r="I348" s="20"/>
-      <c r="J348" s="20"/>
-      <c r="K348" s="20"/>
-      <c r="L348" s="20"/>
-      <c r="M348" s="20"/>
-      <c r="N348" s="20"/>
-      <c r="O348" s="20"/>
-      <c r="P348" s="20"/>
-      <c r="Q348" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R348" s="20"/>
-      <c r="S348" s="20"/>
-      <c r="T348" s="20"/>
+    <row r="348" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A348" s="9"/>
+      <c r="B348" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C348" s="9"/>
+      <c r="D348" s="9"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H348" s="9"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="9"/>
+      <c r="K348" s="9"/>
+      <c r="L348" s="9"/>
+      <c r="M348" s="9"/>
+      <c r="N348" s="9"/>
+      <c r="O348" s="9"/>
+      <c r="P348" s="9"/>
+      <c r="Q348" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R348" s="9"/>
+      <c r="S348" s="9"/>
+      <c r="T348" s="9"/>
     </row>
     <row r="349" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A349" s="9"/>
       <c r="B349" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -11919,7 +11964,9 @@
       </c>
       <c r="H349" s="9"/>
       <c r="I349" s="9"/>
-      <c r="J349" s="9"/>
+      <c r="J349" s="9" t="s">
+        <v>519</v>
+      </c>
       <c r="K349" s="9"/>
       <c r="L349" s="9"/>
       <c r="M349" s="9"/>
@@ -11936,7 +11983,7 @@
     <row r="350" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A350" s="9"/>
       <c r="B350" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
@@ -11947,9 +11994,7 @@
       </c>
       <c r="H350" s="9"/>
       <c r="I350" s="9"/>
-      <c r="J350" s="9" t="s">
-        <v>522</v>
-      </c>
+      <c r="J350" s="9"/>
       <c r="K350" s="9"/>
       <c r="L350" s="9"/>
       <c r="M350" s="9"/>
@@ -11966,7 +12011,7 @@
     <row r="351" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A351" s="9"/>
       <c r="B351" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
@@ -11994,9 +12039,11 @@
     <row r="352" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A352" s="9"/>
       <c r="B352" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C352" s="9"/>
+        <v>522</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>523</v>
+      </c>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
       <c r="F352" s="9"/>
@@ -12022,11 +12069,9 @@
     <row r="353" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A353" s="9"/>
       <c r="B353" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="C353" s="9" t="s">
-        <v>526</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C353" s="9"/>
       <c r="D353" s="9"/>
       <c r="E353" s="9"/>
       <c r="F353" s="9"/>
@@ -12049,12 +12094,14 @@
       <c r="S353" s="9"/>
       <c r="T353" s="9"/>
     </row>
-    <row r="354" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="354" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A354" s="9"/>
       <c r="B354" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C354" s="9"/>
+        <v>525</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>526</v>
+      </c>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
       <c r="F354" s="9"/>
@@ -12077,14 +12124,12 @@
       <c r="S354" s="9"/>
       <c r="T354" s="9"/>
     </row>
-    <row r="355" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="355" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A355" s="9"/>
       <c r="B355" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C355" s="9" t="s">
-        <v>529</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C355" s="9"/>
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
       <c r="F355" s="9"/>
@@ -12108,36 +12153,25 @@
       <c r="T355" s="9"/>
     </row>
     <row r="356" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A356" s="9"/>
-      <c r="B356" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C356" s="9"/>
-      <c r="D356" s="9"/>
-      <c r="E356" s="9"/>
-      <c r="F356" s="9"/>
-      <c r="G356" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H356" s="9"/>
-      <c r="I356" s="9"/>
-      <c r="J356" s="9"/>
-      <c r="K356" s="9"/>
-      <c r="L356" s="9"/>
-      <c r="M356" s="9"/>
-      <c r="N356" s="9"/>
-      <c r="O356" s="9"/>
-      <c r="P356" s="9"/>
-      <c r="Q356" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R356" s="9"/>
-      <c r="S356" s="9"/>
+      <c r="B356" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="G356" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K356" s="11"/>
+      <c r="O356" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q356" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S356" s="11"/>
       <c r="T356" s="9"/>
     </row>
     <row r="357" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B357" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G357" s="19" t="s">
         <v>24</v>
@@ -12154,7 +12188,7 @@
     </row>
     <row r="358" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B358" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G358" s="19" t="s">
         <v>24</v>
@@ -12170,53 +12204,53 @@
       <c r="T358" s="9"/>
     </row>
     <row r="359" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B359" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="G359" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K359" s="11"/>
-      <c r="O359" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q359" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S359" s="11"/>
+      <c r="A359" s="9"/>
+      <c r="B359" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C359" s="9"/>
+      <c r="D359" s="9"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H359" s="9"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="9"/>
+      <c r="K359" s="9"/>
+      <c r="L359" s="9"/>
+      <c r="M359" s="9"/>
+      <c r="N359" s="9"/>
+      <c r="O359" s="9"/>
+      <c r="P359" s="9"/>
+      <c r="Q359" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R359" s="9"/>
+      <c r="S359" s="9"/>
       <c r="T359" s="9"/>
     </row>
     <row r="360" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A360" s="9"/>
-      <c r="B360" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C360" s="9"/>
-      <c r="D360" s="9"/>
-      <c r="E360" s="9"/>
-      <c r="F360" s="9"/>
-      <c r="G360" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H360" s="9"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="9"/>
-      <c r="K360" s="9"/>
-      <c r="L360" s="9"/>
-      <c r="M360" s="9"/>
-      <c r="N360" s="9"/>
-      <c r="O360" s="9"/>
-      <c r="P360" s="9"/>
-      <c r="Q360" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R360" s="9"/>
-      <c r="S360" s="9"/>
+      <c r="B360" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="G360" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K360" s="11"/>
+      <c r="O360" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q360" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S360" s="11"/>
       <c r="T360" s="9"/>
     </row>
     <row r="361" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B361" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G361" s="19" t="s">
         <v>24</v>
@@ -12232,8 +12266,20 @@
       <c r="T361" s="9"/>
     </row>
     <row r="362" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A362" t="s">
+        <v>534</v>
+      </c>
       <c r="B362" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C362" s="19" t="s">
         <v>536</v>
+      </c>
+      <c r="E362" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="F362" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="G362" s="19" t="s">
         <v>24</v>
@@ -12249,109 +12295,97 @@
       <c r="T362" s="9"/>
     </row>
     <row r="363" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A363" t="s">
+      <c r="A363" s="9"/>
+      <c r="B363" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B363" s="19" t="s">
+      <c r="C363" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="C363" s="19" t="s">
+      <c r="D363" s="9"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H363" s="9"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="E363" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="F363" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G363" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K363" s="11"/>
-      <c r="O363" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q363" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S363" s="11"/>
+      <c r="K363" s="9"/>
+      <c r="L363" s="9"/>
+      <c r="M363" s="9"/>
+      <c r="N363" s="9"/>
+      <c r="O363" s="9"/>
+      <c r="P363" s="9"/>
+      <c r="Q363" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R363" s="9"/>
+      <c r="S363" s="9"/>
       <c r="T363" s="9"/>
     </row>
     <row r="364" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A364" s="9"/>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C364" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="D364" s="9"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="9"/>
-      <c r="G364" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H364" s="9"/>
-      <c r="I364" s="9"/>
-      <c r="J364" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K364" s="9"/>
-      <c r="L364" s="9"/>
-      <c r="M364" s="9"/>
-      <c r="N364" s="9"/>
-      <c r="O364" s="9"/>
-      <c r="P364" s="9"/>
-      <c r="Q364" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R364" s="9"/>
-      <c r="S364" s="9"/>
+      <c r="G364" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K364" s="11"/>
+      <c r="O364" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q364" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S364" s="11"/>
       <c r="T364" s="9"/>
     </row>
     <row r="365" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B365" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="G365" s="19" t="s">
-        <v>24</v>
+        <v>541</v>
+      </c>
+      <c r="C365" s="19" t="s">
+        <v>542</v>
       </c>
       <c r="K365" s="11"/>
-      <c r="O365" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q365" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="S365" s="11"/>
       <c r="T365" s="9"/>
     </row>
     <row r="366" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A366" t="s">
+        <v>543</v>
+      </c>
       <c r="B366" s="19" t="s">
         <v>544</v>
       </c>
       <c r="C366" s="19" t="s">
         <v>545</v>
       </c>
+      <c r="E366" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F366" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="G366" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="K366" s="11"/>
+      <c r="O366" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q366" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="S366" s="11"/>
       <c r="T366" s="9"/>
     </row>
     <row r="367" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A367" t="s">
+      <c r="B367" s="19" t="s">
         <v>546</v>
-      </c>
-      <c r="B367" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="C367" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="E367" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="F367" s="19" t="s">
-        <v>418</v>
       </c>
       <c r="G367" s="19" t="s">
         <v>24</v>
@@ -12367,8 +12401,17 @@
       <c r="T367" s="9"/>
     </row>
     <row r="368" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A368" t="s">
+        <v>547</v>
+      </c>
       <c r="B368" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C368" s="19" t="s">
         <v>549</v>
+      </c>
+      <c r="E368" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="G368" s="19" t="s">
         <v>24</v>
@@ -12384,17 +12427,8 @@
       <c r="T368" s="9"/>
     </row>
     <row r="369" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A369" t="s">
-        <v>550</v>
-      </c>
       <c r="B369" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="C369" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="E369" s="19" t="s">
-        <v>153</v>
+        <v>539</v>
       </c>
       <c r="G369" s="19" t="s">
         <v>24</v>
@@ -12410,73 +12444,86 @@
       <c r="T369" s="9"/>
     </row>
     <row r="370" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B370" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="G370" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K370" s="11"/>
-      <c r="O370" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q370" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S370" s="11"/>
+      <c r="A370" s="9"/>
+      <c r="B370" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C370" s="9"/>
+      <c r="D370" s="9"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="9"/>
+      <c r="G370" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H370" s="9"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="9"/>
+      <c r="K370" s="9"/>
+      <c r="L370" s="9"/>
+      <c r="M370" s="9"/>
+      <c r="N370" s="9"/>
+      <c r="O370" s="9"/>
+      <c r="P370" s="9"/>
+      <c r="Q370" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R370" s="9"/>
+      <c r="S370" s="9"/>
       <c r="T370" s="9"/>
     </row>
     <row r="371" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A371" s="9"/>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="G371" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K371" s="11"/>
+      <c r="O371" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S371" s="11"/>
+      <c r="T371" s="9"/>
+    </row>
+    <row r="372" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A372" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B372" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C371" s="9"/>
-      <c r="D371" s="9"/>
-      <c r="E371" s="9"/>
-      <c r="F371" s="9"/>
-      <c r="G371" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H371" s="9"/>
-      <c r="I371" s="9"/>
-      <c r="J371" s="9"/>
-      <c r="K371" s="9"/>
-      <c r="L371" s="9"/>
-      <c r="M371" s="9"/>
-      <c r="N371" s="9"/>
-      <c r="O371" s="9"/>
-      <c r="P371" s="9"/>
-      <c r="Q371" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R371" s="9"/>
-      <c r="S371" s="9"/>
-      <c r="T371" s="9"/>
-    </row>
-    <row r="372" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B372" s="19" t="s">
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H372" s="9"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G372" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K372" s="11"/>
-      <c r="O372" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q372" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S372" s="11"/>
+      <c r="K372" s="9"/>
+      <c r="L372" s="9"/>
+      <c r="M372" s="9"/>
+      <c r="N372" s="9"/>
+      <c r="O372" s="9"/>
+      <c r="P372" s="9"/>
+      <c r="Q372" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R372" s="9"/>
+      <c r="S372" s="9"/>
       <c r="T372" s="9"/>
     </row>
-    <row r="373" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A373" s="9" t="s">
+    <row r="373" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A373" s="9"/>
+      <c r="B373" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="B373" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
@@ -12487,9 +12534,7 @@
       </c>
       <c r="H373" s="9"/>
       <c r="I373" s="9"/>
-      <c r="J373" s="9" t="s">
-        <v>557</v>
-      </c>
+      <c r="J373" s="9"/>
       <c r="K373" s="9"/>
       <c r="L373" s="9"/>
       <c r="M373" s="9"/>
@@ -12506,7 +12551,7 @@
     <row r="374" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A374" s="9"/>
       <c r="B374" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -12534,7 +12579,7 @@
     <row r="375" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A375" s="9"/>
       <c r="B375" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -12559,10 +12604,10 @@
       <c r="S375" s="9"/>
       <c r="T375" s="9"/>
     </row>
-    <row r="376" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="376" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A376" s="9"/>
       <c r="B376" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -12587,10 +12632,10 @@
       <c r="S376" s="9"/>
       <c r="T376" s="9"/>
     </row>
-    <row r="377" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="377" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A377" s="9"/>
       <c r="B377" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -12618,7 +12663,7 @@
     <row r="378" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A378" s="9"/>
       <c r="B378" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -12646,7 +12691,7 @@
     <row r="379" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A379" s="9"/>
       <c r="B379" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -12674,7 +12719,7 @@
     <row r="380" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A380" s="9"/>
       <c r="B380" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -12702,7 +12747,7 @@
     <row r="381" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A381" s="9"/>
       <c r="B381" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -12730,7 +12775,7 @@
     <row r="382" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A382" s="9"/>
       <c r="B382" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -12758,7 +12803,7 @@
     <row r="383" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A383" s="9"/>
       <c r="B383" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
@@ -12786,7 +12831,7 @@
     <row r="384" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A384" s="9"/>
       <c r="B384" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -12812,42 +12857,31 @@
       <c r="T384" s="9"/>
     </row>
     <row r="385" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A385" s="9"/>
-      <c r="B385" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="C385" s="9"/>
-      <c r="D385" s="9"/>
-      <c r="E385" s="9"/>
-      <c r="F385" s="9"/>
-      <c r="G385" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H385" s="9"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="9"/>
-      <c r="K385" s="9"/>
-      <c r="L385" s="9"/>
-      <c r="M385" s="9"/>
-      <c r="N385" s="9"/>
-      <c r="O385" s="9"/>
-      <c r="P385" s="9"/>
-      <c r="Q385" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R385" s="9"/>
-      <c r="S385" s="9"/>
+      <c r="B385" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="G385" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J385" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="K385" s="11"/>
+      <c r="O385" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q385" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S385" s="11"/>
       <c r="T385" s="9"/>
     </row>
     <row r="386" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B386" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G386" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J386" s="19" t="s">
-        <v>571</v>
       </c>
       <c r="K386" s="11"/>
       <c r="O386" s="19">
@@ -12861,7 +12895,7 @@
     </row>
     <row r="387" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B387" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G387" s="19" t="s">
         <v>24</v>
@@ -12878,7 +12912,7 @@
     </row>
     <row r="388" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B388" s="19" t="s">
-        <v>573</v>
+        <v>60</v>
       </c>
       <c r="G388" s="19" t="s">
         <v>24</v>
@@ -12895,7 +12929,7 @@
     </row>
     <row r="389" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B389" s="19" t="s">
-        <v>60</v>
+        <v>571</v>
       </c>
       <c r="G389" s="19" t="s">
         <v>24</v>
@@ -12912,7 +12946,7 @@
     </row>
     <row r="390" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B390" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G390" s="19" t="s">
         <v>24</v>
@@ -12928,26 +12962,37 @@
       <c r="T390" s="9"/>
     </row>
     <row r="391" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B391" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="G391" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K391" s="11"/>
-      <c r="O391" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q391" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S391" s="11"/>
+      <c r="A391" s="9"/>
+      <c r="B391" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C391" s="9"/>
+      <c r="D391" s="9"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="9"/>
+      <c r="G391" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H391" s="9"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="9"/>
+      <c r="K391" s="9"/>
+      <c r="L391" s="9"/>
+      <c r="M391" s="9"/>
+      <c r="N391" s="9"/>
+      <c r="O391" s="9"/>
+      <c r="P391" s="9"/>
+      <c r="Q391" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R391" s="9"/>
+      <c r="S391" s="9"/>
       <c r="T391" s="9"/>
     </row>
     <row r="392" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A392" s="9"/>
       <c r="B392" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
@@ -12975,7 +13020,7 @@
     <row r="393" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A393" s="9"/>
       <c r="B393" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C393" s="9"/>
       <c r="D393" s="9"/>
@@ -13003,7 +13048,7 @@
     <row r="394" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A394" s="9"/>
       <c r="B394" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
@@ -13029,36 +13074,25 @@
       <c r="T394" s="9"/>
     </row>
     <row r="395" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A395" s="9"/>
-      <c r="B395" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C395" s="9"/>
-      <c r="D395" s="9"/>
-      <c r="E395" s="9"/>
-      <c r="F395" s="9"/>
-      <c r="G395" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H395" s="9"/>
-      <c r="I395" s="9"/>
-      <c r="J395" s="9"/>
-      <c r="K395" s="9"/>
-      <c r="L395" s="9"/>
-      <c r="M395" s="9"/>
-      <c r="N395" s="9"/>
-      <c r="O395" s="9"/>
-      <c r="P395" s="9"/>
-      <c r="Q395" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R395" s="9"/>
-      <c r="S395" s="9"/>
+      <c r="B395" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="G395" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K395" s="11"/>
+      <c r="O395" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q395" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S395" s="11"/>
       <c r="T395" s="9"/>
     </row>
     <row r="396" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B396" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G396" s="19" t="s">
         <v>24</v>
@@ -13074,39 +13108,50 @@
       <c r="T396" s="9"/>
     </row>
     <row r="397" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B397" s="19" t="s">
+      <c r="A397" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C397" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G397" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K397" s="11"/>
-      <c r="O397" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q397" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S397" s="11"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F397" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H397" s="9"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="9"/>
+      <c r="K397" s="9"/>
+      <c r="L397" s="9"/>
+      <c r="M397" s="9"/>
+      <c r="N397" s="9"/>
+      <c r="O397" s="9"/>
+      <c r="P397" s="9"/>
+      <c r="Q397" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R397" s="9"/>
+      <c r="S397" s="9"/>
       <c r="T397" s="9"/>
     </row>
     <row r="398" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="9"/>
+      <c r="B398" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B398" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C398" s="9" t="s">
-        <v>584</v>
-      </c>
+      <c r="C398" s="9"/>
       <c r="D398" s="9"/>
-      <c r="E398" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F398" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="E398" s="9"/>
+      <c r="F398" s="9"/>
       <c r="G398" s="9" t="s">
         <v>24</v>
       </c>
@@ -13127,36 +13172,25 @@
       <c r="T398" s="9"/>
     </row>
     <row r="399" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A399" s="9"/>
-      <c r="B399" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="C399" s="9"/>
-      <c r="D399" s="9"/>
-      <c r="E399" s="9"/>
-      <c r="F399" s="9"/>
-      <c r="G399" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H399" s="9"/>
-      <c r="I399" s="9"/>
-      <c r="J399" s="9"/>
-      <c r="K399" s="9"/>
-      <c r="L399" s="9"/>
-      <c r="M399" s="9"/>
-      <c r="N399" s="9"/>
-      <c r="O399" s="9"/>
-      <c r="P399" s="9"/>
-      <c r="Q399" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R399" s="9"/>
-      <c r="S399" s="9"/>
+      <c r="B399" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="G399" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K399" s="11"/>
+      <c r="O399" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S399" s="11"/>
       <c r="T399" s="9"/>
     </row>
     <row r="400" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B400" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G400" s="19" t="s">
         <v>24</v>
@@ -13171,86 +13205,87 @@
       <c r="S400" s="11"/>
       <c r="T400" s="9"/>
     </row>
-    <row r="401" spans="2:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B401" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="G401" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K401" s="11"/>
-      <c r="O401" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q401" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S401" s="11"/>
-      <c r="T401" s="9"/>
-    </row>
-    <row r="402" spans="2:20" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="401" spans="2:18" s="9" customFormat="1" ht="16" customHeight="1">
+      <c r="B401" s="11"/>
+      <c r="Q401" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="402" spans="2:18" s="9" customFormat="1">
       <c r="B402" s="11"/>
-      <c r="Q402" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="403" spans="2:20" s="9" customFormat="1">
+      <c r="G402" s="10"/>
+      <c r="H402" s="10"/>
+      <c r="I402" s="11"/>
+      <c r="J402" s="10"/>
+      <c r="K402" s="10"/>
+      <c r="L402" s="10"/>
+      <c r="M402" s="10">
+        <v>1</v>
+      </c>
+      <c r="N402" s="10"/>
+      <c r="O402" s="10"/>
+      <c r="P402" s="10"/>
+      <c r="Q402" s="10"/>
+    </row>
+    <row r="403" spans="2:18" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B403" s="11"/>
-      <c r="G403" s="10"/>
-      <c r="H403" s="10"/>
-      <c r="I403" s="11"/>
-      <c r="J403" s="10"/>
-      <c r="K403" s="10"/>
-      <c r="L403" s="10"/>
-      <c r="M403" s="10">
-        <v>1</v>
-      </c>
-      <c r="N403" s="10"/>
-      <c r="O403" s="10"/>
-      <c r="P403" s="10"/>
-      <c r="Q403" s="10"/>
-    </row>
-    <row r="404" spans="2:20" s="9" customFormat="1" ht="16" customHeight="1">
+      <c r="Q403" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="404" spans="2:18" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B404" s="11"/>
       <c r="Q404" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="2:20" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="405" spans="2:18" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B405" s="11"/>
       <c r="Q405" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="2:20" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="406" spans="2:18" s="9" customFormat="1">
       <c r="B406" s="11"/>
-      <c r="Q406" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="407" spans="2:20" s="9" customFormat="1">
+      <c r="E406" s="10"/>
+      <c r="F406" s="10"/>
+      <c r="G406" s="10"/>
+      <c r="H406" s="10"/>
+      <c r="I406" s="10"/>
+      <c r="J406" s="10"/>
+      <c r="K406" s="10"/>
+      <c r="L406" s="10"/>
+      <c r="M406" s="10"/>
+      <c r="N406" s="10"/>
+      <c r="O406" s="10"/>
+      <c r="P406" s="10"/>
+      <c r="Q406" s="10"/>
+    </row>
+    <row r="407" spans="2:18" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B407" s="11"/>
-      <c r="E407" s="10"/>
-      <c r="F407" s="10"/>
-      <c r="G407" s="10"/>
-      <c r="H407" s="10"/>
-      <c r="I407" s="10"/>
-      <c r="J407" s="10"/>
-      <c r="K407" s="10"/>
-      <c r="L407" s="10"/>
-      <c r="M407" s="10"/>
-      <c r="N407" s="10"/>
-      <c r="O407" s="10"/>
-      <c r="P407" s="10"/>
-      <c r="Q407" s="10"/>
-    </row>
-    <row r="408" spans="2:20" s="9" customFormat="1" ht="16" customHeight="1">
+      <c r="Q407" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="408" spans="2:18" s="9" customFormat="1">
       <c r="B408" s="11"/>
-      <c r="Q408" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="409" spans="2:20" s="9" customFormat="1">
+      <c r="C408" s="10"/>
+      <c r="D408" s="18"/>
+      <c r="E408" s="10"/>
+      <c r="F408" s="10"/>
+      <c r="G408" s="10"/>
+      <c r="H408" s="10"/>
+      <c r="I408" s="10"/>
+      <c r="J408" s="10"/>
+      <c r="K408" s="10"/>
+      <c r="L408" s="10"/>
+      <c r="M408" s="10"/>
+      <c r="N408" s="10"/>
+      <c r="O408" s="10"/>
+      <c r="P408" s="10"/>
+      <c r="Q408" s="10"/>
+    </row>
+    <row r="409" spans="2:18" s="9" customFormat="1">
       <c r="B409" s="11"/>
       <c r="C409" s="10"/>
       <c r="D409" s="18"/>
@@ -13268,41 +13303,26 @@
       <c r="P409" s="10"/>
       <c r="Q409" s="10"/>
     </row>
-    <row r="410" spans="2:20" s="9" customFormat="1">
+    <row r="410" spans="2:18" s="9" customFormat="1">
       <c r="B410" s="11"/>
-      <c r="C410" s="10"/>
-      <c r="D410" s="18"/>
-      <c r="E410" s="10"/>
-      <c r="F410" s="10"/>
-      <c r="G410" s="10"/>
-      <c r="H410" s="10"/>
-      <c r="I410" s="10"/>
-      <c r="J410" s="10"/>
-      <c r="K410" s="10"/>
-      <c r="L410" s="10"/>
-      <c r="M410" s="10"/>
-      <c r="N410" s="10"/>
-      <c r="O410" s="10"/>
-      <c r="P410" s="10"/>
-      <c r="Q410" s="10"/>
-    </row>
-    <row r="411" spans="2:20" s="9" customFormat="1">
+      <c r="R410" s="10"/>
+    </row>
+    <row r="411" spans="2:18" s="9" customFormat="1">
       <c r="B411" s="11"/>
-      <c r="R411" s="10"/>
-    </row>
-    <row r="412" spans="2:20" s="9" customFormat="1">
+    </row>
+    <row r="412" spans="2:18" s="9" customFormat="1">
       <c r="B412" s="11"/>
     </row>
-    <row r="413" spans="2:20" s="9" customFormat="1">
+    <row r="413" spans="2:18" s="9" customFormat="1">
       <c r="B413" s="11"/>
     </row>
-    <row r="414" spans="2:20" s="9" customFormat="1">
+    <row r="414" spans="2:18" s="9" customFormat="1">
       <c r="B414" s="11"/>
     </row>
-    <row r="415" spans="2:20" s="9" customFormat="1">
+    <row r="415" spans="2:18" s="9" customFormat="1">
       <c r="B415" s="11"/>
     </row>
-    <row r="416" spans="2:20" s="9" customFormat="1">
+    <row r="416" spans="2:18" s="9" customFormat="1">
       <c r="B416" s="11"/>
     </row>
     <row r="417" spans="1:19" s="9" customFormat="1">
@@ -13312,16 +13332,31 @@
       <c r="B418" s="11"/>
     </row>
     <row r="419" spans="1:19" s="9" customFormat="1">
+      <c r="A419" s="11"/>
       <c r="B419" s="11"/>
+      <c r="S419" s="10"/>
     </row>
     <row r="420" spans="1:19" s="9" customFormat="1">
-      <c r="A420" s="11"/>
       <c r="B420" s="11"/>
-      <c r="S420" s="10"/>
+      <c r="R420" s="10"/>
     </row>
     <row r="421" spans="1:19" s="9" customFormat="1">
       <c r="B421" s="11"/>
-      <c r="R421" s="10"/>
+      <c r="C421" s="10"/>
+      <c r="D421" s="18"/>
+      <c r="E421" s="10"/>
+      <c r="F421" s="10"/>
+      <c r="G421" s="10"/>
+      <c r="H421" s="10"/>
+      <c r="I421" s="10"/>
+      <c r="J421" s="10"/>
+      <c r="K421" s="10"/>
+      <c r="L421" s="10"/>
+      <c r="M421" s="10"/>
+      <c r="N421" s="10"/>
+      <c r="O421" s="10"/>
+      <c r="P421" s="10"/>
+      <c r="Q421" s="10"/>
     </row>
     <row r="422" spans="1:19" s="9" customFormat="1">
       <c r="B422" s="11"/>
@@ -13340,8 +13375,10 @@
       <c r="O422" s="10"/>
       <c r="P422" s="10"/>
       <c r="Q422" s="10"/>
+      <c r="R422" s="10"/>
     </row>
     <row r="423" spans="1:19" s="9" customFormat="1">
+      <c r="A423" s="10"/>
       <c r="B423" s="11"/>
       <c r="C423" s="10"/>
       <c r="D423" s="18"/>
@@ -13359,9 +13396,9 @@
       <c r="P423" s="10"/>
       <c r="Q423" s="10"/>
       <c r="R423" s="10"/>
+      <c r="S423" s="10"/>
     </row>
     <row r="424" spans="1:19" s="9" customFormat="1">
-      <c r="A424" s="10"/>
       <c r="B424" s="11"/>
       <c r="C424" s="10"/>
       <c r="D424" s="18"/>
@@ -13379,29 +13416,9 @@
       <c r="P424" s="10"/>
       <c r="Q424" s="10"/>
       <c r="R424" s="10"/>
-      <c r="S424" s="10"/>
-    </row>
-    <row r="425" spans="1:19" s="9" customFormat="1">
+    </row>
+    <row r="425" spans="1:19">
       <c r="B425" s="11"/>
-      <c r="C425" s="10"/>
-      <c r="D425" s="18"/>
-      <c r="E425" s="10"/>
-      <c r="F425" s="10"/>
-      <c r="G425" s="10"/>
-      <c r="H425" s="10"/>
-      <c r="I425" s="10"/>
-      <c r="J425" s="10"/>
-      <c r="K425" s="10"/>
-      <c r="L425" s="10"/>
-      <c r="M425" s="10"/>
-      <c r="N425" s="10"/>
-      <c r="O425" s="10"/>
-      <c r="P425" s="10"/>
-      <c r="Q425" s="10"/>
-      <c r="R425" s="10"/>
-    </row>
-    <row r="426" spans="1:19">
-      <c r="B426" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13429,16 +13446,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
@@ -13446,10 +13463,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1">
@@ -13457,10 +13474,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1">
@@ -13468,13 +13485,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1">
@@ -13482,10 +13499,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1">
@@ -13493,13 +13510,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1">
@@ -13507,10 +13524,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1">
@@ -13518,10 +13535,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1">
@@ -13529,10 +13546,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1">
@@ -13540,10 +13557,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1">
@@ -13551,10 +13568,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
@@ -13562,10 +13579,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1">
@@ -13573,10 +13590,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1">
@@ -13584,10 +13601,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1">
@@ -13595,10 +13612,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1">
@@ -13606,10 +13623,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
@@ -13617,10 +13634,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1">
@@ -13628,10 +13645,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1">
@@ -13639,10 +13656,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -13686,16 +13703,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -13710,18 +13727,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -13729,13 +13746,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -13743,16 +13760,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -13760,10 +13777,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -13771,13 +13788,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -13785,16 +13802,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -13802,13 +13819,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -13816,13 +13833,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13833,13 +13850,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -13880,37 +13897,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13918,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -13929,16 +13946,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13946,16 +13963,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>668</v>
-      </c>
-      <c r="C4" t="s">
-        <v>669</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13963,16 +13980,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>669</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13980,16 +13997,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13997,16 +14014,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14014,16 +14031,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C8" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14031,16 +14048,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14048,16 +14065,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14065,16 +14082,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14082,7 +14099,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -14094,13 +14111,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14108,7 +14125,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -14120,13 +14137,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J13" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K13" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14134,7 +14151,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -14146,13 +14163,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14160,7 +14177,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14172,13 +14189,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K15" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14186,7 +14203,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -14198,13 +14215,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14212,7 +14229,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -14224,13 +14241,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J17" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K17" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14238,7 +14255,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -14250,13 +14267,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J18" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K18" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14264,7 +14281,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -14276,13 +14293,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -14290,7 +14307,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -14302,13 +14319,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J20" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -14316,7 +14333,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -14328,13 +14345,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -14342,7 +14359,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -14354,13 +14371,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J22" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -14368,7 +14385,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -14380,13 +14397,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J23" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K23" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -14394,7 +14411,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -14406,13 +14423,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J24" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K24" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -14420,7 +14437,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -14432,13 +14449,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -14446,7 +14463,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -14458,13 +14475,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J26" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K26" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -14472,7 +14489,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -14484,13 +14501,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J27" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K27" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -14498,7 +14515,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -14510,13 +14527,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J28" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K28" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -14524,7 +14541,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -14536,13 +14553,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J29" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K29" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -14550,7 +14567,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -14562,13 +14579,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J30" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K30" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989B7E7-6839-7B44-8866-163D82210301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A421A1-483D-5440-A848-83EA29E5ED32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-260" yWindow="480" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="714">
   <si>
     <t>ID</t>
   </si>
@@ -404,9 +404,6 @@
     <t>Average time to relapse</t>
   </si>
   <si>
-    <t>Behavioral economic demand</t>
-  </si>
-  <si>
     <t>BCIO:036000</t>
   </si>
   <si>
@@ -851,9 +848,6 @@
     <t>E-cigarette use prevalence</t>
   </si>
   <si>
-    <t>Ever e-cigarette use</t>
-  </si>
-  <si>
     <t>Everyday violence</t>
   </si>
   <si>
@@ -2141,7 +2135,37 @@
     <t xml:space="preserve">Everyday cigarette consumption; Daily cigarette consumption </t>
   </si>
   <si>
-    <t xml:space="preserve">A behaviour pattern that involve using an e-cigarette for vaping. </t>
+    <t xml:space="preserve">Demand by a population or person for cigarettes. </t>
+  </si>
+  <si>
+    <t>Behavioural economic demand</t>
+  </si>
+  <si>
+    <t>Purchase demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour attribute that involves regular use of cigarettes. </t>
+  </si>
+  <si>
+    <t>Cigarette use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour attribute that involves use of a cigarette. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour attribute that involve using an e-cigarette for vaping. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-cigarette use that indicates a person has ever used an e-cigarette. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-cigarette use that indicates a person has used an e-cigarette in the 30-days prior to the time of asking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour attribute that involves regular use of an e-cigarette. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A behaviour pattern that involves the use of an e-cigarette. </t>
   </si>
 </sst>
 </file>
@@ -2702,8 +2726,8 @@
   <dimension ref="A1:T425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2891,7 +2915,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>40</v>
@@ -3810,7 +3834,7 @@
     <row r="34" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>126</v>
+        <v>704</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3836,17 +3860,17 @@
     </row>
     <row r="35" spans="1:19" s="15" customFormat="1" ht="32" customHeight="1">
       <c r="A35" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>23</v>
@@ -3871,17 +3895,17 @@
     </row>
     <row r="36" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>23</v>
@@ -3893,17 +3917,17 @@
     </row>
     <row r="37" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A37" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>23</v>
@@ -3915,17 +3939,17 @@
     </row>
     <row r="38" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A38" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>23</v>
@@ -3938,10 +3962,10 @@
     <row r="39" spans="1:19" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -3970,7 +3994,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -3980,7 +4004,7 @@
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3998,10 +4022,10 @@
     <row r="41" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -4026,17 +4050,17 @@
     </row>
     <row r="42" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4060,7 +4084,7 @@
     <row r="43" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -4086,20 +4110,20 @@
     </row>
     <row r="44" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>24</v>
@@ -4121,20 +4145,20 @@
     </row>
     <row r="45" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>24</v>
@@ -4157,7 +4181,7 @@
     <row r="46" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -4184,7 +4208,7 @@
     <row r="47" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -4211,7 +4235,7 @@
     <row r="48" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -4238,7 +4262,7 @@
     <row r="49" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4265,7 +4289,7 @@
     <row r="50" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -4292,7 +4316,7 @@
     <row r="51" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -4319,7 +4343,7 @@
     <row r="52" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -4346,7 +4370,7 @@
     <row r="53" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -4373,7 +4397,7 @@
     <row r="54" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -4400,7 +4424,7 @@
     <row r="55" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -4427,7 +4451,7 @@
     <row r="56" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -4454,7 +4478,7 @@
     <row r="57" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -4481,7 +4505,7 @@
     <row r="58" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -4508,7 +4532,7 @@
     <row r="59" spans="1:19" s="19" customFormat="1" ht="64" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -4519,7 +4543,7 @@
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4537,7 +4561,7 @@
     <row r="60" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -4564,7 +4588,7 @@
     <row r="61" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -4591,7 +4615,7 @@
     <row r="62" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -4618,7 +4642,7 @@
     <row r="63" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -4645,10 +4669,10 @@
     <row r="64" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
@@ -4661,7 +4685,7 @@
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
       <c r="J64" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K64" s="31"/>
       <c r="L64" s="31"/>
@@ -4671,7 +4695,7 @@
         <v>26</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q64" s="31" t="s">
         <v>27</v>
@@ -4679,44 +4703,54 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
+    <row r="65" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q65" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="31" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31" t="s">
@@ -4725,7 +4759,7 @@
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
       <c r="J66" s="31" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K66" s="31"/>
       <c r="L66" s="31"/>
@@ -4735,7 +4769,7 @@
         <v>26</v>
       </c>
       <c r="P66" s="31" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q66" s="31" t="s">
         <v>27</v>
@@ -4745,26 +4779,26 @@
     </row>
     <row r="67" spans="1:19" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B67" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C67" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="29" t="s">
         <v>696</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="29" t="s">
-        <v>698</v>
       </c>
       <c r="K67" s="30"/>
       <c r="O67" s="29">
         <v>1</v>
       </c>
       <c r="P67" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q67" s="29" t="s">
         <v>27</v>
@@ -4773,13 +4807,13 @@
     </row>
     <row r="68" spans="1:19" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B68" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>24</v>
@@ -4789,71 +4823,61 @@
         <v>1</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q68" s="29" t="s">
         <v>27</v>
       </c>
       <c r="S68" s="30"/>
     </row>
-    <row r="69" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-    </row>
-    <row r="70" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
+    <row r="69" spans="1:19" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B69" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="K69" s="30"/>
+      <c r="S69" s="30"/>
+    </row>
+    <row r="70" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
     </row>
     <row r="71" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -4880,7 +4904,7 @@
     <row r="72" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -4907,7 +4931,7 @@
     <row r="73" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -4932,51 +4956,45 @@
       <c r="S73" s="9"/>
     </row>
     <row r="74" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A74" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
     </row>
     <row r="75" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>23</v>
@@ -4998,82 +5016,88 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+    </row>
+    <row r="77" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+    </row>
+    <row r="78" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B78" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-    </row>
-    <row r="77" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B77" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" s="11"/>
-      <c r="O77" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S77" s="11"/>
-    </row>
-    <row r="78" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
+      <c r="G78" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="11"/>
+      <c r="O78" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S78" s="11"/>
     </row>
     <row r="79" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9" t="s">
@@ -5095,83 +5119,83 @@
       <c r="S79" s="9"/>
     </row>
     <row r="80" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+    </row>
+    <row r="81" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A81" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="10" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-    </row>
-    <row r="81" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-    </row>
-    <row r="82" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="G81" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+    </row>
+    <row r="82" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>145</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -5179,18 +5203,20 @@
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
+      <c r="Q82" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="83" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9" t="s">
         <v>24</v>
@@ -5204,16 +5230,14 @@
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
-      <c r="Q83" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
     <row r="84" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -5240,7 +5264,7 @@
     <row r="85" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -5267,7 +5291,7 @@
     <row r="86" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -5294,7 +5318,7 @@
     <row r="87" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -5312,14 +5336,16 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
+      <c r="Q87" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
     </row>
-    <row r="88" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="88" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -5337,17 +5363,17 @@
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
-      <c r="Q88" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
     </row>
     <row r="89" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A89" s="9"/>
-      <c r="B89" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="B89" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9" t="s">
@@ -5368,128 +5394,126 @@
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
     </row>
-    <row r="90" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="90" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A90" s="9"/>
       <c r="B90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+    </row>
+    <row r="91" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B91" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O91" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B92" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E90" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O90" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B91" s="9" t="s">
+      <c r="G92" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="11"/>
+      <c r="O92" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S92" s="11"/>
+    </row>
+    <row r="93" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G91" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" s="11"/>
-      <c r="O91" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S91" s="11"/>
-    </row>
-    <row r="92" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9" t="s">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+    </row>
+    <row r="94" spans="1:19" s="29" customFormat="1" ht="32" customHeight="1">
+      <c r="B94" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-    </row>
-    <row r="93" spans="1:19" s="29" customFormat="1" ht="32" customHeight="1">
-      <c r="B93" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F93" s="29" t="s">
+      <c r="C94" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G93" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="K93" s="30"/>
-      <c r="O93" s="29">
-        <v>1</v>
-      </c>
-      <c r="P93" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q93" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S93" s="30"/>
-    </row>
-    <row r="94" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
+      <c r="G94" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="K94" s="30"/>
+      <c r="O94" s="29">
+        <v>1</v>
+      </c>
+      <c r="P94" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q94" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S94" s="30"/>
     </row>
     <row r="95" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -5513,122 +5537,108 @@
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
     </row>
-    <row r="96" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31" t="s">
+    <row r="96" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+    </row>
+    <row r="97" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P97" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q97" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R97" s="31"/>
+      <c r="S97" s="31"/>
+    </row>
+    <row r="98" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C96" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="F96" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G96" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="P96" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q96" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R96" s="31"/>
-      <c r="S96" s="31"/>
-    </row>
-    <row r="97" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9" t="s">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+    </row>
+    <row r="99" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
+      <c r="A99" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-    </row>
-    <row r="98" spans="1:20" s="27" customFormat="1" ht="80" customHeight="1">
-      <c r="A98" s="28" t="s">
+      <c r="B99" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="C99" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="L98" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P98" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q98" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="R98" s="28"/>
-      <c r="S98" s="28"/>
-    </row>
-    <row r="99" spans="1:20" s="27" customFormat="1" ht="80" customHeight="1">
-      <c r="A99" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>226</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28" t="s">
@@ -5642,16 +5652,18 @@
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
       <c r="K99" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="L99" s="28"/>
+        <v>220</v>
+      </c>
+      <c r="L99" s="28" t="s">
+        <v>221</v>
+      </c>
       <c r="M99" s="28"/>
       <c r="N99" s="28"/>
       <c r="O99" s="28" t="s">
         <v>26</v>
       </c>
       <c r="P99" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q99" s="28" t="s">
         <v>114</v>
@@ -5659,37 +5671,49 @@
       <c r="R99" s="28"/>
       <c r="S99" s="28"/>
     </row>
-    <row r="100" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R100" s="9"/>
-      <c r="S100" s="9"/>
-    </row>
-    <row r="101" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="100" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
+      <c r="A100" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P100" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q100" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="R100" s="28"/>
+      <c r="S100" s="28"/>
+    </row>
+    <row r="101" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -5713,10 +5737,10 @@
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
     </row>
-    <row r="102" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="102" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -5740,10 +5764,10 @@
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
     </row>
-    <row r="103" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="103" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -5767,10 +5791,10 @@
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
     </row>
-    <row r="104" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="104" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -5794,10 +5818,10 @@
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
     </row>
-    <row r="105" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="105" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -5821,10 +5845,10 @@
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
     </row>
-    <row r="106" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="106" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -5848,14 +5872,12 @@
       <c r="R106" s="9"/>
       <c r="S106" s="9"/>
     </row>
-    <row r="107" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="107" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>236</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -5877,67 +5899,67 @@
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
     </row>
-    <row r="108" spans="1:20" s="22" customFormat="1" ht="32" customHeight="1">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20" t="s">
+    <row r="108" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+    </row>
+    <row r="109" spans="1:19" s="22" customFormat="1" ht="32" customHeight="1">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="20"/>
-      <c r="O108" s="20"/>
-      <c r="P108" s="20"/>
-      <c r="Q108" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R108" s="20"/>
-      <c r="S108" s="20"/>
-    </row>
-    <row r="109" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-    </row>
-    <row r="110" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+    </row>
+    <row r="110" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -5948,6 +5970,9 @@
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
+      <c r="J110" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
@@ -5960,10 +5985,10 @@
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
     </row>
-    <row r="111" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="111" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -5974,7 +5999,6 @@
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
@@ -5987,10 +6011,10 @@
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
     </row>
-    <row r="112" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="112" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -6013,12 +6037,11 @@
       </c>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-    </row>
-    <row r="113" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    </row>
+    <row r="113" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -6046,7 +6069,7 @@
     <row r="114" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -6072,19 +6095,13 @@
       <c r="T114" s="9"/>
     </row>
     <row r="115" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A115" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="A115" s="9"/>
       <c r="B115" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>247</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9" t="s">
         <v>24</v>
@@ -6106,13 +6123,19 @@
       <c r="T115" s="9"/>
     </row>
     <row r="116" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A116" s="9"/>
+      <c r="A116" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="B116" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C116" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="E116" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9" t="s">
         <v>24</v>
@@ -6136,7 +6159,7 @@
     <row r="117" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -6164,7 +6187,7 @@
     <row r="118" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -6192,7 +6215,7 @@
     <row r="119" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -6217,87 +6240,83 @@
       <c r="S119" s="9"/>
       <c r="T119" s="9"/>
     </row>
-    <row r="120" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
-      <c r="A120" s="31"/>
-      <c r="B120" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31" t="s">
+    <row r="120" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+    </row>
+    <row r="121" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
+      <c r="A121" s="31"/>
+      <c r="B121" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F121" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G120" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="31" t="s">
-        <v>693</v>
-      </c>
-      <c r="K120" s="31"/>
-      <c r="L120" s="31"/>
-      <c r="M120" s="31"/>
-      <c r="N120" s="31"/>
-      <c r="O120" s="31" t="s">
+      <c r="G121" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="K121" s="31"/>
+      <c r="L121" s="31"/>
+      <c r="M121" s="31"/>
+      <c r="N121" s="31"/>
+      <c r="O121" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P120" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q120" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R120" s="31"/>
-      <c r="S120" s="31"/>
-      <c r="T120" s="31"/>
-    </row>
-    <row r="121" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B121" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G121" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J121" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="K121" s="30"/>
-      <c r="O121" s="29">
-        <v>1</v>
-      </c>
-      <c r="P121" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q121" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S121" s="30"/>
-      <c r="T121" s="33"/>
+      <c r="P121" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q121" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R121" s="31"/>
+      <c r="S121" s="31"/>
+      <c r="T121" s="31"/>
     </row>
     <row r="122" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B122" s="29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>691</v>
+        <v>64</v>
       </c>
       <c r="F122" s="29" t="s">
         <v>44</v>
@@ -6306,14 +6325,14 @@
         <v>24</v>
       </c>
       <c r="J122" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K122" s="30"/>
       <c r="O122" s="29">
         <v>1</v>
       </c>
       <c r="P122" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q122" s="29" t="s">
         <v>27</v>
@@ -6321,69 +6340,73 @@
       <c r="S122" s="30"/>
       <c r="T122" s="33"/>
     </row>
-    <row r="123" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B123" s="9" t="s">
+    <row r="123" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B123" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J123" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K123" s="30"/>
+      <c r="O123" s="29">
+        <v>1</v>
+      </c>
+      <c r="P123" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q123" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S123" s="30"/>
+      <c r="T123" s="33"/>
+    </row>
+    <row r="124" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B124" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D123" s="9"/>
-      <c r="G123" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K123" s="11"/>
-      <c r="O123" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S123" s="11"/>
-      <c r="T123" s="9"/>
-    </row>
-    <row r="124" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="G124" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" s="11"/>
+      <c r="O124" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S124" s="11"/>
       <c r="T124" s="9"/>
     </row>
     <row r="125" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
+        <v>257</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="I125" s="9" t="s">
+        <v>258</v>
+      </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -6400,8 +6423,8 @@
     </row>
     <row r="126" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A126" s="9"/>
-      <c r="B126" s="19" t="s">
-        <v>261</v>
+      <c r="B126" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -6426,86 +6449,118 @@
       <c r="S126" s="9"/>
       <c r="T126" s="9"/>
     </row>
-    <row r="127" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
-      <c r="B127" s="32" t="s">
+    <row r="127" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A127" s="9"/>
+      <c r="B127" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+    </row>
+    <row r="128" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="B128" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" s="34"/>
+      <c r="O128" s="32">
+        <v>1</v>
+      </c>
+      <c r="P128" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q128" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S128" s="34"/>
+      <c r="T128" s="31"/>
+    </row>
+    <row r="129" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B129" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="C127" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="G127" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K127" s="34"/>
-      <c r="O127" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S127" s="34"/>
-      <c r="T127" s="31"/>
-    </row>
-    <row r="128" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B128" s="19" t="s">
+      <c r="C129" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J129" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G128" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J128" s="19" t="s">
+      <c r="K129" s="30"/>
+      <c r="O129" s="29">
+        <v>1</v>
+      </c>
+      <c r="P129" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q129" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S129" s="30"/>
+      <c r="T129" s="33"/>
+    </row>
+    <row r="130" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B130" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="K128" s="11"/>
-      <c r="O128" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S128" s="11"/>
-      <c r="T128" s="9"/>
-    </row>
-    <row r="129" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B129" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K129" s="11"/>
-      <c r="O129" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q129" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S129" s="11"/>
-      <c r="T129" s="9"/>
-    </row>
-    <row r="130" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B130" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K130" s="11"/>
-      <c r="O130" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q130" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S130" s="11"/>
-      <c r="T130" s="9"/>
+      <c r="C130" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130" s="30"/>
+      <c r="O130" s="29">
+        <v>1</v>
+      </c>
+      <c r="P130" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q130" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S130" s="30"/>
+      <c r="T130" s="33"/>
     </row>
     <row r="131" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B131" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>24</v>
@@ -6522,7 +6577,7 @@
     </row>
     <row r="132" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B132" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>24</v>
@@ -6537,32 +6592,38 @@
       <c r="S132" s="11"/>
       <c r="T132" s="9"/>
     </row>
-    <row r="133" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B133" s="19" t="s">
+    <row r="133" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B133" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="E133" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G133" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K133" s="11"/>
-      <c r="O133" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S133" s="11"/>
-      <c r="T133" s="9"/>
+      <c r="G133" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" s="30"/>
+      <c r="O133" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S133" s="30"/>
+      <c r="T133" s="33"/>
     </row>
     <row r="134" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B134" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>702</v>
+        <v>144</v>
       </c>
       <c r="G134" s="29" t="s">
         <v>24</v>
@@ -6571,32 +6632,44 @@
       <c r="O134" s="29">
         <v>1</v>
       </c>
+      <c r="P134" s="29" t="s">
+        <v>683</v>
+      </c>
       <c r="Q134" s="29" t="s">
         <v>27</v>
       </c>
       <c r="S134" s="30"/>
       <c r="T134" s="33"/>
     </row>
-    <row r="135" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B135" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="G135" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K135" s="11"/>
-      <c r="O135" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S135" s="11"/>
-      <c r="T135" s="9"/>
-    </row>
-    <row r="136" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="135" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B135" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" s="30"/>
+      <c r="O135" s="29">
+        <v>1</v>
+      </c>
+      <c r="P135" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q135" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S135" s="30"/>
+      <c r="T135" s="33"/>
+    </row>
+    <row r="136" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B136" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G136" s="19" t="s">
         <v>24</v>
@@ -6611,9 +6684,9 @@
       <c r="S136" s="11"/>
       <c r="T136" s="9"/>
     </row>
-    <row r="137" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="137" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B137" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>24</v>
@@ -6630,7 +6703,7 @@
     </row>
     <row r="138" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B138" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" s="19" t="s">
         <v>24</v>
@@ -6647,7 +6720,7 @@
     </row>
     <row r="139" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B139" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G139" s="19" t="s">
         <v>24</v>
@@ -6664,7 +6737,7 @@
     </row>
     <row r="140" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B140" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>24</v>
@@ -6682,7 +6755,7 @@
     <row r="141" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A141" s="9"/>
       <c r="B141" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -6710,7 +6783,7 @@
     <row r="142" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -6738,7 +6811,7 @@
     <row r="143" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A143" s="9"/>
       <c r="B143" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -6765,7 +6838,7 @@
     </row>
     <row r="144" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B144" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" s="19" t="s">
         <v>24</v>
@@ -6783,7 +6856,7 @@
     <row r="145" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A145" s="9"/>
       <c r="B145" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -6811,7 +6884,7 @@
     <row r="146" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -6839,10 +6912,10 @@
     <row r="147" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -6851,7 +6924,7 @@
         <v>24</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6871,7 +6944,7 @@
     <row r="148" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -6897,7 +6970,7 @@
     <row r="149" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -6925,7 +6998,7 @@
     <row r="150" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -6952,17 +7025,17 @@
     </row>
     <row r="151" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
       <c r="A151" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C151" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>291</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="14" t="s">
@@ -6979,7 +7052,7 @@
         <v>26</v>
       </c>
       <c r="P151" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q151" s="14" t="s">
         <v>114</v>
@@ -6991,7 +7064,7 @@
     <row r="152" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -7019,7 +7092,7 @@
     <row r="153" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -7047,7 +7120,7 @@
     <row r="154" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -7075,7 +7148,7 @@
     <row r="155" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A155" s="9"/>
       <c r="B155" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -7102,7 +7175,7 @@
     </row>
     <row r="156" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B156" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G156" s="19" t="s">
         <v>24</v>
@@ -7119,17 +7192,17 @@
     </row>
     <row r="157" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A157" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9" t="s">
@@ -7156,7 +7229,7 @@
     <row r="158" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A158" s="9"/>
       <c r="B158" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -7181,7 +7254,7 @@
     </row>
     <row r="159" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B159" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G159" s="19" t="s">
         <v>24</v>
@@ -7202,7 +7275,7 @@
     <row r="160" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -7230,7 +7303,7 @@
     <row r="161" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A161" s="9"/>
       <c r="B161" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -7242,7 +7315,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -7260,7 +7333,7 @@
     <row r="162" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A162" s="9"/>
       <c r="B162" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -7288,7 +7361,7 @@
     <row r="163" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A163" s="9"/>
       <c r="B163" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -7316,7 +7389,7 @@
     <row r="164" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -7344,7 +7417,7 @@
     <row r="165" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -7372,7 +7445,7 @@
     <row r="166" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -7400,7 +7473,7 @@
     <row r="167" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -7428,7 +7501,7 @@
     <row r="168" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -7456,7 +7529,7 @@
     <row r="169" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -7484,7 +7557,7 @@
     <row r="170" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -7512,7 +7585,7 @@
     <row r="171" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -7540,7 +7613,7 @@
     <row r="172" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -7568,7 +7641,7 @@
     <row r="173" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -7596,7 +7669,7 @@
     <row r="174" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -7608,7 +7681,7 @@
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
       <c r="J174" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
@@ -7626,10 +7699,10 @@
     <row r="175" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -7639,7 +7712,7 @@
       </c>
       <c r="H175" s="9"/>
       <c r="I175" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
@@ -7658,7 +7731,7 @@
     <row r="176" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -7686,7 +7759,7 @@
     <row r="177" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -7713,13 +7786,13 @@
     </row>
     <row r="178" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A178" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
@@ -7749,20 +7822,20 @@
     </row>
     <row r="179" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A179" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="D179" s="18"/>
       <c r="E179" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>24</v>
@@ -7783,7 +7856,7 @@
     </row>
     <row r="180" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B180" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G180" s="19" t="s">
         <v>24</v>
@@ -7800,7 +7873,7 @@
     </row>
     <row r="181" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B181" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G181" s="19" t="s">
         <v>24</v>
@@ -7818,7 +7891,7 @@
     <row r="182" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -7845,7 +7918,7 @@
     </row>
     <row r="183" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B183" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G183" s="19" t="s">
         <v>24</v>
@@ -7863,7 +7936,7 @@
     <row r="184" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
@@ -7891,7 +7964,7 @@
     <row r="185" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -7919,7 +7992,7 @@
     <row r="186" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
@@ -7947,7 +8020,7 @@
     <row r="187" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -7974,7 +8047,7 @@
     </row>
     <row r="188" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B188" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G188" s="19" t="s">
         <v>24</v>
@@ -7992,7 +8065,7 @@
     <row r="189" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -8020,7 +8093,7 @@
     <row r="190" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -8048,7 +8121,7 @@
     <row r="191" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -8076,7 +8149,7 @@
     <row r="192" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -8104,7 +8177,7 @@
     <row r="193" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -8132,7 +8205,7 @@
     <row r="194" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -8159,7 +8232,7 @@
     </row>
     <row r="195" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B195" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G195" s="19" t="s">
         <v>24</v>
@@ -8177,7 +8250,7 @@
     <row r="196" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -8204,7 +8277,7 @@
     </row>
     <row r="197" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B197" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G197" s="19" t="s">
         <v>24</v>
@@ -8221,7 +8294,7 @@
     </row>
     <row r="198" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B198" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G198" s="19" t="s">
         <v>24</v>
@@ -8238,7 +8311,7 @@
     </row>
     <row r="199" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B199" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G199" s="19" t="s">
         <v>24</v>
@@ -8255,7 +8328,7 @@
     </row>
     <row r="200" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B200" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G200" s="19" t="s">
         <v>24</v>
@@ -8272,7 +8345,7 @@
     </row>
     <row r="201" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B201" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G201" s="19" t="s">
         <v>24</v>
@@ -8289,7 +8362,7 @@
     </row>
     <row r="202" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B202" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>24</v>
@@ -8307,7 +8380,7 @@
     <row r="203" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -8334,7 +8407,7 @@
     </row>
     <row r="204" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B204" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G204" s="19" t="s">
         <v>24</v>
@@ -8352,7 +8425,7 @@
     <row r="205" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -8380,7 +8453,7 @@
     <row r="206" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -8408,7 +8481,7 @@
     <row r="207" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -8436,7 +8509,7 @@
     <row r="208" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -8463,7 +8536,7 @@
     </row>
     <row r="209" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B209" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G209" s="19" t="s">
         <v>24</v>
@@ -8480,13 +8553,13 @@
     </row>
     <row r="210" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B210" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G210" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J210" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K210" s="11"/>
       <c r="O210" s="19">
@@ -8501,7 +8574,7 @@
     <row r="211" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -8529,7 +8602,7 @@
     <row r="212" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -8557,7 +8630,7 @@
     <row r="213" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -8585,7 +8658,7 @@
     <row r="214" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -8613,7 +8686,7 @@
     <row r="215" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -8641,7 +8714,7 @@
     <row r="216" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -8668,7 +8741,7 @@
     </row>
     <row r="217" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B217" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G217" s="19" t="s">
         <v>24</v>
@@ -8686,7 +8759,7 @@
     <row r="218" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -8714,7 +8787,7 @@
     <row r="219" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -8742,7 +8815,7 @@
     <row r="220" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -8754,7 +8827,7 @@
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
       <c r="J220" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K220" s="9"/>
       <c r="L220" s="9"/>
@@ -8772,7 +8845,7 @@
     <row r="221" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A221" s="9"/>
       <c r="B221" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -8799,7 +8872,7 @@
     </row>
     <row r="222" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B222" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G222" s="19" t="s">
         <v>24</v>
@@ -8817,7 +8890,7 @@
     <row r="223" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -8845,7 +8918,7 @@
     <row r="224" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -8873,7 +8946,7 @@
     <row r="225" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -8901,7 +8974,7 @@
     <row r="226" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A226" s="9"/>
       <c r="B226" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
@@ -8929,7 +9002,7 @@
     <row r="227" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
@@ -8957,7 +9030,7 @@
     <row r="228" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -8985,7 +9058,7 @@
     <row r="229" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -9013,7 +9086,7 @@
     <row r="230" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -9041,7 +9114,7 @@
     <row r="231" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -9069,7 +9142,7 @@
     <row r="232" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -9097,7 +9170,7 @@
     <row r="233" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -9124,7 +9197,7 @@
     </row>
     <row r="234" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B234" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G234" s="19" t="s">
         <v>24</v>
@@ -9141,7 +9214,7 @@
     </row>
     <row r="235" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B235" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G235" s="19" t="s">
         <v>24</v>
@@ -9158,10 +9231,10 @@
     </row>
     <row r="236" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="B236" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G236" s="19" t="s">
         <v>24</v>
@@ -9178,7 +9251,7 @@
     </row>
     <row r="237" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B237" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G237" s="19" t="s">
         <v>24</v>
@@ -9196,7 +9269,7 @@
     <row r="238" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
@@ -9224,7 +9297,7 @@
     <row r="239" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -9252,7 +9325,7 @@
     <row r="240" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -9280,7 +9353,7 @@
     <row r="241" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -9308,7 +9381,7 @@
     <row r="242" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -9336,7 +9409,7 @@
     <row r="243" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -9364,7 +9437,7 @@
     <row r="244" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -9392,7 +9465,7 @@
     <row r="245" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -9420,7 +9493,7 @@
     <row r="246" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -9448,7 +9521,7 @@
     <row r="247" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -9460,7 +9533,7 @@
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
       <c r="J247" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K247" s="9"/>
       <c r="L247" s="9"/>
@@ -9478,7 +9551,7 @@
     <row r="248" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -9506,7 +9579,7 @@
     <row r="249" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -9534,7 +9607,7 @@
     <row r="250" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -9562,7 +9635,7 @@
     <row r="251" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -9590,10 +9663,10 @@
     <row r="252" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -9620,7 +9693,7 @@
     <row r="253" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
@@ -9648,7 +9721,7 @@
     <row r="254" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
@@ -9676,7 +9749,7 @@
     <row r="255" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -9704,7 +9777,7 @@
     <row r="256" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
@@ -9732,7 +9805,7 @@
     <row r="257" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
@@ -9759,17 +9832,17 @@
     </row>
     <row r="258" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A258" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C258" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F258" s="9"/>
       <c r="G258" s="9" t="s">
@@ -9794,7 +9867,7 @@
         <v>31</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G259" s="19" t="s">
         <v>24</v>
@@ -9811,7 +9884,7 @@
     </row>
     <row r="260" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B260" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G260" s="19" t="s">
         <v>24</v>
@@ -9828,16 +9901,16 @@
     </row>
     <row r="261" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
       <c r="A261" t="s">
+        <v>416</v>
+      </c>
+      <c r="B261" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C261" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="B261" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="C261" s="26" t="s">
-        <v>420</v>
-      </c>
       <c r="E261" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G261" s="27" t="s">
         <v>24</v>
@@ -9847,7 +9920,7 @@
         <v>26</v>
       </c>
       <c r="P261" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q261" s="27" t="s">
         <v>114</v>
@@ -9858,7 +9931,7 @@
     <row r="262" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A262" s="9"/>
       <c r="B262" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
@@ -9886,7 +9959,7 @@
     <row r="263" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A263" s="9"/>
       <c r="B263" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
@@ -9914,7 +9987,7 @@
     <row r="264" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A264" s="9"/>
       <c r="B264" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
@@ -9942,7 +10015,7 @@
     <row r="265" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A265" s="9"/>
       <c r="B265" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -9970,7 +10043,7 @@
     <row r="266" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
@@ -9998,7 +10071,7 @@
     <row r="267" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="18"/>
@@ -10024,7 +10097,7 @@
     <row r="268" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
@@ -10052,7 +10125,7 @@
     <row r="269" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
@@ -10080,7 +10153,7 @@
     <row r="270" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
@@ -10108,7 +10181,7 @@
     <row r="271" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A271" s="9"/>
       <c r="B271" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
@@ -10136,7 +10209,7 @@
     <row r="272" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
@@ -10163,16 +10236,16 @@
     </row>
     <row r="273" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="A273" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C273" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>434</v>
-      </c>
       <c r="E273" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F273" s="12" t="s">
         <v>23</v>
@@ -10182,7 +10255,7 @@
       </c>
       <c r="H273" s="10"/>
       <c r="I273" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J273" s="10"/>
       <c r="K273" s="10"/>
@@ -10201,10 +10274,10 @@
     <row r="274" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -10214,7 +10287,7 @@
       </c>
       <c r="H274" s="9"/>
       <c r="I274" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J274" s="9"/>
       <c r="K274" s="9"/>
@@ -10233,7 +10306,7 @@
     <row r="275" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
@@ -10260,7 +10333,7 @@
     </row>
     <row r="276" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B276" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G276" s="19" t="s">
         <v>24</v>
@@ -10277,7 +10350,7 @@
     </row>
     <row r="277" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B277" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G277" s="19" t="s">
         <v>24</v>
@@ -10294,10 +10367,10 @@
     </row>
     <row r="278" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B278" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G278" s="19" t="s">
         <v>24</v>
@@ -10314,7 +10387,7 @@
     </row>
     <row r="279" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B279" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G279" s="19" t="s">
         <v>24</v>
@@ -10331,7 +10404,7 @@
     </row>
     <row r="280" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B280" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G280" s="19" t="s">
         <v>24</v>
@@ -10348,7 +10421,7 @@
     </row>
     <row r="281" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B281" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G281" s="19" t="s">
         <v>24</v>
@@ -10365,7 +10438,7 @@
     </row>
     <row r="282" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B282" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G282" s="19" t="s">
         <v>24</v>
@@ -10382,7 +10455,7 @@
     </row>
     <row r="283" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B283" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G283" s="19" t="s">
         <v>24</v>
@@ -10399,7 +10472,7 @@
     </row>
     <row r="284" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B284" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G284" s="19" t="s">
         <v>24</v>
@@ -10416,7 +10489,7 @@
     </row>
     <row r="285" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B285" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G285" s="19" t="s">
         <v>24</v>
@@ -10433,7 +10506,7 @@
     </row>
     <row r="286" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B286" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G286" s="19" t="s">
         <v>24</v>
@@ -10450,7 +10523,7 @@
     </row>
     <row r="287" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B287" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G287" s="19" t="s">
         <v>24</v>
@@ -10467,7 +10540,7 @@
     </row>
     <row r="288" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B288" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G288" s="19" t="s">
         <v>24</v>
@@ -10484,7 +10557,7 @@
     </row>
     <row r="289" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B289" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G289" s="19" t="s">
         <v>24</v>
@@ -10501,7 +10574,7 @@
     </row>
     <row r="290" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B290" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>24</v>
@@ -10518,7 +10591,7 @@
     </row>
     <row r="291" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B291" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G291" s="19" t="s">
         <v>24</v>
@@ -10535,7 +10608,7 @@
     </row>
     <row r="292" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B292" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G292" s="19" t="s">
         <v>24</v>
@@ -10553,7 +10626,7 @@
     <row r="293" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A293" s="9"/>
       <c r="B293" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
@@ -10581,7 +10654,7 @@
     <row r="294" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A294" s="9"/>
       <c r="B294" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
@@ -10609,7 +10682,7 @@
     <row r="295" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A295" s="9"/>
       <c r="B295" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -10636,7 +10709,7 @@
     </row>
     <row r="296" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B296" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G296" s="19" t="s">
         <v>24</v>
@@ -10654,7 +10727,7 @@
     <row r="297" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
@@ -10682,7 +10755,7 @@
     <row r="298" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -10694,7 +10767,7 @@
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
       <c r="J298" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
@@ -10712,7 +10785,7 @@
     <row r="299" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -10740,7 +10813,7 @@
     <row r="300" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
@@ -10767,7 +10840,7 @@
     </row>
     <row r="301" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B301" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G301" s="19" t="s">
         <v>24</v>
@@ -10784,7 +10857,7 @@
     </row>
     <row r="302" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B302" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G302" s="19" t="s">
         <v>24</v>
@@ -10802,7 +10875,7 @@
     <row r="303" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -10830,7 +10903,7 @@
     <row r="304" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -10858,7 +10931,7 @@
     <row r="305" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
@@ -10886,7 +10959,7 @@
     <row r="306" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
@@ -10914,7 +10987,7 @@
     <row r="307" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -10942,7 +11015,7 @@
     <row r="308" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
@@ -10970,7 +11043,7 @@
     <row r="309" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
@@ -10998,7 +11071,7 @@
     <row r="310" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
@@ -11026,7 +11099,7 @@
     <row r="311" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
@@ -11054,7 +11127,7 @@
     <row r="312" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
@@ -11081,7 +11154,7 @@
     </row>
     <row r="313" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B313" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G313" s="19" t="s">
         <v>24</v>
@@ -11099,7 +11172,7 @@
     <row r="314" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A314" s="9"/>
       <c r="B314" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
@@ -11126,7 +11199,7 @@
     </row>
     <row r="315" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B315" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G315" s="19" t="s">
         <v>24</v>
@@ -11144,7 +11217,7 @@
     <row r="316" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A316" s="9"/>
       <c r="B316" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
@@ -11172,7 +11245,7 @@
     <row r="317" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A317" s="9"/>
       <c r="B317" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
@@ -11200,7 +11273,7 @@
     <row r="318" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A318" s="9"/>
       <c r="B318" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
@@ -11228,7 +11301,7 @@
     <row r="319" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A319" s="9"/>
       <c r="B319" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
@@ -11256,7 +11329,7 @@
     <row r="320" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A320" s="9"/>
       <c r="B320" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
@@ -11284,7 +11357,7 @@
     <row r="321" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
@@ -11312,7 +11385,7 @@
     <row r="322" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
@@ -11340,7 +11413,7 @@
     <row r="323" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -11368,7 +11441,7 @@
     <row r="324" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -11396,7 +11469,7 @@
     <row r="325" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -11423,10 +11496,10 @@
     </row>
     <row r="326" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B326" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G326" s="19" t="s">
         <v>24</v>
@@ -11443,7 +11516,7 @@
     </row>
     <row r="327" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B327" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G327" s="19" t="s">
         <v>24</v>
@@ -11461,7 +11534,7 @@
     <row r="328" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A328" s="9"/>
       <c r="B328" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
@@ -11489,7 +11562,7 @@
     <row r="329" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A329" s="9"/>
       <c r="B329" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
@@ -11522,7 +11595,7 @@
         <v>24</v>
       </c>
       <c r="J330" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K330" s="11"/>
       <c r="O330" s="19">
@@ -11536,13 +11609,13 @@
     </row>
     <row r="331" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B331" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G331" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J331" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K331" s="11"/>
       <c r="O331" s="19">
@@ -11556,7 +11629,7 @@
     </row>
     <row r="332" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B332" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G332" s="19" t="s">
         <v>24</v>
@@ -11573,13 +11646,13 @@
     </row>
     <row r="333" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B333" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G333" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J333" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K333" s="11"/>
       <c r="O333" s="19">
@@ -11593,7 +11666,7 @@
     </row>
     <row r="334" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B334" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G334" s="19" t="s">
         <v>24</v>
@@ -11610,7 +11683,7 @@
     </row>
     <row r="335" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B335" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G335" s="19" t="s">
         <v>24</v>
@@ -11627,7 +11700,7 @@
     </row>
     <row r="336" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B336" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G336" s="19" t="s">
         <v>24</v>
@@ -11644,7 +11717,7 @@
     </row>
     <row r="337" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B337" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>24</v>
@@ -11661,7 +11734,7 @@
     </row>
     <row r="338" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B338" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G338" s="19" t="s">
         <v>24</v>
@@ -11678,7 +11751,7 @@
     </row>
     <row r="339" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B339" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G339" s="19" t="s">
         <v>24</v>
@@ -11696,7 +11769,7 @@
     <row r="340" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A340" s="9"/>
       <c r="B340" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
@@ -11724,7 +11797,7 @@
     <row r="341" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A341" s="9"/>
       <c r="B341" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -11752,7 +11825,7 @@
     <row r="342" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A342" s="9"/>
       <c r="B342" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -11780,7 +11853,7 @@
     <row r="343" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A343" s="9"/>
       <c r="B343" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -11808,7 +11881,7 @@
     <row r="344" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A344" s="9"/>
       <c r="B344" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -11836,7 +11909,7 @@
     <row r="345" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A345" s="9"/>
       <c r="B345" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -11864,10 +11937,10 @@
     <row r="346" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
       <c r="A346" s="20"/>
       <c r="B346" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D346" s="24"/>
       <c r="E346" s="20"/>
@@ -11878,7 +11951,7 @@
       <c r="H346" s="20"/>
       <c r="I346" s="20"/>
       <c r="K346" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L346" s="20"/>
       <c r="M346" s="20"/>
@@ -11895,10 +11968,10 @@
     <row r="347" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="A347" s="20"/>
       <c r="B347" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D347" s="20"/>
       <c r="E347" s="20"/>
@@ -11925,7 +11998,7 @@
     <row r="348" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A348" s="9"/>
       <c r="B348" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -11953,7 +12026,7 @@
     <row r="349" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A349" s="9"/>
       <c r="B349" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -11965,7 +12038,7 @@
       <c r="H349" s="9"/>
       <c r="I349" s="9"/>
       <c r="J349" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K349" s="9"/>
       <c r="L349" s="9"/>
@@ -11983,7 +12056,7 @@
     <row r="350" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A350" s="9"/>
       <c r="B350" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
@@ -12011,7 +12084,7 @@
     <row r="351" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A351" s="9"/>
       <c r="B351" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
@@ -12039,10 +12112,10 @@
     <row r="352" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A352" s="9"/>
       <c r="B352" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
@@ -12069,7 +12142,7 @@
     <row r="353" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A353" s="9"/>
       <c r="B353" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -12097,10 +12170,10 @@
     <row r="354" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A354" s="9"/>
       <c r="B354" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
@@ -12127,7 +12200,7 @@
     <row r="355" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A355" s="9"/>
       <c r="B355" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
@@ -12154,7 +12227,7 @@
     </row>
     <row r="356" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B356" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G356" s="19" t="s">
         <v>24</v>
@@ -12171,7 +12244,7 @@
     </row>
     <row r="357" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B357" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G357" s="19" t="s">
         <v>24</v>
@@ -12188,7 +12261,7 @@
     </row>
     <row r="358" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B358" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G358" s="19" t="s">
         <v>24</v>
@@ -12206,7 +12279,7 @@
     <row r="359" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A359" s="9"/>
       <c r="B359" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
@@ -12233,7 +12306,7 @@
     </row>
     <row r="360" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B360" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G360" s="19" t="s">
         <v>24</v>
@@ -12250,7 +12323,7 @@
     </row>
     <row r="361" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B361" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G361" s="19" t="s">
         <v>24</v>
@@ -12267,19 +12340,19 @@
     </row>
     <row r="362" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A362" t="s">
+        <v>532</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="C362" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="B362" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="C362" s="19" t="s">
-        <v>536</v>
-      </c>
       <c r="E362" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F362" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G362" s="19" t="s">
         <v>24</v>
@@ -12297,10 +12370,10 @@
     <row r="363" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A363" s="9"/>
       <c r="B363" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
@@ -12311,7 +12384,7 @@
       <c r="H363" s="9"/>
       <c r="I363" s="9"/>
       <c r="J363" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K363" s="9"/>
       <c r="L363" s="9"/>
@@ -12328,7 +12401,7 @@
     </row>
     <row r="364" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B364" s="19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G364" s="19" t="s">
         <v>24</v>
@@ -12345,10 +12418,10 @@
     </row>
     <row r="365" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B365" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K365" s="11"/>
       <c r="S365" s="11"/>
@@ -12356,19 +12429,19 @@
     </row>
     <row r="366" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A366" t="s">
+        <v>541</v>
+      </c>
+      <c r="B366" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="C366" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="B366" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="C366" s="19" t="s">
-        <v>545</v>
-      </c>
       <c r="E366" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F366" s="19" t="s">
         <v>413</v>
-      </c>
-      <c r="F366" s="19" t="s">
-        <v>415</v>
       </c>
       <c r="G366" s="19" t="s">
         <v>24</v>
@@ -12385,7 +12458,7 @@
     </row>
     <row r="367" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B367" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G367" s="19" t="s">
         <v>24</v>
@@ -12402,16 +12475,16 @@
     </row>
     <row r="368" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A368" t="s">
+        <v>545</v>
+      </c>
+      <c r="B368" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C368" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="B368" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="C368" s="19" t="s">
-        <v>549</v>
-      </c>
       <c r="E368" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G368" s="19" t="s">
         <v>24</v>
@@ -12428,7 +12501,7 @@
     </row>
     <row r="369" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B369" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G369" s="19" t="s">
         <v>24</v>
@@ -12446,7 +12519,7 @@
     <row r="370" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A370" s="9"/>
       <c r="B370" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
@@ -12473,7 +12546,7 @@
     </row>
     <row r="371" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B371" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G371" s="19" t="s">
         <v>24</v>
@@ -12490,10 +12563,10 @@
     </row>
     <row r="372" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A372" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
@@ -12505,7 +12578,7 @@
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
       <c r="J372" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K372" s="9"/>
       <c r="L372" s="9"/>
@@ -12523,7 +12596,7 @@
     <row r="373" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A373" s="9"/>
       <c r="B373" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
@@ -12551,7 +12624,7 @@
     <row r="374" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A374" s="9"/>
       <c r="B374" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -12579,7 +12652,7 @@
     <row r="375" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A375" s="9"/>
       <c r="B375" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -12607,7 +12680,7 @@
     <row r="376" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A376" s="9"/>
       <c r="B376" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -12635,7 +12708,7 @@
     <row r="377" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A377" s="9"/>
       <c r="B377" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -12663,7 +12736,7 @@
     <row r="378" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A378" s="9"/>
       <c r="B378" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -12691,7 +12764,7 @@
     <row r="379" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A379" s="9"/>
       <c r="B379" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -12719,7 +12792,7 @@
     <row r="380" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A380" s="9"/>
       <c r="B380" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -12747,7 +12820,7 @@
     <row r="381" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A381" s="9"/>
       <c r="B381" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -12775,7 +12848,7 @@
     <row r="382" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A382" s="9"/>
       <c r="B382" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -12803,7 +12876,7 @@
     <row r="383" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A383" s="9"/>
       <c r="B383" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
@@ -12831,7 +12904,7 @@
     <row r="384" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A384" s="9"/>
       <c r="B384" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -12858,13 +12931,13 @@
     </row>
     <row r="385" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B385" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G385" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J385" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K385" s="11"/>
       <c r="O385" s="19">
@@ -12878,7 +12951,7 @@
     </row>
     <row r="386" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B386" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G386" s="19" t="s">
         <v>24</v>
@@ -12895,7 +12968,7 @@
     </row>
     <row r="387" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B387" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G387" s="19" t="s">
         <v>24</v>
@@ -12929,7 +13002,7 @@
     </row>
     <row r="389" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B389" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G389" s="19" t="s">
         <v>24</v>
@@ -12946,7 +13019,7 @@
     </row>
     <row r="390" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B390" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G390" s="19" t="s">
         <v>24</v>
@@ -12964,7 +13037,7 @@
     <row r="391" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A391" s="9"/>
       <c r="B391" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
@@ -12992,7 +13065,7 @@
     <row r="392" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A392" s="9"/>
       <c r="B392" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
@@ -13020,7 +13093,7 @@
     <row r="393" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A393" s="9"/>
       <c r="B393" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C393" s="9"/>
       <c r="D393" s="9"/>
@@ -13048,7 +13121,7 @@
     <row r="394" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A394" s="9"/>
       <c r="B394" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
@@ -13075,7 +13148,7 @@
     </row>
     <row r="395" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B395" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G395" s="19" t="s">
         <v>24</v>
@@ -13092,7 +13165,7 @@
     </row>
     <row r="396" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B396" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G396" s="19" t="s">
         <v>24</v>
@@ -13109,13 +13182,13 @@
     </row>
     <row r="397" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A397" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C397" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="B397" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C397" s="9" t="s">
-        <v>581</v>
       </c>
       <c r="D397" s="9"/>
       <c r="E397" s="9" t="s">
@@ -13146,7 +13219,7 @@
     <row r="398" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A398" s="9"/>
       <c r="B398" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C398" s="9"/>
       <c r="D398" s="9"/>
@@ -13173,7 +13246,7 @@
     </row>
     <row r="399" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B399" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G399" s="19" t="s">
         <v>24</v>
@@ -13190,7 +13263,7 @@
     </row>
     <row r="400" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B400" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G400" s="19" t="s">
         <v>24</v>
@@ -13446,16 +13519,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
@@ -13463,10 +13536,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1">
@@ -13474,10 +13547,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1">
@@ -13485,13 +13558,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1">
@@ -13499,10 +13572,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1">
@@ -13510,13 +13583,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1">
@@ -13524,10 +13597,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1">
@@ -13535,10 +13608,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1">
@@ -13546,10 +13619,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1">
@@ -13557,10 +13630,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1">
@@ -13568,10 +13641,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
@@ -13579,10 +13652,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1">
@@ -13590,10 +13663,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1">
@@ -13601,10 +13674,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1">
@@ -13612,10 +13685,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1">
@@ -13623,10 +13696,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
@@ -13634,10 +13707,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1">
@@ -13645,10 +13718,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1">
@@ -13656,10 +13729,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -13703,16 +13776,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -13727,18 +13800,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -13746,13 +13819,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -13760,16 +13833,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -13777,10 +13850,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -13788,13 +13861,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1">
       <c r="B6" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -13802,16 +13875,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -13819,13 +13892,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -13833,13 +13906,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13850,13 +13923,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -13897,37 +13970,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13935,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -13946,16 +14019,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>665</v>
-      </c>
-      <c r="C3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13963,16 +14036,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>666</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13980,16 +14053,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13997,16 +14070,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14014,16 +14087,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14031,16 +14104,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14048,16 +14121,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14065,16 +14138,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14082,16 +14155,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14099,7 +14172,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -14111,13 +14184,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14125,7 +14198,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -14137,13 +14210,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14151,7 +14224,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -14163,13 +14236,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14177,7 +14250,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14189,13 +14262,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14203,7 +14276,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -14215,13 +14288,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14229,7 +14302,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -14241,13 +14314,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14255,7 +14328,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -14267,13 +14340,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14281,7 +14354,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -14293,13 +14366,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -14307,7 +14380,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -14319,13 +14392,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -14333,7 +14406,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -14345,13 +14418,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -14359,7 +14432,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -14371,13 +14444,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
+        <v>675</v>
+      </c>
+      <c r="J22" t="s">
+        <v>676</v>
+      </c>
+      <c r="K22" t="s">
         <v>677</v>
-      </c>
-      <c r="J22" t="s">
-        <v>678</v>
-      </c>
-      <c r="K22" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -14385,7 +14458,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -14397,13 +14470,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -14411,7 +14484,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -14423,13 +14496,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J24" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -14437,7 +14510,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -14449,13 +14522,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -14463,7 +14536,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -14475,13 +14548,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -14489,7 +14562,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -14501,13 +14574,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -14515,7 +14588,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -14527,13 +14600,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K28" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -14541,7 +14614,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -14553,13 +14626,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -14567,7 +14640,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -14579,13 +14652,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J30" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K30" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E9C23E-BDCC-41EE-9EB6-9945F24A7A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D2785-A131-4344-BF31-0028A29A5423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,11 @@
     <sheet name="Links" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="728">
   <si>
     <t>ID</t>
   </si>
@@ -2118,12 +2108,6 @@
     <t xml:space="preserve">Tobacco purchase </t>
   </si>
   <si>
-    <t xml:space="preserve">Behaviour attribute </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behaviour pattern </t>
-  </si>
-  <si>
     <t>A behaviour pattern that involves smoking a cigarette at least once per day.</t>
   </si>
   <si>
@@ -2139,12 +2123,6 @@
     <t xml:space="preserve">A behaviour attribute that involves regular use of cigarettes. </t>
   </si>
   <si>
-    <t xml:space="preserve">A behaviour attribute that involve using an e-cigarette for vaping. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-cigarette use that indicates a person has ever used an e-cigarette. </t>
-  </si>
-  <si>
     <t xml:space="preserve">E-cigarette use that indicates a person has used an e-cigarette in the 30-days prior to the time of asking. </t>
   </si>
   <si>
@@ -2194,6 +2172,42 @@
   </si>
   <si>
     <t>A behavioural episode that involves the act of drawing cigarette smoke into the body.</t>
+  </si>
+  <si>
+    <t>Ever use in which the product is an- e cigarette.</t>
+  </si>
+  <si>
+    <t>E-cigarette vaping</t>
+  </si>
+  <si>
+    <t>An e-cigarette behaviour that involves ingensting aerosol produced by an e-cigarette.</t>
+  </si>
+  <si>
+    <t>E-cigarette use behaviour</t>
+  </si>
+  <si>
+    <t>E-cugarette demand</t>
+  </si>
+  <si>
+    <t>A product purchase in which the product is a e-cigarettes.</t>
+  </si>
+  <si>
+    <t>Populaton attribute</t>
+  </si>
+  <si>
+    <t>Person attribute</t>
+  </si>
+  <si>
+    <t>Tobacco use pattern</t>
+  </si>
+  <si>
+    <t>E-cigarette use pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-cigarette use pattern that indicates current use of an e-cigarette. </t>
+  </si>
+  <si>
+    <t>A product demand in which the product is a e-cigarettes.</t>
   </si>
 </sst>
 </file>
@@ -2754,39 +2768,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T427"/>
+  <dimension ref="A1:T429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="16" style="10" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="10" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="48.7109375" style="10" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="10" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="10"/>
+    <col min="8" max="8" width="35.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="10" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="10" customWidth="1"/>
+    <col min="18" max="18" width="37.1640625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="48.6640625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="10" customWidth="1"/>
+    <col min="21" max="22" width="9.1640625" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="32" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2891,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="3" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="35" t="s">
         <v>28</v>
       </c>
@@ -2906,7 +2920,7 @@
       <c r="S3" s="11"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="4" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A4" s="35" t="s">
         <v>33</v>
       </c>
@@ -2995,7 +3009,7 @@
       <c r="S6" s="25"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="7" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
@@ -3031,7 +3045,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A8" s="35" t="s">
         <v>50</v>
       </c>
@@ -3060,7 +3074,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -3096,7 +3110,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="10" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>57</v>
       </c>
@@ -3125,7 +3139,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="11" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A11" s="35" t="s">
         <v>61</v>
       </c>
@@ -3157,7 +3171,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="15" customFormat="1" ht="32.1" customHeight="1">
+    <row r="12" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>66</v>
       </c>
@@ -3241,7 +3255,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="14" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>78</v>
       </c>
@@ -3281,7 +3295,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="15" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>83</v>
       </c>
@@ -3351,7 +3365,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="17" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>92</v>
       </c>
@@ -3384,7 +3398,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="18" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>96</v>
       </c>
@@ -3417,7 +3431,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="19" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>99</v>
       </c>
@@ -3450,7 +3464,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="20" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>102</v>
       </c>
@@ -3483,7 +3497,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="21" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>105</v>
       </c>
@@ -3516,7 +3530,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="22" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -3549,7 +3563,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="23" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>111</v>
@@ -3576,7 +3590,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
+    <row r="24" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>112</v>
       </c>
@@ -3613,7 +3627,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="25" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>115</v>
@@ -3642,7 +3656,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="26" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>116</v>
@@ -3669,7 +3683,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="27" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
         <v>117</v>
@@ -3696,7 +3710,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" s="19" customFormat="1" ht="111.95" customHeight="1">
+    <row r="28" spans="1:19" s="19" customFormat="1" ht="112" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>118</v>
@@ -3727,7 +3741,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="29" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>121</v>
@@ -3754,7 +3768,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="30" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
         <v>122</v>
@@ -3781,7 +3795,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="31" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
         <v>123</v>
@@ -3808,7 +3822,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="32" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
         <v>124</v>
@@ -3835,7 +3849,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="33" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
         <v>125</v>
@@ -3862,10 +3876,10 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="34" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3889,7 +3903,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19" s="15" customFormat="1" ht="32.1" customHeight="1">
+    <row r="35" spans="1:19" s="15" customFormat="1" ht="32" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>126</v>
       </c>
@@ -3924,7 +3938,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="36" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>130</v>
       </c>
@@ -3946,7 +3960,7 @@
       </c>
       <c r="N36" s="28"/>
     </row>
-    <row r="37" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="37" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>132</v>
       </c>
@@ -3968,7 +3982,7 @@
       </c>
       <c r="N37" s="28"/>
     </row>
-    <row r="38" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+    <row r="38" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>135</v>
       </c>
@@ -4019,7 +4033,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="40" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
         <v>64</v>
@@ -4050,7 +4064,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="41" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
         <v>141</v>
@@ -4079,7 +4093,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="42" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>143</v>
       </c>
@@ -4112,7 +4126,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="43" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
         <v>146</v>
@@ -4139,7 +4153,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="44" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>147</v>
       </c>
@@ -4174,7 +4188,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="45" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>151</v>
       </c>
@@ -4209,7 +4223,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="46" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
         <v>155</v>
@@ -4236,7 +4250,7 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="47" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
         <v>156</v>
@@ -4263,7 +4277,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="48" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
         <v>157</v>
@@ -4290,7 +4304,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="49" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>158</v>
@@ -4317,7 +4331,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="50" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
         <v>159</v>
@@ -4344,7 +4358,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="51" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>160</v>
@@ -4371,7 +4385,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="52" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>161</v>
@@ -4398,7 +4412,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="53" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>162</v>
@@ -4425,7 +4439,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="54" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>163</v>
@@ -4452,7 +4466,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="55" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>164</v>
@@ -4479,7 +4493,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="56" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
         <v>165</v>
@@ -4506,7 +4520,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="57" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>166</v>
@@ -4533,7 +4547,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="58" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>167</v>
@@ -4560,7 +4574,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19" s="19" customFormat="1" ht="63.95" customHeight="1">
+    <row r="59" spans="1:19" s="19" customFormat="1" ht="64" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>168</v>
@@ -4589,7 +4603,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="60" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>170</v>
@@ -4616,7 +4630,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="61" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>171</v>
@@ -4643,7 +4657,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="62" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>172</v>
@@ -4670,7 +4684,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="63" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
         <v>173</v>
@@ -4697,17 +4711,17 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19" s="32" customFormat="1" ht="15.95" customHeight="1">
+    <row r="64" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="31" t="s">
         <v>179</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31" t="s">
@@ -4734,17 +4748,17 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" s="32" customFormat="1" ht="15.95" customHeight="1">
+    <row r="65" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A65" s="31"/>
       <c r="B65" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31" t="s">
@@ -4753,7 +4767,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
       <c r="J65" s="31" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K65" s="31"/>
       <c r="L65" s="31"/>
@@ -4774,20 +4788,22 @@
     <row r="66" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
+      <c r="E66" s="31" t="s">
+        <v>722</v>
+      </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="31" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -4801,13 +4817,15 @@
     <row r="67" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
+      <c r="E67" s="31" t="s">
+        <v>723</v>
+      </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
       <c r="H67" s="31"/>
@@ -4823,17 +4841,17 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" s="32" customFormat="1" ht="15.95" customHeight="1">
+    <row r="68" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A68" s="31"/>
       <c r="B68" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="31" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31" t="s">
@@ -4860,17 +4878,17 @@
       <c r="R68" s="31"/>
       <c r="S68" s="31"/>
     </row>
-    <row r="69" spans="1:19" s="32" customFormat="1" ht="15.95" customHeight="1">
+    <row r="69" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A69" s="31"/>
       <c r="B69" s="31" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="31" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -4887,15 +4905,15 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="70" spans="1:19" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>24</v>
@@ -4920,10 +4938,10 @@
         <v>177</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>24</v>
@@ -4940,17 +4958,17 @@
       </c>
       <c r="S71" s="30"/>
     </row>
-    <row r="72" spans="1:19" s="32" customFormat="1" ht="15.95" customHeight="1">
+    <row r="72" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A72" s="31"/>
       <c r="B72" s="31" t="s">
         <v>178</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="31" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31" t="s">
@@ -4971,7 +4989,7 @@
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
     </row>
-    <row r="73" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="73" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
         <v>180</v>
@@ -4998,7 +5016,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="74" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
         <v>181</v>
@@ -5025,7 +5043,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="75" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
         <v>182</v>
@@ -5052,7 +5070,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="76" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
         <v>183</v>
@@ -5079,7 +5097,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="77" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A77" s="10" t="s">
         <v>184</v>
       </c>
@@ -5112,7 +5130,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="78" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A78" s="10" t="s">
         <v>188</v>
       </c>
@@ -5145,7 +5163,7 @@
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
     </row>
-    <row r="79" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="79" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
         <v>192</v>
@@ -5172,7 +5190,7 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="80" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B80" s="19" t="s">
         <v>193</v>
       </c>
@@ -5188,7 +5206,7 @@
       </c>
       <c r="S80" s="11"/>
     </row>
-    <row r="81" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="81" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
         <v>194</v>
@@ -5215,7 +5233,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="82" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
         <v>195</v>
@@ -5242,7 +5260,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="83" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A83" s="10" t="s">
         <v>196</v>
       </c>
@@ -5275,7 +5293,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="84" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
         <v>198</v>
@@ -5306,7 +5324,7 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="85" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="s">
         <v>201</v>
@@ -5331,7 +5349,7 @@
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
     </row>
-    <row r="86" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="86" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
         <v>202</v>
@@ -5358,7 +5376,7 @@
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
     </row>
-    <row r="87" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="87" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
         <v>203</v>
@@ -5385,7 +5403,7 @@
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
     </row>
-    <row r="88" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="88" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
         <v>204</v>
@@ -5412,7 +5430,7 @@
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
     </row>
-    <row r="89" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="89" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="s">
         <v>205</v>
@@ -5439,7 +5457,7 @@
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
     </row>
-    <row r="90" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="90" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
         <v>206</v>
@@ -5464,7 +5482,7 @@
       <c r="R90" s="9"/>
       <c r="S90" s="9"/>
     </row>
-    <row r="91" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="91" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="s">
         <v>207</v>
@@ -5491,7 +5509,7 @@
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
     </row>
-    <row r="92" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="92" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="19" t="s">
         <v>22</v>
@@ -5516,7 +5534,7 @@
       <c r="R92" s="9"/>
       <c r="S92" s="9"/>
     </row>
-    <row r="93" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="93" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B93" s="19" t="s">
         <v>208</v>
       </c>
@@ -5533,7 +5551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="94" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B94" s="9" t="s">
         <v>209</v>
       </c>
@@ -5549,7 +5567,7 @@
       </c>
       <c r="S94" s="11"/>
     </row>
-    <row r="95" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="95" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
         <v>210</v>
@@ -5576,15 +5594,15 @@
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
     </row>
-    <row r="96" spans="1:19" s="29" customFormat="1" ht="32.1" customHeight="1">
+    <row r="96" spans="1:19" s="29" customFormat="1" ht="32" customHeight="1">
       <c r="B96" s="29" t="s">
         <v>211</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>144</v>
+        <v>724</v>
       </c>
       <c r="F96" s="29" t="s">
         <v>44</v>
@@ -5593,7 +5611,7 @@
         <v>24</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K96" s="30"/>
       <c r="O96" s="29">
@@ -5607,7 +5625,7 @@
       </c>
       <c r="S96" s="30"/>
     </row>
-    <row r="97" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="97" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
         <v>212</v>
@@ -5634,7 +5652,7 @@
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
     </row>
-    <row r="98" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="98" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="s">
         <v>213</v>
@@ -5661,7 +5679,7 @@
       <c r="R98" s="9"/>
       <c r="S98" s="9"/>
     </row>
-    <row r="99" spans="1:19" s="32" customFormat="1" ht="15.95" customHeight="1">
+    <row r="99" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A99" s="31"/>
       <c r="B99" s="31" t="s">
         <v>214</v>
@@ -5700,7 +5718,7 @@
       <c r="R99" s="31"/>
       <c r="S99" s="31"/>
     </row>
-    <row r="100" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="100" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
         <v>215</v>
@@ -5727,7 +5745,7 @@
       <c r="R100" s="9"/>
       <c r="S100" s="9"/>
     </row>
-    <row r="101" spans="1:19" s="27" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="101" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
       <c r="A101" s="28" t="s">
         <v>216</v>
       </c>
@@ -5768,7 +5786,7 @@
       <c r="R101" s="28"/>
       <c r="S101" s="28"/>
     </row>
-    <row r="102" spans="1:19" s="27" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="102" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
       <c r="A102" s="28" t="s">
         <v>222</v>
       </c>
@@ -5807,7 +5825,7 @@
       <c r="R102" s="28"/>
       <c r="S102" s="28"/>
     </row>
-    <row r="103" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="103" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
         <v>226</v>
@@ -5834,7 +5852,7 @@
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
     </row>
-    <row r="104" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="104" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
         <v>227</v>
@@ -5861,7 +5879,7 @@
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
     </row>
-    <row r="105" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="105" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
         <v>228</v>
@@ -5888,7 +5906,7 @@
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
     </row>
-    <row r="106" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="106" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="s">
         <v>229</v>
@@ -5915,7 +5933,7 @@
       <c r="R106" s="9"/>
       <c r="S106" s="9"/>
     </row>
-    <row r="107" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="107" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
         <v>230</v>
@@ -5942,7 +5960,7 @@
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
     </row>
-    <row r="108" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="108" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
         <v>231</v>
@@ -5969,7 +5987,7 @@
       <c r="R108" s="9"/>
       <c r="S108" s="9"/>
     </row>
-    <row r="109" spans="1:19" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="109" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="s">
         <v>232</v>
@@ -5996,7 +6014,7 @@
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
     </row>
-    <row r="110" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="110" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
         <v>233</v>
@@ -6025,7 +6043,7 @@
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
     </row>
-    <row r="111" spans="1:19" s="22" customFormat="1" ht="32.1" customHeight="1">
+    <row r="111" spans="1:19" s="22" customFormat="1" ht="32" customHeight="1">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>235</v>
@@ -6053,7 +6071,7 @@
       <c r="R111" s="20"/>
       <c r="S111" s="20"/>
     </row>
-    <row r="112" spans="1:19" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="112" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
         <v>237</v>
@@ -6082,7 +6100,7 @@
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
     </row>
-    <row r="113" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="113" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="s">
         <v>239</v>
@@ -6108,7 +6126,7 @@
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
     </row>
-    <row r="114" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="114" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
         <v>240</v>
@@ -6135,7 +6153,7 @@
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
     </row>
-    <row r="115" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="115" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A115" s="9"/>
       <c r="B115" s="9" t="s">
         <v>241</v>
@@ -6163,7 +6181,7 @@
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
     </row>
-    <row r="116" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="116" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="s">
         <v>242</v>
@@ -6191,7 +6209,7 @@
       <c r="S116" s="9"/>
       <c r="T116" s="9"/>
     </row>
-    <row r="117" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="117" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
         <v>243</v>
@@ -6219,7 +6237,7 @@
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
     </row>
-    <row r="118" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="118" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A118" s="9" t="s">
         <v>244</v>
       </c>
@@ -6253,7 +6271,7 @@
       <c r="S118" s="9"/>
       <c r="T118" s="9"/>
     </row>
-    <row r="119" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="119" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
         <v>246</v>
@@ -6281,7 +6299,7 @@
       <c r="S119" s="9"/>
       <c r="T119" s="9"/>
     </row>
-    <row r="120" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="120" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
         <v>247</v>
@@ -6309,7 +6327,7 @@
       <c r="S120" s="9"/>
       <c r="T120" s="9"/>
     </row>
-    <row r="121" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="121" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="s">
         <v>248</v>
@@ -6337,7 +6355,7 @@
       <c r="S121" s="9"/>
       <c r="T121" s="9"/>
     </row>
-    <row r="122" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="122" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="s">
         <v>249</v>
@@ -6365,7 +6383,7 @@
       <c r="S122" s="9"/>
       <c r="T122" s="9"/>
     </row>
-    <row r="123" spans="1:20" s="32" customFormat="1" ht="32.1" customHeight="1">
+    <row r="123" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
       <c r="A123" s="31"/>
       <c r="B123" s="32" t="s">
         <v>250</v>
@@ -6405,7 +6423,7 @@
       <c r="S123" s="31"/>
       <c r="T123" s="31"/>
     </row>
-    <row r="124" spans="1:20" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="124" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B124" s="29" t="s">
         <v>251</v>
       </c>
@@ -6437,7 +6455,7 @@
       <c r="S124" s="30"/>
       <c r="T124" s="33"/>
     </row>
-    <row r="125" spans="1:20" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="125" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B125" s="29" t="s">
         <v>252</v>
       </c>
@@ -6469,7 +6487,7 @@
       <c r="S125" s="30"/>
       <c r="T125" s="33"/>
     </row>
-    <row r="126" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="126" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B126" s="9" t="s">
         <v>253</v>
       </c>
@@ -6490,7 +6508,7 @@
       <c r="S126" s="11"/>
       <c r="T126" s="9"/>
     </row>
-    <row r="127" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="127" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A127" s="9"/>
       <c r="B127" s="9" t="s">
         <v>256</v>
@@ -6518,7 +6536,7 @@
       <c r="S127" s="9"/>
       <c r="T127" s="9"/>
     </row>
-    <row r="128" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="128" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="s">
         <v>258</v>
@@ -6546,35 +6564,39 @@
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
     </row>
-    <row r="129" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A129" s="9"/>
-      <c r="B129" s="19" t="s">
+    <row r="129" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A129" s="31"/>
+      <c r="B129" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R129" s="9"/>
-      <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-    </row>
-    <row r="130" spans="1:20" s="32" customFormat="1" ht="15.95" customHeight="1">
+      <c r="C129" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="31"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="31"/>
+      <c r="M129" s="31"/>
+      <c r="N129" s="31"/>
+      <c r="O129" s="31"/>
+      <c r="P129" s="31"/>
+      <c r="Q129" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R129" s="31"/>
+      <c r="S129" s="31"/>
+      <c r="T129" s="31"/>
+    </row>
+    <row r="130" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="B130" s="32" t="s">
         <v>260</v>
       </c>
@@ -6582,7 +6604,7 @@
         <v>691</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>268</v>
+        <v>725</v>
       </c>
       <c r="G130" s="32" t="s">
         <v>24</v>
@@ -6600,47 +6622,35 @@
       <c r="S130" s="34"/>
       <c r="T130" s="31"/>
     </row>
-    <row r="131" spans="1:20" s="29" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B131" s="29" t="s">
+    <row r="131" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="B131" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="E131" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="K131" s="34"/>
+      <c r="S131" s="34"/>
+      <c r="T131" s="31"/>
+    </row>
+    <row r="132" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B132" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G131" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J131" s="29" t="s">
+      <c r="C132" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" s="29" t="s">
         <v>262</v>
-      </c>
-      <c r="K131" s="30"/>
-      <c r="O131" s="29">
-        <v>1</v>
-      </c>
-      <c r="P131" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q131" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S131" s="30"/>
-      <c r="T131" s="33"/>
-    </row>
-    <row r="132" spans="1:20" s="29" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B132" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="C132" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G132" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="K132" s="30"/>
       <c r="O132" s="29">
@@ -6655,26 +6665,35 @@
       <c r="S132" s="30"/>
       <c r="T132" s="33"/>
     </row>
-    <row r="133" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B133" s="19" t="s">
+    <row r="133" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B133" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" s="30"/>
+      <c r="O133" s="29">
+        <v>1</v>
+      </c>
+      <c r="P133" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q133" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S133" s="30"/>
+      <c r="T133" s="33"/>
+    </row>
+    <row r="134" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B134" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="G133" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K133" s="11"/>
-      <c r="O133" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S133" s="11"/>
-      <c r="T133" s="9"/>
-    </row>
-    <row r="134" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B134" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="G134" s="19" t="s">
         <v>24</v>
@@ -6689,15 +6708,12 @@
       <c r="S134" s="11"/>
       <c r="T134" s="9"/>
     </row>
-    <row r="135" spans="1:20" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="135" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B135" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>268</v>
+        <v>721</v>
       </c>
       <c r="G135" s="29" t="s">
         <v>24</v>
@@ -6712,15 +6728,15 @@
       <c r="S135" s="30"/>
       <c r="T135" s="33"/>
     </row>
-    <row r="136" spans="1:20" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="136" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B136" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="G136" s="29" t="s">
         <v>24</v>
@@ -6729,24 +6745,21 @@
       <c r="O136" s="29">
         <v>1</v>
       </c>
-      <c r="P136" s="29" t="s">
-        <v>682</v>
-      </c>
       <c r="Q136" s="29" t="s">
         <v>27</v>
       </c>
       <c r="S136" s="30"/>
       <c r="T136" s="33"/>
     </row>
-    <row r="137" spans="1:20" s="29" customFormat="1" ht="15.95" customHeight="1">
+    <row r="137" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B137" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C137" s="29" t="s">
         <v>701</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="G137" s="29" t="s">
         <v>24</v>
@@ -6764,26 +6777,35 @@
       <c r="S137" s="30"/>
       <c r="T137" s="33"/>
     </row>
-    <row r="138" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B138" s="19" t="s">
+    <row r="138" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B138" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K138" s="30"/>
+      <c r="O138" s="29">
+        <v>1</v>
+      </c>
+      <c r="P138" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q138" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S138" s="30"/>
+      <c r="T138" s="33"/>
+    </row>
+    <row r="139" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B139" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K138" s="11"/>
-      <c r="O138" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S138" s="11"/>
-      <c r="T138" s="9"/>
-    </row>
-    <row r="139" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B139" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="G139" s="19" t="s">
         <v>24</v>
@@ -6798,9 +6820,9 @@
       <c r="S139" s="11"/>
       <c r="T139" s="9"/>
     </row>
-    <row r="140" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="140" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B140" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>24</v>
@@ -6815,9 +6837,9 @@
       <c r="S140" s="11"/>
       <c r="T140" s="9"/>
     </row>
-    <row r="141" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="141" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B141" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>24</v>
@@ -6832,9 +6854,9 @@
       <c r="S141" s="11"/>
       <c r="T141" s="9"/>
     </row>
-    <row r="142" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B142" s="9" t="s">
-        <v>273</v>
+    <row r="142" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B142" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="G142" s="19" t="s">
         <v>24</v>
@@ -6849,66 +6871,35 @@
       <c r="S142" s="11"/>
       <c r="T142" s="9"/>
     </row>
-    <row r="143" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9" t="s">
+    <row r="143" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B143" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="K143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="9"/>
+    </row>
+    <row r="144" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B144" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" s="11"/>
+      <c r="O144" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S144" s="11"/>
+      <c r="T144" s="9"/>
+    </row>
+    <row r="145" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9"/>
-    </row>
-    <row r="144" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
-      <c r="T144" s="9"/>
-    </row>
-    <row r="145" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -6933,27 +6924,38 @@
       <c r="S145" s="9"/>
       <c r="T145" s="9"/>
     </row>
-    <row r="146" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="146" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G146" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K146" s="11"/>
-      <c r="O146" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q146" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S146" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
       <c r="T146" s="9"/>
     </row>
-    <row r="147" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="147" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="9" t="s">
-        <v>278</v>
+      <c r="B147" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -6978,51 +6980,36 @@
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
     </row>
-    <row r="148" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A148" s="9"/>
+    <row r="148" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B148" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R148" s="9"/>
-      <c r="S148" s="9"/>
+        <v>277</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K148" s="11"/>
+      <c r="O148" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S148" s="11"/>
       <c r="T148" s="9"/>
     </row>
-    <row r="149" spans="1:20" s="19" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="149" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>281</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H149" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="H149" s="9"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
@@ -7038,11 +7025,13 @@
       <c r="S149" s="9"/>
       <c r="T149" s="9"/>
     </row>
-    <row r="150" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="150" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>283</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9" t="s">
@@ -7064,19 +7053,23 @@
       <c r="S150" s="9"/>
       <c r="T150" s="9"/>
     </row>
-    <row r="151" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="151" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C151" s="9"/>
+        <v>280</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H151" s="9"/>
+      <c r="H151" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -7092,13 +7085,11 @@
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
     </row>
-    <row r="152" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="152" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
+        <v>283</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9" t="s">
@@ -7120,48 +7111,38 @@
       <c r="S152" s="9"/>
       <c r="T152" s="9"/>
     </row>
-    <row r="153" spans="1:20" s="15" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-      <c r="K153" s="14"/>
-      <c r="L153" s="14"/>
-      <c r="M153" s="14"/>
-      <c r="N153" s="14"/>
-      <c r="O153" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P153" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q153" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="R153" s="14"/>
-      <c r="S153" s="14"/>
-      <c r="T153" s="14"/>
-    </row>
-    <row r="154" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="153" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R153" s="9"/>
+      <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
+    </row>
+    <row r="154" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -7186,38 +7167,48 @@
       <c r="S154" s="9"/>
       <c r="T154" s="9"/>
     </row>
-    <row r="155" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
-      <c r="N155" s="9"/>
-      <c r="O155" s="9"/>
-      <c r="P155" s="9"/>
-      <c r="Q155" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R155" s="9"/>
-      <c r="S155" s="9"/>
-      <c r="T155" s="9"/>
-    </row>
-    <row r="156" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="155" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P155" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q155" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R155" s="14"/>
+      <c r="S155" s="14"/>
+      <c r="T155" s="14"/>
+    </row>
+    <row r="156" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A156" s="9"/>
       <c r="B156" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -7242,10 +7233,10 @@
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
     </row>
-    <row r="157" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="157" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A157" s="9"/>
-      <c r="B157" s="19" t="s">
-        <v>292</v>
+      <c r="B157" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -7270,37 +7261,42 @@
       <c r="S157" s="9"/>
       <c r="T157" s="9"/>
     </row>
-    <row r="158" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="158" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G158" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K158" s="11"/>
-      <c r="O158" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S158" s="11"/>
+        <v>291</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R158" s="9"/>
+      <c r="S158" s="9"/>
       <c r="T158" s="9"/>
     </row>
-    <row r="159" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>296</v>
-      </c>
+    <row r="159" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A159" s="9"/>
+      <c r="B159" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9" t="s">
         <v>24</v>
@@ -7311,9 +7307,7 @@
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
-      <c r="N159" s="9">
-        <v>1</v>
-      </c>
+      <c r="N159" s="9"/>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
       <c r="Q159" s="9" t="s">
@@ -7323,59 +7317,64 @@
       <c r="S159" s="9"/>
       <c r="T159" s="9"/>
     </row>
-    <row r="160" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A160" s="9"/>
-      <c r="B160" s="19" t="s">
+    <row r="160" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B160" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K160" s="11"/>
+      <c r="O160" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S160" s="11"/>
+      <c r="T160" s="9"/>
+    </row>
+    <row r="161" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A161" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9">
+        <v>1</v>
+      </c>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R161" s="9"/>
+      <c r="S161" s="9"/>
+      <c r="T161" s="9"/>
+    </row>
+    <row r="162" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A162" s="9"/>
+      <c r="B162" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-      <c r="M160" s="9"/>
-      <c r="N160" s="9"/>
-      <c r="O160" s="9"/>
-      <c r="P160" s="9"/>
-      <c r="Q160" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R160" s="9"/>
-      <c r="S160" s="9"/>
-      <c r="T160" s="9"/>
-    </row>
-    <row r="161" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B161" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G161" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K161" s="11"/>
-      <c r="N161" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O161" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q161" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S161" s="11"/>
-      <c r="T161" s="9"/>
-    </row>
-    <row r="162" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9" t="s">
@@ -7397,40 +7396,30 @@
       <c r="S162" s="9"/>
       <c r="T162" s="9"/>
     </row>
-    <row r="163" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A163" s="9"/>
+    <row r="163" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B163" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="9"/>
-      <c r="P163" s="9"/>
-      <c r="Q163" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R163" s="9"/>
-      <c r="S163" s="9"/>
+        <v>298</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K163" s="11"/>
+      <c r="N163" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O163" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S163" s="11"/>
       <c r="T163" s="9"/>
     </row>
-    <row r="164" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="164" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -7455,10 +7444,10 @@
       <c r="S164" s="9"/>
       <c r="T164" s="9"/>
     </row>
-    <row r="165" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="165" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -7469,7 +7458,9 @@
       </c>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="J165" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
@@ -7483,10 +7474,10 @@
       <c r="S165" s="9"/>
       <c r="T165" s="9"/>
     </row>
-    <row r="166" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="166" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -7511,10 +7502,10 @@
       <c r="S166" s="9"/>
       <c r="T166" s="9"/>
     </row>
-    <row r="167" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="167" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -7539,10 +7530,10 @@
       <c r="S167" s="9"/>
       <c r="T167" s="9"/>
     </row>
-    <row r="168" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="168" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -7567,10 +7558,10 @@
       <c r="S168" s="9"/>
       <c r="T168" s="9"/>
     </row>
-    <row r="169" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="169" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -7595,10 +7586,10 @@
       <c r="S169" s="9"/>
       <c r="T169" s="9"/>
     </row>
-    <row r="170" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="170" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -7623,10 +7614,10 @@
       <c r="S170" s="9"/>
       <c r="T170" s="9"/>
     </row>
-    <row r="171" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="171" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -7651,10 +7642,10 @@
       <c r="S171" s="9"/>
       <c r="T171" s="9"/>
     </row>
-    <row r="172" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="172" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -7679,10 +7670,10 @@
       <c r="S172" s="9"/>
       <c r="T172" s="9"/>
     </row>
-    <row r="173" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="173" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -7707,10 +7698,10 @@
       <c r="S173" s="9"/>
       <c r="T173" s="9"/>
     </row>
-    <row r="174" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="174" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -7735,10 +7726,10 @@
       <c r="S174" s="9"/>
       <c r="T174" s="9"/>
     </row>
-    <row r="175" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="175" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -7763,10 +7754,10 @@
       <c r="S175" s="9"/>
       <c r="T175" s="9"/>
     </row>
-    <row r="176" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="176" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A176" s="9"/>
-      <c r="B176" s="19" t="s">
-        <v>314</v>
+      <c r="B176" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -7777,9 +7768,7 @@
       </c>
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
-      <c r="J176" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
       <c r="M176" s="9"/>
@@ -7793,14 +7782,12 @@
       <c r="S176" s="9"/>
       <c r="T176" s="9"/>
     </row>
-    <row r="177" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="177" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>316</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -7808,9 +7795,7 @@
         <v>24</v>
       </c>
       <c r="H177" s="9"/>
-      <c r="I177" s="9" t="s">
-        <v>317</v>
-      </c>
+      <c r="I177" s="9"/>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
@@ -7825,10 +7810,10 @@
       <c r="S177" s="9"/>
       <c r="T177" s="9"/>
     </row>
-    <row r="178" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="178" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A178" s="9"/>
-      <c r="B178" s="9" t="s">
-        <v>318</v>
+      <c r="B178" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -7839,7 +7824,9 @@
       </c>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
+      <c r="J178" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
       <c r="M178" s="9"/>
@@ -7853,12 +7840,14 @@
       <c r="S178" s="9"/>
       <c r="T178" s="9"/>
     </row>
-    <row r="179" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="179" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A179" s="9"/>
       <c r="B179" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C179" s="9"/>
+        <v>315</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -7866,7 +7855,9 @@
         <v>24</v>
       </c>
       <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
+      <c r="I179" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
@@ -7881,23 +7872,15 @@
       <c r="S179" s="9"/>
       <c r="T179" s="9"/>
     </row>
-    <row r="180" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A180" s="9" t="s">
-        <v>320</v>
-      </c>
+    <row r="180" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>322</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C180" s="9"/>
       <c r="D180" s="9"/>
-      <c r="E180" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
       <c r="G180" s="9" t="s">
         <v>24</v>
       </c>
@@ -7917,105 +7900,124 @@
       <c r="S180" s="9"/>
       <c r="T180" s="9"/>
     </row>
-    <row r="181" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A181" s="10" t="s">
+    <row r="181" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="9"/>
+      <c r="O181" s="9"/>
+      <c r="P181" s="9"/>
+      <c r="Q181" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R181" s="9"/>
+      <c r="S181" s="9"/>
+      <c r="T181" s="9"/>
+    </row>
+    <row r="182" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A182" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R182" s="9"/>
+      <c r="S182" s="9"/>
+      <c r="T182" s="9"/>
+    </row>
+    <row r="183" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A183" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B183" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C183" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D181" s="18"/>
-      <c r="E181" s="10" t="s">
+      <c r="D183" s="18"/>
+      <c r="E183" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="F181" s="10" t="s">
+      <c r="F183" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="G181" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="10"/>
-      <c r="M181" s="10"/>
-      <c r="N181" s="10"/>
-      <c r="O181" s="10"/>
-      <c r="P181" s="10"/>
-      <c r="Q181" s="10"/>
-      <c r="R181" s="10"/>
-      <c r="S181" s="10"/>
-      <c r="T181" s="9"/>
-    </row>
-    <row r="182" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B182" s="19" t="s">
+      <c r="G183" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10"/>
+      <c r="O183" s="10"/>
+      <c r="P183" s="10"/>
+      <c r="Q183" s="10"/>
+      <c r="R183" s="10"/>
+      <c r="S183" s="10"/>
+      <c r="T183" s="9"/>
+    </row>
+    <row r="184" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B184" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="G182" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K182" s="11"/>
-      <c r="O182" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q182" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S182" s="11"/>
-      <c r="T182" s="9"/>
-    </row>
-    <row r="183" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B183" s="19" t="s">
+      <c r="G184" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K184" s="11"/>
+      <c r="O184" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S184" s="11"/>
+      <c r="T184" s="9"/>
+    </row>
+    <row r="185" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B185" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="G183" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K183" s="11"/>
-      <c r="O183" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q183" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S183" s="11"/>
-      <c r="T183" s="9"/>
-    </row>
-    <row r="184" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H184" s="9"/>
-      <c r="I184" s="9"/>
-      <c r="J184" s="9"/>
-      <c r="K184" s="9"/>
-      <c r="L184" s="9"/>
-      <c r="M184" s="9"/>
-      <c r="N184" s="9"/>
-      <c r="O184" s="9"/>
-      <c r="P184" s="9"/>
-      <c r="Q184" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R184" s="9"/>
-      <c r="S184" s="9"/>
-      <c r="T184" s="9"/>
-    </row>
-    <row r="185" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B185" s="19" t="s">
-        <v>330</v>
       </c>
       <c r="G185" s="19" t="s">
         <v>24</v>
@@ -8030,10 +8032,10 @@
       <c r="S185" s="11"/>
       <c r="T185" s="9"/>
     </row>
-    <row r="186" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="186" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
@@ -8058,38 +8060,27 @@
       <c r="S186" s="9"/>
       <c r="T186" s="9"/>
     </row>
-    <row r="187" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H187" s="9"/>
-      <c r="I187" s="9"/>
-      <c r="J187" s="9"/>
-      <c r="K187" s="9"/>
-      <c r="L187" s="9"/>
-      <c r="M187" s="9"/>
-      <c r="N187" s="9"/>
-      <c r="O187" s="9"/>
-      <c r="P187" s="9"/>
-      <c r="Q187" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R187" s="9"/>
-      <c r="S187" s="9"/>
+    <row r="187" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B187" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="G187" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K187" s="11"/>
+      <c r="O187" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q187" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S187" s="11"/>
       <c r="T187" s="9"/>
     </row>
-    <row r="188" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="188" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -8114,10 +8105,10 @@
       <c r="S188" s="9"/>
       <c r="T188" s="9"/>
     </row>
-    <row r="189" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="189" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -8142,27 +8133,38 @@
       <c r="S189" s="9"/>
       <c r="T189" s="9"/>
     </row>
-    <row r="190" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B190" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="G190" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K190" s="11"/>
-      <c r="O190" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q190" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S190" s="11"/>
+    <row r="190" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="9"/>
+      <c r="M190" s="9"/>
+      <c r="N190" s="9"/>
+      <c r="O190" s="9"/>
+      <c r="P190" s="9"/>
+      <c r="Q190" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R190" s="9"/>
+      <c r="S190" s="9"/>
       <c r="T190" s="9"/>
     </row>
-    <row r="191" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="191" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -8187,38 +8189,27 @@
       <c r="S191" s="9"/>
       <c r="T191" s="9"/>
     </row>
-    <row r="192" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H192" s="9"/>
-      <c r="I192" s="9"/>
-      <c r="J192" s="9"/>
-      <c r="K192" s="9"/>
-      <c r="L192" s="9"/>
-      <c r="M192" s="9"/>
-      <c r="N192" s="9"/>
-      <c r="O192" s="9"/>
-      <c r="P192" s="9"/>
-      <c r="Q192" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R192" s="9"/>
-      <c r="S192" s="9"/>
+    <row r="192" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B192" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G192" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K192" s="11"/>
+      <c r="O192" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S192" s="11"/>
       <c r="T192" s="9"/>
     </row>
-    <row r="193" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="193" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -8243,10 +8234,10 @@
       <c r="S193" s="9"/>
       <c r="T193" s="9"/>
     </row>
-    <row r="194" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="194" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -8271,10 +8262,10 @@
       <c r="S194" s="9"/>
       <c r="T194" s="9"/>
     </row>
-    <row r="195" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="195" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -8299,10 +8290,10 @@
       <c r="S195" s="9"/>
       <c r="T195" s="9"/>
     </row>
-    <row r="196" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="196" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -8327,27 +8318,38 @@
       <c r="S196" s="9"/>
       <c r="T196" s="9"/>
     </row>
-    <row r="197" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B197" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="G197" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K197" s="11"/>
-      <c r="O197" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q197" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S197" s="11"/>
+    <row r="197" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A197" s="9"/>
+      <c r="B197" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="9"/>
+      <c r="O197" s="9"/>
+      <c r="P197" s="9"/>
+      <c r="Q197" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R197" s="9"/>
+      <c r="S197" s="9"/>
       <c r="T197" s="9"/>
     </row>
-    <row r="198" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="198" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -8372,9 +8374,9 @@
       <c r="S198" s="9"/>
       <c r="T198" s="9"/>
     </row>
-    <row r="199" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="199" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B199" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G199" s="19" t="s">
         <v>24</v>
@@ -8389,26 +8391,37 @@
       <c r="S199" s="11"/>
       <c r="T199" s="9"/>
     </row>
-    <row r="200" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B200" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="G200" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K200" s="11"/>
-      <c r="O200" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q200" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S200" s="11"/>
+    <row r="200" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A200" s="9"/>
+      <c r="B200" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="9"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R200" s="9"/>
+      <c r="S200" s="9"/>
       <c r="T200" s="9"/>
     </row>
-    <row r="201" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="201" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B201" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G201" s="19" t="s">
         <v>24</v>
@@ -8423,9 +8436,9 @@
       <c r="S201" s="11"/>
       <c r="T201" s="9"/>
     </row>
-    <row r="202" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="202" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B202" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>24</v>
@@ -8440,9 +8453,9 @@
       <c r="S202" s="11"/>
       <c r="T202" s="9"/>
     </row>
-    <row r="203" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="203" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B203" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>24</v>
@@ -8457,9 +8470,9 @@
       <c r="S203" s="11"/>
       <c r="T203" s="9"/>
     </row>
-    <row r="204" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="204" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B204" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G204" s="19" t="s">
         <v>24</v>
@@ -8474,37 +8487,26 @@
       <c r="S204" s="11"/>
       <c r="T204" s="9"/>
     </row>
-    <row r="205" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H205" s="9"/>
-      <c r="I205" s="9"/>
-      <c r="J205" s="9"/>
-      <c r="K205" s="9"/>
-      <c r="L205" s="9"/>
-      <c r="M205" s="9"/>
-      <c r="N205" s="9"/>
-      <c r="O205" s="9"/>
-      <c r="P205" s="9"/>
-      <c r="Q205" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R205" s="9"/>
-      <c r="S205" s="9"/>
+    <row r="205" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B205" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G205" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K205" s="11"/>
+      <c r="O205" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S205" s="11"/>
       <c r="T205" s="9"/>
     </row>
-    <row r="206" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="206" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B206" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G206" s="19" t="s">
         <v>24</v>
@@ -8519,10 +8521,10 @@
       <c r="S206" s="11"/>
       <c r="T206" s="9"/>
     </row>
-    <row r="207" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="207" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -8547,38 +8549,27 @@
       <c r="S207" s="9"/>
       <c r="T207" s="9"/>
     </row>
-    <row r="208" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H208" s="9"/>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="9"/>
-      <c r="L208" s="9"/>
-      <c r="M208" s="9"/>
-      <c r="N208" s="9"/>
-      <c r="O208" s="9"/>
-      <c r="P208" s="9"/>
-      <c r="Q208" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R208" s="9"/>
-      <c r="S208" s="9"/>
+    <row r="208" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B208" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G208" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K208" s="11"/>
+      <c r="O208" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S208" s="11"/>
       <c r="T208" s="9"/>
     </row>
-    <row r="209" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="209" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -8603,10 +8594,10 @@
       <c r="S209" s="9"/>
       <c r="T209" s="9"/>
     </row>
-    <row r="210" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="210" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -8631,103 +8622,103 @@
       <c r="S210" s="9"/>
       <c r="T210" s="9"/>
     </row>
-    <row r="211" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B211" s="19" t="s">
+    <row r="211" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A211" s="9"/>
+      <c r="B211" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
+      <c r="M211" s="9"/>
+      <c r="N211" s="9"/>
+      <c r="O211" s="9"/>
+      <c r="P211" s="9"/>
+      <c r="Q211" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R211" s="9"/>
+      <c r="S211" s="9"/>
+      <c r="T211" s="9"/>
+    </row>
+    <row r="212" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A212" s="9"/>
+      <c r="B212" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="9"/>
+      <c r="M212" s="9"/>
+      <c r="N212" s="9"/>
+      <c r="O212" s="9"/>
+      <c r="P212" s="9"/>
+      <c r="Q212" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R212" s="9"/>
+      <c r="S212" s="9"/>
+      <c r="T212" s="9"/>
+    </row>
+    <row r="213" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B213" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="G211" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K211" s="11"/>
-      <c r="O211" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q211" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S211" s="11"/>
-      <c r="T211" s="9"/>
-    </row>
-    <row r="212" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B212" s="19" t="s">
+      <c r="G213" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K213" s="11"/>
+      <c r="O213" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S213" s="11"/>
+      <c r="T213" s="9"/>
+    </row>
+    <row r="214" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B214" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="G212" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J212" s="19" t="s">
+      <c r="G214" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J214" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="K212" s="11"/>
-      <c r="O212" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q212" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S212" s="11"/>
-      <c r="T212" s="9"/>
-    </row>
-    <row r="213" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="9"/>
-      <c r="N213" s="9"/>
-      <c r="O213" s="9"/>
-      <c r="P213" s="9"/>
-      <c r="Q213" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R213" s="9"/>
-      <c r="S213" s="9"/>
-      <c r="T213" s="9"/>
-    </row>
-    <row r="214" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="9"/>
-      <c r="M214" s="9"/>
-      <c r="N214" s="9"/>
-      <c r="O214" s="9"/>
-      <c r="P214" s="9"/>
-      <c r="Q214" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R214" s="9"/>
-      <c r="S214" s="9"/>
+      <c r="K214" s="11"/>
+      <c r="O214" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q214" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S214" s="11"/>
       <c r="T214" s="9"/>
     </row>
-    <row r="215" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="215" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -8752,10 +8743,10 @@
       <c r="S215" s="9"/>
       <c r="T215" s="9"/>
     </row>
-    <row r="216" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="216" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -8780,10 +8771,10 @@
       <c r="S216" s="9"/>
       <c r="T216" s="9"/>
     </row>
-    <row r="217" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="217" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -8808,10 +8799,10 @@
       <c r="S217" s="9"/>
       <c r="T217" s="9"/>
     </row>
-    <row r="218" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="218" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -8836,27 +8827,38 @@
       <c r="S218" s="9"/>
       <c r="T218" s="9"/>
     </row>
-    <row r="219" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B219" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="G219" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K219" s="11"/>
-      <c r="O219" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q219" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S219" s="11"/>
+    <row r="219" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A219" s="9"/>
+      <c r="B219" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
+      <c r="L219" s="9"/>
+      <c r="M219" s="9"/>
+      <c r="N219" s="9"/>
+      <c r="O219" s="9"/>
+      <c r="P219" s="9"/>
+      <c r="Q219" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R219" s="9"/>
+      <c r="S219" s="9"/>
       <c r="T219" s="9"/>
     </row>
-    <row r="220" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="220" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -8881,38 +8883,27 @@
       <c r="S220" s="9"/>
       <c r="T220" s="9"/>
     </row>
-    <row r="221" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H221" s="9"/>
-      <c r="I221" s="9"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="9"/>
-      <c r="L221" s="9"/>
-      <c r="M221" s="9"/>
-      <c r="N221" s="9"/>
-      <c r="O221" s="9"/>
-      <c r="P221" s="9"/>
-      <c r="Q221" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R221" s="9"/>
-      <c r="S221" s="9"/>
+    <row r="221" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B221" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G221" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K221" s="11"/>
+      <c r="O221" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S221" s="11"/>
       <c r="T221" s="9"/>
     </row>
-    <row r="222" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="222" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A222" s="9"/>
       <c r="B222" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
@@ -8923,9 +8914,7 @@
       </c>
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
-      <c r="J222" s="9" t="s">
-        <v>369</v>
-      </c>
+      <c r="J222" s="9"/>
       <c r="K222" s="9"/>
       <c r="L222" s="9"/>
       <c r="M222" s="9"/>
@@ -8939,10 +8928,10 @@
       <c r="S222" s="9"/>
       <c r="T222" s="9"/>
     </row>
-    <row r="223" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="223" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -8967,27 +8956,40 @@
       <c r="S223" s="9"/>
       <c r="T223" s="9"/>
     </row>
-    <row r="224" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B224" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="G224" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K224" s="11"/>
-      <c r="O224" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q224" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S224" s="11"/>
+    <row r="224" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A224" s="9"/>
+      <c r="B224" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="K224" s="9"/>
+      <c r="L224" s="9"/>
+      <c r="M224" s="9"/>
+      <c r="N224" s="9"/>
+      <c r="O224" s="9"/>
+      <c r="P224" s="9"/>
+      <c r="Q224" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R224" s="9"/>
+      <c r="S224" s="9"/>
       <c r="T224" s="9"/>
     </row>
-    <row r="225" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="225" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -9012,38 +9014,27 @@
       <c r="S225" s="9"/>
       <c r="T225" s="9"/>
     </row>
-    <row r="226" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H226" s="9"/>
-      <c r="I226" s="9"/>
-      <c r="J226" s="9"/>
-      <c r="K226" s="9"/>
-      <c r="L226" s="9"/>
-      <c r="M226" s="9"/>
-      <c r="N226" s="9"/>
-      <c r="O226" s="9"/>
-      <c r="P226" s="9"/>
-      <c r="Q226" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R226" s="9"/>
-      <c r="S226" s="9"/>
+    <row r="226" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B226" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="G226" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K226" s="11"/>
+      <c r="O226" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S226" s="11"/>
       <c r="T226" s="9"/>
     </row>
-    <row r="227" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="227" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
@@ -9068,10 +9059,10 @@
       <c r="S227" s="9"/>
       <c r="T227" s="9"/>
     </row>
-    <row r="228" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="228" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -9096,10 +9087,10 @@
       <c r="S228" s="9"/>
       <c r="T228" s="9"/>
     </row>
-    <row r="229" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="229" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -9124,10 +9115,10 @@
       <c r="S229" s="9"/>
       <c r="T229" s="9"/>
     </row>
-    <row r="230" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="230" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -9152,10 +9143,10 @@
       <c r="S230" s="9"/>
       <c r="T230" s="9"/>
     </row>
-    <row r="231" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="231" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -9180,10 +9171,10 @@
       <c r="S231" s="9"/>
       <c r="T231" s="9"/>
     </row>
-    <row r="232" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="232" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -9208,10 +9199,10 @@
       <c r="S232" s="9"/>
       <c r="T232" s="9"/>
     </row>
-    <row r="233" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="233" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -9236,10 +9227,10 @@
       <c r="S233" s="9"/>
       <c r="T233" s="9"/>
     </row>
-    <row r="234" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="234" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -9264,10 +9255,10 @@
       <c r="S234" s="9"/>
       <c r="T234" s="9"/>
     </row>
-    <row r="235" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="235" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
@@ -9292,46 +9283,65 @@
       <c r="S235" s="9"/>
       <c r="T235" s="9"/>
     </row>
-    <row r="236" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B236" s="19" t="s">
+    <row r="236" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A236" s="9"/>
+      <c r="B236" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
+      <c r="L236" s="9"/>
+      <c r="M236" s="9"/>
+      <c r="N236" s="9"/>
+      <c r="O236" s="9"/>
+      <c r="P236" s="9"/>
+      <c r="Q236" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R236" s="9"/>
+      <c r="S236" s="9"/>
+      <c r="T236" s="9"/>
+    </row>
+    <row r="237" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A237" s="9"/>
+      <c r="B237" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
+      <c r="L237" s="9"/>
+      <c r="M237" s="9"/>
+      <c r="N237" s="9"/>
+      <c r="O237" s="9"/>
+      <c r="P237" s="9"/>
+      <c r="Q237" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R237" s="9"/>
+      <c r="S237" s="9"/>
+      <c r="T237" s="9"/>
+    </row>
+    <row r="238" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B238" s="19" t="s">
         <v>382</v>
-      </c>
-      <c r="G236" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K236" s="11"/>
-      <c r="O236" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q236" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S236" s="11"/>
-      <c r="T236" s="9"/>
-    </row>
-    <row r="237" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B237" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="G237" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K237" s="11"/>
-      <c r="O237" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q237" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S237" s="11"/>
-      <c r="T237" s="9"/>
-    </row>
-    <row r="238" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
-      <c r="B238" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C238" s="19" t="s">
-        <v>385</v>
       </c>
       <c r="G238" s="19" t="s">
         <v>24</v>
@@ -9346,9 +9356,9 @@
       <c r="S238" s="11"/>
       <c r="T238" s="9"/>
     </row>
-    <row r="239" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="239" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B239" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G239" s="19" t="s">
         <v>24</v>
@@ -9363,66 +9373,47 @@
       <c r="S239" s="11"/>
       <c r="T239" s="9"/>
     </row>
-    <row r="240" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A240" s="9"/>
-      <c r="B240" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
-      <c r="L240" s="9"/>
-      <c r="M240" s="9"/>
-      <c r="N240" s="9"/>
-      <c r="O240" s="9"/>
-      <c r="P240" s="9"/>
-      <c r="Q240" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R240" s="9"/>
-      <c r="S240" s="9"/>
+    <row r="240" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+      <c r="B240" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G240" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K240" s="11"/>
+      <c r="O240" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q240" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S240" s="11"/>
       <c r="T240" s="9"/>
     </row>
-    <row r="241" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A241" s="9"/>
-      <c r="B241" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="9"/>
-      <c r="L241" s="9"/>
-      <c r="M241" s="9"/>
-      <c r="N241" s="9"/>
-      <c r="O241" s="9"/>
-      <c r="P241" s="9"/>
-      <c r="Q241" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R241" s="9"/>
-      <c r="S241" s="9"/>
+    <row r="241" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B241" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="G241" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K241" s="11"/>
+      <c r="O241" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q241" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S241" s="11"/>
       <c r="T241" s="9"/>
     </row>
-    <row r="242" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="242" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -9447,10 +9438,10 @@
       <c r="S242" s="9"/>
       <c r="T242" s="9"/>
     </row>
-    <row r="243" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="243" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -9475,10 +9466,10 @@
       <c r="S243" s="9"/>
       <c r="T243" s="9"/>
     </row>
-    <row r="244" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="244" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -9503,10 +9494,10 @@
       <c r="S244" s="9"/>
       <c r="T244" s="9"/>
     </row>
-    <row r="245" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="245" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -9531,10 +9522,10 @@
       <c r="S245" s="9"/>
       <c r="T245" s="9"/>
     </row>
-    <row r="246" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="246" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -9559,10 +9550,10 @@
       <c r="S246" s="9"/>
       <c r="T246" s="9"/>
     </row>
-    <row r="247" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="247" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -9587,10 +9578,10 @@
       <c r="S247" s="9"/>
       <c r="T247" s="9"/>
     </row>
-    <row r="248" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="248" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -9615,10 +9606,10 @@
       <c r="S248" s="9"/>
       <c r="T248" s="9"/>
     </row>
-    <row r="249" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="249" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -9629,9 +9620,7 @@
       </c>
       <c r="H249" s="9"/>
       <c r="I249" s="9"/>
-      <c r="J249" s="9" t="s">
-        <v>397</v>
-      </c>
+      <c r="J249" s="9"/>
       <c r="K249" s="9"/>
       <c r="L249" s="9"/>
       <c r="M249" s="9"/>
@@ -9645,10 +9634,10 @@
       <c r="S249" s="9"/>
       <c r="T249" s="9"/>
     </row>
-    <row r="250" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="250" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -9673,10 +9662,10 @@
       <c r="S250" s="9"/>
       <c r="T250" s="9"/>
     </row>
-    <row r="251" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="251" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -9687,7 +9676,9 @@
       </c>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
-      <c r="J251" s="9"/>
+      <c r="J251" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
       <c r="M251" s="9"/>
@@ -9701,10 +9692,10 @@
       <c r="S251" s="9"/>
       <c r="T251" s="9"/>
     </row>
-    <row r="252" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="252" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
@@ -9729,10 +9720,10 @@
       <c r="S252" s="9"/>
       <c r="T252" s="9"/>
     </row>
-    <row r="253" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="253" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
@@ -9757,14 +9748,12 @@
       <c r="S253" s="9"/>
       <c r="T253" s="9"/>
     </row>
-    <row r="254" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="254" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>403</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
@@ -9787,10 +9776,10 @@
       <c r="S254" s="9"/>
       <c r="T254" s="9"/>
     </row>
-    <row r="255" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="255" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -9815,12 +9804,14 @@
       <c r="S255" s="9"/>
       <c r="T255" s="9"/>
     </row>
-    <row r="256" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="256" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C256" s="9"/>
+        <v>402</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
@@ -9843,10 +9834,10 @@
       <c r="S256" s="9"/>
       <c r="T256" s="9"/>
     </row>
-    <row r="257" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="257" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
@@ -9871,10 +9862,10 @@
       <c r="S257" s="9"/>
       <c r="T257" s="9"/>
     </row>
-    <row r="258" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="258" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -9899,10 +9890,10 @@
       <c r="S258" s="9"/>
       <c r="T258" s="9"/>
     </row>
-    <row r="259" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="259" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
@@ -9927,20 +9918,14 @@
       <c r="S259" s="9"/>
       <c r="T259" s="9"/>
     </row>
-    <row r="260" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A260" s="9" t="s">
-        <v>409</v>
-      </c>
+    <row r="260" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A260" s="9"/>
       <c r="B260" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>411</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C260" s="9"/>
       <c r="D260" s="9"/>
-      <c r="E260" s="9" t="s">
-        <v>681</v>
-      </c>
+      <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="9" t="s">
         <v>24</v>
@@ -9954,137 +9939,143 @@
       <c r="N260" s="9"/>
       <c r="O260" s="9"/>
       <c r="P260" s="9"/>
-      <c r="Q260" s="9"/>
+      <c r="Q260" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R260" s="9"/>
       <c r="S260" s="9"/>
       <c r="T260" s="9"/>
     </row>
-    <row r="261" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B261" s="19" t="s">
+    <row r="261" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A261" s="9"/>
+      <c r="B261" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H261" s="9"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
+      <c r="L261" s="9"/>
+      <c r="M261" s="9"/>
+      <c r="N261" s="9"/>
+      <c r="O261" s="9"/>
+      <c r="P261" s="9"/>
+      <c r="Q261" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R261" s="9"/>
+      <c r="S261" s="9"/>
+      <c r="T261" s="9"/>
+    </row>
+    <row r="262" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A262" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H262" s="9"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="9"/>
+      <c r="K262" s="9"/>
+      <c r="L262" s="9"/>
+      <c r="M262" s="9"/>
+      <c r="N262" s="9"/>
+      <c r="O262" s="9"/>
+      <c r="P262" s="9"/>
+      <c r="Q262" s="9"/>
+      <c r="R262" s="9"/>
+      <c r="S262" s="9"/>
+      <c r="T262" s="9"/>
+    </row>
+    <row r="263" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B263" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C261" s="19" t="s">
+      <c r="C263" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="G261" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K261" s="11"/>
-      <c r="O261" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q261" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S261" s="11"/>
-      <c r="T261" s="9"/>
-    </row>
-    <row r="262" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B262" s="19" t="s">
+      <c r="G263" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K263" s="11"/>
+      <c r="O263" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q263" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S263" s="11"/>
+      <c r="T263" s="9"/>
+    </row>
+    <row r="264" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B264" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="G262" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K262" s="11"/>
-      <c r="O262" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q262" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S262" s="11"/>
-      <c r="T262" s="9"/>
-    </row>
-    <row r="263" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
-      <c r="A263" s="35" t="s">
+      <c r="G264" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K264" s="11"/>
+      <c r="O264" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q264" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S264" s="11"/>
+      <c r="T264" s="9"/>
+    </row>
+    <row r="265" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
+      <c r="A265" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="B263" s="27" t="s">
+      <c r="B265" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="C263" s="26" t="s">
+      <c r="C265" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="E263" s="27" t="s">
+      <c r="E265" s="27" t="s">
         <v>679</v>
       </c>
-      <c r="G263" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K263" s="26"/>
-      <c r="O263" s="27" t="s">
+      <c r="G265" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K265" s="26"/>
+      <c r="O265" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="P263" s="27" t="s">
+      <c r="P265" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="Q263" s="27" t="s">
+      <c r="Q265" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="S263" s="26"/>
-      <c r="T263" s="28"/>
-    </row>
-    <row r="264" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A264" s="9"/>
-      <c r="B264" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9"/>
-      <c r="E264" s="9"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H264" s="9"/>
-      <c r="I264" s="9"/>
-      <c r="J264" s="9"/>
-      <c r="K264" s="9"/>
-      <c r="L264" s="9"/>
-      <c r="M264" s="9"/>
-      <c r="N264" s="9"/>
-      <c r="O264" s="9"/>
-      <c r="P264" s="9"/>
-      <c r="Q264" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R264" s="9"/>
-      <c r="S264" s="9"/>
-      <c r="T264" s="9"/>
-    </row>
-    <row r="265" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A265" s="9"/>
-      <c r="B265" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9"/>
-      <c r="E265" s="9"/>
-      <c r="F265" s="9"/>
-      <c r="G265" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H265" s="9"/>
-      <c r="I265" s="9"/>
-      <c r="J265" s="9"/>
-      <c r="K265" s="9"/>
-      <c r="L265" s="9"/>
-      <c r="M265" s="9"/>
-      <c r="N265" s="9"/>
-      <c r="O265" s="9"/>
-      <c r="P265" s="9"/>
-      <c r="Q265" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R265" s="9"/>
-      <c r="S265" s="9"/>
-      <c r="T265" s="9"/>
-    </row>
-    <row r="266" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+      <c r="S265" s="26"/>
+      <c r="T265" s="28"/>
+    </row>
+    <row r="266" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
@@ -10109,10 +10100,10 @@
       <c r="S266" s="9"/>
       <c r="T266" s="9"/>
     </row>
-    <row r="267" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="267" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
@@ -10137,10 +10128,10 @@
       <c r="S267" s="9"/>
       <c r="T267" s="9"/>
     </row>
-    <row r="268" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="268" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
@@ -10165,36 +10156,38 @@
       <c r="S268" s="9"/>
       <c r="T268" s="9"/>
     </row>
-    <row r="269" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A269" s="10"/>
-      <c r="B269" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C269" s="10"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H269" s="10"/>
-      <c r="I269" s="10"/>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
-      <c r="L269" s="10"/>
-      <c r="M269" s="10"/>
-      <c r="N269" s="10"/>
-      <c r="O269" s="10"/>
-      <c r="P269" s="10"/>
-      <c r="Q269" s="10"/>
-      <c r="R269" s="10"/>
-      <c r="S269" s="10"/>
+    <row r="269" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A269" s="9"/>
+      <c r="B269" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H269" s="9"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="9"/>
+      <c r="K269" s="9"/>
+      <c r="L269" s="9"/>
+      <c r="M269" s="9"/>
+      <c r="N269" s="9"/>
+      <c r="O269" s="9"/>
+      <c r="P269" s="9"/>
+      <c r="Q269" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R269" s="9"/>
+      <c r="S269" s="9"/>
       <c r="T269" s="9"/>
     </row>
-    <row r="270" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="270" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
@@ -10219,38 +10212,36 @@
       <c r="S270" s="9"/>
       <c r="T270" s="9"/>
     </row>
-    <row r="271" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A271" s="9"/>
-      <c r="B271" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
-      <c r="E271" s="9"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H271" s="9"/>
-      <c r="I271" s="9"/>
-      <c r="J271" s="9"/>
-      <c r="K271" s="9"/>
-      <c r="L271" s="9"/>
-      <c r="M271" s="9"/>
-      <c r="N271" s="9"/>
-      <c r="O271" s="9"/>
-      <c r="P271" s="9"/>
-      <c r="Q271" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R271" s="9"/>
-      <c r="S271" s="9"/>
+    <row r="271" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="10"/>
+      <c r="S271" s="10"/>
       <c r="T271" s="9"/>
     </row>
-    <row r="272" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="272" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
@@ -10275,10 +10266,10 @@
       <c r="S272" s="9"/>
       <c r="T272" s="9"/>
     </row>
-    <row r="273" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="273" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
@@ -10303,10 +10294,10 @@
       <c r="S273" s="9"/>
       <c r="T273" s="9"/>
     </row>
-    <row r="274" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="274" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
@@ -10331,51 +10322,40 @@
       <c r="S274" s="9"/>
       <c r="T274" s="9"/>
     </row>
-    <row r="275" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
-      <c r="A275" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B275" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C275" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="E275" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="F275" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G275" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H275" s="10"/>
-      <c r="I275" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="J275" s="10"/>
-      <c r="K275" s="10"/>
-      <c r="L275" s="10"/>
-      <c r="M275" s="10">
-        <v>1</v>
-      </c>
-      <c r="N275" s="10"/>
-      <c r="O275" s="10"/>
-      <c r="P275" s="10"/>
-      <c r="Q275" s="10"/>
+    <row r="275" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A275" s="9"/>
+      <c r="B275" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H275" s="9"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="9"/>
+      <c r="L275" s="9"/>
+      <c r="M275" s="9"/>
+      <c r="N275" s="9"/>
+      <c r="O275" s="9"/>
+      <c r="P275" s="9"/>
+      <c r="Q275" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R275" s="9"/>
       <c r="S275" s="9"/>
       <c r="T275" s="9"/>
     </row>
-    <row r="276" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="276" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>434</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
@@ -10383,9 +10363,7 @@
         <v>24</v>
       </c>
       <c r="H276" s="9"/>
-      <c r="I276" s="9" t="s">
-        <v>435</v>
-      </c>
+      <c r="I276" s="9"/>
       <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="9"/>
@@ -10400,74 +10378,106 @@
       <c r="S276" s="9"/>
       <c r="T276" s="9"/>
     </row>
-    <row r="277" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A277" s="9"/>
-      <c r="B277" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="9"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H277" s="9"/>
-      <c r="I277" s="9"/>
-      <c r="J277" s="9"/>
-      <c r="K277" s="9"/>
-      <c r="L277" s="9"/>
-      <c r="M277" s="9"/>
-      <c r="N277" s="9"/>
-      <c r="O277" s="9"/>
-      <c r="P277" s="9"/>
-      <c r="Q277" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="277" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+      <c r="A277" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H277" s="10"/>
+      <c r="I277" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="10">
+        <v>1</v>
+      </c>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+      <c r="P277" s="10"/>
+      <c r="Q277" s="10"/>
       <c r="R277" s="9"/>
       <c r="S277" s="9"/>
       <c r="T277" s="9"/>
     </row>
-    <row r="278" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B278" s="19" t="s">
+    <row r="278" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A278" s="9"/>
+      <c r="B278" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" s="9"/>
+      <c r="I278" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="J278" s="9"/>
+      <c r="K278" s="9"/>
+      <c r="L278" s="9"/>
+      <c r="M278" s="9"/>
+      <c r="N278" s="9"/>
+      <c r="O278" s="9"/>
+      <c r="P278" s="9"/>
+      <c r="Q278" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R278" s="9"/>
+      <c r="S278" s="9"/>
+      <c r="T278" s="9"/>
+    </row>
+    <row r="279" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A279" s="9"/>
+      <c r="B279" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C279" s="9"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H279" s="9"/>
+      <c r="I279" s="9"/>
+      <c r="J279" s="9"/>
+      <c r="K279" s="9"/>
+      <c r="L279" s="9"/>
+      <c r="M279" s="9"/>
+      <c r="N279" s="9"/>
+      <c r="O279" s="9"/>
+      <c r="P279" s="9"/>
+      <c r="Q279" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R279" s="9"/>
+      <c r="S279" s="9"/>
+      <c r="T279" s="9"/>
+    </row>
+    <row r="280" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B280" s="19" t="s">
         <v>437</v>
-      </c>
-      <c r="G278" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K278" s="11"/>
-      <c r="O278" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q278" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S278" s="11"/>
-      <c r="T278" s="9"/>
-    </row>
-    <row r="279" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B279" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="G279" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K279" s="11"/>
-      <c r="O279" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q279" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S279" s="11"/>
-      <c r="T279" s="9"/>
-    </row>
-    <row r="280" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B280" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C280" s="19" t="s">
-        <v>440</v>
       </c>
       <c r="G280" s="19" t="s">
         <v>24</v>
@@ -10482,9 +10492,9 @@
       <c r="S280" s="11"/>
       <c r="T280" s="9"/>
     </row>
-    <row r="281" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="281" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B281" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G281" s="19" t="s">
         <v>24</v>
@@ -10499,9 +10509,12 @@
       <c r="S281" s="11"/>
       <c r="T281" s="9"/>
     </row>
-    <row r="282" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="282" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B282" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>440</v>
       </c>
       <c r="G282" s="19" t="s">
         <v>24</v>
@@ -10516,9 +10529,9 @@
       <c r="S282" s="11"/>
       <c r="T282" s="9"/>
     </row>
-    <row r="283" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="283" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B283" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G283" s="19" t="s">
         <v>24</v>
@@ -10533,9 +10546,9 @@
       <c r="S283" s="11"/>
       <c r="T283" s="9"/>
     </row>
-    <row r="284" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="284" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B284" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G284" s="19" t="s">
         <v>24</v>
@@ -10550,9 +10563,9 @@
       <c r="S284" s="11"/>
       <c r="T284" s="9"/>
     </row>
-    <row r="285" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="285" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B285" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G285" s="19" t="s">
         <v>24</v>
@@ -10567,9 +10580,9 @@
       <c r="S285" s="11"/>
       <c r="T285" s="9"/>
     </row>
-    <row r="286" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="286" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B286" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G286" s="19" t="s">
         <v>24</v>
@@ -10584,9 +10597,9 @@
       <c r="S286" s="11"/>
       <c r="T286" s="9"/>
     </row>
-    <row r="287" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="287" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B287" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G287" s="19" t="s">
         <v>24</v>
@@ -10601,9 +10614,9 @@
       <c r="S287" s="11"/>
       <c r="T287" s="9"/>
     </row>
-    <row r="288" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="288" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B288" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G288" s="19" t="s">
         <v>24</v>
@@ -10618,9 +10631,9 @@
       <c r="S288" s="11"/>
       <c r="T288" s="9"/>
     </row>
-    <row r="289" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="289" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B289" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G289" s="19" t="s">
         <v>24</v>
@@ -10635,9 +10648,9 @@
       <c r="S289" s="11"/>
       <c r="T289" s="9"/>
     </row>
-    <row r="290" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="290" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B290" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>24</v>
@@ -10652,9 +10665,9 @@
       <c r="S290" s="11"/>
       <c r="T290" s="9"/>
     </row>
-    <row r="291" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="291" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B291" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G291" s="19" t="s">
         <v>24</v>
@@ -10669,9 +10682,9 @@
       <c r="S291" s="11"/>
       <c r="T291" s="9"/>
     </row>
-    <row r="292" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="292" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B292" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G292" s="19" t="s">
         <v>24</v>
@@ -10686,9 +10699,9 @@
       <c r="S292" s="11"/>
       <c r="T292" s="9"/>
     </row>
-    <row r="293" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="293" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B293" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G293" s="19" t="s">
         <v>24</v>
@@ -10703,9 +10716,9 @@
       <c r="S293" s="11"/>
       <c r="T293" s="9"/>
     </row>
-    <row r="294" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="294" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B294" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G294" s="19" t="s">
         <v>24</v>
@@ -10720,66 +10733,44 @@
       <c r="S294" s="11"/>
       <c r="T294" s="9"/>
     </row>
-    <row r="295" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A295" s="9"/>
-      <c r="B295" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="9"/>
-      <c r="F295" s="9"/>
-      <c r="G295" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H295" s="9"/>
-      <c r="I295" s="9"/>
-      <c r="J295" s="9"/>
-      <c r="K295" s="9"/>
-      <c r="L295" s="9"/>
-      <c r="M295" s="9"/>
-      <c r="N295" s="9"/>
-      <c r="O295" s="9"/>
-      <c r="P295" s="9"/>
-      <c r="Q295" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R295" s="9"/>
-      <c r="S295" s="9"/>
+    <row r="295" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B295" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="G295" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K295" s="11"/>
+      <c r="O295" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q295" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S295" s="11"/>
       <c r="T295" s="9"/>
     </row>
-    <row r="296" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A296" s="9"/>
-      <c r="B296" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="E296" s="9"/>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H296" s="9"/>
-      <c r="I296" s="9"/>
-      <c r="J296" s="9"/>
-      <c r="K296" s="9"/>
-      <c r="L296" s="9"/>
-      <c r="M296" s="9"/>
-      <c r="N296" s="9"/>
-      <c r="O296" s="9"/>
-      <c r="P296" s="9"/>
-      <c r="Q296" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R296" s="9"/>
-      <c r="S296" s="9"/>
+    <row r="296" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B296" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="G296" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K296" s="11"/>
+      <c r="O296" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S296" s="11"/>
       <c r="T296" s="9"/>
     </row>
-    <row r="297" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="297" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
@@ -10804,27 +10795,38 @@
       <c r="S297" s="9"/>
       <c r="T297" s="9"/>
     </row>
-    <row r="298" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B298" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G298" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K298" s="11"/>
-      <c r="O298" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q298" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S298" s="11"/>
+    <row r="298" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A298" s="9"/>
+      <c r="B298" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H298" s="9"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="9"/>
+      <c r="L298" s="9"/>
+      <c r="M298" s="9"/>
+      <c r="N298" s="9"/>
+      <c r="O298" s="9"/>
+      <c r="P298" s="9"/>
+      <c r="Q298" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R298" s="9"/>
+      <c r="S298" s="9"/>
       <c r="T298" s="9"/>
     </row>
-    <row r="299" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="299" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -10849,40 +10851,27 @@
       <c r="S299" s="9"/>
       <c r="T299" s="9"/>
     </row>
-    <row r="300" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A300" s="9"/>
-      <c r="B300" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
-      <c r="E300" s="9"/>
-      <c r="F300" s="9"/>
-      <c r="G300" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H300" s="9"/>
-      <c r="I300" s="9"/>
-      <c r="J300" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="K300" s="9"/>
-      <c r="L300" s="9"/>
-      <c r="M300" s="9"/>
-      <c r="N300" s="9"/>
-      <c r="O300" s="9"/>
-      <c r="P300" s="9"/>
-      <c r="Q300" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R300" s="9"/>
-      <c r="S300" s="9"/>
+    <row r="300" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B300" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="G300" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K300" s="11"/>
+      <c r="O300" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q300" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S300" s="11"/>
       <c r="T300" s="9"/>
     </row>
-    <row r="301" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="301" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A301" s="9"/>
       <c r="B301" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
@@ -10907,10 +10896,10 @@
       <c r="S301" s="9"/>
       <c r="T301" s="9"/>
     </row>
-    <row r="302" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="302" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
@@ -10921,7 +10910,9 @@
       </c>
       <c r="H302" s="9"/>
       <c r="I302" s="9"/>
-      <c r="J302" s="9"/>
+      <c r="J302" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
       <c r="M302" s="9"/>
@@ -10935,100 +10926,100 @@
       <c r="S302" s="9"/>
       <c r="T302" s="9"/>
     </row>
-    <row r="303" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B303" s="19" t="s">
+    <row r="303" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A303" s="9"/>
+      <c r="B303" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="9"/>
+      <c r="N303" s="9"/>
+      <c r="O303" s="9"/>
+      <c r="P303" s="9"/>
+      <c r="Q303" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R303" s="9"/>
+      <c r="S303" s="9"/>
+      <c r="T303" s="9"/>
+    </row>
+    <row r="304" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A304" s="9"/>
+      <c r="B304" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H304" s="9"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="9"/>
+      <c r="K304" s="9"/>
+      <c r="L304" s="9"/>
+      <c r="M304" s="9"/>
+      <c r="N304" s="9"/>
+      <c r="O304" s="9"/>
+      <c r="P304" s="9"/>
+      <c r="Q304" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R304" s="9"/>
+      <c r="S304" s="9"/>
+      <c r="T304" s="9"/>
+    </row>
+    <row r="305" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B305" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="G303" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K303" s="11"/>
-      <c r="O303" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q303" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S303" s="11"/>
-      <c r="T303" s="9"/>
-    </row>
-    <row r="304" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B304" s="19" t="s">
+      <c r="G305" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K305" s="11"/>
+      <c r="O305" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q305" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S305" s="11"/>
+      <c r="T305" s="9"/>
+    </row>
+    <row r="306" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B306" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="G304" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K304" s="11"/>
-      <c r="O304" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q304" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S304" s="11"/>
-      <c r="T304" s="9"/>
-    </row>
-    <row r="305" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A305" s="9"/>
-      <c r="B305" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C305" s="9"/>
-      <c r="D305" s="9"/>
-      <c r="E305" s="9"/>
-      <c r="F305" s="9"/>
-      <c r="G305" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H305" s="9"/>
-      <c r="I305" s="9"/>
-      <c r="J305" s="9"/>
-      <c r="K305" s="9"/>
-      <c r="L305" s="9"/>
-      <c r="M305" s="9"/>
-      <c r="N305" s="9"/>
-      <c r="O305" s="9"/>
-      <c r="P305" s="9"/>
-      <c r="Q305" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R305" s="9"/>
-      <c r="S305" s="9"/>
-      <c r="T305" s="9"/>
-    </row>
-    <row r="306" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A306" s="9"/>
-      <c r="B306" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C306" s="9"/>
-      <c r="D306" s="9"/>
-      <c r="E306" s="9"/>
-      <c r="F306" s="9"/>
-      <c r="G306" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H306" s="9"/>
-      <c r="I306" s="9"/>
-      <c r="J306" s="9"/>
-      <c r="K306" s="9"/>
-      <c r="L306" s="9"/>
-      <c r="M306" s="9"/>
-      <c r="N306" s="9"/>
-      <c r="O306" s="9"/>
-      <c r="P306" s="9"/>
-      <c r="Q306" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R306" s="9"/>
-      <c r="S306" s="9"/>
+      <c r="G306" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K306" s="11"/>
+      <c r="O306" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q306" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S306" s="11"/>
       <c r="T306" s="9"/>
     </row>
-    <row r="307" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="307" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -11053,10 +11044,10 @@
       <c r="S307" s="9"/>
       <c r="T307" s="9"/>
     </row>
-    <row r="308" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="308" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
@@ -11081,10 +11072,10 @@
       <c r="S308" s="9"/>
       <c r="T308" s="9"/>
     </row>
-    <row r="309" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="309" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
@@ -11109,10 +11100,10 @@
       <c r="S309" s="9"/>
       <c r="T309" s="9"/>
     </row>
-    <row r="310" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="310" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
@@ -11137,10 +11128,10 @@
       <c r="S310" s="9"/>
       <c r="T310" s="9"/>
     </row>
-    <row r="311" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="311" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
@@ -11165,10 +11156,10 @@
       <c r="S311" s="9"/>
       <c r="T311" s="9"/>
     </row>
-    <row r="312" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="312" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
@@ -11193,10 +11184,10 @@
       <c r="S312" s="9"/>
       <c r="T312" s="9"/>
     </row>
-    <row r="313" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="313" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A313" s="9"/>
       <c r="B313" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
@@ -11221,10 +11212,10 @@
       <c r="S313" s="9"/>
       <c r="T313" s="9"/>
     </row>
-    <row r="314" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="314" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A314" s="9"/>
       <c r="B314" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
@@ -11249,27 +11240,38 @@
       <c r="S314" s="9"/>
       <c r="T314" s="9"/>
     </row>
-    <row r="315" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B315" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="G315" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K315" s="11"/>
-      <c r="O315" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q315" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S315" s="11"/>
+    <row r="315" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A315" s="9"/>
+      <c r="B315" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C315" s="9"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H315" s="9"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="9"/>
+      <c r="K315" s="9"/>
+      <c r="L315" s="9"/>
+      <c r="M315" s="9"/>
+      <c r="N315" s="9"/>
+      <c r="O315" s="9"/>
+      <c r="P315" s="9"/>
+      <c r="Q315" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R315" s="9"/>
+      <c r="S315" s="9"/>
       <c r="T315" s="9"/>
     </row>
-    <row r="316" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="316" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A316" s="9"/>
       <c r="B316" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
@@ -11294,9 +11296,9 @@
       <c r="S316" s="9"/>
       <c r="T316" s="9"/>
     </row>
-    <row r="317" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="317" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B317" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G317" s="19" t="s">
         <v>24</v>
@@ -11311,10 +11313,10 @@
       <c r="S317" s="11"/>
       <c r="T317" s="9"/>
     </row>
-    <row r="318" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="318" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A318" s="9"/>
       <c r="B318" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
@@ -11339,38 +11341,27 @@
       <c r="S318" s="9"/>
       <c r="T318" s="9"/>
     </row>
-    <row r="319" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A319" s="9"/>
-      <c r="B319" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="C319" s="9"/>
-      <c r="D319" s="9"/>
-      <c r="E319" s="9"/>
-      <c r="F319" s="9"/>
-      <c r="G319" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H319" s="9"/>
-      <c r="I319" s="9"/>
-      <c r="J319" s="9"/>
-      <c r="K319" s="9"/>
-      <c r="L319" s="9"/>
-      <c r="M319" s="9"/>
-      <c r="N319" s="9"/>
-      <c r="O319" s="9"/>
-      <c r="P319" s="9"/>
-      <c r="Q319" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R319" s="9"/>
-      <c r="S319" s="9"/>
+    <row r="319" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B319" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G319" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K319" s="11"/>
+      <c r="O319" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q319" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S319" s="11"/>
       <c r="T319" s="9"/>
     </row>
-    <row r="320" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="320" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A320" s="9"/>
       <c r="B320" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
@@ -11395,10 +11386,10 @@
       <c r="S320" s="9"/>
       <c r="T320" s="9"/>
     </row>
-    <row r="321" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="321" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
@@ -11423,10 +11414,10 @@
       <c r="S321" s="9"/>
       <c r="T321" s="9"/>
     </row>
-    <row r="322" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="322" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
@@ -11451,10 +11442,10 @@
       <c r="S322" s="9"/>
       <c r="T322" s="9"/>
     </row>
-    <row r="323" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="323" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -11479,10 +11470,10 @@
       <c r="S323" s="9"/>
       <c r="T323" s="9"/>
     </row>
-    <row r="324" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="324" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -11507,10 +11498,10 @@
       <c r="S324" s="9"/>
       <c r="T324" s="9"/>
     </row>
-    <row r="325" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="325" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -11535,10 +11526,10 @@
       <c r="S325" s="9"/>
       <c r="T325" s="9"/>
     </row>
-    <row r="326" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="326" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A326" s="9"/>
       <c r="B326" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
@@ -11563,10 +11554,10 @@
       <c r="S326" s="9"/>
       <c r="T326" s="9"/>
     </row>
-    <row r="327" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="327" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A327" s="9"/>
       <c r="B327" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
@@ -11591,145 +11582,164 @@
       <c r="S327" s="9"/>
       <c r="T327" s="9"/>
     </row>
-    <row r="328" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B328" s="19" t="s">
+    <row r="328" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A328" s="9"/>
+      <c r="B328" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H328" s="9"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="9"/>
+      <c r="L328" s="9"/>
+      <c r="M328" s="9"/>
+      <c r="N328" s="9"/>
+      <c r="O328" s="9"/>
+      <c r="P328" s="9"/>
+      <c r="Q328" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R328" s="9"/>
+      <c r="S328" s="9"/>
+      <c r="T328" s="9"/>
+    </row>
+    <row r="329" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A329" s="9"/>
+      <c r="B329" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H329" s="9"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="9"/>
+      <c r="K329" s="9"/>
+      <c r="L329" s="9"/>
+      <c r="M329" s="9"/>
+      <c r="N329" s="9"/>
+      <c r="O329" s="9"/>
+      <c r="P329" s="9"/>
+      <c r="Q329" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R329" s="9"/>
+      <c r="S329" s="9"/>
+      <c r="T329" s="9"/>
+    </row>
+    <row r="330" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B330" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="C328" s="19" t="s">
+      <c r="C330" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="G328" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K328" s="11"/>
-      <c r="O328" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q328" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S328" s="11"/>
-      <c r="T328" s="9"/>
-    </row>
-    <row r="329" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B329" s="19" t="s">
+      <c r="G330" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K330" s="11"/>
+      <c r="O330" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q330" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S330" s="11"/>
+      <c r="T330" s="9"/>
+    </row>
+    <row r="331" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B331" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="G329" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K329" s="11"/>
-      <c r="O329" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q329" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S329" s="11"/>
-      <c r="T329" s="9"/>
-    </row>
-    <row r="330" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A330" s="9"/>
-      <c r="B330" s="9" t="s">
+      <c r="G331" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K331" s="11"/>
+      <c r="O331" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q331" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S331" s="11"/>
+      <c r="T331" s="9"/>
+    </row>
+    <row r="332" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A332" s="9"/>
+      <c r="B332" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C330" s="9"/>
-      <c r="D330" s="9"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="9"/>
-      <c r="G330" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H330" s="9"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-      <c r="K330" s="9"/>
-      <c r="L330" s="9"/>
-      <c r="M330" s="9"/>
-      <c r="N330" s="9"/>
-      <c r="O330" s="9"/>
-      <c r="P330" s="9"/>
-      <c r="Q330" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R330" s="9"/>
-      <c r="S330" s="9"/>
-      <c r="T330" s="9"/>
-    </row>
-    <row r="331" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A331" s="9"/>
-      <c r="B331" s="9" t="s">
+      <c r="C332" s="9"/>
+      <c r="D332" s="9"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H332" s="9"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="9"/>
+      <c r="K332" s="9"/>
+      <c r="L332" s="9"/>
+      <c r="M332" s="9"/>
+      <c r="N332" s="9"/>
+      <c r="O332" s="9"/>
+      <c r="P332" s="9"/>
+      <c r="Q332" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R332" s="9"/>
+      <c r="S332" s="9"/>
+      <c r="T332" s="9"/>
+    </row>
+    <row r="333" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A333" s="9"/>
+      <c r="B333" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C331" s="9"/>
-      <c r="D331" s="9"/>
-      <c r="E331" s="9"/>
-      <c r="F331" s="9"/>
-      <c r="G331" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H331" s="9"/>
-      <c r="I331" s="9"/>
-      <c r="J331" s="9"/>
-      <c r="K331" s="9"/>
-      <c r="L331" s="9"/>
-      <c r="M331" s="9"/>
-      <c r="N331" s="9"/>
-      <c r="O331" s="9"/>
-      <c r="P331" s="9"/>
-      <c r="Q331" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R331" s="9"/>
-      <c r="S331" s="9"/>
-      <c r="T331" s="9"/>
-    </row>
-    <row r="332" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B332" s="19" t="s">
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H333" s="9"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="9"/>
+      <c r="K333" s="9"/>
+      <c r="L333" s="9"/>
+      <c r="M333" s="9"/>
+      <c r="N333" s="9"/>
+      <c r="O333" s="9"/>
+      <c r="P333" s="9"/>
+      <c r="Q333" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R333" s="9"/>
+      <c r="S333" s="9"/>
+      <c r="T333" s="9"/>
+    </row>
+    <row r="334" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B334" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G332" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J332" s="19" t="s">
+      <c r="G334" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J334" s="19" t="s">
         <v>494</v>
-      </c>
-      <c r="K332" s="11"/>
-      <c r="O332" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q332" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S332" s="11"/>
-      <c r="T332" s="9"/>
-    </row>
-    <row r="333" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B333" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="G333" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J333" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="K333" s="11"/>
-      <c r="O333" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q333" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S333" s="11"/>
-      <c r="T333" s="9"/>
-    </row>
-    <row r="334" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B334" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="G334" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="K334" s="11"/>
       <c r="O334" s="19">
@@ -11741,15 +11751,15 @@
       <c r="S334" s="11"/>
       <c r="T334" s="9"/>
     </row>
-    <row r="335" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="335" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B335" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G335" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J335" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K335" s="11"/>
       <c r="O335" s="19">
@@ -11761,9 +11771,9 @@
       <c r="S335" s="11"/>
       <c r="T335" s="9"/>
     </row>
-    <row r="336" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="336" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B336" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G336" s="19" t="s">
         <v>24</v>
@@ -11778,12 +11788,15 @@
       <c r="S336" s="11"/>
       <c r="T336" s="9"/>
     </row>
-    <row r="337" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="337" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B337" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="J337" s="19" t="s">
+        <v>453</v>
       </c>
       <c r="K337" s="11"/>
       <c r="O337" s="19">
@@ -11795,9 +11808,9 @@
       <c r="S337" s="11"/>
       <c r="T337" s="9"/>
     </row>
-    <row r="338" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="338" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B338" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G338" s="19" t="s">
         <v>24</v>
@@ -11812,9 +11825,9 @@
       <c r="S338" s="11"/>
       <c r="T338" s="9"/>
     </row>
-    <row r="339" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="339" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B339" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G339" s="19" t="s">
         <v>24</v>
@@ -11829,9 +11842,9 @@
       <c r="S339" s="11"/>
       <c r="T339" s="9"/>
     </row>
-    <row r="340" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="340" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B340" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G340" s="19" t="s">
         <v>24</v>
@@ -11846,9 +11859,9 @@
       <c r="S340" s="11"/>
       <c r="T340" s="9"/>
     </row>
-    <row r="341" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="341" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B341" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G341" s="19" t="s">
         <v>24</v>
@@ -11863,66 +11876,44 @@
       <c r="S341" s="11"/>
       <c r="T341" s="9"/>
     </row>
-    <row r="342" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A342" s="9"/>
-      <c r="B342" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C342" s="9"/>
-      <c r="D342" s="9"/>
-      <c r="E342" s="9"/>
-      <c r="F342" s="9"/>
-      <c r="G342" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H342" s="9"/>
-      <c r="I342" s="9"/>
-      <c r="J342" s="9"/>
-      <c r="K342" s="9"/>
-      <c r="L342" s="9"/>
-      <c r="M342" s="9"/>
-      <c r="N342" s="9"/>
-      <c r="O342" s="9"/>
-      <c r="P342" s="9"/>
-      <c r="Q342" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R342" s="9"/>
-      <c r="S342" s="9"/>
+    <row r="342" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B342" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="G342" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K342" s="11"/>
+      <c r="O342" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q342" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S342" s="11"/>
       <c r="T342" s="9"/>
     </row>
-    <row r="343" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A343" s="9"/>
-      <c r="B343" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C343" s="9"/>
-      <c r="D343" s="9"/>
-      <c r="E343" s="9"/>
-      <c r="F343" s="9"/>
-      <c r="G343" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H343" s="9"/>
-      <c r="I343" s="9"/>
-      <c r="J343" s="9"/>
-      <c r="K343" s="9"/>
-      <c r="L343" s="9"/>
-      <c r="M343" s="9"/>
-      <c r="N343" s="9"/>
-      <c r="O343" s="9"/>
-      <c r="P343" s="9"/>
-      <c r="Q343" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R343" s="9"/>
-      <c r="S343" s="9"/>
+    <row r="343" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B343" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="G343" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K343" s="11"/>
+      <c r="O343" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q343" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S343" s="11"/>
       <c r="T343" s="9"/>
     </row>
-    <row r="344" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="344" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A344" s="9"/>
       <c r="B344" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -11947,10 +11938,10 @@
       <c r="S344" s="9"/>
       <c r="T344" s="9"/>
     </row>
-    <row r="345" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="345" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A345" s="9"/>
       <c r="B345" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -11975,10 +11966,10 @@
       <c r="S345" s="9"/>
       <c r="T345" s="9"/>
     </row>
-    <row r="346" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="346" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A346" s="9"/>
       <c r="B346" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -12003,10 +11994,10 @@
       <c r="S346" s="9"/>
       <c r="T346" s="9"/>
     </row>
-    <row r="347" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="347" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A347" s="9"/>
       <c r="B347" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -12031,129 +12022,127 @@
       <c r="S347" s="9"/>
       <c r="T347" s="9"/>
     </row>
-    <row r="348" spans="1:20" s="22" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A348" s="20"/>
-      <c r="B348" s="20" t="s">
+    <row r="348" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A348" s="9"/>
+      <c r="B348" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C348" s="9"/>
+      <c r="D348" s="9"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H348" s="9"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="9"/>
+      <c r="K348" s="9"/>
+      <c r="L348" s="9"/>
+      <c r="M348" s="9"/>
+      <c r="N348" s="9"/>
+      <c r="O348" s="9"/>
+      <c r="P348" s="9"/>
+      <c r="Q348" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R348" s="9"/>
+      <c r="S348" s="9"/>
+      <c r="T348" s="9"/>
+    </row>
+    <row r="349" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A349" s="9"/>
+      <c r="B349" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C349" s="9"/>
+      <c r="D349" s="9"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="9"/>
+      <c r="G349" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H349" s="9"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="9"/>
+      <c r="K349" s="9"/>
+      <c r="L349" s="9"/>
+      <c r="M349" s="9"/>
+      <c r="N349" s="9"/>
+      <c r="O349" s="9"/>
+      <c r="P349" s="9"/>
+      <c r="Q349" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R349" s="9"/>
+      <c r="S349" s="9"/>
+      <c r="T349" s="9"/>
+    </row>
+    <row r="350" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
+      <c r="A350" s="20"/>
+      <c r="B350" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C348" s="23" t="s">
+      <c r="C350" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="D348" s="24"/>
-      <c r="E348" s="20"/>
-      <c r="F348" s="20"/>
-      <c r="G348" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H348" s="20"/>
-      <c r="I348" s="20"/>
-      <c r="K348" s="20" t="s">
+      <c r="D350" s="24"/>
+      <c r="E350" s="20"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H350" s="20"/>
+      <c r="I350" s="20"/>
+      <c r="K350" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="L348" s="20"/>
-      <c r="M348" s="20"/>
-      <c r="N348" s="20"/>
-      <c r="O348" s="20"/>
-      <c r="P348" s="20"/>
-      <c r="Q348" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R348" s="20"/>
-      <c r="S348" s="20"/>
-      <c r="T348" s="20"/>
-    </row>
-    <row r="349" spans="1:20" s="22" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A349" s="20"/>
-      <c r="B349" s="20" t="s">
+      <c r="L350" s="20"/>
+      <c r="M350" s="20"/>
+      <c r="N350" s="20"/>
+      <c r="O350" s="20"/>
+      <c r="P350" s="20"/>
+      <c r="Q350" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R350" s="20"/>
+      <c r="S350" s="20"/>
+      <c r="T350" s="20"/>
+    </row>
+    <row r="351" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
+      <c r="A351" s="20"/>
+      <c r="B351" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="C349" s="20" t="s">
+      <c r="C351" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="D349" s="20"/>
-      <c r="E349" s="20"/>
-      <c r="F349" s="20"/>
-      <c r="G349" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H349" s="20"/>
-      <c r="I349" s="20"/>
-      <c r="J349" s="20"/>
-      <c r="K349" s="20"/>
-      <c r="L349" s="20"/>
-      <c r="M349" s="20"/>
-      <c r="N349" s="20"/>
-      <c r="O349" s="20"/>
-      <c r="P349" s="20"/>
-      <c r="Q349" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R349" s="20"/>
-      <c r="S349" s="20"/>
-      <c r="T349" s="20"/>
-    </row>
-    <row r="350" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A350" s="9"/>
-      <c r="B350" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C350" s="9"/>
-      <c r="D350" s="9"/>
-      <c r="E350" s="9"/>
-      <c r="F350" s="9"/>
-      <c r="G350" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H350" s="9"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="9"/>
-      <c r="K350" s="9"/>
-      <c r="L350" s="9"/>
-      <c r="M350" s="9"/>
-      <c r="N350" s="9"/>
-      <c r="O350" s="9"/>
-      <c r="P350" s="9"/>
-      <c r="Q350" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R350" s="9"/>
-      <c r="S350" s="9"/>
-      <c r="T350" s="9"/>
-    </row>
-    <row r="351" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A351" s="9"/>
-      <c r="B351" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C351" s="9"/>
-      <c r="D351" s="9"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="9"/>
-      <c r="G351" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H351" s="9"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="K351" s="9"/>
-      <c r="L351" s="9"/>
-      <c r="M351" s="9"/>
-      <c r="N351" s="9"/>
-      <c r="O351" s="9"/>
-      <c r="P351" s="9"/>
-      <c r="Q351" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R351" s="9"/>
-      <c r="S351" s="9"/>
-      <c r="T351" s="9"/>
-    </row>
-    <row r="352" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+      <c r="D351" s="20"/>
+      <c r="E351" s="20"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H351" s="20"/>
+      <c r="I351" s="20"/>
+      <c r="J351" s="20"/>
+      <c r="K351" s="20"/>
+      <c r="L351" s="20"/>
+      <c r="M351" s="20"/>
+      <c r="N351" s="20"/>
+      <c r="O351" s="20"/>
+      <c r="P351" s="20"/>
+      <c r="Q351" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R351" s="20"/>
+      <c r="S351" s="20"/>
+      <c r="T351" s="20"/>
+    </row>
+    <row r="352" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A352" s="9"/>
       <c r="B352" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
@@ -12178,10 +12167,10 @@
       <c r="S352" s="9"/>
       <c r="T352" s="9"/>
     </row>
-    <row r="353" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="353" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A353" s="9"/>
       <c r="B353" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -12192,7 +12181,9 @@
       </c>
       <c r="H353" s="9"/>
       <c r="I353" s="9"/>
-      <c r="J353" s="9"/>
+      <c r="J353" s="9" t="s">
+        <v>516</v>
+      </c>
       <c r="K353" s="9"/>
       <c r="L353" s="9"/>
       <c r="M353" s="9"/>
@@ -12206,14 +12197,12 @@
       <c r="S353" s="9"/>
       <c r="T353" s="9"/>
     </row>
-    <row r="354" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="354" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A354" s="9"/>
       <c r="B354" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C354" s="9" t="s">
-        <v>520</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C354" s="9"/>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
       <c r="F354" s="9"/>
@@ -12236,10 +12225,10 @@
       <c r="S354" s="9"/>
       <c r="T354" s="9"/>
     </row>
-    <row r="355" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="355" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A355" s="9"/>
       <c r="B355" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
@@ -12264,13 +12253,13 @@
       <c r="S355" s="9"/>
       <c r="T355" s="9"/>
     </row>
-    <row r="356" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="356" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A356" s="9"/>
       <c r="B356" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
@@ -12294,10 +12283,10 @@
       <c r="S356" s="9"/>
       <c r="T356" s="9"/>
     </row>
-    <row r="357" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="357" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A357" s="9"/>
       <c r="B357" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
@@ -12322,43 +12311,67 @@
       <c r="S357" s="9"/>
       <c r="T357" s="9"/>
     </row>
-    <row r="358" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B358" s="19" t="s">
+    <row r="358" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A358" s="9"/>
+      <c r="B358" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C358" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D358" s="9"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="9"/>
+      <c r="G358" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H358" s="9"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="9"/>
+      <c r="K358" s="9"/>
+      <c r="L358" s="9"/>
+      <c r="M358" s="9"/>
+      <c r="N358" s="9"/>
+      <c r="O358" s="9"/>
+      <c r="P358" s="9"/>
+      <c r="Q358" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R358" s="9"/>
+      <c r="S358" s="9"/>
+      <c r="T358" s="9"/>
+    </row>
+    <row r="359" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A359" s="9"/>
+      <c r="B359" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C359" s="9"/>
+      <c r="D359" s="9"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H359" s="9"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="9"/>
+      <c r="K359" s="9"/>
+      <c r="L359" s="9"/>
+      <c r="M359" s="9"/>
+      <c r="N359" s="9"/>
+      <c r="O359" s="9"/>
+      <c r="P359" s="9"/>
+      <c r="Q359" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R359" s="9"/>
+      <c r="S359" s="9"/>
+      <c r="T359" s="9"/>
+    </row>
+    <row r="360" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B360" s="19" t="s">
         <v>525</v>
-      </c>
-      <c r="G358" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K358" s="11"/>
-      <c r="O358" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q358" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S358" s="11"/>
-      <c r="T358" s="9"/>
-    </row>
-    <row r="359" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B359" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="G359" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K359" s="11"/>
-      <c r="O359" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q359" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S359" s="11"/>
-      <c r="T359" s="9"/>
-    </row>
-    <row r="360" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B360" s="19" t="s">
-        <v>527</v>
       </c>
       <c r="G360" s="19" t="s">
         <v>24</v>
@@ -12373,37 +12386,26 @@
       <c r="S360" s="11"/>
       <c r="T360" s="9"/>
     </row>
-    <row r="361" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A361" s="9"/>
-      <c r="B361" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C361" s="9"/>
-      <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="9"/>
-      <c r="G361" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H361" s="9"/>
-      <c r="I361" s="9"/>
-      <c r="J361" s="9"/>
-      <c r="K361" s="9"/>
-      <c r="L361" s="9"/>
-      <c r="M361" s="9"/>
-      <c r="N361" s="9"/>
-      <c r="O361" s="9"/>
-      <c r="P361" s="9"/>
-      <c r="Q361" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R361" s="9"/>
-      <c r="S361" s="9"/>
+    <row r="361" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B361" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="G361" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K361" s="11"/>
+      <c r="O361" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q361" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S361" s="11"/>
       <c r="T361" s="9"/>
     </row>
-    <row r="362" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="362" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B362" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G362" s="19" t="s">
         <v>24</v>
@@ -12418,38 +12420,37 @@
       <c r="S362" s="11"/>
       <c r="T362" s="9"/>
     </row>
-    <row r="363" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B363" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="G363" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K363" s="11"/>
-      <c r="O363" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q363" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S363" s="11"/>
+    <row r="363" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A363" s="9"/>
+      <c r="B363" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C363" s="9"/>
+      <c r="D363" s="9"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H363" s="9"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="9"/>
+      <c r="K363" s="9"/>
+      <c r="L363" s="9"/>
+      <c r="M363" s="9"/>
+      <c r="N363" s="9"/>
+      <c r="O363" s="9"/>
+      <c r="P363" s="9"/>
+      <c r="Q363" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R363" s="9"/>
+      <c r="S363" s="9"/>
       <c r="T363" s="9"/>
     </row>
-    <row r="364" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A364" s="35" t="s">
-        <v>531</v>
-      </c>
+    <row r="364" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B364" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="C364" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="E364" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="F364" s="19" t="s">
-        <v>154</v>
+        <v>529</v>
       </c>
       <c r="G364" s="19" t="s">
         <v>24</v>
@@ -12464,41 +12465,38 @@
       <c r="S364" s="11"/>
       <c r="T364" s="9"/>
     </row>
-    <row r="365" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A365" s="9"/>
-      <c r="B365" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C365" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="9"/>
-      <c r="G365" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H365" s="9"/>
-      <c r="I365" s="9"/>
-      <c r="J365" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="K365" s="9"/>
-      <c r="L365" s="9"/>
-      <c r="M365" s="9"/>
-      <c r="N365" s="9"/>
-      <c r="O365" s="9"/>
-      <c r="P365" s="9"/>
-      <c r="Q365" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R365" s="9"/>
-      <c r="S365" s="9"/>
+    <row r="365" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B365" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="G365" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K365" s="11"/>
+      <c r="O365" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q365" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S365" s="11"/>
       <c r="T365" s="9"/>
     </row>
-    <row r="366" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="366" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A366" s="35" t="s">
+        <v>531</v>
+      </c>
       <c r="B366" s="19" t="s">
-        <v>537</v>
+        <v>532</v>
+      </c>
+      <c r="C366" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E366" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="F366" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="G366" s="19" t="s">
         <v>24</v>
@@ -12513,32 +12511,41 @@
       <c r="S366" s="11"/>
       <c r="T366" s="9"/>
     </row>
-    <row r="367" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B367" s="19" t="s">
-        <v>538</v>
-      </c>
-      <c r="C367" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="K367" s="11"/>
-      <c r="S367" s="11"/>
+    <row r="367" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A367" s="9"/>
+      <c r="B367" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D367" s="9"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H367" s="9"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="K367" s="9"/>
+      <c r="L367" s="9"/>
+      <c r="M367" s="9"/>
+      <c r="N367" s="9"/>
+      <c r="O367" s="9"/>
+      <c r="P367" s="9"/>
+      <c r="Q367" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R367" s="9"/>
+      <c r="S367" s="9"/>
       <c r="T367" s="9"/>
     </row>
-    <row r="368" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A368" s="35" t="s">
-        <v>540</v>
-      </c>
+    <row r="368" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B368" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="C368" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E368" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="F368" s="19" t="s">
-        <v>412</v>
+        <v>537</v>
       </c>
       <c r="G368" s="19" t="s">
         <v>24</v>
@@ -12553,35 +12560,32 @@
       <c r="S368" s="11"/>
       <c r="T368" s="9"/>
     </row>
-    <row r="369" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="369" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B369" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="G369" s="19" t="s">
-        <v>24</v>
+        <v>538</v>
+      </c>
+      <c r="C369" s="19" t="s">
+        <v>539</v>
       </c>
       <c r="K369" s="11"/>
-      <c r="O369" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q369" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="S369" s="11"/>
       <c r="T369" s="9"/>
     </row>
-    <row r="370" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="370" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A370" s="35" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B370" s="19" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E370" s="19" t="s">
-        <v>152</v>
+        <v>410</v>
+      </c>
+      <c r="F370" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="G370" s="19" t="s">
         <v>24</v>
@@ -12596,9 +12600,9 @@
       <c r="S370" s="11"/>
       <c r="T370" s="9"/>
     </row>
-    <row r="371" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="371" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B371" s="19" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="G371" s="19" t="s">
         <v>24</v>
@@ -12613,37 +12617,35 @@
       <c r="S371" s="11"/>
       <c r="T371" s="9"/>
     </row>
-    <row r="372" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A372" s="9"/>
-      <c r="B372" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="C372" s="9"/>
-      <c r="D372" s="9"/>
-      <c r="E372" s="9"/>
-      <c r="F372" s="9"/>
-      <c r="G372" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H372" s="9"/>
-      <c r="I372" s="9"/>
-      <c r="J372" s="9"/>
-      <c r="K372" s="9"/>
-      <c r="L372" s="9"/>
-      <c r="M372" s="9"/>
-      <c r="N372" s="9"/>
-      <c r="O372" s="9"/>
-      <c r="P372" s="9"/>
-      <c r="Q372" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R372" s="9"/>
-      <c r="S372" s="9"/>
+    <row r="372" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A372" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="B372" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C372" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="E372" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G372" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K372" s="11"/>
+      <c r="O372" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S372" s="11"/>
       <c r="T372" s="9"/>
     </row>
-    <row r="373" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="373" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B373" s="19" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G373" s="19" t="s">
         <v>24</v>
@@ -12658,12 +12660,10 @@
       <c r="S373" s="11"/>
       <c r="T373" s="9"/>
     </row>
-    <row r="374" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A374" s="9" t="s">
-        <v>549</v>
-      </c>
+    <row r="374" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A374" s="9"/>
       <c r="B374" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -12674,9 +12674,7 @@
       </c>
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
-      <c r="J374" s="9" t="s">
-        <v>551</v>
-      </c>
+      <c r="J374" s="9"/>
       <c r="K374" s="9"/>
       <c r="L374" s="9"/>
       <c r="M374" s="9"/>
@@ -12690,38 +12688,29 @@
       <c r="S374" s="9"/>
       <c r="T374" s="9"/>
     </row>
-    <row r="375" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A375" s="9"/>
-      <c r="B375" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C375" s="9"/>
-      <c r="D375" s="9"/>
-      <c r="E375" s="9"/>
-      <c r="F375" s="9"/>
-      <c r="G375" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H375" s="9"/>
-      <c r="I375" s="9"/>
-      <c r="J375" s="9"/>
-      <c r="K375" s="9"/>
-      <c r="L375" s="9"/>
-      <c r="M375" s="9"/>
-      <c r="N375" s="9"/>
-      <c r="O375" s="9"/>
-      <c r="P375" s="9"/>
-      <c r="Q375" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R375" s="9"/>
-      <c r="S375" s="9"/>
+    <row r="375" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B375" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="G375" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K375" s="11"/>
+      <c r="O375" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q375" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S375" s="11"/>
       <c r="T375" s="9"/>
     </row>
-    <row r="376" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A376" s="9"/>
+    <row r="376" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A376" s="9" t="s">
+        <v>549</v>
+      </c>
       <c r="B376" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -12732,7 +12721,9 @@
       </c>
       <c r="H376" s="9"/>
       <c r="I376" s="9"/>
-      <c r="J376" s="9"/>
+      <c r="J376" s="9" t="s">
+        <v>551</v>
+      </c>
       <c r="K376" s="9"/>
       <c r="L376" s="9"/>
       <c r="M376" s="9"/>
@@ -12746,10 +12737,10 @@
       <c r="S376" s="9"/>
       <c r="T376" s="9"/>
     </row>
-    <row r="377" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="377" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A377" s="9"/>
       <c r="B377" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -12774,10 +12765,10 @@
       <c r="S377" s="9"/>
       <c r="T377" s="9"/>
     </row>
-    <row r="378" spans="1:20" s="19" customFormat="1" ht="32.1" customHeight="1">
+    <row r="378" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A378" s="9"/>
       <c r="B378" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -12802,10 +12793,10 @@
       <c r="S378" s="9"/>
       <c r="T378" s="9"/>
     </row>
-    <row r="379" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="379" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A379" s="9"/>
       <c r="B379" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -12830,10 +12821,10 @@
       <c r="S379" s="9"/>
       <c r="T379" s="9"/>
     </row>
-    <row r="380" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="380" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A380" s="9"/>
       <c r="B380" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -12858,10 +12849,10 @@
       <c r="S380" s="9"/>
       <c r="T380" s="9"/>
     </row>
-    <row r="381" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="381" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A381" s="9"/>
       <c r="B381" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -12886,10 +12877,10 @@
       <c r="S381" s="9"/>
       <c r="T381" s="9"/>
     </row>
-    <row r="382" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="382" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A382" s="9"/>
       <c r="B382" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -12914,10 +12905,10 @@
       <c r="S382" s="9"/>
       <c r="T382" s="9"/>
     </row>
-    <row r="383" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="383" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A383" s="9"/>
       <c r="B383" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
@@ -12942,10 +12933,10 @@
       <c r="S383" s="9"/>
       <c r="T383" s="9"/>
     </row>
-    <row r="384" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="384" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A384" s="9"/>
       <c r="B384" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -12970,10 +12961,10 @@
       <c r="S384" s="9"/>
       <c r="T384" s="9"/>
     </row>
-    <row r="385" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="385" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A385" s="9"/>
       <c r="B385" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
@@ -12998,10 +12989,10 @@
       <c r="S385" s="9"/>
       <c r="T385" s="9"/>
     </row>
-    <row r="386" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="386" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A386" s="9"/>
       <c r="B386" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
@@ -13026,49 +13017,71 @@
       <c r="S386" s="9"/>
       <c r="T386" s="9"/>
     </row>
-    <row r="387" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B387" s="19" t="s">
+    <row r="387" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A387" s="9"/>
+      <c r="B387" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C387" s="9"/>
+      <c r="D387" s="9"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="9"/>
+      <c r="G387" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H387" s="9"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="9"/>
+      <c r="K387" s="9"/>
+      <c r="L387" s="9"/>
+      <c r="M387" s="9"/>
+      <c r="N387" s="9"/>
+      <c r="O387" s="9"/>
+      <c r="P387" s="9"/>
+      <c r="Q387" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R387" s="9"/>
+      <c r="S387" s="9"/>
+      <c r="T387" s="9"/>
+    </row>
+    <row r="388" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A388" s="9"/>
+      <c r="B388" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C388" s="9"/>
+      <c r="D388" s="9"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="9"/>
+      <c r="G388" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H388" s="9"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="9"/>
+      <c r="K388" s="9"/>
+      <c r="L388" s="9"/>
+      <c r="M388" s="9"/>
+      <c r="N388" s="9"/>
+      <c r="O388" s="9"/>
+      <c r="P388" s="9"/>
+      <c r="Q388" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R388" s="9"/>
+      <c r="S388" s="9"/>
+      <c r="T388" s="9"/>
+    </row>
+    <row r="389" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B389" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="G387" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J387" s="19" t="s">
+      <c r="G389" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J389" s="19" t="s">
         <v>565</v>
-      </c>
-      <c r="K387" s="11"/>
-      <c r="O387" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q387" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S387" s="11"/>
-      <c r="T387" s="9"/>
-    </row>
-    <row r="388" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B388" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="G388" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K388" s="11"/>
-      <c r="O388" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q388" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S388" s="11"/>
-      <c r="T388" s="9"/>
-    </row>
-    <row r="389" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B389" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="G389" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="K389" s="11"/>
       <c r="O389" s="19">
@@ -13080,9 +13093,9 @@
       <c r="S389" s="11"/>
       <c r="T389" s="9"/>
     </row>
-    <row r="390" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="390" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B390" s="19" t="s">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="G390" s="19" t="s">
         <v>24</v>
@@ -13097,9 +13110,9 @@
       <c r="S390" s="11"/>
       <c r="T390" s="9"/>
     </row>
-    <row r="391" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="391" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B391" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G391" s="19" t="s">
         <v>24</v>
@@ -13114,9 +13127,9 @@
       <c r="S391" s="11"/>
       <c r="T391" s="9"/>
     </row>
-    <row r="392" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="392" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B392" s="19" t="s">
-        <v>569</v>
+        <v>60</v>
       </c>
       <c r="G392" s="19" t="s">
         <v>24</v>
@@ -13131,66 +13144,44 @@
       <c r="S392" s="11"/>
       <c r="T392" s="9"/>
     </row>
-    <row r="393" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A393" s="9"/>
-      <c r="B393" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="C393" s="9"/>
-      <c r="D393" s="9"/>
-      <c r="E393" s="9"/>
-      <c r="F393" s="9"/>
-      <c r="G393" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H393" s="9"/>
-      <c r="I393" s="9"/>
-      <c r="J393" s="9"/>
-      <c r="K393" s="9"/>
-      <c r="L393" s="9"/>
-      <c r="M393" s="9"/>
-      <c r="N393" s="9"/>
-      <c r="O393" s="9"/>
-      <c r="P393" s="9"/>
-      <c r="Q393" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R393" s="9"/>
-      <c r="S393" s="9"/>
+    <row r="393" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B393" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="G393" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K393" s="11"/>
+      <c r="O393" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q393" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S393" s="11"/>
       <c r="T393" s="9"/>
     </row>
-    <row r="394" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A394" s="9"/>
-      <c r="B394" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C394" s="9"/>
-      <c r="D394" s="9"/>
-      <c r="E394" s="9"/>
-      <c r="F394" s="9"/>
-      <c r="G394" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H394" s="9"/>
-      <c r="I394" s="9"/>
-      <c r="J394" s="9"/>
-      <c r="K394" s="9"/>
-      <c r="L394" s="9"/>
-      <c r="M394" s="9"/>
-      <c r="N394" s="9"/>
-      <c r="O394" s="9"/>
-      <c r="P394" s="9"/>
-      <c r="Q394" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R394" s="9"/>
-      <c r="S394" s="9"/>
+    <row r="394" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B394" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="G394" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K394" s="11"/>
+      <c r="O394" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q394" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S394" s="11"/>
       <c r="T394" s="9"/>
     </row>
-    <row r="395" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="395" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A395" s="9"/>
       <c r="B395" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C395" s="9"/>
       <c r="D395" s="9"/>
@@ -13215,10 +13206,10 @@
       <c r="S395" s="9"/>
       <c r="T395" s="9"/>
     </row>
-    <row r="396" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
+    <row r="396" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A396" s="9"/>
       <c r="B396" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C396" s="9"/>
       <c r="D396" s="9"/>
@@ -13243,204 +13234,236 @@
       <c r="S396" s="9"/>
       <c r="T396" s="9"/>
     </row>
-    <row r="397" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B397" s="19" t="s">
+    <row r="397" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A397" s="9"/>
+      <c r="B397" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C397" s="9"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H397" s="9"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="9"/>
+      <c r="K397" s="9"/>
+      <c r="L397" s="9"/>
+      <c r="M397" s="9"/>
+      <c r="N397" s="9"/>
+      <c r="O397" s="9"/>
+      <c r="P397" s="9"/>
+      <c r="Q397" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R397" s="9"/>
+      <c r="S397" s="9"/>
+      <c r="T397" s="9"/>
+    </row>
+    <row r="398" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A398" s="9"/>
+      <c r="B398" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C398" s="9"/>
+      <c r="D398" s="9"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="9"/>
+      <c r="G398" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H398" s="9"/>
+      <c r="I398" s="9"/>
+      <c r="J398" s="9"/>
+      <c r="K398" s="9"/>
+      <c r="L398" s="9"/>
+      <c r="M398" s="9"/>
+      <c r="N398" s="9"/>
+      <c r="O398" s="9"/>
+      <c r="P398" s="9"/>
+      <c r="Q398" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R398" s="9"/>
+      <c r="S398" s="9"/>
+      <c r="T398" s="9"/>
+    </row>
+    <row r="399" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B399" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="G397" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K397" s="11"/>
-      <c r="O397" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q397" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S397" s="11"/>
-      <c r="T397" s="9"/>
-    </row>
-    <row r="398" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B398" s="19" t="s">
+      <c r="G399" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K399" s="11"/>
+      <c r="O399" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S399" s="11"/>
+      <c r="T399" s="9"/>
+    </row>
+    <row r="400" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B400" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="G398" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K398" s="11"/>
-      <c r="O398" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q398" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S398" s="11"/>
-      <c r="T398" s="9"/>
-    </row>
-    <row r="399" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A399" s="9" t="s">
+      <c r="G400" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K400" s="11"/>
+      <c r="O400" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q400" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S400" s="11"/>
+      <c r="T400" s="9"/>
+    </row>
+    <row r="401" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A401" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B401" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C399" s="9" t="s">
+      <c r="C401" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D399" s="9"/>
-      <c r="E399" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F399" s="9" t="s">
+      <c r="D401" s="9"/>
+      <c r="E401" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F401" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G399" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H399" s="9"/>
-      <c r="I399" s="9"/>
-      <c r="J399" s="9"/>
-      <c r="K399" s="9"/>
-      <c r="L399" s="9"/>
-      <c r="M399" s="9"/>
-      <c r="N399" s="9"/>
-      <c r="O399" s="9"/>
-      <c r="P399" s="9"/>
-      <c r="Q399" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R399" s="9"/>
-      <c r="S399" s="9"/>
-      <c r="T399" s="9"/>
-    </row>
-    <row r="400" spans="1:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A400" s="9"/>
-      <c r="B400" s="9" t="s">
+      <c r="G401" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H401" s="9"/>
+      <c r="I401" s="9"/>
+      <c r="J401" s="9"/>
+      <c r="K401" s="9"/>
+      <c r="L401" s="9"/>
+      <c r="M401" s="9"/>
+      <c r="N401" s="9"/>
+      <c r="O401" s="9"/>
+      <c r="P401" s="9"/>
+      <c r="Q401" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R401" s="9"/>
+      <c r="S401" s="9"/>
+      <c r="T401" s="9"/>
+    </row>
+    <row r="402" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A402" s="9"/>
+      <c r="B402" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C400" s="9"/>
-      <c r="D400" s="9"/>
-      <c r="E400" s="9"/>
-      <c r="F400" s="9"/>
-      <c r="G400" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H400" s="9"/>
-      <c r="I400" s="9"/>
-      <c r="J400" s="9"/>
-      <c r="K400" s="9"/>
-      <c r="L400" s="9"/>
-      <c r="M400" s="9"/>
-      <c r="N400" s="9"/>
-      <c r="O400" s="9"/>
-      <c r="P400" s="9"/>
-      <c r="Q400" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R400" s="9"/>
-      <c r="S400" s="9"/>
-      <c r="T400" s="9"/>
-    </row>
-    <row r="401" spans="2:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B401" s="19" t="s">
+      <c r="C402" s="9"/>
+      <c r="D402" s="9"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="9"/>
+      <c r="G402" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H402" s="9"/>
+      <c r="I402" s="9"/>
+      <c r="J402" s="9"/>
+      <c r="K402" s="9"/>
+      <c r="L402" s="9"/>
+      <c r="M402" s="9"/>
+      <c r="N402" s="9"/>
+      <c r="O402" s="9"/>
+      <c r="P402" s="9"/>
+      <c r="Q402" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R402" s="9"/>
+      <c r="S402" s="9"/>
+      <c r="T402" s="9"/>
+    </row>
+    <row r="403" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B403" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="G401" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K401" s="11"/>
-      <c r="O401" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q401" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S401" s="11"/>
-      <c r="T401" s="9"/>
-    </row>
-    <row r="402" spans="2:20" s="19" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B402" s="19" t="s">
+      <c r="G403" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K403" s="11"/>
+      <c r="O403" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q403" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S403" s="11"/>
+      <c r="T403" s="9"/>
+    </row>
+    <row r="404" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B404" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="G402" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K402" s="11"/>
-      <c r="O402" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q402" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S402" s="11"/>
-      <c r="T402" s="9"/>
-    </row>
-    <row r="403" spans="2:20" s="9" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B403" s="11"/>
-      <c r="Q403" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="404" spans="2:20" s="9" customFormat="1">
-      <c r="B404" s="11"/>
-      <c r="G404" s="10"/>
-      <c r="H404" s="10"/>
-      <c r="I404" s="11"/>
-      <c r="J404" s="10"/>
-      <c r="K404" s="10"/>
-      <c r="L404" s="10"/>
-      <c r="M404" s="10">
-        <v>1</v>
-      </c>
-      <c r="N404" s="10"/>
-      <c r="O404" s="10"/>
-      <c r="P404" s="10"/>
-      <c r="Q404" s="10"/>
-    </row>
-    <row r="405" spans="2:20" s="9" customFormat="1" ht="15.95" customHeight="1">
+      <c r="G404" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K404" s="11"/>
+      <c r="O404" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q404" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S404" s="11"/>
+      <c r="T404" s="9"/>
+    </row>
+    <row r="405" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B405" s="11"/>
       <c r="Q405" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="2:20" s="9" customFormat="1" ht="15.95" customHeight="1">
+    <row r="406" spans="1:20" s="9" customFormat="1">
       <c r="B406" s="11"/>
-      <c r="Q406" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="407" spans="2:20" s="9" customFormat="1" ht="15.95" customHeight="1">
+      <c r="G406" s="10"/>
+      <c r="H406" s="10"/>
+      <c r="I406" s="11"/>
+      <c r="J406" s="10"/>
+      <c r="K406" s="10"/>
+      <c r="L406" s="10"/>
+      <c r="M406" s="10">
+        <v>1</v>
+      </c>
+      <c r="N406" s="10"/>
+      <c r="O406" s="10"/>
+      <c r="P406" s="10"/>
+      <c r="Q406" s="10"/>
+    </row>
+    <row r="407" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B407" s="11"/>
       <c r="Q407" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="2:20" s="9" customFormat="1">
+    <row r="408" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B408" s="11"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="10"/>
-      <c r="G408" s="10"/>
-      <c r="H408" s="10"/>
-      <c r="I408" s="10"/>
-      <c r="J408" s="10"/>
-      <c r="K408" s="10"/>
-      <c r="L408" s="10"/>
-      <c r="M408" s="10"/>
-      <c r="N408" s="10"/>
-      <c r="O408" s="10"/>
-      <c r="P408" s="10"/>
-      <c r="Q408" s="10"/>
-    </row>
-    <row r="409" spans="2:20" s="9" customFormat="1" ht="15.95" customHeight="1">
+      <c r="Q408" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B409" s="11"/>
       <c r="Q409" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="2:20" s="9" customFormat="1">
+    <row r="410" spans="1:20" s="9" customFormat="1">
       <c r="B410" s="11"/>
-      <c r="C410" s="10"/>
-      <c r="D410" s="18"/>
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="10"/>
@@ -13455,38 +13478,56 @@
       <c r="P410" s="10"/>
       <c r="Q410" s="10"/>
     </row>
-    <row r="411" spans="2:20" s="9" customFormat="1">
+    <row r="411" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B411" s="11"/>
-      <c r="C411" s="10"/>
-      <c r="D411" s="18"/>
-      <c r="E411" s="10"/>
-      <c r="F411" s="10"/>
-      <c r="G411" s="10"/>
-      <c r="H411" s="10"/>
-      <c r="I411" s="10"/>
-      <c r="J411" s="10"/>
-      <c r="K411" s="10"/>
-      <c r="L411" s="10"/>
-      <c r="M411" s="10"/>
-      <c r="N411" s="10"/>
-      <c r="O411" s="10"/>
-      <c r="P411" s="10"/>
-      <c r="Q411" s="10"/>
-    </row>
-    <row r="412" spans="2:20" s="9" customFormat="1">
+      <c r="Q411" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" s="9" customFormat="1">
       <c r="B412" s="11"/>
-      <c r="R412" s="10"/>
-    </row>
-    <row r="413" spans="2:20" s="9" customFormat="1">
+      <c r="C412" s="10"/>
+      <c r="D412" s="18"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
+      <c r="H412" s="10"/>
+      <c r="I412" s="10"/>
+      <c r="J412" s="10"/>
+      <c r="K412" s="10"/>
+      <c r="L412" s="10"/>
+      <c r="M412" s="10"/>
+      <c r="N412" s="10"/>
+      <c r="O412" s="10"/>
+      <c r="P412" s="10"/>
+      <c r="Q412" s="10"/>
+    </row>
+    <row r="413" spans="1:20" s="9" customFormat="1">
       <c r="B413" s="11"/>
-    </row>
-    <row r="414" spans="2:20" s="9" customFormat="1">
+      <c r="C413" s="10"/>
+      <c r="D413" s="18"/>
+      <c r="E413" s="10"/>
+      <c r="F413" s="10"/>
+      <c r="G413" s="10"/>
+      <c r="H413" s="10"/>
+      <c r="I413" s="10"/>
+      <c r="J413" s="10"/>
+      <c r="K413" s="10"/>
+      <c r="L413" s="10"/>
+      <c r="M413" s="10"/>
+      <c r="N413" s="10"/>
+      <c r="O413" s="10"/>
+      <c r="P413" s="10"/>
+      <c r="Q413" s="10"/>
+    </row>
+    <row r="414" spans="1:20" s="9" customFormat="1">
       <c r="B414" s="11"/>
-    </row>
-    <row r="415" spans="2:20" s="9" customFormat="1">
+      <c r="R414" s="10"/>
+    </row>
+    <row r="415" spans="1:20" s="9" customFormat="1">
       <c r="B415" s="11"/>
     </row>
-    <row r="416" spans="2:20" s="9" customFormat="1">
+    <row r="416" spans="1:20" s="9" customFormat="1">
       <c r="B416" s="11"/>
     </row>
     <row r="417" spans="1:19" s="9" customFormat="1">
@@ -13502,53 +13543,21 @@
       <c r="B420" s="11"/>
     </row>
     <row r="421" spans="1:19" s="9" customFormat="1">
-      <c r="A421" s="11"/>
       <c r="B421" s="11"/>
-      <c r="S421" s="10"/>
     </row>
     <row r="422" spans="1:19" s="9" customFormat="1">
       <c r="B422" s="11"/>
-      <c r="R422" s="10"/>
     </row>
     <row r="423" spans="1:19" s="9" customFormat="1">
+      <c r="A423" s="11"/>
       <c r="B423" s="11"/>
-      <c r="C423" s="10"/>
-      <c r="D423" s="18"/>
-      <c r="E423" s="10"/>
-      <c r="F423" s="10"/>
-      <c r="G423" s="10"/>
-      <c r="H423" s="10"/>
-      <c r="I423" s="10"/>
-      <c r="J423" s="10"/>
-      <c r="K423" s="10"/>
-      <c r="L423" s="10"/>
-      <c r="M423" s="10"/>
-      <c r="N423" s="10"/>
-      <c r="O423" s="10"/>
-      <c r="P423" s="10"/>
-      <c r="Q423" s="10"/>
+      <c r="S423" s="10"/>
     </row>
     <row r="424" spans="1:19" s="9" customFormat="1">
       <c r="B424" s="11"/>
-      <c r="C424" s="10"/>
-      <c r="D424" s="18"/>
-      <c r="E424" s="10"/>
-      <c r="F424" s="10"/>
-      <c r="G424" s="10"/>
-      <c r="H424" s="10"/>
-      <c r="I424" s="10"/>
-      <c r="J424" s="10"/>
-      <c r="K424" s="10"/>
-      <c r="L424" s="10"/>
-      <c r="M424" s="10"/>
-      <c r="N424" s="10"/>
-      <c r="O424" s="10"/>
-      <c r="P424" s="10"/>
-      <c r="Q424" s="10"/>
       <c r="R424" s="10"/>
     </row>
     <row r="425" spans="1:19" s="9" customFormat="1">
-      <c r="A425" s="10"/>
       <c r="B425" s="11"/>
       <c r="C425" s="10"/>
       <c r="D425" s="18"/>
@@ -13565,8 +13574,6 @@
       <c r="O425" s="10"/>
       <c r="P425" s="10"/>
       <c r="Q425" s="10"/>
-      <c r="R425" s="10"/>
-      <c r="S425" s="10"/>
     </row>
     <row r="426" spans="1:19" s="9" customFormat="1">
       <c r="B426" s="11"/>
@@ -13587,8 +13594,48 @@
       <c r="Q426" s="10"/>
       <c r="R426" s="10"/>
     </row>
-    <row r="427" spans="1:19">
+    <row r="427" spans="1:19" s="9" customFormat="1">
+      <c r="A427" s="10"/>
       <c r="B427" s="11"/>
+      <c r="C427" s="10"/>
+      <c r="D427" s="18"/>
+      <c r="E427" s="10"/>
+      <c r="F427" s="10"/>
+      <c r="G427" s="10"/>
+      <c r="H427" s="10"/>
+      <c r="I427" s="10"/>
+      <c r="J427" s="10"/>
+      <c r="K427" s="10"/>
+      <c r="L427" s="10"/>
+      <c r="M427" s="10"/>
+      <c r="N427" s="10"/>
+      <c r="O427" s="10"/>
+      <c r="P427" s="10"/>
+      <c r="Q427" s="10"/>
+      <c r="R427" s="10"/>
+      <c r="S427" s="10"/>
+    </row>
+    <row r="428" spans="1:19" s="9" customFormat="1">
+      <c r="B428" s="11"/>
+      <c r="C428" s="10"/>
+      <c r="D428" s="18"/>
+      <c r="E428" s="10"/>
+      <c r="F428" s="10"/>
+      <c r="G428" s="10"/>
+      <c r="H428" s="10"/>
+      <c r="I428" s="10"/>
+      <c r="J428" s="10"/>
+      <c r="K428" s="10"/>
+      <c r="L428" s="10"/>
+      <c r="M428" s="10"/>
+      <c r="N428" s="10"/>
+      <c r="O428" s="10"/>
+      <c r="P428" s="10"/>
+      <c r="Q428" s="10"/>
+      <c r="R428" s="10"/>
+    </row>
+    <row r="429" spans="1:19">
+      <c r="B429" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13604,17 +13651,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>582</v>
       </c>
@@ -13639,7 +13686,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32.1" customHeight="1">
+    <row r="3" spans="1:4" ht="32" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -13650,7 +13697,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63.95" customHeight="1">
+    <row r="4" spans="1:4" ht="64" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -13664,7 +13711,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.1" customHeight="1">
+    <row r="5" spans="1:4" ht="32" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -13675,7 +13722,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.1" customHeight="1">
+    <row r="6" spans="1:4" ht="32" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -13689,7 +13736,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32.1" customHeight="1">
+    <row r="7" spans="1:4" ht="32" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -13700,7 +13747,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32.1" customHeight="1">
+    <row r="8" spans="1:4" ht="32" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -13711,7 +13758,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95" customHeight="1">
+    <row r="9" spans="1:4" ht="16" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -13722,7 +13769,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.1" customHeight="1">
+    <row r="10" spans="1:4" ht="32" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -13733,7 +13780,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32.1" customHeight="1">
+    <row r="11" spans="1:4" ht="32" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -13744,7 +13791,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.95" customHeight="1">
+    <row r="12" spans="1:4" ht="16" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -13755,7 +13802,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.1" customHeight="1">
+    <row r="13" spans="1:4" ht="32" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -13777,7 +13824,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.95" customHeight="1">
+    <row r="15" spans="1:4" ht="16" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -13788,7 +13835,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.95" customHeight="1">
+    <row r="16" spans="1:4" ht="16" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -13799,7 +13846,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.95" customHeight="1">
+    <row r="17" spans="1:3" ht="16" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -13810,7 +13857,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.95" customHeight="1">
+    <row r="18" spans="1:3" ht="16" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -13821,7 +13868,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32.1" customHeight="1">
+    <row r="19" spans="1:3" ht="32" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -13846,23 +13893,23 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13987,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.95" customHeight="1">
+    <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>644</v>
       </c>
@@ -14045,7 +14092,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14060,9 +14107,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D2785-A131-4344-BF31-0028A29A5423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7C8DA5-0015-CC42-9045-BC3B32D69F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="729">
   <si>
     <t>ID</t>
   </si>
@@ -827,9 +827,6 @@
     <t>E-cigarette regular use</t>
   </si>
   <si>
-    <t>E-cigarette usage pattern</t>
-  </si>
-  <si>
     <t>E-cigarette use</t>
   </si>
   <si>
@@ -2084,9 +2081,6 @@
     <t>Data item</t>
   </si>
   <si>
-    <t>A  behavioural attribute  that indicates the duration of concurrent use by a person of both e-cigarettes and cigarettes.</t>
-  </si>
-  <si>
     <t>A consumption behaviour that involves concurrent use by a person of e-cigarettes and cigarettes.</t>
   </si>
   <si>
@@ -2126,9 +2120,6 @@
     <t xml:space="preserve">E-cigarette use that indicates a person has used an e-cigarette in the 30-days prior to the time of asking. </t>
   </si>
   <si>
-    <t xml:space="preserve">A behaviour attribute that involves regular use of an e-cigarette. </t>
-  </si>
-  <si>
     <t xml:space="preserve">A behaviour pattern that involves the use of an e-cigarette. </t>
   </si>
   <si>
@@ -2180,9 +2171,6 @@
     <t>E-cigarette vaping</t>
   </si>
   <si>
-    <t>An e-cigarette behaviour that involves ingensting aerosol produced by an e-cigarette.</t>
-  </si>
-  <si>
     <t>E-cigarette use behaviour</t>
   </si>
   <si>
@@ -2208,6 +2196,21 @@
   </si>
   <si>
     <t>A product demand in which the product is a e-cigarettes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual use  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A drug use pattern of behaviour that involves the concurrent use by a person of two substances. </t>
+  </si>
+  <si>
+    <t>A behavioural attribute  that indicates the duration of concurrent use by a person of both e-cigarettes and cigarettes.</t>
+  </si>
+  <si>
+    <t>An e-cigarette use behaviour that involves ingensting aerosol produced by an e-cigarette.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An e-cigarette use pattern that indicates regular use of an e-cigarette. </t>
   </si>
 </sst>
 </file>
@@ -2768,11 +2771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T429"/>
+  <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2960,7 +2963,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>40</v>
@@ -3879,7 +3882,7 @@
     <row r="34" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3950,7 +3953,7 @@
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>23</v>
@@ -3972,7 +3975,7 @@
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>23</v>
@@ -3994,7 +3997,7 @@
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>23</v>
@@ -4105,7 +4108,7 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4165,7 +4168,7 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>150</v>
@@ -4200,7 +4203,7 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>154</v>
@@ -4717,11 +4720,11 @@
         <v>179</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31" t="s">
@@ -4740,7 +4743,7 @@
         <v>26</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q64" s="31" t="s">
         <v>27</v>
@@ -4754,11 +4757,11 @@
         <v>174</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31" t="s">
@@ -4767,7 +4770,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
       <c r="J65" s="31" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K65" s="31"/>
       <c r="L65" s="31"/>
@@ -4777,7 +4780,7 @@
         <v>26</v>
       </c>
       <c r="P65" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q65" s="31" t="s">
         <v>27</v>
@@ -4788,14 +4791,14 @@
     <row r="66" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="31" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -4803,7 +4806,7 @@
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="31" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -4817,14 +4820,14 @@
     <row r="67" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="31" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -4847,11 +4850,11 @@
         <v>175</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="31" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31" t="s">
@@ -4860,7 +4863,7 @@
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
       <c r="J68" s="31" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K68" s="31"/>
       <c r="L68" s="31"/>
@@ -4870,7 +4873,7 @@
         <v>26</v>
       </c>
       <c r="P68" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q68" s="31" t="s">
         <v>27</v>
@@ -4881,14 +4884,14 @@
     <row r="69" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A69" s="31"/>
       <c r="B69" s="31" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="31" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -4910,23 +4913,23 @@
         <v>176</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>24</v>
       </c>
       <c r="J70" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K70" s="30"/>
       <c r="O70" s="29">
         <v>1</v>
       </c>
       <c r="P70" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q70" s="29" t="s">
         <v>27</v>
@@ -4938,10 +4941,10 @@
         <v>177</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>24</v>
@@ -4951,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q71" s="29" t="s">
         <v>27</v>
@@ -4964,11 +4967,11 @@
         <v>178</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="31" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31" t="s">
@@ -5599,10 +5602,10 @@
         <v>211</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F96" s="29" t="s">
         <v>44</v>
@@ -5611,14 +5614,14 @@
         <v>24</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K96" s="30"/>
       <c r="O96" s="29">
         <v>1</v>
       </c>
       <c r="P96" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q96" s="29" t="s">
         <v>27</v>
@@ -5685,11 +5688,11 @@
         <v>214</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F99" s="31" t="s">
         <v>44</v>
@@ -5700,7 +5703,7 @@
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
       <c r="J99" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K99" s="31"/>
       <c r="L99" s="31"/>
@@ -5710,7 +5713,7 @@
         <v>26</v>
       </c>
       <c r="P99" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q99" s="31" t="s">
         <v>27</v>
@@ -6237,72 +6240,72 @@
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
     </row>
-    <row r="118" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A118" s="9" t="s">
+    <row r="118" spans="1:20" s="15" customFormat="1" ht="16" customHeight="1">
+      <c r="A118" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
+      <c r="D118" s="14"/>
+      <c r="E118" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R118" s="9"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-    </row>
-    <row r="119" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="T118" s="14"/>
+    </row>
+    <row r="119" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A119" s="31"/>
+      <c r="B119" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="31"/>
+      <c r="O119" s="31"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="31"/>
+      <c r="T119" s="31"/>
     </row>
     <row r="120" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -6330,7 +6333,7 @@
     <row r="121" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -6358,7 +6361,7 @@
     <row r="122" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -6383,87 +6386,83 @@
       <c r="S122" s="9"/>
       <c r="T122" s="9"/>
     </row>
-    <row r="123" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
-      <c r="A123" s="31"/>
-      <c r="B123" s="32" t="s">
+    <row r="123" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+    </row>
+    <row r="124" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
+      <c r="A124" s="31"/>
+      <c r="B124" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31" t="s">
+      <c r="C124" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F124" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G123" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="31" t="s">
-        <v>690</v>
-      </c>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-      <c r="M123" s="31"/>
-      <c r="N123" s="31"/>
-      <c r="O123" s="31" t="s">
+      <c r="G124" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
+      <c r="N124" s="31"/>
+      <c r="O124" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P123" s="31" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q123" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R123" s="31"/>
-      <c r="S123" s="31"/>
-      <c r="T123" s="31"/>
-    </row>
-    <row r="124" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B124" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F124" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G124" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J124" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="K124" s="30"/>
-      <c r="O124" s="29">
-        <v>1</v>
-      </c>
-      <c r="P124" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q124" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S124" s="30"/>
-      <c r="T124" s="33"/>
+      <c r="P124" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q124" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R124" s="31"/>
+      <c r="S124" s="31"/>
+      <c r="T124" s="31"/>
     </row>
     <row r="125" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B125" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>688</v>
+        <v>64</v>
       </c>
       <c r="F125" s="29" t="s">
         <v>44</v>
@@ -6479,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q125" s="29" t="s">
         <v>27</v>
@@ -6487,69 +6486,73 @@
       <c r="S125" s="30"/>
       <c r="T125" s="33"/>
     </row>
-    <row r="126" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B126" s="9" t="s">
+    <row r="126" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B126" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K126" s="30"/>
+      <c r="O126" s="29">
+        <v>1</v>
+      </c>
+      <c r="P126" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q126" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S126" s="30"/>
+      <c r="T126" s="33"/>
+    </row>
+    <row r="127" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B127" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C127" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="G126" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K126" s="11"/>
-      <c r="O126" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q126" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S126" s="11"/>
-      <c r="T126" s="9"/>
-    </row>
-    <row r="127" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R127" s="9"/>
-      <c r="S127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="G127" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K127" s="11"/>
+      <c r="O127" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S127" s="11"/>
       <c r="T127" s="9"/>
     </row>
     <row r="128" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
+        <v>256</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -6564,126 +6567,128 @@
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
     </row>
-    <row r="129" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
-      <c r="A129" s="31"/>
-      <c r="B129" s="32" t="s">
+    <row r="129" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+    </row>
+    <row r="130" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="A130" s="31"/>
+      <c r="B130" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
-      <c r="K129" s="31"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="31"/>
-      <c r="N129" s="31"/>
-      <c r="O129" s="31"/>
-      <c r="P129" s="31"/>
-      <c r="Q129" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="R129" s="31"/>
-      <c r="S129" s="31"/>
-      <c r="T129" s="31"/>
-    </row>
-    <row r="130" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
-      <c r="B130" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E130" s="32" t="s">
-        <v>725</v>
-      </c>
-      <c r="G130" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K130" s="34"/>
-      <c r="O130" s="32">
-        <v>1</v>
-      </c>
-      <c r="P130" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q130" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S130" s="34"/>
+      <c r="C130" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="31"/>
+      <c r="L130" s="31"/>
+      <c r="M130" s="31"/>
+      <c r="N130" s="31"/>
+      <c r="O130" s="31"/>
+      <c r="P130" s="31"/>
+      <c r="Q130" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R130" s="31"/>
+      <c r="S130" s="31"/>
       <c r="T130" s="31"/>
     </row>
     <row r="131" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="B131" s="32" t="s">
-        <v>720</v>
+        <v>260</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>727</v>
+        <v>689</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>705</v>
+        <v>721</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="K131" s="34"/>
+      <c r="O131" s="32">
+        <v>1</v>
+      </c>
+      <c r="P131" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q131" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="S131" s="34"/>
       <c r="T131" s="31"/>
     </row>
-    <row r="132" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B132" s="29" t="s">
-        <v>261</v>
+    <row r="132" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
+      <c r="B132" s="32" t="s">
+        <v>716</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="G132" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J132" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="K132" s="30"/>
-      <c r="O132" s="29">
-        <v>1</v>
-      </c>
-      <c r="P132" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q132" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S132" s="30"/>
-      <c r="T132" s="33"/>
+        <v>723</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="K132" s="34"/>
+      <c r="S132" s="34"/>
+      <c r="T132" s="31"/>
     </row>
     <row r="133" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B133" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>24</v>
+      </c>
+      <c r="J133" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="K133" s="30"/>
       <c r="O133" s="29">
         <v>1</v>
       </c>
       <c r="P133" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q133" s="29" t="s">
         <v>27</v>
@@ -6691,52 +6696,58 @@
       <c r="S133" s="30"/>
       <c r="T133" s="33"/>
     </row>
-    <row r="134" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B134" s="19" t="s">
+    <row r="134" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B134" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K134" s="30"/>
+      <c r="O134" s="29">
+        <v>1</v>
+      </c>
+      <c r="P134" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q134" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S134" s="30"/>
+      <c r="T134" s="33"/>
+    </row>
+    <row r="135" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B135" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G134" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K134" s="11"/>
-      <c r="O134" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S134" s="11"/>
-      <c r="T134" s="9"/>
-    </row>
-    <row r="135" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B135" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>721</v>
-      </c>
-      <c r="G135" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K135" s="30"/>
-      <c r="O135" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S135" s="30"/>
-      <c r="T135" s="33"/>
+      <c r="G135" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" s="11"/>
+      <c r="O135" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S135" s="11"/>
+      <c r="T135" s="9"/>
     </row>
     <row r="136" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B136" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>268</v>
+        <v>708</v>
       </c>
       <c r="G136" s="29" t="s">
         <v>24</v>
@@ -6753,13 +6764,13 @@
     </row>
     <row r="137" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B137" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>144</v>
+        <v>721</v>
       </c>
       <c r="G137" s="29" t="s">
         <v>24</v>
@@ -6768,9 +6779,6 @@
       <c r="O137" s="29">
         <v>1</v>
       </c>
-      <c r="P137" s="29" t="s">
-        <v>682</v>
-      </c>
       <c r="Q137" s="29" t="s">
         <v>27</v>
       </c>
@@ -6779,13 +6787,13 @@
     </row>
     <row r="138" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B138" s="29" t="s">
-        <v>268</v>
+        <v>721</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>719</v>
+        <v>144</v>
       </c>
       <c r="G138" s="29" t="s">
         <v>24</v>
@@ -6795,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q138" s="29" t="s">
         <v>27</v>
@@ -6803,26 +6811,35 @@
       <c r="S138" s="30"/>
       <c r="T138" s="33"/>
     </row>
-    <row r="139" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B139" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K139" s="11"/>
-      <c r="O139" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S139" s="11"/>
-      <c r="T139" s="9"/>
-    </row>
-    <row r="140" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="139" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B139" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K139" s="30"/>
+      <c r="O139" s="29">
+        <v>1</v>
+      </c>
+      <c r="P139" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q139" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S139" s="30"/>
+      <c r="T139" s="33"/>
+    </row>
+    <row r="140" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B140" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>24</v>
@@ -6837,9 +6854,9 @@
       <c r="S140" s="11"/>
       <c r="T140" s="9"/>
     </row>
-    <row r="141" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="141" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B141" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>24</v>
@@ -6856,7 +6873,7 @@
     </row>
     <row r="142" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B142" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" s="19" t="s">
         <v>24</v>
@@ -6873,61 +6890,56 @@
     </row>
     <row r="143" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B143" s="19" t="s">
-        <v>717</v>
+        <v>271</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K143" s="11"/>
+      <c r="O143" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="S143" s="11"/>
       <c r="T143" s="9"/>
     </row>
-    <row r="144" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B144" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K144" s="11"/>
-      <c r="O144" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S144" s="11"/>
-      <c r="T144" s="9"/>
+    <row r="144" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B144" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="K144" s="30"/>
+      <c r="S144" s="30"/>
+      <c r="T144" s="33"/>
     </row>
     <row r="145" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A145" s="9"/>
       <c r="B145" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
+        <v>272</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K145" s="11"/>
+      <c r="O145" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S145" s="11"/>
       <c r="T145" s="9"/>
     </row>
     <row r="146" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -6954,8 +6966,8 @@
     </row>
     <row r="147" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="19" t="s">
-        <v>276</v>
+      <c r="B147" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -6981,54 +6993,54 @@
       <c r="T147" s="9"/>
     </row>
     <row r="148" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B148" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K148" s="11"/>
-      <c r="O148" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q148" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S148" s="11"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R148" s="9"/>
+      <c r="S148" s="9"/>
       <c r="T148" s="9"/>
     </row>
     <row r="149" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="9"/>
-      <c r="P149" s="9"/>
-      <c r="Q149" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R149" s="9"/>
-      <c r="S149" s="9"/>
+        <v>276</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K149" s="11"/>
+      <c r="O149" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S149" s="11"/>
       <c r="T149" s="9"/>
     </row>
     <row r="150" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -7053,23 +7065,19 @@
       <c r="S150" s="9"/>
       <c r="T150" s="9"/>
     </row>
-    <row r="151" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
+    <row r="151" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>281</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H151" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="H151" s="9"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -7085,17 +7093,23 @@
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
     </row>
-    <row r="152" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="152" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="s">
-        <v>283</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H152" s="9"/>
+      <c r="H152" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -7114,10 +7128,8 @@
     <row r="153" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
+        <v>282</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9" t="s">
@@ -7142,7 +7154,7 @@
     <row r="154" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -7167,76 +7179,76 @@
       <c r="S154" s="9"/>
       <c r="T154" s="9"/>
     </row>
-    <row r="155" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
-      <c r="A155" s="14" t="s">
+    <row r="155" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R155" s="9"/>
+      <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
+    </row>
+    <row r="156" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
+      <c r="A156" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B156" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="C156" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
-      <c r="K155" s="14"/>
-      <c r="L155" s="14"/>
-      <c r="M155" s="14"/>
-      <c r="N155" s="14"/>
-      <c r="O155" s="14" t="s">
+      <c r="D156" s="14"/>
+      <c r="E156" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P155" s="14" t="s">
+      <c r="P156" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="Q155" s="14" t="s">
+      <c r="Q156" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="R155" s="14"/>
-      <c r="S155" s="14"/>
-      <c r="T155" s="14"/>
-    </row>
-    <row r="156" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
-      <c r="N156" s="9"/>
-      <c r="O156" s="9"/>
-      <c r="P156" s="9"/>
-      <c r="Q156" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R156" s="9"/>
-      <c r="S156" s="9"/>
-      <c r="T156" s="9"/>
+      <c r="R156" s="14"/>
+      <c r="S156" s="14"/>
+      <c r="T156" s="14"/>
     </row>
     <row r="157" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -7264,7 +7276,7 @@
     <row r="158" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -7291,8 +7303,8 @@
     </row>
     <row r="159" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A159" s="9"/>
-      <c r="B159" s="19" t="s">
-        <v>292</v>
+      <c r="B159" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -7318,64 +7330,64 @@
       <c r="T159" s="9"/>
     </row>
     <row r="160" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B160" s="9" t="s">
+      <c r="A160" s="9"/>
+      <c r="B160" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R160" s="9"/>
+      <c r="S160" s="9"/>
+      <c r="T160" s="9"/>
+    </row>
+    <row r="161" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B161" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K161" s="11"/>
+      <c r="O161" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S161" s="11"/>
+      <c r="T161" s="9"/>
+    </row>
+    <row r="162" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A162" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G160" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K160" s="11"/>
-      <c r="O160" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q160" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S160" s="11"/>
-      <c r="T160" s="9"/>
-    </row>
-    <row r="161" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A161" s="9" t="s">
+      <c r="B162" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C161" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9" t="s">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="9"/>
-      <c r="N161" s="9">
-        <v>1</v>
-      </c>
-      <c r="O161" s="9"/>
-      <c r="P161" s="9"/>
-      <c r="Q161" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R161" s="9"/>
-      <c r="S161" s="9"/>
-      <c r="T161" s="9"/>
-    </row>
-    <row r="162" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A162" s="9"/>
-      <c r="B162" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9" t="s">
         <v>24</v>
@@ -7386,7 +7398,9 @@
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
-      <c r="N162" s="9"/>
+      <c r="N162" s="9">
+        <v>1</v>
+      </c>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
       <c r="Q162" s="9" t="s">
@@ -7397,57 +7411,55 @@
       <c r="T162" s="9"/>
     </row>
     <row r="163" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B163" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G163" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K163" s="11"/>
-      <c r="N163" s="19" t="s">
+      <c r="A163" s="9"/>
+      <c r="B163" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R163" s="9"/>
+      <c r="S163" s="9"/>
+      <c r="T163" s="9"/>
+    </row>
+    <row r="164" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B164" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K164" s="11"/>
+      <c r="N164" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O163" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q163" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S163" s="11"/>
-      <c r="T163" s="9"/>
-    </row>
-    <row r="164" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
-      <c r="N164" s="9"/>
-      <c r="O164" s="9"/>
-      <c r="P164" s="9"/>
-      <c r="Q164" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R164" s="9"/>
-      <c r="S164" s="9"/>
+      <c r="O164" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S164" s="11"/>
       <c r="T164" s="9"/>
     </row>
     <row r="165" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -7458,9 +7470,7 @@
       </c>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="9" t="s">
-        <v>301</v>
-      </c>
+      <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
@@ -7474,10 +7484,10 @@
       <c r="S165" s="9"/>
       <c r="T165" s="9"/>
     </row>
-    <row r="166" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="166" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -7488,7 +7498,9 @@
       </c>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
+      <c r="J166" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
@@ -7502,10 +7514,10 @@
       <c r="S166" s="9"/>
       <c r="T166" s="9"/>
     </row>
-    <row r="167" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="167" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -7533,7 +7545,7 @@
     <row r="168" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -7561,7 +7573,7 @@
     <row r="169" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -7589,7 +7601,7 @@
     <row r="170" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -7617,7 +7629,7 @@
     <row r="171" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -7645,7 +7657,7 @@
     <row r="172" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -7673,7 +7685,7 @@
     <row r="173" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -7701,7 +7713,7 @@
     <row r="174" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -7729,7 +7741,7 @@
     <row r="175" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -7757,7 +7769,7 @@
     <row r="176" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -7785,7 +7797,7 @@
     <row r="177" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -7812,8 +7824,8 @@
     </row>
     <row r="178" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A178" s="9"/>
-      <c r="B178" s="19" t="s">
-        <v>314</v>
+      <c r="B178" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -7824,9 +7836,7 @@
       </c>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
-      <c r="J178" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
       <c r="M178" s="9"/>
@@ -7842,12 +7852,10 @@
     </row>
     <row r="179" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A179" s="9"/>
-      <c r="B179" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>316</v>
-      </c>
+      <c r="B179" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -7855,10 +7863,10 @@
         <v>24</v>
       </c>
       <c r="H179" s="9"/>
-      <c r="I179" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="J179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
       <c r="M179" s="9"/>
@@ -7875,9 +7883,11 @@
     <row r="180" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C180" s="9"/>
+        <v>314</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -7885,7 +7895,9 @@
         <v>24</v>
       </c>
       <c r="H180" s="9"/>
-      <c r="I180" s="9"/>
+      <c r="I180" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
@@ -7903,7 +7915,7 @@
     <row r="181" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -7929,22 +7941,14 @@
       <c r="T181" s="9"/>
     </row>
     <row r="182" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A182" s="9" t="s">
-        <v>320</v>
-      </c>
+      <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>322</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C182" s="9"/>
       <c r="D182" s="9"/>
-      <c r="E182" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F182" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
       <c r="G182" s="9" t="s">
         <v>24</v>
       </c>
@@ -7965,59 +7969,78 @@
       <c r="T182" s="9"/>
     </row>
     <row r="183" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="9"/>
+      <c r="Q183" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R183" s="9"/>
+      <c r="S183" s="9"/>
+      <c r="T183" s="9"/>
+    </row>
+    <row r="184" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A184" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="D184" s="18"/>
+      <c r="E184" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D183" s="18"/>
-      <c r="E183" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F183" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="G183" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="10"/>
-      <c r="M183" s="10"/>
-      <c r="N183" s="10"/>
-      <c r="O183" s="10"/>
-      <c r="P183" s="10"/>
-      <c r="Q183" s="10"/>
-      <c r="R183" s="10"/>
-      <c r="S183" s="10"/>
-      <c r="T183" s="9"/>
-    </row>
-    <row r="184" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B184" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="G184" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K184" s="11"/>
-      <c r="O184" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q184" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S184" s="11"/>
+      <c r="F184" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="10"/>
+      <c r="O184" s="10"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="10"/>
+      <c r="R184" s="10"/>
+      <c r="S184" s="10"/>
       <c r="T184" s="9"/>
     </row>
     <row r="185" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B185" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G185" s="19" t="s">
         <v>24</v>
@@ -8033,82 +8056,71 @@
       <c r="T185" s="9"/>
     </row>
     <row r="186" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G186" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K186" s="11"/>
+      <c r="O186" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q186" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S186" s="11"/>
+      <c r="T186" s="9"/>
+    </row>
+    <row r="187" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A187" s="9"/>
+      <c r="B187" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
+      <c r="L187" s="9"/>
+      <c r="M187" s="9"/>
+      <c r="N187" s="9"/>
+      <c r="O187" s="9"/>
+      <c r="P187" s="9"/>
+      <c r="Q187" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R187" s="9"/>
+      <c r="S187" s="9"/>
+      <c r="T187" s="9"/>
+    </row>
+    <row r="188" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B188" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="9"/>
-      <c r="G186" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H186" s="9"/>
-      <c r="I186" s="9"/>
-      <c r="J186" s="9"/>
-      <c r="K186" s="9"/>
-      <c r="L186" s="9"/>
-      <c r="M186" s="9"/>
-      <c r="N186" s="9"/>
-      <c r="O186" s="9"/>
-      <c r="P186" s="9"/>
-      <c r="Q186" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R186" s="9"/>
-      <c r="S186" s="9"/>
-      <c r="T186" s="9"/>
-    </row>
-    <row r="187" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B187" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="G187" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K187" s="11"/>
-      <c r="O187" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q187" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S187" s="11"/>
-      <c r="T187" s="9"/>
-    </row>
-    <row r="188" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H188" s="9"/>
-      <c r="I188" s="9"/>
-      <c r="J188" s="9"/>
-      <c r="K188" s="9"/>
-      <c r="L188" s="9"/>
-      <c r="M188" s="9"/>
-      <c r="N188" s="9"/>
-      <c r="O188" s="9"/>
-      <c r="P188" s="9"/>
-      <c r="Q188" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R188" s="9"/>
-      <c r="S188" s="9"/>
+      <c r="G188" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K188" s="11"/>
+      <c r="O188" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S188" s="11"/>
       <c r="T188" s="9"/>
     </row>
     <row r="189" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -8136,7 +8148,7 @@
     <row r="190" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -8164,7 +8176,7 @@
     <row r="191" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -8190,54 +8202,54 @@
       <c r="T191" s="9"/>
     </row>
     <row r="192" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B192" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="G192" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K192" s="11"/>
-      <c r="O192" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q192" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S192" s="11"/>
+      <c r="A192" s="9"/>
+      <c r="B192" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
+      <c r="L192" s="9"/>
+      <c r="M192" s="9"/>
+      <c r="N192" s="9"/>
+      <c r="O192" s="9"/>
+      <c r="P192" s="9"/>
+      <c r="Q192" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R192" s="9"/>
+      <c r="S192" s="9"/>
       <c r="T192" s="9"/>
     </row>
     <row r="193" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H193" s="9"/>
-      <c r="I193" s="9"/>
-      <c r="J193" s="9"/>
-      <c r="K193" s="9"/>
-      <c r="L193" s="9"/>
-      <c r="M193" s="9"/>
-      <c r="N193" s="9"/>
-      <c r="O193" s="9"/>
-      <c r="P193" s="9"/>
-      <c r="Q193" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R193" s="9"/>
-      <c r="S193" s="9"/>
+      <c r="B193" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G193" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K193" s="11"/>
+      <c r="O193" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S193" s="11"/>
       <c r="T193" s="9"/>
     </row>
-    <row r="194" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="194" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -8262,10 +8274,10 @@
       <c r="S194" s="9"/>
       <c r="T194" s="9"/>
     </row>
-    <row r="195" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="195" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -8293,7 +8305,7 @@
     <row r="196" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -8321,7 +8333,7 @@
     <row r="197" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -8349,7 +8361,7 @@
     <row r="198" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -8375,70 +8387,81 @@
       <c r="T198" s="9"/>
     </row>
     <row r="199" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B199" s="19" t="s">
+      <c r="A199" s="9"/>
+      <c r="B199" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="9"/>
+      <c r="M199" s="9"/>
+      <c r="N199" s="9"/>
+      <c r="O199" s="9"/>
+      <c r="P199" s="9"/>
+      <c r="Q199" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R199" s="9"/>
+      <c r="S199" s="9"/>
+      <c r="T199" s="9"/>
+    </row>
+    <row r="200" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B200" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="G200" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K200" s="11"/>
+      <c r="O200" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q200" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S200" s="11"/>
+      <c r="T200" s="9"/>
+    </row>
+    <row r="201" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A201" s="9"/>
+      <c r="B201" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G199" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K199" s="11"/>
-      <c r="O199" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q199" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S199" s="11"/>
-      <c r="T199" s="9"/>
-    </row>
-    <row r="200" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H200" s="9"/>
-      <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
-      <c r="K200" s="9"/>
-      <c r="L200" s="9"/>
-      <c r="M200" s="9"/>
-      <c r="N200" s="9"/>
-      <c r="O200" s="9"/>
-      <c r="P200" s="9"/>
-      <c r="Q200" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R200" s="9"/>
-      <c r="S200" s="9"/>
-      <c r="T200" s="9"/>
-    </row>
-    <row r="201" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B201" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="G201" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K201" s="11"/>
-      <c r="O201" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q201" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S201" s="11"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
+      <c r="L201" s="9"/>
+      <c r="M201" s="9"/>
+      <c r="N201" s="9"/>
+      <c r="O201" s="9"/>
+      <c r="P201" s="9"/>
+      <c r="Q201" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R201" s="9"/>
+      <c r="S201" s="9"/>
       <c r="T201" s="9"/>
     </row>
     <row r="202" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B202" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>24</v>
@@ -8455,7 +8478,7 @@
     </row>
     <row r="203" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B203" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>24</v>
@@ -8472,7 +8495,7 @@
     </row>
     <row r="204" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B204" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G204" s="19" t="s">
         <v>24</v>
@@ -8489,7 +8512,7 @@
     </row>
     <row r="205" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B205" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G205" s="19" t="s">
         <v>24</v>
@@ -8506,7 +8529,7 @@
     </row>
     <row r="206" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B206" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G206" s="19" t="s">
         <v>24</v>
@@ -8522,82 +8545,71 @@
       <c r="T206" s="9"/>
     </row>
     <row r="207" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G207" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K207" s="11"/>
+      <c r="O207" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q207" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S207" s="11"/>
+      <c r="T207" s="9"/>
+    </row>
+    <row r="208" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A208" s="9"/>
+      <c r="B208" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
+      <c r="L208" s="9"/>
+      <c r="M208" s="9"/>
+      <c r="N208" s="9"/>
+      <c r="O208" s="9"/>
+      <c r="P208" s="9"/>
+      <c r="Q208" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R208" s="9"/>
+      <c r="S208" s="9"/>
+      <c r="T208" s="9"/>
+    </row>
+    <row r="209" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B209" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H207" s="9"/>
-      <c r="I207" s="9"/>
-      <c r="J207" s="9"/>
-      <c r="K207" s="9"/>
-      <c r="L207" s="9"/>
-      <c r="M207" s="9"/>
-      <c r="N207" s="9"/>
-      <c r="O207" s="9"/>
-      <c r="P207" s="9"/>
-      <c r="Q207" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R207" s="9"/>
-      <c r="S207" s="9"/>
-      <c r="T207" s="9"/>
-    </row>
-    <row r="208" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B208" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="G208" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K208" s="11"/>
-      <c r="O208" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q208" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S208" s="11"/>
-      <c r="T208" s="9"/>
-    </row>
-    <row r="209" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H209" s="9"/>
-      <c r="I209" s="9"/>
-      <c r="J209" s="9"/>
-      <c r="K209" s="9"/>
-      <c r="L209" s="9"/>
-      <c r="M209" s="9"/>
-      <c r="N209" s="9"/>
-      <c r="O209" s="9"/>
-      <c r="P209" s="9"/>
-      <c r="Q209" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R209" s="9"/>
-      <c r="S209" s="9"/>
+      <c r="G209" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K209" s="11"/>
+      <c r="O209" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S209" s="11"/>
       <c r="T209" s="9"/>
     </row>
     <row r="210" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -8625,7 +8637,7 @@
     <row r="211" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -8653,7 +8665,7 @@
     <row r="212" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -8679,31 +8691,39 @@
       <c r="T212" s="9"/>
     </row>
     <row r="213" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B213" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="G213" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K213" s="11"/>
-      <c r="O213" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q213" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S213" s="11"/>
+      <c r="A213" s="9"/>
+      <c r="B213" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="9"/>
+      <c r="N213" s="9"/>
+      <c r="O213" s="9"/>
+      <c r="P213" s="9"/>
+      <c r="Q213" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R213" s="9"/>
+      <c r="S213" s="9"/>
       <c r="T213" s="9"/>
     </row>
-    <row r="214" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="214" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B214" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G214" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J214" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="K214" s="11"/>
       <c r="O214" s="19">
@@ -8715,38 +8735,30 @@
       <c r="S214" s="11"/>
       <c r="T214" s="9"/>
     </row>
-    <row r="215" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-      <c r="L215" s="9"/>
-      <c r="M215" s="9"/>
-      <c r="N215" s="9"/>
-      <c r="O215" s="9"/>
-      <c r="P215" s="9"/>
-      <c r="Q215" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R215" s="9"/>
-      <c r="S215" s="9"/>
+    <row r="215" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B215" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G215" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J215" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="K215" s="11"/>
+      <c r="O215" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q215" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S215" s="11"/>
       <c r="T215" s="9"/>
     </row>
-    <row r="216" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="216" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -8774,7 +8786,7 @@
     <row r="217" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -8799,10 +8811,10 @@
       <c r="S217" s="9"/>
       <c r="T217" s="9"/>
     </row>
-    <row r="218" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="218" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -8830,7 +8842,7 @@
     <row r="219" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -8858,7 +8870,7 @@
     <row r="220" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -8884,54 +8896,54 @@
       <c r="T220" s="9"/>
     </row>
     <row r="221" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B221" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="G221" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K221" s="11"/>
-      <c r="O221" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q221" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S221" s="11"/>
+      <c r="A221" s="9"/>
+      <c r="B221" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
+      <c r="L221" s="9"/>
+      <c r="M221" s="9"/>
+      <c r="N221" s="9"/>
+      <c r="O221" s="9"/>
+      <c r="P221" s="9"/>
+      <c r="Q221" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R221" s="9"/>
+      <c r="S221" s="9"/>
       <c r="T221" s="9"/>
     </row>
-    <row r="222" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H222" s="9"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="9"/>
-      <c r="L222" s="9"/>
-      <c r="M222" s="9"/>
-      <c r="N222" s="9"/>
-      <c r="O222" s="9"/>
-      <c r="P222" s="9"/>
-      <c r="Q222" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R222" s="9"/>
-      <c r="S222" s="9"/>
+    <row r="222" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B222" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G222" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K222" s="11"/>
+      <c r="O222" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S222" s="11"/>
       <c r="T222" s="9"/>
     </row>
     <row r="223" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -8959,7 +8971,7 @@
     <row r="224" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -8970,9 +8982,7 @@
       </c>
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
-      <c r="J224" s="9" t="s">
-        <v>369</v>
-      </c>
+      <c r="J224" s="9"/>
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
       <c r="M224" s="9"/>
@@ -8989,7 +8999,7 @@
     <row r="225" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -9000,7 +9010,9 @@
       </c>
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
-      <c r="J225" s="9"/>
+      <c r="J225" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="K225" s="9"/>
       <c r="L225" s="9"/>
       <c r="M225" s="9"/>
@@ -9014,55 +9026,55 @@
       <c r="S225" s="9"/>
       <c r="T225" s="9"/>
     </row>
-    <row r="226" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B226" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="G226" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K226" s="11"/>
-      <c r="O226" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q226" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S226" s="11"/>
+    <row r="226" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A226" s="9"/>
+      <c r="B226" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H226" s="9"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
+      <c r="L226" s="9"/>
+      <c r="M226" s="9"/>
+      <c r="N226" s="9"/>
+      <c r="O226" s="9"/>
+      <c r="P226" s="9"/>
+      <c r="Q226" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R226" s="9"/>
+      <c r="S226" s="9"/>
       <c r="T226" s="9"/>
     </row>
     <row r="227" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H227" s="9"/>
-      <c r="I227" s="9"/>
-      <c r="J227" s="9"/>
-      <c r="K227" s="9"/>
-      <c r="L227" s="9"/>
-      <c r="M227" s="9"/>
-      <c r="N227" s="9"/>
-      <c r="O227" s="9"/>
-      <c r="P227" s="9"/>
-      <c r="Q227" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R227" s="9"/>
-      <c r="S227" s="9"/>
+      <c r="B227" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G227" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K227" s="11"/>
+      <c r="O227" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q227" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S227" s="11"/>
       <c r="T227" s="9"/>
     </row>
     <row r="228" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -9090,7 +9102,7 @@
     <row r="229" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -9118,7 +9130,7 @@
     <row r="230" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -9146,7 +9158,7 @@
     <row r="231" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -9174,7 +9186,7 @@
     <row r="232" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -9202,7 +9214,7 @@
     <row r="233" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -9230,7 +9242,7 @@
     <row r="234" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -9258,7 +9270,7 @@
     <row r="235" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
@@ -9283,10 +9295,10 @@
       <c r="S235" s="9"/>
       <c r="T235" s="9"/>
     </row>
-    <row r="236" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="236" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
@@ -9311,10 +9323,10 @@
       <c r="S236" s="9"/>
       <c r="T236" s="9"/>
     </row>
-    <row r="237" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="237" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
@@ -9340,25 +9352,36 @@
       <c r="T237" s="9"/>
     </row>
     <row r="238" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B238" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="G238" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K238" s="11"/>
-      <c r="O238" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q238" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S238" s="11"/>
+      <c r="A238" s="9"/>
+      <c r="B238" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+      <c r="L238" s="9"/>
+      <c r="M238" s="9"/>
+      <c r="N238" s="9"/>
+      <c r="O238" s="9"/>
+      <c r="P238" s="9"/>
+      <c r="Q238" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R238" s="9"/>
+      <c r="S238" s="9"/>
       <c r="T238" s="9"/>
     </row>
     <row r="239" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B239" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G239" s="19" t="s">
         <v>24</v>
@@ -9373,12 +9396,9 @@
       <c r="S239" s="11"/>
       <c r="T239" s="9"/>
     </row>
-    <row r="240" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+    <row r="240" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B240" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C240" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G240" s="19" t="s">
         <v>24</v>
@@ -9393,9 +9413,12 @@
       <c r="S240" s="11"/>
       <c r="T240" s="9"/>
     </row>
-    <row r="241" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="241" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="B241" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="G241" s="19" t="s">
         <v>24</v>
@@ -9411,37 +9434,26 @@
       <c r="T241" s="9"/>
     </row>
     <row r="242" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A242" s="9"/>
-      <c r="B242" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H242" s="9"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="9"/>
-      <c r="L242" s="9"/>
-      <c r="M242" s="9"/>
-      <c r="N242" s="9"/>
-      <c r="O242" s="9"/>
-      <c r="P242" s="9"/>
-      <c r="Q242" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R242" s="9"/>
-      <c r="S242" s="9"/>
+      <c r="B242" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G242" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K242" s="11"/>
+      <c r="O242" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q242" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S242" s="11"/>
       <c r="T242" s="9"/>
     </row>
     <row r="243" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -9469,7 +9481,7 @@
     <row r="244" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -9497,7 +9509,7 @@
     <row r="245" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -9525,7 +9537,7 @@
     <row r="246" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -9553,7 +9565,7 @@
     <row r="247" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -9581,7 +9593,7 @@
     <row r="248" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -9609,7 +9621,7 @@
     <row r="249" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -9637,7 +9649,7 @@
     <row r="250" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -9665,7 +9677,7 @@
     <row r="251" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -9676,9 +9688,7 @@
       </c>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
-      <c r="J251" s="9" t="s">
-        <v>397</v>
-      </c>
+      <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
       <c r="M251" s="9"/>
@@ -9695,7 +9705,7 @@
     <row r="252" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
@@ -9706,7 +9716,9 @@
       </c>
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
-      <c r="J252" s="9"/>
+      <c r="J252" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="K252" s="9"/>
       <c r="L252" s="9"/>
       <c r="M252" s="9"/>
@@ -9723,7 +9735,7 @@
     <row r="253" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
@@ -9751,7 +9763,7 @@
     <row r="254" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
@@ -9779,7 +9791,7 @@
     <row r="255" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -9804,14 +9816,12 @@
       <c r="S255" s="9"/>
       <c r="T255" s="9"/>
     </row>
-    <row r="256" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="256" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>403</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
@@ -9834,12 +9844,14 @@
       <c r="S256" s="9"/>
       <c r="T256" s="9"/>
     </row>
-    <row r="257" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="257" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C257" s="9"/>
+        <v>401</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>402</v>
+      </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
@@ -9865,7 +9877,7 @@
     <row r="258" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -9893,7 +9905,7 @@
     <row r="259" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
@@ -9921,7 +9933,7 @@
     <row r="260" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A260" s="9"/>
       <c r="B260" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
@@ -9949,7 +9961,7 @@
     <row r="261" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A261" s="9"/>
       <c r="B261" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
@@ -9975,19 +9987,13 @@
       <c r="T261" s="9"/>
     </row>
     <row r="262" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A262" s="9" t="s">
-        <v>409</v>
-      </c>
+      <c r="A262" s="9"/>
       <c r="B262" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>411</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C262" s="9"/>
       <c r="D262" s="9"/>
-      <c r="E262" s="9" t="s">
-        <v>681</v>
-      </c>
+      <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="9" t="s">
         <v>24</v>
@@ -10001,34 +10007,51 @@
       <c r="N262" s="9"/>
       <c r="O262" s="9"/>
       <c r="P262" s="9"/>
-      <c r="Q262" s="9"/>
+      <c r="Q262" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R262" s="9"/>
       <c r="S262" s="9"/>
       <c r="T262" s="9"/>
     </row>
-    <row r="263" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="B263" s="19" t="s">
+    <row r="263" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A263" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H263" s="9"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="9"/>
+      <c r="L263" s="9"/>
+      <c r="M263" s="9"/>
+      <c r="N263" s="9"/>
+      <c r="O263" s="9"/>
+      <c r="P263" s="9"/>
+      <c r="Q263" s="9"/>
+      <c r="R263" s="9"/>
+      <c r="S263" s="9"/>
+      <c r="T263" s="9"/>
+    </row>
+    <row r="264" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B264" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C263" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="G263" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K263" s="11"/>
-      <c r="O263" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q263" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S263" s="11"/>
-      <c r="T263" s="9"/>
-    </row>
-    <row r="264" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B264" s="19" t="s">
-        <v>414</v>
+      <c r="C264" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="G264" s="19" t="s">
         <v>24</v>
@@ -10043,67 +10066,56 @@
       <c r="S264" s="11"/>
       <c r="T264" s="9"/>
     </row>
-    <row r="265" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
-      <c r="A265" s="35" t="s">
+    <row r="265" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B265" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="G265" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K265" s="11"/>
+      <c r="O265" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q265" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S265" s="11"/>
+      <c r="T265" s="9"/>
+    </row>
+    <row r="266" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
+      <c r="A266" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B266" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="B265" s="27" t="s">
+      <c r="C266" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="C265" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E265" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="G265" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K265" s="26"/>
-      <c r="O265" s="27" t="s">
+      <c r="E266" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="G266" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K266" s="26"/>
+      <c r="O266" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="P265" s="27" t="s">
+      <c r="P266" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="Q265" s="27" t="s">
+      <c r="Q266" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="S265" s="26"/>
-      <c r="T265" s="28"/>
-    </row>
-    <row r="266" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A266" s="9"/>
-      <c r="B266" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H266" s="9"/>
-      <c r="I266" s="9"/>
-      <c r="J266" s="9"/>
-      <c r="K266" s="9"/>
-      <c r="L266" s="9"/>
-      <c r="M266" s="9"/>
-      <c r="N266" s="9"/>
-      <c r="O266" s="9"/>
-      <c r="P266" s="9"/>
-      <c r="Q266" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R266" s="9"/>
-      <c r="S266" s="9"/>
-      <c r="T266" s="9"/>
+      <c r="S266" s="26"/>
+      <c r="T266" s="28"/>
     </row>
     <row r="267" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
@@ -10131,7 +10143,7 @@
     <row r="268" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
@@ -10159,7 +10171,7 @@
     <row r="269" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
@@ -10187,7 +10199,7 @@
     <row r="270" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
@@ -10213,63 +10225,63 @@
       <c r="T270" s="9"/>
     </row>
     <row r="271" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A271" s="10"/>
-      <c r="B271" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C271" s="10"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H271" s="10"/>
-      <c r="I271" s="10"/>
-      <c r="J271" s="10"/>
-      <c r="K271" s="10"/>
-      <c r="L271" s="10"/>
-      <c r="M271" s="10"/>
-      <c r="N271" s="10"/>
-      <c r="O271" s="10"/>
-      <c r="P271" s="10"/>
-      <c r="Q271" s="10"/>
-      <c r="R271" s="10"/>
-      <c r="S271" s="10"/>
+      <c r="A271" s="9"/>
+      <c r="B271" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H271" s="9"/>
+      <c r="I271" s="9"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="9"/>
+      <c r="L271" s="9"/>
+      <c r="M271" s="9"/>
+      <c r="N271" s="9"/>
+      <c r="O271" s="9"/>
+      <c r="P271" s="9"/>
+      <c r="Q271" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R271" s="9"/>
+      <c r="S271" s="9"/>
       <c r="T271" s="9"/>
     </row>
     <row r="272" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A272" s="9"/>
-      <c r="B272" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9"/>
-      <c r="E272" s="9"/>
-      <c r="F272" s="9"/>
-      <c r="G272" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H272" s="9"/>
-      <c r="I272" s="9"/>
-      <c r="J272" s="9"/>
-      <c r="K272" s="9"/>
-      <c r="L272" s="9"/>
-      <c r="M272" s="9"/>
-      <c r="N272" s="9"/>
-      <c r="O272" s="9"/>
-      <c r="P272" s="9"/>
-      <c r="Q272" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R272" s="9"/>
-      <c r="S272" s="9"/>
+      <c r="A272" s="10"/>
+      <c r="B272" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C272" s="10"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H272" s="10"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="10"/>
+      <c r="K272" s="10"/>
+      <c r="L272" s="10"/>
+      <c r="M272" s="10"/>
+      <c r="N272" s="10"/>
+      <c r="O272" s="10"/>
+      <c r="P272" s="10"/>
+      <c r="Q272" s="10"/>
+      <c r="R272" s="10"/>
+      <c r="S272" s="10"/>
       <c r="T272" s="9"/>
     </row>
     <row r="273" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
@@ -10297,7 +10309,7 @@
     <row r="274" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
@@ -10325,7 +10337,7 @@
     <row r="275" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
@@ -10353,7 +10365,7 @@
     <row r="276" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
@@ -10378,81 +10390,79 @@
       <c r="S276" s="9"/>
       <c r="T276" s="9"/>
     </row>
-    <row r="277" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
-      <c r="A277" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C277" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="F277" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G277" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H277" s="10"/>
-      <c r="I277" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="J277" s="10"/>
-      <c r="K277" s="10"/>
-      <c r="L277" s="10"/>
-      <c r="M277" s="10">
-        <v>1</v>
-      </c>
-      <c r="N277" s="10"/>
-      <c r="O277" s="10"/>
-      <c r="P277" s="10"/>
-      <c r="Q277" s="10"/>
+    <row r="277" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A277" s="9"/>
+      <c r="B277" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H277" s="9"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="9"/>
+      <c r="L277" s="9"/>
+      <c r="M277" s="9"/>
+      <c r="N277" s="9"/>
+      <c r="O277" s="9"/>
+      <c r="P277" s="9"/>
+      <c r="Q277" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R277" s="9"/>
       <c r="S277" s="9"/>
       <c r="T277" s="9"/>
     </row>
-    <row r="278" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A278" s="9"/>
-      <c r="B278" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C278" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D278" s="9"/>
-      <c r="E278" s="9"/>
-      <c r="F278" s="9"/>
-      <c r="G278" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H278" s="9"/>
-      <c r="I278" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="J278" s="9"/>
-      <c r="K278" s="9"/>
-      <c r="L278" s="9"/>
-      <c r="M278" s="9"/>
-      <c r="N278" s="9"/>
-      <c r="O278" s="9"/>
-      <c r="P278" s="9"/>
-      <c r="Q278" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="278" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+      <c r="A278" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G278" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" s="10"/>
+      <c r="I278" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="J278" s="10"/>
+      <c r="K278" s="10"/>
+      <c r="L278" s="10"/>
+      <c r="M278" s="10">
+        <v>1</v>
+      </c>
+      <c r="N278" s="10"/>
+      <c r="O278" s="10"/>
+      <c r="P278" s="10"/>
+      <c r="Q278" s="10"/>
       <c r="R278" s="9"/>
       <c r="S278" s="9"/>
       <c r="T278" s="9"/>
     </row>
-    <row r="279" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="279" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A279" s="9"/>
       <c r="B279" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C279" s="9"/>
+        <v>432</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>433</v>
+      </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
@@ -10460,7 +10470,9 @@
         <v>24</v>
       </c>
       <c r="H279" s="9"/>
-      <c r="I279" s="9"/>
+      <c r="I279" s="9" t="s">
+        <v>434</v>
+      </c>
       <c r="J279" s="9"/>
       <c r="K279" s="9"/>
       <c r="L279" s="9"/>
@@ -10476,25 +10488,36 @@
       <c r="T279" s="9"/>
     </row>
     <row r="280" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B280" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="G280" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K280" s="11"/>
-      <c r="O280" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q280" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S280" s="11"/>
+      <c r="A280" s="9"/>
+      <c r="B280" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H280" s="9"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="9"/>
+      <c r="L280" s="9"/>
+      <c r="M280" s="9"/>
+      <c r="N280" s="9"/>
+      <c r="O280" s="9"/>
+      <c r="P280" s="9"/>
+      <c r="Q280" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R280" s="9"/>
+      <c r="S280" s="9"/>
       <c r="T280" s="9"/>
     </row>
     <row r="281" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B281" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G281" s="19" t="s">
         <v>24</v>
@@ -10509,12 +10532,9 @@
       <c r="S281" s="11"/>
       <c r="T281" s="9"/>
     </row>
-    <row r="282" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="282" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B282" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C282" s="19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G282" s="19" t="s">
         <v>24</v>
@@ -10529,9 +10549,12 @@
       <c r="S282" s="11"/>
       <c r="T282" s="9"/>
     </row>
-    <row r="283" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="283" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B283" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>439</v>
       </c>
       <c r="G283" s="19" t="s">
         <v>24</v>
@@ -10548,7 +10571,7 @@
     </row>
     <row r="284" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B284" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G284" s="19" t="s">
         <v>24</v>
@@ -10565,7 +10588,7 @@
     </row>
     <row r="285" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B285" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G285" s="19" t="s">
         <v>24</v>
@@ -10582,7 +10605,7 @@
     </row>
     <row r="286" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B286" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G286" s="19" t="s">
         <v>24</v>
@@ -10599,7 +10622,7 @@
     </row>
     <row r="287" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B287" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G287" s="19" t="s">
         <v>24</v>
@@ -10616,7 +10639,7 @@
     </row>
     <row r="288" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B288" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G288" s="19" t="s">
         <v>24</v>
@@ -10633,7 +10656,7 @@
     </row>
     <row r="289" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B289" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G289" s="19" t="s">
         <v>24</v>
@@ -10650,7 +10673,7 @@
     </row>
     <row r="290" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B290" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>24</v>
@@ -10667,7 +10690,7 @@
     </row>
     <row r="291" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B291" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G291" s="19" t="s">
         <v>24</v>
@@ -10684,7 +10707,7 @@
     </row>
     <row r="292" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B292" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G292" s="19" t="s">
         <v>24</v>
@@ -10701,7 +10724,7 @@
     </row>
     <row r="293" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B293" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G293" s="19" t="s">
         <v>24</v>
@@ -10718,7 +10741,7 @@
     </row>
     <row r="294" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B294" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G294" s="19" t="s">
         <v>24</v>
@@ -10735,7 +10758,7 @@
     </row>
     <row r="295" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B295" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G295" s="19" t="s">
         <v>24</v>
@@ -10752,7 +10775,7 @@
     </row>
     <row r="296" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B296" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G296" s="19" t="s">
         <v>24</v>
@@ -10768,37 +10791,26 @@
       <c r="T296" s="9"/>
     </row>
     <row r="297" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A297" s="9"/>
-      <c r="B297" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H297" s="9"/>
-      <c r="I297" s="9"/>
-      <c r="J297" s="9"/>
-      <c r="K297" s="9"/>
-      <c r="L297" s="9"/>
-      <c r="M297" s="9"/>
-      <c r="N297" s="9"/>
-      <c r="O297" s="9"/>
-      <c r="P297" s="9"/>
-      <c r="Q297" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R297" s="9"/>
-      <c r="S297" s="9"/>
+      <c r="B297" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="G297" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K297" s="11"/>
+      <c r="O297" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q297" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S297" s="11"/>
       <c r="T297" s="9"/>
     </row>
     <row r="298" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -10826,7 +10838,7 @@
     <row r="299" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -10852,54 +10864,54 @@
       <c r="T299" s="9"/>
     </row>
     <row r="300" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B300" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G300" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K300" s="11"/>
-      <c r="O300" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q300" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S300" s="11"/>
+      <c r="A300" s="9"/>
+      <c r="B300" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H300" s="9"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="9"/>
+      <c r="K300" s="9"/>
+      <c r="L300" s="9"/>
+      <c r="M300" s="9"/>
+      <c r="N300" s="9"/>
+      <c r="O300" s="9"/>
+      <c r="P300" s="9"/>
+      <c r="Q300" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R300" s="9"/>
+      <c r="S300" s="9"/>
       <c r="T300" s="9"/>
     </row>
     <row r="301" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A301" s="9"/>
-      <c r="B301" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
-      <c r="E301" s="9"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H301" s="9"/>
-      <c r="I301" s="9"/>
-      <c r="J301" s="9"/>
-      <c r="K301" s="9"/>
-      <c r="L301" s="9"/>
-      <c r="M301" s="9"/>
-      <c r="N301" s="9"/>
-      <c r="O301" s="9"/>
-      <c r="P301" s="9"/>
-      <c r="Q301" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R301" s="9"/>
-      <c r="S301" s="9"/>
+      <c r="B301" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G301" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K301" s="11"/>
+      <c r="O301" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S301" s="11"/>
       <c r="T301" s="9"/>
     </row>
     <row r="302" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
@@ -10910,9 +10922,7 @@
       </c>
       <c r="H302" s="9"/>
       <c r="I302" s="9"/>
-      <c r="J302" s="9" t="s">
-        <v>461</v>
-      </c>
+      <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
       <c r="M302" s="9"/>
@@ -10929,7 +10939,7 @@
     <row r="303" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -10940,7 +10950,9 @@
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
-      <c r="J303" s="9"/>
+      <c r="J303" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
       <c r="M303" s="9"/>
@@ -10957,7 +10969,7 @@
     <row r="304" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -10983,25 +10995,36 @@
       <c r="T304" s="9"/>
     </row>
     <row r="305" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B305" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="G305" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K305" s="11"/>
-      <c r="O305" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q305" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S305" s="11"/>
+      <c r="A305" s="9"/>
+      <c r="B305" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C305" s="9"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H305" s="9"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="9"/>
+      <c r="M305" s="9"/>
+      <c r="N305" s="9"/>
+      <c r="O305" s="9"/>
+      <c r="P305" s="9"/>
+      <c r="Q305" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R305" s="9"/>
+      <c r="S305" s="9"/>
       <c r="T305" s="9"/>
     </row>
-    <row r="306" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="306" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B306" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G306" s="19" t="s">
         <v>24</v>
@@ -11016,38 +11039,27 @@
       <c r="S306" s="11"/>
       <c r="T306" s="9"/>
     </row>
-    <row r="307" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A307" s="9"/>
-      <c r="B307" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9"/>
-      <c r="E307" s="9"/>
-      <c r="F307" s="9"/>
-      <c r="G307" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H307" s="9"/>
-      <c r="I307" s="9"/>
-      <c r="J307" s="9"/>
-      <c r="K307" s="9"/>
-      <c r="L307" s="9"/>
-      <c r="M307" s="9"/>
-      <c r="N307" s="9"/>
-      <c r="O307" s="9"/>
-      <c r="P307" s="9"/>
-      <c r="Q307" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R307" s="9"/>
-      <c r="S307" s="9"/>
+    <row r="307" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B307" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="G307" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K307" s="11"/>
+      <c r="O307" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q307" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S307" s="11"/>
       <c r="T307" s="9"/>
     </row>
     <row r="308" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
@@ -11075,7 +11087,7 @@
     <row r="309" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
@@ -11103,7 +11115,7 @@
     <row r="310" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
@@ -11131,7 +11143,7 @@
     <row r="311" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
@@ -11159,7 +11171,7 @@
     <row r="312" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
@@ -11187,7 +11199,7 @@
     <row r="313" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A313" s="9"/>
       <c r="B313" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
@@ -11215,7 +11227,7 @@
     <row r="314" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A314" s="9"/>
       <c r="B314" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
@@ -11243,7 +11255,7 @@
     <row r="315" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A315" s="9"/>
       <c r="B315" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
@@ -11271,7 +11283,7 @@
     <row r="316" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A316" s="9"/>
       <c r="B316" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
@@ -11297,99 +11309,99 @@
       <c r="T316" s="9"/>
     </row>
     <row r="317" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B317" s="19" t="s">
+      <c r="A317" s="9"/>
+      <c r="B317" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H317" s="9"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="9"/>
+      <c r="K317" s="9"/>
+      <c r="L317" s="9"/>
+      <c r="M317" s="9"/>
+      <c r="N317" s="9"/>
+      <c r="O317" s="9"/>
+      <c r="P317" s="9"/>
+      <c r="Q317" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R317" s="9"/>
+      <c r="S317" s="9"/>
+      <c r="T317" s="9"/>
+    </row>
+    <row r="318" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B318" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="G318" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K318" s="11"/>
+      <c r="O318" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q318" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S318" s="11"/>
+      <c r="T318" s="9"/>
+    </row>
+    <row r="319" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A319" s="9"/>
+      <c r="B319" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G317" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K317" s="11"/>
-      <c r="O317" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q317" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S317" s="11"/>
-      <c r="T317" s="9"/>
-    </row>
-    <row r="318" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A318" s="9"/>
-      <c r="B318" s="9" t="s">
+      <c r="C319" s="9"/>
+      <c r="D319" s="9"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H319" s="9"/>
+      <c r="I319" s="9"/>
+      <c r="J319" s="9"/>
+      <c r="K319" s="9"/>
+      <c r="L319" s="9"/>
+      <c r="M319" s="9"/>
+      <c r="N319" s="9"/>
+      <c r="O319" s="9"/>
+      <c r="P319" s="9"/>
+      <c r="Q319" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R319" s="9"/>
+      <c r="S319" s="9"/>
+      <c r="T319" s="9"/>
+    </row>
+    <row r="320" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B320" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C318" s="9"/>
-      <c r="D318" s="9"/>
-      <c r="E318" s="9"/>
-      <c r="F318" s="9"/>
-      <c r="G318" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H318" s="9"/>
-      <c r="I318" s="9"/>
-      <c r="J318" s="9"/>
-      <c r="K318" s="9"/>
-      <c r="L318" s="9"/>
-      <c r="M318" s="9"/>
-      <c r="N318" s="9"/>
-      <c r="O318" s="9"/>
-      <c r="P318" s="9"/>
-      <c r="Q318" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R318" s="9"/>
-      <c r="S318" s="9"/>
-      <c r="T318" s="9"/>
-    </row>
-    <row r="319" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B319" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="G319" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K319" s="11"/>
-      <c r="O319" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q319" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S319" s="11"/>
-      <c r="T319" s="9"/>
-    </row>
-    <row r="320" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A320" s="9"/>
-      <c r="B320" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C320" s="9"/>
-      <c r="D320" s="9"/>
-      <c r="E320" s="9"/>
-      <c r="F320" s="9"/>
-      <c r="G320" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H320" s="9"/>
-      <c r="I320" s="9"/>
-      <c r="J320" s="9"/>
-      <c r="K320" s="9"/>
-      <c r="L320" s="9"/>
-      <c r="M320" s="9"/>
-      <c r="N320" s="9"/>
-      <c r="O320" s="9"/>
-      <c r="P320" s="9"/>
-      <c r="Q320" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R320" s="9"/>
-      <c r="S320" s="9"/>
+      <c r="G320" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K320" s="11"/>
+      <c r="O320" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q320" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S320" s="11"/>
       <c r="T320" s="9"/>
     </row>
     <row r="321" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
@@ -11417,7 +11429,7 @@
     <row r="322" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
@@ -11445,7 +11457,7 @@
     <row r="323" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -11473,7 +11485,7 @@
     <row r="324" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -11501,7 +11513,7 @@
     <row r="325" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -11529,7 +11541,7 @@
     <row r="326" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A326" s="9"/>
       <c r="B326" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
@@ -11557,7 +11569,7 @@
     <row r="327" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A327" s="9"/>
       <c r="B327" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
@@ -11585,7 +11597,7 @@
     <row r="328" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A328" s="9"/>
       <c r="B328" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
@@ -11613,7 +11625,7 @@
     <row r="329" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A329" s="9"/>
       <c r="B329" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
@@ -11639,28 +11651,39 @@
       <c r="T329" s="9"/>
     </row>
     <row r="330" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B330" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="G330" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K330" s="11"/>
-      <c r="O330" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q330" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S330" s="11"/>
+      <c r="A330" s="9"/>
+      <c r="B330" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C330" s="9"/>
+      <c r="D330" s="9"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="9"/>
+      <c r="G330" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H330" s="9"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="9"/>
+      <c r="K330" s="9"/>
+      <c r="L330" s="9"/>
+      <c r="M330" s="9"/>
+      <c r="N330" s="9"/>
+      <c r="O330" s="9"/>
+      <c r="P330" s="9"/>
+      <c r="Q330" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R330" s="9"/>
+      <c r="S330" s="9"/>
       <c r="T330" s="9"/>
     </row>
     <row r="331" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B331" s="19" t="s">
-        <v>491</v>
+        <v>488</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>489</v>
       </c>
       <c r="G331" s="19" t="s">
         <v>24</v>
@@ -11676,37 +11699,26 @@
       <c r="T331" s="9"/>
     </row>
     <row r="332" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A332" s="9"/>
-      <c r="B332" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C332" s="9"/>
-      <c r="D332" s="9"/>
-      <c r="E332" s="9"/>
-      <c r="F332" s="9"/>
-      <c r="G332" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H332" s="9"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="9"/>
-      <c r="K332" s="9"/>
-      <c r="L332" s="9"/>
-      <c r="M332" s="9"/>
-      <c r="N332" s="9"/>
-      <c r="O332" s="9"/>
-      <c r="P332" s="9"/>
-      <c r="Q332" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R332" s="9"/>
-      <c r="S332" s="9"/>
+      <c r="B332" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="G332" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K332" s="11"/>
+      <c r="O332" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q332" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S332" s="11"/>
       <c r="T332" s="9"/>
     </row>
     <row r="333" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A333" s="9"/>
       <c r="B333" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
@@ -11732,34 +11744,42 @@
       <c r="T333" s="9"/>
     </row>
     <row r="334" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B334" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G334" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J334" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="K334" s="11"/>
-      <c r="O334" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q334" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S334" s="11"/>
+      <c r="A334" s="9"/>
+      <c r="B334" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H334" s="9"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="9"/>
+      <c r="K334" s="9"/>
+      <c r="L334" s="9"/>
+      <c r="M334" s="9"/>
+      <c r="N334" s="9"/>
+      <c r="O334" s="9"/>
+      <c r="P334" s="9"/>
+      <c r="Q334" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R334" s="9"/>
+      <c r="S334" s="9"/>
       <c r="T334" s="9"/>
     </row>
     <row r="335" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B335" s="19" t="s">
-        <v>495</v>
+        <v>36</v>
       </c>
       <c r="G335" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J335" s="19" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="K335" s="11"/>
       <c r="O335" s="19">
@@ -11773,10 +11793,13 @@
     </row>
     <row r="336" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B336" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G336" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="J336" s="19" t="s">
+        <v>449</v>
       </c>
       <c r="K336" s="11"/>
       <c r="O336" s="19">
@@ -11790,13 +11813,10 @@
     </row>
     <row r="337" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B337" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J337" s="19" t="s">
-        <v>453</v>
       </c>
       <c r="K337" s="11"/>
       <c r="O337" s="19">
@@ -11810,10 +11830,13 @@
     </row>
     <row r="338" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B338" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G338" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="J338" s="19" t="s">
+        <v>452</v>
       </c>
       <c r="K338" s="11"/>
       <c r="O338" s="19">
@@ -11827,7 +11850,7 @@
     </row>
     <row r="339" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B339" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G339" s="19" t="s">
         <v>24</v>
@@ -11844,7 +11867,7 @@
     </row>
     <row r="340" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B340" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G340" s="19" t="s">
         <v>24</v>
@@ -11861,7 +11884,7 @@
     </row>
     <row r="341" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B341" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G341" s="19" t="s">
         <v>24</v>
@@ -11878,7 +11901,7 @@
     </row>
     <row r="342" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B342" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G342" s="19" t="s">
         <v>24</v>
@@ -11895,7 +11918,7 @@
     </row>
     <row r="343" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B343" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G343" s="19" t="s">
         <v>24</v>
@@ -11911,37 +11934,26 @@
       <c r="T343" s="9"/>
     </row>
     <row r="344" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A344" s="9"/>
-      <c r="B344" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C344" s="9"/>
-      <c r="D344" s="9"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="9"/>
-      <c r="G344" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H344" s="9"/>
-      <c r="I344" s="9"/>
-      <c r="J344" s="9"/>
-      <c r="K344" s="9"/>
-      <c r="L344" s="9"/>
-      <c r="M344" s="9"/>
-      <c r="N344" s="9"/>
-      <c r="O344" s="9"/>
-      <c r="P344" s="9"/>
-      <c r="Q344" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R344" s="9"/>
-      <c r="S344" s="9"/>
+      <c r="B344" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="G344" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K344" s="11"/>
+      <c r="O344" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q344" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S344" s="11"/>
       <c r="T344" s="9"/>
     </row>
     <row r="345" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A345" s="9"/>
       <c r="B345" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -11969,7 +11981,7 @@
     <row r="346" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A346" s="9"/>
       <c r="B346" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -11994,10 +12006,10 @@
       <c r="S346" s="9"/>
       <c r="T346" s="9"/>
     </row>
-    <row r="347" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="347" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A347" s="9"/>
       <c r="B347" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -12022,10 +12034,10 @@
       <c r="S347" s="9"/>
       <c r="T347" s="9"/>
     </row>
-    <row r="348" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="348" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A348" s="9"/>
       <c r="B348" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -12053,7 +12065,7 @@
     <row r="349" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A349" s="9"/>
       <c r="B349" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -12078,46 +12090,43 @@
       <c r="S349" s="9"/>
       <c r="T349" s="9"/>
     </row>
-    <row r="350" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
-      <c r="A350" s="20"/>
-      <c r="B350" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C350" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="D350" s="24"/>
-      <c r="E350" s="20"/>
-      <c r="F350" s="20"/>
-      <c r="G350" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H350" s="20"/>
-      <c r="I350" s="20"/>
-      <c r="K350" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="L350" s="20"/>
-      <c r="M350" s="20"/>
-      <c r="N350" s="20"/>
-      <c r="O350" s="20"/>
-      <c r="P350" s="20"/>
-      <c r="Q350" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R350" s="20"/>
-      <c r="S350" s="20"/>
-      <c r="T350" s="20"/>
-    </row>
-    <row r="351" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
+    <row r="350" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A350" s="9"/>
+      <c r="B350" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C350" s="9"/>
+      <c r="D350" s="9"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="9"/>
+      <c r="G350" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H350" s="9"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="9"/>
+      <c r="K350" s="9"/>
+      <c r="L350" s="9"/>
+      <c r="M350" s="9"/>
+      <c r="N350" s="9"/>
+      <c r="O350" s="9"/>
+      <c r="P350" s="9"/>
+      <c r="Q350" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R350" s="9"/>
+      <c r="S350" s="9"/>
+      <c r="T350" s="9"/>
+    </row>
+    <row r="351" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
       <c r="A351" s="20"/>
       <c r="B351" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="C351" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="D351" s="20"/>
+        <v>187</v>
+      </c>
+      <c r="C351" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D351" s="24"/>
       <c r="E351" s="20"/>
       <c r="F351" s="20"/>
       <c r="G351" s="20" t="s">
@@ -12125,8 +12134,9 @@
       </c>
       <c r="H351" s="20"/>
       <c r="I351" s="20"/>
-      <c r="J351" s="20"/>
-      <c r="K351" s="20"/>
+      <c r="K351" s="20" t="s">
+        <v>510</v>
+      </c>
       <c r="L351" s="20"/>
       <c r="M351" s="20"/>
       <c r="N351" s="20"/>
@@ -12139,38 +12149,40 @@
       <c r="S351" s="20"/>
       <c r="T351" s="20"/>
     </row>
-    <row r="352" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A352" s="9"/>
-      <c r="B352" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C352" s="9"/>
-      <c r="D352" s="9"/>
-      <c r="E352" s="9"/>
-      <c r="F352" s="9"/>
-      <c r="G352" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H352" s="9"/>
-      <c r="I352" s="9"/>
-      <c r="J352" s="9"/>
-      <c r="K352" s="9"/>
-      <c r="L352" s="9"/>
-      <c r="M352" s="9"/>
-      <c r="N352" s="9"/>
-      <c r="O352" s="9"/>
-      <c r="P352" s="9"/>
-      <c r="Q352" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R352" s="9"/>
-      <c r="S352" s="9"/>
-      <c r="T352" s="9"/>
+    <row r="352" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
+      <c r="A352" s="20"/>
+      <c r="B352" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D352" s="20"/>
+      <c r="E352" s="20"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H352" s="20"/>
+      <c r="I352" s="20"/>
+      <c r="J352" s="20"/>
+      <c r="K352" s="20"/>
+      <c r="L352" s="20"/>
+      <c r="M352" s="20"/>
+      <c r="N352" s="20"/>
+      <c r="O352" s="20"/>
+      <c r="P352" s="20"/>
+      <c r="Q352" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R352" s="20"/>
+      <c r="S352" s="20"/>
+      <c r="T352" s="20"/>
     </row>
     <row r="353" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A353" s="9"/>
       <c r="B353" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -12181,9 +12193,7 @@
       </c>
       <c r="H353" s="9"/>
       <c r="I353" s="9"/>
-      <c r="J353" s="9" t="s">
-        <v>516</v>
-      </c>
+      <c r="J353" s="9"/>
       <c r="K353" s="9"/>
       <c r="L353" s="9"/>
       <c r="M353" s="9"/>
@@ -12200,7 +12210,7 @@
     <row r="354" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A354" s="9"/>
       <c r="B354" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
@@ -12211,7 +12221,9 @@
       </c>
       <c r="H354" s="9"/>
       <c r="I354" s="9"/>
-      <c r="J354" s="9"/>
+      <c r="J354" s="9" t="s">
+        <v>515</v>
+      </c>
       <c r="K354" s="9"/>
       <c r="L354" s="9"/>
       <c r="M354" s="9"/>
@@ -12228,7 +12240,7 @@
     <row r="355" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A355" s="9"/>
       <c r="B355" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
@@ -12256,11 +12268,9 @@
     <row r="356" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A356" s="9"/>
       <c r="B356" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C356" s="9" t="s">
-        <v>520</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C356" s="9"/>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
       <c r="F356" s="9"/>
@@ -12286,9 +12296,11 @@
     <row r="357" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A357" s="9"/>
       <c r="B357" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C357" s="9"/>
+        <v>518</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>519</v>
+      </c>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
       <c r="F357" s="9"/>
@@ -12311,14 +12323,12 @@
       <c r="S357" s="9"/>
       <c r="T357" s="9"/>
     </row>
-    <row r="358" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="358" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A358" s="9"/>
       <c r="B358" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="C358" s="9" t="s">
-        <v>523</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C358" s="9"/>
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
       <c r="F358" s="9"/>
@@ -12341,12 +12351,14 @@
       <c r="S358" s="9"/>
       <c r="T358" s="9"/>
     </row>
-    <row r="359" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="359" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A359" s="9"/>
       <c r="B359" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C359" s="9"/>
+        <v>521</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>522</v>
+      </c>
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
       <c r="F359" s="9"/>
@@ -12370,25 +12382,36 @@
       <c r="T359" s="9"/>
     </row>
     <row r="360" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B360" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="G360" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K360" s="11"/>
-      <c r="O360" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q360" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S360" s="11"/>
+      <c r="A360" s="9"/>
+      <c r="B360" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C360" s="9"/>
+      <c r="D360" s="9"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="9"/>
+      <c r="G360" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H360" s="9"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="9"/>
+      <c r="K360" s="9"/>
+      <c r="L360" s="9"/>
+      <c r="M360" s="9"/>
+      <c r="N360" s="9"/>
+      <c r="O360" s="9"/>
+      <c r="P360" s="9"/>
+      <c r="Q360" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R360" s="9"/>
+      <c r="S360" s="9"/>
       <c r="T360" s="9"/>
     </row>
     <row r="361" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B361" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G361" s="19" t="s">
         <v>24</v>
@@ -12405,7 +12428,7 @@
     </row>
     <row r="362" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B362" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G362" s="19" t="s">
         <v>24</v>
@@ -12421,53 +12444,53 @@
       <c r="T362" s="9"/>
     </row>
     <row r="363" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A363" s="9"/>
-      <c r="B363" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C363" s="9"/>
-      <c r="D363" s="9"/>
-      <c r="E363" s="9"/>
-      <c r="F363" s="9"/>
-      <c r="G363" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H363" s="9"/>
-      <c r="I363" s="9"/>
-      <c r="J363" s="9"/>
-      <c r="K363" s="9"/>
-      <c r="L363" s="9"/>
-      <c r="M363" s="9"/>
-      <c r="N363" s="9"/>
-      <c r="O363" s="9"/>
-      <c r="P363" s="9"/>
-      <c r="Q363" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R363" s="9"/>
-      <c r="S363" s="9"/>
+      <c r="B363" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="G363" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K363" s="11"/>
+      <c r="O363" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q363" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S363" s="11"/>
       <c r="T363" s="9"/>
     </row>
     <row r="364" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B364" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="G364" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K364" s="11"/>
-      <c r="O364" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q364" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S364" s="11"/>
+      <c r="A364" s="9"/>
+      <c r="B364" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C364" s="9"/>
+      <c r="D364" s="9"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="9"/>
+      <c r="G364" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H364" s="9"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="9"/>
+      <c r="K364" s="9"/>
+      <c r="L364" s="9"/>
+      <c r="M364" s="9"/>
+      <c r="N364" s="9"/>
+      <c r="O364" s="9"/>
+      <c r="P364" s="9"/>
+      <c r="Q364" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R364" s="9"/>
+      <c r="S364" s="9"/>
       <c r="T364" s="9"/>
     </row>
     <row r="365" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B365" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G365" s="19" t="s">
         <v>24</v>
@@ -12483,20 +12506,8 @@
       <c r="T365" s="9"/>
     </row>
     <row r="366" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A366" s="35" t="s">
-        <v>531</v>
-      </c>
       <c r="B366" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="C366" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="E366" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="F366" s="19" t="s">
-        <v>154</v>
+        <v>529</v>
       </c>
       <c r="G366" s="19" t="s">
         <v>24</v>
@@ -12512,97 +12523,109 @@
       <c r="T366" s="9"/>
     </row>
     <row r="367" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A367" s="9"/>
-      <c r="B367" s="9" t="s">
+      <c r="A367" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="B367" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C367" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="E367" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="F367" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G367" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K367" s="11"/>
+      <c r="O367" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q367" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S367" s="11"/>
+      <c r="T367" s="9"/>
+    </row>
+    <row r="368" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A368" s="9"/>
+      <c r="B368" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C368" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C367" s="9" t="s">
+      <c r="D368" s="9"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H368" s="9"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="D367" s="9"/>
-      <c r="E367" s="9"/>
-      <c r="F367" s="9"/>
-      <c r="G367" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H367" s="9"/>
-      <c r="I367" s="9"/>
-      <c r="J367" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="K367" s="9"/>
-      <c r="L367" s="9"/>
-      <c r="M367" s="9"/>
-      <c r="N367" s="9"/>
-      <c r="O367" s="9"/>
-      <c r="P367" s="9"/>
-      <c r="Q367" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R367" s="9"/>
-      <c r="S367" s="9"/>
-      <c r="T367" s="9"/>
-    </row>
-    <row r="368" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B368" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="G368" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K368" s="11"/>
-      <c r="O368" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q368" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S368" s="11"/>
+      <c r="K368" s="9"/>
+      <c r="L368" s="9"/>
+      <c r="M368" s="9"/>
+      <c r="N368" s="9"/>
+      <c r="O368" s="9"/>
+      <c r="P368" s="9"/>
+      <c r="Q368" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R368" s="9"/>
+      <c r="S368" s="9"/>
       <c r="T368" s="9"/>
     </row>
     <row r="369" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B369" s="19" t="s">
-        <v>538</v>
-      </c>
-      <c r="C369" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="G369" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K369" s="11"/>
+      <c r="O369" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q369" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="S369" s="11"/>
       <c r="T369" s="9"/>
     </row>
     <row r="370" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A370" s="35" t="s">
-        <v>540</v>
-      </c>
       <c r="B370" s="19" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E370" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="F370" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="G370" s="19" t="s">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="K370" s="11"/>
-      <c r="O370" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q370" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="S370" s="11"/>
       <c r="T370" s="9"/>
     </row>
     <row r="371" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A371" s="35" t="s">
+        <v>539</v>
+      </c>
       <c r="B371" s="19" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="C371" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E371" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="F371" s="19" t="s">
+        <v>411</v>
       </c>
       <c r="G371" s="19" t="s">
         <v>24</v>
@@ -12618,17 +12641,8 @@
       <c r="T371" s="9"/>
     </row>
     <row r="372" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A372" s="35" t="s">
-        <v>544</v>
-      </c>
       <c r="B372" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="C372" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="E372" s="19" t="s">
-        <v>152</v>
+        <v>542</v>
       </c>
       <c r="G372" s="19" t="s">
         <v>24</v>
@@ -12644,8 +12658,17 @@
       <c r="T372" s="9"/>
     </row>
     <row r="373" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A373" s="35" t="s">
+        <v>543</v>
+      </c>
       <c r="B373" s="19" t="s">
-        <v>536</v>
+        <v>544</v>
+      </c>
+      <c r="C373" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="E373" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="G373" s="19" t="s">
         <v>24</v>
@@ -12661,86 +12684,73 @@
       <c r="T373" s="9"/>
     </row>
     <row r="374" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A374" s="9"/>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="G374" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K374" s="11"/>
+      <c r="O374" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q374" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S374" s="11"/>
+      <c r="T374" s="9"/>
+    </row>
+    <row r="375" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A375" s="9"/>
+      <c r="B375" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C375" s="9"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H375" s="9"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="9"/>
+      <c r="K375" s="9"/>
+      <c r="L375" s="9"/>
+      <c r="M375" s="9"/>
+      <c r="N375" s="9"/>
+      <c r="O375" s="9"/>
+      <c r="P375" s="9"/>
+      <c r="Q375" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R375" s="9"/>
+      <c r="S375" s="9"/>
+      <c r="T375" s="9"/>
+    </row>
+    <row r="376" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B376" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="C374" s="9"/>
-      <c r="D374" s="9"/>
-      <c r="E374" s="9"/>
-      <c r="F374" s="9"/>
-      <c r="G374" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H374" s="9"/>
-      <c r="I374" s="9"/>
-      <c r="J374" s="9"/>
-      <c r="K374" s="9"/>
-      <c r="L374" s="9"/>
-      <c r="M374" s="9"/>
-      <c r="N374" s="9"/>
-      <c r="O374" s="9"/>
-      <c r="P374" s="9"/>
-      <c r="Q374" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R374" s="9"/>
-      <c r="S374" s="9"/>
-      <c r="T374" s="9"/>
-    </row>
-    <row r="375" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B375" s="19" t="s">
+      <c r="G376" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K376" s="11"/>
+      <c r="O376" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q376" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S376" s="11"/>
+      <c r="T376" s="9"/>
+    </row>
+    <row r="377" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A377" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="G375" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K375" s="11"/>
-      <c r="O375" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q375" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S375" s="11"/>
-      <c r="T375" s="9"/>
-    </row>
-    <row r="376" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A376" s="9" t="s">
+      <c r="B377" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="B376" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="C376" s="9"/>
-      <c r="D376" s="9"/>
-      <c r="E376" s="9"/>
-      <c r="F376" s="9"/>
-      <c r="G376" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H376" s="9"/>
-      <c r="I376" s="9"/>
-      <c r="J376" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="K376" s="9"/>
-      <c r="L376" s="9"/>
-      <c r="M376" s="9"/>
-      <c r="N376" s="9"/>
-      <c r="O376" s="9"/>
-      <c r="P376" s="9"/>
-      <c r="Q376" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R376" s="9"/>
-      <c r="S376" s="9"/>
-      <c r="T376" s="9"/>
-    </row>
-    <row r="377" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A377" s="9"/>
-      <c r="B377" s="9" t="s">
-        <v>552</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -12751,7 +12761,9 @@
       </c>
       <c r="H377" s="9"/>
       <c r="I377" s="9"/>
-      <c r="J377" s="9"/>
+      <c r="J377" s="9" t="s">
+        <v>550</v>
+      </c>
       <c r="K377" s="9"/>
       <c r="L377" s="9"/>
       <c r="M377" s="9"/>
@@ -12768,7 +12780,7 @@
     <row r="378" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A378" s="9"/>
       <c r="B378" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -12796,7 +12808,7 @@
     <row r="379" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A379" s="9"/>
       <c r="B379" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -12821,10 +12833,10 @@
       <c r="S379" s="9"/>
       <c r="T379" s="9"/>
     </row>
-    <row r="380" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="380" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A380" s="9"/>
       <c r="B380" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -12849,10 +12861,10 @@
       <c r="S380" s="9"/>
       <c r="T380" s="9"/>
     </row>
-    <row r="381" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="381" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A381" s="9"/>
       <c r="B381" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -12880,7 +12892,7 @@
     <row r="382" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A382" s="9"/>
       <c r="B382" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -12908,7 +12920,7 @@
     <row r="383" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A383" s="9"/>
       <c r="B383" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
@@ -12936,7 +12948,7 @@
     <row r="384" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A384" s="9"/>
       <c r="B384" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -12964,7 +12976,7 @@
     <row r="385" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A385" s="9"/>
       <c r="B385" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
@@ -12992,7 +13004,7 @@
     <row r="386" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A386" s="9"/>
       <c r="B386" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
@@ -13020,7 +13032,7 @@
     <row r="387" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A387" s="9"/>
       <c r="B387" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C387" s="9"/>
       <c r="D387" s="9"/>
@@ -13048,7 +13060,7 @@
     <row r="388" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A388" s="9"/>
       <c r="B388" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
@@ -13074,31 +13086,42 @@
       <c r="T388" s="9"/>
     </row>
     <row r="389" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B389" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="G389" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J389" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="K389" s="11"/>
-      <c r="O389" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q389" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S389" s="11"/>
+      <c r="A389" s="9"/>
+      <c r="B389" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="9"/>
+      <c r="G389" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H389" s="9"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="9"/>
+      <c r="K389" s="9"/>
+      <c r="L389" s="9"/>
+      <c r="M389" s="9"/>
+      <c r="N389" s="9"/>
+      <c r="O389" s="9"/>
+      <c r="P389" s="9"/>
+      <c r="Q389" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R389" s="9"/>
+      <c r="S389" s="9"/>
       <c r="T389" s="9"/>
     </row>
     <row r="390" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B390" s="19" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G390" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="J390" s="19" t="s">
+        <v>564</v>
       </c>
       <c r="K390" s="11"/>
       <c r="O390" s="19">
@@ -13112,7 +13135,7 @@
     </row>
     <row r="391" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B391" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G391" s="19" t="s">
         <v>24</v>
@@ -13129,7 +13152,7 @@
     </row>
     <row r="392" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B392" s="19" t="s">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="G392" s="19" t="s">
         <v>24</v>
@@ -13146,7 +13169,7 @@
     </row>
     <row r="393" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B393" s="19" t="s">
-        <v>568</v>
+        <v>60</v>
       </c>
       <c r="G393" s="19" t="s">
         <v>24</v>
@@ -13163,7 +13186,7 @@
     </row>
     <row r="394" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B394" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G394" s="19" t="s">
         <v>24</v>
@@ -13179,37 +13202,26 @@
       <c r="T394" s="9"/>
     </row>
     <row r="395" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A395" s="9"/>
-      <c r="B395" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="C395" s="9"/>
-      <c r="D395" s="9"/>
-      <c r="E395" s="9"/>
-      <c r="F395" s="9"/>
-      <c r="G395" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H395" s="9"/>
-      <c r="I395" s="9"/>
-      <c r="J395" s="9"/>
-      <c r="K395" s="9"/>
-      <c r="L395" s="9"/>
-      <c r="M395" s="9"/>
-      <c r="N395" s="9"/>
-      <c r="O395" s="9"/>
-      <c r="P395" s="9"/>
-      <c r="Q395" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R395" s="9"/>
-      <c r="S395" s="9"/>
+      <c r="B395" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="G395" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K395" s="11"/>
+      <c r="O395" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q395" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S395" s="11"/>
       <c r="T395" s="9"/>
     </row>
     <row r="396" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A396" s="9"/>
       <c r="B396" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C396" s="9"/>
       <c r="D396" s="9"/>
@@ -13237,7 +13249,7 @@
     <row r="397" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A397" s="9"/>
       <c r="B397" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C397" s="9"/>
       <c r="D397" s="9"/>
@@ -13265,7 +13277,7 @@
     <row r="398" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A398" s="9"/>
       <c r="B398" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C398" s="9"/>
       <c r="D398" s="9"/>
@@ -13291,25 +13303,36 @@
       <c r="T398" s="9"/>
     </row>
     <row r="399" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B399" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="G399" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K399" s="11"/>
-      <c r="O399" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q399" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S399" s="11"/>
+      <c r="A399" s="9"/>
+      <c r="B399" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C399" s="9"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H399" s="9"/>
+      <c r="I399" s="9"/>
+      <c r="J399" s="9"/>
+      <c r="K399" s="9"/>
+      <c r="L399" s="9"/>
+      <c r="M399" s="9"/>
+      <c r="N399" s="9"/>
+      <c r="O399" s="9"/>
+      <c r="P399" s="9"/>
+      <c r="Q399" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R399" s="9"/>
+      <c r="S399" s="9"/>
       <c r="T399" s="9"/>
     </row>
     <row r="400" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B400" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G400" s="19" t="s">
         <v>24</v>
@@ -13325,50 +13348,39 @@
       <c r="T400" s="9"/>
     </row>
     <row r="401" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A401" s="9" t="s">
+      <c r="B401" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="G401" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K401" s="11"/>
+      <c r="O401" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q401" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S401" s="11"/>
+      <c r="T401" s="9"/>
+    </row>
+    <row r="402" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A402" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B402" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="C402" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C401" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D401" s="9"/>
-      <c r="E401" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F401" s="9" t="s">
+      <c r="D402" s="9"/>
+      <c r="E402" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F402" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G401" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H401" s="9"/>
-      <c r="I401" s="9"/>
-      <c r="J401" s="9"/>
-      <c r="K401" s="9"/>
-      <c r="L401" s="9"/>
-      <c r="M401" s="9"/>
-      <c r="N401" s="9"/>
-      <c r="O401" s="9"/>
-      <c r="P401" s="9"/>
-      <c r="Q401" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R401" s="9"/>
-      <c r="S401" s="9"/>
-      <c r="T401" s="9"/>
-    </row>
-    <row r="402" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A402" s="9"/>
-      <c r="B402" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="C402" s="9"/>
-      <c r="D402" s="9"/>
-      <c r="E402" s="9"/>
-      <c r="F402" s="9"/>
       <c r="G402" s="9" t="s">
         <v>24</v>
       </c>
@@ -13389,25 +13401,36 @@
       <c r="T402" s="9"/>
     </row>
     <row r="403" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B403" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="G403" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K403" s="11"/>
-      <c r="O403" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q403" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S403" s="11"/>
+      <c r="A403" s="9"/>
+      <c r="B403" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C403" s="9"/>
+      <c r="D403" s="9"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="9"/>
+      <c r="G403" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H403" s="9"/>
+      <c r="I403" s="9"/>
+      <c r="J403" s="9"/>
+      <c r="K403" s="9"/>
+      <c r="L403" s="9"/>
+      <c r="M403" s="9"/>
+      <c r="N403" s="9"/>
+      <c r="O403" s="9"/>
+      <c r="P403" s="9"/>
+      <c r="Q403" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R403" s="9"/>
+      <c r="S403" s="9"/>
       <c r="T403" s="9"/>
     </row>
     <row r="404" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B404" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G404" s="19" t="s">
         <v>24</v>
@@ -13422,33 +13445,44 @@
       <c r="S404" s="11"/>
       <c r="T404" s="9"/>
     </row>
-    <row r="405" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
-      <c r="B405" s="11"/>
-      <c r="Q405" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="406" spans="1:20" s="9" customFormat="1">
+    <row r="405" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B405" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="G405" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K405" s="11"/>
+      <c r="O405" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q405" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S405" s="11"/>
+      <c r="T405" s="9"/>
+    </row>
+    <row r="406" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B406" s="11"/>
-      <c r="G406" s="10"/>
-      <c r="H406" s="10"/>
-      <c r="I406" s="11"/>
-      <c r="J406" s="10"/>
-      <c r="K406" s="10"/>
-      <c r="L406" s="10"/>
-      <c r="M406" s="10">
-        <v>1</v>
-      </c>
-      <c r="N406" s="10"/>
-      <c r="O406" s="10"/>
-      <c r="P406" s="10"/>
-      <c r="Q406" s="10"/>
-    </row>
-    <row r="407" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
+      <c r="Q406" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" s="9" customFormat="1">
       <c r="B407" s="11"/>
-      <c r="Q407" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="G407" s="10"/>
+      <c r="H407" s="10"/>
+      <c r="I407" s="11"/>
+      <c r="J407" s="10"/>
+      <c r="K407" s="10"/>
+      <c r="L407" s="10"/>
+      <c r="M407" s="10">
+        <v>1</v>
+      </c>
+      <c r="N407" s="10"/>
+      <c r="O407" s="10"/>
+      <c r="P407" s="10"/>
+      <c r="Q407" s="10"/>
     </row>
     <row r="408" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B408" s="11"/>
@@ -13462,45 +13496,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:20" s="9" customFormat="1">
+    <row r="410" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B410" s="11"/>
-      <c r="E410" s="10"/>
-      <c r="F410" s="10"/>
-      <c r="G410" s="10"/>
-      <c r="H410" s="10"/>
-      <c r="I410" s="10"/>
-      <c r="J410" s="10"/>
-      <c r="K410" s="10"/>
-      <c r="L410" s="10"/>
-      <c r="M410" s="10"/>
-      <c r="N410" s="10"/>
-      <c r="O410" s="10"/>
-      <c r="P410" s="10"/>
-      <c r="Q410" s="10"/>
-    </row>
-    <row r="411" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
+      <c r="Q410" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" s="9" customFormat="1">
       <c r="B411" s="11"/>
-      <c r="Q411" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="412" spans="1:20" s="9" customFormat="1">
+      <c r="E411" s="10"/>
+      <c r="F411" s="10"/>
+      <c r="G411" s="10"/>
+      <c r="H411" s="10"/>
+      <c r="I411" s="10"/>
+      <c r="J411" s="10"/>
+      <c r="K411" s="10"/>
+      <c r="L411" s="10"/>
+      <c r="M411" s="10"/>
+      <c r="N411" s="10"/>
+      <c r="O411" s="10"/>
+      <c r="P411" s="10"/>
+      <c r="Q411" s="10"/>
+    </row>
+    <row r="412" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B412" s="11"/>
-      <c r="C412" s="10"/>
-      <c r="D412" s="18"/>
-      <c r="E412" s="10"/>
-      <c r="F412" s="10"/>
-      <c r="G412" s="10"/>
-      <c r="H412" s="10"/>
-      <c r="I412" s="10"/>
-      <c r="J412" s="10"/>
-      <c r="K412" s="10"/>
-      <c r="L412" s="10"/>
-      <c r="M412" s="10"/>
-      <c r="N412" s="10"/>
-      <c r="O412" s="10"/>
-      <c r="P412" s="10"/>
-      <c r="Q412" s="10"/>
+      <c r="Q412" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="413" spans="1:20" s="9" customFormat="1">
       <c r="B413" s="11"/>
@@ -13522,10 +13544,25 @@
     </row>
     <row r="414" spans="1:20" s="9" customFormat="1">
       <c r="B414" s="11"/>
-      <c r="R414" s="10"/>
+      <c r="C414" s="10"/>
+      <c r="D414" s="18"/>
+      <c r="E414" s="10"/>
+      <c r="F414" s="10"/>
+      <c r="G414" s="10"/>
+      <c r="H414" s="10"/>
+      <c r="I414" s="10"/>
+      <c r="J414" s="10"/>
+      <c r="K414" s="10"/>
+      <c r="L414" s="10"/>
+      <c r="M414" s="10"/>
+      <c r="N414" s="10"/>
+      <c r="O414" s="10"/>
+      <c r="P414" s="10"/>
+      <c r="Q414" s="10"/>
     </row>
     <row r="415" spans="1:20" s="9" customFormat="1">
       <c r="B415" s="11"/>
+      <c r="R415" s="10"/>
     </row>
     <row r="416" spans="1:20" s="9" customFormat="1">
       <c r="B416" s="11"/>
@@ -13549,31 +13586,16 @@
       <c r="B422" s="11"/>
     </row>
     <row r="423" spans="1:19" s="9" customFormat="1">
-      <c r="A423" s="11"/>
       <c r="B423" s="11"/>
-      <c r="S423" s="10"/>
     </row>
     <row r="424" spans="1:19" s="9" customFormat="1">
+      <c r="A424" s="11"/>
       <c r="B424" s="11"/>
-      <c r="R424" s="10"/>
+      <c r="S424" s="10"/>
     </row>
     <row r="425" spans="1:19" s="9" customFormat="1">
       <c r="B425" s="11"/>
-      <c r="C425" s="10"/>
-      <c r="D425" s="18"/>
-      <c r="E425" s="10"/>
-      <c r="F425" s="10"/>
-      <c r="G425" s="10"/>
-      <c r="H425" s="10"/>
-      <c r="I425" s="10"/>
-      <c r="J425" s="10"/>
-      <c r="K425" s="10"/>
-      <c r="L425" s="10"/>
-      <c r="M425" s="10"/>
-      <c r="N425" s="10"/>
-      <c r="O425" s="10"/>
-      <c r="P425" s="10"/>
-      <c r="Q425" s="10"/>
+      <c r="R425" s="10"/>
     </row>
     <row r="426" spans="1:19" s="9" customFormat="1">
       <c r="B426" s="11"/>
@@ -13592,10 +13614,8 @@
       <c r="O426" s="10"/>
       <c r="P426" s="10"/>
       <c r="Q426" s="10"/>
-      <c r="R426" s="10"/>
     </row>
     <row r="427" spans="1:19" s="9" customFormat="1">
-      <c r="A427" s="10"/>
       <c r="B427" s="11"/>
       <c r="C427" s="10"/>
       <c r="D427" s="18"/>
@@ -13613,9 +13633,9 @@
       <c r="P427" s="10"/>
       <c r="Q427" s="10"/>
       <c r="R427" s="10"/>
-      <c r="S427" s="10"/>
     </row>
     <row r="428" spans="1:19" s="9" customFormat="1">
+      <c r="A428" s="10"/>
       <c r="B428" s="11"/>
       <c r="C428" s="10"/>
       <c r="D428" s="18"/>
@@ -13633,9 +13653,29 @@
       <c r="P428" s="10"/>
       <c r="Q428" s="10"/>
       <c r="R428" s="10"/>
-    </row>
-    <row r="429" spans="1:19">
+      <c r="S428" s="10"/>
+    </row>
+    <row r="429" spans="1:19" s="9" customFormat="1">
       <c r="B429" s="11"/>
+      <c r="C429" s="10"/>
+      <c r="D429" s="18"/>
+      <c r="E429" s="10"/>
+      <c r="F429" s="10"/>
+      <c r="G429" s="10"/>
+      <c r="H429" s="10"/>
+      <c r="I429" s="10"/>
+      <c r="J429" s="10"/>
+      <c r="K429" s="10"/>
+      <c r="L429" s="10"/>
+      <c r="M429" s="10"/>
+      <c r="N429" s="10"/>
+      <c r="O429" s="10"/>
+      <c r="P429" s="10"/>
+      <c r="Q429" s="10"/>
+      <c r="R429" s="10"/>
+    </row>
+    <row r="430" spans="1:19">
+      <c r="B430" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13663,16 +13703,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
@@ -13680,10 +13720,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1">
@@ -13691,10 +13731,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1">
@@ -13702,13 +13742,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1">
@@ -13716,10 +13756,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1">
@@ -13727,13 +13767,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1">
@@ -13741,10 +13781,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1">
@@ -13752,10 +13792,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1">
@@ -13763,10 +13803,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1">
@@ -13774,10 +13814,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1">
@@ -13785,10 +13825,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
@@ -13796,10 +13836,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1">
@@ -13807,10 +13847,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1">
@@ -13818,10 +13858,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1">
@@ -13829,10 +13869,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1">
@@ -13840,10 +13880,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
@@ -13851,10 +13891,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1">
@@ -13862,10 +13902,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1">
@@ -13873,10 +13913,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -13920,16 +13960,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -13944,18 +13984,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -13963,13 +14003,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -13977,16 +14017,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -13994,10 +14034,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="B5" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -14005,13 +14045,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1">
       <c r="B6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -14019,16 +14059,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -14036,13 +14076,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -14050,13 +14090,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1">
       <c r="B9" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -14067,13 +14107,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1">
       <c r="B10" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>649</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -14114,37 +14154,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14152,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -14163,16 +14203,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C3" t="s">
         <v>662</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>663</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14180,16 +14220,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" t="s">
         <v>662</v>
       </c>
-      <c r="C4" t="s">
-        <v>663</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14197,16 +14237,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" t="s">
         <v>662</v>
       </c>
-      <c r="C5" t="s">
-        <v>663</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14214,16 +14254,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" t="s">
         <v>662</v>
       </c>
-      <c r="C6" t="s">
-        <v>663</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14231,16 +14271,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" t="s">
         <v>662</v>
       </c>
-      <c r="C7" t="s">
-        <v>663</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14248,16 +14288,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C8" t="s">
         <v>662</v>
       </c>
-      <c r="C8" t="s">
-        <v>663</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14265,16 +14305,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" t="s">
         <v>662</v>
       </c>
-      <c r="C9" t="s">
-        <v>663</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14282,16 +14322,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" t="s">
         <v>662</v>
       </c>
-      <c r="C10" t="s">
-        <v>663</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14299,16 +14339,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C11" t="s">
         <v>662</v>
       </c>
-      <c r="C11" t="s">
-        <v>663</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14316,7 +14356,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -14328,13 +14368,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>673</v>
+      </c>
+      <c r="J12" t="s">
         <v>674</v>
       </c>
-      <c r="J12" t="s">
-        <v>675</v>
-      </c>
       <c r="K12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14342,7 +14382,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -14354,13 +14394,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14368,7 +14408,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -14380,13 +14420,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14394,7 +14434,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14406,13 +14446,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14420,7 +14460,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -14432,13 +14472,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14446,7 +14486,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -14458,13 +14498,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14472,7 +14512,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -14484,13 +14524,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14498,7 +14538,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -14510,13 +14550,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -14524,7 +14564,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -14536,13 +14576,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -14550,7 +14590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -14562,13 +14602,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
+        <v>673</v>
+      </c>
+      <c r="J21" t="s">
         <v>674</v>
       </c>
-      <c r="J21" t="s">
-        <v>675</v>
-      </c>
       <c r="K21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -14576,7 +14616,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -14588,13 +14628,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
+        <v>673</v>
+      </c>
+      <c r="J22" t="s">
         <v>674</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>675</v>
-      </c>
-      <c r="K22" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -14602,7 +14642,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -14614,13 +14654,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -14628,7 +14668,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -14640,13 +14680,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -14654,7 +14694,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -14666,13 +14706,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -14680,7 +14720,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -14692,13 +14732,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -14706,7 +14746,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -14718,13 +14758,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -14732,7 +14772,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -14744,13 +14784,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -14758,7 +14798,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -14770,13 +14810,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -14784,7 +14824,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -14796,13 +14836,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7C8DA5-0015-CC42-9045-BC3B32D69F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8D0A1-D569-D244-AD03-57055353F857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="731">
   <si>
     <t>ID</t>
   </si>
@@ -2120,9 +2120,6 @@
     <t xml:space="preserve">E-cigarette use that indicates a person has used an e-cigarette in the 30-days prior to the time of asking. </t>
   </si>
   <si>
-    <t xml:space="preserve">A behaviour pattern that involves the use of an e-cigarette. </t>
-  </si>
-  <si>
     <t>A tobacco use behaviour that involves ingesting smoke from a cigarette.</t>
   </si>
   <si>
@@ -2201,9 +2198,6 @@
     <t xml:space="preserve">Dual use  </t>
   </si>
   <si>
-    <t xml:space="preserve">A drug use pattern of behaviour that involves the concurrent use by a person of two substances. </t>
-  </si>
-  <si>
     <t>A behavioural attribute  that indicates the duration of concurrent use by a person of both e-cigarettes and cigarettes.</t>
   </si>
   <si>
@@ -2211,6 +2205,18 @@
   </si>
   <si>
     <t xml:space="preserve">An e-cigarette use pattern that indicates regular use of an e-cigarette. </t>
+  </si>
+  <si>
+    <t>Substance use  pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A substance use pattern that involves the use of tobacco containing products. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A substance use pattern that involves the use of an e-cigarette. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A substance use pattern of behaviour that involves the concurrent use by a person of two substances. </t>
   </si>
 </sst>
 </file>
@@ -2774,8 +2780,8 @@
   <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -4720,11 +4726,11 @@
         <v>179</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31" t="s">
@@ -4757,11 +4763,11 @@
         <v>174</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31" t="s">
@@ -4791,14 +4797,14 @@
     <row r="66" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>702</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>703</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -4806,7 +4812,7 @@
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -4820,14 +4826,14 @@
     <row r="67" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -4850,11 +4856,11 @@
         <v>175</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31" t="s">
@@ -4884,14 +4890,14 @@
     <row r="69" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A69" s="31"/>
       <c r="B69" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>708</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>709</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -4913,10 +4919,10 @@
         <v>176</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>24</v>
@@ -4941,10 +4947,10 @@
         <v>177</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>24</v>
@@ -4971,7 +4977,7 @@
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31" t="s">
@@ -5605,7 +5611,7 @@
         <v>692</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F96" s="29" t="s">
         <v>44</v>
@@ -6245,7 +6251,7 @@
         <v>244</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>56</v>
+        <v>727</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>245</v>
@@ -6260,7 +6266,9 @@
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
+      <c r="J118" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
@@ -6277,14 +6285,14 @@
     <row r="119" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A119" s="31"/>
       <c r="B119" s="31" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="D119" s="31"/>
       <c r="E119" s="31" t="s">
-        <v>56</v>
+        <v>514</v>
       </c>
       <c r="F119" s="31"/>
       <c r="G119" s="31"/>
@@ -6459,7 +6467,7 @@
         <v>251</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E125" s="29" t="s">
         <v>64</v>
@@ -6601,11 +6609,11 @@
         <v>259</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D130" s="31"/>
       <c r="E130" s="31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="31" t="s">
@@ -6635,7 +6643,7 @@
         <v>689</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G131" s="32" t="s">
         <v>24</v>
@@ -6655,13 +6663,13 @@
     </row>
     <row r="132" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="B132" s="32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K132" s="34"/>
       <c r="S132" s="34"/>
@@ -6672,10 +6680,10 @@
         <v>261</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>24</v>
@@ -6704,7 +6712,7 @@
         <v>697</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G134" s="29" t="s">
         <v>24</v>
@@ -6744,10 +6752,10 @@
         <v>265</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G136" s="29" t="s">
         <v>24</v>
@@ -6767,10 +6775,10 @@
         <v>266</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G137" s="29" t="s">
         <v>24</v>
@@ -6787,13 +6795,13 @@
     </row>
     <row r="138" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B138" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>144</v>
+        <v>514</v>
       </c>
       <c r="G138" s="29" t="s">
         <v>24</v>
@@ -6816,10 +6824,10 @@
         <v>267</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G139" s="29" t="s">
         <v>24</v>
@@ -6907,13 +6915,13 @@
     </row>
     <row r="144" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B144" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="E144" s="29" t="s">
         <v>714</v>
-      </c>
-      <c r="C144" s="29" t="s">
-        <v>727</v>
-      </c>
-      <c r="E144" s="29" t="s">
-        <v>715</v>
       </c>
       <c r="K144" s="30"/>
       <c r="S144" s="30"/>
@@ -12683,22 +12691,28 @@
       <c r="S373" s="11"/>
       <c r="T373" s="9"/>
     </row>
-    <row r="374" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B374" s="19" t="s">
+    <row r="374" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B374" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="G374" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K374" s="11"/>
-      <c r="O374" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q374" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S374" s="11"/>
-      <c r="T374" s="9"/>
+      <c r="C374" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="E374" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="G374" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K374" s="30"/>
+      <c r="O374" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q374" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S374" s="30"/>
+      <c r="T374" s="33"/>
     </row>
     <row r="375" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A375" s="9"/>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8D0A1-D569-D244-AD03-57055353F857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C15CB-5613-034A-B022-6BB7685DD1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="460" windowWidth="20980" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="731">
   <si>
     <t>ID</t>
   </si>
@@ -257,9 +257,6 @@
     <t>'Substance use' and 'has participant' some Adolescent</t>
   </si>
   <si>
-    <t>Consumption behaviour pattern, Substance use, adolescent</t>
-  </si>
-  <si>
     <t>ADDICTO:0000112</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>Drinking pattern' and 'has participant' some Adolescent</t>
   </si>
   <si>
-    <t>Alcohol use pattern; adolescent</t>
-  </si>
-  <si>
     <t>ADDICTO:0000113</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
     <t>Behavioural lapse</t>
   </si>
   <si>
-    <t>A process profile that involves starting than then stopping a behaviour following abstinence.</t>
-  </si>
-  <si>
     <t>Process profile</t>
   </si>
   <si>
@@ -680,12 +671,6 @@
     <t xml:space="preserve">Duration of e-cigarette use </t>
   </si>
   <si>
-    <t>A behaviour attribute that involves the length of time that e-cigarettes have been used for.</t>
-  </si>
-  <si>
-    <t>This refers to the aggregate of use episodes in a person's history not a single e-cigarette use episode. That is covered by 'Diration of e-cigarette use episode'.</t>
-  </si>
-  <si>
     <t>A person uses e-cigarettes for 3 years.</t>
   </si>
   <si>
@@ -695,12 +680,6 @@
     <t>ADDICTO:0000129</t>
   </si>
   <si>
-    <t>Duration of e-cigarette use epidosde</t>
-  </si>
-  <si>
-    <t>A behaviour attribute that involves the length of time that an episode of e-cigarette use lasts.</t>
-  </si>
-  <si>
     <t>This refers to the duration of a single episode of e-cigarette use by a person. This can be aggregated across episodes using statistics such as mea, median etc.</t>
   </si>
   <si>
@@ -788,9 +767,6 @@
     <t>Duration of behaviour</t>
   </si>
   <si>
-    <t>The temporal extent that a process projects into.</t>
-  </si>
-  <si>
     <t>Dual use</t>
   </si>
   <si>
@@ -911,9 +887,6 @@
     <t>Habitual behaviour pattern</t>
   </si>
   <si>
-    <t>A behaviour pattern that continues over an extended period of time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Habitual use of a </t>
   </si>
   <si>
@@ -971,9 +944,6 @@
     <t>Initiation of behaviour</t>
   </si>
   <si>
-    <t>That part of a behaviour process in which the behaviour comes into existence</t>
-  </si>
-  <si>
     <t>Is this related to 'cessation of behaviour'?</t>
   </si>
   <si>
@@ -989,9 +959,6 @@
     <t>Injury-related work-absence</t>
   </si>
   <si>
-    <t>Abstent from work as a result on an injury</t>
-  </si>
-  <si>
     <t>ADDICTO:0000134</t>
   </si>
   <si>
@@ -1178,9 +1145,6 @@
     <t>Pack years</t>
   </si>
   <si>
-    <t>A number denoting amount of cigarette smoking made up of the number of years of smoking multiplied by the number packs of 20 cigarettes smoked on average per day over that period.</t>
-  </si>
-  <si>
     <t>Packs of cigarettes smoked per day</t>
   </si>
   <si>
@@ -1316,21 +1280,12 @@
     <t>Product use behaviour</t>
   </si>
   <si>
-    <t>Human behaviour that involves use of a product</t>
-  </si>
-  <si>
     <t>Product use behaviour is included to provide a link between product and a class of behaviour for which the relation always holds.</t>
   </si>
   <si>
     <t>Product-using behaviour</t>
   </si>
   <si>
-    <t>A behavioural process that has as participant a product which the agent of the behaviour uses</t>
-  </si>
-  <si>
-    <t>Within scope for human behaviour ontology</t>
-  </si>
-  <si>
     <t>Prolonged abstinence</t>
   </si>
   <si>
@@ -1757,9 +1712,6 @@
     <t>Work absence</t>
   </si>
   <si>
-    <t>Not attending for paid employment but not on annual leave</t>
-  </si>
-  <si>
     <t>Youth alcohol consumption</t>
   </si>
   <si>
@@ -2144,9 +2096,6 @@
     <t>Ever use in which the product is a cigarette.</t>
   </si>
   <si>
-    <t>A person attribute that involves a history of having used a product.</t>
-  </si>
-  <si>
     <t>Product purchase</t>
   </si>
   <si>
@@ -2162,27 +2111,15 @@
     <t>A behavioural episode that involves the act of drawing cigarette smoke into the body.</t>
   </si>
   <si>
-    <t>Ever use in which the product is an- e cigarette.</t>
-  </si>
-  <si>
     <t>E-cigarette vaping</t>
   </si>
   <si>
     <t>E-cigarette use behaviour</t>
   </si>
   <si>
-    <t>E-cugarette demand</t>
-  </si>
-  <si>
-    <t>A product purchase in which the product is a e-cigarettes.</t>
-  </si>
-  <si>
     <t>Populaton attribute</t>
   </si>
   <si>
-    <t>Person attribute</t>
-  </si>
-  <si>
     <t>Tobacco use pattern</t>
   </si>
   <si>
@@ -2192,18 +2129,9 @@
     <t xml:space="preserve">E-cigarette use pattern that indicates current use of an e-cigarette. </t>
   </si>
   <si>
-    <t>A product demand in which the product is a e-cigarettes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dual use  </t>
   </si>
   <si>
-    <t>A behavioural attribute  that indicates the duration of concurrent use by a person of both e-cigarettes and cigarettes.</t>
-  </si>
-  <si>
-    <t>An e-cigarette use behaviour that involves ingensting aerosol produced by an e-cigarette.</t>
-  </si>
-  <si>
     <t xml:space="preserve">An e-cigarette use pattern that indicates regular use of an e-cigarette. </t>
   </si>
   <si>
@@ -2217,6 +2145,78 @@
   </si>
   <si>
     <t xml:space="preserve">A substance use pattern of behaviour that involves the concurrent use by a person of two substances. </t>
+  </si>
+  <si>
+    <t>A process profile that involves starting then stopping a behaviour following abstinence.</t>
+  </si>
+  <si>
+    <t>A behaviour pattern that includes use of a product at least once.</t>
+  </si>
+  <si>
+    <t>Duration of e-cigarette use episode</t>
+  </si>
+  <si>
+    <t>A temporal region during which e-cigarettes have been used.</t>
+  </si>
+  <si>
+    <t>Temporal region</t>
+  </si>
+  <si>
+    <t>temporal region</t>
+  </si>
+  <si>
+    <t>A temporal region during which a person concurrently used both e-cigarettes and cigarettes.</t>
+  </si>
+  <si>
+    <t>The temporal extent that a behavioural process projects into.</t>
+  </si>
+  <si>
+    <t>A temporal region during which a single episode of e-cigarette use takes place.</t>
+  </si>
+  <si>
+    <t>Ever use in which the product is an e-cigarette.</t>
+  </si>
+  <si>
+    <t>A product demand in which the product is an e-cigarette.</t>
+  </si>
+  <si>
+    <t>E-cigarette demand</t>
+  </si>
+  <si>
+    <t>An e-cigarette use behaviour that involves ingesting aerosol produced by an e-cigarette.</t>
+  </si>
+  <si>
+    <t>A product purchase in which the product is an e-cigarette.</t>
+  </si>
+  <si>
+    <t>This refers to the aggregate of use episodes in a person's history not a single e-cigarette use episode. That is covered by 'Duration of e-cigarette use episode'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This duration relates to a whole behaviour pattern. </t>
+  </si>
+  <si>
+    <t>This duration relates to a specific behavioural episode.</t>
+  </si>
+  <si>
+    <t>Alcohol use pattern</t>
+  </si>
+  <si>
+    <t>A behaviour pattern that continues over an extended period of time.</t>
+  </si>
+  <si>
+    <t>That part of a behaviour process in which the behaviour comes into existence.</t>
+  </si>
+  <si>
+    <t>Absence from work as a result of an injury.</t>
+  </si>
+  <si>
+    <t>A number denoting a quantity of cigarette smoking made up of the number of years of smoking multiplied by the number packs of 20 cigarettes smoked on average per day over that period.</t>
+  </si>
+  <si>
+    <t>Human behaviour that involves use of a product.</t>
+  </si>
+  <si>
+    <t>Not attending for paid employment but not on annual leave.</t>
   </si>
 </sst>
 </file>
@@ -2777,11 +2777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T430"/>
+  <dimension ref="A1:T428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2789,7 +2789,7 @@
     <col min="1" max="1" width="16" style="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="64.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="64.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30" style="18" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="16" style="10" customWidth="1"/>
@@ -2969,7 +2969,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>40</v>
@@ -3238,7 +3238,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>23</v>
@@ -3266,19 +3266,19 @@
     </row>
     <row r="14" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>82</v>
+        <v>724</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>23</v>
@@ -3306,20 +3306,20 @@
     </row>
     <row r="15" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>24</v>
@@ -3341,17 +3341,17 @@
     </row>
     <row r="16" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>23</v>
@@ -3376,17 +3376,17 @@
     </row>
     <row r="17" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
@@ -3409,17 +3409,17 @@
     </row>
     <row r="18" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
@@ -3442,17 +3442,17 @@
     </row>
     <row r="19" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
@@ -3475,17 +3475,17 @@
     </row>
     <row r="20" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
@@ -3508,17 +3508,17 @@
     </row>
     <row r="21" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
@@ -3541,13 +3541,13 @@
     </row>
     <row r="22" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>110</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="20" t="s">
@@ -3575,7 +3575,7 @@
     <row r="23" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -3601,17 +3601,17 @@
     </row>
     <row r="24" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>23</v>
@@ -3622,7 +3622,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -3631,7 +3631,7 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
@@ -3639,12 +3639,12 @@
     <row r="25" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
@@ -3668,7 +3668,7 @@
     <row r="26" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -3695,7 +3695,7 @@
     <row r="27" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3722,10 +3722,10 @@
     <row r="28" spans="1:19" s="19" customFormat="1" ht="112" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -3734,7 +3734,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -3753,7 +3753,7 @@
     <row r="29" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3780,7 +3780,7 @@
     <row r="30" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3807,7 +3807,7 @@
     <row r="31" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3834,7 +3834,7 @@
     <row r="32" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3861,7 +3861,7 @@
     <row r="33" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3888,7 +3888,7 @@
     <row r="34" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3914,17 +3914,17 @@
     </row>
     <row r="35" spans="1:19" s="15" customFormat="1" ht="32" customHeight="1">
       <c r="A35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>23</v>
@@ -3942,24 +3942,24 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
     </row>
     <row r="36" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="13" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>23</v>
@@ -3971,17 +3971,17 @@
     </row>
     <row r="37" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A37" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="13" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>23</v>
@@ -3993,17 +3993,17 @@
     </row>
     <row r="38" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="13" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>23</v>
@@ -4016,10 +4016,10 @@
     <row r="39" spans="1:19" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -4048,7 +4048,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -4076,10 +4076,10 @@
     <row r="41" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -4104,17 +4104,17 @@
     </row>
     <row r="42" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4138,7 +4138,7 @@
     <row r="43" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -4164,20 +4164,20 @@
     </row>
     <row r="44" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>149</v>
+        <v>707</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>24</v>
@@ -4199,20 +4199,20 @@
     </row>
     <row r="45" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>24</v>
@@ -4235,7 +4235,7 @@
     <row r="46" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -4262,7 +4262,7 @@
     <row r="47" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -4289,7 +4289,7 @@
     <row r="48" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -4316,7 +4316,7 @@
     <row r="49" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4343,7 +4343,7 @@
     <row r="50" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -4370,7 +4370,7 @@
     <row r="51" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -4397,7 +4397,7 @@
     <row r="52" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -4424,7 +4424,7 @@
     <row r="53" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -4451,7 +4451,7 @@
     <row r="54" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -4478,7 +4478,7 @@
     <row r="55" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -4505,7 +4505,7 @@
     <row r="56" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -4532,7 +4532,7 @@
     <row r="57" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -4559,7 +4559,7 @@
     <row r="58" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -4586,7 +4586,7 @@
     <row r="59" spans="1:19" s="19" customFormat="1" ht="64" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4615,7 +4615,7 @@
     <row r="60" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -4642,7 +4642,7 @@
     <row r="61" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -4669,7 +4669,7 @@
     <row r="62" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -4696,7 +4696,7 @@
     <row r="63" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -4723,14 +4723,14 @@
     <row r="64" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31" t="s">
@@ -4739,7 +4739,7 @@
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
       <c r="J64" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K64" s="31"/>
       <c r="L64" s="31"/>
@@ -4749,7 +4749,7 @@
         <v>26</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q64" s="31" t="s">
         <v>27</v>
@@ -4760,14 +4760,14 @@
     <row r="65" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A65" s="31"/>
       <c r="B65" s="31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31" t="s">
@@ -4776,7 +4776,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
       <c r="J65" s="31" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="K65" s="31"/>
       <c r="L65" s="31"/>
@@ -4786,7 +4786,7 @@
         <v>26</v>
       </c>
       <c r="P65" s="31" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q65" s="31" t="s">
         <v>27</v>
@@ -4797,14 +4797,14 @@
     <row r="66" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A66" s="31"/>
       <c r="B66" s="31" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="31" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -4812,7 +4812,7 @@
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="31" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -4826,14 +4826,14 @@
     <row r="67" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1">
       <c r="A67" s="31"/>
       <c r="B67" s="31" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="31" t="s">
-        <v>718</v>
+        <v>142</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -4853,14 +4853,14 @@
     <row r="68" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A68" s="31"/>
       <c r="B68" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="31" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31" t="s">
@@ -4869,7 +4869,7 @@
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
       <c r="J68" s="31" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="K68" s="31"/>
       <c r="L68" s="31"/>
@@ -4879,7 +4879,7 @@
         <v>26</v>
       </c>
       <c r="P68" s="31" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q68" s="31" t="s">
         <v>27</v>
@@ -4890,14 +4890,14 @@
     <row r="69" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A69" s="31"/>
       <c r="B69" s="31" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="31" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -4916,26 +4916,26 @@
     </row>
     <row r="70" spans="1:19" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B70" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>24</v>
       </c>
       <c r="J70" s="29" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="K70" s="30"/>
       <c r="O70" s="29">
         <v>1</v>
       </c>
       <c r="P70" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q70" s="29" t="s">
         <v>27</v>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="71" spans="1:19" s="29" customFormat="1" ht="27.75" customHeight="1">
       <c r="B71" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>24</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q71" s="29" t="s">
         <v>27</v>
@@ -4970,14 +4970,14 @@
     <row r="72" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A72" s="31"/>
       <c r="B72" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="31" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31" t="s">
@@ -5001,7 +5001,7 @@
     <row r="73" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -5028,7 +5028,7 @@
     <row r="74" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -5055,7 +5055,7 @@
     <row r="75" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -5082,7 +5082,7 @@
     <row r="76" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -5108,17 +5108,17 @@
     </row>
     <row r="77" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>23</v>
@@ -5141,17 +5141,17 @@
     </row>
     <row r="78" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>23</v>
@@ -5175,7 +5175,7 @@
     <row r="79" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="80" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B80" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>24</v>
@@ -5218,7 +5218,7 @@
     <row r="81" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -5245,7 +5245,7 @@
     <row r="82" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="18"/>
@@ -5271,13 +5271,13 @@
     </row>
     <row r="83" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A83" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="10" t="s">
@@ -5305,10 +5305,10 @@
     <row r="84" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -5336,10 +5336,10 @@
     <row r="85" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9" t="s">
@@ -5361,7 +5361,7 @@
     <row r="86" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -5388,7 +5388,7 @@
     <row r="87" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -5415,7 +5415,7 @@
     <row r="88" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -5442,7 +5442,7 @@
     <row r="89" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -5469,7 +5469,7 @@
     <row r="90" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -5494,7 +5494,7 @@
     <row r="91" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="93" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B93" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G93" s="19" t="s">
         <v>24</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="94" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B94" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G94" s="19" t="s">
         <v>24</v>
@@ -5579,7 +5579,7 @@
     <row r="95" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -5605,13 +5605,13 @@
     </row>
     <row r="96" spans="1:19" s="29" customFormat="1" ht="32" customHeight="1">
       <c r="B96" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F96" s="29" t="s">
         <v>44</v>
@@ -5620,14 +5620,14 @@
         <v>24</v>
       </c>
       <c r="J96" s="19" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="K96" s="30"/>
       <c r="O96" s="29">
         <v>1</v>
       </c>
       <c r="P96" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q96" s="29" t="s">
         <v>27</v>
@@ -5637,7 +5637,7 @@
     <row r="97" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -5664,7 +5664,7 @@
     <row r="98" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -5691,14 +5691,14 @@
     <row r="99" spans="1:19" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A99" s="31"/>
       <c r="B99" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="31" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="F99" s="31" t="s">
         <v>44</v>
@@ -5709,7 +5709,7 @@
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
       <c r="J99" s="31" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="K99" s="31"/>
       <c r="L99" s="31"/>
@@ -5719,7 +5719,7 @@
         <v>26</v>
       </c>
       <c r="P99" s="31" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q99" s="31" t="s">
         <v>27</v>
@@ -5730,7 +5730,7 @@
     <row r="100" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -5756,30 +5756,34 @@
     </row>
     <row r="101" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
       <c r="A101" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>218</v>
+        <v>710</v>
       </c>
       <c r="D101" s="28"/>
       <c r="E101" s="28" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="I101" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="J101" s="28" t="s">
+        <v>260</v>
+      </c>
       <c r="K101" s="26" t="s">
-        <v>219</v>
+        <v>721</v>
       </c>
       <c r="L101" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M101" s="28"/>
       <c r="N101" s="28"/>
@@ -5787,37 +5791,39 @@
         <v>26</v>
       </c>
       <c r="P101" s="28" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q101" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R101" s="28"/>
       <c r="S101" s="28"/>
     </row>
     <row r="102" spans="1:19" s="27" customFormat="1" ht="80" customHeight="1">
       <c r="A102" s="28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>223</v>
+        <v>709</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>224</v>
+        <v>715</v>
       </c>
       <c r="D102" s="28"/>
       <c r="E102" s="28" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
+      <c r="I102" s="28" t="s">
+        <v>723</v>
+      </c>
       <c r="J102" s="28"/>
       <c r="K102" s="26" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L102" s="28"/>
       <c r="M102" s="28"/>
@@ -5826,10 +5832,10 @@
         <v>26</v>
       </c>
       <c r="P102" s="28" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q102" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R102" s="28"/>
       <c r="S102" s="28"/>
@@ -5837,7 +5843,7 @@
     <row r="103" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -5864,7 +5870,7 @@
     <row r="104" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -5891,7 +5897,7 @@
     <row r="105" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -5918,7 +5924,7 @@
     <row r="106" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -5945,7 +5951,7 @@
     <row r="107" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -5972,7 +5978,7 @@
     <row r="108" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -5999,7 +6005,7 @@
     <row r="109" spans="1:19" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -6026,10 +6032,10 @@
     <row r="110" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -6055,10 +6061,10 @@
     <row r="111" spans="1:19" s="22" customFormat="1" ht="32" customHeight="1">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
@@ -6083,7 +6089,7 @@
     <row r="112" spans="1:19" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -6095,7 +6101,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -6112,7 +6118,7 @@
     <row r="113" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -6138,7 +6144,7 @@
     <row r="114" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -6165,7 +6171,7 @@
     <row r="115" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A115" s="9"/>
       <c r="B115" s="9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -6193,7 +6199,7 @@
     <row r="116" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -6221,7 +6227,7 @@
     <row r="117" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -6248,17 +6254,17 @@
     </row>
     <row r="118" spans="1:20" s="15" customFormat="1" ht="16" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14" t="s">
@@ -6285,14 +6291,14 @@
     <row r="119" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A119" s="31"/>
       <c r="B119" s="31" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="D119" s="31"/>
       <c r="E119" s="31" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="F119" s="31"/>
       <c r="G119" s="31"/>
@@ -6313,7 +6319,7 @@
     <row r="120" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -6341,7 +6347,7 @@
     <row r="121" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -6369,7 +6375,7 @@
     <row r="122" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -6397,7 +6403,7 @@
     <row r="123" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A123" s="9"/>
       <c r="B123" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -6425,14 +6431,14 @@
     <row r="124" spans="1:20" s="32" customFormat="1" ht="32" customHeight="1">
       <c r="A124" s="31"/>
       <c r="B124" s="32" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="D124" s="31"/>
       <c r="E124" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F124" s="31" t="s">
         <v>44</v>
@@ -6443,7 +6449,7 @@
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
       <c r="J124" s="31" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="K124" s="31"/>
       <c r="L124" s="31"/>
@@ -6453,7 +6459,7 @@
         <v>26</v>
       </c>
       <c r="P124" s="31" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q124" s="31" t="s">
         <v>27</v>
@@ -6462,12 +6468,12 @@
       <c r="S124" s="31"/>
       <c r="T124" s="31"/>
     </row>
-    <row r="125" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+    <row r="125" spans="1:20" s="29" customFormat="1" ht="37" customHeight="1">
       <c r="B125" s="29" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="E125" s="29" t="s">
         <v>64</v>
@@ -6479,14 +6485,14 @@
         <v>24</v>
       </c>
       <c r="J125" s="29" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K125" s="30"/>
       <c r="O125" s="29">
         <v>1</v>
       </c>
       <c r="P125" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q125" s="29" t="s">
         <v>27</v>
@@ -6496,13 +6502,13 @@
     </row>
     <row r="126" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B126" s="29" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="F126" s="29" t="s">
         <v>44</v>
@@ -6511,14 +6517,14 @@
         <v>24</v>
       </c>
       <c r="J126" s="29" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K126" s="30"/>
       <c r="O126" s="29">
         <v>1</v>
       </c>
       <c r="P126" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q126" s="29" t="s">
         <v>27</v>
@@ -6528,12 +6534,18 @@
     </row>
     <row r="127" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B127" s="9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="D127" s="9"/>
+      <c r="E127" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>711</v>
+      </c>
       <c r="G127" s="19" t="s">
         <v>24</v>
       </c>
@@ -6550,7 +6562,7 @@
     <row r="128" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
@@ -6559,7 +6571,7 @@
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -6578,7 +6590,7 @@
     <row r="129" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A129" s="9"/>
       <c r="B129" s="9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -6606,14 +6618,14 @@
     <row r="130" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="A130" s="31"/>
       <c r="B130" s="32" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="D130" s="31"/>
       <c r="E130" s="31" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="31" t="s">
@@ -6637,13 +6649,13 @@
     </row>
     <row r="131" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="B131" s="32" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G131" s="32" t="s">
         <v>24</v>
@@ -6653,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="P131" s="32" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q131" s="32" t="s">
         <v>27</v>
@@ -6663,13 +6675,13 @@
     </row>
     <row r="132" spans="1:20" s="32" customFormat="1" ht="16" customHeight="1">
       <c r="B132" s="32" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="K132" s="34"/>
       <c r="S132" s="34"/>
@@ -6677,26 +6689,26 @@
     </row>
     <row r="133" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B133" s="29" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>24</v>
       </c>
       <c r="J133" s="29" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K133" s="30"/>
       <c r="O133" s="29">
         <v>1</v>
       </c>
       <c r="P133" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q133" s="29" t="s">
         <v>27</v>
@@ -6706,13 +6718,13 @@
     </row>
     <row r="134" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B134" s="29" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G134" s="29" t="s">
         <v>24</v>
@@ -6722,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="P134" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q134" s="29" t="s">
         <v>27</v>
@@ -6732,7 +6744,7 @@
     </row>
     <row r="135" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B135" s="19" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G135" s="19" t="s">
         <v>24</v>
@@ -6749,13 +6761,13 @@
     </row>
     <row r="136" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B136" s="29" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="G136" s="29" t="s">
         <v>24</v>
@@ -6772,13 +6784,13 @@
     </row>
     <row r="137" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B137" s="29" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G137" s="29" t="s">
         <v>24</v>
@@ -6795,13 +6807,13 @@
     </row>
     <row r="138" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B138" s="29" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G138" s="29" t="s">
         <v>24</v>
@@ -6811,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q138" s="29" t="s">
         <v>27</v>
@@ -6821,13 +6833,13 @@
     </row>
     <row r="139" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
       <c r="B139" s="29" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="G139" s="29" t="s">
         <v>24</v>
@@ -6837,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="P139" s="29" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="Q139" s="29" t="s">
         <v>27</v>
@@ -6845,9 +6857,9 @@
       <c r="S139" s="30"/>
       <c r="T139" s="33"/>
     </row>
-    <row r="140" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="140" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B140" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>24</v>
@@ -6862,9 +6874,9 @@
       <c r="S140" s="11"/>
       <c r="T140" s="9"/>
     </row>
-    <row r="141" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="141" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B141" s="19" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>24</v>
@@ -6881,7 +6893,7 @@
     </row>
     <row r="142" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B142" s="19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G142" s="19" t="s">
         <v>24</v>
@@ -6896,58 +6908,69 @@
       <c r="S142" s="11"/>
       <c r="T142" s="9"/>
     </row>
-    <row r="143" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B143" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="G143" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K143" s="11"/>
-      <c r="O143" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q143" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S143" s="11"/>
-      <c r="T143" s="9"/>
-    </row>
-    <row r="144" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B144" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="C144" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="E144" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="K144" s="30"/>
-      <c r="S144" s="30"/>
-      <c r="T144" s="33"/>
+    <row r="143" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B143" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="K143" s="30"/>
+      <c r="S143" s="30"/>
+      <c r="T143" s="33"/>
+    </row>
+    <row r="144" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B144" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" s="11"/>
+      <c r="O144" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S144" s="11"/>
+      <c r="T144" s="9"/>
     </row>
     <row r="145" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A145" s="9"/>
       <c r="B145" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K145" s="11"/>
-      <c r="O145" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S145" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
       <c r="T145" s="9"/>
     </row>
     <row r="146" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -6974,8 +6997,8 @@
     </row>
     <row r="147" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="9" t="s">
-        <v>274</v>
+      <c r="B147" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -7001,54 +7024,54 @@
       <c r="T147" s="9"/>
     </row>
     <row r="148" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A148" s="9"/>
-      <c r="B148" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R148" s="9"/>
-      <c r="S148" s="9"/>
+      <c r="B148" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K148" s="11"/>
+      <c r="O148" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S148" s="11"/>
       <c r="T148" s="9"/>
     </row>
     <row r="149" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G149" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K149" s="11"/>
-      <c r="O149" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q149" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S149" s="11"/>
+        <v>269</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
       <c r="T149" s="9"/>
     </row>
     <row r="150" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -7073,19 +7096,23 @@
       <c r="S150" s="9"/>
       <c r="T150" s="9"/>
     </row>
-    <row r="151" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="151" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C151" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H151" s="9"/>
+      <c r="H151" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -7101,23 +7128,17 @@
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
     </row>
-    <row r="152" spans="1:20" s="19" customFormat="1" ht="80" customHeight="1">
+    <row r="152" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D152" s="9"/>
+        <v>274</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H152" s="9" t="s">
-        <v>281</v>
-      </c>
+      <c r="H152" s="9"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -7136,8 +7157,10 @@
     <row r="153" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="s">
-        <v>282</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9" t="s">
@@ -7162,7 +7185,7 @@
     <row r="154" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -7187,76 +7210,76 @@
       <c r="S154" s="9"/>
       <c r="T154" s="9"/>
     </row>
-    <row r="155" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
-      <c r="N155" s="9"/>
-      <c r="O155" s="9"/>
-      <c r="P155" s="9"/>
-      <c r="Q155" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R155" s="9"/>
-      <c r="S155" s="9"/>
-      <c r="T155" s="9"/>
-    </row>
-    <row r="156" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
-      <c r="A156" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C156" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14"/>
-      <c r="N156" s="14"/>
-      <c r="O156" s="14" t="s">
+    <row r="155" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P156" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q156" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="R156" s="14"/>
-      <c r="S156" s="14"/>
-      <c r="T156" s="14"/>
+      <c r="P155" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q155" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R155" s="14"/>
+      <c r="S155" s="14"/>
+      <c r="T155" s="14"/>
+    </row>
+    <row r="156" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R156" s="9"/>
+      <c r="S156" s="9"/>
+      <c r="T156" s="9"/>
     </row>
     <row r="157" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -7284,7 +7307,7 @@
     <row r="158" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -7311,8 +7334,8 @@
     </row>
     <row r="159" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A159" s="9"/>
-      <c r="B159" s="9" t="s">
-        <v>290</v>
+      <c r="B159" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -7338,64 +7361,64 @@
       <c r="T159" s="9"/>
     </row>
     <row r="160" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A160" s="9"/>
-      <c r="B160" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-      <c r="M160" s="9"/>
-      <c r="N160" s="9"/>
-      <c r="O160" s="9"/>
-      <c r="P160" s="9"/>
-      <c r="Q160" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R160" s="9"/>
-      <c r="S160" s="9"/>
+      <c r="B160" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K160" s="11"/>
+      <c r="O160" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S160" s="11"/>
       <c r="T160" s="9"/>
     </row>
     <row r="161" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A161" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="B161" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G161" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K161" s="11"/>
-      <c r="O161" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q161" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S161" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9">
+        <v>1</v>
+      </c>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R161" s="9"/>
+      <c r="S161" s="9"/>
       <c r="T161" s="9"/>
     </row>
     <row r="162" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9" t="s">
         <v>24</v>
@@ -7406,9 +7429,7 @@
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
-      <c r="N162" s="9">
-        <v>1</v>
-      </c>
+      <c r="N162" s="9"/>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
       <c r="Q162" s="9" t="s">
@@ -7419,55 +7440,57 @@
       <c r="T162" s="9"/>
     </row>
     <row r="163" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A163" s="9"/>
-      <c r="B163" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="9"/>
-      <c r="P163" s="9"/>
-      <c r="Q163" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R163" s="9"/>
-      <c r="S163" s="9"/>
+      <c r="B163" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K163" s="11"/>
+      <c r="N163" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O163" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S163" s="11"/>
       <c r="T163" s="9"/>
     </row>
     <row r="164" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A164" s="9"/>
       <c r="B164" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G164" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K164" s="11"/>
-      <c r="N164" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O164" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q164" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S164" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R164" s="9"/>
+      <c r="S164" s="9"/>
       <c r="T164" s="9"/>
     </row>
     <row r="165" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -7478,7 +7501,9 @@
       </c>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="J165" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
@@ -7492,10 +7517,10 @@
       <c r="S165" s="9"/>
       <c r="T165" s="9"/>
     </row>
-    <row r="166" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="166" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -7506,9 +7531,7 @@
       </c>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
-      <c r="J166" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="J166" s="9"/>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
@@ -7522,10 +7545,10 @@
       <c r="S166" s="9"/>
       <c r="T166" s="9"/>
     </row>
-    <row r="167" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="167" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -7553,7 +7576,7 @@
     <row r="168" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -7581,7 +7604,7 @@
     <row r="169" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -7609,7 +7632,7 @@
     <row r="170" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -7637,7 +7660,7 @@
     <row r="171" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -7665,7 +7688,7 @@
     <row r="172" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -7693,7 +7716,7 @@
     <row r="173" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -7721,7 +7744,7 @@
     <row r="174" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -7749,7 +7772,7 @@
     <row r="175" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -7777,7 +7800,7 @@
     <row r="176" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -7805,7 +7828,7 @@
     <row r="177" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -7832,8 +7855,8 @@
     </row>
     <row r="178" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A178" s="9"/>
-      <c r="B178" s="9" t="s">
-        <v>312</v>
+      <c r="B178" s="19" t="s">
+        <v>304</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -7844,7 +7867,9 @@
       </c>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
+      <c r="J178" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
       <c r="M178" s="9"/>
@@ -7860,10 +7885,12 @@
     </row>
     <row r="179" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A179" s="9"/>
-      <c r="B179" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="C179" s="9"/>
+      <c r="B179" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>726</v>
+      </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -7871,10 +7898,10 @@
         <v>24</v>
       </c>
       <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="I179" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
       <c r="M179" s="9"/>
@@ -7891,11 +7918,9 @@
     <row r="180" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -7903,9 +7928,7 @@
         <v>24</v>
       </c>
       <c r="H180" s="9"/>
-      <c r="I180" s="9" t="s">
-        <v>316</v>
-      </c>
+      <c r="I180" s="9"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
@@ -7923,7 +7946,7 @@
     <row r="181" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -7949,14 +7972,22 @@
       <c r="T181" s="9"/>
     </row>
     <row r="182" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A182" s="9"/>
+      <c r="A182" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="B182" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C182" s="9"/>
+        <v>310</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>727</v>
+      </c>
       <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
+      <c r="E182" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G182" s="9" t="s">
         <v>24</v>
       </c>
@@ -7977,78 +8008,59 @@
       <c r="T182" s="9"/>
     </row>
     <row r="183" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A183" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F183" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G183" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
-      <c r="K183" s="9"/>
-      <c r="L183" s="9"/>
-      <c r="M183" s="9"/>
-      <c r="N183" s="9"/>
-      <c r="O183" s="9"/>
-      <c r="P183" s="9"/>
-      <c r="Q183" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R183" s="9"/>
-      <c r="S183" s="9"/>
+      <c r="A183" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D183" s="18"/>
+      <c r="E183" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10"/>
+      <c r="O183" s="10"/>
+      <c r="P183" s="10"/>
+      <c r="Q183" s="10"/>
+      <c r="R183" s="10"/>
+      <c r="S183" s="10"/>
       <c r="T183" s="9"/>
     </row>
     <row r="184" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A184" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D184" s="18"/>
-      <c r="E184" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
-      <c r="L184" s="10"/>
-      <c r="M184" s="10"/>
-      <c r="N184" s="10"/>
-      <c r="O184" s="10"/>
-      <c r="P184" s="10"/>
-      <c r="Q184" s="10"/>
-      <c r="R184" s="10"/>
-      <c r="S184" s="10"/>
+      <c r="B184" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G184" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K184" s="11"/>
+      <c r="O184" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S184" s="11"/>
       <c r="T184" s="9"/>
     </row>
     <row r="185" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B185" s="19" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G185" s="19" t="s">
         <v>24</v>
@@ -8064,71 +8076,82 @@
       <c r="T185" s="9"/>
     </row>
     <row r="186" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B186" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="G186" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K186" s="11"/>
-      <c r="O186" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q186" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S186" s="11"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+      <c r="M186" s="9"/>
+      <c r="N186" s="9"/>
+      <c r="O186" s="9"/>
+      <c r="P186" s="9"/>
+      <c r="Q186" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R186" s="9"/>
+      <c r="S186" s="9"/>
       <c r="T186" s="9"/>
     </row>
     <row r="187" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H187" s="9"/>
-      <c r="I187" s="9"/>
-      <c r="J187" s="9"/>
-      <c r="K187" s="9"/>
-      <c r="L187" s="9"/>
-      <c r="M187" s="9"/>
-      <c r="N187" s="9"/>
-      <c r="O187" s="9"/>
-      <c r="P187" s="9"/>
-      <c r="Q187" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R187" s="9"/>
-      <c r="S187" s="9"/>
+      <c r="B187" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="G187" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K187" s="11"/>
+      <c r="O187" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q187" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S187" s="11"/>
       <c r="T187" s="9"/>
     </row>
     <row r="188" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B188" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="G188" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K188" s="11"/>
-      <c r="O188" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q188" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S188" s="11"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="9"/>
+      <c r="O188" s="9"/>
+      <c r="P188" s="9"/>
+      <c r="Q188" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R188" s="9"/>
+      <c r="S188" s="9"/>
       <c r="T188" s="9"/>
     </row>
     <row r="189" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -8156,7 +8179,7 @@
     <row r="190" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -8184,7 +8207,7 @@
     <row r="191" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -8210,54 +8233,54 @@
       <c r="T191" s="9"/>
     </row>
     <row r="192" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H192" s="9"/>
-      <c r="I192" s="9"/>
-      <c r="J192" s="9"/>
-      <c r="K192" s="9"/>
-      <c r="L192" s="9"/>
-      <c r="M192" s="9"/>
-      <c r="N192" s="9"/>
-      <c r="O192" s="9"/>
-      <c r="P192" s="9"/>
-      <c r="Q192" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R192" s="9"/>
-      <c r="S192" s="9"/>
+      <c r="B192" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G192" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K192" s="11"/>
+      <c r="O192" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S192" s="11"/>
       <c r="T192" s="9"/>
     </row>
     <row r="193" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B193" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="G193" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K193" s="11"/>
-      <c r="O193" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q193" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S193" s="11"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="9"/>
+      <c r="M193" s="9"/>
+      <c r="N193" s="9"/>
+      <c r="O193" s="9"/>
+      <c r="P193" s="9"/>
+      <c r="Q193" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R193" s="9"/>
+      <c r="S193" s="9"/>
       <c r="T193" s="9"/>
     </row>
-    <row r="194" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="194" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -8282,10 +8305,10 @@
       <c r="S194" s="9"/>
       <c r="T194" s="9"/>
     </row>
-    <row r="195" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="195" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -8313,7 +8336,7 @@
     <row r="196" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -8341,7 +8364,7 @@
     <row r="197" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -8369,7 +8392,7 @@
     <row r="198" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -8395,81 +8418,70 @@
       <c r="T198" s="9"/>
     </row>
     <row r="199" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H199" s="9"/>
-      <c r="I199" s="9"/>
-      <c r="J199" s="9"/>
-      <c r="K199" s="9"/>
-      <c r="L199" s="9"/>
-      <c r="M199" s="9"/>
-      <c r="N199" s="9"/>
-      <c r="O199" s="9"/>
-      <c r="P199" s="9"/>
-      <c r="Q199" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R199" s="9"/>
-      <c r="S199" s="9"/>
+      <c r="B199" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="G199" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K199" s="11"/>
+      <c r="O199" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S199" s="11"/>
       <c r="T199" s="9"/>
     </row>
     <row r="200" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B200" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="G200" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K200" s="11"/>
-      <c r="O200" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q200" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S200" s="11"/>
+      <c r="A200" s="9"/>
+      <c r="B200" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="9"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R200" s="9"/>
+      <c r="S200" s="9"/>
       <c r="T200" s="9"/>
     </row>
     <row r="201" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H201" s="9"/>
-      <c r="I201" s="9"/>
-      <c r="J201" s="9"/>
-      <c r="K201" s="9"/>
-      <c r="L201" s="9"/>
-      <c r="M201" s="9"/>
-      <c r="N201" s="9"/>
-      <c r="O201" s="9"/>
-      <c r="P201" s="9"/>
-      <c r="Q201" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R201" s="9"/>
-      <c r="S201" s="9"/>
+      <c r="B201" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G201" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K201" s="11"/>
+      <c r="O201" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q201" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S201" s="11"/>
       <c r="T201" s="9"/>
     </row>
     <row r="202" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B202" s="19" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>24</v>
@@ -8486,7 +8498,7 @@
     </row>
     <row r="203" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B203" s="19" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>24</v>
@@ -8503,7 +8515,7 @@
     </row>
     <row r="204" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B204" s="19" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G204" s="19" t="s">
         <v>24</v>
@@ -8520,7 +8532,7 @@
     </row>
     <row r="205" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B205" s="19" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G205" s="19" t="s">
         <v>24</v>
@@ -8537,7 +8549,7 @@
     </row>
     <row r="206" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B206" s="19" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G206" s="19" t="s">
         <v>24</v>
@@ -8553,71 +8565,82 @@
       <c r="T206" s="9"/>
     </row>
     <row r="207" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B207" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="G207" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K207" s="11"/>
-      <c r="O207" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q207" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S207" s="11"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="9"/>
+      <c r="M207" s="9"/>
+      <c r="N207" s="9"/>
+      <c r="O207" s="9"/>
+      <c r="P207" s="9"/>
+      <c r="Q207" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R207" s="9"/>
+      <c r="S207" s="9"/>
       <c r="T207" s="9"/>
     </row>
     <row r="208" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H208" s="9"/>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="9"/>
-      <c r="L208" s="9"/>
-      <c r="M208" s="9"/>
-      <c r="N208" s="9"/>
-      <c r="O208" s="9"/>
-      <c r="P208" s="9"/>
-      <c r="Q208" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R208" s="9"/>
-      <c r="S208" s="9"/>
+      <c r="B208" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="G208" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K208" s="11"/>
+      <c r="O208" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S208" s="11"/>
       <c r="T208" s="9"/>
     </row>
     <row r="209" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B209" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="G209" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K209" s="11"/>
-      <c r="O209" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q209" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S209" s="11"/>
+      <c r="A209" s="9"/>
+      <c r="B209" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+      <c r="L209" s="9"/>
+      <c r="M209" s="9"/>
+      <c r="N209" s="9"/>
+      <c r="O209" s="9"/>
+      <c r="P209" s="9"/>
+      <c r="Q209" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R209" s="9"/>
+      <c r="S209" s="9"/>
       <c r="T209" s="9"/>
     </row>
     <row r="210" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -8645,7 +8668,7 @@
     <row r="211" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -8673,7 +8696,7 @@
     <row r="212" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -8699,39 +8722,31 @@
       <c r="T212" s="9"/>
     </row>
     <row r="213" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="9"/>
-      <c r="N213" s="9"/>
-      <c r="O213" s="9"/>
-      <c r="P213" s="9"/>
-      <c r="Q213" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R213" s="9"/>
-      <c r="S213" s="9"/>
+      <c r="B213" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="G213" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K213" s="11"/>
+      <c r="O213" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S213" s="11"/>
       <c r="T213" s="9"/>
     </row>
-    <row r="214" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="214" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B214" s="19" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G214" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="J214" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="K214" s="11"/>
       <c r="O214" s="19">
@@ -8743,30 +8758,38 @@
       <c r="S214" s="11"/>
       <c r="T214" s="9"/>
     </row>
-    <row r="215" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="B215" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="G215" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J215" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="K215" s="11"/>
-      <c r="O215" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q215" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S215" s="11"/>
+    <row r="215" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A215" s="9"/>
+      <c r="B215" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="9"/>
+      <c r="M215" s="9"/>
+      <c r="N215" s="9"/>
+      <c r="O215" s="9"/>
+      <c r="P215" s="9"/>
+      <c r="Q215" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R215" s="9"/>
+      <c r="S215" s="9"/>
       <c r="T215" s="9"/>
     </row>
-    <row r="216" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="216" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -8794,7 +8817,7 @@
     <row r="217" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -8819,10 +8842,10 @@
       <c r="S217" s="9"/>
       <c r="T217" s="9"/>
     </row>
-    <row r="218" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="218" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -8850,7 +8873,7 @@
     <row r="219" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -8878,7 +8901,7 @@
     <row r="220" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -8904,54 +8927,54 @@
       <c r="T220" s="9"/>
     </row>
     <row r="221" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H221" s="9"/>
-      <c r="I221" s="9"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="9"/>
-      <c r="L221" s="9"/>
-      <c r="M221" s="9"/>
-      <c r="N221" s="9"/>
-      <c r="O221" s="9"/>
-      <c r="P221" s="9"/>
-      <c r="Q221" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R221" s="9"/>
-      <c r="S221" s="9"/>
+      <c r="B221" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="G221" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K221" s="11"/>
+      <c r="O221" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S221" s="11"/>
       <c r="T221" s="9"/>
     </row>
-    <row r="222" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B222" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="G222" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K222" s="11"/>
-      <c r="O222" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q222" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S222" s="11"/>
+    <row r="222" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A222" s="9"/>
+      <c r="B222" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
+      <c r="L222" s="9"/>
+      <c r="M222" s="9"/>
+      <c r="N222" s="9"/>
+      <c r="O222" s="9"/>
+      <c r="P222" s="9"/>
+      <c r="Q222" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R222" s="9"/>
+      <c r="S222" s="9"/>
       <c r="T222" s="9"/>
     </row>
     <row r="223" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -8979,7 +9002,7 @@
     <row r="224" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -8990,7 +9013,9 @@
       </c>
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
-      <c r="J224" s="9"/>
+      <c r="J224" s="9" t="s">
+        <v>357</v>
+      </c>
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
       <c r="M224" s="9"/>
@@ -9007,7 +9032,7 @@
     <row r="225" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -9018,9 +9043,7 @@
       </c>
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
-      <c r="J225" s="9" t="s">
-        <v>368</v>
-      </c>
+      <c r="J225" s="9"/>
       <c r="K225" s="9"/>
       <c r="L225" s="9"/>
       <c r="M225" s="9"/>
@@ -9034,55 +9057,55 @@
       <c r="S225" s="9"/>
       <c r="T225" s="9"/>
     </row>
-    <row r="226" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H226" s="9"/>
-      <c r="I226" s="9"/>
-      <c r="J226" s="9"/>
-      <c r="K226" s="9"/>
-      <c r="L226" s="9"/>
-      <c r="M226" s="9"/>
-      <c r="N226" s="9"/>
-      <c r="O226" s="9"/>
-      <c r="P226" s="9"/>
-      <c r="Q226" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R226" s="9"/>
-      <c r="S226" s="9"/>
+    <row r="226" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B226" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G226" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K226" s="11"/>
+      <c r="O226" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S226" s="11"/>
       <c r="T226" s="9"/>
     </row>
     <row r="227" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B227" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="G227" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K227" s="11"/>
-      <c r="O227" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q227" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S227" s="11"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
+      <c r="L227" s="9"/>
+      <c r="M227" s="9"/>
+      <c r="N227" s="9"/>
+      <c r="O227" s="9"/>
+      <c r="P227" s="9"/>
+      <c r="Q227" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R227" s="9"/>
+      <c r="S227" s="9"/>
       <c r="T227" s="9"/>
     </row>
     <row r="228" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -9110,7 +9133,7 @@
     <row r="229" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -9138,7 +9161,7 @@
     <row r="230" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -9166,7 +9189,7 @@
     <row r="231" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -9194,7 +9217,7 @@
     <row r="232" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -9222,7 +9245,7 @@
     <row r="233" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -9250,7 +9273,7 @@
     <row r="234" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -9278,7 +9301,7 @@
     <row r="235" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
@@ -9303,10 +9326,10 @@
       <c r="S235" s="9"/>
       <c r="T235" s="9"/>
     </row>
-    <row r="236" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="236" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
@@ -9331,10 +9354,10 @@
       <c r="S236" s="9"/>
       <c r="T236" s="9"/>
     </row>
-    <row r="237" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="237" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
@@ -9360,36 +9383,25 @@
       <c r="T237" s="9"/>
     </row>
     <row r="238" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H238" s="9"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="9"/>
-      <c r="K238" s="9"/>
-      <c r="L238" s="9"/>
-      <c r="M238" s="9"/>
-      <c r="N238" s="9"/>
-      <c r="O238" s="9"/>
-      <c r="P238" s="9"/>
-      <c r="Q238" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R238" s="9"/>
-      <c r="S238" s="9"/>
+      <c r="B238" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G238" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K238" s="11"/>
+      <c r="O238" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S238" s="11"/>
       <c r="T238" s="9"/>
     </row>
     <row r="239" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B239" s="19" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G239" s="19" t="s">
         <v>24</v>
@@ -9404,9 +9416,15 @@
       <c r="S239" s="11"/>
       <c r="T239" s="9"/>
     </row>
-    <row r="240" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="240" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
       <c r="B240" s="19" t="s">
-        <v>382</v>
+        <v>372</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="E240" s="19" t="s">
+        <v>663</v>
       </c>
       <c r="G240" s="19" t="s">
         <v>24</v>
@@ -9421,12 +9439,9 @@
       <c r="S240" s="11"/>
       <c r="T240" s="9"/>
     </row>
-    <row r="241" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+    <row r="241" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B241" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C241" s="19" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G241" s="19" t="s">
         <v>24</v>
@@ -9442,26 +9457,37 @@
       <c r="T241" s="9"/>
     </row>
     <row r="242" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B242" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="G242" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K242" s="11"/>
-      <c r="O242" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q242" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S242" s="11"/>
+      <c r="A242" s="9"/>
+      <c r="B242" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
+      <c r="L242" s="9"/>
+      <c r="M242" s="9"/>
+      <c r="N242" s="9"/>
+      <c r="O242" s="9"/>
+      <c r="P242" s="9"/>
+      <c r="Q242" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R242" s="9"/>
+      <c r="S242" s="9"/>
       <c r="T242" s="9"/>
     </row>
     <row r="243" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -9489,7 +9515,7 @@
     <row r="244" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -9517,7 +9543,7 @@
     <row r="245" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -9545,7 +9571,7 @@
     <row r="246" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -9573,7 +9599,7 @@
     <row r="247" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -9601,7 +9627,7 @@
     <row r="248" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -9629,7 +9655,7 @@
     <row r="249" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -9657,7 +9683,7 @@
     <row r="250" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -9685,7 +9711,7 @@
     <row r="251" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -9696,7 +9722,9 @@
       </c>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
-      <c r="J251" s="9"/>
+      <c r="J251" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
       <c r="M251" s="9"/>
@@ -9713,7 +9741,7 @@
     <row r="252" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
@@ -9724,9 +9752,7 @@
       </c>
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
-      <c r="J252" s="9" t="s">
-        <v>396</v>
-      </c>
+      <c r="J252" s="9"/>
       <c r="K252" s="9"/>
       <c r="L252" s="9"/>
       <c r="M252" s="9"/>
@@ -9743,7 +9769,7 @@
     <row r="253" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
@@ -9771,7 +9797,7 @@
     <row r="254" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
@@ -9799,7 +9825,7 @@
     <row r="255" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -9824,12 +9850,14 @@
       <c r="S255" s="9"/>
       <c r="T255" s="9"/>
     </row>
-    <row r="256" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="256" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C256" s="9"/>
+        <v>389</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
@@ -9852,14 +9880,12 @@
       <c r="S256" s="9"/>
       <c r="T256" s="9"/>
     </row>
-    <row r="257" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="257" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>402</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
@@ -9885,7 +9911,7 @@
     <row r="258" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -9913,7 +9939,7 @@
     <row r="259" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
@@ -9941,7 +9967,7 @@
     <row r="260" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A260" s="9"/>
       <c r="B260" s="9" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
@@ -9969,7 +9995,7 @@
     <row r="261" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A261" s="9"/>
       <c r="B261" s="9" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
@@ -9995,13 +10021,19 @@
       <c r="T261" s="9"/>
     </row>
     <row r="262" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A262" s="9"/>
+      <c r="A262" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="B262" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C262" s="9"/>
+        <v>397</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>398</v>
+      </c>
       <c r="D262" s="9"/>
-      <c r="E262" s="9"/>
+      <c r="E262" s="9" t="s">
+        <v>664</v>
+      </c>
       <c r="F262" s="9"/>
       <c r="G262" s="9" t="s">
         <v>24</v>
@@ -10015,51 +10047,34 @@
       <c r="N262" s="9"/>
       <c r="O262" s="9"/>
       <c r="P262" s="9"/>
-      <c r="Q262" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q262" s="9"/>
       <c r="R262" s="9"/>
       <c r="S262" s="9"/>
       <c r="T262" s="9"/>
     </row>
-    <row r="263" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A263" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D263" s="9"/>
-      <c r="E263" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="F263" s="9"/>
-      <c r="G263" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H263" s="9"/>
-      <c r="I263" s="9"/>
-      <c r="J263" s="9"/>
-      <c r="K263" s="9"/>
-      <c r="L263" s="9"/>
-      <c r="M263" s="9"/>
-      <c r="N263" s="9"/>
-      <c r="O263" s="9"/>
-      <c r="P263" s="9"/>
-      <c r="Q263" s="9"/>
-      <c r="R263" s="9"/>
-      <c r="S263" s="9"/>
+    <row r="263" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B263" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C263" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="G263" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K263" s="11"/>
+      <c r="O263" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q263" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S263" s="11"/>
       <c r="T263" s="9"/>
     </row>
-    <row r="264" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="264" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B264" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C264" s="19" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G264" s="19" t="s">
         <v>24</v>
@@ -10074,56 +10089,67 @@
       <c r="S264" s="11"/>
       <c r="T264" s="9"/>
     </row>
-    <row r="265" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B265" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="G265" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K265" s="11"/>
-      <c r="O265" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q265" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S265" s="11"/>
-      <c r="T265" s="9"/>
-    </row>
-    <row r="266" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
-      <c r="A266" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="B266" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="C266" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="E266" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="G266" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K266" s="26"/>
-      <c r="O266" s="27" t="s">
+    <row r="265" spans="1:20" s="27" customFormat="1" ht="48" customHeight="1">
+      <c r="A265" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="E265" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="G265" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K265" s="26"/>
+      <c r="O265" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="P266" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q266" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="S266" s="26"/>
-      <c r="T266" s="28"/>
+      <c r="P265" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q265" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="S265" s="26"/>
+      <c r="T265" s="28"/>
+    </row>
+    <row r="266" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A266" s="9"/>
+      <c r="B266" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H266" s="9"/>
+      <c r="I266" s="9"/>
+      <c r="J266" s="9"/>
+      <c r="K266" s="9"/>
+      <c r="L266" s="9"/>
+      <c r="M266" s="9"/>
+      <c r="N266" s="9"/>
+      <c r="O266" s="9"/>
+      <c r="P266" s="9"/>
+      <c r="Q266" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R266" s="9"/>
+      <c r="S266" s="9"/>
+      <c r="T266" s="9"/>
     </row>
     <row r="267" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
@@ -10151,7 +10177,7 @@
     <row r="268" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
@@ -10179,7 +10205,7 @@
     <row r="269" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
@@ -10207,7 +10233,7 @@
     <row r="270" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
@@ -10233,63 +10259,63 @@
       <c r="T270" s="9"/>
     </row>
     <row r="271" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A271" s="9"/>
-      <c r="B271" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
-      <c r="E271" s="9"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H271" s="9"/>
-      <c r="I271" s="9"/>
-      <c r="J271" s="9"/>
-      <c r="K271" s="9"/>
-      <c r="L271" s="9"/>
-      <c r="M271" s="9"/>
-      <c r="N271" s="9"/>
-      <c r="O271" s="9"/>
-      <c r="P271" s="9"/>
-      <c r="Q271" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R271" s="9"/>
-      <c r="S271" s="9"/>
+      <c r="A271" s="10"/>
+      <c r="B271" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="10"/>
+      <c r="S271" s="10"/>
       <c r="T271" s="9"/>
     </row>
     <row r="272" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A272" s="10"/>
-      <c r="B272" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C272" s="10"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
-      <c r="G272" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H272" s="10"/>
-      <c r="I272" s="10"/>
-      <c r="J272" s="10"/>
-      <c r="K272" s="10"/>
-      <c r="L272" s="10"/>
-      <c r="M272" s="10"/>
-      <c r="N272" s="10"/>
-      <c r="O272" s="10"/>
-      <c r="P272" s="10"/>
-      <c r="Q272" s="10"/>
-      <c r="R272" s="10"/>
-      <c r="S272" s="10"/>
+      <c r="A272" s="9"/>
+      <c r="B272" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H272" s="9"/>
+      <c r="I272" s="9"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="9"/>
+      <c r="L272" s="9"/>
+      <c r="M272" s="9"/>
+      <c r="N272" s="9"/>
+      <c r="O272" s="9"/>
+      <c r="P272" s="9"/>
+      <c r="Q272" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R272" s="9"/>
+      <c r="S272" s="9"/>
       <c r="T272" s="9"/>
     </row>
     <row r="273" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
@@ -10317,7 +10343,7 @@
     <row r="274" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
@@ -10345,7 +10371,7 @@
     <row r="275" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
@@ -10373,7 +10399,7 @@
     <row r="276" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
@@ -10398,134 +10424,113 @@
       <c r="S276" s="9"/>
       <c r="T276" s="9"/>
     </row>
-    <row r="277" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A277" s="9"/>
-      <c r="B277" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="9"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H277" s="9"/>
-      <c r="I277" s="9"/>
-      <c r="J277" s="9"/>
-      <c r="K277" s="9"/>
-      <c r="L277" s="9"/>
-      <c r="M277" s="9"/>
-      <c r="N277" s="9"/>
-      <c r="O277" s="9"/>
-      <c r="P277" s="9"/>
-      <c r="Q277" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="277" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
+      <c r="A277" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H277" s="10"/>
+      <c r="I277" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J277" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="K277" s="10"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="10">
+        <v>1</v>
+      </c>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+      <c r="P277" s="10"/>
+      <c r="Q277" s="10"/>
       <c r="R277" s="9"/>
       <c r="S277" s="9"/>
       <c r="T277" s="9"/>
     </row>
-    <row r="278" spans="1:20" s="19" customFormat="1" ht="48" customHeight="1">
-      <c r="A278" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="F278" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G278" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H278" s="10"/>
-      <c r="I278" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="J278" s="10"/>
-      <c r="K278" s="10"/>
-      <c r="L278" s="10"/>
-      <c r="M278" s="10">
-        <v>1</v>
-      </c>
-      <c r="N278" s="10"/>
-      <c r="O278" s="10"/>
-      <c r="P278" s="10"/>
-      <c r="Q278" s="10"/>
+    <row r="278" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A278" s="9"/>
+      <c r="B278" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" s="9"/>
+      <c r="I278" s="9"/>
+      <c r="J278" s="9"/>
+      <c r="K278" s="9"/>
+      <c r="L278" s="9"/>
+      <c r="M278" s="9"/>
+      <c r="N278" s="9"/>
+      <c r="O278" s="9"/>
+      <c r="P278" s="9"/>
+      <c r="Q278" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="R278" s="9"/>
       <c r="S278" s="9"/>
       <c r="T278" s="9"/>
     </row>
-    <row r="279" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A279" s="9"/>
-      <c r="B279" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D279" s="9"/>
-      <c r="E279" s="9"/>
-      <c r="F279" s="9"/>
-      <c r="G279" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H279" s="9"/>
-      <c r="I279" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="J279" s="9"/>
-      <c r="K279" s="9"/>
-      <c r="L279" s="9"/>
-      <c r="M279" s="9"/>
-      <c r="N279" s="9"/>
-      <c r="O279" s="9"/>
-      <c r="P279" s="9"/>
-      <c r="Q279" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R279" s="9"/>
-      <c r="S279" s="9"/>
+    <row r="279" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B279" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="G279" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K279" s="11"/>
+      <c r="O279" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q279" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S279" s="11"/>
       <c r="T279" s="9"/>
     </row>
     <row r="280" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A280" s="9"/>
-      <c r="B280" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9"/>
-      <c r="E280" s="9"/>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H280" s="9"/>
-      <c r="I280" s="9"/>
-      <c r="J280" s="9"/>
-      <c r="K280" s="9"/>
-      <c r="L280" s="9"/>
-      <c r="M280" s="9"/>
-      <c r="N280" s="9"/>
-      <c r="O280" s="9"/>
-      <c r="P280" s="9"/>
-      <c r="Q280" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R280" s="9"/>
-      <c r="S280" s="9"/>
+      <c r="B280" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="G280" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K280" s="11"/>
+      <c r="O280" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S280" s="11"/>
       <c r="T280" s="9"/>
     </row>
-    <row r="281" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="281" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="B281" s="19" t="s">
-        <v>436</v>
+        <v>423</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>424</v>
       </c>
       <c r="G281" s="19" t="s">
         <v>24</v>
@@ -10542,7 +10547,7 @@
     </row>
     <row r="282" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B282" s="19" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G282" s="19" t="s">
         <v>24</v>
@@ -10557,12 +10562,9 @@
       <c r="S282" s="11"/>
       <c r="T282" s="9"/>
     </row>
-    <row r="283" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="283" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B283" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C283" s="19" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="G283" s="19" t="s">
         <v>24</v>
@@ -10579,7 +10581,7 @@
     </row>
     <row r="284" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B284" s="19" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G284" s="19" t="s">
         <v>24</v>
@@ -10596,7 +10598,7 @@
     </row>
     <row r="285" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B285" s="19" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="G285" s="19" t="s">
         <v>24</v>
@@ -10613,7 +10615,7 @@
     </row>
     <row r="286" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B286" s="19" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G286" s="19" t="s">
         <v>24</v>
@@ -10630,7 +10632,7 @@
     </row>
     <row r="287" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B287" s="19" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="G287" s="19" t="s">
         <v>24</v>
@@ -10647,7 +10649,7 @@
     </row>
     <row r="288" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B288" s="19" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G288" s="19" t="s">
         <v>24</v>
@@ -10664,7 +10666,7 @@
     </row>
     <row r="289" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B289" s="19" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G289" s="19" t="s">
         <v>24</v>
@@ -10681,7 +10683,7 @@
     </row>
     <row r="290" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B290" s="19" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>24</v>
@@ -10698,7 +10700,7 @@
     </row>
     <row r="291" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B291" s="19" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G291" s="19" t="s">
         <v>24</v>
@@ -10715,7 +10717,7 @@
     </row>
     <row r="292" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B292" s="19" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G292" s="19" t="s">
         <v>24</v>
@@ -10732,7 +10734,7 @@
     </row>
     <row r="293" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B293" s="19" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G293" s="19" t="s">
         <v>24</v>
@@ -10749,7 +10751,7 @@
     </row>
     <row r="294" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B294" s="19" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G294" s="19" t="s">
         <v>24</v>
@@ -10766,7 +10768,7 @@
     </row>
     <row r="295" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B295" s="19" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="G295" s="19" t="s">
         <v>24</v>
@@ -10782,43 +10784,65 @@
       <c r="T295" s="9"/>
     </row>
     <row r="296" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B296" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="G296" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K296" s="11"/>
-      <c r="O296" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q296" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S296" s="11"/>
+      <c r="A296" s="9"/>
+      <c r="B296" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H296" s="9"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="9"/>
+      <c r="K296" s="9"/>
+      <c r="L296" s="9"/>
+      <c r="M296" s="9"/>
+      <c r="N296" s="9"/>
+      <c r="O296" s="9"/>
+      <c r="P296" s="9"/>
+      <c r="Q296" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R296" s="9"/>
+      <c r="S296" s="9"/>
       <c r="T296" s="9"/>
     </row>
     <row r="297" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B297" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="G297" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K297" s="11"/>
-      <c r="O297" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q297" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S297" s="11"/>
+      <c r="A297" s="9"/>
+      <c r="B297" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H297" s="9"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="9"/>
+      <c r="L297" s="9"/>
+      <c r="M297" s="9"/>
+      <c r="N297" s="9"/>
+      <c r="O297" s="9"/>
+      <c r="P297" s="9"/>
+      <c r="Q297" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R297" s="9"/>
+      <c r="S297" s="9"/>
       <c r="T297" s="9"/>
     </row>
     <row r="298" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -10844,37 +10868,26 @@
       <c r="T298" s="9"/>
     </row>
     <row r="299" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A299" s="9"/>
-      <c r="B299" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9"/>
-      <c r="E299" s="9"/>
-      <c r="F299" s="9"/>
-      <c r="G299" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H299" s="9"/>
-      <c r="I299" s="9"/>
-      <c r="J299" s="9"/>
-      <c r="K299" s="9"/>
-      <c r="L299" s="9"/>
-      <c r="M299" s="9"/>
-      <c r="N299" s="9"/>
-      <c r="O299" s="9"/>
-      <c r="P299" s="9"/>
-      <c r="Q299" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R299" s="9"/>
-      <c r="S299" s="9"/>
+      <c r="B299" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="G299" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K299" s="11"/>
+      <c r="O299" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q299" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S299" s="11"/>
       <c r="T299" s="9"/>
     </row>
     <row r="300" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
@@ -10900,26 +10913,39 @@
       <c r="T300" s="9"/>
     </row>
     <row r="301" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B301" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="G301" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K301" s="11"/>
-      <c r="O301" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q301" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S301" s="11"/>
+      <c r="A301" s="9"/>
+      <c r="B301" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C301" s="9"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H301" s="9"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="K301" s="9"/>
+      <c r="L301" s="9"/>
+      <c r="M301" s="9"/>
+      <c r="N301" s="9"/>
+      <c r="O301" s="9"/>
+      <c r="P301" s="9"/>
+      <c r="Q301" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R301" s="9"/>
+      <c r="S301" s="9"/>
       <c r="T301" s="9"/>
     </row>
     <row r="302" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
@@ -10947,7 +10973,7 @@
     <row r="303" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -10958,9 +10984,7 @@
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
-      <c r="J303" s="9" t="s">
-        <v>460</v>
-      </c>
+      <c r="J303" s="9"/>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
       <c r="M303" s="9"/>
@@ -10975,99 +10999,99 @@
       <c r="T303" s="9"/>
     </row>
     <row r="304" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A304" s="9"/>
-      <c r="B304" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9"/>
-      <c r="E304" s="9"/>
-      <c r="F304" s="9"/>
-      <c r="G304" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H304" s="9"/>
-      <c r="I304" s="9"/>
-      <c r="J304" s="9"/>
-      <c r="K304" s="9"/>
-      <c r="L304" s="9"/>
-      <c r="M304" s="9"/>
-      <c r="N304" s="9"/>
-      <c r="O304" s="9"/>
-      <c r="P304" s="9"/>
-      <c r="Q304" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R304" s="9"/>
-      <c r="S304" s="9"/>
+      <c r="B304" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="G304" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K304" s="11"/>
+      <c r="O304" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S304" s="11"/>
       <c r="T304" s="9"/>
     </row>
-    <row r="305" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A305" s="9"/>
-      <c r="B305" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C305" s="9"/>
-      <c r="D305" s="9"/>
-      <c r="E305" s="9"/>
-      <c r="F305" s="9"/>
-      <c r="G305" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H305" s="9"/>
-      <c r="I305" s="9"/>
-      <c r="J305" s="9"/>
-      <c r="K305" s="9"/>
-      <c r="L305" s="9"/>
-      <c r="M305" s="9"/>
-      <c r="N305" s="9"/>
-      <c r="O305" s="9"/>
-      <c r="P305" s="9"/>
-      <c r="Q305" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R305" s="9"/>
-      <c r="S305" s="9"/>
+    <row r="305" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="B305" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="G305" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K305" s="11"/>
+      <c r="O305" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q305" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S305" s="11"/>
       <c r="T305" s="9"/>
     </row>
     <row r="306" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B306" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="G306" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K306" s="11"/>
-      <c r="O306" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q306" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S306" s="11"/>
+      <c r="A306" s="9"/>
+      <c r="B306" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H306" s="9"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="9"/>
+      <c r="L306" s="9"/>
+      <c r="M306" s="9"/>
+      <c r="N306" s="9"/>
+      <c r="O306" s="9"/>
+      <c r="P306" s="9"/>
+      <c r="Q306" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R306" s="9"/>
+      <c r="S306" s="9"/>
       <c r="T306" s="9"/>
     </row>
-    <row r="307" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="B307" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="G307" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K307" s="11"/>
-      <c r="O307" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q307" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S307" s="11"/>
+    <row r="307" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A307" s="9"/>
+      <c r="B307" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H307" s="9"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="9"/>
+      <c r="K307" s="9"/>
+      <c r="L307" s="9"/>
+      <c r="M307" s="9"/>
+      <c r="N307" s="9"/>
+      <c r="O307" s="9"/>
+      <c r="P307" s="9"/>
+      <c r="Q307" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R307" s="9"/>
+      <c r="S307" s="9"/>
       <c r="T307" s="9"/>
     </row>
     <row r="308" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
@@ -11095,7 +11119,7 @@
     <row r="309" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
@@ -11123,7 +11147,7 @@
     <row r="310" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
@@ -11151,7 +11175,7 @@
     <row r="311" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
@@ -11179,7 +11203,7 @@
     <row r="312" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
@@ -11207,7 +11231,7 @@
     <row r="313" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A313" s="9"/>
       <c r="B313" s="9" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
@@ -11235,7 +11259,7 @@
     <row r="314" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A314" s="9"/>
       <c r="B314" s="9" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
@@ -11263,7 +11287,7 @@
     <row r="315" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A315" s="9"/>
       <c r="B315" s="9" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
@@ -11289,37 +11313,26 @@
       <c r="T315" s="9"/>
     </row>
     <row r="316" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A316" s="9"/>
-      <c r="B316" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C316" s="9"/>
-      <c r="D316" s="9"/>
-      <c r="E316" s="9"/>
-      <c r="F316" s="9"/>
-      <c r="G316" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H316" s="9"/>
-      <c r="I316" s="9"/>
-      <c r="J316" s="9"/>
-      <c r="K316" s="9"/>
-      <c r="L316" s="9"/>
-      <c r="M316" s="9"/>
-      <c r="N316" s="9"/>
-      <c r="O316" s="9"/>
-      <c r="P316" s="9"/>
-      <c r="Q316" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R316" s="9"/>
-      <c r="S316" s="9"/>
+      <c r="B316" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="G316" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K316" s="11"/>
+      <c r="O316" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q316" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S316" s="11"/>
       <c r="T316" s="9"/>
     </row>
     <row r="317" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A317" s="9"/>
       <c r="B317" s="9" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
@@ -11346,7 +11359,7 @@
     </row>
     <row r="318" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B318" s="19" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G318" s="19" t="s">
         <v>24</v>
@@ -11364,7 +11377,7 @@
     <row r="319" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A319" s="9"/>
       <c r="B319" s="9" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
@@ -11390,26 +11403,37 @@
       <c r="T319" s="9"/>
     </row>
     <row r="320" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B320" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G320" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K320" s="11"/>
-      <c r="O320" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q320" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S320" s="11"/>
+      <c r="A320" s="9"/>
+      <c r="B320" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H320" s="9"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="9"/>
+      <c r="K320" s="9"/>
+      <c r="L320" s="9"/>
+      <c r="M320" s="9"/>
+      <c r="N320" s="9"/>
+      <c r="O320" s="9"/>
+      <c r="P320" s="9"/>
+      <c r="Q320" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R320" s="9"/>
+      <c r="S320" s="9"/>
       <c r="T320" s="9"/>
     </row>
     <row r="321" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
@@ -11437,7 +11461,7 @@
     <row r="322" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
@@ -11465,7 +11489,7 @@
     <row r="323" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -11493,7 +11517,7 @@
     <row r="324" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -11521,7 +11545,7 @@
     <row r="325" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -11549,7 +11573,7 @@
     <row r="326" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A326" s="9"/>
       <c r="B326" s="9" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
@@ -11577,7 +11601,7 @@
     <row r="327" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A327" s="9"/>
       <c r="B327" s="9" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
@@ -11605,7 +11629,7 @@
     <row r="328" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A328" s="9"/>
       <c r="B328" s="9" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
@@ -11631,163 +11655,144 @@
       <c r="T328" s="9"/>
     </row>
     <row r="329" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A329" s="9"/>
-      <c r="B329" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C329" s="9"/>
-      <c r="D329" s="9"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
-      <c r="G329" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H329" s="9"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="9"/>
-      <c r="K329" s="9"/>
-      <c r="L329" s="9"/>
-      <c r="M329" s="9"/>
-      <c r="N329" s="9"/>
-      <c r="O329" s="9"/>
-      <c r="P329" s="9"/>
-      <c r="Q329" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R329" s="9"/>
-      <c r="S329" s="9"/>
+      <c r="B329" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="G329" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K329" s="11"/>
+      <c r="O329" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q329" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S329" s="11"/>
       <c r="T329" s="9"/>
     </row>
     <row r="330" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A330" s="9"/>
-      <c r="B330" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="C330" s="9"/>
-      <c r="D330" s="9"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="9"/>
-      <c r="G330" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H330" s="9"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-      <c r="K330" s="9"/>
-      <c r="L330" s="9"/>
-      <c r="M330" s="9"/>
-      <c r="N330" s="9"/>
-      <c r="O330" s="9"/>
-      <c r="P330" s="9"/>
-      <c r="Q330" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R330" s="9"/>
-      <c r="S330" s="9"/>
+      <c r="B330" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="G330" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K330" s="11"/>
+      <c r="O330" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q330" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S330" s="11"/>
       <c r="T330" s="9"/>
     </row>
     <row r="331" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B331" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="C331" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="G331" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K331" s="11"/>
-      <c r="O331" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q331" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S331" s="11"/>
+      <c r="A331" s="9"/>
+      <c r="B331" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H331" s="9"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="9"/>
+      <c r="K331" s="9"/>
+      <c r="L331" s="9"/>
+      <c r="M331" s="9"/>
+      <c r="N331" s="9"/>
+      <c r="O331" s="9"/>
+      <c r="P331" s="9"/>
+      <c r="Q331" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R331" s="9"/>
+      <c r="S331" s="9"/>
       <c r="T331" s="9"/>
     </row>
     <row r="332" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B332" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="G332" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K332" s="11"/>
-      <c r="O332" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q332" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S332" s="11"/>
+      <c r="A332" s="9"/>
+      <c r="B332" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C332" s="9"/>
+      <c r="D332" s="9"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H332" s="9"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="9"/>
+      <c r="K332" s="9"/>
+      <c r="L332" s="9"/>
+      <c r="M332" s="9"/>
+      <c r="N332" s="9"/>
+      <c r="O332" s="9"/>
+      <c r="P332" s="9"/>
+      <c r="Q332" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R332" s="9"/>
+      <c r="S332" s="9"/>
       <c r="T332" s="9"/>
     </row>
     <row r="333" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A333" s="9"/>
-      <c r="B333" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="9"/>
-      <c r="G333" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H333" s="9"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="9"/>
-      <c r="K333" s="9"/>
-      <c r="L333" s="9"/>
-      <c r="M333" s="9"/>
-      <c r="N333" s="9"/>
-      <c r="O333" s="9"/>
-      <c r="P333" s="9"/>
-      <c r="Q333" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R333" s="9"/>
-      <c r="S333" s="9"/>
+      <c r="B333" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G333" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J333" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="K333" s="11"/>
+      <c r="O333" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q333" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S333" s="11"/>
       <c r="T333" s="9"/>
     </row>
     <row r="334" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A334" s="9"/>
-      <c r="B334" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C334" s="9"/>
-      <c r="D334" s="9"/>
-      <c r="E334" s="9"/>
-      <c r="F334" s="9"/>
-      <c r="G334" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H334" s="9"/>
-      <c r="I334" s="9"/>
-      <c r="J334" s="9"/>
-      <c r="K334" s="9"/>
-      <c r="L334" s="9"/>
-      <c r="M334" s="9"/>
-      <c r="N334" s="9"/>
-      <c r="O334" s="9"/>
-      <c r="P334" s="9"/>
-      <c r="Q334" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R334" s="9"/>
-      <c r="S334" s="9"/>
+      <c r="B334" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G334" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J334" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="K334" s="11"/>
+      <c r="O334" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q334" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S334" s="11"/>
       <c r="T334" s="9"/>
     </row>
     <row r="335" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B335" s="19" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="G335" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J335" s="19" t="s">
-        <v>493</v>
       </c>
       <c r="K335" s="11"/>
       <c r="O335" s="19">
@@ -11801,13 +11806,13 @@
     </row>
     <row r="336" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B336" s="19" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G336" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J336" s="19" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K336" s="11"/>
       <c r="O336" s="19">
@@ -11821,7 +11826,7 @@
     </row>
     <row r="337" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B337" s="19" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>24</v>
@@ -11838,13 +11843,10 @@
     </row>
     <row r="338" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B338" s="19" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G338" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J338" s="19" t="s">
-        <v>452</v>
       </c>
       <c r="K338" s="11"/>
       <c r="O338" s="19">
@@ -11858,7 +11860,7 @@
     </row>
     <row r="339" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B339" s="19" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G339" s="19" t="s">
         <v>24</v>
@@ -11875,7 +11877,7 @@
     </row>
     <row r="340" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B340" s="19" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="G340" s="19" t="s">
         <v>24</v>
@@ -11892,7 +11894,7 @@
     </row>
     <row r="341" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B341" s="19" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="G341" s="19" t="s">
         <v>24</v>
@@ -11909,7 +11911,7 @@
     </row>
     <row r="342" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B342" s="19" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="G342" s="19" t="s">
         <v>24</v>
@@ -11925,43 +11927,65 @@
       <c r="T342" s="9"/>
     </row>
     <row r="343" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B343" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="G343" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K343" s="11"/>
-      <c r="O343" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q343" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S343" s="11"/>
+      <c r="A343" s="9"/>
+      <c r="B343" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C343" s="9"/>
+      <c r="D343" s="9"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="9"/>
+      <c r="G343" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H343" s="9"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="9"/>
+      <c r="K343" s="9"/>
+      <c r="L343" s="9"/>
+      <c r="M343" s="9"/>
+      <c r="N343" s="9"/>
+      <c r="O343" s="9"/>
+      <c r="P343" s="9"/>
+      <c r="Q343" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R343" s="9"/>
+      <c r="S343" s="9"/>
       <c r="T343" s="9"/>
     </row>
     <row r="344" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B344" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="G344" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K344" s="11"/>
-      <c r="O344" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q344" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S344" s="11"/>
+      <c r="A344" s="9"/>
+      <c r="B344" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C344" s="9"/>
+      <c r="D344" s="9"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="9"/>
+      <c r="G344" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H344" s="9"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="9"/>
+      <c r="K344" s="9"/>
+      <c r="L344" s="9"/>
+      <c r="M344" s="9"/>
+      <c r="N344" s="9"/>
+      <c r="O344" s="9"/>
+      <c r="P344" s="9"/>
+      <c r="Q344" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R344" s="9"/>
+      <c r="S344" s="9"/>
       <c r="T344" s="9"/>
     </row>
     <row r="345" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A345" s="9"/>
       <c r="B345" s="9" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -11986,10 +12010,10 @@
       <c r="S345" s="9"/>
       <c r="T345" s="9"/>
     </row>
-    <row r="346" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="346" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A346" s="9"/>
       <c r="B346" s="9" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -12017,7 +12041,7 @@
     <row r="347" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A347" s="9"/>
       <c r="B347" s="9" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -12042,10 +12066,10 @@
       <c r="S347" s="9"/>
       <c r="T347" s="9"/>
     </row>
-    <row r="348" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="348" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A348" s="9"/>
       <c r="B348" s="9" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -12070,127 +12094,129 @@
       <c r="S348" s="9"/>
       <c r="T348" s="9"/>
     </row>
-    <row r="349" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A349" s="9"/>
-      <c r="B349" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C349" s="9"/>
-      <c r="D349" s="9"/>
-      <c r="E349" s="9"/>
-      <c r="F349" s="9"/>
-      <c r="G349" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H349" s="9"/>
-      <c r="I349" s="9"/>
-      <c r="J349" s="9"/>
-      <c r="K349" s="9"/>
-      <c r="L349" s="9"/>
-      <c r="M349" s="9"/>
-      <c r="N349" s="9"/>
-      <c r="O349" s="9"/>
-      <c r="P349" s="9"/>
-      <c r="Q349" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R349" s="9"/>
-      <c r="S349" s="9"/>
-      <c r="T349" s="9"/>
-    </row>
-    <row r="350" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A350" s="9"/>
-      <c r="B350" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="C350" s="9"/>
-      <c r="D350" s="9"/>
-      <c r="E350" s="9"/>
-      <c r="F350" s="9"/>
-      <c r="G350" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H350" s="9"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="9"/>
-      <c r="K350" s="9"/>
-      <c r="L350" s="9"/>
-      <c r="M350" s="9"/>
-      <c r="N350" s="9"/>
-      <c r="O350" s="9"/>
-      <c r="P350" s="9"/>
-      <c r="Q350" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R350" s="9"/>
-      <c r="S350" s="9"/>
-      <c r="T350" s="9"/>
-    </row>
-    <row r="351" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
-      <c r="A351" s="20"/>
-      <c r="B351" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C351" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="D351" s="24"/>
-      <c r="E351" s="20"/>
-      <c r="F351" s="20"/>
-      <c r="G351" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H351" s="20"/>
-      <c r="I351" s="20"/>
-      <c r="K351" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="L351" s="20"/>
-      <c r="M351" s="20"/>
-      <c r="N351" s="20"/>
-      <c r="O351" s="20"/>
-      <c r="P351" s="20"/>
-      <c r="Q351" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R351" s="20"/>
-      <c r="S351" s="20"/>
-      <c r="T351" s="20"/>
-    </row>
-    <row r="352" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
-      <c r="A352" s="20"/>
-      <c r="B352" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="C352" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="D352" s="20"/>
-      <c r="E352" s="20"/>
-      <c r="F352" s="20"/>
-      <c r="G352" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H352" s="20"/>
-      <c r="I352" s="20"/>
-      <c r="J352" s="20"/>
-      <c r="K352" s="20"/>
-      <c r="L352" s="20"/>
-      <c r="M352" s="20"/>
-      <c r="N352" s="20"/>
-      <c r="O352" s="20"/>
-      <c r="P352" s="20"/>
-      <c r="Q352" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R352" s="20"/>
-      <c r="S352" s="20"/>
-      <c r="T352" s="20"/>
+    <row r="349" spans="1:20" s="22" customFormat="1" ht="80" customHeight="1">
+      <c r="A349" s="20"/>
+      <c r="B349" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="D349" s="24"/>
+      <c r="E349" s="20"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H349" s="20"/>
+      <c r="I349" s="20"/>
+      <c r="K349" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="L349" s="20"/>
+      <c r="M349" s="20"/>
+      <c r="N349" s="20"/>
+      <c r="O349" s="20"/>
+      <c r="P349" s="20"/>
+      <c r="Q349" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R349" s="20"/>
+      <c r="S349" s="20"/>
+      <c r="T349" s="20"/>
+    </row>
+    <row r="350" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1">
+      <c r="A350" s="20"/>
+      <c r="B350" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D350" s="20"/>
+      <c r="E350" s="20"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H350" s="20"/>
+      <c r="I350" s="20"/>
+      <c r="J350" s="20"/>
+      <c r="K350" s="20"/>
+      <c r="L350" s="20"/>
+      <c r="M350" s="20"/>
+      <c r="N350" s="20"/>
+      <c r="O350" s="20"/>
+      <c r="P350" s="20"/>
+      <c r="Q350" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R350" s="20"/>
+      <c r="S350" s="20"/>
+      <c r="T350" s="20"/>
+    </row>
+    <row r="351" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A351" s="9"/>
+      <c r="B351" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C351" s="9"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="9"/>
+      <c r="G351" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H351" s="9"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="9"/>
+      <c r="K351" s="9"/>
+      <c r="L351" s="9"/>
+      <c r="M351" s="9"/>
+      <c r="N351" s="9"/>
+      <c r="O351" s="9"/>
+      <c r="P351" s="9"/>
+      <c r="Q351" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R351" s="9"/>
+      <c r="S351" s="9"/>
+      <c r="T351" s="9"/>
+    </row>
+    <row r="352" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A352" s="9"/>
+      <c r="B352" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C352" s="9"/>
+      <c r="D352" s="9"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="9"/>
+      <c r="G352" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H352" s="9"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="K352" s="9"/>
+      <c r="L352" s="9"/>
+      <c r="M352" s="9"/>
+      <c r="N352" s="9"/>
+      <c r="O352" s="9"/>
+      <c r="P352" s="9"/>
+      <c r="Q352" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R352" s="9"/>
+      <c r="S352" s="9"/>
+      <c r="T352" s="9"/>
     </row>
     <row r="353" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A353" s="9"/>
       <c r="B353" s="9" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -12218,7 +12244,7 @@
     <row r="354" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A354" s="9"/>
       <c r="B354" s="9" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
@@ -12229,9 +12255,7 @@
       </c>
       <c r="H354" s="9"/>
       <c r="I354" s="9"/>
-      <c r="J354" s="9" t="s">
-        <v>515</v>
-      </c>
+      <c r="J354" s="9"/>
       <c r="K354" s="9"/>
       <c r="L354" s="9"/>
       <c r="M354" s="9"/>
@@ -12248,9 +12272,11 @@
     <row r="355" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A355" s="9"/>
       <c r="B355" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C355" s="9"/>
+        <v>503</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>504</v>
+      </c>
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
       <c r="F355" s="9"/>
@@ -12276,7 +12302,7 @@
     <row r="356" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A356" s="9"/>
       <c r="B356" s="9" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
@@ -12301,13 +12327,13 @@
       <c r="S356" s="9"/>
       <c r="T356" s="9"/>
     </row>
-    <row r="357" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="357" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A357" s="9"/>
       <c r="B357" s="9" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
@@ -12334,7 +12360,7 @@
     <row r="358" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A358" s="9"/>
       <c r="B358" s="9" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
@@ -12359,67 +12385,43 @@
       <c r="S358" s="9"/>
       <c r="T358" s="9"/>
     </row>
-    <row r="359" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A359" s="9"/>
-      <c r="B359" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C359" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="D359" s="9"/>
-      <c r="E359" s="9"/>
-      <c r="F359" s="9"/>
-      <c r="G359" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H359" s="9"/>
-      <c r="I359" s="9"/>
-      <c r="J359" s="9"/>
-      <c r="K359" s="9"/>
-      <c r="L359" s="9"/>
-      <c r="M359" s="9"/>
-      <c r="N359" s="9"/>
-      <c r="O359" s="9"/>
-      <c r="P359" s="9"/>
-      <c r="Q359" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R359" s="9"/>
-      <c r="S359" s="9"/>
+    <row r="359" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B359" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="G359" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K359" s="11"/>
+      <c r="O359" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q359" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S359" s="11"/>
       <c r="T359" s="9"/>
     </row>
     <row r="360" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A360" s="9"/>
-      <c r="B360" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="C360" s="9"/>
-      <c r="D360" s="9"/>
-      <c r="E360" s="9"/>
-      <c r="F360" s="9"/>
-      <c r="G360" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H360" s="9"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="9"/>
-      <c r="K360" s="9"/>
-      <c r="L360" s="9"/>
-      <c r="M360" s="9"/>
-      <c r="N360" s="9"/>
-      <c r="O360" s="9"/>
-      <c r="P360" s="9"/>
-      <c r="Q360" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R360" s="9"/>
-      <c r="S360" s="9"/>
+      <c r="B360" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="G360" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K360" s="11"/>
+      <c r="O360" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q360" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S360" s="11"/>
       <c r="T360" s="9"/>
     </row>
     <row r="361" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B361" s="19" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G361" s="19" t="s">
         <v>24</v>
@@ -12435,25 +12437,36 @@
       <c r="T361" s="9"/>
     </row>
     <row r="362" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B362" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="G362" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K362" s="11"/>
-      <c r="O362" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q362" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S362" s="11"/>
+      <c r="A362" s="9"/>
+      <c r="B362" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C362" s="9"/>
+      <c r="D362" s="9"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="9"/>
+      <c r="G362" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H362" s="9"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="9"/>
+      <c r="K362" s="9"/>
+      <c r="L362" s="9"/>
+      <c r="M362" s="9"/>
+      <c r="N362" s="9"/>
+      <c r="O362" s="9"/>
+      <c r="P362" s="9"/>
+      <c r="Q362" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R362" s="9"/>
+      <c r="S362" s="9"/>
       <c r="T362" s="9"/>
     </row>
     <row r="363" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B363" s="19" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="G363" s="19" t="s">
         <v>24</v>
@@ -12469,36 +12482,37 @@
       <c r="T363" s="9"/>
     </row>
     <row r="364" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A364" s="9"/>
-      <c r="B364" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C364" s="9"/>
-      <c r="D364" s="9"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="9"/>
-      <c r="G364" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H364" s="9"/>
-      <c r="I364" s="9"/>
-      <c r="J364" s="9"/>
-      <c r="K364" s="9"/>
-      <c r="L364" s="9"/>
-      <c r="M364" s="9"/>
-      <c r="N364" s="9"/>
-      <c r="O364" s="9"/>
-      <c r="P364" s="9"/>
-      <c r="Q364" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R364" s="9"/>
-      <c r="S364" s="9"/>
+      <c r="B364" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="G364" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K364" s="11"/>
+      <c r="O364" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q364" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S364" s="11"/>
       <c r="T364" s="9"/>
     </row>
     <row r="365" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A365" s="35" t="s">
+        <v>515</v>
+      </c>
       <c r="B365" s="19" t="s">
-        <v>528</v>
+        <v>516</v>
+      </c>
+      <c r="C365" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="E365" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="F365" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="G365" s="19" t="s">
         <v>24</v>
@@ -12514,37 +12528,40 @@
       <c r="T365" s="9"/>
     </row>
     <row r="366" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B366" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="G366" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K366" s="11"/>
-      <c r="O366" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q366" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S366" s="11"/>
+      <c r="A366" s="9"/>
+      <c r="B366" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D366" s="9"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H366" s="9"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="K366" s="9"/>
+      <c r="L366" s="9"/>
+      <c r="M366" s="9"/>
+      <c r="N366" s="9"/>
+      <c r="O366" s="9"/>
+      <c r="P366" s="9"/>
+      <c r="Q366" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R366" s="9"/>
+      <c r="S366" s="9"/>
       <c r="T366" s="9"/>
     </row>
     <row r="367" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A367" s="35" t="s">
-        <v>530</v>
-      </c>
       <c r="B367" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="C367" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="E367" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="F367" s="19" t="s">
-        <v>154</v>
+        <v>521</v>
       </c>
       <c r="G367" s="19" t="s">
         <v>24</v>
@@ -12560,40 +12577,31 @@
       <c r="T367" s="9"/>
     </row>
     <row r="368" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A368" s="9"/>
-      <c r="B368" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C368" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="D368" s="9"/>
-      <c r="E368" s="9"/>
-      <c r="F368" s="9"/>
-      <c r="G368" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H368" s="9"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="K368" s="9"/>
-      <c r="L368" s="9"/>
-      <c r="M368" s="9"/>
-      <c r="N368" s="9"/>
-      <c r="O368" s="9"/>
-      <c r="P368" s="9"/>
-      <c r="Q368" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R368" s="9"/>
-      <c r="S368" s="9"/>
+      <c r="B368" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="C368" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="K368" s="11"/>
+      <c r="S368" s="11"/>
       <c r="T368" s="9"/>
     </row>
     <row r="369" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A369" s="35" t="s">
+        <v>524</v>
+      </c>
       <c r="B369" s="19" t="s">
-        <v>536</v>
+        <v>525</v>
+      </c>
+      <c r="C369" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="E369" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="F369" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="G369" s="19" t="s">
         <v>24</v>
@@ -12610,30 +12618,33 @@
     </row>
     <row r="370" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B370" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="C370" s="19" t="s">
-        <v>538</v>
+        <v>527</v>
+      </c>
+      <c r="G370" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="K370" s="11"/>
+      <c r="O370" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="S370" s="11"/>
       <c r="T370" s="9"/>
     </row>
     <row r="371" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A371" s="35" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B371" s="19" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C371" s="19" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E371" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="F371" s="19" t="s">
-        <v>411</v>
+        <v>149</v>
       </c>
       <c r="G371" s="19" t="s">
         <v>24</v>
@@ -12648,76 +12659,80 @@
       <c r="S371" s="11"/>
       <c r="T371" s="9"/>
     </row>
-    <row r="372" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B372" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="G372" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K372" s="11"/>
-      <c r="O372" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q372" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S372" s="11"/>
-      <c r="T372" s="9"/>
+    <row r="372" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="B372" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="C372" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="E372" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="G372" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K372" s="30"/>
+      <c r="O372" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S372" s="30"/>
+      <c r="T372" s="33"/>
     </row>
     <row r="373" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A373" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="B373" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="C373" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="E373" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G373" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K373" s="11"/>
-      <c r="O373" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q373" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S373" s="11"/>
+      <c r="A373" s="9"/>
+      <c r="B373" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H373" s="9"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="9"/>
+      <c r="L373" s="9"/>
+      <c r="M373" s="9"/>
+      <c r="N373" s="9"/>
+      <c r="O373" s="9"/>
+      <c r="P373" s="9"/>
+      <c r="Q373" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R373" s="9"/>
+      <c r="S373" s="9"/>
       <c r="T373" s="9"/>
     </row>
-    <row r="374" spans="1:20" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="B374" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="C374" s="29" t="s">
-        <v>728</v>
-      </c>
-      <c r="E374" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="G374" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K374" s="30"/>
-      <c r="O374" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q374" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S374" s="30"/>
-      <c r="T374" s="33"/>
-    </row>
-    <row r="375" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A375" s="9"/>
+    <row r="374" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="B374" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="G374" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K374" s="11"/>
+      <c r="O374" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q374" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S374" s="11"/>
+      <c r="T374" s="9"/>
+    </row>
+    <row r="375" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+      <c r="A375" s="9" t="s">
+        <v>533</v>
+      </c>
       <c r="B375" s="9" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -12728,7 +12743,9 @@
       </c>
       <c r="H375" s="9"/>
       <c r="I375" s="9"/>
-      <c r="J375" s="9"/>
+      <c r="J375" s="9" t="s">
+        <v>535</v>
+      </c>
       <c r="K375" s="9"/>
       <c r="L375" s="9"/>
       <c r="M375" s="9"/>
@@ -12743,28 +12760,37 @@
       <c r="T375" s="9"/>
     </row>
     <row r="376" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B376" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="G376" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K376" s="11"/>
-      <c r="O376" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q376" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S376" s="11"/>
+      <c r="A376" s="9"/>
+      <c r="B376" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C376" s="9"/>
+      <c r="D376" s="9"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="9"/>
+      <c r="G376" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H376" s="9"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="9"/>
+      <c r="K376" s="9"/>
+      <c r="L376" s="9"/>
+      <c r="M376" s="9"/>
+      <c r="N376" s="9"/>
+      <c r="O376" s="9"/>
+      <c r="P376" s="9"/>
+      <c r="Q376" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R376" s="9"/>
+      <c r="S376" s="9"/>
       <c r="T376" s="9"/>
     </row>
-    <row r="377" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A377" s="9" t="s">
-        <v>548</v>
-      </c>
+    <row r="377" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+      <c r="A377" s="9"/>
       <c r="B377" s="9" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -12775,9 +12801,7 @@
       </c>
       <c r="H377" s="9"/>
       <c r="I377" s="9"/>
-      <c r="J377" s="9" t="s">
-        <v>550</v>
-      </c>
+      <c r="J377" s="9"/>
       <c r="K377" s="9"/>
       <c r="L377" s="9"/>
       <c r="M377" s="9"/>
@@ -12794,7 +12818,7 @@
     <row r="378" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A378" s="9"/>
       <c r="B378" s="9" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -12819,10 +12843,10 @@
       <c r="S378" s="9"/>
       <c r="T378" s="9"/>
     </row>
-    <row r="379" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
+    <row r="379" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
       <c r="A379" s="9"/>
       <c r="B379" s="9" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -12850,7 +12874,7 @@
     <row r="380" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A380" s="9"/>
       <c r="B380" s="9" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -12875,10 +12899,10 @@
       <c r="S380" s="9"/>
       <c r="T380" s="9"/>
     </row>
-    <row r="381" spans="1:20" s="19" customFormat="1" ht="32" customHeight="1">
+    <row r="381" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A381" s="9"/>
       <c r="B381" s="9" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -12906,7 +12930,7 @@
     <row r="382" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A382" s="9"/>
       <c r="B382" s="9" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -12934,7 +12958,7 @@
     <row r="383" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A383" s="9"/>
       <c r="B383" s="9" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
@@ -12962,7 +12986,7 @@
     <row r="384" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A384" s="9"/>
       <c r="B384" s="9" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -12990,7 +13014,7 @@
     <row r="385" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A385" s="9"/>
       <c r="B385" s="9" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
@@ -13018,7 +13042,7 @@
     <row r="386" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A386" s="9"/>
       <c r="B386" s="9" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
@@ -13046,7 +13070,7 @@
     <row r="387" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A387" s="9"/>
       <c r="B387" s="9" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="C387" s="9"/>
       <c r="D387" s="9"/>
@@ -13072,70 +13096,48 @@
       <c r="T387" s="9"/>
     </row>
     <row r="388" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A388" s="9"/>
-      <c r="B388" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="C388" s="9"/>
-      <c r="D388" s="9"/>
-      <c r="E388" s="9"/>
-      <c r="F388" s="9"/>
-      <c r="G388" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H388" s="9"/>
-      <c r="I388" s="9"/>
-      <c r="J388" s="9"/>
-      <c r="K388" s="9"/>
-      <c r="L388" s="9"/>
-      <c r="M388" s="9"/>
-      <c r="N388" s="9"/>
-      <c r="O388" s="9"/>
-      <c r="P388" s="9"/>
-      <c r="Q388" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R388" s="9"/>
-      <c r="S388" s="9"/>
+      <c r="B388" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="G388" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J388" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="K388" s="11"/>
+      <c r="O388" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q388" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S388" s="11"/>
       <c r="T388" s="9"/>
     </row>
     <row r="389" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A389" s="9"/>
-      <c r="B389" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C389" s="9"/>
-      <c r="D389" s="9"/>
-      <c r="E389" s="9"/>
-      <c r="F389" s="9"/>
-      <c r="G389" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H389" s="9"/>
-      <c r="I389" s="9"/>
-      <c r="J389" s="9"/>
-      <c r="K389" s="9"/>
-      <c r="L389" s="9"/>
-      <c r="M389" s="9"/>
-      <c r="N389" s="9"/>
-      <c r="O389" s="9"/>
-      <c r="P389" s="9"/>
-      <c r="Q389" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R389" s="9"/>
-      <c r="S389" s="9"/>
+      <c r="B389" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G389" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K389" s="11"/>
+      <c r="O389" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q389" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S389" s="11"/>
       <c r="T389" s="9"/>
     </row>
     <row r="390" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B390" s="19" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="G390" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="J390" s="19" t="s">
-        <v>564</v>
       </c>
       <c r="K390" s="11"/>
       <c r="O390" s="19">
@@ -13149,7 +13151,7 @@
     </row>
     <row r="391" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B391" s="19" t="s">
-        <v>565</v>
+        <v>60</v>
       </c>
       <c r="G391" s="19" t="s">
         <v>24</v>
@@ -13166,7 +13168,7 @@
     </row>
     <row r="392" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B392" s="19" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G392" s="19" t="s">
         <v>24</v>
@@ -13183,7 +13185,7 @@
     </row>
     <row r="393" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="B393" s="19" t="s">
-        <v>60</v>
+        <v>553</v>
       </c>
       <c r="G393" s="19" t="s">
         <v>24</v>
@@ -13199,43 +13201,65 @@
       <c r="T393" s="9"/>
     </row>
     <row r="394" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B394" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="G394" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K394" s="11"/>
-      <c r="O394" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q394" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S394" s="11"/>
+      <c r="A394" s="9"/>
+      <c r="B394" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C394" s="9"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H394" s="9"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="9"/>
+      <c r="K394" s="9"/>
+      <c r="L394" s="9"/>
+      <c r="M394" s="9"/>
+      <c r="N394" s="9"/>
+      <c r="O394" s="9"/>
+      <c r="P394" s="9"/>
+      <c r="Q394" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R394" s="9"/>
+      <c r="S394" s="9"/>
       <c r="T394" s="9"/>
     </row>
     <row r="395" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B395" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="G395" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K395" s="11"/>
-      <c r="O395" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q395" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S395" s="11"/>
+      <c r="A395" s="9"/>
+      <c r="B395" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C395" s="9"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H395" s="9"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="9"/>
+      <c r="K395" s="9"/>
+      <c r="L395" s="9"/>
+      <c r="M395" s="9"/>
+      <c r="N395" s="9"/>
+      <c r="O395" s="9"/>
+      <c r="P395" s="9"/>
+      <c r="Q395" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R395" s="9"/>
+      <c r="S395" s="9"/>
       <c r="T395" s="9"/>
     </row>
     <row r="396" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A396" s="9"/>
       <c r="B396" s="9" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C396" s="9"/>
       <c r="D396" s="9"/>
@@ -13263,7 +13287,7 @@
     <row r="397" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A397" s="9"/>
       <c r="B397" s="9" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C397" s="9"/>
       <c r="D397" s="9"/>
@@ -13289,192 +13313,158 @@
       <c r="T397" s="9"/>
     </row>
     <row r="398" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A398" s="9"/>
-      <c r="B398" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C398" s="9"/>
-      <c r="D398" s="9"/>
-      <c r="E398" s="9"/>
-      <c r="F398" s="9"/>
-      <c r="G398" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H398" s="9"/>
-      <c r="I398" s="9"/>
-      <c r="J398" s="9"/>
-      <c r="K398" s="9"/>
-      <c r="L398" s="9"/>
-      <c r="M398" s="9"/>
-      <c r="N398" s="9"/>
-      <c r="O398" s="9"/>
-      <c r="P398" s="9"/>
-      <c r="Q398" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R398" s="9"/>
-      <c r="S398" s="9"/>
+      <c r="B398" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="G398" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K398" s="11"/>
+      <c r="O398" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q398" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S398" s="11"/>
       <c r="T398" s="9"/>
     </row>
     <row r="399" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A399" s="9"/>
-      <c r="B399" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C399" s="9"/>
-      <c r="D399" s="9"/>
-      <c r="E399" s="9"/>
-      <c r="F399" s="9"/>
-      <c r="G399" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H399" s="9"/>
-      <c r="I399" s="9"/>
-      <c r="J399" s="9"/>
-      <c r="K399" s="9"/>
-      <c r="L399" s="9"/>
-      <c r="M399" s="9"/>
-      <c r="N399" s="9"/>
-      <c r="O399" s="9"/>
-      <c r="P399" s="9"/>
-      <c r="Q399" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R399" s="9"/>
-      <c r="S399" s="9"/>
+      <c r="B399" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="G399" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K399" s="11"/>
+      <c r="O399" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S399" s="11"/>
       <c r="T399" s="9"/>
     </row>
     <row r="400" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B400" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="G400" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K400" s="11"/>
-      <c r="O400" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q400" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S400" s="11"/>
+      <c r="A400" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D400" s="9"/>
+      <c r="E400" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F400" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G400" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H400" s="9"/>
+      <c r="I400" s="9"/>
+      <c r="J400" s="9"/>
+      <c r="K400" s="9"/>
+      <c r="L400" s="9"/>
+      <c r="M400" s="9"/>
+      <c r="N400" s="9"/>
+      <c r="O400" s="9"/>
+      <c r="P400" s="9"/>
+      <c r="Q400" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R400" s="9"/>
+      <c r="S400" s="9"/>
       <c r="T400" s="9"/>
     </row>
     <row r="401" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B401" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="G401" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K401" s="11"/>
-      <c r="O401" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q401" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S401" s="11"/>
+      <c r="A401" s="9"/>
+      <c r="B401" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C401" s="9"/>
+      <c r="D401" s="9"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H401" s="9"/>
+      <c r="I401" s="9"/>
+      <c r="J401" s="9"/>
+      <c r="K401" s="9"/>
+      <c r="L401" s="9"/>
+      <c r="M401" s="9"/>
+      <c r="N401" s="9"/>
+      <c r="O401" s="9"/>
+      <c r="P401" s="9"/>
+      <c r="Q401" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R401" s="9"/>
+      <c r="S401" s="9"/>
       <c r="T401" s="9"/>
     </row>
     <row r="402" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A402" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="B402" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C402" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="D402" s="9"/>
-      <c r="E402" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F402" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G402" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H402" s="9"/>
-      <c r="I402" s="9"/>
-      <c r="J402" s="9"/>
-      <c r="K402" s="9"/>
-      <c r="L402" s="9"/>
-      <c r="M402" s="9"/>
-      <c r="N402" s="9"/>
-      <c r="O402" s="9"/>
-      <c r="P402" s="9"/>
-      <c r="Q402" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R402" s="9"/>
-      <c r="S402" s="9"/>
+      <c r="B402" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="G402" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K402" s="11"/>
+      <c r="O402" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q402" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S402" s="11"/>
       <c r="T402" s="9"/>
     </row>
     <row r="403" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A403" s="9"/>
-      <c r="B403" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C403" s="9"/>
-      <c r="D403" s="9"/>
-      <c r="E403" s="9"/>
-      <c r="F403" s="9"/>
-      <c r="G403" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H403" s="9"/>
-      <c r="I403" s="9"/>
-      <c r="J403" s="9"/>
-      <c r="K403" s="9"/>
-      <c r="L403" s="9"/>
-      <c r="M403" s="9"/>
-      <c r="N403" s="9"/>
-      <c r="O403" s="9"/>
-      <c r="P403" s="9"/>
-      <c r="Q403" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R403" s="9"/>
-      <c r="S403" s="9"/>
+      <c r="B403" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="G403" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K403" s="11"/>
+      <c r="O403" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q403" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S403" s="11"/>
       <c r="T403" s="9"/>
     </row>
-    <row r="404" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B404" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="G404" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K404" s="11"/>
-      <c r="O404" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q404" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S404" s="11"/>
-      <c r="T404" s="9"/>
-    </row>
-    <row r="405" spans="1:20" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="B405" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="G405" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K405" s="11"/>
-      <c r="O405" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q405" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S405" s="11"/>
-      <c r="T405" s="9"/>
+    <row r="404" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
+      <c r="B404" s="11"/>
+      <c r="Q404" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" s="9" customFormat="1">
+      <c r="B405" s="11"/>
+      <c r="G405" s="10"/>
+      <c r="H405" s="10"/>
+      <c r="I405" s="11"/>
+      <c r="J405" s="10"/>
+      <c r="K405" s="10"/>
+      <c r="L405" s="10"/>
+      <c r="M405" s="10">
+        <v>1</v>
+      </c>
+      <c r="N405" s="10"/>
+      <c r="O405" s="10"/>
+      <c r="P405" s="10"/>
+      <c r="Q405" s="10"/>
     </row>
     <row r="406" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B406" s="11"/>
@@ -13482,21 +13472,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:20" s="9" customFormat="1">
+    <row r="407" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B407" s="11"/>
-      <c r="G407" s="10"/>
-      <c r="H407" s="10"/>
-      <c r="I407" s="11"/>
-      <c r="J407" s="10"/>
-      <c r="K407" s="10"/>
-      <c r="L407" s="10"/>
-      <c r="M407" s="10">
-        <v>1</v>
-      </c>
-      <c r="N407" s="10"/>
-      <c r="O407" s="10"/>
-      <c r="P407" s="10"/>
-      <c r="Q407" s="10"/>
+      <c r="Q407" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="408" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B408" s="11"/>
@@ -13504,11 +13484,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="409" spans="1:20" s="9" customFormat="1">
       <c r="B409" s="11"/>
-      <c r="Q409" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E409" s="10"/>
+      <c r="F409" s="10"/>
+      <c r="G409" s="10"/>
+      <c r="H409" s="10"/>
+      <c r="I409" s="10"/>
+      <c r="J409" s="10"/>
+      <c r="K409" s="10"/>
+      <c r="L409" s="10"/>
+      <c r="M409" s="10"/>
+      <c r="N409" s="10"/>
+      <c r="O409" s="10"/>
+      <c r="P409" s="10"/>
+      <c r="Q409" s="10"/>
     </row>
     <row r="410" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
       <c r="B410" s="11"/>
@@ -13518,6 +13508,8 @@
     </row>
     <row r="411" spans="1:20" s="9" customFormat="1">
       <c r="B411" s="11"/>
+      <c r="C411" s="10"/>
+      <c r="D411" s="18"/>
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
       <c r="G411" s="10"/>
@@ -13532,51 +13524,33 @@
       <c r="P411" s="10"/>
       <c r="Q411" s="10"/>
     </row>
-    <row r="412" spans="1:20" s="9" customFormat="1" ht="16" customHeight="1">
+    <row r="412" spans="1:20" s="9" customFormat="1">
       <c r="B412" s="11"/>
-      <c r="Q412" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="C412" s="10"/>
+      <c r="D412" s="18"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
+      <c r="H412" s="10"/>
+      <c r="I412" s="10"/>
+      <c r="J412" s="10"/>
+      <c r="K412" s="10"/>
+      <c r="L412" s="10"/>
+      <c r="M412" s="10"/>
+      <c r="N412" s="10"/>
+      <c r="O412" s="10"/>
+      <c r="P412" s="10"/>
+      <c r="Q412" s="10"/>
     </row>
     <row r="413" spans="1:20" s="9" customFormat="1">
       <c r="B413" s="11"/>
-      <c r="C413" s="10"/>
-      <c r="D413" s="18"/>
-      <c r="E413" s="10"/>
-      <c r="F413" s="10"/>
-      <c r="G413" s="10"/>
-      <c r="H413" s="10"/>
-      <c r="I413" s="10"/>
-      <c r="J413" s="10"/>
-      <c r="K413" s="10"/>
-      <c r="L413" s="10"/>
-      <c r="M413" s="10"/>
-      <c r="N413" s="10"/>
-      <c r="O413" s="10"/>
-      <c r="P413" s="10"/>
-      <c r="Q413" s="10"/>
+      <c r="R413" s="10"/>
     </row>
     <row r="414" spans="1:20" s="9" customFormat="1">
       <c r="B414" s="11"/>
-      <c r="C414" s="10"/>
-      <c r="D414" s="18"/>
-      <c r="E414" s="10"/>
-      <c r="F414" s="10"/>
-      <c r="G414" s="10"/>
-      <c r="H414" s="10"/>
-      <c r="I414" s="10"/>
-      <c r="J414" s="10"/>
-      <c r="K414" s="10"/>
-      <c r="L414" s="10"/>
-      <c r="M414" s="10"/>
-      <c r="N414" s="10"/>
-      <c r="O414" s="10"/>
-      <c r="P414" s="10"/>
-      <c r="Q414" s="10"/>
     </row>
     <row r="415" spans="1:20" s="9" customFormat="1">
       <c r="B415" s="11"/>
-      <c r="R415" s="10"/>
     </row>
     <row r="416" spans="1:20" s="9" customFormat="1">
       <c r="B416" s="11"/>
@@ -13597,21 +13571,53 @@
       <c r="B421" s="11"/>
     </row>
     <row r="422" spans="1:19" s="9" customFormat="1">
+      <c r="A422" s="11"/>
       <c r="B422" s="11"/>
+      <c r="S422" s="10"/>
     </row>
     <row r="423" spans="1:19" s="9" customFormat="1">
       <c r="B423" s="11"/>
+      <c r="R423" s="10"/>
     </row>
     <row r="424" spans="1:19" s="9" customFormat="1">
-      <c r="A424" s="11"/>
       <c r="B424" s="11"/>
-      <c r="S424" s="10"/>
+      <c r="C424" s="10"/>
+      <c r="D424" s="18"/>
+      <c r="E424" s="10"/>
+      <c r="F424" s="10"/>
+      <c r="G424" s="10"/>
+      <c r="H424" s="10"/>
+      <c r="I424" s="10"/>
+      <c r="J424" s="10"/>
+      <c r="K424" s="10"/>
+      <c r="L424" s="10"/>
+      <c r="M424" s="10"/>
+      <c r="N424" s="10"/>
+      <c r="O424" s="10"/>
+      <c r="P424" s="10"/>
+      <c r="Q424" s="10"/>
     </row>
     <row r="425" spans="1:19" s="9" customFormat="1">
       <c r="B425" s="11"/>
+      <c r="C425" s="10"/>
+      <c r="D425" s="18"/>
+      <c r="E425" s="10"/>
+      <c r="F425" s="10"/>
+      <c r="G425" s="10"/>
+      <c r="H425" s="10"/>
+      <c r="I425" s="10"/>
+      <c r="J425" s="10"/>
+      <c r="K425" s="10"/>
+      <c r="L425" s="10"/>
+      <c r="M425" s="10"/>
+      <c r="N425" s="10"/>
+      <c r="O425" s="10"/>
+      <c r="P425" s="10"/>
+      <c r="Q425" s="10"/>
       <c r="R425" s="10"/>
     </row>
     <row r="426" spans="1:19" s="9" customFormat="1">
+      <c r="A426" s="10"/>
       <c r="B426" s="11"/>
       <c r="C426" s="10"/>
       <c r="D426" s="18"/>
@@ -13628,6 +13634,8 @@
       <c r="O426" s="10"/>
       <c r="P426" s="10"/>
       <c r="Q426" s="10"/>
+      <c r="R426" s="10"/>
+      <c r="S426" s="10"/>
     </row>
     <row r="427" spans="1:19" s="9" customFormat="1">
       <c r="B427" s="11"/>
@@ -13648,48 +13656,8 @@
       <c r="Q427" s="10"/>
       <c r="R427" s="10"/>
     </row>
-    <row r="428" spans="1:19" s="9" customFormat="1">
-      <c r="A428" s="10"/>
+    <row r="428" spans="1:19">
       <c r="B428" s="11"/>
-      <c r="C428" s="10"/>
-      <c r="D428" s="18"/>
-      <c r="E428" s="10"/>
-      <c r="F428" s="10"/>
-      <c r="G428" s="10"/>
-      <c r="H428" s="10"/>
-      <c r="I428" s="10"/>
-      <c r="J428" s="10"/>
-      <c r="K428" s="10"/>
-      <c r="L428" s="10"/>
-      <c r="M428" s="10"/>
-      <c r="N428" s="10"/>
-      <c r="O428" s="10"/>
-      <c r="P428" s="10"/>
-      <c r="Q428" s="10"/>
-      <c r="R428" s="10"/>
-      <c r="S428" s="10"/>
-    </row>
-    <row r="429" spans="1:19" s="9" customFormat="1">
-      <c r="B429" s="11"/>
-      <c r="C429" s="10"/>
-      <c r="D429" s="18"/>
-      <c r="E429" s="10"/>
-      <c r="F429" s="10"/>
-      <c r="G429" s="10"/>
-      <c r="H429" s="10"/>
-      <c r="I429" s="10"/>
-      <c r="J429" s="10"/>
-      <c r="K429" s="10"/>
-      <c r="L429" s="10"/>
-      <c r="M429" s="10"/>
-      <c r="N429" s="10"/>
-      <c r="O429" s="10"/>
-      <c r="P429" s="10"/>
-      <c r="Q429" s="10"/>
-      <c r="R429" s="10"/>
-    </row>
-    <row r="430" spans="1:19">
-      <c r="B430" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13717,16 +13685,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
@@ -13734,10 +13702,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1">
@@ -13745,10 +13713,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1">
@@ -13756,13 +13724,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1">
@@ -13770,10 +13738,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1">
@@ -13781,13 +13749,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1">
@@ -13795,10 +13763,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1">
@@ -13806,10 +13774,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1">
@@ -13817,10 +13785,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1">
@@ -13828,10 +13796,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1">
@@ -13839,10 +13807,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
@@ -13850,10 +13818,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1">
@@ -13861,10 +13829,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1">
@@ -13872,10 +13840,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1">
@@ -13883,10 +13851,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1">
@@ -13894,10 +13862,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
@@ -13905,10 +13873,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1">
@@ -13916,10 +13884,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1">
@@ -13927,10 +13895,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -13974,16 +13942,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -13998,18 +13966,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -14017,13 +13985,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -14031,16 +13999,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -14048,10 +14016,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -14059,13 +14027,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -14073,16 +14041,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -14090,13 +14058,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -14104,13 +14072,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -14121,13 +14089,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -14168,37 +14136,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14206,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -14217,16 +14185,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C3" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14234,16 +14202,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C4" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14251,16 +14219,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14268,16 +14236,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14285,16 +14253,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14302,16 +14270,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14319,16 +14287,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14336,16 +14304,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14353,16 +14321,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14370,7 +14338,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -14382,13 +14350,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="J12" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="K12" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14396,7 +14364,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -14408,13 +14376,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J13" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K13" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14422,7 +14390,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -14434,13 +14402,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J14" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K14" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14448,7 +14416,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14460,13 +14428,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J15" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K15" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14474,7 +14442,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -14486,13 +14454,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J16" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K16" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14500,7 +14468,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -14512,13 +14480,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J17" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K17" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14526,7 +14494,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -14538,13 +14506,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J18" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K18" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14552,7 +14520,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -14564,13 +14532,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J19" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K19" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -14578,7 +14546,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -14590,13 +14558,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J20" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K20" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -14604,7 +14572,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -14616,13 +14584,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="J21" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="K21" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -14630,7 +14598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -14642,13 +14610,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="J22" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="K22" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -14656,7 +14624,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -14668,13 +14636,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J23" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K23" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -14682,7 +14650,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -14694,13 +14662,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J24" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K24" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -14708,7 +14676,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -14720,13 +14688,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J25" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K25" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -14734,7 +14702,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -14746,13 +14714,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J26" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K26" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -14760,7 +14728,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -14772,13 +14740,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J27" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K27" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -14786,7 +14754,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -14798,13 +14766,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J28" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K28" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -14812,7 +14780,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -14824,13 +14792,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J29" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K29" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -14838,7 +14806,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -14850,13 +14818,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="J30" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K30" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD8931D-E3AF-6943-BF18-C44C54B2A2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BB98A-3546-4847-A822-3BF11F9456E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="812">
   <si>
     <t>ID</t>
   </si>
@@ -869,45 +869,6 @@
     <t>Hazardous drinking</t>
   </si>
   <si>
-    <t>Health behaviour change</t>
-  </si>
-  <si>
-    <t>Heavy drinking</t>
-  </si>
-  <si>
-    <t>Heavy drinking days</t>
-  </si>
-  <si>
-    <t>Heavy episodic drinking</t>
-  </si>
-  <si>
-    <t>High-risk behaviour</t>
-  </si>
-  <si>
-    <t>High-risk drinker</t>
-  </si>
-  <si>
-    <t>High-risk prescribing</t>
-  </si>
-  <si>
-    <t>Illicit cannabinoid use</t>
-  </si>
-  <si>
-    <t>Illicit drug use</t>
-  </si>
-  <si>
-    <t>Illicit psychoactive drug use</t>
-  </si>
-  <si>
-    <t>Individual level e-cigarette use</t>
-  </si>
-  <si>
-    <t>Initiation of behaviour</t>
-  </si>
-  <si>
-    <t>Is this related to 'cessation of behaviour'?</t>
-  </si>
-  <si>
     <t>Injecting drug use</t>
   </si>
   <si>
@@ -1397,48 +1358,6 @@
     <t>Smokeless tobacco use</t>
   </si>
   <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Substance use that involves using a combustible product to inhale smoke.</t>
-  </si>
-  <si>
-    <t>Smoking cannabis</t>
-  </si>
-  <si>
-    <t>Smoking cessation attempt</t>
-  </si>
-  <si>
-    <t>Smoking cessation duration</t>
-  </si>
-  <si>
-    <t>Smoking cessation success</t>
-  </si>
-  <si>
-    <t>Smoking initiation</t>
-  </si>
-  <si>
-    <t>Smoking intensity</t>
-  </si>
-  <si>
-    <t>Smoking prevalence</t>
-  </si>
-  <si>
-    <t>Smoking reduction</t>
-  </si>
-  <si>
-    <t>Smoking stereotypy</t>
-  </si>
-  <si>
-    <t>Smoking trajectory</t>
-  </si>
-  <si>
-    <t>Spending by a person</t>
-  </si>
-  <si>
-    <t>Stable alcohol use</t>
-  </si>
-  <si>
     <t>Stimulant drug use</t>
   </si>
   <si>
@@ -2102,9 +2021,6 @@
     <t>A behaviour pattern that continues over an extended period of time.</t>
   </si>
   <si>
-    <t>That part of a behaviour process in which the behaviour comes into existence.</t>
-  </si>
-  <si>
     <t>Absence from work as a result of an injury.</t>
   </si>
   <si>
@@ -2282,9 +2198,6 @@
     <t xml:space="preserve">Number of years smoking does not provide any indication of amount or frequnecy of smoking. </t>
   </si>
   <si>
-    <t>A tobacco use behaviour that involves ingesting using smokeless tobacco.</t>
-  </si>
-  <si>
     <t>Behaviour in which a person consumes, ingests or takes an entity into themselves.</t>
   </si>
   <si>
@@ -2333,9 +2246,6 @@
     <t>Informal definition</t>
   </si>
   <si>
-    <t xml:space="preserve">An e-cigarette use pattern that involves using e-cigarettes on a non-daily basis. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Use of an e-cigarette which is less than daily. </t>
   </si>
   <si>
@@ -2369,9 +2279,6 @@
     <t>Non daily cigarette use</t>
   </si>
   <si>
-    <t xml:space="preserve">A tobacco use pattern that involves smoking cigarettes on a non daily basis. </t>
-  </si>
-  <si>
     <t xml:space="preserve">An e-cigarette use pattern that indicates a person has used an e-cigarette in the 30-days prior to the time of asking. </t>
   </si>
   <si>
@@ -2397,6 +2304,162 @@
   </si>
   <si>
     <t xml:space="preserve">Trial use of an e-cigarette without frequent or committed usage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that involves smoking cigarettes less frequent than once per day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An e-cigarette use pattern that involves using e-cigarettes less frequent than a daily basis.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People may experiment with when they first encounter e-cigarettes but not all will go on to become regular users. </t>
+  </si>
+  <si>
+    <t>Current smokeless tobacco use</t>
+  </si>
+  <si>
+    <t>Non daily smokeless tobacco use</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco daily use</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco past 30-day use</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco past 7-day use</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco past 1-month use</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco past 1-year use</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco demand</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco ever use</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco puchase</t>
+  </si>
+  <si>
+    <t>Smokeless tobacco regular use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates current use of smokeless tobacco . </t>
+  </si>
+  <si>
+    <t>A tobacco use pattern that involves use of smokeless tobacco at least once per day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 30-days prior to the time of asking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 7-days prior to the time of asking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-month prior to the time of asking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-year prior to the time of asking. </t>
+  </si>
+  <si>
+    <t>A product demand in which the product is smokeless tobacco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of smokeless tobacco product should also be defined. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ever use in which the product is a smokeless tobacco product. </t>
+  </si>
+  <si>
+    <t>A product purchase in which the product is smokeless tobacco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that involves regular use of smokeless tobacco. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that involves using smokeless tobacco less frequent than once per day. </t>
+  </si>
+  <si>
+    <t>Current heated tobacco containing productuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates current use of heated tobacco containing product. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing productin the 30-days prior to the time of asking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing productin the 7-days prior to the time of asking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing productin the 1-month prior to the time of asking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing productin the 1-year prior to the time of asking. </t>
+  </si>
+  <si>
+    <t>Non daily heated tobacco containing productuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that involves using heated tobacco containing productless frequent than once per day. </t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productdaily use</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productpast 30-day use</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productpast 7-day use</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productpast 1-month use</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productpast 1-year use</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing product demand</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productpuchase</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productregular use</t>
+  </si>
+  <si>
+    <t>Heated tobacco containing productuse</t>
+  </si>
+  <si>
+    <t>A tobacco use behaviour that involves using a heated tobacco containing product.</t>
+  </si>
+  <si>
+    <t>A tobacco use behaviour that involves ingesting smokeless tobacco.</t>
+  </si>
+  <si>
+    <t>A tobacco use pattern that involves use of a heated tobacco containing productat least once per day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A product demand in which the product is heated tobacco containing products. </t>
+  </si>
+  <si>
+    <t>Ever use in which the product is a heated tobacco containing product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A product purchase in which the product is a heated tobacco containing product. </t>
+  </si>
+  <si>
+    <t>Heated tobacco containing product ever use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that involves regular use of a heated tobacco containing product. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of heated tobacco containing product should also be defined. </t>
   </si>
 </sst>
 </file>
@@ -2961,18 +3024,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y435"/>
+  <dimension ref="A1:Y433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q161" sqref="Q161"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K347" sqref="K347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="8" customWidth="1"/>
-    <col min="3" max="4" width="64.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="91" style="8" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="30" style="12" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="8" customWidth="1"/>
@@ -3004,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>768</v>
+        <v>739</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -3147,32 +3211,32 @@
     </row>
     <row r="5" spans="1:25" s="40" customFormat="1" ht="32" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>763</v>
+        <v>734</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>764</v>
+        <v>735</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="H5" s="40" t="s">
-        <v>765</v>
+        <v>736</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>43</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="S5" s="42" t="s">
-        <v>766</v>
+        <v>737</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>767</v>
+        <v>738</v>
       </c>
       <c r="W5" s="40" t="s">
         <v>26</v>
@@ -3190,10 +3254,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>39</v>
@@ -3205,14 +3269,14 @@
         <v>37</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="L6" s="27"/>
       <c r="P6" s="26">
         <v>1</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R6" s="26" t="s">
         <v>27</v>
@@ -3349,7 +3413,7 @@
         <v>26</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>27</v>
@@ -3382,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R11" s="26" t="s">
         <v>27</v>
@@ -3393,25 +3457,25 @@
     <row r="12" spans="1:25" s="26" customFormat="1" ht="32" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="P12" s="26" t="s">
         <v>26</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R12" s="26" t="s">
         <v>27</v>
@@ -3433,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>24</v>
@@ -3445,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R13" s="24" t="s">
         <v>27</v>
@@ -3513,7 +3577,7 @@
         <v>74</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>23</v>
@@ -3554,7 +3618,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>23</v>
@@ -4183,7 +4247,7 @@
     <row r="36" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -4256,7 +4320,7 @@
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="10" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>23</v>
@@ -4278,7 +4342,7 @@
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="10" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
@@ -4300,7 +4364,7 @@
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="10" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
@@ -4415,7 +4479,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12" t="s">
@@ -4472,12 +4536,12 @@
         <v>144</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>145</v>
@@ -4513,7 +4577,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>149</v>
@@ -4794,11 +4858,11 @@
         <v>159</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="32" t="s">
-        <v>756</v>
+        <v>727</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="32" t="s">
@@ -4813,7 +4877,7 @@
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R57" s="32" t="s">
         <v>27</v>
@@ -5047,18 +5111,18 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
     </row>
-    <row r="66" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="66" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="32"/>
       <c r="B66" s="26" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
       <c r="F66" s="32" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>43</v>
@@ -5082,15 +5146,15 @@
       <c r="T66" s="32"/>
       <c r="U66" s="32"/>
     </row>
-    <row r="67" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="67" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="B67" s="26" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>43</v>
@@ -5103,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R67" s="26" t="s">
         <v>27</v>
@@ -5111,15 +5175,15 @@
       <c r="T67" s="19"/>
       <c r="U67" s="32"/>
     </row>
-    <row r="68" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="68" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="B68" s="26" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>43</v>
@@ -5132,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R68" s="26" t="s">
         <v>27</v>
@@ -5142,13 +5206,13 @@
     </row>
     <row r="69" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B69" s="26" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>43</v>
@@ -5161,7 +5225,7 @@
         <v>26</v>
       </c>
       <c r="Q69" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R69" s="26" t="s">
         <v>27</v>
@@ -5171,13 +5235,13 @@
     </row>
     <row r="70" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B70" s="26" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>43</v>
@@ -5190,7 +5254,7 @@
         <v>26</v>
       </c>
       <c r="Q70" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R70" s="26" t="s">
         <v>27</v>
@@ -5200,14 +5264,14 @@
     </row>
     <row r="71" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B71" s="26" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="D71" s="33"/>
       <c r="F71" s="26" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>43</v>
@@ -5220,7 +5284,7 @@
         <v>26</v>
       </c>
       <c r="Q71" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R71" s="26" t="s">
         <v>27</v>
@@ -5230,13 +5294,13 @@
     </row>
     <row r="72" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B72" s="26" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>43</v>
@@ -5249,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R72" s="26" t="s">
         <v>27</v>
@@ -5257,18 +5321,18 @@
       <c r="T72" s="19"/>
       <c r="U72" s="32"/>
     </row>
-    <row r="73" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="73" spans="1:21" s="35" customFormat="1" ht="17" customHeight="1">
       <c r="A73" s="34"/>
       <c r="B73" s="34" t="s">
         <v>174</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>43</v>
@@ -5279,7 +5343,7 @@
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
       <c r="K73" s="34" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
@@ -5289,7 +5353,7 @@
         <v>26</v>
       </c>
       <c r="Q73" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R73" s="34" t="s">
         <v>27</v>
@@ -5303,12 +5367,12 @@
         <v>169</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="34" t="s">
@@ -5317,7 +5381,7 @@
       <c r="I74" s="34"/>
       <c r="J74" s="34"/>
       <c r="K74" s="34" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
@@ -5327,7 +5391,7 @@
         <v>26</v>
       </c>
       <c r="Q74" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R74" s="34" t="s">
         <v>27</v>
@@ -5338,15 +5402,15 @@
     <row r="75" spans="1:21" s="35" customFormat="1" ht="33.75" customHeight="1">
       <c r="A75" s="34"/>
       <c r="B75" s="34" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
       <c r="F75" s="34" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="G75" s="34"/>
       <c r="H75" s="34" t="s">
@@ -5356,7 +5420,7 @@
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
       <c r="L75" s="34" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -5365,7 +5429,7 @@
         <v>26</v>
       </c>
       <c r="Q75" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R75" s="34" t="s">
         <v>27</v>
@@ -5376,10 +5440,10 @@
     <row r="76" spans="1:21" s="35" customFormat="1" ht="33.75" customHeight="1">
       <c r="A76" s="34"/>
       <c r="B76" s="34" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -5403,7 +5467,7 @@
         <v>26</v>
       </c>
       <c r="Q76" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R76" s="34" t="s">
         <v>27</v>
@@ -5417,12 +5481,12 @@
         <v>170</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G77" s="34" t="s">
         <v>43</v>
@@ -5433,7 +5497,7 @@
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
       <c r="K77" s="34" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="L77" s="34"/>
       <c r="M77" s="34"/>
@@ -5443,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="Q77" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R77" s="34" t="s">
         <v>27</v>
@@ -5454,15 +5518,15 @@
     <row r="78" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="A78" s="34"/>
       <c r="B78" s="34" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="G78" s="34" t="s">
         <v>43</v>
@@ -5486,10 +5550,10 @@
         <v>171</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>43</v>
@@ -5498,14 +5562,14 @@
         <v>24</v>
       </c>
       <c r="K79" s="35" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="L79" s="36"/>
       <c r="P79" s="35">
         <v>1</v>
       </c>
       <c r="Q79" s="35" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R79" s="35" t="s">
         <v>27</v>
@@ -5517,10 +5581,10 @@
         <v>172</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>43</v>
@@ -5533,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="35" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R80" s="35" t="s">
         <v>27</v>
@@ -5546,12 +5610,12 @@
         <v>173</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
       <c r="F81" s="34" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G81" s="34" t="s">
         <v>43</v>
@@ -5570,7 +5634,7 @@
         <v>26</v>
       </c>
       <c r="Q81" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R81" s="34" t="s">
         <v>27</v>
@@ -5581,15 +5645,15 @@
     <row r="82" spans="1:20" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="A82" s="34"/>
       <c r="B82" s="34" t="s">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D82" s="34"/>
       <c r="E82" s="34"/>
       <c r="F82" s="34" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>43</v>
@@ -5608,7 +5672,7 @@
         <v>26</v>
       </c>
       <c r="Q82" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R82" s="34" t="s">
         <v>27</v>
@@ -5904,7 +5968,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
@@ -6183,10 +6247,10 @@
         <v>203</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>24</v>
@@ -6206,12 +6270,12 @@
         <v>204</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="D104" s="32"/>
       <c r="E104" s="32"/>
       <c r="F104" s="32" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>43</v>
@@ -6239,10 +6303,10 @@
         <v>205</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G105" s="26" t="s">
         <v>43</v>
@@ -6251,14 +6315,14 @@
         <v>24</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="L105" s="19"/>
       <c r="P105" s="26">
         <v>1</v>
       </c>
       <c r="Q105" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R105" s="26" t="s">
         <v>27</v>
@@ -6271,12 +6335,12 @@
         <v>206</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="D106" s="32"/>
       <c r="E106" s="32"/>
       <c r="F106" s="32" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="G106" s="32"/>
       <c r="H106" s="32" t="s">
@@ -6331,12 +6395,12 @@
         <v>208</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="D108" s="32"/>
       <c r="E108" s="32"/>
       <c r="F108" s="32" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>43</v>
@@ -6347,7 +6411,7 @@
       <c r="I108" s="32"/>
       <c r="J108" s="32"/>
       <c r="K108" s="32" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="L108" s="32"/>
       <c r="M108" s="32"/>
@@ -6357,7 +6421,7 @@
         <v>26</v>
       </c>
       <c r="Q108" s="32" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R108" s="32" t="s">
         <v>27</v>
@@ -6371,12 +6435,12 @@
         <v>209</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="D109" s="32"/>
       <c r="E109" s="32"/>
       <c r="F109" s="32" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="G109" s="32"/>
       <c r="H109" s="32" t="s">
@@ -6405,7 +6469,7 @@
         <v>211</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -6418,13 +6482,13 @@
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="18" t="s">
-        <v>688</v>
+        <v>661</v>
       </c>
       <c r="K110" s="18" t="s">
         <v>248</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="M110" s="18" t="s">
         <v>212</v>
@@ -6448,10 +6512,10 @@
         <v>214</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -6464,7 +6528,7 @@
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="18" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="K111" s="18"/>
       <c r="L111" s="16" t="s">
@@ -6916,7 +6980,7 @@
         <v>234</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>235</v>
@@ -6951,15 +7015,15 @@
     <row r="128" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="A128" s="32"/>
       <c r="B128" s="32" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="D128" s="32"/>
       <c r="E128" s="32"/>
       <c r="F128" s="32" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="G128" s="32"/>
       <c r="H128" s="32"/>
@@ -7099,7 +7163,7 @@
         <v>240</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="32" t="s">
@@ -7114,7 +7178,7 @@
       <c r="I133" s="32"/>
       <c r="J133" s="32"/>
       <c r="K133" s="32" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="L133" s="32"/>
       <c r="M133" s="32"/>
@@ -7124,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="Q133" s="32" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R133" s="32" t="s">
         <v>27</v>
@@ -7138,7 +7202,7 @@
         <v>241</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="F134" s="26" t="s">
         <v>63</v>
@@ -7157,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R134" s="26" t="s">
         <v>27</v>
@@ -7170,10 +7234,10 @@
         <v>242</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="G135" s="26" t="s">
         <v>43</v>
@@ -7189,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="Q135" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R135" s="26" t="s">
         <v>27</v>
@@ -7202,15 +7266,15 @@
         <v>243</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="24" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="G136" s="24" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>24</v>
@@ -7335,13 +7399,13 @@
     </row>
     <row r="142" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B142" s="26" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="G142" s="26" t="s">
         <v>43</v>
@@ -7356,12 +7420,12 @@
         <v>202</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
       <c r="D143" s="32"/>
       <c r="E143" s="32"/>
       <c r="F143" s="32" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G143" s="32" t="s">
         <v>43</v>
@@ -7387,13 +7451,13 @@
     </row>
     <row r="144" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B144" s="26" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G144" s="26" t="s">
         <v>43</v>
@@ -7406,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="Q144" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R144" s="26" t="s">
         <v>27</v>
@@ -7416,13 +7480,13 @@
     </row>
     <row r="145" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B145" s="26" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G145" s="26" t="s">
         <v>43</v>
@@ -7435,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="Q145" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R145" s="26" t="s">
         <v>27</v>
@@ -7445,13 +7509,13 @@
     </row>
     <row r="146" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B146" s="26" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>783</v>
+        <v>752</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G146" s="26" t="s">
         <v>43</v>
@@ -7464,7 +7528,7 @@
         <v>26</v>
       </c>
       <c r="Q146" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R146" s="26" t="s">
         <v>27</v>
@@ -7474,13 +7538,13 @@
     </row>
     <row r="147" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B147" s="26" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G147" s="26" t="s">
         <v>43</v>
@@ -7493,7 +7557,7 @@
         <v>26</v>
       </c>
       <c r="Q147" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R147" s="26" t="s">
         <v>27</v>
@@ -7503,14 +7567,14 @@
     </row>
     <row r="148" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B148" s="26" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>785</v>
+        <v>754</v>
       </c>
       <c r="D148" s="33"/>
       <c r="F148" s="26" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G148" s="26" t="s">
         <v>43</v>
@@ -7523,7 +7587,7 @@
         <v>26</v>
       </c>
       <c r="Q148" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R148" s="26" t="s">
         <v>27</v>
@@ -7533,13 +7597,13 @@
     </row>
     <row r="149" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B149" s="26" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="G149" s="26" t="s">
         <v>43</v>
@@ -7552,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="Q149" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R149" s="26" t="s">
         <v>27</v>
@@ -7563,15 +7627,15 @@
     <row r="150" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="34"/>
       <c r="B150" s="34" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="D150" s="34"/>
       <c r="E150" s="34"/>
       <c r="F150" s="34" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="G150" s="34" t="s">
         <v>43</v>
@@ -7582,7 +7646,7 @@
       <c r="I150" s="34"/>
       <c r="J150" s="34"/>
       <c r="K150" s="34" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="L150" s="34"/>
       <c r="M150" s="34"/>
@@ -7592,7 +7656,7 @@
         <v>26</v>
       </c>
       <c r="Q150" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R150" s="34" t="s">
         <v>27</v>
@@ -7603,15 +7667,15 @@
     <row r="151" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="A151" s="34"/>
       <c r="B151" s="34" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="D151" s="34"/>
       <c r="E151" s="34"/>
       <c r="F151" s="34" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="G151" s="34" t="s">
         <v>43</v>
@@ -7622,7 +7686,7 @@
       <c r="I151" s="34"/>
       <c r="J151" s="34"/>
       <c r="K151" s="34" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="L151" s="34"/>
       <c r="M151" s="34"/>
@@ -7632,7 +7696,7 @@
         <v>26</v>
       </c>
       <c r="Q151" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R151" s="34" t="s">
         <v>27</v>
@@ -7643,15 +7707,15 @@
     <row r="152" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="A152" s="34"/>
       <c r="B152" s="34" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="D152" s="34"/>
       <c r="E152" s="34"/>
       <c r="F152" s="34" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G152" s="34" t="s">
         <v>43</v>
@@ -7662,7 +7726,7 @@
       <c r="I152" s="34"/>
       <c r="J152" s="34"/>
       <c r="K152" s="34" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="L152" s="34"/>
       <c r="M152" s="34"/>
@@ -7672,7 +7736,7 @@
         <v>26</v>
       </c>
       <c r="Q152" s="34" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R152" s="34" t="s">
         <v>27</v>
@@ -7683,15 +7747,15 @@
     <row r="153" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="34"/>
       <c r="B153" s="34" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="D153" s="34"/>
       <c r="E153" s="34"/>
       <c r="F153" s="34" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="G153" s="34" t="s">
         <v>43</v>
@@ -7708,7 +7772,7 @@
         <v>26</v>
       </c>
       <c r="Q153" s="34" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="R153" s="34" t="s">
         <v>27</v>
@@ -7718,13 +7782,13 @@
     </row>
     <row r="154" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="B154" s="35" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
       <c r="F154" s="35" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="G154" s="35" t="s">
         <v>43</v>
@@ -7733,14 +7797,14 @@
         <v>24</v>
       </c>
       <c r="K154" s="35" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="L154" s="36"/>
       <c r="P154" s="35">
         <v>1</v>
       </c>
       <c r="Q154" s="35" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R154" s="35" t="s">
         <v>27</v>
@@ -7749,13 +7813,13 @@
     </row>
     <row r="155" spans="1:21" s="35" customFormat="1" ht="27.75" customHeight="1">
       <c r="B155" s="35" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="F155" s="35" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="G155" s="35" t="s">
         <v>43</v>
@@ -7768,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="Q155" s="35" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R155" s="35" t="s">
         <v>27</v>
@@ -7778,15 +7842,15 @@
     <row r="156" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="A156" s="34"/>
       <c r="B156" s="34" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
       <c r="D156" s="34"/>
       <c r="E156" s="34"/>
       <c r="F156" s="34" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G156" s="34" t="s">
         <v>43</v>
@@ -7812,7 +7876,7 @@
     <row r="157" spans="1:21" s="38" customFormat="1" ht="16" customHeight="1">
       <c r="A157" s="37"/>
       <c r="B157" s="37" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
@@ -7833,56 +7897,65 @@
       <c r="S157" s="37"/>
       <c r="T157" s="37"/>
     </row>
-    <row r="158" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B158" s="12" t="s">
+    <row r="158" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B158" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="G158" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K158" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="L158" s="19"/>
+      <c r="M158" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="P158" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R158" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T158" s="19"/>
+      <c r="U158" s="32"/>
+    </row>
+    <row r="159" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B159" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H158" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L158" s="9"/>
-      <c r="P158" s="24">
+      <c r="H159" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L159" s="9"/>
+      <c r="P159" s="24">
         <v>1</v>
       </c>
-      <c r="R158" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T158" s="9"/>
-      <c r="U158" s="12"/>
-    </row>
-    <row r="159" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
-      <c r="O159" s="12"/>
-      <c r="P159" s="12"/>
-      <c r="Q159" s="12"/>
-      <c r="R159" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S159" s="12"/>
-      <c r="T159" s="12"/>
+      <c r="R159" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T159" s="9"/>
       <c r="U159" s="12"/>
     </row>
     <row r="160" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A160" s="12"/>
       <c r="B160" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
@@ -7908,97 +7981,99 @@
       <c r="T160" s="12"/>
       <c r="U160" s="12"/>
     </row>
-    <row r="161" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A161" s="32"/>
-      <c r="B161" s="26" t="s">
+    <row r="161" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S161" s="12"/>
+      <c r="T161" s="12"/>
+      <c r="U161" s="12"/>
+    </row>
+    <row r="162" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="A162" s="32"/>
+      <c r="B162" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C161" s="32" t="s">
-        <v>789</v>
-      </c>
-      <c r="D161" s="32" t="s">
-        <v>790</v>
-      </c>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32" t="s">
-        <v>670</v>
-      </c>
-      <c r="G161" s="32" t="s">
+      <c r="C162" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="G162" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H161" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I161" s="32"/>
-      <c r="J161" s="32"/>
-      <c r="K161" s="32"/>
-      <c r="L161" s="32"/>
-      <c r="M161" s="32"/>
-      <c r="N161" s="32"/>
-      <c r="O161" s="32"/>
-      <c r="P161" s="32" t="s">
+      <c r="H162" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32"/>
+      <c r="L162" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="M162" s="32"/>
+      <c r="N162" s="32"/>
+      <c r="O162" s="32"/>
+      <c r="P162" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q161" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="R161" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S161" s="32"/>
-      <c r="T161" s="32"/>
-      <c r="U161" s="32"/>
-    </row>
-    <row r="162" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B162" s="12" t="s">
+      <c r="Q162" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="R162" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S162" s="32"/>
+      <c r="T162" s="32"/>
+      <c r="U162" s="32"/>
+    </row>
+    <row r="163" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B163" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="H162" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L162" s="9"/>
-      <c r="P162" s="24">
+      <c r="H163" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L163" s="9"/>
+      <c r="P163" s="24">
         <v>1</v>
       </c>
-      <c r="R162" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T162" s="9"/>
-      <c r="U162" s="12"/>
-    </row>
-    <row r="163" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
-      <c r="O163" s="12"/>
-      <c r="P163" s="12"/>
-      <c r="Q163" s="12"/>
-      <c r="R163" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S163" s="12"/>
-      <c r="T163" s="12"/>
+      <c r="R163" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T163" s="9"/>
       <c r="U163" s="12"/>
     </row>
     <row r="164" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A164" s="12"/>
       <c r="B164" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
@@ -8024,14 +8099,12 @@
       <c r="T164" s="12"/>
       <c r="U164" s="12"/>
     </row>
-    <row r="165" spans="1:21" s="24" customFormat="1" ht="80" customHeight="1">
+    <row r="165" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="12"/>
       <c r="B165" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>260</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C165" s="12"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
@@ -8039,9 +8112,7 @@
       <c r="H165" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I165" s="12" t="s">
-        <v>261</v>
-      </c>
+      <c r="I165" s="12"/>
       <c r="J165" s="12"/>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
@@ -8057,65 +8128,69 @@
       <c r="T165" s="12"/>
       <c r="U165" s="12"/>
     </row>
-    <row r="166" spans="1:21" s="20" customFormat="1" ht="16" customHeight="1">
-      <c r="A166" s="21"/>
-      <c r="B166" s="21" t="s">
+    <row r="166" spans="1:21" s="24" customFormat="1" ht="80" customHeight="1">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S166" s="12"/>
+      <c r="T166" s="12"/>
+      <c r="U166" s="12"/>
+    </row>
+    <row r="167" spans="1:21" s="20" customFormat="1" ht="16" customHeight="1">
+      <c r="A167" s="21"/>
+      <c r="B167" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I166" s="21"/>
-      <c r="J166" s="21"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="21"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="21"/>
-      <c r="O166" s="21"/>
-      <c r="P166" s="21"/>
-      <c r="Q166" s="21"/>
-      <c r="R166" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S166" s="21"/>
-      <c r="T166" s="21"/>
-      <c r="U166" s="21"/>
-    </row>
-    <row r="167" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
-      <c r="O167" s="12"/>
-      <c r="P167" s="12"/>
-      <c r="Q167" s="12"/>
-      <c r="R167" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S167" s="12"/>
-      <c r="T167" s="12"/>
-      <c r="U167" s="12"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="21"/>
+      <c r="M167" s="21"/>
+      <c r="N167" s="21"/>
+      <c r="O167" s="21"/>
+      <c r="P167" s="21"/>
+      <c r="Q167" s="21"/>
+      <c r="R167" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S167" s="21"/>
+      <c r="T167" s="21"/>
+      <c r="U167" s="21"/>
     </row>
     <row r="168" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="12"/>
       <c r="B168" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
@@ -8141,78 +8216,78 @@
       <c r="T168" s="12"/>
       <c r="U168" s="12"/>
     </row>
-    <row r="169" spans="1:21" s="17" customFormat="1" ht="32" customHeight="1">
-      <c r="A169" s="18" t="s">
+    <row r="169" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S169" s="12"/>
+      <c r="T169" s="12"/>
+      <c r="U169" s="12"/>
+    </row>
+    <row r="170" spans="1:21" s="17" customFormat="1" ht="32" customHeight="1">
+      <c r="A170" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B170" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C170" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D169" s="16"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
-      <c r="P169" s="18" t="s">
+      <c r="D170" s="16"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170" s="18"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="18"/>
+      <c r="N170" s="18"/>
+      <c r="O170" s="18"/>
+      <c r="P170" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q169" s="18" t="s">
+      <c r="Q170" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="R169" s="18" t="s">
+      <c r="R170" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="S169" s="18"/>
-      <c r="T169" s="18"/>
-      <c r="U169" s="18"/>
-    </row>
-    <row r="170" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
-      <c r="O170" s="12"/>
-      <c r="P170" s="12"/>
-      <c r="Q170" s="12"/>
-      <c r="R170" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S170" s="12"/>
-      <c r="T170" s="12"/>
-      <c r="U170" s="12"/>
+      <c r="S170" s="18"/>
+      <c r="T170" s="18"/>
+      <c r="U170" s="18"/>
     </row>
     <row r="171" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="12"/>
       <c r="B171" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
@@ -8238,102 +8313,103 @@
       <c r="T171" s="12"/>
       <c r="U171" s="12"/>
     </row>
-    <row r="172" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A172" s="32"/>
-      <c r="B172" s="26" t="s">
+    <row r="172" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S172" s="12"/>
+      <c r="T172" s="12"/>
+      <c r="U172" s="12"/>
+    </row>
+    <row r="173" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="A173" s="32"/>
+      <c r="B173" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C172" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I172" s="32"/>
-      <c r="J172" s="32"/>
-      <c r="K172" s="32"/>
-      <c r="L172" s="32"/>
-      <c r="M172" s="32"/>
-      <c r="N172" s="32"/>
-      <c r="O172" s="32"/>
-      <c r="P172" s="32" t="s">
+      <c r="C173" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="32"/>
+      <c r="L173" s="32"/>
+      <c r="M173" s="32"/>
+      <c r="N173" s="32"/>
+      <c r="O173" s="32"/>
+      <c r="P173" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q172" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="R172" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S172" s="32"/>
-      <c r="T172" s="32"/>
-      <c r="U172" s="32"/>
-    </row>
-    <row r="173" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B173" s="12" t="s">
+      <c r="Q173" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="R173" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S173" s="32"/>
+      <c r="T173" s="32"/>
+      <c r="U173" s="32"/>
+    </row>
+    <row r="174" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B174" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H173" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L173" s="9"/>
-      <c r="P173" s="24">
+      <c r="H174" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L174" s="9"/>
+      <c r="P174" s="24">
         <v>1</v>
       </c>
-      <c r="R173" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T173" s="9"/>
-      <c r="U173" s="12"/>
-    </row>
-    <row r="174" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A174" s="12" t="s">
+      <c r="R174" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T174" s="9"/>
+      <c r="U174" s="12"/>
+    </row>
+    <row r="175" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A175" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B175" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12" t="s">
+      <c r="C175" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
-      <c r="O174" s="12">
-        <v>1</v>
-      </c>
-      <c r="P174" s="12"/>
-      <c r="Q174" s="12"/>
-      <c r="R174" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S174" s="12"/>
-      <c r="T174" s="12"/>
-      <c r="U174" s="12"/>
-    </row>
-    <row r="175" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A175" s="12"/>
-      <c r="B175" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12" t="s">
         <v>24</v>
@@ -8344,7 +8420,9 @@
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
       <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
+      <c r="O175" s="12">
+        <v>1</v>
+      </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
       <c r="R175" s="12" t="s">
@@ -8355,58 +8433,55 @@
       <c r="U175" s="12"/>
     </row>
     <row r="176" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B176" s="12" t="s">
+      <c r="A176" s="12"/>
+      <c r="B176" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S176" s="12"/>
+      <c r="T176" s="12"/>
+      <c r="U176" s="12"/>
+    </row>
+    <row r="177" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B177" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="H176" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L176" s="9"/>
-      <c r="O176" s="24" t="s">
+      <c r="H177" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L177" s="9"/>
+      <c r="O177" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="P176" s="24">
+      <c r="P177" s="24">
         <v>1</v>
       </c>
-      <c r="R176" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T176" s="9"/>
-      <c r="U176" s="12"/>
-    </row>
-    <row r="177" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
-      <c r="O177" s="12"/>
-      <c r="P177" s="12"/>
-      <c r="Q177" s="12"/>
-      <c r="R177" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S177" s="12"/>
-      <c r="T177" s="12"/>
+      <c r="R177" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T177" s="9"/>
       <c r="U177" s="12"/>
     </row>
     <row r="178" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A178" s="12"/>
       <c r="B178" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
@@ -8418,9 +8493,7 @@
       </c>
       <c r="I178" s="12"/>
       <c r="J178" s="12"/>
-      <c r="K178" s="12" t="s">
-        <v>278</v>
-      </c>
+      <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
       <c r="N178" s="12"/>
@@ -8434,10 +8507,10 @@
       <c r="T178" s="12"/>
       <c r="U178" s="12"/>
     </row>
-    <row r="179" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="179" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A179" s="12"/>
       <c r="B179" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
@@ -8449,7 +8522,9 @@
       </c>
       <c r="I179" s="12"/>
       <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
+      <c r="K179" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
       <c r="N179" s="12"/>
@@ -8463,10 +8538,10 @@
       <c r="T179" s="12"/>
       <c r="U179" s="12"/>
     </row>
-    <row r="180" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="180" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A180" s="12"/>
       <c r="B180" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
@@ -8495,7 +8570,7 @@
     <row r="181" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A181" s="12"/>
       <c r="B181" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
@@ -8521,364 +8596,411 @@
       <c r="T181" s="12"/>
       <c r="U181" s="12"/>
     </row>
-    <row r="182" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="12"/>
-      <c r="M182" s="12"/>
-      <c r="N182" s="12"/>
-      <c r="O182" s="12"/>
-      <c r="P182" s="12"/>
-      <c r="Q182" s="12"/>
-      <c r="R182" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S182" s="12"/>
-      <c r="T182" s="12"/>
-      <c r="U182" s="12"/>
-    </row>
-    <row r="183" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
-      <c r="M183" s="12"/>
-      <c r="N183" s="12"/>
-      <c r="O183" s="12"/>
-      <c r="P183" s="12"/>
-      <c r="Q183" s="12"/>
-      <c r="R183" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S183" s="12"/>
-      <c r="T183" s="12"/>
-      <c r="U183" s="12"/>
-    </row>
-    <row r="184" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
-      <c r="M184" s="12"/>
-      <c r="N184" s="12"/>
-      <c r="O184" s="12"/>
-      <c r="P184" s="12"/>
-      <c r="Q184" s="12"/>
-      <c r="R184" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S184" s="12"/>
-      <c r="T184" s="12"/>
-      <c r="U184" s="12"/>
-    </row>
-    <row r="185" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="12"/>
-      <c r="M185" s="12"/>
-      <c r="N185" s="12"/>
-      <c r="O185" s="12"/>
-      <c r="P185" s="12"/>
-      <c r="Q185" s="12"/>
-      <c r="R185" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S185" s="12"/>
-      <c r="T185" s="12"/>
-      <c r="U185" s="12"/>
-    </row>
-    <row r="186" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="12"/>
-      <c r="O186" s="12"/>
-      <c r="P186" s="12"/>
-      <c r="Q186" s="12"/>
-      <c r="R186" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S186" s="12"/>
-      <c r="T186" s="12"/>
-      <c r="U186" s="12"/>
-    </row>
-    <row r="187" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
-      <c r="M187" s="12"/>
-      <c r="N187" s="12"/>
-      <c r="O187" s="12"/>
-      <c r="P187" s="12"/>
-      <c r="Q187" s="12"/>
-      <c r="R187" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S187" s="12"/>
-      <c r="T187" s="12"/>
-      <c r="U187" s="12"/>
-    </row>
-    <row r="188" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
-      <c r="M188" s="12"/>
-      <c r="N188" s="12"/>
-      <c r="O188" s="12"/>
-      <c r="P188" s="12"/>
-      <c r="Q188" s="12"/>
-      <c r="R188" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S188" s="12"/>
-      <c r="T188" s="12"/>
-      <c r="U188" s="12"/>
-    </row>
-    <row r="189" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
-      <c r="O189" s="12"/>
-      <c r="P189" s="12"/>
-      <c r="Q189" s="12"/>
-      <c r="R189" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S189" s="12"/>
-      <c r="T189" s="12"/>
-      <c r="U189" s="12"/>
-    </row>
-    <row r="190" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I190" s="12"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="12"/>
-      <c r="L190" s="12"/>
-      <c r="M190" s="12"/>
-      <c r="N190" s="12"/>
-      <c r="O190" s="12"/>
-      <c r="P190" s="12"/>
-      <c r="Q190" s="12"/>
-      <c r="R190" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S190" s="12"/>
-      <c r="T190" s="12"/>
-      <c r="U190" s="12"/>
-    </row>
-    <row r="191" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A191" s="12"/>
-      <c r="B191" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="L191" s="12"/>
-      <c r="M191" s="12"/>
-      <c r="N191" s="12"/>
-      <c r="O191" s="12"/>
-      <c r="P191" s="12"/>
-      <c r="Q191" s="12"/>
-      <c r="R191" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S191" s="12"/>
-      <c r="T191" s="12"/>
-      <c r="U191" s="12"/>
-    </row>
-    <row r="192" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I192" s="12"/>
-      <c r="J192" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="K192" s="12"/>
-      <c r="L192" s="12"/>
-      <c r="M192" s="12"/>
-      <c r="N192" s="12"/>
-      <c r="O192" s="12"/>
-      <c r="P192" s="12"/>
-      <c r="Q192" s="12"/>
-      <c r="R192" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S192" s="12"/>
-      <c r="T192" s="12"/>
-      <c r="U192" s="12"/>
-    </row>
-    <row r="193" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I193" s="12"/>
-      <c r="J193" s="12"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
-      <c r="M193" s="12"/>
-      <c r="N193" s="12"/>
-      <c r="O193" s="12"/>
-      <c r="P193" s="12"/>
-      <c r="Q193" s="12"/>
-      <c r="R193" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S193" s="12"/>
-      <c r="T193" s="12"/>
-      <c r="U193" s="12"/>
+    <row r="182" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="A182" s="32"/>
+      <c r="B182" s="32" t="s">
+        <v>802</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>803</v>
+      </c>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I182" s="32"/>
+      <c r="J182" s="32"/>
+      <c r="K182" s="32"/>
+      <c r="L182" s="32"/>
+      <c r="M182" s="32"/>
+      <c r="N182" s="32"/>
+      <c r="O182" s="32"/>
+      <c r="P182" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q182" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="R182" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S182" s="32"/>
+      <c r="T182" s="32"/>
+      <c r="U182" s="32"/>
+    </row>
+    <row r="183" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A183" s="32"/>
+      <c r="B183" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="C183" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" s="32"/>
+      <c r="J183" s="32"/>
+      <c r="K183" s="32"/>
+      <c r="L183" s="32"/>
+      <c r="M183" s="32"/>
+      <c r="N183" s="32"/>
+      <c r="O183" s="32"/>
+      <c r="P183" s="32"/>
+      <c r="Q183" s="32"/>
+      <c r="R183" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S183" s="32"/>
+      <c r="T183" s="32"/>
+      <c r="U183" s="32"/>
+    </row>
+    <row r="184" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="B184" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="F184" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G184" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H184" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L184" s="19"/>
+      <c r="P184" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R184" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T184" s="19"/>
+      <c r="U184" s="32"/>
+    </row>
+    <row r="185" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="B185" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="F185" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G185" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H185" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L185" s="19"/>
+      <c r="P185" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R185" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T185" s="19"/>
+      <c r="U185" s="32"/>
+    </row>
+    <row r="186" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B186" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="F186" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G186" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H186" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L186" s="19"/>
+      <c r="P186" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q186" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R186" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T186" s="19"/>
+      <c r="U186" s="32"/>
+    </row>
+    <row r="187" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B187" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="F187" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G187" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H187" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L187" s="19"/>
+      <c r="P187" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q187" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R187" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T187" s="19"/>
+      <c r="U187" s="32"/>
+    </row>
+    <row r="188" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B188" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="D188" s="33"/>
+      <c r="F188" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G188" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H188" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L188" s="19"/>
+      <c r="P188" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q188" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R188" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T188" s="19"/>
+      <c r="U188" s="32"/>
+    </row>
+    <row r="189" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A189" s="34"/>
+      <c r="B189" s="34" t="s">
+        <v>799</v>
+      </c>
+      <c r="C189" s="34" t="s">
+        <v>806</v>
+      </c>
+      <c r="D189" s="34"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I189" s="34"/>
+      <c r="J189" s="34"/>
+      <c r="K189" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="L189" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="M189" s="34"/>
+      <c r="N189" s="34"/>
+      <c r="O189" s="34"/>
+      <c r="P189" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q189" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R189" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S189" s="34"/>
+      <c r="T189" s="34"/>
+    </row>
+    <row r="190" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A190" s="34"/>
+      <c r="B190" s="34" t="s">
+        <v>809</v>
+      </c>
+      <c r="C190" s="34" t="s">
+        <v>807</v>
+      </c>
+      <c r="D190" s="34"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="G190" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H190" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
+      <c r="L190" s="34"/>
+      <c r="M190" s="34"/>
+      <c r="N190" s="34"/>
+      <c r="O190" s="34"/>
+      <c r="P190" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q190" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R190" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S190" s="34"/>
+      <c r="T190" s="34"/>
+    </row>
+    <row r="191" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="B191" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="C191" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="F191" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="G191" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H191" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K191" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="L191" s="36"/>
+      <c r="P191" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="R191" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T191" s="36"/>
+    </row>
+    <row r="192" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A192" s="34"/>
+      <c r="B192" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="C192" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="G192" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H192" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I192" s="34"/>
+      <c r="J192" s="34"/>
+      <c r="K192" s="34"/>
+      <c r="L192" s="34"/>
+      <c r="M192" s="34"/>
+      <c r="N192" s="34"/>
+      <c r="O192" s="34"/>
+      <c r="P192" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q192" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R192" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S192" s="34"/>
+      <c r="T192" s="34"/>
+    </row>
+    <row r="193" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A193" s="34"/>
+      <c r="B193" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="C193" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="G193" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H193" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" s="34"/>
+      <c r="J193" s="34"/>
+      <c r="K193" s="34"/>
+      <c r="L193" s="34"/>
+      <c r="M193" s="34"/>
+      <c r="N193" s="34"/>
+      <c r="O193" s="34"/>
+      <c r="P193" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q193" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R193" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S193" s="34"/>
+      <c r="T193" s="34"/>
     </row>
     <row r="194" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A194" s="12"/>
       <c r="B194" s="12" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
@@ -8905,23 +9027,15 @@
       <c r="U194" s="12"/>
     </row>
     <row r="195" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A195" s="12" t="s">
-        <v>296</v>
-      </c>
+      <c r="A195" s="12"/>
       <c r="B195" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>693</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C195" s="12"/>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
-      <c r="F195" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
       <c r="H195" s="12" t="s">
         <v>24</v>
       </c>
@@ -8942,60 +9056,80 @@
       <c r="U195" s="12"/>
     </row>
     <row r="196" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A196" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D196" s="8"/>
+      <c r="A196" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="D196" s="12"/>
       <c r="E196" s="12"/>
-      <c r="F196" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H196" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
-      <c r="P196" s="8"/>
-      <c r="Q196" s="8"/>
-      <c r="R196" s="8"/>
-      <c r="S196" s="8"/>
-      <c r="T196" s="8"/>
+      <c r="F196" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S196" s="12"/>
+      <c r="T196" s="12"/>
       <c r="U196" s="12"/>
     </row>
     <row r="197" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B197" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="H197" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L197" s="9"/>
-      <c r="P197" s="24">
-        <v>1</v>
-      </c>
-      <c r="R197" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T197" s="9"/>
+      <c r="A197" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D197" s="8"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
+      <c r="N197" s="8"/>
+      <c r="O197" s="8"/>
+      <c r="P197" s="8"/>
+      <c r="Q197" s="8"/>
+      <c r="R197" s="8"/>
+      <c r="S197" s="8"/>
+      <c r="T197" s="8"/>
       <c r="U197" s="12"/>
     </row>
     <row r="198" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B198" s="24" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H198" s="24" t="s">
         <v>24</v>
@@ -9011,84 +9145,72 @@
       <c r="U198" s="12"/>
     </row>
     <row r="199" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I199" s="12"/>
-      <c r="J199" s="12"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
-      <c r="O199" s="12"/>
-      <c r="P199" s="12"/>
-      <c r="Q199" s="12"/>
-      <c r="R199" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S199" s="12"/>
-      <c r="T199" s="12"/>
+      <c r="B199" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H199" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L199" s="9"/>
+      <c r="P199" s="24">
+        <v>1</v>
+      </c>
+      <c r="R199" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T199" s="9"/>
       <c r="U199" s="12"/>
     </row>
     <row r="200" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B200" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="H200" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L200" s="9"/>
-      <c r="P200" s="24">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S200" s="12"/>
+      <c r="T200" s="12"/>
+      <c r="U200" s="12"/>
+    </row>
+    <row r="201" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B201" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="H201" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L201" s="9"/>
+      <c r="P201" s="24">
         <v>1</v>
       </c>
-      <c r="R200" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T200" s="9"/>
-      <c r="U200" s="12"/>
-    </row>
-    <row r="201" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="12"/>
-      <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
-      <c r="O201" s="12"/>
-      <c r="P201" s="12"/>
-      <c r="Q201" s="12"/>
-      <c r="R201" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S201" s="12"/>
-      <c r="T201" s="12"/>
+      <c r="R201" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T201" s="9"/>
       <c r="U201" s="12"/>
     </row>
     <row r="202" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="12" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
@@ -9117,7 +9239,7 @@
     <row r="203" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
@@ -9146,7 +9268,7 @@
     <row r="204" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="12" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
@@ -9173,55 +9295,55 @@
       <c r="U204" s="12"/>
     </row>
     <row r="205" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B205" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="H205" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L205" s="9"/>
-      <c r="P205" s="24">
+      <c r="A205" s="12"/>
+      <c r="B205" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="12"/>
+      <c r="P205" s="12"/>
+      <c r="Q205" s="12"/>
+      <c r="R205" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S205" s="12"/>
+      <c r="T205" s="12"/>
+      <c r="U205" s="12"/>
+    </row>
+    <row r="206" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B206" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="H206" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L206" s="9"/>
+      <c r="P206" s="24">
         <v>1</v>
       </c>
-      <c r="R205" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T205" s="9"/>
-      <c r="U205" s="12"/>
-    </row>
-    <row r="206" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I206" s="12"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="12"/>
-      <c r="L206" s="12"/>
-      <c r="M206" s="12"/>
-      <c r="N206" s="12"/>
-      <c r="O206" s="12"/>
-      <c r="P206" s="12"/>
-      <c r="Q206" s="12"/>
-      <c r="R206" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S206" s="12"/>
-      <c r="T206" s="12"/>
+      <c r="R206" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T206" s="9"/>
       <c r="U206" s="12"/>
     </row>
-    <row r="207" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="207" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A207" s="12"/>
       <c r="B207" s="12" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
@@ -9247,10 +9369,10 @@
       <c r="T207" s="12"/>
       <c r="U207" s="12"/>
     </row>
-    <row r="208" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="208" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A208" s="12"/>
       <c r="B208" s="12" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C208" s="12"/>
       <c r="D208" s="12"/>
@@ -9279,7 +9401,7 @@
     <row r="209" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A209" s="12"/>
       <c r="B209" s="12" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
@@ -9308,7 +9430,7 @@
     <row r="210" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A210" s="12"/>
       <c r="B210" s="12" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
@@ -9337,7 +9459,7 @@
     <row r="211" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A211" s="12"/>
       <c r="B211" s="12" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
@@ -9364,71 +9486,83 @@
       <c r="U211" s="12"/>
     </row>
     <row r="212" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B212" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="H212" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L212" s="9"/>
-      <c r="P212" s="24">
+      <c r="A212" s="12"/>
+      <c r="B212" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="12"/>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="12"/>
+      <c r="R212" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S212" s="12"/>
+      <c r="T212" s="12"/>
+      <c r="U212" s="12"/>
+    </row>
+    <row r="213" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B213" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="H213" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L213" s="9"/>
+      <c r="P213" s="24">
         <v>1</v>
       </c>
-      <c r="R212" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T212" s="9"/>
-      <c r="U212" s="12"/>
-    </row>
-    <row r="213" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I213" s="12"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="12"/>
-      <c r="L213" s="12"/>
-      <c r="M213" s="12"/>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
-      <c r="P213" s="12"/>
-      <c r="Q213" s="12"/>
-      <c r="R213" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S213" s="12"/>
-      <c r="T213" s="12"/>
+      <c r="R213" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T213" s="9"/>
       <c r="U213" s="12"/>
     </row>
     <row r="214" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B214" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="H214" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L214" s="9"/>
-      <c r="P214" s="24">
-        <v>1</v>
-      </c>
-      <c r="R214" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T214" s="9"/>
+      <c r="A214" s="12"/>
+      <c r="B214" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12"/>
+      <c r="N214" s="12"/>
+      <c r="O214" s="12"/>
+      <c r="P214" s="12"/>
+      <c r="Q214" s="12"/>
+      <c r="R214" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S214" s="12"/>
+      <c r="T214" s="12"/>
       <c r="U214" s="12"/>
     </row>
     <row r="215" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B215" s="24" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H215" s="24" t="s">
         <v>24</v>
@@ -9445,7 +9579,7 @@
     </row>
     <row r="216" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B216" s="24" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H216" s="24" t="s">
         <v>24</v>
@@ -9462,7 +9596,7 @@
     </row>
     <row r="217" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B217" s="24" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H217" s="24" t="s">
         <v>24</v>
@@ -9479,7 +9613,7 @@
     </row>
     <row r="218" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B218" s="24" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H218" s="24" t="s">
         <v>24</v>
@@ -9496,7 +9630,7 @@
     </row>
     <row r="219" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B219" s="24" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H219" s="24" t="s">
         <v>24</v>
@@ -9512,76 +9646,55 @@
       <c r="U219" s="12"/>
     </row>
     <row r="220" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="Q220" s="12"/>
-      <c r="R220" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S220" s="12"/>
-      <c r="T220" s="12"/>
+      <c r="B220" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="H220" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L220" s="9"/>
+      <c r="P220" s="24">
+        <v>1</v>
+      </c>
+      <c r="R220" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T220" s="9"/>
       <c r="U220" s="12"/>
     </row>
-    <row r="221" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B221" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="C221" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="D221" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="F221" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="G221" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H221" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K221" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="L221" s="19"/>
-      <c r="M221" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="P221" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q221" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="R221" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T221" s="19"/>
-      <c r="U221" s="32"/>
+    <row r="221" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A221" s="12"/>
+      <c r="B221" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="12"/>
+      <c r="N221" s="12"/>
+      <c r="O221" s="12"/>
+      <c r="P221" s="12"/>
+      <c r="Q221" s="12"/>
+      <c r="R221" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S221" s="12"/>
+      <c r="T221" s="12"/>
+      <c r="U221" s="12"/>
     </row>
     <row r="222" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A222" s="12"/>
       <c r="B222" s="12" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C222" s="12"/>
       <c r="D222" s="12"/>
@@ -9610,7 +9723,7 @@
     <row r="223" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A223" s="12"/>
       <c r="B223" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
@@ -9639,7 +9752,7 @@
     <row r="224" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A224" s="12"/>
       <c r="B224" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
@@ -9668,7 +9781,7 @@
     <row r="225" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A225" s="12"/>
       <c r="B225" s="12" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
@@ -9696,26 +9809,26 @@
     </row>
     <row r="226" spans="1:21" s="26" customFormat="1" ht="32" customHeight="1">
       <c r="B226" s="26" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="F226" s="26" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="H226" s="26" t="s">
         <v>24</v>
       </c>
       <c r="K226" s="26" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="L226" s="19"/>
       <c r="P226" s="26">
         <v>1</v>
       </c>
       <c r="Q226" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R226" s="26" t="s">
         <v>27</v>
@@ -9726,7 +9839,7 @@
     <row r="227" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A227" s="12"/>
       <c r="B227" s="12" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
@@ -9755,7 +9868,7 @@
     <row r="228" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A228" s="12"/>
       <c r="B228" s="12" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
@@ -9784,7 +9897,7 @@
     <row r="229" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A229" s="12"/>
       <c r="B229" s="12" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
@@ -9813,7 +9926,7 @@
     <row r="230" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A230" s="12"/>
       <c r="B230" s="12" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
@@ -9842,15 +9955,15 @@
     <row r="231" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="A231" s="32"/>
       <c r="B231" s="32" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="D231" s="32"/>
       <c r="E231" s="32"/>
       <c r="F231" s="32" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="G231" s="32"/>
       <c r="H231" s="32" t="s">
@@ -9875,15 +9988,15 @@
     <row r="232" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="A232" s="32"/>
       <c r="B232" s="32" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="D232" s="32"/>
       <c r="E232" s="32"/>
       <c r="F232" s="32" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="G232" s="32"/>
       <c r="H232" s="32" t="s">
@@ -9907,13 +10020,13 @@
     </row>
     <row r="233" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B233" s="26" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="F233" s="26" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="H233" s="26" t="s">
         <v>24</v>
@@ -9923,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="Q233" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R233" s="26" t="s">
         <v>27</v>
@@ -9934,7 +10047,7 @@
     <row r="234" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A234" s="12"/>
       <c r="B234" s="12" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C234" s="12"/>
       <c r="D234" s="12"/>
@@ -9963,7 +10076,7 @@
     <row r="235" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A235" s="12"/>
       <c r="B235" s="12" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
@@ -9992,7 +10105,7 @@
     <row r="236" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A236" s="12"/>
       <c r="B236" s="12" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C236" s="12"/>
       <c r="D236" s="12"/>
@@ -10005,7 +10118,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
       <c r="K236" s="12" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="L236" s="12"/>
       <c r="M236" s="12"/>
@@ -10023,7 +10136,7 @@
     <row r="237" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A237" s="12"/>
       <c r="B237" s="12" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
@@ -10051,28 +10164,28 @@
     </row>
     <row r="238" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B238" s="26" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="F238" s="26" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="H238" s="26" t="s">
         <v>24</v>
       </c>
       <c r="K238" s="26" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="L238" s="19" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="P238" s="26">
         <v>1</v>
       </c>
       <c r="Q238" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R238" s="26" t="s">
         <v>27</v>
@@ -10083,7 +10196,7 @@
     <row r="239" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A239" s="12"/>
       <c r="B239" s="12" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
@@ -10112,7 +10225,7 @@
     <row r="240" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A240" s="12"/>
       <c r="B240" s="12" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
@@ -10141,7 +10254,7 @@
     <row r="241" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A241" s="12"/>
       <c r="B241" s="12" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
@@ -10170,7 +10283,7 @@
     <row r="242" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A242" s="12"/>
       <c r="B242" s="12" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C242" s="12"/>
       <c r="D242" s="12"/>
@@ -10199,7 +10312,7 @@
     <row r="243" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A243" s="12"/>
       <c r="B243" s="12" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
@@ -10228,7 +10341,7 @@
     <row r="244" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A244" s="12"/>
       <c r="B244" s="12" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C244" s="12"/>
       <c r="D244" s="12"/>
@@ -10257,7 +10370,7 @@
     <row r="245" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A245" s="12"/>
       <c r="B245" s="12" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C245" s="12"/>
       <c r="D245" s="12"/>
@@ -10286,7 +10399,7 @@
     <row r="246" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A246" s="12"/>
       <c r="B246" s="12" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
@@ -10315,7 +10428,7 @@
     <row r="247" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A247" s="12"/>
       <c r="B247" s="12" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
@@ -10344,7 +10457,7 @@
     <row r="248" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A248" s="12"/>
       <c r="B248" s="12" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
@@ -10373,7 +10486,7 @@
     <row r="249" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A249" s="12"/>
       <c r="B249" s="12" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
@@ -10401,7 +10514,7 @@
     </row>
     <row r="250" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B250" s="24" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H250" s="24" t="s">
         <v>24</v>
@@ -10418,7 +10531,7 @@
     </row>
     <row r="251" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B251" s="24" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H251" s="24" t="s">
         <v>24</v>
@@ -10435,13 +10548,13 @@
     </row>
     <row r="252" spans="1:21" s="24" customFormat="1" ht="48" customHeight="1">
       <c r="B252" s="24" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="F252" s="24" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="H252" s="24" t="s">
         <v>24</v>
@@ -10458,13 +10571,13 @@
     </row>
     <row r="253" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B253" s="26" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>762</v>
+        <v>733</v>
       </c>
       <c r="F253" s="26" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="H253" s="26" t="s">
         <v>24</v>
@@ -10474,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="Q253" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R253" s="26" t="s">
         <v>27</v>
@@ -10485,7 +10598,7 @@
     <row r="254" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A254" s="12"/>
       <c r="B254" s="12" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
@@ -10514,7 +10627,7 @@
     <row r="255" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A255" s="12"/>
       <c r="B255" s="12" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C255" s="12"/>
       <c r="D255" s="12"/>
@@ -10543,7 +10656,7 @@
     <row r="256" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A256" s="12"/>
       <c r="B256" s="12" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
@@ -10572,7 +10685,7 @@
     <row r="257" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A257" s="12"/>
       <c r="B257" s="12" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C257" s="12"/>
       <c r="D257" s="12"/>
@@ -10601,7 +10714,7 @@
     <row r="258" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A258" s="12"/>
       <c r="B258" s="12" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C258" s="12"/>
       <c r="D258" s="12"/>
@@ -10630,7 +10743,7 @@
     <row r="259" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A259" s="12"/>
       <c r="B259" s="12" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
@@ -10659,7 +10772,7 @@
     <row r="260" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A260" s="12"/>
       <c r="B260" s="12" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C260" s="12"/>
       <c r="D260" s="12"/>
@@ -10688,7 +10801,7 @@
     <row r="261" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A261" s="12"/>
       <c r="B261" s="12" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
@@ -10717,7 +10830,7 @@
     <row r="262" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A262" s="12"/>
       <c r="B262" s="12" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
@@ -10746,7 +10859,7 @@
     <row r="263" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A263" s="12"/>
       <c r="B263" s="12" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
@@ -10759,7 +10872,7 @@
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
       <c r="K263" s="12" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="L263" s="12"/>
       <c r="M263" s="12"/>
@@ -10777,7 +10890,7 @@
     <row r="264" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A264" s="12"/>
       <c r="B264" s="12" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C264" s="12"/>
       <c r="D264" s="12"/>
@@ -10806,7 +10919,7 @@
     <row r="265" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A265" s="12"/>
       <c r="B265" s="12" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
@@ -10835,7 +10948,7 @@
     <row r="266" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A266" s="12"/>
       <c r="B266" s="12" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C266" s="12"/>
       <c r="D266" s="12"/>
@@ -10864,7 +10977,7 @@
     <row r="267" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A267" s="12"/>
       <c r="B267" s="12" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>
@@ -10893,10 +11006,10 @@
     <row r="268" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A268" s="12"/>
       <c r="B268" s="12" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
@@ -10924,7 +11037,7 @@
     <row r="269" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A269" s="12"/>
       <c r="B269" s="12" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C269" s="12"/>
       <c r="D269" s="12"/>
@@ -10953,7 +11066,7 @@
     <row r="270" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A270" s="12"/>
       <c r="B270" s="12" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C270" s="12"/>
       <c r="D270" s="12"/>
@@ -10982,7 +11095,7 @@
     <row r="271" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A271" s="12"/>
       <c r="B271" s="12" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
@@ -11011,7 +11124,7 @@
     <row r="272" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A272" s="12"/>
       <c r="B272" s="12" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C272" s="12"/>
       <c r="D272" s="12"/>
@@ -11040,7 +11153,7 @@
     <row r="273" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A273" s="12"/>
       <c r="B273" s="12" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
@@ -11068,18 +11181,18 @@
     </row>
     <row r="274" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A274" s="12" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
       <c r="F274" s="12" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="G274" s="12"/>
       <c r="H274" s="12" t="s">
@@ -11104,13 +11217,13 @@
         <v>31</v>
       </c>
       <c r="C275" s="26" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="F275" s="26" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="G275" s="26" t="s">
         <v>43</v>
@@ -11122,13 +11235,13 @@
         <v>36</v>
       </c>
       <c r="L275" s="19" t="s">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="P275" s="26">
         <v>1</v>
       </c>
       <c r="Q275" s="26" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R275" s="26" t="s">
         <v>27</v>
@@ -11138,7 +11251,7 @@
     </row>
     <row r="276" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B276" s="24" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H276" s="24" t="s">
         <v>24</v>
@@ -11155,17 +11268,17 @@
     </row>
     <row r="277" spans="1:21" s="17" customFormat="1" ht="48" customHeight="1">
       <c r="A277" s="23" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D277" s="16"/>
       <c r="F277" s="17" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="H277" s="17" t="s">
         <v>24</v>
@@ -11186,7 +11299,7 @@
     <row r="278" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A278" s="12"/>
       <c r="B278" s="12" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
@@ -11215,7 +11328,7 @@
     <row r="279" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A279" s="12"/>
       <c r="B279" s="12" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
@@ -11244,7 +11357,7 @@
     <row r="280" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A280" s="12"/>
       <c r="B280" s="12" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
@@ -11273,7 +11386,7 @@
     <row r="281" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A281" s="12"/>
       <c r="B281" s="12" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12"/>
@@ -11302,7 +11415,7 @@
     <row r="282" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A282" s="12"/>
       <c r="B282" s="12" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C282" s="12"/>
       <c r="D282" s="12"/>
@@ -11331,7 +11444,7 @@
     <row r="283" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A283" s="8"/>
       <c r="B283" s="8" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
@@ -11358,7 +11471,7 @@
     <row r="284" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A284" s="12"/>
       <c r="B284" s="12" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C284" s="12"/>
       <c r="D284" s="12"/>
@@ -11387,7 +11500,7 @@
     <row r="285" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A285" s="12"/>
       <c r="B285" s="12" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C285" s="12"/>
       <c r="D285" s="12"/>
@@ -11416,7 +11529,7 @@
     <row r="286" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A286" s="12"/>
       <c r="B286" s="12" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
@@ -11445,7 +11558,7 @@
     <row r="287" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A287" s="12"/>
       <c r="B287" s="12" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
@@ -11474,7 +11587,7 @@
     <row r="288" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A288" s="12"/>
       <c r="B288" s="12" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C288" s="12"/>
       <c r="D288" s="12"/>
@@ -11502,17 +11615,17 @@
     </row>
     <row r="289" spans="1:21" s="24" customFormat="1" ht="48" customHeight="1">
       <c r="A289" s="12" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="D289" s="9"/>
       <c r="F289" s="9" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="G289" s="9" t="s">
         <v>23</v>
@@ -11522,10 +11635,10 @@
       </c>
       <c r="I289" s="8"/>
       <c r="J289" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K289" s="8" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L289" s="8"/>
       <c r="M289" s="8"/>
@@ -11543,7 +11656,7 @@
     <row r="290" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A290" s="12"/>
       <c r="B290" s="12" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C290" s="12"/>
       <c r="D290" s="12"/>
@@ -11571,7 +11684,7 @@
     </row>
     <row r="291" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B291" s="24" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H291" s="24" t="s">
         <v>24</v>
@@ -11588,7 +11701,7 @@
     </row>
     <row r="292" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B292" s="24" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="H292" s="24" t="s">
         <v>24</v>
@@ -11605,10 +11718,10 @@
     </row>
     <row r="293" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="B293" s="24" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="H293" s="24" t="s">
         <v>24</v>
@@ -11625,7 +11738,7 @@
     </row>
     <row r="294" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B294" s="24" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="H294" s="24" t="s">
         <v>24</v>
@@ -11642,7 +11755,7 @@
     </row>
     <row r="295" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B295" s="24" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H295" s="24" t="s">
         <v>24</v>
@@ -11659,7 +11772,7 @@
     </row>
     <row r="296" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B296" s="24" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H296" s="24" t="s">
         <v>24</v>
@@ -11676,7 +11789,7 @@
     </row>
     <row r="297" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B297" s="24" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="H297" s="24" t="s">
         <v>24</v>
@@ -11693,7 +11806,7 @@
     </row>
     <row r="298" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B298" s="24" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H298" s="24" t="s">
         <v>24</v>
@@ -11710,7 +11823,7 @@
     </row>
     <row r="299" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B299" s="24" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="H299" s="24" t="s">
         <v>24</v>
@@ -11727,7 +11840,7 @@
     </row>
     <row r="300" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B300" s="24" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H300" s="24" t="s">
         <v>24</v>
@@ -11744,7 +11857,7 @@
     </row>
     <row r="301" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B301" s="24" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H301" s="24" t="s">
         <v>24</v>
@@ -11761,7 +11874,7 @@
     </row>
     <row r="302" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B302" s="24" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H302" s="24" t="s">
         <v>24</v>
@@ -11778,7 +11891,7 @@
     </row>
     <row r="303" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B303" s="24" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="H303" s="24" t="s">
         <v>24</v>
@@ -11795,7 +11908,7 @@
     </row>
     <row r="304" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B304" s="24" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H304" s="24" t="s">
         <v>24</v>
@@ -11812,7 +11925,7 @@
     </row>
     <row r="305" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B305" s="24" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="H305" s="24" t="s">
         <v>24</v>
@@ -11829,7 +11942,7 @@
     </row>
     <row r="306" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B306" s="24" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H306" s="24" t="s">
         <v>24</v>
@@ -11846,7 +11959,7 @@
     </row>
     <row r="307" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B307" s="24" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="H307" s="24" t="s">
         <v>24</v>
@@ -11864,7 +11977,7 @@
     <row r="308" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A308" s="12"/>
       <c r="B308" s="12" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
@@ -11893,7 +12006,7 @@
     <row r="309" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A309" s="12"/>
       <c r="B309" s="12" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C309" s="12"/>
       <c r="D309" s="12"/>
@@ -11922,7 +12035,7 @@
     <row r="310" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A310" s="12"/>
       <c r="B310" s="12" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C310" s="12"/>
       <c r="D310" s="12"/>
@@ -11950,7 +12063,7 @@
     </row>
     <row r="311" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B311" s="24" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="H311" s="24" t="s">
         <v>24</v>
@@ -11968,7 +12081,7 @@
     <row r="312" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A312" s="12"/>
       <c r="B312" s="12" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C312" s="12"/>
       <c r="D312" s="12"/>
@@ -11997,7 +12110,7 @@
     <row r="313" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A313" s="12"/>
       <c r="B313" s="12" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C313" s="12"/>
       <c r="D313" s="12"/>
@@ -12010,7 +12123,7 @@
       <c r="I313" s="12"/>
       <c r="J313" s="12"/>
       <c r="K313" s="12" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="L313" s="12"/>
       <c r="M313" s="12"/>
@@ -12028,7 +12141,7 @@
     <row r="314" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A314" s="12"/>
       <c r="B314" s="12" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C314" s="12"/>
       <c r="D314" s="12"/>
@@ -12057,7 +12170,7 @@
     <row r="315" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A315" s="12"/>
       <c r="B315" s="12" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="C315" s="12"/>
       <c r="D315" s="12"/>
@@ -12085,7 +12198,7 @@
     </row>
     <row r="316" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B316" s="24" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H316" s="24" t="s">
         <v>24</v>
@@ -12102,7 +12215,7 @@
     </row>
     <row r="317" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="B317" s="24" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="H317" s="24" t="s">
         <v>24</v>
@@ -12120,7 +12233,7 @@
     <row r="318" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A318" s="12"/>
       <c r="B318" s="12" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
@@ -12149,7 +12262,7 @@
     <row r="319" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A319" s="12"/>
       <c r="B319" s="12" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
@@ -12178,7 +12291,7 @@
     <row r="320" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A320" s="12"/>
       <c r="B320" s="12" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C320" s="12"/>
       <c r="D320" s="12"/>
@@ -12207,7 +12320,7 @@
     <row r="321" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A321" s="12"/>
       <c r="B321" s="12" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
@@ -12236,7 +12349,7 @@
     <row r="322" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A322" s="12"/>
       <c r="B322" s="12" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C322" s="12"/>
       <c r="D322" s="12"/>
@@ -12265,7 +12378,7 @@
     <row r="323" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A323" s="12"/>
       <c r="B323" s="12" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
@@ -12294,7 +12407,7 @@
     <row r="324" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A324" s="12"/>
       <c r="B324" s="12" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
@@ -12323,7 +12436,7 @@
     <row r="325" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A325" s="12"/>
       <c r="B325" s="12" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
@@ -12352,7 +12465,7 @@
     <row r="326" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A326" s="12"/>
       <c r="B326" s="12" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
@@ -12381,7 +12494,7 @@
     <row r="327" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A327" s="12"/>
       <c r="B327" s="12" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
@@ -12409,7 +12522,7 @@
     </row>
     <row r="328" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B328" s="24" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H328" s="24" t="s">
         <v>24</v>
@@ -12427,7 +12540,7 @@
     <row r="329" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A329" s="12"/>
       <c r="B329" s="12" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
@@ -12455,7 +12568,7 @@
     </row>
     <row r="330" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B330" s="24" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H330" s="24" t="s">
         <v>24</v>
@@ -12473,7 +12586,7 @@
     <row r="331" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A331" s="12"/>
       <c r="B331" s="12" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
@@ -12502,7 +12615,7 @@
     <row r="332" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A332" s="12"/>
       <c r="B332" s="12" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
@@ -12531,7 +12644,7 @@
     <row r="333" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A333" s="12"/>
       <c r="B333" s="12" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
@@ -12560,7 +12673,7 @@
     <row r="334" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A334" s="12"/>
       <c r="B334" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
@@ -12589,7 +12702,7 @@
     <row r="335" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A335" s="12"/>
       <c r="B335" s="12" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
@@ -12618,7 +12731,7 @@
     <row r="336" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A336" s="12"/>
       <c r="B336" s="12" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
@@ -12647,7 +12760,7 @@
     <row r="337" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A337" s="12"/>
       <c r="B337" s="12" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -12676,7 +12789,7 @@
     <row r="338" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A338" s="12"/>
       <c r="B338" s="12" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
@@ -12705,10 +12818,10 @@
     <row r="339" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="A339" s="32"/>
       <c r="B339" s="32" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C339" s="32" t="s">
-        <v>752</v>
+        <v>804</v>
       </c>
       <c r="D339" s="32"/>
       <c r="E339" s="32"/>
@@ -12728,7 +12841,7 @@
         <v>26</v>
       </c>
       <c r="Q339" s="32" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R339" s="32" t="s">
         <v>27</v>
@@ -12737,218 +12850,376 @@
       <c r="T339" s="32"/>
       <c r="U339" s="32"/>
     </row>
-    <row r="340" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B340" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C340" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="H340" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L340" s="9"/>
-      <c r="P340" s="24">
+    <row r="340" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A340" s="32"/>
+      <c r="B340" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="C340" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="D340" s="32"/>
+      <c r="E340" s="32"/>
+      <c r="F340" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="G340" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H340" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I340" s="32"/>
+      <c r="J340" s="32"/>
+      <c r="K340" s="32"/>
+      <c r="L340" s="32"/>
+      <c r="M340" s="32"/>
+      <c r="N340" s="32"/>
+      <c r="O340" s="32"/>
+      <c r="P340" s="32"/>
+      <c r="Q340" s="32"/>
+      <c r="R340" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S340" s="32"/>
+      <c r="T340" s="32"/>
+      <c r="U340" s="32"/>
+    </row>
+    <row r="341" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="B341" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="C341" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="F341" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G341" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H341" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L341" s="19"/>
+      <c r="P341" s="26">
         <v>1</v>
       </c>
-      <c r="R340" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T340" s="9"/>
-      <c r="U340" s="12"/>
-    </row>
-    <row r="341" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A341" s="12"/>
-      <c r="B341" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="C341" s="12"/>
-      <c r="D341" s="12"/>
-      <c r="E341" s="12"/>
-      <c r="F341" s="12"/>
-      <c r="G341" s="12"/>
-      <c r="H341" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I341" s="12"/>
-      <c r="J341" s="12"/>
-      <c r="K341" s="12"/>
-      <c r="L341" s="12"/>
-      <c r="M341" s="12"/>
-      <c r="N341" s="12"/>
-      <c r="O341" s="12"/>
-      <c r="P341" s="12"/>
-      <c r="Q341" s="12"/>
-      <c r="R341" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S341" s="12"/>
-      <c r="T341" s="12"/>
-      <c r="U341" s="12"/>
-    </row>
-    <row r="342" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B342" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="H342" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K342" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="L342" s="9"/>
-      <c r="P342" s="24">
+      <c r="Q341" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R341" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T341" s="19"/>
+      <c r="U341" s="32"/>
+    </row>
+    <row r="342" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="B342" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="C342" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="F342" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G342" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H342" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L342" s="19"/>
+      <c r="P342" s="26">
         <v>1</v>
       </c>
-      <c r="R342" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T342" s="9"/>
-      <c r="U342" s="12"/>
-    </row>
-    <row r="343" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B343" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="H343" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L343" s="9"/>
-      <c r="P343" s="24">
+      <c r="Q342" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R342" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T342" s="19"/>
+      <c r="U342" s="32"/>
+    </row>
+    <row r="343" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B343" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="C343" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="F343" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G343" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H343" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L343" s="19"/>
+      <c r="P343" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q343" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R343" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T343" s="19"/>
+      <c r="U343" s="32"/>
+    </row>
+    <row r="344" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B344" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="C344" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="F344" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G344" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H344" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L344" s="19"/>
+      <c r="P344" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q344" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R344" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T344" s="19"/>
+      <c r="U344" s="32"/>
+    </row>
+    <row r="345" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B345" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="C345" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="D345" s="33"/>
+      <c r="F345" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G345" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H345" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L345" s="19"/>
+      <c r="P345" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q345" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="R345" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T345" s="19"/>
+      <c r="U345" s="32"/>
+    </row>
+    <row r="346" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A346" s="34"/>
+      <c r="B346" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="C346" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="D346" s="34"/>
+      <c r="E346" s="34"/>
+      <c r="F346" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="G346" s="34"/>
+      <c r="H346" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I346" s="34"/>
+      <c r="J346" s="34"/>
+      <c r="K346" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="L346" s="34" t="s">
+        <v>781</v>
+      </c>
+      <c r="M346" s="34"/>
+      <c r="N346" s="34"/>
+      <c r="O346" s="34"/>
+      <c r="P346" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q346" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R346" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S346" s="34"/>
+      <c r="T346" s="34"/>
+    </row>
+    <row r="347" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A347" s="34"/>
+      <c r="B347" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="C347" s="34" t="s">
+        <v>782</v>
+      </c>
+      <c r="D347" s="34"/>
+      <c r="E347" s="34"/>
+      <c r="F347" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="G347" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H347" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I347" s="34"/>
+      <c r="J347" s="34"/>
+      <c r="K347" s="34"/>
+      <c r="L347" s="34"/>
+      <c r="M347" s="34"/>
+      <c r="N347" s="34"/>
+      <c r="O347" s="34"/>
+      <c r="P347" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q347" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R347" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S347" s="34"/>
+      <c r="T347" s="34"/>
+    </row>
+    <row r="348" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="B348" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="C348" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="F348" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="G348" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H348" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K348" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="L348" s="36"/>
+      <c r="P348" s="35">
         <v>1</v>
       </c>
-      <c r="R343" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T343" s="9"/>
-      <c r="U343" s="12"/>
-    </row>
-    <row r="344" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B344" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="H344" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K344" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="L344" s="9"/>
-      <c r="P344" s="24">
-        <v>1</v>
-      </c>
-      <c r="R344" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T344" s="9"/>
-      <c r="U344" s="12"/>
-    </row>
-    <row r="345" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B345" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="H345" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L345" s="9"/>
-      <c r="P345" s="24">
-        <v>1</v>
-      </c>
-      <c r="R345" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T345" s="9"/>
-      <c r="U345" s="12"/>
-    </row>
-    <row r="346" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B346" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="H346" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L346" s="9"/>
-      <c r="P346" s="24">
-        <v>1</v>
-      </c>
-      <c r="R346" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T346" s="9"/>
-      <c r="U346" s="12"/>
-    </row>
-    <row r="347" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B347" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="H347" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L347" s="9"/>
-      <c r="P347" s="24">
-        <v>1</v>
-      </c>
-      <c r="R347" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T347" s="9"/>
-      <c r="U347" s="12"/>
-    </row>
-    <row r="348" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B348" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="H348" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L348" s="9"/>
-      <c r="P348" s="24">
-        <v>1</v>
-      </c>
-      <c r="R348" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T348" s="9"/>
-      <c r="U348" s="12"/>
-    </row>
-    <row r="349" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B349" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="H349" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L349" s="9"/>
-      <c r="P349" s="24">
-        <v>1</v>
-      </c>
-      <c r="R349" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T349" s="9"/>
-      <c r="U349" s="12"/>
-    </row>
-    <row r="350" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B350" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="H350" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L350" s="9"/>
-      <c r="P350" s="24">
-        <v>1</v>
-      </c>
-      <c r="R350" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T350" s="9"/>
-      <c r="U350" s="12"/>
+      <c r="Q348" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="R348" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T348" s="36"/>
+    </row>
+    <row r="349" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A349" s="34"/>
+      <c r="B349" s="34" t="s">
+        <v>773</v>
+      </c>
+      <c r="C349" s="34" t="s">
+        <v>784</v>
+      </c>
+      <c r="D349" s="34"/>
+      <c r="E349" s="34"/>
+      <c r="F349" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="G349" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H349" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I349" s="34"/>
+      <c r="J349" s="34"/>
+      <c r="K349" s="34"/>
+      <c r="L349" s="34"/>
+      <c r="M349" s="34"/>
+      <c r="N349" s="34"/>
+      <c r="O349" s="34"/>
+      <c r="P349" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q349" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R349" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S349" s="34"/>
+      <c r="T349" s="34"/>
+    </row>
+    <row r="350" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="A350" s="34"/>
+      <c r="B350" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="C350" s="34" t="s">
+        <v>785</v>
+      </c>
+      <c r="D350" s="34"/>
+      <c r="E350" s="34"/>
+      <c r="F350" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="G350" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H350" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I350" s="34"/>
+      <c r="J350" s="34"/>
+      <c r="K350" s="34"/>
+      <c r="L350" s="34"/>
+      <c r="M350" s="34"/>
+      <c r="N350" s="34"/>
+      <c r="O350" s="34"/>
+      <c r="P350" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q350" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R350" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S350" s="34"/>
+      <c r="T350" s="34"/>
     </row>
     <row r="351" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A351" s="12"/>
       <c r="B351" s="12" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
@@ -12974,10 +13245,10 @@
       <c r="T351" s="12"/>
       <c r="U351" s="12"/>
     </row>
-    <row r="352" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="352" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A352" s="12"/>
       <c r="B352" s="12" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
@@ -13006,7 +13277,7 @@
     <row r="353" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A353" s="12"/>
       <c r="B353" s="12" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
@@ -13032,10 +13303,10 @@
       <c r="T353" s="12"/>
       <c r="U353" s="12"/>
     </row>
-    <row r="354" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="354" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A354" s="12"/>
       <c r="B354" s="12" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
@@ -13061,131 +13332,133 @@
       <c r="T354" s="12"/>
       <c r="U354" s="12"/>
     </row>
-    <row r="355" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A355" s="12"/>
-      <c r="B355" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
-      <c r="E355" s="12"/>
-      <c r="F355" s="12"/>
-      <c r="G355" s="12"/>
-      <c r="H355" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I355" s="12"/>
-      <c r="J355" s="12"/>
-      <c r="K355" s="12"/>
-      <c r="L355" s="12"/>
-      <c r="M355" s="12"/>
-      <c r="N355" s="12"/>
-      <c r="O355" s="12"/>
-      <c r="P355" s="12"/>
-      <c r="Q355" s="12"/>
-      <c r="R355" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S355" s="12"/>
-      <c r="T355" s="12"/>
-      <c r="U355" s="12"/>
-    </row>
-    <row r="356" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A356" s="12"/>
-      <c r="B356" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
-      <c r="E356" s="12"/>
-      <c r="F356" s="12"/>
-      <c r="G356" s="12"/>
-      <c r="H356" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I356" s="12"/>
-      <c r="J356" s="12"/>
-      <c r="K356" s="12"/>
-      <c r="L356" s="12"/>
-      <c r="M356" s="12"/>
-      <c r="N356" s="12"/>
-      <c r="O356" s="12"/>
-      <c r="P356" s="12"/>
-      <c r="Q356" s="12"/>
-      <c r="R356" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S356" s="12"/>
-      <c r="T356" s="12"/>
-      <c r="U356" s="12"/>
-    </row>
-    <row r="357" spans="1:21" s="29" customFormat="1" ht="80" customHeight="1">
-      <c r="A357" s="14"/>
-      <c r="B357" s="14" t="s">
+    <row r="355" spans="1:21" s="29" customFormat="1" ht="80" customHeight="1">
+      <c r="A355" s="14"/>
+      <c r="B355" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C357" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D357" s="13"/>
-      <c r="E357" s="14"/>
-      <c r="F357" s="14"/>
-      <c r="G357" s="14"/>
-      <c r="H357" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I357" s="14"/>
-      <c r="J357" s="14"/>
-      <c r="L357" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M357" s="14"/>
-      <c r="N357" s="14"/>
-      <c r="O357" s="14"/>
-      <c r="P357" s="14"/>
-      <c r="Q357" s="14"/>
-      <c r="R357" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S357" s="14"/>
-      <c r="T357" s="14"/>
-      <c r="U357" s="14"/>
-    </row>
-    <row r="358" spans="1:21" s="29" customFormat="1" ht="16" customHeight="1">
-      <c r="A358" s="14"/>
-      <c r="B358" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C358" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="D358" s="14"/>
-      <c r="E358" s="14"/>
-      <c r="F358" s="14"/>
-      <c r="G358" s="14"/>
-      <c r="H358" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I358" s="14"/>
-      <c r="J358" s="14"/>
-      <c r="K358" s="14"/>
-      <c r="L358" s="14"/>
-      <c r="M358" s="14"/>
-      <c r="N358" s="14"/>
-      <c r="O358" s="14"/>
-      <c r="P358" s="14"/>
-      <c r="Q358" s="14"/>
-      <c r="R358" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S358" s="14"/>
-      <c r="T358" s="14"/>
-      <c r="U358" s="14"/>
+      <c r="C355" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D355" s="13"/>
+      <c r="E355" s="14"/>
+      <c r="F355" s="14"/>
+      <c r="G355" s="14"/>
+      <c r="H355" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I355" s="14"/>
+      <c r="J355" s="14"/>
+      <c r="L355" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="M355" s="14"/>
+      <c r="N355" s="14"/>
+      <c r="O355" s="14"/>
+      <c r="P355" s="14"/>
+      <c r="Q355" s="14"/>
+      <c r="R355" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S355" s="14"/>
+      <c r="T355" s="14"/>
+      <c r="U355" s="14"/>
+    </row>
+    <row r="356" spans="1:21" s="29" customFormat="1" ht="16" customHeight="1">
+      <c r="A356" s="14"/>
+      <c r="B356" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C356" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="D356" s="14"/>
+      <c r="E356" s="14"/>
+      <c r="F356" s="14"/>
+      <c r="G356" s="14"/>
+      <c r="H356" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I356" s="14"/>
+      <c r="J356" s="14"/>
+      <c r="K356" s="14"/>
+      <c r="L356" s="14"/>
+      <c r="M356" s="14"/>
+      <c r="N356" s="14"/>
+      <c r="O356" s="14"/>
+      <c r="P356" s="14"/>
+      <c r="Q356" s="14"/>
+      <c r="R356" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S356" s="14"/>
+      <c r="T356" s="14"/>
+      <c r="U356" s="14"/>
+    </row>
+    <row r="357" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A357" s="12"/>
+      <c r="B357" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
+      <c r="F357" s="12"/>
+      <c r="G357" s="12"/>
+      <c r="H357" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I357" s="12"/>
+      <c r="J357" s="12"/>
+      <c r="K357" s="12"/>
+      <c r="L357" s="12"/>
+      <c r="M357" s="12"/>
+      <c r="N357" s="12"/>
+      <c r="O357" s="12"/>
+      <c r="P357" s="12"/>
+      <c r="Q357" s="12"/>
+      <c r="R357" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S357" s="12"/>
+      <c r="T357" s="12"/>
+      <c r="U357" s="12"/>
+    </row>
+    <row r="358" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A358" s="12"/>
+      <c r="B358" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I358" s="12"/>
+      <c r="J358" s="12"/>
+      <c r="K358" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="L358" s="12"/>
+      <c r="M358" s="12"/>
+      <c r="N358" s="12"/>
+      <c r="O358" s="12"/>
+      <c r="P358" s="12"/>
+      <c r="Q358" s="12"/>
+      <c r="R358" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S358" s="12"/>
+      <c r="T358" s="12"/>
+      <c r="U358" s="12"/>
     </row>
     <row r="359" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A359" s="12"/>
       <c r="B359" s="12" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
@@ -13214,7 +13487,7 @@
     <row r="360" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A360" s="12"/>
       <c r="B360" s="12" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
@@ -13226,9 +13499,7 @@
       </c>
       <c r="I360" s="12"/>
       <c r="J360" s="12"/>
-      <c r="K360" s="12" t="s">
-        <v>481</v>
-      </c>
+      <c r="K360" s="12"/>
       <c r="L360" s="12"/>
       <c r="M360" s="12"/>
       <c r="N360" s="12"/>
@@ -13245,9 +13516,11 @@
     <row r="361" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A361" s="12"/>
       <c r="B361" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C361" s="12"/>
+        <v>457</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>458</v>
+      </c>
       <c r="D361" s="12"/>
       <c r="E361" s="12"/>
       <c r="F361" s="12"/>
@@ -13274,7 +13547,7 @@
     <row r="362" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A362" s="12"/>
       <c r="B362" s="12" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C362" s="12"/>
       <c r="D362" s="12"/>
@@ -13300,13 +13573,13 @@
       <c r="T362" s="12"/>
       <c r="U362" s="12"/>
     </row>
-    <row r="363" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="363" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A363" s="12"/>
       <c r="B363" s="12" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D363" s="12"/>
       <c r="E363" s="12"/>
@@ -13334,7 +13607,7 @@
     <row r="364" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A364" s="12"/>
       <c r="B364" s="12" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C364" s="12"/>
       <c r="D364" s="12"/>
@@ -13360,69 +13633,43 @@
       <c r="T364" s="12"/>
       <c r="U364" s="12"/>
     </row>
-    <row r="365" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
-      <c r="A365" s="12"/>
-      <c r="B365" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C365" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="D365" s="12"/>
-      <c r="E365" s="12"/>
-      <c r="F365" s="12"/>
-      <c r="G365" s="12"/>
-      <c r="H365" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I365" s="12"/>
-      <c r="J365" s="12"/>
-      <c r="K365" s="12"/>
-      <c r="L365" s="12"/>
-      <c r="M365" s="12"/>
-      <c r="N365" s="12"/>
-      <c r="O365" s="12"/>
-      <c r="P365" s="12"/>
-      <c r="Q365" s="12"/>
-      <c r="R365" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S365" s="12"/>
-      <c r="T365" s="12"/>
+    <row r="365" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B365" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="H365" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L365" s="9"/>
+      <c r="P365" s="24">
+        <v>1</v>
+      </c>
+      <c r="R365" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T365" s="9"/>
       <c r="U365" s="12"/>
     </row>
     <row r="366" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A366" s="12"/>
-      <c r="B366" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12"/>
-      <c r="F366" s="12"/>
-      <c r="G366" s="12"/>
-      <c r="H366" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I366" s="12"/>
-      <c r="J366" s="12"/>
-      <c r="K366" s="12"/>
-      <c r="L366" s="12"/>
-      <c r="M366" s="12"/>
-      <c r="N366" s="12"/>
-      <c r="O366" s="12"/>
-      <c r="P366" s="12"/>
-      <c r="Q366" s="12"/>
-      <c r="R366" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S366" s="12"/>
-      <c r="T366" s="12"/>
+      <c r="B366" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="H366" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L366" s="9"/>
+      <c r="P366" s="24">
+        <v>1</v>
+      </c>
+      <c r="R366" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T366" s="9"/>
       <c r="U366" s="12"/>
     </row>
     <row r="367" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B367" s="24" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="H367" s="24" t="s">
         <v>24</v>
@@ -13438,25 +13685,37 @@
       <c r="U367" s="12"/>
     </row>
     <row r="368" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B368" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="H368" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L368" s="9"/>
-      <c r="P368" s="24">
-        <v>1</v>
-      </c>
-      <c r="R368" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T368" s="9"/>
+      <c r="A368" s="12"/>
+      <c r="B368" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="12"/>
+      <c r="H368" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I368" s="12"/>
+      <c r="J368" s="12"/>
+      <c r="K368" s="12"/>
+      <c r="L368" s="12"/>
+      <c r="M368" s="12"/>
+      <c r="N368" s="12"/>
+      <c r="O368" s="12"/>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="12"/>
+      <c r="R368" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S368" s="12"/>
+      <c r="T368" s="12"/>
       <c r="U368" s="12"/>
     </row>
     <row r="369" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B369" s="24" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="H369" s="24" t="s">
         <v>24</v>
@@ -13472,37 +13731,37 @@
       <c r="U369" s="12"/>
     </row>
     <row r="370" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A370" s="12"/>
-      <c r="B370" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="C370" s="12"/>
-      <c r="D370" s="12"/>
-      <c r="E370" s="12"/>
-      <c r="F370" s="12"/>
-      <c r="G370" s="12"/>
-      <c r="H370" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I370" s="12"/>
-      <c r="J370" s="12"/>
-      <c r="K370" s="12"/>
-      <c r="L370" s="12"/>
-      <c r="M370" s="12"/>
-      <c r="N370" s="12"/>
-      <c r="O370" s="12"/>
-      <c r="P370" s="12"/>
-      <c r="Q370" s="12"/>
-      <c r="R370" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S370" s="12"/>
-      <c r="T370" s="12"/>
+      <c r="B370" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="H370" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L370" s="9"/>
+      <c r="P370" s="24">
+        <v>1</v>
+      </c>
+      <c r="R370" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T370" s="9"/>
       <c r="U370" s="12"/>
     </row>
     <row r="371" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A371" s="23" t="s">
+        <v>469</v>
+      </c>
       <c r="B371" s="24" t="s">
-        <v>494</v>
+        <v>470</v>
+      </c>
+      <c r="C371" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="F371" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="G371" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="H371" s="24" t="s">
         <v>24</v>
@@ -13518,37 +13777,41 @@
       <c r="U371" s="12"/>
     </row>
     <row r="372" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B372" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="H372" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L372" s="9"/>
-      <c r="P372" s="24">
-        <v>1</v>
-      </c>
-      <c r="R372" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T372" s="9"/>
+      <c r="A372" s="12"/>
+      <c r="B372" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+      <c r="F372" s="12"/>
+      <c r="G372" s="12"/>
+      <c r="H372" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I372" s="12"/>
+      <c r="J372" s="12"/>
+      <c r="K372" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="L372" s="12"/>
+      <c r="M372" s="12"/>
+      <c r="N372" s="12"/>
+      <c r="O372" s="12"/>
+      <c r="P372" s="12"/>
+      <c r="Q372" s="12"/>
+      <c r="R372" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S372" s="12"/>
+      <c r="T372" s="12"/>
       <c r="U372" s="12"/>
     </row>
     <row r="373" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A373" s="23" t="s">
-        <v>496</v>
-      </c>
       <c r="B373" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="C373" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="F373" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="G373" s="24" t="s">
-        <v>149</v>
+        <v>475</v>
       </c>
       <c r="H373" s="24" t="s">
         <v>24</v>
@@ -13563,42 +13826,44 @@
       <c r="T373" s="9"/>
       <c r="U373" s="12"/>
     </row>
-    <row r="374" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A374" s="12"/>
-      <c r="B374" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="C374" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="D374" s="12"/>
-      <c r="E374" s="12"/>
-      <c r="F374" s="12"/>
-      <c r="G374" s="12"/>
-      <c r="H374" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I374" s="12"/>
-      <c r="J374" s="12"/>
-      <c r="K374" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="L374" s="12"/>
-      <c r="M374" s="12"/>
-      <c r="N374" s="12"/>
-      <c r="O374" s="12"/>
-      <c r="P374" s="12"/>
-      <c r="Q374" s="12"/>
-      <c r="R374" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S374" s="12"/>
-      <c r="T374" s="12"/>
-      <c r="U374" s="12"/>
+    <row r="374" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="A374" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="B374" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="C374" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D374" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="F374" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="G374" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="H374" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K374" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="L374" s="19"/>
+      <c r="P374" s="26">
+        <v>1</v>
+      </c>
+      <c r="R374" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T374" s="19"/>
+      <c r="U374" s="32"/>
     </row>
     <row r="375" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B375" s="24" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="H375" s="24" t="s">
         <v>24</v>
@@ -13613,111 +13878,107 @@
       <c r="T375" s="9"/>
       <c r="U375" s="12"/>
     </row>
-    <row r="376" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A376" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B376" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C376" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="D376" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="F376" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="G376" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="H376" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K376" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="L376" s="19"/>
-      <c r="P376" s="26">
+    <row r="376" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A376" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="B376" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C376" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="F376" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H376" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L376" s="9"/>
+      <c r="P376" s="24">
         <v>1</v>
       </c>
-      <c r="R376" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T376" s="19"/>
-      <c r="U376" s="32"/>
-    </row>
-    <row r="377" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B377" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="H377" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L377" s="9"/>
-      <c r="P377" s="24">
+      <c r="R376" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T376" s="9"/>
+      <c r="U376" s="12"/>
+    </row>
+    <row r="377" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="B377" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="C377" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="F377" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H377" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L377" s="19"/>
+      <c r="P377" s="26">
         <v>1</v>
       </c>
-      <c r="R377" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T377" s="9"/>
-      <c r="U377" s="12"/>
+      <c r="R377" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T377" s="19"/>
+      <c r="U377" s="32"/>
     </row>
     <row r="378" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A378" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="B378" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="C378" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="F378" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H378" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L378" s="9"/>
-      <c r="P378" s="24">
+      <c r="A378" s="12"/>
+      <c r="B378" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C378" s="12"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="12"/>
+      <c r="F378" s="12"/>
+      <c r="G378" s="12"/>
+      <c r="H378" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I378" s="12"/>
+      <c r="J378" s="12"/>
+      <c r="K378" s="12"/>
+      <c r="L378" s="12"/>
+      <c r="M378" s="12"/>
+      <c r="N378" s="12"/>
+      <c r="O378" s="12"/>
+      <c r="P378" s="12"/>
+      <c r="Q378" s="12"/>
+      <c r="R378" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S378" s="12"/>
+      <c r="T378" s="12"/>
+      <c r="U378" s="12"/>
+    </row>
+    <row r="379" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B379" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="H379" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L379" s="9"/>
+      <c r="P379" s="24">
         <v>1</v>
       </c>
-      <c r="R378" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T378" s="9"/>
-      <c r="U378" s="12"/>
-    </row>
-    <row r="379" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B379" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C379" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="F379" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="H379" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L379" s="19"/>
-      <c r="P379" s="26">
-        <v>1</v>
-      </c>
-      <c r="R379" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T379" s="19"/>
-      <c r="U379" s="32"/>
-    </row>
-    <row r="380" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A380" s="12"/>
+      <c r="R379" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T379" s="9"/>
+      <c r="U379" s="12"/>
+    </row>
+    <row r="380" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+      <c r="A380" s="12" t="s">
+        <v>486</v>
+      </c>
       <c r="B380" s="12" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C380" s="12"/>
       <c r="D380" s="12"/>
@@ -13729,7 +13990,9 @@
       </c>
       <c r="I380" s="12"/>
       <c r="J380" s="12"/>
-      <c r="K380" s="12"/>
+      <c r="K380" s="12" t="s">
+        <v>488</v>
+      </c>
       <c r="L380" s="12"/>
       <c r="M380" s="12"/>
       <c r="N380" s="12"/>
@@ -13744,28 +14007,38 @@
       <c r="U380" s="12"/>
     </row>
     <row r="381" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B381" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="H381" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L381" s="9"/>
-      <c r="P381" s="24">
-        <v>1</v>
-      </c>
-      <c r="R381" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T381" s="9"/>
+      <c r="A381" s="12"/>
+      <c r="B381" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C381" s="12"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="12"/>
+      <c r="F381" s="12"/>
+      <c r="G381" s="12"/>
+      <c r="H381" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I381" s="12"/>
+      <c r="J381" s="12"/>
+      <c r="K381" s="12"/>
+      <c r="L381" s="12"/>
+      <c r="M381" s="12"/>
+      <c r="N381" s="12"/>
+      <c r="O381" s="12"/>
+      <c r="P381" s="12"/>
+      <c r="Q381" s="12"/>
+      <c r="R381" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S381" s="12"/>
+      <c r="T381" s="12"/>
       <c r="U381" s="12"/>
     </row>
-    <row r="382" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
-      <c r="A382" s="12" t="s">
-        <v>513</v>
-      </c>
+    <row r="382" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A382" s="12"/>
       <c r="B382" s="12" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C382" s="12"/>
       <c r="D382" s="12"/>
@@ -13777,9 +14050,7 @@
       </c>
       <c r="I382" s="12"/>
       <c r="J382" s="12"/>
-      <c r="K382" s="12" t="s">
-        <v>515</v>
-      </c>
+      <c r="K382" s="12"/>
       <c r="L382" s="12"/>
       <c r="M382" s="12"/>
       <c r="N382" s="12"/>
@@ -13796,7 +14067,7 @@
     <row r="383" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A383" s="12"/>
       <c r="B383" s="12" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="C383" s="12"/>
       <c r="D383" s="12"/>
@@ -13822,10 +14093,10 @@
       <c r="T383" s="12"/>
       <c r="U383" s="12"/>
     </row>
-    <row r="384" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="384" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
       <c r="A384" s="12"/>
       <c r="B384" s="12" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C384" s="12"/>
       <c r="D384" s="12"/>
@@ -13854,7 +14125,7 @@
     <row r="385" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A385" s="12"/>
       <c r="B385" s="12" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="C385" s="12"/>
       <c r="D385" s="12"/>
@@ -13880,10 +14151,10 @@
       <c r="T385" s="12"/>
       <c r="U385" s="12"/>
     </row>
-    <row r="386" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="386" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A386" s="12"/>
       <c r="B386" s="12" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="C386" s="12"/>
       <c r="D386" s="12"/>
@@ -13912,7 +14183,7 @@
     <row r="387" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A387" s="12"/>
       <c r="B387" s="12" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="C387" s="12"/>
       <c r="D387" s="12"/>
@@ -13941,7 +14212,7 @@
     <row r="388" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A388" s="12"/>
       <c r="B388" s="12" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="C388" s="12"/>
       <c r="D388" s="12"/>
@@ -13970,7 +14241,7 @@
     <row r="389" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A389" s="12"/>
       <c r="B389" s="12" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="C389" s="12"/>
       <c r="D389" s="12"/>
@@ -13999,7 +14270,7 @@
     <row r="390" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A390" s="12"/>
       <c r="B390" s="12" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="C390" s="12"/>
       <c r="D390" s="12"/>
@@ -14028,7 +14299,7 @@
     <row r="391" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A391" s="12"/>
       <c r="B391" s="12" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="C391" s="12"/>
       <c r="D391" s="12"/>
@@ -14057,7 +14328,7 @@
     <row r="392" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A392" s="12"/>
       <c r="B392" s="12" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="C392" s="12"/>
       <c r="D392" s="12"/>
@@ -14084,72 +14355,48 @@
       <c r="U392" s="12"/>
     </row>
     <row r="393" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A393" s="12"/>
-      <c r="B393" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="C393" s="12"/>
-      <c r="D393" s="12"/>
-      <c r="E393" s="12"/>
-      <c r="F393" s="12"/>
-      <c r="G393" s="12"/>
-      <c r="H393" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I393" s="12"/>
-      <c r="J393" s="12"/>
-      <c r="K393" s="12"/>
-      <c r="L393" s="12"/>
-      <c r="M393" s="12"/>
-      <c r="N393" s="12"/>
-      <c r="O393" s="12"/>
-      <c r="P393" s="12"/>
-      <c r="Q393" s="12"/>
-      <c r="R393" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S393" s="12"/>
-      <c r="T393" s="12"/>
+      <c r="B393" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="H393" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K393" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="L393" s="9"/>
+      <c r="P393" s="24">
+        <v>1</v>
+      </c>
+      <c r="R393" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T393" s="9"/>
       <c r="U393" s="12"/>
     </row>
     <row r="394" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A394" s="12"/>
-      <c r="B394" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="C394" s="12"/>
-      <c r="D394" s="12"/>
-      <c r="E394" s="12"/>
-      <c r="F394" s="12"/>
-      <c r="G394" s="12"/>
-      <c r="H394" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I394" s="12"/>
-      <c r="J394" s="12"/>
-      <c r="K394" s="12"/>
-      <c r="L394" s="12"/>
-      <c r="M394" s="12"/>
-      <c r="N394" s="12"/>
-      <c r="O394" s="12"/>
-      <c r="P394" s="12"/>
-      <c r="Q394" s="12"/>
-      <c r="R394" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S394" s="12"/>
-      <c r="T394" s="12"/>
+      <c r="B394" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="H394" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L394" s="9"/>
+      <c r="P394" s="24">
+        <v>1</v>
+      </c>
+      <c r="R394" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T394" s="9"/>
       <c r="U394" s="12"/>
     </row>
     <row r="395" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B395" s="24" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="H395" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="K395" s="24" t="s">
-        <v>529</v>
       </c>
       <c r="L395" s="9"/>
       <c r="P395" s="24">
@@ -14163,7 +14410,7 @@
     </row>
     <row r="396" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B396" s="24" t="s">
-        <v>530</v>
+        <v>59</v>
       </c>
       <c r="H396" s="24" t="s">
         <v>24</v>
@@ -14180,7 +14427,7 @@
     </row>
     <row r="397" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B397" s="24" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="H397" s="24" t="s">
         <v>24</v>
@@ -14197,7 +14444,7 @@
     </row>
     <row r="398" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B398" s="24" t="s">
-        <v>59</v>
+        <v>748</v>
       </c>
       <c r="H398" s="24" t="s">
         <v>24</v>
@@ -14213,43 +14460,67 @@
       <c r="U398" s="12"/>
     </row>
     <row r="399" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B399" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="H399" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L399" s="9"/>
-      <c r="P399" s="24">
-        <v>1</v>
-      </c>
-      <c r="R399" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T399" s="9"/>
+      <c r="A399" s="12"/>
+      <c r="B399" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C399" s="12"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="12"/>
+      <c r="F399" s="12"/>
+      <c r="G399" s="12"/>
+      <c r="H399" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I399" s="12"/>
+      <c r="J399" s="12"/>
+      <c r="K399" s="12"/>
+      <c r="L399" s="12"/>
+      <c r="M399" s="12"/>
+      <c r="N399" s="12"/>
+      <c r="O399" s="12"/>
+      <c r="P399" s="12"/>
+      <c r="Q399" s="12"/>
+      <c r="R399" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S399" s="12"/>
+      <c r="T399" s="12"/>
       <c r="U399" s="12"/>
     </row>
     <row r="400" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B400" s="24" t="s">
-        <v>778</v>
-      </c>
-      <c r="H400" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L400" s="9"/>
-      <c r="P400" s="24">
-        <v>1</v>
-      </c>
-      <c r="R400" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T400" s="9"/>
+      <c r="A400" s="12"/>
+      <c r="B400" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C400" s="12"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="12"/>
+      <c r="F400" s="12"/>
+      <c r="G400" s="12"/>
+      <c r="H400" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I400" s="12"/>
+      <c r="J400" s="12"/>
+      <c r="K400" s="12"/>
+      <c r="L400" s="12"/>
+      <c r="M400" s="12"/>
+      <c r="N400" s="12"/>
+      <c r="O400" s="12"/>
+      <c r="P400" s="12"/>
+      <c r="Q400" s="12"/>
+      <c r="R400" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S400" s="12"/>
+      <c r="T400" s="12"/>
       <c r="U400" s="12"/>
     </row>
     <row r="401" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A401" s="12"/>
       <c r="B401" s="12" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="C401" s="12"/>
       <c r="D401" s="12"/>
@@ -14278,7 +14549,7 @@
     <row r="402" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="A402" s="12"/>
       <c r="B402" s="12" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="C402" s="12"/>
       <c r="D402" s="12"/>
@@ -14305,196 +14576,160 @@
       <c r="U402" s="12"/>
     </row>
     <row r="403" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A403" s="12"/>
-      <c r="B403" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="C403" s="12"/>
-      <c r="D403" s="12"/>
-      <c r="E403" s="12"/>
-      <c r="F403" s="12"/>
-      <c r="G403" s="12"/>
-      <c r="H403" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I403" s="12"/>
-      <c r="J403" s="12"/>
-      <c r="K403" s="12"/>
-      <c r="L403" s="12"/>
-      <c r="M403" s="12"/>
-      <c r="N403" s="12"/>
-      <c r="O403" s="12"/>
-      <c r="P403" s="12"/>
-      <c r="Q403" s="12"/>
-      <c r="R403" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S403" s="12"/>
-      <c r="T403" s="12"/>
+      <c r="B403" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="H403" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L403" s="9"/>
+      <c r="P403" s="24">
+        <v>1</v>
+      </c>
+      <c r="R403" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T403" s="9"/>
       <c r="U403" s="12"/>
     </row>
     <row r="404" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A404" s="12"/>
-      <c r="B404" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-      <c r="E404" s="12"/>
-      <c r="F404" s="12"/>
-      <c r="G404" s="12"/>
-      <c r="H404" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I404" s="12"/>
-      <c r="J404" s="12"/>
-      <c r="K404" s="12"/>
-      <c r="L404" s="12"/>
-      <c r="M404" s="12"/>
-      <c r="N404" s="12"/>
-      <c r="O404" s="12"/>
-      <c r="P404" s="12"/>
-      <c r="Q404" s="12"/>
-      <c r="R404" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S404" s="12"/>
-      <c r="T404" s="12"/>
+      <c r="B404" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="H404" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L404" s="9"/>
+      <c r="P404" s="24">
+        <v>1</v>
+      </c>
+      <c r="R404" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T404" s="9"/>
       <c r="U404" s="12"/>
     </row>
     <row r="405" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B405" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="H405" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L405" s="9"/>
-      <c r="P405" s="24">
+      <c r="A405" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B405" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="D405" s="12"/>
+      <c r="E405" s="12"/>
+      <c r="F405" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G405" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H405" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I405" s="12"/>
+      <c r="J405" s="12"/>
+      <c r="K405" s="12"/>
+      <c r="L405" s="12"/>
+      <c r="M405" s="12"/>
+      <c r="N405" s="12"/>
+      <c r="O405" s="12"/>
+      <c r="P405" s="12"/>
+      <c r="Q405" s="12"/>
+      <c r="R405" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S405" s="12"/>
+      <c r="T405" s="12"/>
+      <c r="U405" s="12"/>
+    </row>
+    <row r="406" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A406" s="12"/>
+      <c r="B406" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C406" s="12"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="12"/>
+      <c r="F406" s="12"/>
+      <c r="G406" s="12"/>
+      <c r="H406" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I406" s="12"/>
+      <c r="J406" s="12"/>
+      <c r="K406" s="12"/>
+      <c r="L406" s="12"/>
+      <c r="M406" s="12"/>
+      <c r="N406" s="12"/>
+      <c r="O406" s="12"/>
+      <c r="P406" s="12"/>
+      <c r="Q406" s="12"/>
+      <c r="R406" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S406" s="12"/>
+      <c r="T406" s="12"/>
+      <c r="U406" s="12"/>
+    </row>
+    <row r="407" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B407" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="H407" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L407" s="9"/>
+      <c r="P407" s="24">
         <v>1</v>
       </c>
-      <c r="R405" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T405" s="9"/>
-      <c r="U405" s="12"/>
-    </row>
-    <row r="406" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B406" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="H406" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L406" s="9"/>
-      <c r="P406" s="24">
+      <c r="R407" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T407" s="9"/>
+      <c r="U407" s="12"/>
+    </row>
+    <row r="408" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="B408" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="H408" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L408" s="9"/>
+      <c r="P408" s="24">
         <v>1</v>
       </c>
-      <c r="R406" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T406" s="9"/>
-      <c r="U406" s="12"/>
-    </row>
-    <row r="407" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A407" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B407" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C407" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="D407" s="12"/>
-      <c r="E407" s="12"/>
-      <c r="F407" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G407" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H407" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I407" s="12"/>
-      <c r="J407" s="12"/>
-      <c r="K407" s="12"/>
-      <c r="L407" s="12"/>
-      <c r="M407" s="12"/>
-      <c r="N407" s="12"/>
-      <c r="O407" s="12"/>
-      <c r="P407" s="12"/>
-      <c r="Q407" s="12"/>
-      <c r="R407" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S407" s="12"/>
-      <c r="T407" s="12"/>
-      <c r="U407" s="12"/>
-    </row>
-    <row r="408" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A408" s="12"/>
-      <c r="B408" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C408" s="12"/>
-      <c r="D408" s="12"/>
-      <c r="E408" s="12"/>
-      <c r="F408" s="12"/>
-      <c r="G408" s="12"/>
-      <c r="H408" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I408" s="12"/>
-      <c r="J408" s="12"/>
-      <c r="K408" s="12"/>
-      <c r="L408" s="12"/>
-      <c r="M408" s="12"/>
-      <c r="N408" s="12"/>
-      <c r="O408" s="12"/>
-      <c r="P408" s="12"/>
-      <c r="Q408" s="12"/>
-      <c r="R408" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S408" s="12"/>
-      <c r="T408" s="12"/>
+      <c r="R408" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T408" s="9"/>
       <c r="U408" s="12"/>
     </row>
-    <row r="409" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B409" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="H409" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L409" s="9"/>
-      <c r="P409" s="24">
+    <row r="409" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
+      <c r="B409" s="9"/>
+      <c r="R409" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" s="12" customFormat="1">
+      <c r="B410" s="9"/>
+      <c r="H410" s="8"/>
+      <c r="I410" s="8"/>
+      <c r="J410" s="9"/>
+      <c r="K410" s="8"/>
+      <c r="L410" s="8"/>
+      <c r="M410" s="8"/>
+      <c r="N410" s="8">
         <v>1</v>
       </c>
-      <c r="R409" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T409" s="9"/>
-      <c r="U409" s="12"/>
-    </row>
-    <row r="410" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B410" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="H410" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L410" s="9"/>
-      <c r="P410" s="24">
-        <v>1</v>
-      </c>
-      <c r="R410" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T410" s="9"/>
-      <c r="U410" s="12"/>
+      <c r="O410" s="8"/>
+      <c r="P410" s="8"/>
+      <c r="Q410" s="8"/>
+      <c r="R410" s="8"/>
     </row>
     <row r="411" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
       <c r="B411" s="9"/>
@@ -14502,21 +14737,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:21" s="12" customFormat="1">
+    <row r="412" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
       <c r="B412" s="9"/>
-      <c r="H412" s="8"/>
-      <c r="I412" s="8"/>
-      <c r="J412" s="9"/>
-      <c r="K412" s="8"/>
-      <c r="L412" s="8"/>
-      <c r="M412" s="8"/>
-      <c r="N412" s="8">
-        <v>1</v>
-      </c>
-      <c r="O412" s="8"/>
-      <c r="P412" s="8"/>
-      <c r="Q412" s="8"/>
-      <c r="R412" s="8"/>
+      <c r="R412" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="413" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
       <c r="B413" s="9"/>
@@ -14524,11 +14749,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
+    <row r="414" spans="1:21" s="12" customFormat="1">
       <c r="B414" s="9"/>
-      <c r="R414" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="F414" s="8"/>
+      <c r="G414" s="8"/>
+      <c r="H414" s="8"/>
+      <c r="I414" s="8"/>
+      <c r="J414" s="8"/>
+      <c r="K414" s="8"/>
+      <c r="L414" s="8"/>
+      <c r="M414" s="8"/>
+      <c r="N414" s="8"/>
+      <c r="O414" s="8"/>
+      <c r="P414" s="8"/>
+      <c r="Q414" s="8"/>
+      <c r="R414" s="8"/>
     </row>
     <row r="415" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
       <c r="B415" s="9"/>
@@ -14538,6 +14773,8 @@
     </row>
     <row r="416" spans="1:21" s="12" customFormat="1">
       <c r="B416" s="9"/>
+      <c r="C416" s="8"/>
+      <c r="D416" s="8"/>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
       <c r="H416" s="8"/>
@@ -14552,51 +14789,33 @@
       <c r="Q416" s="8"/>
       <c r="R416" s="8"/>
     </row>
-    <row r="417" spans="1:20" s="12" customFormat="1" ht="16" customHeight="1">
+    <row r="417" spans="1:20" s="12" customFormat="1">
       <c r="B417" s="9"/>
-      <c r="R417" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="C417" s="8"/>
+      <c r="D417" s="8"/>
+      <c r="F417" s="8"/>
+      <c r="G417" s="8"/>
+      <c r="H417" s="8"/>
+      <c r="I417" s="8"/>
+      <c r="J417" s="8"/>
+      <c r="K417" s="8"/>
+      <c r="L417" s="8"/>
+      <c r="M417" s="8"/>
+      <c r="N417" s="8"/>
+      <c r="O417" s="8"/>
+      <c r="P417" s="8"/>
+      <c r="Q417" s="8"/>
+      <c r="R417" s="8"/>
     </row>
     <row r="418" spans="1:20" s="12" customFormat="1">
       <c r="B418" s="9"/>
-      <c r="C418" s="8"/>
-      <c r="D418" s="8"/>
-      <c r="F418" s="8"/>
-      <c r="G418" s="8"/>
-      <c r="H418" s="8"/>
-      <c r="I418" s="8"/>
-      <c r="J418" s="8"/>
-      <c r="K418" s="8"/>
-      <c r="L418" s="8"/>
-      <c r="M418" s="8"/>
-      <c r="N418" s="8"/>
-      <c r="O418" s="8"/>
-      <c r="P418" s="8"/>
-      <c r="Q418" s="8"/>
-      <c r="R418" s="8"/>
+      <c r="S418" s="8"/>
     </row>
     <row r="419" spans="1:20" s="12" customFormat="1">
       <c r="B419" s="9"/>
-      <c r="C419" s="8"/>
-      <c r="D419" s="8"/>
-      <c r="F419" s="8"/>
-      <c r="G419" s="8"/>
-      <c r="H419" s="8"/>
-      <c r="I419" s="8"/>
-      <c r="J419" s="8"/>
-      <c r="K419" s="8"/>
-      <c r="L419" s="8"/>
-      <c r="M419" s="8"/>
-      <c r="N419" s="8"/>
-      <c r="O419" s="8"/>
-      <c r="P419" s="8"/>
-      <c r="Q419" s="8"/>
-      <c r="R419" s="8"/>
     </row>
     <row r="420" spans="1:20" s="12" customFormat="1">
       <c r="B420" s="9"/>
-      <c r="S420" s="8"/>
     </row>
     <row r="421" spans="1:20" s="12" customFormat="1">
       <c r="B421" s="9"/>
@@ -14617,21 +14836,53 @@
       <c r="B426" s="9"/>
     </row>
     <row r="427" spans="1:20" s="12" customFormat="1">
+      <c r="A427" s="9"/>
       <c r="B427" s="9"/>
+      <c r="T427" s="8"/>
     </row>
     <row r="428" spans="1:20" s="12" customFormat="1">
       <c r="B428" s="9"/>
+      <c r="S428" s="8"/>
     </row>
     <row r="429" spans="1:20" s="12" customFormat="1">
-      <c r="A429" s="9"/>
       <c r="B429" s="9"/>
-      <c r="T429" s="8"/>
+      <c r="C429" s="8"/>
+      <c r="D429" s="8"/>
+      <c r="F429" s="8"/>
+      <c r="G429" s="8"/>
+      <c r="H429" s="8"/>
+      <c r="I429" s="8"/>
+      <c r="J429" s="8"/>
+      <c r="K429" s="8"/>
+      <c r="L429" s="8"/>
+      <c r="M429" s="8"/>
+      <c r="N429" s="8"/>
+      <c r="O429" s="8"/>
+      <c r="P429" s="8"/>
+      <c r="Q429" s="8"/>
+      <c r="R429" s="8"/>
     </row>
     <row r="430" spans="1:20" s="12" customFormat="1">
       <c r="B430" s="9"/>
+      <c r="C430" s="8"/>
+      <c r="D430" s="8"/>
+      <c r="F430" s="8"/>
+      <c r="G430" s="8"/>
+      <c r="H430" s="8"/>
+      <c r="I430" s="8"/>
+      <c r="J430" s="8"/>
+      <c r="K430" s="8"/>
+      <c r="L430" s="8"/>
+      <c r="M430" s="8"/>
+      <c r="N430" s="8"/>
+      <c r="O430" s="8"/>
+      <c r="P430" s="8"/>
+      <c r="Q430" s="8"/>
+      <c r="R430" s="8"/>
       <c r="S430" s="8"/>
     </row>
     <row r="431" spans="1:20" s="12" customFormat="1">
+      <c r="A431" s="8"/>
       <c r="B431" s="9"/>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
@@ -14648,6 +14899,8 @@
       <c r="P431" s="8"/>
       <c r="Q431" s="8"/>
       <c r="R431" s="8"/>
+      <c r="S431" s="8"/>
+      <c r="T431" s="8"/>
     </row>
     <row r="432" spans="1:20" s="12" customFormat="1">
       <c r="B432" s="9"/>
@@ -14668,48 +14921,8 @@
       <c r="R432" s="8"/>
       <c r="S432" s="8"/>
     </row>
-    <row r="433" spans="1:20" s="12" customFormat="1">
-      <c r="A433" s="8"/>
+    <row r="433" spans="2:2">
       <c r="B433" s="9"/>
-      <c r="C433" s="8"/>
-      <c r="D433" s="8"/>
-      <c r="F433" s="8"/>
-      <c r="G433" s="8"/>
-      <c r="H433" s="8"/>
-      <c r="I433" s="8"/>
-      <c r="J433" s="8"/>
-      <c r="K433" s="8"/>
-      <c r="L433" s="8"/>
-      <c r="M433" s="8"/>
-      <c r="N433" s="8"/>
-      <c r="O433" s="8"/>
-      <c r="P433" s="8"/>
-      <c r="Q433" s="8"/>
-      <c r="R433" s="8"/>
-      <c r="S433" s="8"/>
-      <c r="T433" s="8"/>
-    </row>
-    <row r="434" spans="1:20" s="12" customFormat="1">
-      <c r="B434" s="9"/>
-      <c r="C434" s="8"/>
-      <c r="D434" s="8"/>
-      <c r="F434" s="8"/>
-      <c r="G434" s="8"/>
-      <c r="H434" s="8"/>
-      <c r="I434" s="8"/>
-      <c r="J434" s="8"/>
-      <c r="K434" s="8"/>
-      <c r="L434" s="8"/>
-      <c r="M434" s="8"/>
-      <c r="N434" s="8"/>
-      <c r="O434" s="8"/>
-      <c r="P434" s="8"/>
-      <c r="Q434" s="8"/>
-      <c r="R434" s="8"/>
-      <c r="S434" s="8"/>
-    </row>
-    <row r="435" spans="1:20">
-      <c r="B435" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14737,16 +14950,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
@@ -14754,10 +14967,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1">
@@ -14765,10 +14978,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1">
@@ -14776,13 +14989,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1">
@@ -14790,10 +15003,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1">
@@ -14801,13 +15014,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1">
@@ -14815,10 +15028,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1">
@@ -14826,10 +15039,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1">
@@ -14837,10 +15050,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1">
@@ -14848,10 +15061,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1">
@@ -14859,10 +15072,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
@@ -14870,10 +15083,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1">
@@ -14881,10 +15094,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1">
@@ -14892,10 +15105,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1">
@@ -14903,10 +15116,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1">
@@ -14914,10 +15127,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
@@ -14925,10 +15138,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1">
@@ -14936,10 +15149,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1">
@@ -14947,10 +15160,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -14994,16 +15207,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -15018,18 +15231,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -15037,13 +15250,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -15051,16 +15264,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -15068,10 +15281,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -15079,13 +15292,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -15093,16 +15306,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -15110,13 +15323,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -15124,13 +15337,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -15141,13 +15354,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -15188,37 +15401,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -15226,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -15237,16 +15450,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -15254,16 +15467,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C4" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -15271,16 +15484,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C5" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -15288,16 +15501,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -15305,16 +15518,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -15322,16 +15535,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C8" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -15339,16 +15552,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C9" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -15356,16 +15569,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C10" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -15373,16 +15586,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C11" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -15390,7 +15603,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -15402,13 +15615,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="J12" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="K12" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -15416,7 +15629,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -15428,13 +15641,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J13" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K13" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -15442,7 +15655,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -15454,13 +15667,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J14" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K14" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -15468,7 +15681,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -15480,13 +15693,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J15" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K15" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -15494,7 +15707,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -15506,13 +15719,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J16" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K16" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -15520,7 +15733,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -15532,13 +15745,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J17" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K17" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -15546,7 +15759,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -15558,13 +15771,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J18" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K18" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -15572,7 +15785,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -15584,13 +15797,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J19" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K19" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -15598,7 +15811,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -15610,13 +15823,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J20" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K20" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -15624,7 +15837,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -15636,13 +15849,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="J21" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="K21" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -15650,7 +15863,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -15662,13 +15875,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="J22" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="K22" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -15676,7 +15889,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15688,13 +15901,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J23" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K23" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -15702,7 +15915,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15714,13 +15927,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J24" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K24" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -15728,7 +15941,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -15740,13 +15953,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J25" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K25" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -15754,7 +15967,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -15766,13 +15979,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J26" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K26" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -15780,7 +15993,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -15792,13 +16005,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J27" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K27" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -15806,7 +16019,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -15818,13 +16031,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J28" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K28" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -15832,7 +16045,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -15844,13 +16057,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J29" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K29" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -15858,7 +16071,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -15870,13 +16083,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J30" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="K30" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BB98A-3546-4847-A822-3BF11F9456E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB69ED1E-306D-45F2-8B14-FA215D42F960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,21 @@
     <sheet name="Links" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="813">
   <si>
     <t>ID</t>
   </si>
@@ -1442,12 +1452,6 @@
     <t>A process boundary that involves the end of a period of tobacco use.</t>
   </si>
   <si>
-    <t>Tobacco consumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A consumption behaviour in which a person ingests tobacco constituents. </t>
-  </si>
-  <si>
     <t>Tobacco use</t>
   </si>
   <si>
@@ -1970,9 +1974,6 @@
     <t>Substance use  pattern</t>
   </si>
   <si>
-    <t xml:space="preserve">A substance use pattern that involves the use of tobacco containing products. </t>
-  </si>
-  <si>
     <t xml:space="preserve">A substance use pattern of behaviour that involves the concurrent use by a person of two substances. </t>
   </si>
   <si>
@@ -2003,9 +2004,6 @@
     <t>A temporal region during which a single episode of e-cigarette use takes place.</t>
   </si>
   <si>
-    <t>An e-cigarette use behaviour that involves ingesting aerosol produced by an e-cigarette.</t>
-  </si>
-  <si>
     <t>This refers to the aggregate of use episodes in a person's history not a single e-cigarette use episode. That is covered by 'Duration of e-cigarette use episode'.</t>
   </si>
   <si>
@@ -2138,9 +2136,6 @@
     <t>E-cigarette use</t>
   </si>
   <si>
-    <t>E-cigarette smoking</t>
-  </si>
-  <si>
     <t>E-cigarette demand</t>
   </si>
   <si>
@@ -2297,9 +2292,6 @@
     <t>An e-cigarette use pattern that involves use of a device at least once per day.</t>
   </si>
   <si>
-    <t>An e-cigarette use behaviour that involves ingesting aerosol from an e-cigarette.</t>
-  </si>
-  <si>
     <t>An e-cigarette use behaviour which indicates the trial use of e-cigarette devices.</t>
   </si>
   <si>
@@ -2438,9 +2430,6 @@
     <t>A tobacco use behaviour that involves using a heated tobacco containing product.</t>
   </si>
   <si>
-    <t>A tobacco use behaviour that involves ingesting smokeless tobacco.</t>
-  </si>
-  <si>
     <t>A tobacco use pattern that involves use of a heated tobacco containing productat least once per day.</t>
   </si>
   <si>
@@ -2460,6 +2449,30 @@
   </si>
   <si>
     <t xml:space="preserve">The type of heated tobacco containing product should also be defined. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A substance use behaviour that involves the use of a tobacco-containing product. </t>
+  </si>
+  <si>
+    <t>Substance use behaviour</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>The term va;ing should not be used without making it clear what is being vaped. Thus vaping may involve using a device for vaping THC.</t>
+  </si>
+  <si>
+    <t>An consumption that involves ingesting aerosol produced by an e-cigarette.</t>
+  </si>
+  <si>
+    <t>Combustible tobacco use</t>
+  </si>
+  <si>
+    <t>A tobacco use behaviour that involves inhalation of the products of tobacco combustion.</t>
+  </si>
+  <si>
+    <t>A tobacco use behaviour that involves ingesting a smokeless tobacco-contaoing product.</t>
   </si>
 </sst>
 </file>
@@ -2682,15 +2695,17 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3024,40 +3039,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y433"/>
+  <dimension ref="A1:Y432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K347" sqref="K347"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="91" style="8" customWidth="1"/>
-    <col min="4" max="4" width="64.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="50" style="8" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="30" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="16" style="8" customWidth="1"/>
-    <col min="9" max="9" width="35.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="48.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="44.1640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="18.5" style="8" customWidth="1"/>
-    <col min="16" max="17" width="9.1640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="8" customWidth="1"/>
-    <col min="19" max="19" width="37.1640625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="48.6640625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="24.6640625" style="8" customWidth="1"/>
-    <col min="22" max="23" width="9.1640625" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="8"/>
+    <col min="9" max="9" width="35.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="44.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="8" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="48.7109375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="8" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" ht="32" customHeight="1">
+    <row r="1" spans="1:25" s="7" customFormat="1" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -3119,7 +3134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="24" customFormat="1" ht="48" customHeight="1">
+    <row r="2" spans="1:25" s="24" customFormat="1" ht="60">
       <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
@@ -3151,7 +3166,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:25" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="3" spans="1:25" s="24" customFormat="1" ht="30">
       <c r="A3" s="23" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3195,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="4" spans="1:25" s="24" customFormat="1" ht="45">
       <c r="A4" s="23" t="s">
         <v>33</v>
       </c>
@@ -3209,55 +3224,55 @@
       <c r="T4" s="9"/>
       <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="40" customFormat="1" ht="32" customHeight="1">
-      <c r="A5" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="1:25" s="39" customFormat="1" ht="156.75">
+      <c r="A5" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>735</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
-        <v>736</v>
-      </c>
-      <c r="I5" s="40" t="s">
+      <c r="C5" s="42" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="40" t="s">
-        <v>604</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>737</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>738</v>
-      </c>
-      <c r="W5" s="40" t="s">
+      <c r="O5" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="W5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="40" t="s">
+      <c r="X5" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="Y5" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="26" customFormat="1" ht="48" customHeight="1">
+      <c r="Y5" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="26" customFormat="1" ht="45">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>39</v>
@@ -3269,14 +3284,14 @@
         <v>37</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="L6" s="27"/>
       <c r="P6" s="26">
         <v>1</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R6" s="26" t="s">
         <v>27</v>
@@ -3284,7 +3299,7 @@
       <c r="T6" s="19"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:25" s="29" customFormat="1" ht="48" customHeight="1">
+    <row r="7" spans="1:25" s="29" customFormat="1" ht="60">
       <c r="A7" s="23" t="s">
         <v>40</v>
       </c>
@@ -3315,7 +3330,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:25" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="8" spans="1:25" s="24" customFormat="1" ht="45">
       <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
@@ -3352,7 +3367,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:25" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="9" spans="1:25" s="24" customFormat="1" ht="30">
       <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
@@ -3381,7 +3396,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:25" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="10" spans="1:25" s="24" customFormat="1" ht="45">
       <c r="A10" s="12" t="s">
         <v>52</v>
       </c>
@@ -3413,7 +3428,7 @@
         <v>26</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>27</v>
@@ -3422,7 +3437,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:25" s="26" customFormat="1" ht="32" customHeight="1">
+    <row r="11" spans="1:25" s="26" customFormat="1" ht="45">
       <c r="A11" s="25" t="s">
         <v>56</v>
       </c>
@@ -3446,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R11" s="26" t="s">
         <v>27</v>
@@ -3454,28 +3469,28 @@
       <c r="T11" s="19"/>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:25" s="26" customFormat="1" ht="32" customHeight="1">
+    <row r="12" spans="1:25" s="26" customFormat="1" ht="45">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="P12" s="26" t="s">
         <v>26</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R12" s="26" t="s">
         <v>27</v>
@@ -3483,7 +3498,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:25" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="13" spans="1:25" s="24" customFormat="1" ht="45">
       <c r="A13" s="23" t="s">
         <v>60</v>
       </c>
@@ -3497,7 +3512,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>24</v>
@@ -3509,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R13" s="24" t="s">
         <v>27</v>
@@ -3517,7 +3532,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:25" s="17" customFormat="1" ht="32" customHeight="1">
+    <row r="14" spans="1:25" s="17" customFormat="1" ht="30">
       <c r="A14" s="18" t="s">
         <v>64</v>
       </c>
@@ -3562,7 +3577,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" spans="1:25" s="24" customFormat="1" ht="48" customHeight="1">
+    <row r="15" spans="1:25" s="24" customFormat="1" ht="30">
       <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
@@ -3603,7 +3618,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:25" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="16" spans="1:25" s="24" customFormat="1" ht="30">
       <c r="A16" s="12" t="s">
         <v>75</v>
       </c>
@@ -3618,7 +3633,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>23</v>
@@ -3644,7 +3659,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="17" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A17" s="12" t="s">
         <v>79</v>
       </c>
@@ -3680,7 +3695,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="1:20" s="24" customFormat="1" ht="48" customHeight="1">
+    <row r="18" spans="1:20" s="24" customFormat="1" ht="75">
       <c r="A18" s="12" t="s">
         <v>84</v>
       </c>
@@ -3716,7 +3731,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A19" s="12" t="s">
         <v>88</v>
       </c>
@@ -3750,7 +3765,7 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="20" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A20" s="12" t="s">
         <v>92</v>
       </c>
@@ -3784,7 +3799,7 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="21" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
@@ -3818,7 +3833,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="22" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A22" s="12" t="s">
         <v>98</v>
       </c>
@@ -3852,7 +3867,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="23" spans="1:20" s="24" customFormat="1" ht="45">
       <c r="A23" s="12" t="s">
         <v>101</v>
       </c>
@@ -3886,7 +3901,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="24" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A24" s="12" t="s">
         <v>104</v>
       </c>
@@ -3920,7 +3935,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="25" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>107</v>
@@ -3948,7 +3963,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="1:20" s="17" customFormat="1" ht="16" customHeight="1">
+    <row r="26" spans="1:20" s="17" customFormat="1" ht="30">
       <c r="A26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3986,7 +4001,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="27" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
         <v>111</v>
@@ -4016,7 +4031,7 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="28" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
         <v>112</v>
@@ -4044,7 +4059,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
     </row>
-    <row r="29" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="29" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
         <v>113</v>
@@ -4072,7 +4087,7 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
     </row>
-    <row r="30" spans="1:20" s="24" customFormat="1" ht="112" customHeight="1">
+    <row r="30" spans="1:20" s="24" customFormat="1" ht="135">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
         <v>114</v>
@@ -4104,7 +4119,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="31" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
         <v>117</v>
@@ -4132,7 +4147,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="32" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
         <v>118</v>
@@ -4160,7 +4175,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="33" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
         <v>119</v>
@@ -4188,7 +4203,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="34" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>120</v>
@@ -4216,7 +4231,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="35" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
         <v>121</v>
@@ -4244,10 +4259,10 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="36" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -4272,7 +4287,7 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="1:20" s="17" customFormat="1" ht="32" customHeight="1">
+    <row r="37" spans="1:20" s="17" customFormat="1" ht="45">
       <c r="A37" s="10" t="s">
         <v>122</v>
       </c>
@@ -4308,7 +4323,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20" s="10" customFormat="1" ht="16" customHeight="1">
+    <row r="38" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A38" s="10" t="s">
         <v>126</v>
       </c>
@@ -4320,7 +4335,7 @@
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>23</v>
@@ -4330,7 +4345,7 @@
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:20" s="10" customFormat="1" ht="16" customHeight="1">
+    <row r="39" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A39" s="10" t="s">
         <v>128</v>
       </c>
@@ -4342,7 +4357,7 @@
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
@@ -4352,7 +4367,7 @@
       </c>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:20" s="10" customFormat="1" ht="16" customHeight="1">
+    <row r="40" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A40" s="10" t="s">
         <v>131</v>
       </c>
@@ -4364,7 +4379,7 @@
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
@@ -4374,7 +4389,7 @@
       </c>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:20" s="24" customFormat="1" ht="48" customHeight="1">
+    <row r="41" spans="1:20" s="24" customFormat="1" ht="60">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
         <v>133</v>
@@ -4404,7 +4419,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="42" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
         <v>63</v>
@@ -4436,7 +4451,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="43" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
         <v>137</v>
@@ -4466,7 +4481,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="44" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A44" s="12" t="s">
         <v>139</v>
       </c>
@@ -4479,7 +4494,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12" t="s">
@@ -4500,7 +4515,7 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
     </row>
-    <row r="45" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="45" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
         <v>142</v>
@@ -4528,7 +4543,7 @@
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
     </row>
-    <row r="46" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="46" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A46" s="12" t="s">
         <v>143</v>
       </c>
@@ -4536,12 +4551,12 @@
         <v>144</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>145</v>
@@ -4564,7 +4579,7 @@
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
     </row>
-    <row r="47" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="47" spans="1:20" s="24" customFormat="1" ht="45">
       <c r="A47" s="12" t="s">
         <v>146</v>
       </c>
@@ -4577,7 +4592,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>149</v>
@@ -4600,7 +4615,7 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
     </row>
-    <row r="48" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="48" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
         <v>150</v>
@@ -4628,7 +4643,7 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
     </row>
-    <row r="49" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="49" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
         <v>151</v>
@@ -4656,7 +4671,7 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
     </row>
-    <row r="50" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="50" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
         <v>152</v>
@@ -4684,7 +4699,7 @@
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
     </row>
-    <row r="51" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="51" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
         <v>153</v>
@@ -4712,7 +4727,7 @@
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
     </row>
-    <row r="52" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="52" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
         <v>154</v>
@@ -4740,7 +4755,7 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
     </row>
-    <row r="53" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="53" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
         <v>155</v>
@@ -4768,7 +4783,7 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
     </row>
-    <row r="54" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="54" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A54" s="12"/>
       <c r="B54" s="12" t="s">
         <v>156</v>
@@ -4796,7 +4811,7 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
     </row>
-    <row r="55" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="55" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A55" s="12"/>
       <c r="B55" s="12" t="s">
         <v>157</v>
@@ -4824,7 +4839,7 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
     </row>
-    <row r="56" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="56" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A56" s="12"/>
       <c r="B56" s="12" t="s">
         <v>158</v>
@@ -4852,17 +4867,17 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
     </row>
-    <row r="57" spans="1:20" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="57" spans="1:20" s="26" customFormat="1" ht="30">
       <c r="A57" s="32"/>
       <c r="B57" s="32" t="s">
         <v>159</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="32" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="32" t="s">
@@ -4877,7 +4892,7 @@
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R57" s="32" t="s">
         <v>27</v>
@@ -4885,7 +4900,7 @@
       <c r="S57" s="32"/>
       <c r="T57" s="32"/>
     </row>
-    <row r="58" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="58" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
         <v>160</v>
@@ -4913,7 +4928,7 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
     </row>
-    <row r="59" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="59" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
         <v>161</v>
@@ -4941,7 +4956,7 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
     </row>
-    <row r="60" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="60" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A60" s="12"/>
       <c r="B60" s="12" t="s">
         <v>162</v>
@@ -4969,7 +4984,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="1:20" s="24" customFormat="1" ht="64" customHeight="1">
+    <row r="61" spans="1:20" s="24" customFormat="1" ht="75">
       <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
         <v>163</v>
@@ -4999,7 +5014,7 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="62" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A62" s="12"/>
       <c r="B62" s="12" t="s">
         <v>165</v>
@@ -5027,7 +5042,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
     </row>
-    <row r="63" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="63" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
         <v>166</v>
@@ -5055,7 +5070,7 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
     </row>
-    <row r="64" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="64" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
         <v>167</v>
@@ -5083,7 +5098,7 @@
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
     </row>
-    <row r="65" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="65" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
         <v>168</v>
@@ -5111,18 +5126,18 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
     </row>
-    <row r="66" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="66" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="A66" s="32"/>
       <c r="B66" s="26" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
       <c r="F66" s="32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>43</v>
@@ -5146,15 +5161,15 @@
       <c r="T66" s="32"/>
       <c r="U66" s="32"/>
     </row>
-    <row r="67" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="67" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B67" s="26" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>43</v>
@@ -5167,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R67" s="26" t="s">
         <v>27</v>
@@ -5175,15 +5190,15 @@
       <c r="T67" s="19"/>
       <c r="U67" s="32"/>
     </row>
-    <row r="68" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="68" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B68" s="26" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>43</v>
@@ -5196,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R68" s="26" t="s">
         <v>27</v>
@@ -5204,15 +5219,15 @@
       <c r="T68" s="19"/>
       <c r="U68" s="32"/>
     </row>
-    <row r="69" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="69" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B69" s="26" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>43</v>
@@ -5225,7 +5240,7 @@
         <v>26</v>
       </c>
       <c r="Q69" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R69" s="26" t="s">
         <v>27</v>
@@ -5233,15 +5248,15 @@
       <c r="T69" s="19"/>
       <c r="U69" s="32"/>
     </row>
-    <row r="70" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="70" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B70" s="26" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>43</v>
@@ -5254,7 +5269,7 @@
         <v>26</v>
       </c>
       <c r="Q70" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R70" s="26" t="s">
         <v>27</v>
@@ -5262,16 +5277,16 @@
       <c r="T70" s="19"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="71" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B71" s="26" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D71" s="33"/>
       <c r="F71" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>43</v>
@@ -5284,7 +5299,7 @@
         <v>26</v>
       </c>
       <c r="Q71" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R71" s="26" t="s">
         <v>27</v>
@@ -5292,15 +5307,15 @@
       <c r="T71" s="19"/>
       <c r="U71" s="32"/>
     </row>
-    <row r="72" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="72" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B72" s="26" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>43</v>
@@ -5313,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R72" s="26" t="s">
         <v>27</v>
@@ -5321,18 +5336,18 @@
       <c r="T72" s="19"/>
       <c r="U72" s="32"/>
     </row>
-    <row r="73" spans="1:21" s="35" customFormat="1" ht="17" customHeight="1">
+    <row r="73" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A73" s="34"/>
       <c r="B73" s="34" t="s">
         <v>174</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>43</v>
@@ -5343,7 +5358,7 @@
       <c r="I73" s="34"/>
       <c r="J73" s="34"/>
       <c r="K73" s="34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
@@ -5353,7 +5368,7 @@
         <v>26</v>
       </c>
       <c r="Q73" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R73" s="34" t="s">
         <v>27</v>
@@ -5361,18 +5376,18 @@
       <c r="S73" s="34"/>
       <c r="T73" s="34"/>
     </row>
-    <row r="74" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="74" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A74" s="34"/>
       <c r="B74" s="34" t="s">
         <v>169</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="34" t="s">
@@ -5381,7 +5396,7 @@
       <c r="I74" s="34"/>
       <c r="J74" s="34"/>
       <c r="K74" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
@@ -5391,7 +5406,7 @@
         <v>26</v>
       </c>
       <c r="Q74" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R74" s="34" t="s">
         <v>27</v>
@@ -5399,18 +5414,18 @@
       <c r="S74" s="34"/>
       <c r="T74" s="34"/>
     </row>
-    <row r="75" spans="1:21" s="35" customFormat="1" ht="33.75" customHeight="1">
+    <row r="75" spans="1:21" s="35" customFormat="1" ht="60">
       <c r="A75" s="34"/>
       <c r="B75" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
       <c r="F75" s="34" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G75" s="34"/>
       <c r="H75" s="34" t="s">
@@ -5420,7 +5435,7 @@
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
       <c r="L75" s="34" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -5429,7 +5444,7 @@
         <v>26</v>
       </c>
       <c r="Q75" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R75" s="34" t="s">
         <v>27</v>
@@ -5437,13 +5452,13 @@
       <c r="S75" s="34"/>
       <c r="T75" s="34"/>
     </row>
-    <row r="76" spans="1:21" s="35" customFormat="1" ht="33.75" customHeight="1">
+    <row r="76" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A76" s="34"/>
       <c r="B76" s="34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -5467,7 +5482,7 @@
         <v>26</v>
       </c>
       <c r="Q76" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R76" s="34" t="s">
         <v>27</v>
@@ -5475,18 +5490,18 @@
       <c r="S76" s="34"/>
       <c r="T76" s="34"/>
     </row>
-    <row r="77" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="77" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A77" s="34"/>
       <c r="B77" s="34" t="s">
         <v>170</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G77" s="34" t="s">
         <v>43</v>
@@ -5497,7 +5512,7 @@
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
       <c r="K77" s="34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L77" s="34"/>
       <c r="M77" s="34"/>
@@ -5507,7 +5522,7 @@
         <v>26</v>
       </c>
       <c r="Q77" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R77" s="34" t="s">
         <v>27</v>
@@ -5515,18 +5530,18 @@
       <c r="S77" s="34"/>
       <c r="T77" s="34"/>
     </row>
-    <row r="78" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="78" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A78" s="34"/>
       <c r="B78" s="34" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G78" s="34" t="s">
         <v>43</v>
@@ -5545,15 +5560,15 @@
       <c r="S78" s="34"/>
       <c r="T78" s="34"/>
     </row>
-    <row r="79" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="79" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="B79" s="35" t="s">
         <v>171</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G79" s="35" t="s">
         <v>43</v>
@@ -5562,29 +5577,29 @@
         <v>24</v>
       </c>
       <c r="K79" s="35" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L79" s="36"/>
       <c r="P79" s="35">
         <v>1</v>
       </c>
       <c r="Q79" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R79" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T79" s="36"/>
     </row>
-    <row r="80" spans="1:21" s="35" customFormat="1" ht="27.75" customHeight="1">
+    <row r="80" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="B80" s="35" t="s">
         <v>172</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>43</v>
@@ -5597,25 +5612,25 @@
         <v>1</v>
       </c>
       <c r="Q80" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R80" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T80" s="36"/>
     </row>
-    <row r="81" spans="1:20" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="81" spans="1:20" s="35" customFormat="1" ht="30">
       <c r="A81" s="34"/>
       <c r="B81" s="34" t="s">
         <v>173</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
       <c r="F81" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G81" s="34" t="s">
         <v>43</v>
@@ -5634,7 +5649,7 @@
         <v>26</v>
       </c>
       <c r="Q81" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R81" s="34" t="s">
         <v>27</v>
@@ -5642,18 +5657,18 @@
       <c r="S81" s="34"/>
       <c r="T81" s="34"/>
     </row>
-    <row r="82" spans="1:20" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="82" spans="1:20" s="35" customFormat="1" ht="30">
       <c r="A82" s="34"/>
       <c r="B82" s="34" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D82" s="34"/>
       <c r="E82" s="34"/>
       <c r="F82" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>43</v>
@@ -5672,7 +5687,7 @@
         <v>26</v>
       </c>
       <c r="Q82" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R82" s="34" t="s">
         <v>27</v>
@@ -5680,7 +5695,7 @@
       <c r="S82" s="34"/>
       <c r="T82" s="34"/>
     </row>
-    <row r="83" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="83" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A83" s="12"/>
       <c r="B83" s="12" t="s">
         <v>175</v>
@@ -5708,7 +5723,7 @@
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
     </row>
-    <row r="84" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="84" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A84" s="12"/>
       <c r="B84" s="12" t="s">
         <v>176</v>
@@ -5736,7 +5751,7 @@
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
     </row>
-    <row r="85" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="85" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A85" s="12"/>
       <c r="B85" s="12" t="s">
         <v>177</v>
@@ -5764,7 +5779,7 @@
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
     </row>
-    <row r="86" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="86" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A86" s="12"/>
       <c r="B86" s="12" t="s">
         <v>178</v>
@@ -5792,7 +5807,7 @@
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
     </row>
-    <row r="87" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="87" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A87" s="8" t="s">
         <v>179</v>
       </c>
@@ -5826,7 +5841,7 @@
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="88" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A88" s="8" t="s">
         <v>183</v>
       </c>
@@ -5860,7 +5875,7 @@
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="89" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A89" s="12"/>
       <c r="B89" s="12" t="s">
         <v>187</v>
@@ -5888,57 +5903,57 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B90" s="24" t="s">
+    <row r="90" spans="1:20" s="17" customFormat="1" ht="30">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+    </row>
+    <row r="91" spans="1:20" s="24" customFormat="1" ht="30">
+      <c r="B91" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="H90" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L90" s="9"/>
-      <c r="P90" s="24">
+      <c r="H91" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="9"/>
+      <c r="P91" s="24">
         <v>1</v>
       </c>
-      <c r="R90" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T90" s="9"/>
-    </row>
-    <row r="91" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-    </row>
-    <row r="92" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="R91" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A92" s="12"/>
       <c r="B92" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -5960,86 +5975,87 @@
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
     </row>
-    <row r="93" spans="1:20" s="17" customFormat="1" ht="16" customHeight="1">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:20" s="24" customFormat="1" ht="30">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+    </row>
+    <row r="94" spans="1:20" s="17" customFormat="1" ht="30">
+      <c r="A94" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>724</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" s="10" t="s">
+      <c r="C94" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="10"/>
-      <c r="T93" s="10"/>
-    </row>
-    <row r="94" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-    </row>
-    <row r="95" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+      <c r="H94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+    </row>
+    <row r="95" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A95" s="12"/>
       <c r="B95" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>140</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
+      <c r="J95" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
@@ -6047,19 +6063,20 @@
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
+      <c r="R95" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
     </row>
-    <row r="96" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="96" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A96" s="12"/>
       <c r="B96" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+        <v>195</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12" t="s">
         <v>24</v>
@@ -6073,16 +6090,14 @@
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
-      <c r="R96" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="R96" s="12"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
     </row>
-    <row r="97" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="97" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A97" s="12"/>
       <c r="B97" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -6107,10 +6122,10 @@
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
     </row>
-    <row r="98" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="98" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -6135,10 +6150,10 @@
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
     </row>
-    <row r="99" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="99" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A99" s="12"/>
       <c r="B99" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -6163,10 +6178,10 @@
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
     </row>
-    <row r="100" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="100" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A100" s="12"/>
       <c r="B100" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -6185,14 +6200,16 @@
       <c r="O100" s="12"/>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
+      <c r="R100" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="S100" s="12"/>
       <c r="T100" s="12"/>
     </row>
-    <row r="101" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="101" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A101" s="12"/>
       <c r="B101" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -6211,17 +6228,18 @@
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
-      <c r="R101" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="R101" s="12"/>
       <c r="S101" s="12"/>
       <c r="T101" s="12"/>
     </row>
-    <row r="102" spans="1:20" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="102" spans="1:20" s="24" customFormat="1" ht="30">
       <c r="A102" s="12"/>
-      <c r="B102" s="24" t="s">
-        <v>22</v>
-      </c>
+      <c r="B102" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12" t="s">
@@ -6242,280 +6260,259 @@
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
     </row>
-    <row r="103" spans="1:20" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B103" s="32" t="s">
+    <row r="103" spans="1:20" s="24" customFormat="1" ht="30">
+      <c r="A103" s="12"/>
+      <c r="B103" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+    </row>
+    <row r="104" spans="1:20" s="26" customFormat="1" ht="30">
+      <c r="B104" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L103" s="19"/>
-      <c r="P103" s="26">
+      <c r="C104" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104" s="19"/>
+      <c r="P104" s="26">
         <v>1</v>
       </c>
-      <c r="R103" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T103" s="19"/>
-    </row>
-    <row r="104" spans="1:20" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32" t="s">
+      <c r="R104" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T104" s="19"/>
+    </row>
+    <row r="105" spans="1:20" s="26" customFormat="1" ht="30">
+      <c r="A105" s="32"/>
+      <c r="B105" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C104" s="32" t="s">
-        <v>672</v>
-      </c>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32" t="s">
-        <v>669</v>
-      </c>
-      <c r="G104" s="32" t="s">
+      <c r="C105" s="32" t="s">
+        <v>668</v>
+      </c>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="G105" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H104" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S104" s="32"/>
-      <c r="T104" s="32"/>
-    </row>
-    <row r="105" spans="1:20" s="26" customFormat="1" ht="32" customHeight="1">
-      <c r="B105" s="26" t="s">
+      <c r="H105" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S105" s="32"/>
+      <c r="T105" s="32"/>
+    </row>
+    <row r="106" spans="1:20" s="26" customFormat="1" ht="45">
+      <c r="B106" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C105" s="26" t="s">
-        <v>671</v>
-      </c>
-      <c r="F105" s="26" t="s">
-        <v>645</v>
-      </c>
-      <c r="G105" s="26" t="s">
+      <c r="C106" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="G106" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H105" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K105" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="L105" s="19"/>
-      <c r="P105" s="26">
+      <c r="H106" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K106" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="L106" s="19"/>
+      <c r="P106" s="26">
         <v>1</v>
       </c>
-      <c r="Q105" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="R105" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T105" s="19"/>
-    </row>
-    <row r="106" spans="1:20" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32" t="s">
+      <c r="Q106" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="R106" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T106" s="19"/>
+    </row>
+    <row r="107" spans="1:20" s="26" customFormat="1" ht="30">
+      <c r="A107" s="32"/>
+      <c r="B107" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C106" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32" t="s">
+      <c r="C107" s="32" t="s">
         <v>670</v>
       </c>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S106" s="32"/>
-      <c r="T106" s="32"/>
-    </row>
-    <row r="107" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12" t="s">
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+    </row>
+    <row r="108" spans="1:20" s="24" customFormat="1" ht="30">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-    </row>
-    <row r="108" spans="1:20" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="G108" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q108" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="R108" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-    </row>
-    <row r="109" spans="1:20" s="26" customFormat="1" ht="16" customHeight="1">
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+    </row>
+    <row r="109" spans="1:20" s="26" customFormat="1" ht="30">
       <c r="A109" s="32"/>
       <c r="B109" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="D109" s="32"/>
       <c r="E109" s="32"/>
       <c r="F109" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="G109" s="32"/>
+        <v>617</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="H109" s="32" t="s">
         <v>24</v>
       </c>
       <c r="I109" s="32"/>
       <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
+      <c r="K109" s="32" t="s">
+        <v>616</v>
+      </c>
       <c r="L109" s="32"/>
       <c r="M109" s="32"/>
       <c r="N109" s="32"/>
       <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32"/>
+      <c r="P109" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q109" s="32" t="s">
+        <v>614</v>
+      </c>
       <c r="R109" s="32" t="s">
         <v>27</v>
       </c>
       <c r="S109" s="32"/>
       <c r="T109" s="32"/>
     </row>
-    <row r="110" spans="1:20" s="17" customFormat="1" ht="80" customHeight="1">
-      <c r="A110" s="18" t="s">
+    <row r="110" spans="1:20" s="26" customFormat="1" ht="30">
+      <c r="A110" s="32"/>
+      <c r="B110" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S110" s="32"/>
+      <c r="T110" s="32"/>
+    </row>
+    <row r="111" spans="1:20" s="17" customFormat="1" ht="90">
+      <c r="A111" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B111" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>653</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="K110" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="L110" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="M110" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q110" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="R110" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-    </row>
-    <row r="111" spans="1:20" s="17" customFormat="1" ht="80" customHeight="1">
-      <c r="A111" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>652</v>
-      </c>
       <c r="C111" s="18" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -6528,13 +6525,17 @@
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="18" t="s">
-        <v>662</v>
-      </c>
-      <c r="K111" s="18"/>
+        <v>657</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>248</v>
+      </c>
       <c r="L111" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="M111" s="18"/>
+        <v>656</v>
+      </c>
+      <c r="M111" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="N111" s="18"/>
       <c r="O111" s="18"/>
       <c r="P111" s="18" t="s">
@@ -6549,38 +6550,52 @@
       <c r="S111" s="18"/>
       <c r="T111" s="18"/>
     </row>
-    <row r="112" spans="1:20" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
-    </row>
-    <row r="113" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="112" spans="1:20" s="17" customFormat="1" ht="90">
+      <c r="A112" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="K112" s="18"/>
+      <c r="L112" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q112" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="R112" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S112" s="18"/>
+      <c r="T112" s="18"/>
+    </row>
+    <row r="113" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A113" s="12"/>
       <c r="B113" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
@@ -6605,10 +6620,10 @@
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
     </row>
-    <row r="114" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="114" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A114" s="12"/>
       <c r="B114" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
@@ -6633,10 +6648,10 @@
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
     </row>
-    <row r="115" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="115" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A115" s="12"/>
       <c r="B115" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
@@ -6661,10 +6676,10 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
     </row>
-    <row r="116" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="116" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A116" s="12"/>
       <c r="B116" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
@@ -6689,10 +6704,10 @@
       <c r="S116" s="12"/>
       <c r="T116" s="12"/>
     </row>
-    <row r="117" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="117" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A117" s="12"/>
       <c r="B117" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
@@ -6717,10 +6732,10 @@
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
     </row>
-    <row r="118" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="118" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A118" s="12"/>
       <c r="B118" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -6745,14 +6760,12 @@
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
     </row>
-    <row r="119" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="119" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A119" s="12"/>
       <c r="B119" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>224</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C119" s="12"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -6775,68 +6788,68 @@
       <c r="S119" s="12"/>
       <c r="T119" s="12"/>
     </row>
-    <row r="120" spans="1:21" s="29" customFormat="1" ht="32" customHeight="1">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14" t="s">
+    <row r="120" spans="1:21" s="24" customFormat="1" ht="45">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+    </row>
+    <row r="121" spans="1:21" s="29" customFormat="1" ht="30">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C121" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S120" s="14"/>
-      <c r="T120" s="14"/>
-    </row>
-    <row r="121" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
-    </row>
-    <row r="122" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="14"/>
+      <c r="Q121" s="14"/>
+      <c r="R121" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S121" s="14"/>
+      <c r="T121" s="14"/>
+    </row>
+    <row r="122" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A122" s="12"/>
       <c r="B122" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
@@ -6848,6 +6861,9 @@
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
+      <c r="K122" s="12" t="s">
+        <v>228</v>
+      </c>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
@@ -6860,10 +6876,10 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
     </row>
-    <row r="123" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="123" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A123" s="12"/>
       <c r="B123" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
@@ -6875,7 +6891,6 @@
       </c>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
       <c r="N123" s="12"/>
@@ -6888,10 +6903,10 @@
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
     </row>
-    <row r="124" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="124" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A124" s="12"/>
       <c r="B124" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -6915,12 +6930,11 @@
       </c>
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
-      <c r="U124" s="12"/>
-    </row>
-    <row r="125" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    </row>
+    <row r="125" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A125" s="12"/>
       <c r="B125" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
@@ -6946,10 +6960,10 @@
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
     </row>
-    <row r="126" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="126" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A126" s="12"/>
       <c r="B126" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
@@ -6975,105 +6989,105 @@
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
     </row>
-    <row r="127" spans="1:21" s="17" customFormat="1" ht="16" customHeight="1">
-      <c r="A127" s="18" t="s">
+    <row r="127" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+    </row>
+    <row r="128" spans="1:21" s="17" customFormat="1" ht="30">
+      <c r="A128" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B127" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="C127" s="18" t="s">
+      <c r="B128" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="C128" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18" t="s">
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18" t="s">
+      <c r="G128" s="18"/>
+      <c r="H128" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="18"/>
-      <c r="R127" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S127" s="18"/>
-      <c r="T127" s="18"/>
-      <c r="U127" s="18"/>
-    </row>
-    <row r="128" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A128" s="32"/>
-      <c r="B128" s="32" t="s">
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S128" s="18"/>
+      <c r="T128" s="18"/>
+      <c r="U128" s="18"/>
+    </row>
+    <row r="129" spans="1:21" s="26" customFormat="1" ht="30">
+      <c r="A129" s="32"/>
+      <c r="B129" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="C129" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="C128" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32" t="s">
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="32"/>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32"/>
-      <c r="S128" s="32"/>
-      <c r="T128" s="32"/>
-      <c r="U128" s="32"/>
-    </row>
-    <row r="129" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
-      <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
-      <c r="O129" s="12"/>
-      <c r="P129" s="12"/>
-      <c r="Q129" s="12"/>
-      <c r="R129" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S129" s="12"/>
-      <c r="T129" s="12"/>
-      <c r="U129" s="12"/>
-    </row>
-    <row r="130" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="32"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="32"/>
+      <c r="T129" s="32"/>
+      <c r="U129" s="32"/>
+    </row>
+    <row r="130" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A130" s="12"/>
       <c r="B130" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
@@ -7099,10 +7113,10 @@
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
     </row>
-    <row r="131" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="131" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A131" s="12"/>
       <c r="B131" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
@@ -7128,10 +7142,10 @@
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
     </row>
-    <row r="132" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="132" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A132" s="12"/>
       <c r="B132" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
@@ -7157,87 +7171,84 @@
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
     </row>
-    <row r="133" spans="1:21" s="26" customFormat="1" ht="32" customHeight="1">
-      <c r="A133" s="32"/>
-      <c r="B133" s="26" t="s">
+    <row r="133" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="12"/>
+    </row>
+    <row r="134" spans="1:21" s="26" customFormat="1" ht="45">
+      <c r="A134" s="32"/>
+      <c r="B134" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C133" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32" t="s">
+      <c r="C134" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G133" s="32" t="s">
+      <c r="G134" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H133" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32"/>
-      <c r="K133" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="L133" s="32"/>
-      <c r="M133" s="32"/>
-      <c r="N133" s="32"/>
-      <c r="O133" s="32"/>
-      <c r="P133" s="32" t="s">
+      <c r="H134" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="L134" s="32"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q133" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="R133" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S133" s="32"/>
-      <c r="T133" s="32"/>
-      <c r="U133" s="32"/>
-    </row>
-    <row r="134" spans="1:21" s="26" customFormat="1" ht="37" customHeight="1">
-      <c r="B134" s="26" t="s">
+      <c r="Q134" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="R134" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S134" s="32"/>
+      <c r="T134" s="32"/>
+      <c r="U134" s="32"/>
+    </row>
+    <row r="135" spans="1:21" s="26" customFormat="1" ht="30">
+      <c r="B135" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C134" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="F134" s="26" t="s">
+      <c r="C135" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="F135" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="G134" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H134" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K134" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="L134" s="19"/>
-      <c r="P134" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="R134" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T134" s="19"/>
-      <c r="U134" s="32"/>
-    </row>
-    <row r="135" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B135" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="F135" s="26" t="s">
-        <v>621</v>
       </c>
       <c r="G135" s="26" t="s">
         <v>43</v>
@@ -7253,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="Q135" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R135" s="26" t="s">
         <v>27</v>
@@ -7261,77 +7272,80 @@
       <c r="T135" s="19"/>
       <c r="U135" s="32"/>
     </row>
-    <row r="136" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B136" s="12" t="s">
+    <row r="136" spans="1:21" s="26" customFormat="1" ht="30">
+      <c r="B136" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="G136" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H136" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K136" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L136" s="19"/>
+      <c r="P136" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="R136" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T136" s="19"/>
+      <c r="U136" s="32"/>
+    </row>
+    <row r="137" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B137" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="G136" s="24" t="s">
+      <c r="C137" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="H136" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L136" s="9"/>
-      <c r="P136" s="24">
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L137" s="9"/>
+      <c r="P137" s="24">
         <v>1</v>
       </c>
-      <c r="R136" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T136" s="9"/>
-      <c r="U136" s="12"/>
-    </row>
-    <row r="137" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
-      <c r="O137" s="12"/>
-      <c r="P137" s="12"/>
-      <c r="Q137" s="12"/>
-      <c r="R137" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S137" s="12"/>
-      <c r="T137" s="12"/>
+      <c r="R137" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T137" s="9"/>
       <c r="U137" s="12"/>
     </row>
-    <row r="138" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="138" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A138" s="12"/>
       <c r="B138" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
+        <v>245</v>
+      </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
+      <c r="J138" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
@@ -7346,26 +7360,38 @@
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
     </row>
-    <row r="139" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
-      <c r="B139" s="24" t="s">
+    <row r="139" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="U139" s="12"/>
+    </row>
+    <row r="140" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B140" s="24" t="s">
         <v>249</v>
-      </c>
-      <c r="H139" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L139" s="9"/>
-      <c r="P139" s="24">
-        <v>1</v>
-      </c>
-      <c r="R139" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T139" s="9"/>
-      <c r="U139" s="12"/>
-    </row>
-    <row r="140" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B140" s="24" t="s">
-        <v>250</v>
       </c>
       <c r="H140" s="24" t="s">
         <v>24</v>
@@ -7380,9 +7406,9 @@
       <c r="T140" s="9"/>
       <c r="U140" s="12"/>
     </row>
-    <row r="141" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="141" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B141" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H141" s="24" t="s">
         <v>24</v>
@@ -7397,96 +7423,89 @@
       <c r="T141" s="9"/>
       <c r="U141" s="12"/>
     </row>
-    <row r="142" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B142" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="G142" s="26" t="s">
+    <row r="142" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B142" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L142" s="9"/>
+      <c r="P142" s="24">
+        <v>1</v>
+      </c>
+      <c r="R142" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T142" s="9"/>
+      <c r="U142" s="12"/>
+    </row>
+    <row r="143" spans="1:21" s="26" customFormat="1" ht="75">
+      <c r="B143" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="G143" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="32"/>
-    </row>
-    <row r="143" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A143" s="32"/>
-      <c r="B143" s="26" t="s">
+      <c r="K143" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="L143" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="T143" s="19"/>
+      <c r="U143" s="32"/>
+    </row>
+    <row r="144" spans="1:21" s="26" customFormat="1" ht="30">
+      <c r="A144" s="32"/>
+      <c r="B144" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C143" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32" t="s">
-        <v>695</v>
-      </c>
-      <c r="G143" s="32" t="s">
+      <c r="C144" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="G144" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H143" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I143" s="32"/>
-      <c r="J143" s="32"/>
-      <c r="K143" s="32"/>
-      <c r="L143" s="32"/>
-      <c r="M143" s="32"/>
-      <c r="N143" s="32"/>
-      <c r="O143" s="32"/>
-      <c r="P143" s="32"/>
-      <c r="Q143" s="32"/>
-      <c r="R143" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="S143" s="32"/>
-      <c r="T143" s="32"/>
-      <c r="U143" s="32"/>
-    </row>
-    <row r="144" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B144" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="F144" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="G144" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H144" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L144" s="19"/>
-      <c r="P144" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="R144" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T144" s="19"/>
+      <c r="H144" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32"/>
+      <c r="L144" s="32"/>
+      <c r="M144" s="32"/>
+      <c r="N144" s="32"/>
+      <c r="O144" s="32"/>
+      <c r="P144" s="32"/>
+      <c r="Q144" s="32"/>
+      <c r="R144" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S144" s="32"/>
+      <c r="T144" s="32"/>
       <c r="U144" s="32"/>
     </row>
-    <row r="145" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="145" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B145" s="26" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>751</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G145" s="26" t="s">
         <v>43</v>
@@ -7499,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="Q145" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R145" s="26" t="s">
         <v>27</v>
@@ -7507,15 +7526,15 @@
       <c r="T145" s="19"/>
       <c r="U145" s="32"/>
     </row>
-    <row r="146" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="146" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B146" s="26" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G146" s="26" t="s">
         <v>43</v>
@@ -7524,11 +7543,11 @@
         <v>24</v>
       </c>
       <c r="L146" s="19"/>
-      <c r="P146" s="26" t="s">
-        <v>26</v>
+      <c r="P146" s="26">
+        <v>1</v>
       </c>
       <c r="Q146" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R146" s="26" t="s">
         <v>27</v>
@@ -7536,15 +7555,15 @@
       <c r="T146" s="19"/>
       <c r="U146" s="32"/>
     </row>
-    <row r="147" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="147" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B147" s="26" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G147" s="26" t="s">
         <v>43</v>
@@ -7557,7 +7576,7 @@
         <v>26</v>
       </c>
       <c r="Q147" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R147" s="26" t="s">
         <v>27</v>
@@ -7565,16 +7584,15 @@
       <c r="T147" s="19"/>
       <c r="U147" s="32"/>
     </row>
-    <row r="148" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="148" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B148" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>754</v>
-      </c>
-      <c r="D148" s="33"/>
+        <v>697</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>748</v>
+      </c>
       <c r="F148" s="26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G148" s="26" t="s">
         <v>43</v>
@@ -7587,7 +7605,7 @@
         <v>26</v>
       </c>
       <c r="Q148" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R148" s="26" t="s">
         <v>27</v>
@@ -7595,15 +7613,16 @@
       <c r="T148" s="19"/>
       <c r="U148" s="32"/>
     </row>
-    <row r="149" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="149" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B149" s="26" t="s">
-        <v>703</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>755</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="D149" s="33"/>
       <c r="F149" s="26" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="G149" s="26" t="s">
         <v>43</v>
@@ -7612,11 +7631,11 @@
         <v>24</v>
       </c>
       <c r="L149" s="19"/>
-      <c r="P149" s="26">
-        <v>1</v>
+      <c r="P149" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="Q149" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R149" s="26" t="s">
         <v>27</v>
@@ -7624,58 +7643,47 @@
       <c r="T149" s="19"/>
       <c r="U149" s="32"/>
     </row>
-    <row r="150" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
-      <c r="A150" s="34"/>
-      <c r="B150" s="34" t="s">
-        <v>704</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34" t="s">
-        <v>643</v>
-      </c>
-      <c r="G150" s="34" t="s">
+    <row r="150" spans="1:21" s="26" customFormat="1" ht="30">
+      <c r="B150" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="G150" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H150" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I150" s="34"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="34" t="s">
-        <v>704</v>
-      </c>
-      <c r="L150" s="34"/>
-      <c r="M150" s="34"/>
-      <c r="N150" s="34"/>
-      <c r="O150" s="34"/>
-      <c r="P150" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q150" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="R150" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="S150" s="34"/>
-      <c r="T150" s="34"/>
-    </row>
-    <row r="151" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+      <c r="H150" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L150" s="19"/>
+      <c r="P150" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="R150" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T150" s="19"/>
+      <c r="U150" s="32"/>
+    </row>
+    <row r="151" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A151" s="34"/>
       <c r="B151" s="34" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D151" s="34"/>
       <c r="E151" s="34"/>
       <c r="F151" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G151" s="34" t="s">
         <v>43</v>
@@ -7686,7 +7694,7 @@
       <c r="I151" s="34"/>
       <c r="J151" s="34"/>
       <c r="K151" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L151" s="34"/>
       <c r="M151" s="34"/>
@@ -7696,7 +7704,7 @@
         <v>26</v>
       </c>
       <c r="Q151" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R151" s="34" t="s">
         <v>27</v>
@@ -7704,18 +7712,18 @@
       <c r="S151" s="34"/>
       <c r="T151" s="34"/>
     </row>
-    <row r="152" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="152" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A152" s="34"/>
       <c r="B152" s="34" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D152" s="34"/>
       <c r="E152" s="34"/>
       <c r="F152" s="34" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G152" s="34" t="s">
         <v>43</v>
@@ -7726,7 +7734,7 @@
       <c r="I152" s="34"/>
       <c r="J152" s="34"/>
       <c r="K152" s="34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L152" s="34"/>
       <c r="M152" s="34"/>
@@ -7736,7 +7744,7 @@
         <v>26</v>
       </c>
       <c r="Q152" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R152" s="34" t="s">
         <v>27</v>
@@ -7744,18 +7752,18 @@
       <c r="S152" s="34"/>
       <c r="T152" s="34"/>
     </row>
-    <row r="153" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="153" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A153" s="34"/>
       <c r="B153" s="34" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D153" s="34"/>
       <c r="E153" s="34"/>
       <c r="F153" s="34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G153" s="34" t="s">
         <v>43</v>
@@ -7772,7 +7780,7 @@
         <v>26</v>
       </c>
       <c r="Q153" s="34" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="R153" s="34" t="s">
         <v>27</v>
@@ -7780,15 +7788,15 @@
       <c r="S153" s="34"/>
       <c r="T153" s="34"/>
     </row>
-    <row r="154" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="154" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="B154" s="35" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F154" s="35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G154" s="35" t="s">
         <v>43</v>
@@ -7797,29 +7805,29 @@
         <v>24</v>
       </c>
       <c r="K154" s="35" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="L154" s="36"/>
       <c r="P154" s="35">
         <v>1</v>
       </c>
       <c r="Q154" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R154" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T154" s="36"/>
     </row>
-    <row r="155" spans="1:21" s="35" customFormat="1" ht="27.75" customHeight="1">
+    <row r="155" spans="1:21" s="35" customFormat="1" ht="45">
       <c r="B155" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="C155" s="35" t="s">
         <v>708</v>
       </c>
-      <c r="C155" s="35" t="s">
-        <v>713</v>
-      </c>
       <c r="F155" s="35" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G155" s="35" t="s">
         <v>43</v>
@@ -7832,25 +7840,25 @@
         <v>1</v>
       </c>
       <c r="Q155" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R155" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T155" s="36"/>
     </row>
-    <row r="156" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="156" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A156" s="34"/>
       <c r="B156" s="34" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D156" s="34"/>
       <c r="E156" s="34"/>
       <c r="F156" s="34" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G156" s="34" t="s">
         <v>43</v>
@@ -7873,10 +7881,10 @@
       <c r="S156" s="34"/>
       <c r="T156" s="34"/>
     </row>
-    <row r="157" spans="1:21" s="38" customFormat="1" ht="16" customHeight="1">
+    <row r="157" spans="1:21" s="38" customFormat="1">
       <c r="A157" s="37"/>
       <c r="B157" s="37" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
@@ -7897,18 +7905,18 @@
       <c r="S157" s="37"/>
       <c r="T157" s="37"/>
     </row>
-    <row r="158" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="158" spans="1:21" s="26" customFormat="1" ht="60">
       <c r="B158" s="26" t="s">
         <v>313</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F158" s="26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G158" s="32" t="s">
         <v>43</v>
@@ -7917,17 +7925,17 @@
         <v>24</v>
       </c>
       <c r="K158" s="26" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L158" s="19"/>
       <c r="M158" s="26" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="P158" s="26">
         <v>1</v>
       </c>
       <c r="Q158" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R158" s="26" t="s">
         <v>27</v>
@@ -7935,7 +7943,7 @@
       <c r="T158" s="19"/>
       <c r="U158" s="32"/>
     </row>
-    <row r="159" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="159" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B159" s="12" t="s">
         <v>252</v>
       </c>
@@ -7952,7 +7960,7 @@
       <c r="T159" s="9"/>
       <c r="U159" s="12"/>
     </row>
-    <row r="160" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="160" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A160" s="12"/>
       <c r="B160" s="12" t="s">
         <v>253</v>
@@ -7981,7 +7989,7 @@
       <c r="T160" s="12"/>
       <c r="U160" s="12"/>
     </row>
-    <row r="161" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="161" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A161" s="12"/>
       <c r="B161" s="12" t="s">
         <v>254</v>
@@ -8010,20 +8018,20 @@
       <c r="T161" s="12"/>
       <c r="U161" s="12"/>
     </row>
-    <row r="162" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="162" spans="1:21" s="26" customFormat="1" ht="60">
       <c r="A162" s="32"/>
       <c r="B162" s="26" t="s">
         <v>255</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D162" s="32" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E162" s="32"/>
       <c r="F162" s="32" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G162" s="32" t="s">
         <v>43</v>
@@ -8035,7 +8043,7 @@
       <c r="J162" s="32"/>
       <c r="K162" s="32"/>
       <c r="L162" s="32" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="M162" s="32"/>
       <c r="N162" s="32"/>
@@ -8044,7 +8052,7 @@
         <v>26</v>
       </c>
       <c r="Q162" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R162" s="32" t="s">
         <v>27</v>
@@ -8053,7 +8061,7 @@
       <c r="T162" s="32"/>
       <c r="U162" s="32"/>
     </row>
-    <row r="163" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="163" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B163" s="12" t="s">
         <v>256</v>
       </c>
@@ -8070,7 +8078,7 @@
       <c r="T163" s="9"/>
       <c r="U163" s="12"/>
     </row>
-    <row r="164" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="164" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A164" s="12"/>
       <c r="B164" s="12" t="s">
         <v>257</v>
@@ -8099,7 +8107,7 @@
       <c r="T164" s="12"/>
       <c r="U164" s="12"/>
     </row>
-    <row r="165" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="165" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A165" s="12"/>
       <c r="B165" s="12" t="s">
         <v>258</v>
@@ -8128,7 +8136,7 @@
       <c r="T165" s="12"/>
       <c r="U165" s="12"/>
     </row>
-    <row r="166" spans="1:21" s="24" customFormat="1" ht="80" customHeight="1">
+    <row r="166" spans="1:21" s="24" customFormat="1" ht="90">
       <c r="A166" s="12"/>
       <c r="B166" s="12" t="s">
         <v>259</v>
@@ -8161,7 +8169,7 @@
       <c r="T166" s="12"/>
       <c r="U166" s="12"/>
     </row>
-    <row r="167" spans="1:21" s="20" customFormat="1" ht="16" customHeight="1">
+    <row r="167" spans="1:21" s="20" customFormat="1" ht="30">
       <c r="A167" s="21"/>
       <c r="B167" s="21" t="s">
         <v>262</v>
@@ -8187,7 +8195,7 @@
       <c r="T167" s="21"/>
       <c r="U167" s="21"/>
     </row>
-    <row r="168" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="168" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A168" s="12"/>
       <c r="B168" s="12" t="s">
         <v>263</v>
@@ -8216,7 +8224,7 @@
       <c r="T168" s="12"/>
       <c r="U168" s="12"/>
     </row>
-    <row r="169" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="169" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A169" s="12"/>
       <c r="B169" s="12" t="s">
         <v>264</v>
@@ -8245,7 +8253,7 @@
       <c r="T169" s="12"/>
       <c r="U169" s="12"/>
     </row>
-    <row r="170" spans="1:21" s="17" customFormat="1" ht="32" customHeight="1">
+    <row r="170" spans="1:21" s="17" customFormat="1" ht="60">
       <c r="A170" s="18" t="s">
         <v>265</v>
       </c>
@@ -8258,7 +8266,7 @@
       <c r="D170" s="16"/>
       <c r="E170" s="18"/>
       <c r="F170" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G170" s="18"/>
       <c r="H170" s="18" t="s">
@@ -8284,7 +8292,7 @@
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
     </row>
-    <row r="171" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="171" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A171" s="12"/>
       <c r="B171" s="12" t="s">
         <v>268</v>
@@ -8313,7 +8321,7 @@
       <c r="T171" s="12"/>
       <c r="U171" s="12"/>
     </row>
-    <row r="172" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="172" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A172" s="12"/>
       <c r="B172" s="12" t="s">
         <v>269</v>
@@ -8342,17 +8350,17 @@
       <c r="T172" s="12"/>
       <c r="U172" s="12"/>
     </row>
-    <row r="173" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="173" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="A173" s="32"/>
       <c r="B173" s="26" t="s">
         <v>270</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="32" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G173" s="32"/>
       <c r="H173" s="32" t="s">
@@ -8369,7 +8377,7 @@
         <v>26</v>
       </c>
       <c r="Q173" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R173" s="32" t="s">
         <v>27</v>
@@ -8378,7 +8386,7 @@
       <c r="T173" s="32"/>
       <c r="U173" s="32"/>
     </row>
-    <row r="174" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="174" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B174" s="12" t="s">
         <v>271</v>
       </c>
@@ -8395,7 +8403,7 @@
       <c r="T174" s="9"/>
       <c r="U174" s="12"/>
     </row>
-    <row r="175" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="175" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A175" s="12" t="s">
         <v>272</v>
       </c>
@@ -8403,7 +8411,7 @@
         <v>273</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
@@ -8432,7 +8440,7 @@
       <c r="T175" s="12"/>
       <c r="U175" s="12"/>
     </row>
-    <row r="176" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="176" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A176" s="12"/>
       <c r="B176" s="24" t="s">
         <v>274</v>
@@ -8458,7 +8466,7 @@
       <c r="T176" s="12"/>
       <c r="U176" s="12"/>
     </row>
-    <row r="177" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="177" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B177" s="12" t="s">
         <v>275</v>
       </c>
@@ -8478,7 +8486,7 @@
       <c r="T177" s="9"/>
       <c r="U177" s="12"/>
     </row>
-    <row r="178" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="178" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A178" s="12"/>
       <c r="B178" s="12" t="s">
         <v>276</v>
@@ -8507,7 +8515,7 @@
       <c r="T178" s="12"/>
       <c r="U178" s="12"/>
     </row>
-    <row r="179" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="179" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A179" s="12"/>
       <c r="B179" s="12" t="s">
         <v>277</v>
@@ -8538,7 +8546,7 @@
       <c r="T179" s="12"/>
       <c r="U179" s="12"/>
     </row>
-    <row r="180" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="180" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A180" s="12"/>
       <c r="B180" s="12" t="s">
         <v>279</v>
@@ -8567,7 +8575,7 @@
       <c r="T180" s="12"/>
       <c r="U180" s="12"/>
     </row>
-    <row r="181" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="181" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A181" s="12"/>
       <c r="B181" s="12" t="s">
         <v>280</v>
@@ -8596,13 +8604,13 @@
       <c r="T181" s="12"/>
       <c r="U181" s="12"/>
     </row>
-    <row r="182" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="182" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="A182" s="32"/>
       <c r="B182" s="32" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D182" s="32"/>
       <c r="E182" s="32"/>
@@ -8622,7 +8630,7 @@
         <v>26</v>
       </c>
       <c r="Q182" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R182" s="32" t="s">
         <v>27</v>
@@ -8631,18 +8639,18 @@
       <c r="T182" s="32"/>
       <c r="U182" s="32"/>
     </row>
-    <row r="183" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="183" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="A183" s="32"/>
       <c r="B183" s="26" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D183" s="32"/>
       <c r="E183" s="32"/>
       <c r="F183" s="32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G183" s="32" t="s">
         <v>43</v>
@@ -8666,15 +8674,15 @@
       <c r="T183" s="32"/>
       <c r="U183" s="32"/>
     </row>
-    <row r="184" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="184" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B184" s="26" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F184" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G184" s="26" t="s">
         <v>43</v>
@@ -8687,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="Q184" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R184" s="26" t="s">
         <v>27</v>
@@ -8695,15 +8703,15 @@
       <c r="T184" s="19"/>
       <c r="U184" s="32"/>
     </row>
-    <row r="185" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="185" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B185" s="26" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F185" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G185" s="26" t="s">
         <v>43</v>
@@ -8716,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="Q185" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R185" s="26" t="s">
         <v>27</v>
@@ -8724,15 +8732,15 @@
       <c r="T185" s="19"/>
       <c r="U185" s="32"/>
     </row>
-    <row r="186" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="186" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B186" s="26" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F186" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G186" s="26" t="s">
         <v>43</v>
@@ -8745,7 +8753,7 @@
         <v>26</v>
       </c>
       <c r="Q186" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R186" s="26" t="s">
         <v>27</v>
@@ -8753,15 +8761,15 @@
       <c r="T186" s="19"/>
       <c r="U186" s="32"/>
     </row>
-    <row r="187" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="187" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B187" s="26" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="F187" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G187" s="26" t="s">
         <v>43</v>
@@ -8774,7 +8782,7 @@
         <v>26</v>
       </c>
       <c r="Q187" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R187" s="26" t="s">
         <v>27</v>
@@ -8782,16 +8790,16 @@
       <c r="T187" s="19"/>
       <c r="U187" s="32"/>
     </row>
-    <row r="188" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="188" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B188" s="26" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D188" s="33"/>
       <c r="F188" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G188" s="26" t="s">
         <v>43</v>
@@ -8804,7 +8812,7 @@
         <v>26</v>
       </c>
       <c r="Q188" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R188" s="26" t="s">
         <v>27</v>
@@ -8812,18 +8820,18 @@
       <c r="T188" s="19"/>
       <c r="U188" s="32"/>
     </row>
-    <row r="189" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="189" spans="1:21" s="35" customFormat="1" ht="45">
       <c r="A189" s="34"/>
       <c r="B189" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="C189" s="34" t="s">
         <v>799</v>
-      </c>
-      <c r="C189" s="34" t="s">
-        <v>806</v>
       </c>
       <c r="D189" s="34"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G189" s="34"/>
       <c r="H189" s="34" t="s">
@@ -8832,10 +8840,10 @@
       <c r="I189" s="34"/>
       <c r="J189" s="34"/>
       <c r="K189" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L189" s="34" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="M189" s="34"/>
       <c r="N189" s="34"/>
@@ -8844,7 +8852,7 @@
         <v>26</v>
       </c>
       <c r="Q189" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R189" s="34" t="s">
         <v>27</v>
@@ -8852,18 +8860,18 @@
       <c r="S189" s="34"/>
       <c r="T189" s="34"/>
     </row>
-    <row r="190" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="190" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A190" s="34"/>
       <c r="B190" s="34" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C190" s="34" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D190" s="34"/>
       <c r="E190" s="34"/>
       <c r="F190" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G190" s="34" t="s">
         <v>43</v>
@@ -8882,7 +8890,7 @@
         <v>26</v>
       </c>
       <c r="Q190" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R190" s="34" t="s">
         <v>27</v>
@@ -8890,15 +8898,15 @@
       <c r="S190" s="34"/>
       <c r="T190" s="34"/>
     </row>
-    <row r="191" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="191" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="B191" s="35" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F191" s="35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G191" s="35" t="s">
         <v>43</v>
@@ -8907,32 +8915,32 @@
         <v>24</v>
       </c>
       <c r="K191" s="35" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L191" s="36"/>
       <c r="P191" s="35">
         <v>1</v>
       </c>
       <c r="Q191" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R191" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T191" s="36"/>
     </row>
-    <row r="192" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="192" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A192" s="34"/>
       <c r="B192" s="34" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C192" s="34" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D192" s="34"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G192" s="34" t="s">
         <v>43</v>
@@ -8951,7 +8959,7 @@
         <v>26</v>
       </c>
       <c r="Q192" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R192" s="34" t="s">
         <v>27</v>
@@ -8959,18 +8967,18 @@
       <c r="S192" s="34"/>
       <c r="T192" s="34"/>
     </row>
-    <row r="193" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="193" spans="1:21" s="35" customFormat="1" ht="45">
       <c r="A193" s="34"/>
       <c r="B193" s="34" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C193" s="34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D193" s="34"/>
       <c r="E193" s="34"/>
       <c r="F193" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G193" s="34" t="s">
         <v>43</v>
@@ -8989,7 +8997,7 @@
         <v>26</v>
       </c>
       <c r="Q193" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R193" s="34" t="s">
         <v>27</v>
@@ -8997,7 +9005,7 @@
       <c r="S193" s="34"/>
       <c r="T193" s="34"/>
     </row>
-    <row r="194" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="194" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A194" s="12"/>
       <c r="B194" s="12" t="s">
         <v>281</v>
@@ -9026,7 +9034,7 @@
       <c r="T194" s="12"/>
       <c r="U194" s="12"/>
     </row>
-    <row r="195" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="195" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A195" s="12"/>
       <c r="B195" s="12" t="s">
         <v>282</v>
@@ -9055,7 +9063,7 @@
       <c r="T195" s="12"/>
       <c r="U195" s="12"/>
     </row>
-    <row r="196" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="196" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A196" s="12" t="s">
         <v>283</v>
       </c>
@@ -9063,7 +9071,7 @@
         <v>284</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
@@ -9092,7 +9100,7 @@
       <c r="T196" s="12"/>
       <c r="U196" s="12"/>
     </row>
-    <row r="197" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="197" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A197" s="8" t="s">
         <v>285</v>
       </c>
@@ -9127,7 +9135,7 @@
       <c r="T197" s="8"/>
       <c r="U197" s="12"/>
     </row>
-    <row r="198" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="198" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B198" s="24" t="s">
         <v>289</v>
       </c>
@@ -9144,7 +9152,7 @@
       <c r="T198" s="9"/>
       <c r="U198" s="12"/>
     </row>
-    <row r="199" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="199" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B199" s="24" t="s">
         <v>290</v>
       </c>
@@ -9161,7 +9169,7 @@
       <c r="T199" s="9"/>
       <c r="U199" s="12"/>
     </row>
-    <row r="200" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="200" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A200" s="12"/>
       <c r="B200" s="12" t="s">
         <v>291</v>
@@ -9190,7 +9198,7 @@
       <c r="T200" s="12"/>
       <c r="U200" s="12"/>
     </row>
-    <row r="201" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="201" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B201" s="24" t="s">
         <v>292</v>
       </c>
@@ -9207,7 +9215,7 @@
       <c r="T201" s="9"/>
       <c r="U201" s="12"/>
     </row>
-    <row r="202" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="202" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A202" s="12"/>
       <c r="B202" s="12" t="s">
         <v>293</v>
@@ -9236,7 +9244,7 @@
       <c r="T202" s="12"/>
       <c r="U202" s="12"/>
     </row>
-    <row r="203" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="203" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A203" s="12"/>
       <c r="B203" s="12" t="s">
         <v>294</v>
@@ -9265,7 +9273,7 @@
       <c r="T203" s="12"/>
       <c r="U203" s="12"/>
     </row>
-    <row r="204" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="204" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A204" s="12"/>
       <c r="B204" s="12" t="s">
         <v>295</v>
@@ -9294,7 +9302,7 @@
       <c r="T204" s="12"/>
       <c r="U204" s="12"/>
     </row>
-    <row r="205" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="205" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A205" s="12"/>
       <c r="B205" s="12" t="s">
         <v>296</v>
@@ -9323,7 +9331,7 @@
       <c r="T205" s="12"/>
       <c r="U205" s="12"/>
     </row>
-    <row r="206" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="206" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B206" s="24" t="s">
         <v>297</v>
       </c>
@@ -9340,7 +9348,7 @@
       <c r="T206" s="9"/>
       <c r="U206" s="12"/>
     </row>
-    <row r="207" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="207" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A207" s="12"/>
       <c r="B207" s="12" t="s">
         <v>298</v>
@@ -9369,7 +9377,7 @@
       <c r="T207" s="12"/>
       <c r="U207" s="12"/>
     </row>
-    <row r="208" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="208" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A208" s="12"/>
       <c r="B208" s="12" t="s">
         <v>299</v>
@@ -9398,7 +9406,7 @@
       <c r="T208" s="12"/>
       <c r="U208" s="12"/>
     </row>
-    <row r="209" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="209" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A209" s="12"/>
       <c r="B209" s="12" t="s">
         <v>300</v>
@@ -9427,7 +9435,7 @@
       <c r="T209" s="12"/>
       <c r="U209" s="12"/>
     </row>
-    <row r="210" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="210" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A210" s="12"/>
       <c r="B210" s="12" t="s">
         <v>301</v>
@@ -9456,7 +9464,7 @@
       <c r="T210" s="12"/>
       <c r="U210" s="12"/>
     </row>
-    <row r="211" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="211" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A211" s="12"/>
       <c r="B211" s="12" t="s">
         <v>302</v>
@@ -9485,7 +9493,7 @@
       <c r="T211" s="12"/>
       <c r="U211" s="12"/>
     </row>
-    <row r="212" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="212" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A212" s="12"/>
       <c r="B212" s="12" t="s">
         <v>303</v>
@@ -9514,7 +9522,7 @@
       <c r="T212" s="12"/>
       <c r="U212" s="12"/>
     </row>
-    <row r="213" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="213" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B213" s="24" t="s">
         <v>304</v>
       </c>
@@ -9531,7 +9539,7 @@
       <c r="T213" s="9"/>
       <c r="U213" s="12"/>
     </row>
-    <row r="214" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="214" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A214" s="12"/>
       <c r="B214" s="12" t="s">
         <v>305</v>
@@ -9560,7 +9568,7 @@
       <c r="T214" s="12"/>
       <c r="U214" s="12"/>
     </row>
-    <row r="215" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="215" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B215" s="24" t="s">
         <v>306</v>
       </c>
@@ -9577,7 +9585,7 @@
       <c r="T215" s="9"/>
       <c r="U215" s="12"/>
     </row>
-    <row r="216" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="216" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B216" s="24" t="s">
         <v>307</v>
       </c>
@@ -9594,7 +9602,7 @@
       <c r="T216" s="9"/>
       <c r="U216" s="12"/>
     </row>
-    <row r="217" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="217" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B217" s="24" t="s">
         <v>308</v>
       </c>
@@ -9611,7 +9619,7 @@
       <c r="T217" s="9"/>
       <c r="U217" s="12"/>
     </row>
-    <row r="218" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="218" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B218" s="24" t="s">
         <v>309</v>
       </c>
@@ -9628,7 +9636,7 @@
       <c r="T218" s="9"/>
       <c r="U218" s="12"/>
     </row>
-    <row r="219" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="219" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B219" s="24" t="s">
         <v>310</v>
       </c>
@@ -9645,7 +9653,7 @@
       <c r="T219" s="9"/>
       <c r="U219" s="12"/>
     </row>
-    <row r="220" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="220" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B220" s="24" t="s">
         <v>311</v>
       </c>
@@ -9662,7 +9670,7 @@
       <c r="T220" s="9"/>
       <c r="U220" s="12"/>
     </row>
-    <row r="221" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="221" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A221" s="12"/>
       <c r="B221" s="12" t="s">
         <v>312</v>
@@ -9691,7 +9699,7 @@
       <c r="T221" s="12"/>
       <c r="U221" s="12"/>
     </row>
-    <row r="222" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="222" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A222" s="12"/>
       <c r="B222" s="12" t="s">
         <v>314</v>
@@ -9720,7 +9728,7 @@
       <c r="T222" s="12"/>
       <c r="U222" s="12"/>
     </row>
-    <row r="223" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="223" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A223" s="12"/>
       <c r="B223" s="12" t="s">
         <v>315</v>
@@ -9749,7 +9757,7 @@
       <c r="T223" s="12"/>
       <c r="U223" s="12"/>
     </row>
-    <row r="224" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="224" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A224" s="12"/>
       <c r="B224" s="12" t="s">
         <v>316</v>
@@ -9778,7 +9786,7 @@
       <c r="T224" s="12"/>
       <c r="U224" s="12"/>
     </row>
-    <row r="225" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="225" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A225" s="12"/>
       <c r="B225" s="12" t="s">
         <v>317</v>
@@ -9807,15 +9815,15 @@
       <c r="T225" s="12"/>
       <c r="U225" s="12"/>
     </row>
-    <row r="226" spans="1:21" s="26" customFormat="1" ht="32" customHeight="1">
+    <row r="226" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B226" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F226" s="26" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H226" s="26" t="s">
         <v>24</v>
@@ -9828,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="Q226" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R226" s="26" t="s">
         <v>27</v>
@@ -9836,7 +9844,7 @@
       <c r="T226" s="19"/>
       <c r="U226" s="32"/>
     </row>
-    <row r="227" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="227" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A227" s="12"/>
       <c r="B227" s="12" t="s">
         <v>320</v>
@@ -9865,7 +9873,7 @@
       <c r="T227" s="12"/>
       <c r="U227" s="12"/>
     </row>
-    <row r="228" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="228" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A228" s="12"/>
       <c r="B228" s="12" t="s">
         <v>321</v>
@@ -9894,7 +9902,7 @@
       <c r="T228" s="12"/>
       <c r="U228" s="12"/>
     </row>
-    <row r="229" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="229" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A229" s="12"/>
       <c r="B229" s="12" t="s">
         <v>322</v>
@@ -9923,7 +9931,7 @@
       <c r="T229" s="12"/>
       <c r="U229" s="12"/>
     </row>
-    <row r="230" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="230" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A230" s="12"/>
       <c r="B230" s="12" t="s">
         <v>323</v>
@@ -9952,18 +9960,18 @@
       <c r="T230" s="12"/>
       <c r="U230" s="12"/>
     </row>
-    <row r="231" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="231" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="A231" s="32"/>
       <c r="B231" s="32" t="s">
         <v>324</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D231" s="32"/>
       <c r="E231" s="32"/>
       <c r="F231" s="32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G231" s="32"/>
       <c r="H231" s="32" t="s">
@@ -9985,18 +9993,18 @@
       <c r="T231" s="32"/>
       <c r="U231" s="32"/>
     </row>
-    <row r="232" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="232" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="A232" s="32"/>
       <c r="B232" s="32" t="s">
         <v>325</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D232" s="32"/>
       <c r="E232" s="32"/>
       <c r="F232" s="32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G232" s="32"/>
       <c r="H232" s="32" t="s">
@@ -10018,15 +10026,15 @@
       <c r="T232" s="32"/>
       <c r="U232" s="32"/>
     </row>
-    <row r="233" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="233" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B233" s="26" t="s">
         <v>326</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F233" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H233" s="26" t="s">
         <v>24</v>
@@ -10036,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="Q233" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R233" s="26" t="s">
         <v>27</v>
@@ -10044,7 +10052,7 @@
       <c r="T233" s="19"/>
       <c r="U233" s="32"/>
     </row>
-    <row r="234" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="234" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A234" s="12"/>
       <c r="B234" s="12" t="s">
         <v>327</v>
@@ -10073,7 +10081,7 @@
       <c r="T234" s="12"/>
       <c r="U234" s="12"/>
     </row>
-    <row r="235" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="235" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A235" s="12"/>
       <c r="B235" s="12" t="s">
         <v>328</v>
@@ -10102,7 +10110,7 @@
       <c r="T235" s="12"/>
       <c r="U235" s="12"/>
     </row>
-    <row r="236" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="236" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A236" s="12"/>
       <c r="B236" s="12" t="s">
         <v>329</v>
@@ -10133,7 +10141,7 @@
       <c r="T236" s="12"/>
       <c r="U236" s="12"/>
     </row>
-    <row r="237" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="237" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A237" s="12"/>
       <c r="B237" s="12" t="s">
         <v>331</v>
@@ -10162,30 +10170,30 @@
       <c r="T237" s="12"/>
       <c r="U237" s="12"/>
     </row>
-    <row r="238" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="238" spans="1:21" s="26" customFormat="1" ht="60">
       <c r="B238" s="26" t="s">
         <v>332</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F238" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H238" s="26" t="s">
         <v>24</v>
       </c>
       <c r="K238" s="26" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="L238" s="19" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="P238" s="26">
         <v>1</v>
       </c>
       <c r="Q238" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R238" s="26" t="s">
         <v>27</v>
@@ -10193,7 +10201,7 @@
       <c r="T238" s="19"/>
       <c r="U238" s="32"/>
     </row>
-    <row r="239" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="239" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A239" s="12"/>
       <c r="B239" s="12" t="s">
         <v>333</v>
@@ -10222,7 +10230,7 @@
       <c r="T239" s="12"/>
       <c r="U239" s="12"/>
     </row>
-    <row r="240" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="240" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A240" s="12"/>
       <c r="B240" s="12" t="s">
         <v>334</v>
@@ -10251,7 +10259,7 @@
       <c r="T240" s="12"/>
       <c r="U240" s="12"/>
     </row>
-    <row r="241" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="241" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A241" s="12"/>
       <c r="B241" s="12" t="s">
         <v>335</v>
@@ -10280,7 +10288,7 @@
       <c r="T241" s="12"/>
       <c r="U241" s="12"/>
     </row>
-    <row r="242" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="242" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A242" s="12"/>
       <c r="B242" s="12" t="s">
         <v>336</v>
@@ -10309,7 +10317,7 @@
       <c r="T242" s="12"/>
       <c r="U242" s="12"/>
     </row>
-    <row r="243" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="243" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A243" s="12"/>
       <c r="B243" s="12" t="s">
         <v>288</v>
@@ -10338,7 +10346,7 @@
       <c r="T243" s="12"/>
       <c r="U243" s="12"/>
     </row>
-    <row r="244" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="244" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A244" s="12"/>
       <c r="B244" s="12" t="s">
         <v>337</v>
@@ -10367,7 +10375,7 @@
       <c r="T244" s="12"/>
       <c r="U244" s="12"/>
     </row>
-    <row r="245" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="245" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A245" s="12"/>
       <c r="B245" s="12" t="s">
         <v>338</v>
@@ -10396,7 +10404,7 @@
       <c r="T245" s="12"/>
       <c r="U245" s="12"/>
     </row>
-    <row r="246" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="246" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A246" s="12"/>
       <c r="B246" s="12" t="s">
         <v>339</v>
@@ -10425,7 +10433,7 @@
       <c r="T246" s="12"/>
       <c r="U246" s="12"/>
     </row>
-    <row r="247" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="247" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A247" s="12"/>
       <c r="B247" s="12" t="s">
         <v>340</v>
@@ -10454,7 +10462,7 @@
       <c r="T247" s="12"/>
       <c r="U247" s="12"/>
     </row>
-    <row r="248" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="248" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A248" s="12"/>
       <c r="B248" s="12" t="s">
         <v>341</v>
@@ -10483,7 +10491,7 @@
       <c r="T248" s="12"/>
       <c r="U248" s="12"/>
     </row>
-    <row r="249" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="249" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A249" s="12"/>
       <c r="B249" s="12" t="s">
         <v>342</v>
@@ -10512,7 +10520,7 @@
       <c r="T249" s="12"/>
       <c r="U249" s="12"/>
     </row>
-    <row r="250" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="250" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B250" s="24" t="s">
         <v>343</v>
       </c>
@@ -10529,7 +10537,7 @@
       <c r="T250" s="9"/>
       <c r="U250" s="12"/>
     </row>
-    <row r="251" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="251" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B251" s="24" t="s">
         <v>344</v>
       </c>
@@ -10546,15 +10554,15 @@
       <c r="T251" s="9"/>
       <c r="U251" s="12"/>
     </row>
-    <row r="252" spans="1:21" s="24" customFormat="1" ht="48" customHeight="1">
+    <row r="252" spans="1:21" s="24" customFormat="1" ht="60">
       <c r="B252" s="24" t="s">
         <v>345</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F252" s="24" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H252" s="24" t="s">
         <v>24</v>
@@ -10569,15 +10577,15 @@
       <c r="T252" s="9"/>
       <c r="U252" s="12"/>
     </row>
-    <row r="253" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="253" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B253" s="26" t="s">
         <v>346</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F253" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H253" s="26" t="s">
         <v>24</v>
@@ -10587,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="Q253" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R253" s="26" t="s">
         <v>27</v>
@@ -10595,7 +10603,7 @@
       <c r="T253" s="19"/>
       <c r="U253" s="32"/>
     </row>
-    <row r="254" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="254" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A254" s="12"/>
       <c r="B254" s="12" t="s">
         <v>347</v>
@@ -10624,7 +10632,7 @@
       <c r="T254" s="12"/>
       <c r="U254" s="12"/>
     </row>
-    <row r="255" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="255" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A255" s="12"/>
       <c r="B255" s="12" t="s">
         <v>348</v>
@@ -10653,7 +10661,7 @@
       <c r="T255" s="12"/>
       <c r="U255" s="12"/>
     </row>
-    <row r="256" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="256" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A256" s="12"/>
       <c r="B256" s="12" t="s">
         <v>349</v>
@@ -10682,7 +10690,7 @@
       <c r="T256" s="12"/>
       <c r="U256" s="12"/>
     </row>
-    <row r="257" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="257" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A257" s="12"/>
       <c r="B257" s="12" t="s">
         <v>350</v>
@@ -10711,7 +10719,7 @@
       <c r="T257" s="12"/>
       <c r="U257" s="12"/>
     </row>
-    <row r="258" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="258" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A258" s="12"/>
       <c r="B258" s="12" t="s">
         <v>351</v>
@@ -10740,7 +10748,7 @@
       <c r="T258" s="12"/>
       <c r="U258" s="12"/>
     </row>
-    <row r="259" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="259" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A259" s="12"/>
       <c r="B259" s="12" t="s">
         <v>352</v>
@@ -10769,7 +10777,7 @@
       <c r="T259" s="12"/>
       <c r="U259" s="12"/>
     </row>
-    <row r="260" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="260" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A260" s="12"/>
       <c r="B260" s="12" t="s">
         <v>353</v>
@@ -10798,7 +10806,7 @@
       <c r="T260" s="12"/>
       <c r="U260" s="12"/>
     </row>
-    <row r="261" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="261" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A261" s="12"/>
       <c r="B261" s="12" t="s">
         <v>354</v>
@@ -10827,7 +10835,7 @@
       <c r="T261" s="12"/>
       <c r="U261" s="12"/>
     </row>
-    <row r="262" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="262" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A262" s="12"/>
       <c r="B262" s="12" t="s">
         <v>355</v>
@@ -10856,7 +10864,7 @@
       <c r="T262" s="12"/>
       <c r="U262" s="12"/>
     </row>
-    <row r="263" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="263" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A263" s="12"/>
       <c r="B263" s="12" t="s">
         <v>356</v>
@@ -10887,7 +10895,7 @@
       <c r="T263" s="12"/>
       <c r="U263" s="12"/>
     </row>
-    <row r="264" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="264" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A264" s="12"/>
       <c r="B264" s="12" t="s">
         <v>358</v>
@@ -10916,7 +10924,7 @@
       <c r="T264" s="12"/>
       <c r="U264" s="12"/>
     </row>
-    <row r="265" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="265" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A265" s="12"/>
       <c r="B265" s="12" t="s">
         <v>359</v>
@@ -10945,7 +10953,7 @@
       <c r="T265" s="12"/>
       <c r="U265" s="12"/>
     </row>
-    <row r="266" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="266" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A266" s="12"/>
       <c r="B266" s="12" t="s">
         <v>360</v>
@@ -10974,7 +10982,7 @@
       <c r="T266" s="12"/>
       <c r="U266" s="12"/>
     </row>
-    <row r="267" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="267" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A267" s="12"/>
       <c r="B267" s="12" t="s">
         <v>361</v>
@@ -11003,7 +11011,7 @@
       <c r="T267" s="12"/>
       <c r="U267" s="12"/>
     </row>
-    <row r="268" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="268" spans="1:21" s="24" customFormat="1" ht="45">
       <c r="A268" s="12"/>
       <c r="B268" s="12" t="s">
         <v>362</v>
@@ -11034,7 +11042,7 @@
       <c r="T268" s="12"/>
       <c r="U268" s="12"/>
     </row>
-    <row r="269" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="269" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A269" s="12"/>
       <c r="B269" s="12" t="s">
         <v>364</v>
@@ -11063,7 +11071,7 @@
       <c r="T269" s="12"/>
       <c r="U269" s="12"/>
     </row>
-    <row r="270" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="270" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A270" s="12"/>
       <c r="B270" s="12" t="s">
         <v>365</v>
@@ -11092,7 +11100,7 @@
       <c r="T270" s="12"/>
       <c r="U270" s="12"/>
     </row>
-    <row r="271" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="271" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A271" s="12"/>
       <c r="B271" s="12" t="s">
         <v>366</v>
@@ -11121,7 +11129,7 @@
       <c r="T271" s="12"/>
       <c r="U271" s="12"/>
     </row>
-    <row r="272" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="272" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A272" s="12"/>
       <c r="B272" s="12" t="s">
         <v>367</v>
@@ -11150,7 +11158,7 @@
       <c r="T272" s="12"/>
       <c r="U272" s="12"/>
     </row>
-    <row r="273" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="273" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A273" s="12"/>
       <c r="B273" s="12" t="s">
         <v>368</v>
@@ -11179,7 +11187,7 @@
       <c r="T273" s="12"/>
       <c r="U273" s="12"/>
     </row>
-    <row r="274" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="274" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A274" s="12" t="s">
         <v>369</v>
       </c>
@@ -11192,7 +11200,7 @@
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
       <c r="F274" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G274" s="12"/>
       <c r="H274" s="12" t="s">
@@ -11212,18 +11220,18 @@
       <c r="T274" s="12"/>
       <c r="U274" s="12"/>
     </row>
-    <row r="275" spans="1:21" s="26" customFormat="1" ht="32" customHeight="1">
+    <row r="275" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B275" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C275" s="26" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F275" s="26" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G275" s="26" t="s">
         <v>43</v>
@@ -11235,13 +11243,13 @@
         <v>36</v>
       </c>
       <c r="L275" s="19" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="P275" s="26">
         <v>1</v>
       </c>
       <c r="Q275" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R275" s="26" t="s">
         <v>27</v>
@@ -11249,7 +11257,7 @@
       <c r="T275" s="19"/>
       <c r="U275" s="32"/>
     </row>
-    <row r="276" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="276" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B276" s="24" t="s">
         <v>373</v>
       </c>
@@ -11266,7 +11274,7 @@
       <c r="T276" s="9"/>
       <c r="U276" s="12"/>
     </row>
-    <row r="277" spans="1:21" s="17" customFormat="1" ht="48" customHeight="1">
+    <row r="277" spans="1:21" s="17" customFormat="1" ht="60">
       <c r="A277" s="23" t="s">
         <v>374</v>
       </c>
@@ -11278,7 +11286,7 @@
       </c>
       <c r="D277" s="16"/>
       <c r="F277" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H277" s="17" t="s">
         <v>24</v>
@@ -11296,7 +11304,7 @@
       <c r="T277" s="16"/>
       <c r="U277" s="18"/>
     </row>
-    <row r="278" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="278" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A278" s="12"/>
       <c r="B278" s="12" t="s">
         <v>377</v>
@@ -11325,7 +11333,7 @@
       <c r="T278" s="12"/>
       <c r="U278" s="12"/>
     </row>
-    <row r="279" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="279" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A279" s="12"/>
       <c r="B279" s="12" t="s">
         <v>378</v>
@@ -11354,7 +11362,7 @@
       <c r="T279" s="12"/>
       <c r="U279" s="12"/>
     </row>
-    <row r="280" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="280" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A280" s="12"/>
       <c r="B280" s="12" t="s">
         <v>379</v>
@@ -11383,7 +11391,7 @@
       <c r="T280" s="12"/>
       <c r="U280" s="12"/>
     </row>
-    <row r="281" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="281" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A281" s="12"/>
       <c r="B281" s="12" t="s">
         <v>380</v>
@@ -11412,7 +11420,7 @@
       <c r="T281" s="12"/>
       <c r="U281" s="12"/>
     </row>
-    <row r="282" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="282" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A282" s="12"/>
       <c r="B282" s="12" t="s">
         <v>381</v>
@@ -11441,7 +11449,7 @@
       <c r="T282" s="12"/>
       <c r="U282" s="12"/>
     </row>
-    <row r="283" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="283" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A283" s="8"/>
       <c r="B283" s="8" t="s">
         <v>382</v>
@@ -11468,7 +11476,7 @@
       <c r="T283" s="8"/>
       <c r="U283" s="12"/>
     </row>
-    <row r="284" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="284" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A284" s="12"/>
       <c r="B284" s="12" t="s">
         <v>383</v>
@@ -11497,7 +11505,7 @@
       <c r="T284" s="12"/>
       <c r="U284" s="12"/>
     </row>
-    <row r="285" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="285" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A285" s="12"/>
       <c r="B285" s="12" t="s">
         <v>384</v>
@@ -11526,7 +11534,7 @@
       <c r="T285" s="12"/>
       <c r="U285" s="12"/>
     </row>
-    <row r="286" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="286" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A286" s="12"/>
       <c r="B286" s="12" t="s">
         <v>385</v>
@@ -11555,7 +11563,7 @@
       <c r="T286" s="12"/>
       <c r="U286" s="12"/>
     </row>
-    <row r="287" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="287" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A287" s="12"/>
       <c r="B287" s="12" t="s">
         <v>386</v>
@@ -11584,7 +11592,7 @@
       <c r="T287" s="12"/>
       <c r="U287" s="12"/>
     </row>
-    <row r="288" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="288" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A288" s="12"/>
       <c r="B288" s="12" t="s">
         <v>387</v>
@@ -11613,7 +11621,7 @@
       <c r="T288" s="12"/>
       <c r="U288" s="12"/>
     </row>
-    <row r="289" spans="1:21" s="24" customFormat="1" ht="48" customHeight="1">
+    <row r="289" spans="1:21" s="24" customFormat="1" ht="45">
       <c r="A289" s="12" t="s">
         <v>388</v>
       </c>
@@ -11621,11 +11629,11 @@
         <v>389</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D289" s="9"/>
       <c r="F289" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G289" s="9" t="s">
         <v>23</v>
@@ -11653,7 +11661,7 @@
       <c r="T289" s="12"/>
       <c r="U289" s="12"/>
     </row>
-    <row r="290" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="290" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A290" s="12"/>
       <c r="B290" s="12" t="s">
         <v>392</v>
@@ -11682,7 +11690,7 @@
       <c r="T290" s="12"/>
       <c r="U290" s="12"/>
     </row>
-    <row r="291" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="291" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B291" s="24" t="s">
         <v>393</v>
       </c>
@@ -11699,7 +11707,7 @@
       <c r="T291" s="9"/>
       <c r="U291" s="12"/>
     </row>
-    <row r="292" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="292" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B292" s="24" t="s">
         <v>394</v>
       </c>
@@ -11716,7 +11724,7 @@
       <c r="T292" s="9"/>
       <c r="U292" s="12"/>
     </row>
-    <row r="293" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="293" spans="1:21" s="24" customFormat="1" ht="45">
       <c r="B293" s="24" t="s">
         <v>395</v>
       </c>
@@ -11736,7 +11744,7 @@
       <c r="T293" s="9"/>
       <c r="U293" s="12"/>
     </row>
-    <row r="294" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="294" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B294" s="24" t="s">
         <v>397</v>
       </c>
@@ -11753,7 +11761,7 @@
       <c r="T294" s="9"/>
       <c r="U294" s="12"/>
     </row>
-    <row r="295" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="295" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B295" s="24" t="s">
         <v>398</v>
       </c>
@@ -11770,7 +11778,7 @@
       <c r="T295" s="9"/>
       <c r="U295" s="12"/>
     </row>
-    <row r="296" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="296" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B296" s="24" t="s">
         <v>399</v>
       </c>
@@ -11787,7 +11795,7 @@
       <c r="T296" s="9"/>
       <c r="U296" s="12"/>
     </row>
-    <row r="297" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="297" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B297" s="24" t="s">
         <v>400</v>
       </c>
@@ -11804,7 +11812,7 @@
       <c r="T297" s="9"/>
       <c r="U297" s="12"/>
     </row>
-    <row r="298" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="298" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B298" s="24" t="s">
         <v>401</v>
       </c>
@@ -11821,7 +11829,7 @@
       <c r="T298" s="9"/>
       <c r="U298" s="12"/>
     </row>
-    <row r="299" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="299" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B299" s="24" t="s">
         <v>402</v>
       </c>
@@ -11838,7 +11846,7 @@
       <c r="T299" s="9"/>
       <c r="U299" s="12"/>
     </row>
-    <row r="300" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="300" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B300" s="24" t="s">
         <v>403</v>
       </c>
@@ -11855,7 +11863,7 @@
       <c r="T300" s="9"/>
       <c r="U300" s="12"/>
     </row>
-    <row r="301" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="301" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B301" s="24" t="s">
         <v>404</v>
       </c>
@@ -11872,7 +11880,7 @@
       <c r="T301" s="9"/>
       <c r="U301" s="12"/>
     </row>
-    <row r="302" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="302" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B302" s="24" t="s">
         <v>405</v>
       </c>
@@ -11889,7 +11897,7 @@
       <c r="T302" s="9"/>
       <c r="U302" s="12"/>
     </row>
-    <row r="303" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="303" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B303" s="24" t="s">
         <v>406</v>
       </c>
@@ -11906,7 +11914,7 @@
       <c r="T303" s="9"/>
       <c r="U303" s="12"/>
     </row>
-    <row r="304" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="304" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B304" s="24" t="s">
         <v>407</v>
       </c>
@@ -11923,7 +11931,7 @@
       <c r="T304" s="9"/>
       <c r="U304" s="12"/>
     </row>
-    <row r="305" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="305" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B305" s="24" t="s">
         <v>408</v>
       </c>
@@ -11940,7 +11948,7 @@
       <c r="T305" s="9"/>
       <c r="U305" s="12"/>
     </row>
-    <row r="306" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="306" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B306" s="24" t="s">
         <v>409</v>
       </c>
@@ -11957,7 +11965,7 @@
       <c r="T306" s="9"/>
       <c r="U306" s="12"/>
     </row>
-    <row r="307" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="307" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B307" s="24" t="s">
         <v>410</v>
       </c>
@@ -11974,7 +11982,7 @@
       <c r="T307" s="9"/>
       <c r="U307" s="12"/>
     </row>
-    <row r="308" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="308" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A308" s="12"/>
       <c r="B308" s="12" t="s">
         <v>411</v>
@@ -12003,7 +12011,7 @@
       <c r="T308" s="12"/>
       <c r="U308" s="12"/>
     </row>
-    <row r="309" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="309" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A309" s="12"/>
       <c r="B309" s="12" t="s">
         <v>412</v>
@@ -12032,7 +12040,7 @@
       <c r="T309" s="12"/>
       <c r="U309" s="12"/>
     </row>
-    <row r="310" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="310" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A310" s="12"/>
       <c r="B310" s="12" t="s">
         <v>413</v>
@@ -12061,7 +12069,7 @@
       <c r="T310" s="12"/>
       <c r="U310" s="12"/>
     </row>
-    <row r="311" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="311" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B311" s="24" t="s">
         <v>414</v>
       </c>
@@ -12078,7 +12086,7 @@
       <c r="T311" s="9"/>
       <c r="U311" s="12"/>
     </row>
-    <row r="312" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="312" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A312" s="12"/>
       <c r="B312" s="12" t="s">
         <v>415</v>
@@ -12107,7 +12115,7 @@
       <c r="T312" s="12"/>
       <c r="U312" s="12"/>
     </row>
-    <row r="313" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="313" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A313" s="12"/>
       <c r="B313" s="12" t="s">
         <v>416</v>
@@ -12138,7 +12146,7 @@
       <c r="T313" s="12"/>
       <c r="U313" s="12"/>
     </row>
-    <row r="314" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="314" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A314" s="12"/>
       <c r="B314" s="12" t="s">
         <v>418</v>
@@ -12167,7 +12175,7 @@
       <c r="T314" s="12"/>
       <c r="U314" s="12"/>
     </row>
-    <row r="315" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="315" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A315" s="12"/>
       <c r="B315" s="12" t="s">
         <v>419</v>
@@ -12196,7 +12204,7 @@
       <c r="T315" s="12"/>
       <c r="U315" s="12"/>
     </row>
-    <row r="316" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="316" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B316" s="24" t="s">
         <v>420</v>
       </c>
@@ -12213,7 +12221,7 @@
       <c r="T316" s="9"/>
       <c r="U316" s="12"/>
     </row>
-    <row r="317" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="317" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B317" s="24" t="s">
         <v>421</v>
       </c>
@@ -12230,7 +12238,7 @@
       <c r="T317" s="9"/>
       <c r="U317" s="12"/>
     </row>
-    <row r="318" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="318" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A318" s="12"/>
       <c r="B318" s="12" t="s">
         <v>422</v>
@@ -12259,7 +12267,7 @@
       <c r="T318" s="12"/>
       <c r="U318" s="12"/>
     </row>
-    <row r="319" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="319" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A319" s="12"/>
       <c r="B319" s="12" t="s">
         <v>423</v>
@@ -12288,7 +12296,7 @@
       <c r="T319" s="12"/>
       <c r="U319" s="12"/>
     </row>
-    <row r="320" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="320" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A320" s="12"/>
       <c r="B320" s="12" t="s">
         <v>424</v>
@@ -12317,7 +12325,7 @@
       <c r="T320" s="12"/>
       <c r="U320" s="12"/>
     </row>
-    <row r="321" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="321" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A321" s="12"/>
       <c r="B321" s="12" t="s">
         <v>425</v>
@@ -12346,7 +12354,7 @@
       <c r="T321" s="12"/>
       <c r="U321" s="12"/>
     </row>
-    <row r="322" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="322" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A322" s="12"/>
       <c r="B322" s="12" t="s">
         <v>426</v>
@@ -12375,7 +12383,7 @@
       <c r="T322" s="12"/>
       <c r="U322" s="12"/>
     </row>
-    <row r="323" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="323" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A323" s="12"/>
       <c r="B323" s="12" t="s">
         <v>427</v>
@@ -12404,7 +12412,7 @@
       <c r="T323" s="12"/>
       <c r="U323" s="12"/>
     </row>
-    <row r="324" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="324" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A324" s="12"/>
       <c r="B324" s="12" t="s">
         <v>428</v>
@@ -12433,7 +12441,7 @@
       <c r="T324" s="12"/>
       <c r="U324" s="12"/>
     </row>
-    <row r="325" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="325" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A325" s="12"/>
       <c r="B325" s="12" t="s">
         <v>429</v>
@@ -12462,7 +12470,7 @@
       <c r="T325" s="12"/>
       <c r="U325" s="12"/>
     </row>
-    <row r="326" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="326" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A326" s="12"/>
       <c r="B326" s="12" t="s">
         <v>430</v>
@@ -12491,7 +12499,7 @@
       <c r="T326" s="12"/>
       <c r="U326" s="12"/>
     </row>
-    <row r="327" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="327" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A327" s="12"/>
       <c r="B327" s="12" t="s">
         <v>431</v>
@@ -12520,7 +12528,7 @@
       <c r="T327" s="12"/>
       <c r="U327" s="12"/>
     </row>
-    <row r="328" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="328" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B328" s="24" t="s">
         <v>432</v>
       </c>
@@ -12537,7 +12545,7 @@
       <c r="T328" s="9"/>
       <c r="U328" s="12"/>
     </row>
-    <row r="329" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="329" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A329" s="12"/>
       <c r="B329" s="12" t="s">
         <v>433</v>
@@ -12566,7 +12574,7 @@
       <c r="T329" s="12"/>
       <c r="U329" s="12"/>
     </row>
-    <row r="330" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="330" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B330" s="24" t="s">
         <v>434</v>
       </c>
@@ -12583,7 +12591,7 @@
       <c r="T330" s="9"/>
       <c r="U330" s="12"/>
     </row>
-    <row r="331" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="331" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A331" s="12"/>
       <c r="B331" s="12" t="s">
         <v>435</v>
@@ -12612,7 +12620,7 @@
       <c r="T331" s="12"/>
       <c r="U331" s="12"/>
     </row>
-    <row r="332" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="332" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A332" s="12"/>
       <c r="B332" s="12" t="s">
         <v>436</v>
@@ -12641,7 +12649,7 @@
       <c r="T332" s="12"/>
       <c r="U332" s="12"/>
     </row>
-    <row r="333" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="333" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A333" s="12"/>
       <c r="B333" s="12" t="s">
         <v>437</v>
@@ -12670,7 +12678,7 @@
       <c r="T333" s="12"/>
       <c r="U333" s="12"/>
     </row>
-    <row r="334" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="334" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A334" s="12"/>
       <c r="B334" s="12" t="s">
         <v>438</v>
@@ -12699,7 +12707,7 @@
       <c r="T334" s="12"/>
       <c r="U334" s="12"/>
     </row>
-    <row r="335" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="335" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A335" s="12"/>
       <c r="B335" s="12" t="s">
         <v>439</v>
@@ -12728,7 +12736,7 @@
       <c r="T335" s="12"/>
       <c r="U335" s="12"/>
     </row>
-    <row r="336" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="336" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A336" s="12"/>
       <c r="B336" s="12" t="s">
         <v>440</v>
@@ -12757,7 +12765,7 @@
       <c r="T336" s="12"/>
       <c r="U336" s="12"/>
     </row>
-    <row r="337" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="337" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A337" s="12"/>
       <c r="B337" s="12" t="s">
         <v>441</v>
@@ -12786,7 +12794,7 @@
       <c r="T337" s="12"/>
       <c r="U337" s="12"/>
     </row>
-    <row r="338" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="338" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A338" s="12"/>
       <c r="B338" s="12" t="s">
         <v>442</v>
@@ -12815,17 +12823,19 @@
       <c r="T338" s="12"/>
       <c r="U338" s="12"/>
     </row>
-    <row r="339" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="339" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="A339" s="32"/>
       <c r="B339" s="32" t="s">
         <v>443</v>
       </c>
       <c r="C339" s="32" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D339" s="32"/>
       <c r="E339" s="32"/>
-      <c r="F339" s="32"/>
+      <c r="F339" s="32" t="s">
+        <v>628</v>
+      </c>
       <c r="G339" s="32"/>
       <c r="H339" s="32" t="s">
         <v>24</v>
@@ -12841,7 +12851,7 @@
         <v>26</v>
       </c>
       <c r="Q339" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R339" s="32" t="s">
         <v>27</v>
@@ -12850,18 +12860,18 @@
       <c r="T339" s="32"/>
       <c r="U339" s="32"/>
     </row>
-    <row r="340" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="340" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="A340" s="32"/>
       <c r="B340" s="26" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C340" s="32" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D340" s="32"/>
       <c r="E340" s="32"/>
       <c r="F340" s="32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G340" s="32" t="s">
         <v>43</v>
@@ -12885,15 +12895,15 @@
       <c r="T340" s="32"/>
       <c r="U340" s="32"/>
     </row>
-    <row r="341" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="341" spans="1:21" s="26" customFormat="1" ht="30">
       <c r="B341" s="26" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C341" s="26" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F341" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G341" s="26" t="s">
         <v>43</v>
@@ -12906,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="Q341" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R341" s="26" t="s">
         <v>27</v>
@@ -12914,15 +12924,15 @@
       <c r="T341" s="19"/>
       <c r="U341" s="32"/>
     </row>
-    <row r="342" spans="1:21" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="342" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B342" s="26" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C342" s="26" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F342" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G342" s="26" t="s">
         <v>43</v>
@@ -12935,7 +12945,7 @@
         <v>1</v>
       </c>
       <c r="Q342" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R342" s="26" t="s">
         <v>27</v>
@@ -12943,15 +12953,15 @@
       <c r="T342" s="19"/>
       <c r="U342" s="32"/>
     </row>
-    <row r="343" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="343" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B343" s="26" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C343" s="26" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F343" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G343" s="26" t="s">
         <v>43</v>
@@ -12964,7 +12974,7 @@
         <v>26</v>
       </c>
       <c r="Q343" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R343" s="26" t="s">
         <v>27</v>
@@ -12972,15 +12982,15 @@
       <c r="T343" s="19"/>
       <c r="U343" s="32"/>
     </row>
-    <row r="344" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="344" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B344" s="26" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C344" s="26" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F344" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G344" s="26" t="s">
         <v>43</v>
@@ -12993,7 +13003,7 @@
         <v>26</v>
       </c>
       <c r="Q344" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R344" s="26" t="s">
         <v>27</v>
@@ -13001,16 +13011,16 @@
       <c r="T344" s="19"/>
       <c r="U344" s="32"/>
     </row>
-    <row r="345" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
+    <row r="345" spans="1:21" s="26" customFormat="1" ht="45">
       <c r="B345" s="26" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C345" s="33" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D345" s="33"/>
       <c r="F345" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G345" s="26" t="s">
         <v>43</v>
@@ -13023,7 +13033,7 @@
         <v>26</v>
       </c>
       <c r="Q345" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R345" s="26" t="s">
         <v>27</v>
@@ -13031,18 +13041,18 @@
       <c r="T345" s="19"/>
       <c r="U345" s="32"/>
     </row>
-    <row r="346" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="346" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A346" s="34"/>
       <c r="B346" s="34" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C346" s="34" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D346" s="34"/>
       <c r="E346" s="34"/>
       <c r="F346" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G346" s="34"/>
       <c r="H346" s="34" t="s">
@@ -13051,10 +13061,10 @@
       <c r="I346" s="34"/>
       <c r="J346" s="34"/>
       <c r="K346" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L346" s="34" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="M346" s="34"/>
       <c r="N346" s="34"/>
@@ -13063,7 +13073,7 @@
         <v>26</v>
       </c>
       <c r="Q346" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R346" s="34" t="s">
         <v>27</v>
@@ -13071,18 +13081,18 @@
       <c r="S346" s="34"/>
       <c r="T346" s="34"/>
     </row>
-    <row r="347" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="347" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A347" s="34"/>
       <c r="B347" s="34" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C347" s="34" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D347" s="34"/>
       <c r="E347" s="34"/>
       <c r="F347" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G347" s="34" t="s">
         <v>43</v>
@@ -13101,7 +13111,7 @@
         <v>26</v>
       </c>
       <c r="Q347" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R347" s="34" t="s">
         <v>27</v>
@@ -13109,15 +13119,15 @@
       <c r="S347" s="34"/>
       <c r="T347" s="34"/>
     </row>
-    <row r="348" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="348" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="B348" s="35" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C348" s="35" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F348" s="35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G348" s="35" t="s">
         <v>43</v>
@@ -13126,32 +13136,32 @@
         <v>24</v>
       </c>
       <c r="K348" s="35" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L348" s="36"/>
       <c r="P348" s="35">
         <v>1</v>
       </c>
       <c r="Q348" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R348" s="35" t="s">
         <v>27</v>
       </c>
       <c r="T348" s="36"/>
     </row>
-    <row r="349" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="349" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A349" s="34"/>
       <c r="B349" s="34" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C349" s="34" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D349" s="34"/>
       <c r="E349" s="34"/>
       <c r="F349" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G349" s="34" t="s">
         <v>43</v>
@@ -13170,7 +13180,7 @@
         <v>26</v>
       </c>
       <c r="Q349" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R349" s="34" t="s">
         <v>27</v>
@@ -13178,18 +13188,18 @@
       <c r="S349" s="34"/>
       <c r="T349" s="34"/>
     </row>
-    <row r="350" spans="1:21" s="35" customFormat="1" ht="16" customHeight="1">
+    <row r="350" spans="1:21" s="35" customFormat="1" ht="30">
       <c r="A350" s="34"/>
       <c r="B350" s="34" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C350" s="34" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D350" s="34"/>
       <c r="E350" s="34"/>
       <c r="F350" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G350" s="34" t="s">
         <v>43</v>
@@ -13208,7 +13218,7 @@
         <v>26</v>
       </c>
       <c r="Q350" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R350" s="34" t="s">
         <v>27</v>
@@ -13216,7 +13226,7 @@
       <c r="S350" s="34"/>
       <c r="T350" s="34"/>
     </row>
-    <row r="351" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="351" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A351" s="12"/>
       <c r="B351" s="12" t="s">
         <v>444</v>
@@ -13245,7 +13255,7 @@
       <c r="T351" s="12"/>
       <c r="U351" s="12"/>
     </row>
-    <row r="352" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="352" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A352" s="12"/>
       <c r="B352" s="12" t="s">
         <v>445</v>
@@ -13274,7 +13284,7 @@
       <c r="T352" s="12"/>
       <c r="U352" s="12"/>
     </row>
-    <row r="353" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="353" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A353" s="12"/>
       <c r="B353" s="12" t="s">
         <v>446</v>
@@ -13303,7 +13313,7 @@
       <c r="T353" s="12"/>
       <c r="U353" s="12"/>
     </row>
-    <row r="354" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="354" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A354" s="12"/>
       <c r="B354" s="12" t="s">
         <v>447</v>
@@ -13332,7 +13342,7 @@
       <c r="T354" s="12"/>
       <c r="U354" s="12"/>
     </row>
-    <row r="355" spans="1:21" s="29" customFormat="1" ht="80" customHeight="1">
+    <row r="355" spans="1:21" s="29" customFormat="1" ht="90">
       <c r="A355" s="14"/>
       <c r="B355" s="14" t="s">
         <v>182</v>
@@ -13364,7 +13374,7 @@
       <c r="T355" s="14"/>
       <c r="U355" s="14"/>
     </row>
-    <row r="356" spans="1:21" s="29" customFormat="1" ht="16" customHeight="1">
+    <row r="356" spans="1:21" s="29" customFormat="1" ht="30">
       <c r="A356" s="14"/>
       <c r="B356" s="14" t="s">
         <v>450</v>
@@ -13395,7 +13405,7 @@
       <c r="T356" s="14"/>
       <c r="U356" s="14"/>
     </row>
-    <row r="357" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="357" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A357" s="12"/>
       <c r="B357" s="12" t="s">
         <v>452</v>
@@ -13424,7 +13434,7 @@
       <c r="T357" s="12"/>
       <c r="U357" s="12"/>
     </row>
-    <row r="358" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="358" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A358" s="12"/>
       <c r="B358" s="12" t="s">
         <v>453</v>
@@ -13455,7 +13465,7 @@
       <c r="T358" s="12"/>
       <c r="U358" s="12"/>
     </row>
-    <row r="359" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="359" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A359" s="12"/>
       <c r="B359" s="12" t="s">
         <v>455</v>
@@ -13484,7 +13494,7 @@
       <c r="T359" s="12"/>
       <c r="U359" s="12"/>
     </row>
-    <row r="360" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="360" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A360" s="12"/>
       <c r="B360" s="12" t="s">
         <v>456</v>
@@ -13513,7 +13523,7 @@
       <c r="T360" s="12"/>
       <c r="U360" s="12"/>
     </row>
-    <row r="361" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="361" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A361" s="12"/>
       <c r="B361" s="12" t="s">
         <v>457</v>
@@ -13544,7 +13554,7 @@
       <c r="T361" s="12"/>
       <c r="U361" s="12"/>
     </row>
-    <row r="362" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="362" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A362" s="12"/>
       <c r="B362" s="12" t="s">
         <v>459</v>
@@ -13573,7 +13583,7 @@
       <c r="T362" s="12"/>
       <c r="U362" s="12"/>
     </row>
-    <row r="363" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="363" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A363" s="12"/>
       <c r="B363" s="12" t="s">
         <v>460</v>
@@ -13604,7 +13614,7 @@
       <c r="T363" s="12"/>
       <c r="U363" s="12"/>
     </row>
-    <row r="364" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="364" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A364" s="12"/>
       <c r="B364" s="12" t="s">
         <v>462</v>
@@ -13633,7 +13643,7 @@
       <c r="T364" s="12"/>
       <c r="U364" s="12"/>
     </row>
-    <row r="365" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="365" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B365" s="24" t="s">
         <v>463</v>
       </c>
@@ -13650,7 +13660,7 @@
       <c r="T365" s="9"/>
       <c r="U365" s="12"/>
     </row>
-    <row r="366" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="366" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B366" s="24" t="s">
         <v>464</v>
       </c>
@@ -13667,7 +13677,7 @@
       <c r="T366" s="9"/>
       <c r="U366" s="12"/>
     </row>
-    <row r="367" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="367" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B367" s="24" t="s">
         <v>465</v>
       </c>
@@ -13684,7 +13694,7 @@
       <c r="T367" s="9"/>
       <c r="U367" s="12"/>
     </row>
-    <row r="368" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="368" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A368" s="12"/>
       <c r="B368" s="12" t="s">
         <v>466</v>
@@ -13713,7 +13723,7 @@
       <c r="T368" s="12"/>
       <c r="U368" s="12"/>
     </row>
-    <row r="369" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="369" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B369" s="24" t="s">
         <v>467</v>
       </c>
@@ -13730,7 +13740,7 @@
       <c r="T369" s="9"/>
       <c r="U369" s="12"/>
     </row>
-    <row r="370" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="370" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B370" s="24" t="s">
         <v>468</v>
       </c>
@@ -13747,7 +13757,7 @@
       <c r="T370" s="9"/>
       <c r="U370" s="12"/>
     </row>
-    <row r="371" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="371" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A371" s="23" t="s">
         <v>469</v>
       </c>
@@ -13758,7 +13768,7 @@
         <v>471</v>
       </c>
       <c r="F371" s="24" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G371" s="24" t="s">
         <v>149</v>
@@ -13776,94 +13786,87 @@
       <c r="T371" s="9"/>
       <c r="U371" s="12"/>
     </row>
-    <row r="372" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A372" s="12"/>
-      <c r="B372" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="C372" s="12" t="s">
+    <row r="372" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B372" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="D372" s="12"/>
-      <c r="E372" s="12"/>
-      <c r="F372" s="12"/>
-      <c r="G372" s="12"/>
-      <c r="H372" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I372" s="12"/>
-      <c r="J372" s="12"/>
-      <c r="K372" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="L372" s="12"/>
-      <c r="M372" s="12"/>
-      <c r="N372" s="12"/>
-      <c r="O372" s="12"/>
-      <c r="P372" s="12"/>
-      <c r="Q372" s="12"/>
-      <c r="R372" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S372" s="12"/>
-      <c r="T372" s="12"/>
+      <c r="H372" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L372" s="9"/>
+      <c r="P372" s="24">
+        <v>1</v>
+      </c>
+      <c r="R372" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T372" s="9"/>
       <c r="U372" s="12"/>
     </row>
-    <row r="373" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B373" s="24" t="s">
+    <row r="373" spans="1:21" s="26" customFormat="1" ht="60">
+      <c r="A373" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="H373" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L373" s="9"/>
-      <c r="P373" s="24">
+      <c r="B373" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C373" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="D373" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="F373" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="G373" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="H373" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K373" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="L373" s="19"/>
+      <c r="P373" s="26">
         <v>1</v>
       </c>
-      <c r="R373" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T373" s="9"/>
-      <c r="U373" s="12"/>
-    </row>
-    <row r="374" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="A374" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="B374" s="26" t="s">
+      <c r="R373" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T373" s="19"/>
+      <c r="U373" s="32"/>
+    </row>
+    <row r="374" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B374" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="C374" s="26" t="s">
+      <c r="H374" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L374" s="9"/>
+      <c r="P374" s="24">
+        <v>1</v>
+      </c>
+      <c r="R374" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T374" s="9"/>
+      <c r="U374" s="12"/>
+    </row>
+    <row r="375" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A375" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="D374" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="F374" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="G374" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="H374" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K374" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="L374" s="19"/>
-      <c r="P374" s="26">
-        <v>1</v>
-      </c>
-      <c r="R374" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T374" s="19"/>
-      <c r="U374" s="32"/>
-    </row>
-    <row r="375" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
       <c r="B375" s="24" t="s">
         <v>480</v>
+      </c>
+      <c r="C375" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="F375" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="H375" s="24" t="s">
         <v>24</v>
@@ -13878,105 +13881,110 @@
       <c r="T375" s="9"/>
       <c r="U375" s="12"/>
     </row>
-    <row r="376" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A376" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="B376" s="24" t="s">
+    <row r="376" spans="1:21" s="26" customFormat="1" ht="30">
+      <c r="B376" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C376" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="F376" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="H376" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L376" s="19"/>
+      <c r="P376" s="26">
+        <v>1</v>
+      </c>
+      <c r="R376" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T376" s="19"/>
+      <c r="U376" s="32"/>
+    </row>
+    <row r="377" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A377" s="12"/>
+      <c r="B377" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C376" s="24" t="s">
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="12"/>
+      <c r="F377" s="12"/>
+      <c r="G377" s="12"/>
+      <c r="H377" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I377" s="12"/>
+      <c r="J377" s="12"/>
+      <c r="K377" s="12"/>
+      <c r="L377" s="12"/>
+      <c r="M377" s="12"/>
+      <c r="N377" s="12"/>
+      <c r="O377" s="12"/>
+      <c r="P377" s="12"/>
+      <c r="Q377" s="12"/>
+      <c r="R377" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S377" s="12"/>
+      <c r="T377" s="12"/>
+      <c r="U377" s="12"/>
+    </row>
+    <row r="378" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B378" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="F376" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H376" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L376" s="9"/>
-      <c r="P376" s="24">
+      <c r="H378" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L378" s="9"/>
+      <c r="P378" s="24">
         <v>1</v>
       </c>
-      <c r="R376" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T376" s="9"/>
-      <c r="U376" s="12"/>
-    </row>
-    <row r="377" spans="1:21" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B377" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="C377" s="26" t="s">
-        <v>648</v>
-      </c>
-      <c r="F377" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H377" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L377" s="19"/>
-      <c r="P377" s="26">
-        <v>1</v>
-      </c>
-      <c r="R377" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T377" s="19"/>
-      <c r="U377" s="32"/>
-    </row>
-    <row r="378" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A378" s="12"/>
-      <c r="B378" s="12" t="s">
+      <c r="R378" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T378" s="9"/>
+      <c r="U378" s="12"/>
+    </row>
+    <row r="379" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A379" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="C378" s="12"/>
-      <c r="D378" s="12"/>
-      <c r="E378" s="12"/>
-      <c r="F378" s="12"/>
-      <c r="G378" s="12"/>
-      <c r="H378" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I378" s="12"/>
-      <c r="J378" s="12"/>
-      <c r="K378" s="12"/>
-      <c r="L378" s="12"/>
-      <c r="M378" s="12"/>
-      <c r="N378" s="12"/>
-      <c r="O378" s="12"/>
-      <c r="P378" s="12"/>
-      <c r="Q378" s="12"/>
-      <c r="R378" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S378" s="12"/>
-      <c r="T378" s="12"/>
-      <c r="U378" s="12"/>
-    </row>
-    <row r="379" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B379" s="24" t="s">
+      <c r="B379" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="H379" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L379" s="9"/>
-      <c r="P379" s="24">
-        <v>1</v>
-      </c>
-      <c r="R379" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T379" s="9"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
+      <c r="F379" s="12"/>
+      <c r="G379" s="12"/>
+      <c r="H379" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I379" s="12"/>
+      <c r="J379" s="12"/>
+      <c r="K379" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="L379" s="12"/>
+      <c r="M379" s="12"/>
+      <c r="N379" s="12"/>
+      <c r="O379" s="12"/>
+      <c r="P379" s="12"/>
+      <c r="Q379" s="12"/>
+      <c r="R379" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S379" s="12"/>
+      <c r="T379" s="12"/>
       <c r="U379" s="12"/>
     </row>
-    <row r="380" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
-      <c r="A380" s="12" t="s">
-        <v>486</v>
-      </c>
+    <row r="380" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A380" s="12"/>
       <c r="B380" s="12" t="s">
         <v>487</v>
       </c>
@@ -13990,9 +13998,7 @@
       </c>
       <c r="I380" s="12"/>
       <c r="J380" s="12"/>
-      <c r="K380" s="12" t="s">
-        <v>488</v>
-      </c>
+      <c r="K380" s="12"/>
       <c r="L380" s="12"/>
       <c r="M380" s="12"/>
       <c r="N380" s="12"/>
@@ -14006,10 +14012,10 @@
       <c r="T380" s="12"/>
       <c r="U380" s="12"/>
     </row>
-    <row r="381" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="381" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A381" s="12"/>
       <c r="B381" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C381" s="12"/>
       <c r="D381" s="12"/>
@@ -14035,10 +14041,10 @@
       <c r="T381" s="12"/>
       <c r="U381" s="12"/>
     </row>
-    <row r="382" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="382" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A382" s="12"/>
       <c r="B382" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C382" s="12"/>
       <c r="D382" s="12"/>
@@ -14064,10 +14070,10 @@
       <c r="T382" s="12"/>
       <c r="U382" s="12"/>
     </row>
-    <row r="383" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="383" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A383" s="12"/>
       <c r="B383" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C383" s="12"/>
       <c r="D383" s="12"/>
@@ -14093,10 +14099,10 @@
       <c r="T383" s="12"/>
       <c r="U383" s="12"/>
     </row>
-    <row r="384" spans="1:21" s="24" customFormat="1" ht="32" customHeight="1">
+    <row r="384" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A384" s="12"/>
       <c r="B384" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C384" s="12"/>
       <c r="D384" s="12"/>
@@ -14122,10 +14128,10 @@
       <c r="T384" s="12"/>
       <c r="U384" s="12"/>
     </row>
-    <row r="385" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="385" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A385" s="12"/>
       <c r="B385" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C385" s="12"/>
       <c r="D385" s="12"/>
@@ -14151,10 +14157,10 @@
       <c r="T385" s="12"/>
       <c r="U385" s="12"/>
     </row>
-    <row r="386" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="386" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A386" s="12"/>
       <c r="B386" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C386" s="12"/>
       <c r="D386" s="12"/>
@@ -14180,10 +14186,10 @@
       <c r="T386" s="12"/>
       <c r="U386" s="12"/>
     </row>
-    <row r="387" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="387" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A387" s="12"/>
       <c r="B387" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C387" s="12"/>
       <c r="D387" s="12"/>
@@ -14209,10 +14215,10 @@
       <c r="T387" s="12"/>
       <c r="U387" s="12"/>
     </row>
-    <row r="388" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="388" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A388" s="12"/>
       <c r="B388" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C388" s="12"/>
       <c r="D388" s="12"/>
@@ -14238,10 +14244,10 @@
       <c r="T388" s="12"/>
       <c r="U388" s="12"/>
     </row>
-    <row r="389" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="389" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A389" s="12"/>
       <c r="B389" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C389" s="12"/>
       <c r="D389" s="12"/>
@@ -14267,10 +14273,10 @@
       <c r="T389" s="12"/>
       <c r="U389" s="12"/>
     </row>
-    <row r="390" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="390" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A390" s="12"/>
       <c r="B390" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C390" s="12"/>
       <c r="D390" s="12"/>
@@ -14296,10 +14302,10 @@
       <c r="T390" s="12"/>
       <c r="U390" s="12"/>
     </row>
-    <row r="391" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="391" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A391" s="12"/>
       <c r="B391" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C391" s="12"/>
       <c r="D391" s="12"/>
@@ -14325,44 +14331,32 @@
       <c r="T391" s="12"/>
       <c r="U391" s="12"/>
     </row>
-    <row r="392" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A392" s="12"/>
-      <c r="B392" s="12" t="s">
+    <row r="392" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B392" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="H392" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K392" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="C392" s="12"/>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
-      <c r="F392" s="12"/>
-      <c r="G392" s="12"/>
-      <c r="H392" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I392" s="12"/>
-      <c r="J392" s="12"/>
-      <c r="K392" s="12"/>
-      <c r="L392" s="12"/>
-      <c r="M392" s="12"/>
-      <c r="N392" s="12"/>
-      <c r="O392" s="12"/>
-      <c r="P392" s="12"/>
-      <c r="Q392" s="12"/>
-      <c r="R392" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S392" s="12"/>
-      <c r="T392" s="12"/>
+      <c r="L392" s="9"/>
+      <c r="P392" s="24">
+        <v>1</v>
+      </c>
+      <c r="R392" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T392" s="9"/>
       <c r="U392" s="12"/>
     </row>
-    <row r="393" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="393" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B393" s="24" t="s">
         <v>501</v>
       </c>
       <c r="H393" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="K393" s="24" t="s">
-        <v>502</v>
       </c>
       <c r="L393" s="9"/>
       <c r="P393" s="24">
@@ -14374,9 +14368,9 @@
       <c r="T393" s="9"/>
       <c r="U393" s="12"/>
     </row>
-    <row r="394" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="394" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B394" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H394" s="24" t="s">
         <v>24</v>
@@ -14391,9 +14385,9 @@
       <c r="T394" s="9"/>
       <c r="U394" s="12"/>
     </row>
-    <row r="395" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="395" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B395" s="24" t="s">
-        <v>504</v>
+        <v>59</v>
       </c>
       <c r="H395" s="24" t="s">
         <v>24</v>
@@ -14408,9 +14402,9 @@
       <c r="T395" s="9"/>
       <c r="U395" s="12"/>
     </row>
-    <row r="396" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="396" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B396" s="24" t="s">
-        <v>59</v>
+        <v>503</v>
       </c>
       <c r="H396" s="24" t="s">
         <v>24</v>
@@ -14425,9 +14419,9 @@
       <c r="T396" s="9"/>
       <c r="U396" s="12"/>
     </row>
-    <row r="397" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="397" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="B397" s="24" t="s">
-        <v>505</v>
+        <v>743</v>
       </c>
       <c r="H397" s="24" t="s">
         <v>24</v>
@@ -14442,27 +14436,39 @@
       <c r="T397" s="9"/>
       <c r="U397" s="12"/>
     </row>
-    <row r="398" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B398" s="24" t="s">
-        <v>748</v>
-      </c>
-      <c r="H398" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L398" s="9"/>
-      <c r="P398" s="24">
-        <v>1</v>
-      </c>
-      <c r="R398" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T398" s="9"/>
+    <row r="398" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A398" s="12"/>
+      <c r="B398" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C398" s="12"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="12"/>
+      <c r="F398" s="12"/>
+      <c r="G398" s="12"/>
+      <c r="H398" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I398" s="12"/>
+      <c r="J398" s="12"/>
+      <c r="K398" s="12"/>
+      <c r="L398" s="12"/>
+      <c r="M398" s="12"/>
+      <c r="N398" s="12"/>
+      <c r="O398" s="12"/>
+      <c r="P398" s="12"/>
+      <c r="Q398" s="12"/>
+      <c r="R398" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S398" s="12"/>
+      <c r="T398" s="12"/>
       <c r="U398" s="12"/>
     </row>
-    <row r="399" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="399" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A399" s="12"/>
       <c r="B399" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C399" s="12"/>
       <c r="D399" s="12"/>
@@ -14488,10 +14494,10 @@
       <c r="T399" s="12"/>
       <c r="U399" s="12"/>
     </row>
-    <row r="400" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="400" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A400" s="12"/>
       <c r="B400" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C400" s="12"/>
       <c r="D400" s="12"/>
@@ -14517,10 +14523,10 @@
       <c r="T400" s="12"/>
       <c r="U400" s="12"/>
     </row>
-    <row r="401" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
+    <row r="401" spans="1:21" s="24" customFormat="1" ht="30">
       <c r="A401" s="12"/>
       <c r="B401" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C401" s="12"/>
       <c r="D401" s="12"/>
@@ -14546,38 +14552,26 @@
       <c r="T401" s="12"/>
       <c r="U401" s="12"/>
     </row>
-    <row r="402" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A402" s="12"/>
-      <c r="B402" s="12" t="s">
+    <row r="402" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B402" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="H402" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L402" s="9"/>
+      <c r="P402" s="24">
+        <v>1</v>
+      </c>
+      <c r="R402" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T402" s="9"/>
+      <c r="U402" s="12"/>
+    </row>
+    <row r="403" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B403" s="24" t="s">
         <v>509</v>
-      </c>
-      <c r="C402" s="12"/>
-      <c r="D402" s="12"/>
-      <c r="E402" s="12"/>
-      <c r="F402" s="12"/>
-      <c r="G402" s="12"/>
-      <c r="H402" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I402" s="12"/>
-      <c r="J402" s="12"/>
-      <c r="K402" s="12"/>
-      <c r="L402" s="12"/>
-      <c r="M402" s="12"/>
-      <c r="N402" s="12"/>
-      <c r="O402" s="12"/>
-      <c r="P402" s="12"/>
-      <c r="Q402" s="12"/>
-      <c r="R402" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S402" s="12"/>
-      <c r="T402" s="12"/>
-      <c r="U402" s="12"/>
-    </row>
-    <row r="403" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B403" s="24" t="s">
-        <v>510</v>
       </c>
       <c r="H403" s="24" t="s">
         <v>24</v>
@@ -14592,41 +14586,53 @@
       <c r="T403" s="9"/>
       <c r="U403" s="12"/>
     </row>
-    <row r="404" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B404" s="24" t="s">
+    <row r="404" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A404" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B404" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="H404" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L404" s="9"/>
-      <c r="P404" s="24">
-        <v>1</v>
-      </c>
-      <c r="R404" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T404" s="9"/>
+      <c r="C404" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="D404" s="12"/>
+      <c r="E404" s="12"/>
+      <c r="F404" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G404" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H404" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I404" s="12"/>
+      <c r="J404" s="12"/>
+      <c r="K404" s="12"/>
+      <c r="L404" s="12"/>
+      <c r="M404" s="12"/>
+      <c r="N404" s="12"/>
+      <c r="O404" s="12"/>
+      <c r="P404" s="12"/>
+      <c r="Q404" s="12"/>
+      <c r="R404" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S404" s="12"/>
+      <c r="T404" s="12"/>
       <c r="U404" s="12"/>
     </row>
-    <row r="405" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A405" s="12" t="s">
+    <row r="405" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="A405" s="12"/>
+      <c r="B405" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B405" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C405" s="12" t="s">
-        <v>668</v>
-      </c>
+      <c r="C405" s="12"/>
       <c r="D405" s="12"/>
       <c r="E405" s="12"/>
-      <c r="F405" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G405" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="F405" s="12"/>
+      <c r="G405" s="12"/>
       <c r="H405" s="12" t="s">
         <v>24</v>
       </c>
@@ -14646,38 +14652,26 @@
       <c r="T405" s="12"/>
       <c r="U405" s="12"/>
     </row>
-    <row r="406" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A406" s="12"/>
-      <c r="B406" s="12" t="s">
+    <row r="406" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B406" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="H406" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L406" s="9"/>
+      <c r="P406" s="24">
+        <v>1</v>
+      </c>
+      <c r="R406" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T406" s="9"/>
+      <c r="U406" s="12"/>
+    </row>
+    <row r="407" spans="1:21" s="24" customFormat="1" ht="30">
+      <c r="B407" s="24" t="s">
         <v>514</v>
-      </c>
-      <c r="C406" s="12"/>
-      <c r="D406" s="12"/>
-      <c r="E406" s="12"/>
-      <c r="F406" s="12"/>
-      <c r="G406" s="12"/>
-      <c r="H406" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I406" s="12"/>
-      <c r="J406" s="12"/>
-      <c r="K406" s="12"/>
-      <c r="L406" s="12"/>
-      <c r="M406" s="12"/>
-      <c r="N406" s="12"/>
-      <c r="O406" s="12"/>
-      <c r="P406" s="12"/>
-      <c r="Q406" s="12"/>
-      <c r="R406" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S406" s="12"/>
-      <c r="T406" s="12"/>
-      <c r="U406" s="12"/>
-    </row>
-    <row r="407" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B407" s="24" t="s">
-        <v>515</v>
       </c>
       <c r="H407" s="24" t="s">
         <v>24</v>
@@ -14692,84 +14686,85 @@
       <c r="T407" s="9"/>
       <c r="U407" s="12"/>
     </row>
-    <row r="408" spans="1:21" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="B408" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="H408" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L408" s="9"/>
-      <c r="P408" s="24">
+    <row r="408" spans="1:21" s="12" customFormat="1">
+      <c r="B408" s="9"/>
+      <c r="R408" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" s="12" customFormat="1">
+      <c r="B409" s="9"/>
+      <c r="H409" s="8"/>
+      <c r="I409" s="8"/>
+      <c r="J409" s="9"/>
+      <c r="K409" s="8"/>
+      <c r="L409" s="8"/>
+      <c r="M409" s="8"/>
+      <c r="N409" s="8">
         <v>1</v>
       </c>
-      <c r="R408" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T408" s="9"/>
-      <c r="U408" s="12"/>
-    </row>
-    <row r="409" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
-      <c r="B409" s="9"/>
-      <c r="R409" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="O409" s="8"/>
+      <c r="P409" s="8"/>
+      <c r="Q409" s="8"/>
+      <c r="R409" s="8"/>
     </row>
     <row r="410" spans="1:21" s="12" customFormat="1">
       <c r="B410" s="9"/>
-      <c r="H410" s="8"/>
-      <c r="I410" s="8"/>
-      <c r="J410" s="9"/>
-      <c r="K410" s="8"/>
-      <c r="L410" s="8"/>
-      <c r="M410" s="8"/>
-      <c r="N410" s="8">
-        <v>1</v>
-      </c>
-      <c r="O410" s="8"/>
-      <c r="P410" s="8"/>
-      <c r="Q410" s="8"/>
-      <c r="R410" s="8"/>
-    </row>
-    <row r="411" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
+      <c r="R410" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" s="12" customFormat="1">
       <c r="B411" s="9"/>
       <c r="R411" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
+    <row r="412" spans="1:21" s="12" customFormat="1">
       <c r="B412" s="9"/>
       <c r="R412" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
+    <row r="413" spans="1:21" s="12" customFormat="1">
       <c r="B413" s="9"/>
-      <c r="R413" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="F413" s="8"/>
+      <c r="G413" s="8"/>
+      <c r="H413" s="8"/>
+      <c r="I413" s="8"/>
+      <c r="J413" s="8"/>
+      <c r="K413" s="8"/>
+      <c r="L413" s="8"/>
+      <c r="M413" s="8"/>
+      <c r="N413" s="8"/>
+      <c r="O413" s="8"/>
+      <c r="P413" s="8"/>
+      <c r="Q413" s="8"/>
+      <c r="R413" s="8"/>
     </row>
     <row r="414" spans="1:21" s="12" customFormat="1">
       <c r="B414" s="9"/>
-      <c r="F414" s="8"/>
-      <c r="G414" s="8"/>
-      <c r="H414" s="8"/>
-      <c r="I414" s="8"/>
-      <c r="J414" s="8"/>
-      <c r="K414" s="8"/>
-      <c r="L414" s="8"/>
-      <c r="M414" s="8"/>
-      <c r="N414" s="8"/>
-      <c r="O414" s="8"/>
-      <c r="P414" s="8"/>
-      <c r="Q414" s="8"/>
-      <c r="R414" s="8"/>
-    </row>
-    <row r="415" spans="1:21" s="12" customFormat="1" ht="16" customHeight="1">
+      <c r="R414" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" s="12" customFormat="1">
       <c r="B415" s="9"/>
-      <c r="R415" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="C415" s="8"/>
+      <c r="D415" s="8"/>
+      <c r="F415" s="8"/>
+      <c r="G415" s="8"/>
+      <c r="H415" s="8"/>
+      <c r="I415" s="8"/>
+      <c r="J415" s="8"/>
+      <c r="K415" s="8"/>
+      <c r="L415" s="8"/>
+      <c r="M415" s="8"/>
+      <c r="N415" s="8"/>
+      <c r="O415" s="8"/>
+      <c r="P415" s="8"/>
+      <c r="Q415" s="8"/>
+      <c r="R415" s="8"/>
     </row>
     <row r="416" spans="1:21" s="12" customFormat="1">
       <c r="B416" s="9"/>
@@ -14791,25 +14786,10 @@
     </row>
     <row r="417" spans="1:20" s="12" customFormat="1">
       <c r="B417" s="9"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="8"/>
-      <c r="F417" s="8"/>
-      <c r="G417" s="8"/>
-      <c r="H417" s="8"/>
-      <c r="I417" s="8"/>
-      <c r="J417" s="8"/>
-      <c r="K417" s="8"/>
-      <c r="L417" s="8"/>
-      <c r="M417" s="8"/>
-      <c r="N417" s="8"/>
-      <c r="O417" s="8"/>
-      <c r="P417" s="8"/>
-      <c r="Q417" s="8"/>
-      <c r="R417" s="8"/>
+      <c r="S417" s="8"/>
     </row>
     <row r="418" spans="1:20" s="12" customFormat="1">
       <c r="B418" s="9"/>
-      <c r="S418" s="8"/>
     </row>
     <row r="419" spans="1:20" s="12" customFormat="1">
       <c r="B419" s="9"/>
@@ -14833,16 +14813,31 @@
       <c r="B425" s="9"/>
     </row>
     <row r="426" spans="1:20" s="12" customFormat="1">
+      <c r="A426" s="9"/>
       <c r="B426" s="9"/>
+      <c r="T426" s="8"/>
     </row>
     <row r="427" spans="1:20" s="12" customFormat="1">
-      <c r="A427" s="9"/>
       <c r="B427" s="9"/>
-      <c r="T427" s="8"/>
+      <c r="S427" s="8"/>
     </row>
     <row r="428" spans="1:20" s="12" customFormat="1">
       <c r="B428" s="9"/>
-      <c r="S428" s="8"/>
+      <c r="C428" s="8"/>
+      <c r="D428" s="8"/>
+      <c r="F428" s="8"/>
+      <c r="G428" s="8"/>
+      <c r="H428" s="8"/>
+      <c r="I428" s="8"/>
+      <c r="J428" s="8"/>
+      <c r="K428" s="8"/>
+      <c r="L428" s="8"/>
+      <c r="M428" s="8"/>
+      <c r="N428" s="8"/>
+      <c r="O428" s="8"/>
+      <c r="P428" s="8"/>
+      <c r="Q428" s="8"/>
+      <c r="R428" s="8"/>
     </row>
     <row r="429" spans="1:20" s="12" customFormat="1">
       <c r="B429" s="9"/>
@@ -14861,8 +14856,10 @@
       <c r="P429" s="8"/>
       <c r="Q429" s="8"/>
       <c r="R429" s="8"/>
+      <c r="S429" s="8"/>
     </row>
     <row r="430" spans="1:20" s="12" customFormat="1">
+      <c r="A430" s="8"/>
       <c r="B430" s="9"/>
       <c r="C430" s="8"/>
       <c r="D430" s="8"/>
@@ -14880,9 +14877,9 @@
       <c r="Q430" s="8"/>
       <c r="R430" s="8"/>
       <c r="S430" s="8"/>
+      <c r="T430" s="8"/>
     </row>
     <row r="431" spans="1:20" s="12" customFormat="1">
-      <c r="A431" s="8"/>
       <c r="B431" s="9"/>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
@@ -14900,29 +14897,9 @@
       <c r="Q431" s="8"/>
       <c r="R431" s="8"/>
       <c r="S431" s="8"/>
-      <c r="T431" s="8"/>
-    </row>
-    <row r="432" spans="1:20" s="12" customFormat="1">
+    </row>
+    <row r="432" spans="1:20">
       <c r="B432" s="9"/>
-      <c r="C432" s="8"/>
-      <c r="D432" s="8"/>
-      <c r="F432" s="8"/>
-      <c r="G432" s="8"/>
-      <c r="H432" s="8"/>
-      <c r="I432" s="8"/>
-      <c r="J432" s="8"/>
-      <c r="K432" s="8"/>
-      <c r="L432" s="8"/>
-      <c r="M432" s="8"/>
-      <c r="N432" s="8"/>
-      <c r="O432" s="8"/>
-      <c r="P432" s="8"/>
-      <c r="Q432" s="8"/>
-      <c r="R432" s="8"/>
-      <c r="S432" s="8"/>
-    </row>
-    <row r="433" spans="2:2">
-      <c r="B433" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14938,28 +14915,28 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.95" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1">
@@ -14967,137 +14944,137 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" customHeight="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32.1" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="64" customHeight="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63.95" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="32.1" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32" customHeight="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32.1" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="32.1" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32" customHeight="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32.1" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32.1" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.1" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.95" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32" customHeight="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32.1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1">
@@ -15105,65 +15082,65 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" customHeight="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.95" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.95" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" customHeight="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.95" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" customHeight="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.95" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="32" customHeight="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32.1" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -15180,23 +15157,23 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="15.95" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15207,16 +15184,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -15231,18 +15208,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -15250,13 +15227,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -15264,16 +15241,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -15281,10 +15258,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -15292,13 +15269,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1">
       <c r="B6" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -15306,30 +15283,30 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1">
+    <row r="8" spans="1:12" ht="15.95" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -15337,13 +15314,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -15354,13 +15331,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -15379,7 +15356,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15394,44 +15371,44 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -15439,7 +15416,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -15450,16 +15427,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -15467,16 +15444,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -15484,16 +15461,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -15501,16 +15478,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -15518,16 +15495,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -15535,16 +15512,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -15552,16 +15529,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -15569,16 +15546,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -15586,16 +15563,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -15603,7 +15580,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -15615,13 +15592,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -15629,7 +15606,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -15641,13 +15618,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -15655,7 +15632,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -15667,13 +15644,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -15681,7 +15658,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -15693,13 +15670,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -15707,7 +15684,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -15719,13 +15696,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -15733,7 +15710,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -15745,13 +15722,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -15759,7 +15736,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -15771,13 +15748,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -15785,7 +15762,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -15797,13 +15774,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -15811,7 +15788,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -15823,13 +15800,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -15837,7 +15814,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -15849,13 +15826,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -15863,7 +15840,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -15875,13 +15852,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
+        <v>607</v>
+      </c>
+      <c r="J22" t="s">
+        <v>608</v>
+      </c>
+      <c r="K22" t="s">
         <v>609</v>
-      </c>
-      <c r="J22" t="s">
-        <v>610</v>
-      </c>
-      <c r="K22" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -15889,7 +15866,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15901,13 +15878,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -15915,7 +15892,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15927,13 +15904,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -15941,7 +15918,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -15953,13 +15930,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -15967,7 +15944,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -15979,13 +15956,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -15993,7 +15970,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -16005,13 +15982,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -16019,7 +15996,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -16031,13 +16008,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J28" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -16045,7 +16022,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -16057,13 +16034,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J29" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K29" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -16071,7 +16048,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -16083,13 +16060,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8295E-CBA4-3F4A-A897-2C0B523DBE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF77494-12BF-8946-9AAE-6448C05A425C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="910">
   <si>
     <t>ID</t>
   </si>
@@ -1208,9 +1208,6 @@
     <t>Excessive alcohol consumption</t>
   </si>
   <si>
-    <t>Exclusive hand-rolled cigarette use</t>
-  </si>
-  <si>
     <t>ADDICTO:0000677</t>
   </si>
   <si>
@@ -2733,6 +2730,30 @@
   </si>
   <si>
     <t xml:space="preserve">Number of years smoking does not provide any indication of amount or frequency of smoking. </t>
+  </si>
+  <si>
+    <t>Exclusive tobacco-containing product use</t>
+  </si>
+  <si>
+    <t>Exclusive tobacco use</t>
+  </si>
+  <si>
+    <t>Exclusive e--cigarette use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An e-cigarette use pattern that indicates exlusive use of e-cigarettes at the time of asking or within a defined period. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco use pattern that involves only the exclusive use of tobacco-containing products at the time of asking or within a defined period. </t>
+  </si>
+  <si>
+    <t>Exclusive e-cigarette use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tobacco-containing product(s) must be spedified. The period of time over which exclusive use relates to should be defined. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The period of time over which exclusive use relates to should be defined. </t>
   </si>
 </sst>
 </file>
@@ -3287,11 +3308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y429"/>
+  <dimension ref="A1:Y430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B374" sqref="B374"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3998,7 +4019,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>98</v>
@@ -4050,7 +4071,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>25</v>
@@ -4079,7 +4100,7 @@
         <v>105</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="11"/>
@@ -5125,7 +5146,7 @@
         <v>173</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="30"/>
@@ -6387,7 +6408,7 @@
     <row r="93" spans="1:20" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -6571,7 +6592,7 @@
         <v>270</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C99" s="30" t="s">
         <v>271</v>
@@ -6760,12 +6781,12 @@
         <v>287</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30"/>
       <c r="F104" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G104" s="30"/>
       <c r="H104" s="30" t="s">
@@ -6864,12 +6885,12 @@
         <v>294</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30"/>
       <c r="F107" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G107" s="30"/>
       <c r="H107" s="30" t="s">
@@ -7691,7 +7712,7 @@
       </c>
       <c r="K133" s="17"/>
       <c r="L133" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
@@ -8346,50 +8367,60 @@
       <c r="U152" s="30"/>
     </row>
     <row r="153" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
-      <c r="L153" s="11"/>
-      <c r="M153" s="11"/>
-      <c r="N153" s="11"/>
-      <c r="O153" s="11"/>
-      <c r="P153" s="11"/>
-      <c r="Q153" s="11"/>
-      <c r="R153" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S153" s="11"/>
-      <c r="T153" s="11"/>
+      <c r="A153" s="30"/>
+      <c r="B153" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H153" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="L153" s="30" t="s">
+        <v>908</v>
+      </c>
+      <c r="M153" s="30"/>
+      <c r="N153" s="30"/>
+      <c r="O153" s="30"/>
+      <c r="P153" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q153" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R153" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S153" s="30"/>
+      <c r="T153" s="30"/>
       <c r="U153" s="30"/>
     </row>
     <row r="154" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>396</v>
+      <c r="A154" s="30"/>
+      <c r="B154" s="30" t="s">
+        <v>904</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>398</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="D154" s="30"/>
       <c r="E154" s="30"/>
       <c r="F154" s="30" t="s">
-        <v>373</v>
+        <v>65</v>
       </c>
       <c r="G154" s="30" t="s">
         <v>49</v>
@@ -8399,9 +8430,11 @@
       </c>
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
-      <c r="K154" s="30"/>
+      <c r="K154" s="30" t="s">
+        <v>907</v>
+      </c>
       <c r="L154" s="30" t="s">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="M154" s="30"/>
       <c r="N154" s="30"/>
@@ -8420,68 +8453,85 @@
       <c r="U154" s="30"/>
     </row>
     <row r="155" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="22"/>
-      <c r="B155" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I155" s="22"/>
-      <c r="J155" s="22"/>
-      <c r="K155" s="22"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="22"/>
-      <c r="N155" s="22"/>
-      <c r="O155" s="22"/>
-      <c r="P155" s="22">
+      <c r="A155" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="G155" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H155" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="M155" s="30"/>
+      <c r="N155" s="30"/>
+      <c r="O155" s="30"/>
+      <c r="P155" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q155" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R155" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S155" s="30"/>
+      <c r="T155" s="30"/>
+      <c r="U155" s="30"/>
+    </row>
+    <row r="156" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="22"/>
+      <c r="B156" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I156" s="22"/>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="22"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="22"/>
+      <c r="P156" s="22">
         <v>1</v>
       </c>
-      <c r="Q155" s="22"/>
-      <c r="R155" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S155" s="22"/>
-      <c r="T155" s="8"/>
-      <c r="U155" s="30"/>
-    </row>
-    <row r="156" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
-      <c r="P156" s="11"/>
-      <c r="Q156" s="11"/>
-      <c r="R156" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S156" s="11"/>
-      <c r="T156" s="11"/>
+      <c r="Q156" s="22"/>
+      <c r="R156" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S156" s="22"/>
+      <c r="T156" s="8"/>
+      <c r="U156" s="30"/>
     </row>
     <row r="157" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11"/>
       <c r="B157" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -8509,11 +8559,9 @@
     <row r="158" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11"/>
       <c r="B158" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>404</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
@@ -8521,9 +8569,7 @@
       <c r="H158" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I158" s="11" t="s">
-        <v>405</v>
-      </c>
+      <c r="I158" s="11"/>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
       <c r="L158" s="11"/>
@@ -8539,65 +8585,69 @@
       <c r="T158" s="11"/>
     </row>
     <row r="159" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S159" s="19"/>
-      <c r="T159" s="19"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S159" s="11"/>
+      <c r="T159" s="11"/>
     </row>
     <row r="160" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="11"/>
-      <c r="L160" s="11"/>
-      <c r="M160" s="11"/>
-      <c r="N160" s="11"/>
-      <c r="O160" s="11"/>
-      <c r="P160" s="11"/>
-      <c r="Q160" s="11"/>
-      <c r="R160" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S160" s="11"/>
-      <c r="T160" s="11"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
     </row>
     <row r="161" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11"/>
       <c r="B161" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -8622,78 +8672,77 @@
       <c r="S161" s="11"/>
       <c r="T161" s="11"/>
     </row>
-    <row r="162" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="17" t="s">
+    <row r="162" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S162" s="11"/>
+      <c r="T162" s="11"/>
+    </row>
+    <row r="163" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B163" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="C163" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="C162" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="D162" s="15"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17" t="s">
+      <c r="D163" s="15"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
-      <c r="N162" s="17"/>
-      <c r="O162" s="17"/>
-      <c r="P162" s="17" t="s">
+      <c r="G163" s="17"/>
+      <c r="H163" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q162" s="17" t="s">
+      <c r="Q163" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R162" s="17" t="s">
+      <c r="R163" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="S162" s="17"/>
-      <c r="T162" s="17"/>
-      <c r="U162" s="30"/>
-    </row>
-    <row r="163" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="11"/>
-      <c r="N163" s="11"/>
-      <c r="O163" s="11"/>
-      <c r="P163" s="11"/>
-      <c r="Q163" s="11"/>
-      <c r="R163" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S163" s="11"/>
-      <c r="T163" s="11"/>
-      <c r="U163" s="11"/>
+      <c r="S163" s="17"/>
+      <c r="T163" s="17"/>
+      <c r="U163" s="30"/>
     </row>
     <row r="164" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11"/>
       <c r="B164" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -8720,118 +8769,119 @@
       <c r="U164" s="11"/>
     </row>
     <row r="165" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S165" s="11"/>
+      <c r="T165" s="11"/>
+      <c r="U165" s="11"/>
+    </row>
+    <row r="166" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B166" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="B165" s="31" t="s">
+      <c r="C166" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="C165" s="31" t="s">
+      <c r="D166" s="31"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="D165" s="31"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30" t="s">
+      <c r="G166" s="30"/>
+      <c r="H166" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="30"/>
+      <c r="M166" s="30"/>
+      <c r="N166" s="30"/>
+      <c r="O166" s="30"/>
+      <c r="P166" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q166" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R166" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S166" s="30"/>
+      <c r="T166" s="30"/>
+      <c r="U166" s="11"/>
+    </row>
+    <row r="167" spans="1:21" s="31" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="22"/>
+      <c r="B167" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I165" s="30"/>
-      <c r="J165" s="30"/>
-      <c r="K165" s="30"/>
-      <c r="L165" s="30"/>
-      <c r="M165" s="30"/>
-      <c r="N165" s="30"/>
-      <c r="O165" s="30"/>
-      <c r="P165" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q165" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R165" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S165" s="30"/>
-      <c r="T165" s="30"/>
-      <c r="U165" s="11"/>
-    </row>
-    <row r="166" spans="1:21" s="31" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="22"/>
-      <c r="B166" s="11" t="s">
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I167" s="22"/>
+      <c r="J167" s="22"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="22"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="22"/>
+      <c r="P167" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="22"/>
+      <c r="R167" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S167" s="22"/>
+      <c r="T167" s="8"/>
+      <c r="U167" s="30"/>
+    </row>
+    <row r="168" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
-      <c r="H166" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I166" s="22"/>
-      <c r="J166" s="22"/>
-      <c r="K166" s="22"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="22"/>
-      <c r="N166" s="22"/>
-      <c r="O166" s="22"/>
-      <c r="P166" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q166" s="22"/>
-      <c r="R166" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S166" s="22"/>
-      <c r="T166" s="8"/>
-      <c r="U166" s="30"/>
-    </row>
-    <row r="167" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="11" t="s">
+      <c r="B168" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="C168" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C167" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11" t="s">
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I167" s="11"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
-      <c r="M167" s="11"/>
-      <c r="N167" s="11"/>
-      <c r="O167" s="11">
-        <v>1</v>
-      </c>
-      <c r="P167" s="11"/>
-      <c r="Q167" s="11"/>
-      <c r="R167" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S167" s="11"/>
-      <c r="T167" s="11"/>
-      <c r="U167" s="11"/>
-    </row>
-    <row r="168" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="11"/>
-      <c r="B168" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11" t="s">
         <v>25</v>
@@ -8842,7 +8892,9 @@
       <c r="L168" s="11"/>
       <c r="M168" s="11"/>
       <c r="N168" s="11"/>
-      <c r="O168" s="11"/>
+      <c r="O168" s="11">
+        <v>1</v>
+      </c>
       <c r="P168" s="11"/>
       <c r="Q168" s="11"/>
       <c r="R168" s="11" t="s">
@@ -8853,58 +8905,55 @@
       <c r="U168" s="11"/>
     </row>
     <row r="169" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="H169" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L169" s="8"/>
-      <c r="O169" s="22" t="s">
+      <c r="A169" s="11"/>
+      <c r="B169" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S169" s="11"/>
+      <c r="T169" s="11"/>
+      <c r="U169" s="11"/>
+    </row>
+    <row r="170" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="H170" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L170" s="8"/>
+      <c r="O170" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P169" s="22">
+      <c r="P170" s="22">
         <v>1</v>
       </c>
-      <c r="R169" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T169" s="8"/>
-      <c r="U169" s="11"/>
-    </row>
-    <row r="170" spans="1:21" s="22" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11"/>
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-      <c r="O170" s="11"/>
-      <c r="P170" s="11"/>
-      <c r="Q170" s="11"/>
-      <c r="R170" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S170" s="11"/>
-      <c r="T170" s="11"/>
+      <c r="R170" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T170" s="8"/>
       <c r="U170" s="11"/>
     </row>
-    <row r="171" spans="1:21" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" s="22" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11"/>
       <c r="B171" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -8916,9 +8965,7 @@
       </c>
       <c r="I171" s="11"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="11" t="s">
-        <v>426</v>
-      </c>
+      <c r="K171" s="11"/>
       <c r="L171" s="11"/>
       <c r="M171" s="11"/>
       <c r="N171" s="11"/>
@@ -8930,12 +8977,12 @@
       </c>
       <c r="S171" s="11"/>
       <c r="T171" s="11"/>
-      <c r="U171" s="19"/>
-    </row>
-    <row r="172" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U171" s="11"/>
+    </row>
+    <row r="172" spans="1:21" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11"/>
       <c r="B172" s="11" t="s">
-        <v>885</v>
+        <v>424</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -8947,7 +8994,9 @@
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="11"/>
+      <c r="K172" s="11" t="s">
+        <v>425</v>
+      </c>
       <c r="L172" s="11"/>
       <c r="M172" s="11"/>
       <c r="N172" s="11"/>
@@ -8959,12 +9008,12 @@
       </c>
       <c r="S172" s="11"/>
       <c r="T172" s="11"/>
-      <c r="U172" s="11"/>
+      <c r="U172" s="19"/>
     </row>
     <row r="173" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11"/>
       <c r="B173" s="11" t="s">
-        <v>427</v>
+        <v>884</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -8990,74 +9039,62 @@
       <c r="T173" s="11"/>
       <c r="U173" s="11"/>
     </row>
-    <row r="174" spans="1:21" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="30" t="s">
+    <row r="174" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S174" s="11"/>
+      <c r="T174" s="11"/>
+      <c r="U174" s="11"/>
+    </row>
+    <row r="175" spans="1:21" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B175" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="C175" s="30" t="s">
         <v>429</v>
-      </c>
-      <c r="C174" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
-      <c r="F174" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G174" s="30"/>
-      <c r="H174" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I174" s="30"/>
-      <c r="J174" s="30"/>
-      <c r="K174" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="L174" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="M174" s="30"/>
-      <c r="N174" s="30"/>
-      <c r="O174" s="30"/>
-      <c r="P174" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q174" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R174" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S174" s="30"/>
-      <c r="T174" s="30"/>
-      <c r="U174" s="17"/>
-    </row>
-    <row r="175" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B175" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="C175" s="30" t="s">
-        <v>434</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30"/>
       <c r="F175" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G175" s="30" t="s">
-        <v>49</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G175" s="30"/>
       <c r="H175" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
-      <c r="K175" s="30"/>
-      <c r="L175" s="30"/>
+      <c r="K175" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="L175" s="30" t="s">
+        <v>430</v>
+      </c>
       <c r="M175" s="30"/>
       <c r="N175" s="30"/>
       <c r="O175" s="30"/>
@@ -9072,142 +9109,142 @@
       </c>
       <c r="S175" s="30"/>
       <c r="T175" s="30"/>
-      <c r="U175" s="11"/>
+      <c r="U175" s="17"/>
     </row>
     <row r="176" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="A176" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G176" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H176" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
+      <c r="K176" s="30"/>
+      <c r="L176" s="30"/>
+      <c r="M176" s="30"/>
+      <c r="N176" s="30"/>
+      <c r="O176" s="30"/>
+      <c r="P176" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q176" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R176" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S176" s="30"/>
+      <c r="T176" s="30"/>
+      <c r="U176" s="11"/>
+    </row>
+    <row r="177" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>434</v>
+      </c>
+      <c r="B177" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="C177" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="C176" s="31" t="s">
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G177" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H177" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I177" s="31"/>
+      <c r="J177" s="31"/>
+      <c r="K177" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L177" s="32"/>
+      <c r="M177" s="31"/>
+      <c r="N177" s="31"/>
+      <c r="O177" s="31"/>
+      <c r="P177" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="R177" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S177" s="31"/>
+      <c r="T177" s="32"/>
+      <c r="U177" s="11"/>
+    </row>
+    <row r="178" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="D176" s="31"/>
-      <c r="E176" s="31"/>
-      <c r="F176" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="G176" s="31" t="s">
+      <c r="B178" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G178" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H176" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
-      <c r="K176" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="L176" s="32"/>
-      <c r="M176" s="31"/>
-      <c r="N176" s="31"/>
-      <c r="O176" s="31"/>
-      <c r="P176" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q176" s="31" t="s">
+      <c r="H178" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="30"/>
+      <c r="M178" s="30"/>
+      <c r="N178" s="30"/>
+      <c r="O178" s="30"/>
+      <c r="P178" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q178" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="R176" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S176" s="31"/>
-      <c r="T176" s="32"/>
-      <c r="U176" s="11"/>
-    </row>
-    <row r="177" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B177" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="C177" s="30" t="s">
+      <c r="R178" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S178" s="30"/>
+      <c r="T178" s="30"/>
+      <c r="U178" s="30"/>
+    </row>
+    <row r="179" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>440</v>
       </c>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G177" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H177" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I177" s="30"/>
-      <c r="J177" s="30"/>
-      <c r="K177" s="30"/>
-      <c r="L177" s="30"/>
-      <c r="M177" s="30"/>
-      <c r="N177" s="30"/>
-      <c r="O177" s="30"/>
-      <c r="P177" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q177" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R177" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S177" s="30"/>
-      <c r="T177" s="30"/>
-      <c r="U177" s="30"/>
-    </row>
-    <row r="178" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>441</v>
-      </c>
-      <c r="B178" s="31" t="s">
+      <c r="B179" s="31" t="s">
+        <v>885</v>
+      </c>
+      <c r="C179" s="31" t="s">
         <v>886</v>
-      </c>
-      <c r="C178" s="31" t="s">
-        <v>887</v>
-      </c>
-      <c r="D178" s="31"/>
-      <c r="E178" s="31"/>
-      <c r="F178" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G178" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H178" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
-      <c r="K178" s="31"/>
-      <c r="L178" s="32"/>
-      <c r="M178" s="31"/>
-      <c r="N178" s="31"/>
-      <c r="O178" s="31"/>
-      <c r="P178" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q178" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="R178" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S178" s="31"/>
-      <c r="T178" s="32"/>
-      <c r="U178" s="11"/>
-    </row>
-    <row r="179" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>442</v>
-      </c>
-      <c r="B179" s="31" t="s">
-        <v>888</v>
-      </c>
-      <c r="C179" s="31" t="s">
-        <v>889</v>
       </c>
       <c r="D179" s="31"/>
       <c r="E179" s="31"/>
@@ -9227,8 +9264,8 @@
       <c r="M179" s="31"/>
       <c r="N179" s="31"/>
       <c r="O179" s="31"/>
-      <c r="P179" s="31" t="s">
-        <v>27</v>
+      <c r="P179" s="31">
+        <v>1</v>
       </c>
       <c r="Q179" s="31" t="s">
         <v>45</v>
@@ -9240,17 +9277,17 @@
       <c r="T179" s="32"/>
       <c r="U179" s="11"/>
     </row>
-    <row r="180" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>890</v>
-      </c>
-      <c r="C180" s="29" t="s">
-        <v>891</v>
-      </c>
-      <c r="D180" s="29"/>
+        <v>887</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="D180" s="31"/>
       <c r="E180" s="31"/>
       <c r="F180" s="31" t="s">
         <v>187</v>
@@ -9283,15 +9320,15 @@
     </row>
     <row r="181" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>892</v>
-      </c>
-      <c r="C181" s="31" t="s">
-        <v>893</v>
-      </c>
-      <c r="D181" s="31"/>
+        <v>889</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="D181" s="29"/>
       <c r="E181" s="31"/>
       <c r="F181" s="31" t="s">
         <v>187</v>
@@ -9309,8 +9346,8 @@
       <c r="M181" s="31"/>
       <c r="N181" s="31"/>
       <c r="O181" s="31"/>
-      <c r="P181" s="31">
-        <v>1</v>
+      <c r="P181" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="Q181" s="31" t="s">
         <v>45</v>
@@ -9324,13 +9361,13 @@
     </row>
     <row r="182" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
@@ -9350,8 +9387,8 @@
       <c r="M182" s="31"/>
       <c r="N182" s="31"/>
       <c r="O182" s="31"/>
-      <c r="P182" s="31" t="s">
-        <v>27</v>
+      <c r="P182" s="31">
+        <v>1</v>
       </c>
       <c r="Q182" s="31" t="s">
         <v>45</v>
@@ -9364,84 +9401,90 @@
       <c r="U182" s="11"/>
     </row>
     <row r="183" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30" t="s">
-        <v>896</v>
-      </c>
-      <c r="C183" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
-      <c r="F183" s="30"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I183" s="30"/>
-      <c r="J183" s="30"/>
-      <c r="K183" s="30"/>
-      <c r="L183" s="30"/>
-      <c r="M183" s="30"/>
-      <c r="N183" s="30"/>
-      <c r="O183" s="30"/>
-      <c r="P183" s="30" t="s">
+      <c r="A183" t="s">
+        <v>444</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H183" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I183" s="31"/>
+      <c r="J183" s="31"/>
+      <c r="K183" s="31"/>
+      <c r="L183" s="32"/>
+      <c r="M183" s="31"/>
+      <c r="N183" s="31"/>
+      <c r="O183" s="31"/>
+      <c r="P183" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Q183" s="30" t="s">
+      <c r="Q183" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R183" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S183" s="30"/>
-      <c r="T183" s="30"/>
+      <c r="R183" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S183" s="31"/>
+      <c r="T183" s="32"/>
       <c r="U183" s="11"/>
     </row>
     <row r="184" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D184" s="9"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H184" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I184" s="9"/>
-      <c r="J184" s="9"/>
-      <c r="K184" s="9"/>
-      <c r="L184" s="9"/>
-      <c r="M184" s="9"/>
-      <c r="N184" s="9"/>
-      <c r="O184" s="17"/>
-      <c r="P184" s="9"/>
-      <c r="Q184" s="9"/>
-      <c r="R184" s="9"/>
-      <c r="S184" s="9"/>
-      <c r="T184" s="9"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D184" s="30"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="30"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
+      <c r="K184" s="30"/>
+      <c r="L184" s="30"/>
+      <c r="M184" s="30"/>
+      <c r="N184" s="30"/>
+      <c r="O184" s="30"/>
+      <c r="P184" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q184" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R184" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S184" s="30"/>
+      <c r="T184" s="30"/>
       <c r="U184" s="11"/>
     </row>
     <row r="185" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="17"/>
@@ -9468,76 +9511,82 @@
       <c r="T185" s="9"/>
       <c r="U185" s="11"/>
     </row>
-    <row r="186" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D186" s="9"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+      <c r="M186" s="9"/>
+      <c r="N186" s="9"/>
+      <c r="O186" s="17"/>
+      <c r="P186" s="9"/>
+      <c r="Q186" s="9"/>
+      <c r="R186" s="9"/>
+      <c r="S186" s="9"/>
+      <c r="T186" s="9"/>
+      <c r="U186" s="11"/>
+    </row>
+    <row r="187" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B187" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="C187" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C186" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="G186" s="17" t="s">
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="G187" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H186" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I186" s="17"/>
-      <c r="J186" s="17"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="17"/>
-      <c r="M186" s="17"/>
-      <c r="N186" s="17"/>
-      <c r="O186" s="17"/>
-      <c r="P186" s="17"/>
-      <c r="Q186" s="17"/>
-      <c r="R186" s="17" t="s">
+      <c r="H187" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="17"/>
+      <c r="N187" s="17"/>
+      <c r="O187" s="17"/>
+      <c r="P187" s="17"/>
+      <c r="Q187" s="17"/>
+      <c r="R187" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="S186" s="17"/>
-      <c r="T186" s="17"/>
-      <c r="U186" s="30"/>
-    </row>
-    <row r="187" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="11"/>
-      <c r="O187" s="11"/>
-      <c r="P187" s="11"/>
-      <c r="Q187" s="11"/>
-      <c r="R187" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S187" s="11"/>
-      <c r="T187" s="11"/>
+      <c r="S187" s="17"/>
+      <c r="T187" s="17"/>
       <c r="U187" s="30"/>
     </row>
     <row r="188" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11"/>
       <c r="B188" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -9563,24 +9612,16 @@
       <c r="T188" s="11"/>
       <c r="U188" s="30"/>
     </row>
-    <row r="189" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="11" t="s">
-        <v>457</v>
-      </c>
+    <row r="189" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="11"/>
       <c r="B189" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>459</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
-      <c r="F189" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
       <c r="H189" s="11" t="s">
         <v>25</v>
       </c>
@@ -9601,75 +9642,81 @@
       <c r="U189" s="30"/>
     </row>
     <row r="190" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S190" s="11"/>
+      <c r="T190" s="11"/>
+      <c r="U190" s="30"/>
+    </row>
+    <row r="191" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="C191" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="D191" s="7"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="7"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7"/>
-      <c r="T190" s="7"/>
-      <c r="U190" s="30"/>
-    </row>
-    <row r="191" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="22"/>
-      <c r="B191" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="22"/>
-      <c r="G191" s="22"/>
-      <c r="H191" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I191" s="22"/>
-      <c r="J191" s="22"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="8"/>
-      <c r="M191" s="22"/>
-      <c r="N191" s="22"/>
-      <c r="O191" s="22"/>
-      <c r="P191" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q191" s="22"/>
-      <c r="R191" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S191" s="22"/>
-      <c r="T191" s="8"/>
+      <c r="G191" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="7"/>
+      <c r="T191" s="7"/>
       <c r="U191" s="30"/>
     </row>
     <row r="192" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="22"/>
       <c r="B192" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
@@ -9698,95 +9745,98 @@
       <c r="U192" s="30"/>
     </row>
     <row r="193" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11" t="s">
+      <c r="A193" s="22"/>
+      <c r="B193" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I193" s="22"/>
+      <c r="J193" s="22"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="22"/>
+      <c r="N193" s="22"/>
+      <c r="O193" s="22"/>
+      <c r="P193" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="22"/>
+      <c r="R193" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S193" s="22"/>
+      <c r="T193" s="8"/>
+      <c r="U193" s="30"/>
+    </row>
+    <row r="194" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+      <c r="Q194" s="11"/>
+      <c r="R194" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S194" s="11"/>
+      <c r="T194" s="11"/>
+    </row>
+    <row r="195" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="22"/>
+      <c r="B195" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I193" s="11"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="11"/>
-      <c r="L193" s="11"/>
-      <c r="M193" s="11"/>
-      <c r="N193" s="11"/>
-      <c r="O193" s="11"/>
-      <c r="P193" s="11"/>
-      <c r="Q193" s="11"/>
-      <c r="R193" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S193" s="11"/>
-      <c r="T193" s="11"/>
-    </row>
-    <row r="194" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="22"/>
-      <c r="B194" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="22"/>
-      <c r="F194" s="22"/>
-      <c r="G194" s="22"/>
-      <c r="H194" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I194" s="22"/>
-      <c r="J194" s="22"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="22"/>
-      <c r="N194" s="22"/>
-      <c r="O194" s="22"/>
-      <c r="P194" s="22">
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I195" s="22"/>
+      <c r="J195" s="22"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="8"/>
+      <c r="M195" s="22"/>
+      <c r="N195" s="22"/>
+      <c r="O195" s="22"/>
+      <c r="P195" s="22">
         <v>1</v>
       </c>
-      <c r="Q194" s="22"/>
-      <c r="R194" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S194" s="22"/>
-      <c r="T194" s="8"/>
-    </row>
-    <row r="195" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I195" s="11"/>
-      <c r="J195" s="11"/>
-      <c r="K195" s="11"/>
-      <c r="L195" s="11"/>
-      <c r="M195" s="11"/>
-      <c r="N195" s="11"/>
-      <c r="O195" s="11"/>
-      <c r="P195" s="11"/>
-      <c r="Q195" s="11"/>
-      <c r="R195" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S195" s="11"/>
-      <c r="T195" s="11"/>
+      <c r="Q195" s="22"/>
+      <c r="R195" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S195" s="22"/>
+      <c r="T195" s="8"/>
     </row>
     <row r="196" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11"/>
       <c r="B196" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -9814,7 +9864,7 @@
     <row r="197" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11"/>
       <c r="B197" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -9839,10 +9889,10 @@
       <c r="S197" s="11"/>
       <c r="T197" s="11"/>
     </row>
-    <row r="198" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11"/>
       <c r="B198" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -9866,58 +9916,57 @@
       </c>
       <c r="S198" s="11"/>
       <c r="T198" s="11"/>
-      <c r="U198" s="11"/>
     </row>
     <row r="199" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="H199" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L199" s="8"/>
-      <c r="P199" s="22">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
+      <c r="Q199" s="11"/>
+      <c r="R199" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S199" s="11"/>
+      <c r="T199" s="11"/>
+      <c r="U199" s="11"/>
+    </row>
+    <row r="200" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="H200" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L200" s="8"/>
+      <c r="P200" s="22">
         <v>1</v>
       </c>
-      <c r="R199" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T199" s="8"/>
-      <c r="U199" s="11"/>
-    </row>
-    <row r="200" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I200" s="11"/>
-      <c r="J200" s="11"/>
-      <c r="K200" s="11"/>
-      <c r="L200" s="11"/>
-      <c r="M200" s="11"/>
-      <c r="N200" s="11"/>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
-      <c r="Q200" s="11"/>
-      <c r="R200" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S200" s="11"/>
-      <c r="T200" s="11"/>
+      <c r="R200" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T200" s="8"/>
       <c r="U200" s="11"/>
     </row>
-    <row r="201" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11"/>
       <c r="B201" s="11" t="s">
-        <v>473</v>
+        <v>896</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -9943,10 +9992,10 @@
       <c r="T201" s="11"/>
       <c r="U201" s="11"/>
     </row>
-    <row r="202" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11"/>
       <c r="B202" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -9975,7 +10024,7 @@
     <row r="203" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11"/>
       <c r="B203" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -10004,7 +10053,7 @@
     <row r="204" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11"/>
       <c r="B204" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -10033,7 +10082,7 @@
     <row r="205" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11"/>
       <c r="B205" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -10060,120 +10109,132 @@
       <c r="U205" s="11"/>
     </row>
     <row r="206" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="22" t="s">
+      <c r="A206" s="11"/>
+      <c r="B206" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
+      <c r="Q206" s="11"/>
+      <c r="R206" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S206" s="11"/>
+      <c r="T206" s="11"/>
+      <c r="U206" s="11"/>
+    </row>
+    <row r="207" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="H207" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L207" s="8"/>
+      <c r="P207" s="22">
+        <v>1</v>
+      </c>
+      <c r="R207" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T207" s="8"/>
+      <c r="U207" s="11"/>
+    </row>
+    <row r="208" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="11"/>
+      <c r="B208" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="H206" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L206" s="8"/>
-      <c r="P206" s="22">
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="11"/>
+      <c r="R208" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S208" s="11"/>
+      <c r="T208" s="11"/>
+      <c r="U208" s="11"/>
+    </row>
+    <row r="209" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H209" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L209" s="8"/>
+      <c r="P209" s="22">
         <v>1</v>
       </c>
-      <c r="R206" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T206" s="8"/>
-      <c r="U206" s="11"/>
-    </row>
-    <row r="207" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="11"/>
-      <c r="L207" s="11"/>
-      <c r="M207" s="11"/>
-      <c r="N207" s="11"/>
-      <c r="O207" s="11"/>
-      <c r="P207" s="11"/>
-      <c r="Q207" s="11"/>
-      <c r="R207" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S207" s="11"/>
-      <c r="T207" s="11"/>
-      <c r="U207" s="11"/>
-    </row>
-    <row r="208" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="22" t="s">
+      <c r="R209" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T209" s="8"/>
+      <c r="U209" s="11"/>
+    </row>
+    <row r="210" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="H208" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L208" s="8"/>
-      <c r="P208" s="22">
+      <c r="C210" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="D210" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="F210" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G210" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H210" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L210" s="32"/>
+      <c r="P210" s="31">
         <v>1</v>
       </c>
-      <c r="R208" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T208" s="8"/>
-      <c r="U208" s="11"/>
-    </row>
-    <row r="209" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C209" s="31" t="s">
-        <v>898</v>
-      </c>
-      <c r="D209" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="F209" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G209" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H209" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L209" s="32"/>
-      <c r="P209" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q209" s="31" t="s">
+      <c r="Q210" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R209" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T209" s="32"/>
-      <c r="U209" s="30"/>
-    </row>
-    <row r="210" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="H210" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L210" s="8"/>
-      <c r="P210" s="22">
-        <v>1</v>
-      </c>
-      <c r="R210" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T210" s="8"/>
-      <c r="U210" s="11"/>
+      <c r="R210" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T210" s="32"/>
+      <c r="U210" s="30"/>
     </row>
     <row r="211" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H211" s="22" t="s">
         <v>25</v>
@@ -10189,84 +10250,60 @@
       <c r="U211" s="11"/>
     </row>
     <row r="212" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
-      <c r="H212" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I212" s="11"/>
-      <c r="J212" s="11"/>
-      <c r="K212" s="11"/>
-      <c r="L212" s="11"/>
-      <c r="M212" s="11"/>
-      <c r="N212" s="11"/>
-      <c r="O212" s="11"/>
-      <c r="P212" s="11"/>
-      <c r="Q212" s="11"/>
-      <c r="R212" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S212" s="11"/>
-      <c r="T212" s="11"/>
+      <c r="B212" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="H212" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L212" s="8"/>
+      <c r="P212" s="22">
+        <v>1</v>
+      </c>
+      <c r="R212" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T212" s="8"/>
       <c r="U212" s="11"/>
     </row>
     <row r="213" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="B213" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="C213" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
-      <c r="F213" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G213" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H213" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I213" s="30"/>
-      <c r="J213" s="30"/>
-      <c r="K213" s="30"/>
-      <c r="L213" s="30"/>
-      <c r="M213" s="30"/>
-      <c r="N213" s="30"/>
-      <c r="O213" s="30"/>
-      <c r="P213" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q213" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R213" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S213" s="30"/>
-      <c r="T213" s="30"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="11"/>
+      <c r="O213" s="11"/>
+      <c r="P213" s="11"/>
+      <c r="Q213" s="11"/>
+      <c r="R213" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S213" s="11"/>
+      <c r="T213" s="11"/>
       <c r="U213" s="11"/>
     </row>
     <row r="214" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>899</v>
+        <v>486</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30"/>
@@ -10301,13 +10338,13 @@
     </row>
     <row r="215" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="30" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>492</v>
+        <v>898</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30"/>
@@ -10341,85 +10378,97 @@
       <c r="U215" s="11"/>
     </row>
     <row r="216" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>493</v>
-      </c>
-      <c r="B216" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="C216" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="D216" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="E216" s="31"/>
-      <c r="F216" s="31" t="s">
-        <v>65</v>
+      <c r="A216" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B216" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="D216" s="30"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30" t="s">
+        <v>187</v>
       </c>
       <c r="G216" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H216" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I216" s="31"/>
-      <c r="J216" s="31"/>
-      <c r="K216" s="31" t="s">
+      <c r="H216" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I216" s="30"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="30"/>
+      <c r="M216" s="30"/>
+      <c r="N216" s="30"/>
+      <c r="O216" s="30"/>
+      <c r="P216" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q216" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R216" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S216" s="30"/>
+      <c r="T216" s="30"/>
+      <c r="U216" s="11"/>
+    </row>
+    <row r="217" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>492</v>
+      </c>
+      <c r="B217" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="C217" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D217" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G217" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H217" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I217" s="31"/>
+      <c r="J217" s="31"/>
+      <c r="K217" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="L217" s="32"/>
+      <c r="M217" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="L216" s="32"/>
-      <c r="M216" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="N216" s="31"/>
-      <c r="O216" s="31"/>
-      <c r="P216" s="31">
+      <c r="N217" s="31"/>
+      <c r="O217" s="31"/>
+      <c r="P217" s="31">
         <v>1</v>
       </c>
-      <c r="Q216" s="31" t="s">
+      <c r="Q217" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R216" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S216" s="31"/>
-      <c r="T216" s="32"/>
-      <c r="U216" s="11"/>
-    </row>
-    <row r="217" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
-      <c r="H217" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I217" s="11"/>
-      <c r="J217" s="11"/>
-      <c r="K217" s="11"/>
-      <c r="L217" s="11"/>
-      <c r="M217" s="11"/>
-      <c r="N217" s="11"/>
-      <c r="O217" s="11"/>
-      <c r="P217" s="11"/>
-      <c r="Q217" s="11"/>
-      <c r="R217" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S217" s="11"/>
-      <c r="T217" s="11"/>
+      <c r="R217" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S217" s="31"/>
+      <c r="T217" s="32"/>
       <c r="U217" s="11"/>
     </row>
     <row r="218" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="11"/>
       <c r="B218" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -10448,7 +10497,7 @@
     <row r="219" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="11"/>
       <c r="B219" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -10475,131 +10524,125 @@
       <c r="U219" s="11"/>
     </row>
     <row r="220" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="30" t="s">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="11"/>
+      <c r="R220" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S220" s="11"/>
+      <c r="T220" s="11"/>
+      <c r="U220" s="11"/>
+    </row>
+    <row r="221" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B221" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="C221" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G221" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H221" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I221" s="30"/>
+      <c r="J221" s="30"/>
+      <c r="K221" s="30"/>
+      <c r="L221" s="30"/>
+      <c r="M221" s="30"/>
+      <c r="N221" s="30"/>
+      <c r="O221" s="30"/>
+      <c r="P221" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q221" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R221" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S221" s="30"/>
+      <c r="T221" s="30"/>
+      <c r="U221" s="11"/>
+    </row>
+    <row r="222" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>503</v>
       </c>
-      <c r="C220" s="30" t="s">
-        <v>900</v>
-      </c>
-      <c r="D220" s="30"/>
-      <c r="E220" s="30"/>
-      <c r="F220" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G220" s="30" t="s">
+      <c r="B222" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="C222" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="G222" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H220" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I220" s="30"/>
-      <c r="J220" s="30"/>
-      <c r="K220" s="30"/>
-      <c r="L220" s="30"/>
-      <c r="M220" s="30"/>
-      <c r="N220" s="30"/>
-      <c r="O220" s="30"/>
-      <c r="P220" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q220" s="30" t="s">
+      <c r="H222" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I222" s="31"/>
+      <c r="J222" s="31"/>
+      <c r="K222" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="L222" s="32"/>
+      <c r="M222" s="31"/>
+      <c r="N222" s="31"/>
+      <c r="O222" s="31"/>
+      <c r="P222" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R220" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S220" s="30"/>
-      <c r="T220" s="30"/>
-      <c r="U220" s="11"/>
-    </row>
-    <row r="221" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>504</v>
-      </c>
-      <c r="B221" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="C221" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="D221" s="31"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="G221" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H221" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I221" s="31"/>
-      <c r="J221" s="31"/>
-      <c r="K221" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="L221" s="32"/>
-      <c r="M221" s="31"/>
-      <c r="N221" s="31"/>
-      <c r="O221" s="31"/>
-      <c r="P221" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q221" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="R221" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S221" s="31"/>
-      <c r="T221" s="32"/>
-      <c r="U221" s="11"/>
-    </row>
-    <row r="222" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="30"/>
-      <c r="B222" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="C222" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D222" s="30"/>
-      <c r="E222" s="30"/>
-      <c r="F222" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G222" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H222" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I222" s="30"/>
-      <c r="J222" s="30"/>
-      <c r="K222" s="30"/>
-      <c r="L222" s="30"/>
-      <c r="M222" s="30"/>
-      <c r="N222" s="30"/>
-      <c r="O222" s="30"/>
-      <c r="P222" s="30"/>
-      <c r="Q222" s="30"/>
-      <c r="R222" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S222" s="30"/>
-      <c r="T222" s="30"/>
-      <c r="U222" s="30"/>
+      <c r="R222" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S222" s="31"/>
+      <c r="T222" s="32"/>
+      <c r="U222" s="11"/>
     </row>
     <row r="223" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="30"/>
       <c r="B223" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30"/>
@@ -10615,16 +10658,12 @@
       <c r="I223" s="30"/>
       <c r="J223" s="30"/>
       <c r="K223" s="30"/>
-      <c r="L223" s="30" t="s">
-        <v>868</v>
-      </c>
+      <c r="L223" s="30"/>
       <c r="M223" s="30"/>
       <c r="N223" s="30"/>
       <c r="O223" s="30"/>
       <c r="P223" s="30"/>
-      <c r="Q223" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q223" s="30"/>
       <c r="R223" s="30" t="s">
         <v>28</v>
       </c>
@@ -10635,7 +10674,7 @@
     <row r="224" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="30"/>
       <c r="B224" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C224" s="30" t="s">
         <v>866</v>
@@ -10654,7 +10693,9 @@
       <c r="I224" s="30"/>
       <c r="J224" s="30"/>
       <c r="K224" s="30"/>
-      <c r="L224" s="30"/>
+      <c r="L224" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="M224" s="30"/>
       <c r="N224" s="30"/>
       <c r="O224" s="30"/>
@@ -10672,10 +10713,10 @@
     <row r="225" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="30"/>
       <c r="B225" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30"/>
@@ -10706,15 +10747,13 @@
       <c r="T225" s="30"/>
       <c r="U225" s="30"/>
     </row>
-    <row r="226" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="30" t="s">
-        <v>513</v>
-      </c>
+    <row r="226" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="30"/>
       <c r="B226" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30"/>
@@ -10743,17 +10782,17 @@
       </c>
       <c r="S226" s="30"/>
       <c r="T226" s="30"/>
-      <c r="U226" s="11"/>
-    </row>
-    <row r="227" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U226" s="30"/>
+    </row>
+    <row r="227" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>865</v>
+        <v>900</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30"/>
@@ -10782,82 +10821,92 @@
       </c>
       <c r="S227" s="30"/>
       <c r="T227" s="30"/>
-      <c r="U227" s="30"/>
-    </row>
-    <row r="228" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="U227" s="11"/>
+    </row>
+    <row r="228" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="B228" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="D228" s="30"/>
+      <c r="E228" s="30"/>
+      <c r="F228" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G228" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H228" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I228" s="30"/>
+      <c r="J228" s="30"/>
+      <c r="K228" s="30"/>
+      <c r="L228" s="30"/>
+      <c r="M228" s="30"/>
+      <c r="N228" s="30"/>
+      <c r="O228" s="30"/>
+      <c r="P228" s="30"/>
+      <c r="Q228" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R228" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S228" s="30"/>
+      <c r="T228" s="30"/>
+      <c r="U228" s="30"/>
+    </row>
+    <row r="229" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>516</v>
+      </c>
+      <c r="B229" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="B228" s="31" t="s">
+      <c r="C229" s="31" t="s">
         <v>518</v>
       </c>
-      <c r="C228" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="D228" s="31"/>
-      <c r="E228" s="31"/>
-      <c r="F228" s="31" t="s">
+      <c r="D229" s="31"/>
+      <c r="E229" s="31"/>
+      <c r="F229" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G228" s="31" t="s">
+      <c r="G229" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H228" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I228" s="31"/>
-      <c r="J228" s="31"/>
-      <c r="K228" s="31"/>
-      <c r="L228" s="32"/>
-      <c r="M228" s="31"/>
-      <c r="N228" s="31"/>
-      <c r="O228" s="31"/>
-      <c r="P228" s="31">
+      <c r="H229" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I229" s="31"/>
+      <c r="J229" s="31"/>
+      <c r="K229" s="31"/>
+      <c r="L229" s="32"/>
+      <c r="M229" s="31"/>
+      <c r="N229" s="31"/>
+      <c r="O229" s="31"/>
+      <c r="P229" s="31">
         <v>1</v>
       </c>
-      <c r="Q228" s="31" t="s">
+      <c r="Q229" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R228" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S228" s="31"/>
-      <c r="T228" s="32"/>
-      <c r="U228" s="11"/>
-    </row>
-    <row r="229" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
-      <c r="H229" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I229" s="11"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="11"/>
-      <c r="L229" s="11"/>
-      <c r="M229" s="11"/>
-      <c r="N229" s="11"/>
-      <c r="O229" s="11"/>
-      <c r="P229" s="11"/>
-      <c r="Q229" s="11"/>
-      <c r="R229" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S229" s="11"/>
-      <c r="T229" s="11"/>
+      <c r="R229" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S229" s="31"/>
+      <c r="T229" s="32"/>
       <c r="U229" s="11"/>
     </row>
     <row r="230" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="11"/>
       <c r="B230" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -10886,7 +10935,7 @@
     <row r="231" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="11"/>
       <c r="B231" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -10898,9 +10947,7 @@
       </c>
       <c r="I231" s="11"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="11" t="s">
-        <v>523</v>
-      </c>
+      <c r="K231" s="11"/>
       <c r="L231" s="11"/>
       <c r="M231" s="11"/>
       <c r="N231" s="11"/>
@@ -10914,10 +10961,10 @@
       <c r="T231" s="11"/>
       <c r="U231" s="11"/>
     </row>
-    <row r="232" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="11"/>
       <c r="B232" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -10929,7 +10976,9 @@
       </c>
       <c r="I232" s="11"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="11"/>
+      <c r="K232" s="11" t="s">
+        <v>522</v>
+      </c>
       <c r="L232" s="11"/>
       <c r="M232" s="11"/>
       <c r="N232" s="11"/>
@@ -10941,78 +10990,78 @@
       </c>
       <c r="S232" s="11"/>
       <c r="T232" s="11"/>
-      <c r="U232" s="30"/>
+      <c r="U232" s="11"/>
     </row>
     <row r="233" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
+      <c r="Q233" s="11"/>
+      <c r="R233" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S233" s="11"/>
+      <c r="T233" s="11"/>
+      <c r="U233" s="30"/>
+    </row>
+    <row r="234" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>524</v>
+      </c>
+      <c r="B234" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="B233" s="31" t="s">
+      <c r="C234" s="31" t="s">
         <v>526</v>
       </c>
-      <c r="C233" s="31" t="s">
+      <c r="F234" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H234" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K234" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="F233" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G233" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H233" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K233" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="L233" s="32" t="s">
-        <v>902</v>
-      </c>
-      <c r="P233" s="31">
+      <c r="L234" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="P234" s="31">
         <v>1</v>
       </c>
-      <c r="Q233" s="31" t="s">
+      <c r="Q234" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R233" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T233" s="32"/>
-      <c r="U233" s="30"/>
-    </row>
-    <row r="234" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
-      <c r="H234" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I234" s="11"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="11"/>
-      <c r="M234" s="11"/>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
-      <c r="P234" s="11"/>
-      <c r="Q234" s="11"/>
-      <c r="R234" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S234" s="11"/>
-      <c r="T234" s="11"/>
+      <c r="R234" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T234" s="32"/>
       <c r="U234" s="30"/>
     </row>
-    <row r="235" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11"/>
       <c r="B235" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -11036,12 +11085,12 @@
       </c>
       <c r="S235" s="11"/>
       <c r="T235" s="11"/>
-      <c r="U235" s="11"/>
+      <c r="U235" s="30"/>
     </row>
     <row r="236" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11"/>
       <c r="B236" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -11067,10 +11116,10 @@
       <c r="T236" s="11"/>
       <c r="U236" s="11"/>
     </row>
-    <row r="237" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11"/>
       <c r="B237" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -11096,10 +11145,10 @@
       <c r="T237" s="11"/>
       <c r="U237" s="11"/>
     </row>
-    <row r="238" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11"/>
       <c r="B238" s="11" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -11125,10 +11174,10 @@
       <c r="T238" s="11"/>
       <c r="U238" s="11"/>
     </row>
-    <row r="239" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11"/>
       <c r="B239" s="11" t="s">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -11152,12 +11201,12 @@
       </c>
       <c r="S239" s="11"/>
       <c r="T239" s="11"/>
-      <c r="U239" s="30"/>
-    </row>
-    <row r="240" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U239" s="11"/>
+    </row>
+    <row r="240" spans="1:21" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11"/>
       <c r="B240" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -11181,12 +11230,12 @@
       </c>
       <c r="S240" s="11"/>
       <c r="T240" s="11"/>
-      <c r="U240" s="11"/>
+      <c r="U240" s="30"/>
     </row>
     <row r="241" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="11"/>
       <c r="B241" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -11215,7 +11264,7 @@
     <row r="242" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="11"/>
       <c r="B242" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -11244,7 +11293,7 @@
     <row r="243" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="11"/>
       <c r="B243" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
@@ -11273,7 +11322,7 @@
     <row r="244" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="11"/>
       <c r="B244" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -11300,25 +11349,37 @@
       <c r="U244" s="11"/>
     </row>
     <row r="245" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="H245" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L245" s="8"/>
-      <c r="P245" s="22">
-        <v>1</v>
-      </c>
-      <c r="R245" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T245" s="8"/>
+      <c r="A245" s="11"/>
+      <c r="B245" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
+      <c r="N245" s="11"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
+      <c r="Q245" s="11"/>
+      <c r="R245" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S245" s="11"/>
+      <c r="T245" s="11"/>
       <c r="U245" s="11"/>
     </row>
     <row r="246" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H246" s="22" t="s">
         <v>25</v>
@@ -11334,17 +11395,8 @@
       <c r="U246" s="11"/>
     </row>
     <row r="247" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>541</v>
-      </c>
       <c r="B247" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="C247" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="F247" s="22" t="s">
-        <v>41</v>
+        <v>539</v>
       </c>
       <c r="H247" s="22" t="s">
         <v>25</v>
@@ -11361,76 +11413,73 @@
     </row>
     <row r="248" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>540</v>
+      </c>
+      <c r="B248" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="F248" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H248" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L248" s="8"/>
+      <c r="P248" s="22">
+        <v>1</v>
+      </c>
+      <c r="R248" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T248" s="8"/>
+      <c r="U248" s="11"/>
+    </row>
+    <row r="249" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>543</v>
+      </c>
+      <c r="B249" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="B248" s="31" t="s">
+      <c r="C249" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="C248" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="D248" s="31"/>
-      <c r="E248" s="31"/>
-      <c r="F248" s="31" t="s">
+      <c r="D249" s="31"/>
+      <c r="E249" s="31"/>
+      <c r="F249" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G248" s="31"/>
-      <c r="H248" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I248" s="31"/>
-      <c r="J248" s="31"/>
-      <c r="K248" s="31"/>
-      <c r="L248" s="32"/>
-      <c r="M248" s="31"/>
-      <c r="N248" s="31"/>
-      <c r="O248" s="31"/>
-      <c r="P248" s="31">
+      <c r="G249" s="31"/>
+      <c r="H249" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I249" s="31"/>
+      <c r="J249" s="31"/>
+      <c r="K249" s="31"/>
+      <c r="L249" s="32"/>
+      <c r="M249" s="31"/>
+      <c r="N249" s="31"/>
+      <c r="O249" s="31"/>
+      <c r="P249" s="31">
         <v>1</v>
       </c>
-      <c r="Q248" s="31" t="s">
+      <c r="Q249" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R248" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S248" s="31"/>
-      <c r="T248" s="32"/>
-      <c r="U248" s="11"/>
-    </row>
-    <row r="249" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
-      <c r="H249" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="11"/>
-      <c r="L249" s="11"/>
-      <c r="M249" s="11"/>
-      <c r="N249" s="11"/>
-      <c r="O249" s="11"/>
-      <c r="P249" s="11"/>
-      <c r="Q249" s="11"/>
-      <c r="R249" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S249" s="11"/>
-      <c r="T249" s="11"/>
+      <c r="R249" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S249" s="31"/>
+      <c r="T249" s="32"/>
       <c r="U249" s="11"/>
     </row>
     <row r="250" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="11"/>
       <c r="B250" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -11459,7 +11508,7 @@
     <row r="251" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="11"/>
       <c r="B251" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -11488,7 +11537,7 @@
     <row r="252" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="11"/>
       <c r="B252" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
@@ -11514,10 +11563,10 @@
       <c r="T252" s="11"/>
       <c r="U252" s="11"/>
     </row>
-    <row r="253" spans="1:21" s="22" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="11"/>
       <c r="B253" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -11543,10 +11592,10 @@
       <c r="T253" s="11"/>
       <c r="U253" s="11"/>
     </row>
-    <row r="254" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" s="22" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11"/>
       <c r="B254" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
@@ -11570,12 +11619,12 @@
       </c>
       <c r="S254" s="11"/>
       <c r="T254" s="11"/>
-      <c r="U254" s="30"/>
-    </row>
-    <row r="255" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U254" s="11"/>
+    </row>
+    <row r="255" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="11"/>
       <c r="B255" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
@@ -11599,12 +11648,12 @@
       </c>
       <c r="S255" s="11"/>
       <c r="T255" s="11"/>
-      <c r="U255" s="11"/>
+      <c r="U255" s="30"/>
     </row>
     <row r="256" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="11"/>
       <c r="B256" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
@@ -11633,7 +11682,7 @@
     <row r="257" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="11"/>
       <c r="B257" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
@@ -11662,7 +11711,7 @@
     <row r="258" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="11"/>
       <c r="B258" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
@@ -11674,9 +11723,7 @@
       </c>
       <c r="I258" s="11"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="11" t="s">
-        <v>557</v>
-      </c>
+      <c r="K258" s="11"/>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
       <c r="N258" s="11"/>
@@ -11693,7 +11740,7 @@
     <row r="259" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="11"/>
       <c r="B259" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
@@ -11705,7 +11752,9 @@
       </c>
       <c r="I259" s="11"/>
       <c r="J259" s="11"/>
-      <c r="K259" s="11"/>
+      <c r="K259" s="11" t="s">
+        <v>556</v>
+      </c>
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
       <c r="N259" s="11"/>
@@ -11722,7 +11771,7 @@
     <row r="260" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="11"/>
       <c r="B260" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -11751,7 +11800,7 @@
     <row r="261" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="11"/>
       <c r="B261" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
@@ -11780,7 +11829,7 @@
     <row r="262" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="11"/>
       <c r="B262" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -11809,11 +11858,9 @@
     <row r="263" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="11"/>
       <c r="B263" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>563</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C263" s="11"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
@@ -11840,9 +11887,11 @@
     <row r="264" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="11"/>
       <c r="B264" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="C264" s="11"/>
+        <v>561</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>562</v>
+      </c>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
@@ -11869,7 +11918,7 @@
     <row r="265" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="11"/>
       <c r="B265" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -11898,7 +11947,7 @@
     <row r="266" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="11"/>
       <c r="B266" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -11927,7 +11976,7 @@
     <row r="267" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="11"/>
       <c r="B267" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
@@ -11956,7 +12005,7 @@
     <row r="268" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="11"/>
       <c r="B268" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
@@ -11982,21 +12031,15 @@
       <c r="T268" s="11"/>
       <c r="U268" s="11"/>
     </row>
-    <row r="269" spans="1:21" s="22" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="11" t="s">
-        <v>569</v>
-      </c>
+    <row r="269" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="11"/>
       <c r="B269" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>571</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="C269" s="11"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
-      <c r="F269" s="11" t="s">
-        <v>572</v>
-      </c>
+      <c r="F269" s="11"/>
       <c r="G269" s="11"/>
       <c r="H269" s="11" t="s">
         <v>25</v>
@@ -12010,88 +12053,76 @@
       <c r="O269" s="11"/>
       <c r="P269" s="11"/>
       <c r="Q269" s="11"/>
-      <c r="R269" s="11"/>
+      <c r="R269" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="S269" s="11"/>
       <c r="T269" s="11"/>
       <c r="U269" s="11"/>
     </row>
-    <row r="270" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="23" t="s">
+    <row r="270" spans="1:21" s="22" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="11"/>
+      <c r="R270" s="11"/>
+      <c r="S270" s="11"/>
+      <c r="T270" s="11"/>
+      <c r="U270" s="11"/>
+    </row>
+    <row r="271" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B271" s="31" t="s">
         <v>573</v>
       </c>
-      <c r="B270" s="31" t="s">
+      <c r="C271" s="31" t="s">
         <v>574</v>
       </c>
-      <c r="C270" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="D270" s="31"/>
-      <c r="E270" s="31"/>
-      <c r="F270" s="32" t="s">
+      <c r="D271" s="31"/>
+      <c r="E271" s="31"/>
+      <c r="F271" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G270" s="31" t="s">
+      <c r="G271" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H270" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I270" s="31"/>
-      <c r="J270" s="24"/>
-      <c r="K270" s="31"/>
-      <c r="L270" s="24"/>
-      <c r="M270" s="31"/>
-      <c r="N270" s="31"/>
-      <c r="O270" s="31"/>
-      <c r="P270" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q270" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="R270" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S270" s="31"/>
-      <c r="T270" s="32"/>
-      <c r="U270" s="11"/>
-    </row>
-    <row r="271" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>576</v>
-      </c>
-      <c r="B271" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C271" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="D271" s="31"/>
-      <c r="E271" s="31" t="s">
-        <v>578</v>
-      </c>
-      <c r="F271" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="G271" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="H271" s="31" t="s">
         <v>25</v>
       </c>
       <c r="I271" s="31"/>
-      <c r="J271" s="31"/>
-      <c r="K271" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L271" s="32" t="s">
-        <v>580</v>
-      </c>
+      <c r="J271" s="24"/>
+      <c r="K271" s="31"/>
+      <c r="L271" s="24"/>
       <c r="M271" s="31"/>
       <c r="N271" s="31"/>
       <c r="O271" s="31"/>
-      <c r="P271" s="31">
-        <v>1</v>
+      <c r="P271" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="Q271" s="31" t="s">
         <v>45</v>
@@ -12104,166 +12135,184 @@
       <c r="U271" s="11"/>
     </row>
     <row r="272" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="22" t="s">
+      <c r="A272" t="s">
+        <v>575</v>
+      </c>
+      <c r="B272" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C272" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="D272" s="31"/>
+      <c r="E272" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="F272" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="G272" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H272" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I272" s="31"/>
+      <c r="J272" s="31"/>
+      <c r="K272" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L272" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="M272" s="31"/>
+      <c r="N272" s="31"/>
+      <c r="O272" s="31"/>
+      <c r="P272" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q272" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="R272" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S272" s="31"/>
+      <c r="T272" s="32"/>
+      <c r="U272" s="11"/>
+    </row>
+    <row r="273" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="H273" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L273" s="8"/>
+      <c r="P273" s="22">
+        <v>1</v>
+      </c>
+      <c r="R273" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T273" s="8"/>
+      <c r="U273" s="11"/>
+    </row>
+    <row r="274" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="H272" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L272" s="8"/>
-      <c r="P272" s="22">
-        <v>1</v>
-      </c>
-      <c r="R272" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T272" s="8"/>
-      <c r="U272" s="11"/>
-    </row>
-    <row r="273" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="21" t="s">
+      <c r="B274" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C274" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="B273" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C273" s="37" t="s">
+      <c r="D274" s="37"/>
+      <c r="E274" s="36"/>
+      <c r="F274" s="36" t="s">
         <v>583</v>
       </c>
-      <c r="D273" s="37"/>
-      <c r="E273" s="36"/>
-      <c r="F273" s="36" t="s">
+      <c r="G274" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H274" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I274" s="36"/>
+      <c r="J274" s="36"/>
+      <c r="K274" s="36"/>
+      <c r="L274" s="37"/>
+      <c r="M274" s="36"/>
+      <c r="N274" s="36"/>
+      <c r="O274" s="36"/>
+      <c r="P274" s="36"/>
+      <c r="Q274" s="36"/>
+      <c r="R274" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="S274" s="36"/>
+      <c r="T274" s="37"/>
+      <c r="U274" s="11"/>
+    </row>
+    <row r="275" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="G273" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H273" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I273" s="36"/>
-      <c r="J273" s="36"/>
-      <c r="K273" s="36"/>
-      <c r="L273" s="37"/>
-      <c r="M273" s="36"/>
-      <c r="N273" s="36"/>
-      <c r="O273" s="36"/>
-      <c r="P273" s="36"/>
-      <c r="Q273" s="36"/>
-      <c r="R273" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="S273" s="36"/>
-      <c r="T273" s="37"/>
-      <c r="U273" s="11"/>
-    </row>
-    <row r="274" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="9" t="s">
+      <c r="B275" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="C275" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="D275" s="9"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H275" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I275" s="9"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="9"/>
+      <c r="L275" s="9"/>
+      <c r="M275" s="9"/>
+      <c r="N275" s="9"/>
+      <c r="O275" s="17"/>
+      <c r="P275" s="9"/>
+      <c r="Q275" s="9"/>
+      <c r="R275" s="9"/>
+      <c r="S275" s="9"/>
+      <c r="T275" s="9"/>
+      <c r="U275" s="11"/>
+    </row>
+    <row r="276" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D274" s="9"/>
-      <c r="E274" s="17"/>
-      <c r="F274" s="9" t="s">
+      <c r="B276" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="D276" s="15"/>
+      <c r="E276" s="16"/>
+      <c r="F276" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G274" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H274" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I274" s="9"/>
-      <c r="J274" s="9"/>
-      <c r="K274" s="9"/>
-      <c r="L274" s="9"/>
-      <c r="M274" s="9"/>
-      <c r="N274" s="9"/>
-      <c r="O274" s="17"/>
-      <c r="P274" s="9"/>
-      <c r="Q274" s="9"/>
-      <c r="R274" s="9"/>
-      <c r="S274" s="9"/>
-      <c r="T274" s="9"/>
-      <c r="U274" s="11"/>
-    </row>
-    <row r="275" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="B275" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="C275" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="D275" s="15"/>
-      <c r="E275" s="16"/>
-      <c r="F275" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G275" s="16"/>
-      <c r="H275" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I275" s="16"/>
-      <c r="J275" s="16"/>
-      <c r="K275" s="16"/>
-      <c r="L275" s="15"/>
-      <c r="M275" s="16"/>
-      <c r="N275" s="16"/>
-      <c r="O275" s="16"/>
-      <c r="P275" s="16" t="s">
+      <c r="G276" s="16"/>
+      <c r="H276" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I276" s="16"/>
+      <c r="J276" s="16"/>
+      <c r="K276" s="16"/>
+      <c r="L276" s="15"/>
+      <c r="M276" s="16"/>
+      <c r="N276" s="16"/>
+      <c r="O276" s="16"/>
+      <c r="P276" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q275" s="16" t="s">
+      <c r="Q276" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="R275" s="16" t="s">
+      <c r="R276" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="S275" s="16"/>
-      <c r="T275" s="15"/>
-      <c r="U275" s="11"/>
-    </row>
-    <row r="276" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
-      <c r="F276" s="11"/>
-      <c r="G276" s="11"/>
-      <c r="H276" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I276" s="11"/>
-      <c r="J276" s="11"/>
-      <c r="K276" s="11"/>
-      <c r="L276" s="11"/>
-      <c r="M276" s="11"/>
-      <c r="N276" s="11"/>
-      <c r="O276" s="11"/>
-      <c r="P276" s="11"/>
-      <c r="Q276" s="11"/>
-      <c r="R276" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S276" s="11"/>
-      <c r="T276" s="11"/>
-      <c r="U276" s="30"/>
-    </row>
-    <row r="277" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S276" s="16"/>
+      <c r="T276" s="15"/>
+      <c r="U276" s="11"/>
+    </row>
+    <row r="277" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="11"/>
       <c r="B277" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
@@ -12287,12 +12336,12 @@
       </c>
       <c r="S277" s="11"/>
       <c r="T277" s="11"/>
-      <c r="U277" s="11"/>
-    </row>
-    <row r="278" spans="1:21" s="16" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U277" s="30"/>
+    </row>
+    <row r="278" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="11"/>
       <c r="B278" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
@@ -12316,12 +12365,12 @@
       </c>
       <c r="S278" s="11"/>
       <c r="T278" s="11"/>
-      <c r="U278" s="17"/>
-    </row>
-    <row r="279" spans="1:21" s="36" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U278" s="11"/>
+    </row>
+    <row r="279" spans="1:21" s="16" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="11"/>
       <c r="B279" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
@@ -12345,12 +12394,12 @@
       </c>
       <c r="S279" s="11"/>
       <c r="T279" s="11"/>
-      <c r="U279" s="38"/>
-    </row>
-    <row r="280" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U279" s="17"/>
+    </row>
+    <row r="280" spans="1:21" s="36" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="11"/>
       <c r="B280" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -12374,68 +12423,68 @@
       </c>
       <c r="S280" s="11"/>
       <c r="T280" s="11"/>
-      <c r="U280" s="11"/>
+      <c r="U280" s="38"/>
     </row>
     <row r="281" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="7"/>
-      <c r="B281" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="C281" s="7"/>
-      <c r="D281" s="7"/>
+      <c r="A281" s="11"/>
+      <c r="B281" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
       <c r="E281" s="11"/>
-      <c r="F281" s="7"/>
-      <c r="G281" s="7"/>
-      <c r="H281" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I281" s="7"/>
-      <c r="J281" s="7"/>
-      <c r="K281" s="7"/>
-      <c r="L281" s="7"/>
-      <c r="M281" s="7"/>
-      <c r="N281" s="7"/>
-      <c r="O281" s="7"/>
-      <c r="P281" s="7"/>
-      <c r="Q281" s="7"/>
-      <c r="R281" s="7"/>
-      <c r="S281" s="7"/>
-      <c r="T281" s="7"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S281" s="11"/>
+      <c r="T281" s="11"/>
       <c r="U281" s="11"/>
     </row>
     <row r="282" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
+      <c r="A282" s="7"/>
+      <c r="B282" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
       <c r="E282" s="11"/>
-      <c r="F282" s="11"/>
-      <c r="G282" s="11"/>
-      <c r="H282" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I282" s="11"/>
-      <c r="J282" s="11"/>
-      <c r="K282" s="11"/>
-      <c r="L282" s="11"/>
-      <c r="M282" s="11"/>
-      <c r="N282" s="11"/>
-      <c r="O282" s="11"/>
-      <c r="P282" s="11"/>
-      <c r="Q282" s="11"/>
-      <c r="R282" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S282" s="11"/>
-      <c r="T282" s="11"/>
+      <c r="F282" s="7"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I282" s="7"/>
+      <c r="J282" s="7"/>
+      <c r="K282" s="7"/>
+      <c r="L282" s="7"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="7"/>
+      <c r="O282" s="7"/>
+      <c r="P282" s="7"/>
+      <c r="Q282" s="7"/>
+      <c r="R282" s="7"/>
+      <c r="S282" s="7"/>
+      <c r="T282" s="7"/>
       <c r="U282" s="11"/>
     </row>
     <row r="283" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="11"/>
       <c r="B283" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -12464,7 +12513,7 @@
     <row r="284" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="11"/>
       <c r="B284" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
@@ -12493,7 +12542,7 @@
     <row r="285" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="11"/>
       <c r="B285" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -12522,7 +12571,7 @@
     <row r="286" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="11"/>
       <c r="B286" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
@@ -12549,76 +12598,68 @@
       <c r="U286" s="11"/>
     </row>
     <row r="287" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="B287" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C287" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="D287" s="30"/>
-      <c r="E287" s="30"/>
-      <c r="F287" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G287" s="30"/>
-      <c r="H287" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I287" s="30"/>
-      <c r="J287" s="30"/>
-      <c r="K287" s="30"/>
-      <c r="L287" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="M287" s="30"/>
-      <c r="N287" s="30"/>
-      <c r="O287" s="30"/>
-      <c r="P287" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q287" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R287" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S287" s="30"/>
-      <c r="T287" s="30"/>
+      <c r="A287" s="11"/>
+      <c r="B287" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="11"/>
+      <c r="R287" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S287" s="11"/>
+      <c r="T287" s="11"/>
       <c r="U287" s="11"/>
     </row>
     <row r="288" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="30" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B288" s="30" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C288" s="30" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D288" s="30"/>
       <c r="E288" s="30"/>
       <c r="F288" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="G288" s="30" t="s">
-        <v>49</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G288" s="30"/>
       <c r="H288" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I288" s="30"/>
       <c r="J288" s="30"/>
       <c r="K288" s="30"/>
-      <c r="L288" s="30"/>
+      <c r="L288" s="30" t="s">
+        <v>603</v>
+      </c>
       <c r="M288" s="30"/>
       <c r="N288" s="30"/>
       <c r="O288" s="30"/>
-      <c r="P288" s="30"/>
-      <c r="Q288" s="30"/>
+      <c r="P288" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q288" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="R288" s="30" t="s">
         <v>28</v>
       </c>
@@ -12627,94 +12668,114 @@
       <c r="U288" s="11"/>
     </row>
     <row r="289" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="11" t="s">
+      <c r="A289" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="B289" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="G289" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H289" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I289" s="30"/>
+      <c r="J289" s="30"/>
+      <c r="K289" s="30"/>
+      <c r="L289" s="30"/>
+      <c r="M289" s="30"/>
+      <c r="N289" s="30"/>
+      <c r="O289" s="30"/>
+      <c r="P289" s="30"/>
+      <c r="Q289" s="30"/>
+      <c r="R289" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S289" s="30"/>
+      <c r="T289" s="30"/>
+      <c r="U289" s="11"/>
+    </row>
+    <row r="290" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C290" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B289" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C289" s="8" t="s">
+      <c r="D290" s="8"/>
+      <c r="F290" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H290" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I290" s="7"/>
+      <c r="J290" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D289" s="8"/>
-      <c r="F289" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G289" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H289" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I289" s="7"/>
-      <c r="J289" s="8" t="s">
+      <c r="K290" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="K289" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="L289" s="7"/>
-      <c r="M289" s="7"/>
-      <c r="N289" s="7">
+      <c r="L290" s="7"/>
+      <c r="M290" s="7"/>
+      <c r="N290" s="7">
         <v>1</v>
       </c>
-      <c r="O289" s="7"/>
-      <c r="P289" s="7"/>
-      <c r="Q289" s="7"/>
-      <c r="R289" s="7"/>
-      <c r="S289" s="11"/>
-      <c r="T289" s="11"/>
-      <c r="U289" s="11"/>
-    </row>
-    <row r="290" spans="1:21" s="22" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="11"/>
-      <c r="B290" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
-      <c r="E290" s="11"/>
-      <c r="F290" s="11"/>
-      <c r="G290" s="11"/>
-      <c r="H290" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I290" s="11"/>
-      <c r="J290" s="11"/>
-      <c r="K290" s="11"/>
-      <c r="L290" s="11"/>
-      <c r="M290" s="11"/>
-      <c r="N290" s="11"/>
-      <c r="O290" s="11"/>
-      <c r="P290" s="11"/>
-      <c r="Q290" s="11"/>
-      <c r="R290" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="O290" s="7"/>
+      <c r="P290" s="7"/>
+      <c r="Q290" s="7"/>
+      <c r="R290" s="7"/>
       <c r="S290" s="11"/>
       <c r="T290" s="11"/>
       <c r="U290" s="11"/>
     </row>
-    <row r="291" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="H291" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L291" s="8"/>
-      <c r="P291" s="22">
-        <v>1</v>
-      </c>
-      <c r="R291" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T291" s="8"/>
+    <row r="291" spans="1:21" s="22" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="11"/>
+      <c r="B291" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="11"/>
+      <c r="O291" s="11"/>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="11"/>
+      <c r="R291" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S291" s="11"/>
+      <c r="T291" s="11"/>
       <c r="U291" s="11"/>
     </row>
     <row r="292" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="22" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H292" s="22" t="s">
         <v>25</v>
@@ -12731,10 +12792,7 @@
     </row>
     <row r="293" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="C293" s="22" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H293" s="22" t="s">
         <v>25</v>
@@ -12749,9 +12807,12 @@
       <c r="T293" s="8"/>
       <c r="U293" s="11"/>
     </row>
-    <row r="294" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="22" t="s">
-        <v>616</v>
+        <v>613</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>614</v>
       </c>
       <c r="H294" s="22" t="s">
         <v>25</v>
@@ -12766,9 +12827,9 @@
       <c r="T294" s="8"/>
       <c r="U294" s="11"/>
     </row>
-    <row r="295" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="22" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H295" s="22" t="s">
         <v>25</v>
@@ -12785,7 +12846,7 @@
     </row>
     <row r="296" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H296" s="22" t="s">
         <v>25</v>
@@ -12802,7 +12863,7 @@
     </row>
     <row r="297" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H297" s="22" t="s">
         <v>25</v>
@@ -12819,7 +12880,7 @@
     </row>
     <row r="298" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H298" s="22" t="s">
         <v>25</v>
@@ -12836,7 +12897,7 @@
     </row>
     <row r="299" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H299" s="22" t="s">
         <v>25</v>
@@ -12853,7 +12914,7 @@
     </row>
     <row r="300" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="22" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H300" s="22" t="s">
         <v>25</v>
@@ -12870,7 +12931,7 @@
     </row>
     <row r="301" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H301" s="22" t="s">
         <v>25</v>
@@ -12887,7 +12948,7 @@
     </row>
     <row r="302" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="22" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H302" s="22" t="s">
         <v>25</v>
@@ -12904,7 +12965,7 @@
     </row>
     <row r="303" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H303" s="22" t="s">
         <v>25</v>
@@ -12921,7 +12982,7 @@
     </row>
     <row r="304" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H304" s="22" t="s">
         <v>25</v>
@@ -12938,7 +12999,7 @@
     </row>
     <row r="305" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H305" s="22" t="s">
         <v>25</v>
@@ -12955,7 +13016,7 @@
     </row>
     <row r="306" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H306" s="22" t="s">
         <v>25</v>
@@ -12970,67 +13031,55 @@
       <c r="T306" s="8"/>
       <c r="U306" s="11"/>
     </row>
-    <row r="307" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="31" t="s">
-        <v>629</v>
-      </c>
-      <c r="C307" s="31" t="s">
+    <row r="307" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="H307" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L307" s="8"/>
+      <c r="P307" s="22">
+        <v>1</v>
+      </c>
+      <c r="R307" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T307" s="8"/>
+      <c r="U307" s="11"/>
+    </row>
+    <row r="308" spans="1:21" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C308" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="F308" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H308" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L308" s="32" t="s">
         <v>871</v>
       </c>
-      <c r="F307" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="H307" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L307" s="32" t="s">
-        <v>872</v>
-      </c>
-      <c r="P307" s="31">
+      <c r="P308" s="31">
         <v>1</v>
       </c>
-      <c r="Q307" s="31" t="s">
+      <c r="Q308" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R307" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T307" s="32"/>
-      <c r="U307" s="30"/>
-    </row>
-    <row r="308" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="11"/>
-      <c r="B308" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="C308" s="11"/>
-      <c r="D308" s="11"/>
-      <c r="E308" s="11"/>
-      <c r="F308" s="11"/>
-      <c r="G308" s="11"/>
-      <c r="H308" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I308" s="11"/>
-      <c r="J308" s="11"/>
-      <c r="K308" s="11"/>
-      <c r="L308" s="11"/>
-      <c r="M308" s="11"/>
-      <c r="N308" s="11"/>
-      <c r="O308" s="11"/>
-      <c r="P308" s="11"/>
-      <c r="Q308" s="11"/>
-      <c r="R308" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S308" s="11"/>
-      <c r="T308" s="11"/>
-      <c r="U308" s="11"/>
+      <c r="R308" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T308" s="32"/>
+      <c r="U308" s="30"/>
     </row>
     <row r="309" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="11"/>
       <c r="B309" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
@@ -13059,7 +13108,7 @@
     <row r="310" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="11"/>
       <c r="B310" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
@@ -13086,129 +13135,127 @@
       <c r="U310" s="11"/>
     </row>
     <row r="311" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="22" t="s">
+      <c r="A311" s="11"/>
+      <c r="B311" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
+      <c r="G311" s="11"/>
+      <c r="H311" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I311" s="11"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="11"/>
+      <c r="L311" s="11"/>
+      <c r="M311" s="11"/>
+      <c r="N311" s="11"/>
+      <c r="O311" s="11"/>
+      <c r="P311" s="11"/>
+      <c r="Q311" s="11"/>
+      <c r="R311" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S311" s="11"/>
+      <c r="T311" s="11"/>
+      <c r="U311" s="11"/>
+    </row>
+    <row r="312" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="H312" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L312" s="8"/>
+      <c r="P312" s="22">
+        <v>1</v>
+      </c>
+      <c r="R312" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T312" s="8"/>
+      <c r="U312" s="11"/>
+    </row>
+    <row r="313" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="11"/>
+      <c r="B313" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="H311" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L311" s="8"/>
-      <c r="P311" s="22">
-        <v>1</v>
-      </c>
-      <c r="R311" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T311" s="8"/>
-      <c r="U311" s="11"/>
-    </row>
-    <row r="312" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="11"/>
-      <c r="B312" s="11" t="s">
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I313" s="11"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="11"/>
+      <c r="L313" s="11"/>
+      <c r="M313" s="11"/>
+      <c r="N313" s="11"/>
+      <c r="O313" s="11"/>
+      <c r="P313" s="11"/>
+      <c r="Q313" s="11"/>
+      <c r="R313" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S313" s="11"/>
+      <c r="T313" s="11"/>
+      <c r="U313" s="11"/>
+    </row>
+    <row r="314" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
-      <c r="F312" s="11"/>
-      <c r="G312" s="11"/>
-      <c r="H312" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I312" s="11"/>
-      <c r="J312" s="11"/>
-      <c r="K312" s="11"/>
-      <c r="L312" s="11"/>
-      <c r="M312" s="11"/>
-      <c r="N312" s="11"/>
-      <c r="O312" s="11"/>
-      <c r="P312" s="11"/>
-      <c r="Q312" s="11"/>
-      <c r="R312" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S312" s="11"/>
-      <c r="T312" s="11"/>
-      <c r="U312" s="11"/>
-    </row>
-    <row r="313" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="23" t="s">
+      <c r="B314" s="31" t="s">
         <v>635</v>
       </c>
-      <c r="B313" s="31" t="s">
+      <c r="C314" s="31" t="s">
         <v>636</v>
       </c>
-      <c r="C313" s="31" t="s">
+      <c r="D314" s="31"/>
+      <c r="E314" s="31"/>
+      <c r="F314" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G314" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H314" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I314" s="31"/>
+      <c r="J314" s="24"/>
+      <c r="K314" s="31" t="s">
         <v>637</v>
       </c>
-      <c r="D313" s="31"/>
-      <c r="E313" s="31"/>
-      <c r="F313" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G313" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H313" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I313" s="31"/>
-      <c r="J313" s="24"/>
-      <c r="K313" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="L313" s="24"/>
-      <c r="M313" s="31"/>
-      <c r="N313" s="31"/>
-      <c r="O313" s="31"/>
-      <c r="P313" s="31" t="s">
+      <c r="L314" s="24"/>
+      <c r="M314" s="31"/>
+      <c r="N314" s="31"/>
+      <c r="O314" s="31"/>
+      <c r="P314" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Q313" s="31" t="s">
+      <c r="Q314" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R313" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="S313" s="31"/>
-      <c r="T313" s="32"/>
-      <c r="U313" s="11"/>
-    </row>
-    <row r="314" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="11"/>
-      <c r="B314" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C314" s="11"/>
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
-      <c r="F314" s="11"/>
-      <c r="G314" s="11"/>
-      <c r="H314" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I314" s="11"/>
-      <c r="J314" s="11"/>
-      <c r="K314" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="L314" s="11"/>
-      <c r="M314" s="11"/>
-      <c r="N314" s="11"/>
-      <c r="O314" s="11"/>
-      <c r="P314" s="11"/>
-      <c r="Q314" s="11"/>
-      <c r="R314" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S314" s="11"/>
-      <c r="T314" s="11"/>
+      <c r="R314" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S314" s="31"/>
+      <c r="T314" s="32"/>
       <c r="U314" s="11"/>
     </row>
     <row r="315" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="11"/>
       <c r="B315" s="11" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
@@ -13220,7 +13267,9 @@
       </c>
       <c r="I315" s="11"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="11"/>
+      <c r="K315" s="11" t="s">
+        <v>639</v>
+      </c>
       <c r="L315" s="11"/>
       <c r="M315" s="11"/>
       <c r="N315" s="11"/>
@@ -13237,7 +13286,7 @@
     <row r="316" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="11"/>
       <c r="B316" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -13264,25 +13313,37 @@
       <c r="U316" s="11"/>
     </row>
     <row r="317" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="H317" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L317" s="8"/>
-      <c r="P317" s="22">
-        <v>1</v>
-      </c>
-      <c r="R317" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T317" s="8"/>
+      <c r="A317" s="11"/>
+      <c r="B317" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
+      <c r="G317" s="11"/>
+      <c r="H317" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I317" s="11"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="11"/>
+      <c r="L317" s="11"/>
+      <c r="M317" s="11"/>
+      <c r="N317" s="11"/>
+      <c r="O317" s="11"/>
+      <c r="P317" s="11"/>
+      <c r="Q317" s="11"/>
+      <c r="R317" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S317" s="11"/>
+      <c r="T317" s="11"/>
       <c r="U317" s="11"/>
     </row>
     <row r="318" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H318" s="22" t="s">
         <v>25</v>
@@ -13298,38 +13359,26 @@
       <c r="U318" s="11"/>
     </row>
     <row r="319" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="11"/>
-      <c r="B319" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="C319" s="11"/>
-      <c r="D319" s="11"/>
-      <c r="E319" s="11"/>
-      <c r="F319" s="11"/>
-      <c r="G319" s="11"/>
-      <c r="H319" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I319" s="11"/>
-      <c r="J319" s="11"/>
-      <c r="K319" s="11"/>
-      <c r="L319" s="11"/>
-      <c r="M319" s="11"/>
-      <c r="N319" s="11"/>
-      <c r="O319" s="11"/>
-      <c r="P319" s="11"/>
-      <c r="Q319" s="11"/>
-      <c r="R319" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S319" s="11"/>
-      <c r="T319" s="11"/>
+      <c r="B319" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="H319" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L319" s="8"/>
+      <c r="P319" s="22">
+        <v>1</v>
+      </c>
+      <c r="R319" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T319" s="8"/>
       <c r="U319" s="11"/>
     </row>
     <row r="320" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="11"/>
       <c r="B320" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -13358,7 +13407,7 @@
     <row r="321" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="11"/>
       <c r="B321" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -13387,7 +13436,7 @@
     <row r="322" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="11"/>
       <c r="B322" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
@@ -13416,7 +13465,7 @@
     <row r="323" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="11"/>
       <c r="B323" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -13445,7 +13494,7 @@
     <row r="324" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="11"/>
       <c r="B324" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -13474,7 +13523,7 @@
     <row r="325" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="11"/>
       <c r="B325" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -13503,7 +13552,7 @@
     <row r="326" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="11"/>
       <c r="B326" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
@@ -13532,7 +13581,7 @@
     <row r="327" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="11"/>
       <c r="B327" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
@@ -13561,7 +13610,7 @@
     <row r="328" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="11"/>
       <c r="B328" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
@@ -13588,101 +13637,101 @@
       <c r="U328" s="11"/>
     </row>
     <row r="329" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B329" s="22" t="s">
+      <c r="A329" s="11"/>
+      <c r="B329" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C329" s="11"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I329" s="11"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="11"/>
+      <c r="L329" s="11"/>
+      <c r="M329" s="11"/>
+      <c r="N329" s="11"/>
+      <c r="O329" s="11"/>
+      <c r="P329" s="11"/>
+      <c r="Q329" s="11"/>
+      <c r="R329" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S329" s="11"/>
+      <c r="T329" s="11"/>
+      <c r="U329" s="11"/>
+    </row>
+    <row r="330" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B330" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="H330" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L330" s="8"/>
+      <c r="P330" s="22">
+        <v>1</v>
+      </c>
+      <c r="R330" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T330" s="8"/>
+      <c r="U330" s="11"/>
+    </row>
+    <row r="331" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="11"/>
+      <c r="B331" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="H329" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L329" s="8"/>
-      <c r="P329" s="22">
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I331" s="11"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="11"/>
+      <c r="L331" s="11"/>
+      <c r="M331" s="11"/>
+      <c r="N331" s="11"/>
+      <c r="O331" s="11"/>
+      <c r="P331" s="11"/>
+      <c r="Q331" s="11"/>
+      <c r="R331" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S331" s="11"/>
+      <c r="T331" s="11"/>
+      <c r="U331" s="11"/>
+    </row>
+    <row r="332" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B332" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="H332" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L332" s="8"/>
+      <c r="P332" s="22">
         <v>1</v>
       </c>
-      <c r="R329" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T329" s="8"/>
-      <c r="U329" s="11"/>
-    </row>
-    <row r="330" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="11"/>
-      <c r="B330" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="C330" s="11"/>
-      <c r="D330" s="11"/>
-      <c r="E330" s="11"/>
-      <c r="F330" s="11"/>
-      <c r="G330" s="11"/>
-      <c r="H330" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I330" s="11"/>
-      <c r="J330" s="11"/>
-      <c r="K330" s="11"/>
-      <c r="L330" s="11"/>
-      <c r="M330" s="11"/>
-      <c r="N330" s="11"/>
-      <c r="O330" s="11"/>
-      <c r="P330" s="11"/>
-      <c r="Q330" s="11"/>
-      <c r="R330" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S330" s="11"/>
-      <c r="T330" s="11"/>
-      <c r="U330" s="11"/>
-    </row>
-    <row r="331" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="H331" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L331" s="8"/>
-      <c r="P331" s="22">
-        <v>1</v>
-      </c>
-      <c r="R331" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T331" s="8"/>
-      <c r="U331" s="11"/>
-    </row>
-    <row r="332" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="11"/>
-      <c r="B332" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="C332" s="11"/>
-      <c r="D332" s="11"/>
-      <c r="E332" s="11"/>
-      <c r="F332" s="11"/>
-      <c r="G332" s="11"/>
-      <c r="H332" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I332" s="11"/>
-      <c r="J332" s="11"/>
-      <c r="K332" s="11"/>
-      <c r="L332" s="11"/>
-      <c r="M332" s="11"/>
-      <c r="N332" s="11"/>
-      <c r="O332" s="11"/>
-      <c r="P332" s="11"/>
-      <c r="Q332" s="11"/>
-      <c r="R332" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S332" s="11"/>
-      <c r="T332" s="11"/>
+      <c r="R332" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T332" s="8"/>
       <c r="U332" s="11"/>
     </row>
     <row r="333" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="11"/>
       <c r="B333" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
@@ -13711,7 +13760,7 @@
     <row r="334" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="11"/>
       <c r="B334" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
@@ -13740,7 +13789,7 @@
     <row r="335" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="11"/>
       <c r="B335" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
@@ -13769,7 +13818,7 @@
     <row r="336" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="11"/>
       <c r="B336" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -13798,7 +13847,7 @@
     <row r="337" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="11"/>
       <c r="B337" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
@@ -13827,7 +13876,7 @@
     <row r="338" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="11"/>
       <c r="B338" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
@@ -13856,7 +13905,7 @@
     <row r="339" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="11"/>
       <c r="B339" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
@@ -13882,106 +13931,94 @@
       <c r="T339" s="11"/>
       <c r="U339" s="11"/>
     </row>
-    <row r="340" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+    <row r="340" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="11"/>
+      <c r="B340" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
+      <c r="H340" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I340" s="11"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="11"/>
+      <c r="L340" s="11"/>
+      <c r="M340" s="11"/>
+      <c r="N340" s="11"/>
+      <c r="O340" s="11"/>
+      <c r="P340" s="11"/>
+      <c r="Q340" s="11"/>
+      <c r="R340" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S340" s="11"/>
+      <c r="T340" s="11"/>
+      <c r="U340" s="11"/>
+    </row>
+    <row r="341" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>665</v>
+      </c>
+      <c r="B341" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="B340" s="31" t="s">
+      <c r="C341" s="31" t="s">
         <v>667</v>
       </c>
-      <c r="C340" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="F340" s="31" t="s">
+      <c r="F341" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="G340" s="31" t="s">
+      <c r="G341" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H340" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L340" s="32"/>
-      <c r="P340" s="31">
+      <c r="H341" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L341" s="32"/>
+      <c r="P341" s="31">
         <v>1</v>
       </c>
-      <c r="Q340" s="31" t="s">
+      <c r="Q341" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R340" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T340" s="32"/>
-      <c r="U340" s="30"/>
-    </row>
-    <row r="341" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="B341" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="C341" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="D341" s="30"/>
-      <c r="E341" s="30"/>
-      <c r="F341" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G341" s="30"/>
-      <c r="H341" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I341" s="30"/>
-      <c r="J341" s="30"/>
-      <c r="K341" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="L341" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="M341" s="30"/>
-      <c r="N341" s="30"/>
-      <c r="O341" s="30"/>
-      <c r="P341" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q341" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R341" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S341" s="30"/>
-      <c r="T341" s="30"/>
+      <c r="R341" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T341" s="32"/>
       <c r="U341" s="30"/>
     </row>
     <row r="342" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="30" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B342" s="30" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C342" s="30" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D342" s="30"/>
       <c r="E342" s="30"/>
       <c r="F342" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G342" s="30" t="s">
-        <v>49</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G342" s="30"/>
       <c r="H342" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I342" s="30"/>
       <c r="J342" s="30"/>
-      <c r="K342" s="30"/>
-      <c r="L342" s="30"/>
+      <c r="K342" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="L342" s="30" t="s">
+        <v>671</v>
+      </c>
       <c r="M342" s="30"/>
       <c r="N342" s="30"/>
       <c r="O342" s="30"/>
@@ -13999,48 +14036,56 @@
       <c r="U342" s="30"/>
     </row>
     <row r="343" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>676</v>
-      </c>
-      <c r="B343" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="C343" s="31" t="s">
-        <v>678</v>
-      </c>
-      <c r="F343" s="31" t="s">
+      <c r="A343" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="B343" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="C343" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="D343" s="30"/>
+      <c r="E343" s="30"/>
+      <c r="F343" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="G343" s="31" t="s">
+      <c r="G343" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H343" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L343" s="32"/>
-      <c r="P343" s="31" t="s">
+      <c r="H343" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I343" s="30"/>
+      <c r="J343" s="30"/>
+      <c r="K343" s="30"/>
+      <c r="L343" s="30"/>
+      <c r="M343" s="30"/>
+      <c r="N343" s="30"/>
+      <c r="O343" s="30"/>
+      <c r="P343" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Q343" s="31" t="s">
+      <c r="Q343" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="R343" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T343" s="32"/>
+      <c r="R343" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S343" s="30"/>
+      <c r="T343" s="30"/>
       <c r="U343" s="30"/>
     </row>
     <row r="344" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B344" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="C344" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="D344" s="29"/>
+        <v>676</v>
+      </c>
+      <c r="C344" s="31" t="s">
+        <v>677</v>
+      </c>
       <c r="F344" s="31" t="s">
         <v>187</v>
       </c>
@@ -14065,14 +14110,15 @@
     </row>
     <row r="345" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B345" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="C345" s="31" t="s">
-        <v>684</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C345" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="D345" s="29"/>
       <c r="F345" s="31" t="s">
         <v>187</v>
       </c>
@@ -14083,8 +14129,8 @@
         <v>25</v>
       </c>
       <c r="L345" s="32"/>
-      <c r="P345" s="31">
-        <v>1</v>
+      <c r="P345" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="Q345" s="31" t="s">
         <v>45</v>
@@ -14097,13 +14143,13 @@
     </row>
     <row r="346" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B346" s="31" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C346" s="31" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F346" s="31" t="s">
         <v>187</v>
@@ -14115,8 +14161,8 @@
         <v>25</v>
       </c>
       <c r="L346" s="32"/>
-      <c r="P346" s="31" t="s">
-        <v>27</v>
+      <c r="P346" s="31">
+        <v>1</v>
       </c>
       <c r="Q346" s="31" t="s">
         <v>45</v>
@@ -14129,16 +14175,16 @@
     </row>
     <row r="347" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B347" s="31" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C347" s="31" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F347" s="31" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="G347" s="31" t="s">
         <v>49</v>
@@ -14146,12 +14192,9 @@
       <c r="H347" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K347" s="31" t="s">
-        <v>222</v>
-      </c>
       <c r="L347" s="32"/>
-      <c r="P347" s="31">
-        <v>1</v>
+      <c r="P347" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="Q347" s="31" t="s">
         <v>45</v>
@@ -14160,63 +14203,60 @@
         <v>28</v>
       </c>
       <c r="T347" s="32"/>
+      <c r="U347" s="30"/>
     </row>
     <row r="348" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B348" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="C348" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="D348" s="30"/>
-      <c r="E348" s="30"/>
-      <c r="F348" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G348" s="30" t="s">
+      <c r="A348" t="s">
+        <v>687</v>
+      </c>
+      <c r="B348" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C348" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="F348" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G348" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H348" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I348" s="30"/>
-      <c r="J348" s="30"/>
-      <c r="K348" s="30"/>
-      <c r="L348" s="30"/>
-      <c r="M348" s="30"/>
-      <c r="N348" s="30"/>
-      <c r="O348" s="30"/>
-      <c r="P348" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q348" s="30" t="s">
+      <c r="H348" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K348" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L348" s="32"/>
+      <c r="P348" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q348" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R348" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S348" s="30"/>
-      <c r="T348" s="30"/>
+      <c r="R348" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T348" s="32"/>
     </row>
     <row r="349" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B349" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D349" s="30"/>
       <c r="E349" s="30"/>
       <c r="F349" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G349" s="30"/>
+        <v>187</v>
+      </c>
+      <c r="G349" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="H349" s="30" t="s">
         <v>25</v>
       </c>
@@ -14240,37 +14280,47 @@
       <c r="T349" s="30"/>
     </row>
     <row r="350" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="11"/>
-      <c r="B350" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="C350" s="11"/>
-      <c r="D350" s="11"/>
-      <c r="E350" s="11"/>
-      <c r="F350" s="11"/>
-      <c r="G350" s="11"/>
-      <c r="H350" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I350" s="11"/>
-      <c r="J350" s="11"/>
-      <c r="K350" s="11"/>
-      <c r="L350" s="11"/>
-      <c r="M350" s="11"/>
-      <c r="N350" s="11"/>
-      <c r="O350" s="11"/>
-      <c r="P350" s="11"/>
-      <c r="Q350" s="11"/>
-      <c r="R350" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S350" s="11"/>
-      <c r="T350" s="11"/>
+      <c r="A350" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="B350" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="C350" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="D350" s="30"/>
+      <c r="E350" s="30"/>
+      <c r="F350" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G350" s="30"/>
+      <c r="H350" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I350" s="30"/>
+      <c r="J350" s="30"/>
+      <c r="K350" s="30"/>
+      <c r="L350" s="30"/>
+      <c r="M350" s="30"/>
+      <c r="N350" s="30"/>
+      <c r="O350" s="30"/>
+      <c r="P350" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q350" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R350" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S350" s="30"/>
+      <c r="T350" s="30"/>
     </row>
     <row r="351" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="11"/>
       <c r="B351" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
@@ -14295,10 +14345,10 @@
       <c r="S351" s="11"/>
       <c r="T351" s="11"/>
     </row>
-    <row r="352" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="11"/>
       <c r="B352" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -14322,70 +14372,61 @@
       </c>
       <c r="S352" s="11"/>
       <c r="T352" s="11"/>
-      <c r="U352" s="11"/>
     </row>
     <row r="353" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="13"/>
-      <c r="B353" s="13" t="s">
+      <c r="A353" s="11"/>
+      <c r="B353" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I353" s="11"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="11"/>
+      <c r="L353" s="11"/>
+      <c r="M353" s="11"/>
+      <c r="N353" s="11"/>
+      <c r="O353" s="11"/>
+      <c r="P353" s="11"/>
+      <c r="Q353" s="11"/>
+      <c r="R353" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S353" s="11"/>
+      <c r="T353" s="11"/>
+      <c r="U353" s="11"/>
+    </row>
+    <row r="354" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="13"/>
+      <c r="B354" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C353" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="D353" s="12"/>
-      <c r="E353" s="13"/>
-      <c r="F353" s="13"/>
-      <c r="G353" s="13"/>
-      <c r="H353" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I353" s="13"/>
-      <c r="J353" s="13"/>
-      <c r="K353" s="26"/>
-      <c r="L353" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="M353" s="13"/>
-      <c r="N353" s="13"/>
-      <c r="O353" s="13"/>
-      <c r="P353" s="13"/>
-      <c r="Q353" s="13"/>
-      <c r="R353" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S353" s="13"/>
-      <c r="T353" s="13"/>
-      <c r="U353" s="11"/>
-    </row>
-    <row r="354" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="B354" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C354" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D354" s="13"/>
+      <c r="C354" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="D354" s="12"/>
       <c r="E354" s="13"/>
-      <c r="F354" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="F354" s="13"/>
       <c r="G354" s="13"/>
       <c r="H354" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I354" s="13"/>
       <c r="J354" s="13"/>
-      <c r="K354" s="13"/>
-      <c r="L354" s="13"/>
+      <c r="K354" s="26"/>
+      <c r="L354" s="13" t="s">
+        <v>872</v>
+      </c>
       <c r="M354" s="13"/>
       <c r="N354" s="13"/>
       <c r="O354" s="13"/>
-      <c r="P354" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="P354" s="13"/>
       <c r="Q354" s="13"/>
       <c r="R354" s="13" t="s">
         <v>28</v>
@@ -14394,107 +14435,113 @@
       <c r="T354" s="13"/>
       <c r="U354" s="11"/>
     </row>
-    <row r="355" spans="1:21" s="26" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="11"/>
-      <c r="B355" s="11" t="s">
+    <row r="355" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B355" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C355" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="D355" s="13"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G355" s="13"/>
+      <c r="H355" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I355" s="13"/>
+      <c r="J355" s="13"/>
+      <c r="K355" s="13"/>
+      <c r="L355" s="13"/>
+      <c r="M355" s="13"/>
+      <c r="N355" s="13"/>
+      <c r="O355" s="13"/>
+      <c r="P355" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q355" s="13"/>
+      <c r="R355" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S355" s="13"/>
+      <c r="T355" s="13"/>
+      <c r="U355" s="11"/>
+    </row>
+    <row r="356" spans="1:21" s="26" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="11"/>
+      <c r="B356" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
+      <c r="L356" s="11"/>
+      <c r="M356" s="11"/>
+      <c r="N356" s="11"/>
+      <c r="O356" s="11"/>
+      <c r="P356" s="11"/>
+      <c r="Q356" s="11"/>
+      <c r="R356" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S356" s="11"/>
+      <c r="T356" s="11"/>
+      <c r="U356" s="13"/>
+    </row>
+    <row r="357" spans="1:21" s="26" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="C355" s="11"/>
-      <c r="D355" s="11"/>
-      <c r="E355" s="11"/>
-      <c r="F355" s="11"/>
-      <c r="G355" s="11"/>
-      <c r="H355" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I355" s="11"/>
-      <c r="J355" s="11"/>
-      <c r="K355" s="11"/>
-      <c r="L355" s="11"/>
-      <c r="M355" s="11"/>
-      <c r="N355" s="11"/>
-      <c r="O355" s="11"/>
-      <c r="P355" s="11"/>
-      <c r="Q355" s="11"/>
-      <c r="R355" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S355" s="11"/>
-      <c r="T355" s="11"/>
-      <c r="U355" s="13"/>
-    </row>
-    <row r="356" spans="1:21" s="26" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="17" t="s">
+      <c r="B357" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C357" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B356" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C356" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="D356" s="17"/>
-      <c r="E356" s="17"/>
-      <c r="F356" s="17" t="s">
+      <c r="D357" s="17"/>
+      <c r="E357" s="17"/>
+      <c r="F357" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G356" s="17"/>
-      <c r="H356" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I356" s="17"/>
-      <c r="J356" s="17"/>
-      <c r="K356" s="17" t="s">
+      <c r="G357" s="17"/>
+      <c r="H357" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I357" s="17"/>
+      <c r="J357" s="17"/>
+      <c r="K357" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L356" s="17"/>
-      <c r="M356" s="17"/>
-      <c r="N356" s="17"/>
-      <c r="O356" s="17"/>
-      <c r="P356" s="17"/>
-      <c r="Q356" s="17"/>
-      <c r="R356" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="S356" s="17"/>
-      <c r="T356" s="17"/>
-      <c r="U356" s="13"/>
-    </row>
-    <row r="357" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="11"/>
-      <c r="B357" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="C357" s="11"/>
-      <c r="D357" s="11"/>
-      <c r="E357" s="11"/>
-      <c r="F357" s="11"/>
-      <c r="G357" s="11"/>
-      <c r="H357" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I357" s="11"/>
-      <c r="J357" s="11"/>
-      <c r="K357" s="11"/>
-      <c r="L357" s="11"/>
-      <c r="M357" s="11"/>
-      <c r="N357" s="11"/>
-      <c r="O357" s="11"/>
-      <c r="P357" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q357" s="11"/>
-      <c r="R357" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S357" s="11"/>
-      <c r="T357" s="11"/>
-      <c r="U357" s="11"/>
+      <c r="L357" s="17"/>
+      <c r="M357" s="17"/>
+      <c r="N357" s="17"/>
+      <c r="O357" s="17"/>
+      <c r="P357" s="17"/>
+      <c r="Q357" s="17"/>
+      <c r="R357" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S357" s="17"/>
+      <c r="T357" s="17"/>
+      <c r="U357" s="13"/>
     </row>
     <row r="358" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="11"/>
       <c r="B358" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
@@ -14511,7 +14558,9 @@
       <c r="M358" s="11"/>
       <c r="N358" s="11"/>
       <c r="O358" s="11"/>
-      <c r="P358" s="11"/>
+      <c r="P358" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="Q358" s="11"/>
       <c r="R358" s="11" t="s">
         <v>28</v>
@@ -14523,11 +14572,9 @@
     <row r="359" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="11"/>
       <c r="B359" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="C359" s="11" t="s">
-        <v>709</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="C359" s="11"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
@@ -14551,12 +14598,14 @@
       <c r="T359" s="11"/>
       <c r="U359" s="11"/>
     </row>
-    <row r="360" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="11"/>
       <c r="B360" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="C360" s="11"/>
+        <v>707</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>708</v>
+      </c>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
@@ -14580,14 +14629,12 @@
       <c r="T360" s="11"/>
       <c r="U360" s="11"/>
     </row>
-    <row r="361" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="11"/>
       <c r="B361" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>712</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="C361" s="11"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
@@ -14611,12 +14658,14 @@
       <c r="T361" s="11"/>
       <c r="U361" s="11"/>
     </row>
-    <row r="362" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="11"/>
       <c r="B362" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C362" s="11"/>
+        <v>710</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>711</v>
+      </c>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
@@ -14640,26 +14689,38 @@
       <c r="T362" s="11"/>
       <c r="U362" s="11"/>
     </row>
-    <row r="363" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="22" t="s">
-        <v>714</v>
-      </c>
-      <c r="H363" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L363" s="8"/>
-      <c r="P363" s="22">
-        <v>1</v>
-      </c>
-      <c r="R363" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T363" s="8"/>
+    <row r="363" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="11"/>
+      <c r="B363" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C363" s="11"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="11"/>
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I363" s="11"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="11"/>
+      <c r="L363" s="11"/>
+      <c r="M363" s="11"/>
+      <c r="N363" s="11"/>
+      <c r="O363" s="11"/>
+      <c r="P363" s="11"/>
+      <c r="Q363" s="11"/>
+      <c r="R363" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S363" s="11"/>
+      <c r="T363" s="11"/>
       <c r="U363" s="11"/>
     </row>
     <row r="364" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="22" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H364" s="22" t="s">
         <v>25</v>
@@ -14676,7 +14737,7 @@
     </row>
     <row r="365" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="22" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H365" s="22" t="s">
         <v>25</v>
@@ -14692,54 +14753,54 @@
       <c r="U365" s="11"/>
     </row>
     <row r="366" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="11"/>
-      <c r="B366" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="C366" s="11"/>
-      <c r="D366" s="11"/>
-      <c r="E366" s="11"/>
-      <c r="F366" s="11"/>
-      <c r="G366" s="11"/>
-      <c r="H366" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I366" s="11"/>
-      <c r="J366" s="11"/>
-      <c r="K366" s="11"/>
-      <c r="L366" s="11"/>
-      <c r="M366" s="11"/>
-      <c r="N366" s="11"/>
-      <c r="O366" s="11"/>
-      <c r="P366" s="11"/>
-      <c r="Q366" s="11"/>
-      <c r="R366" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S366" s="11"/>
-      <c r="T366" s="11"/>
+      <c r="B366" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="H366" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L366" s="8"/>
+      <c r="P366" s="22">
+        <v>1</v>
+      </c>
+      <c r="R366" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T366" s="8"/>
       <c r="U366" s="11"/>
     </row>
     <row r="367" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B367" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="H367" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L367" s="8"/>
-      <c r="P367" s="22">
-        <v>1</v>
-      </c>
-      <c r="R367" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T367" s="8"/>
+      <c r="A367" s="11"/>
+      <c r="B367" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C367" s="11"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
+      <c r="H367" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I367" s="11"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="11"/>
+      <c r="L367" s="11"/>
+      <c r="M367" s="11"/>
+      <c r="N367" s="11"/>
+      <c r="O367" s="11"/>
+      <c r="P367" s="11"/>
+      <c r="Q367" s="11"/>
+      <c r="R367" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S367" s="11"/>
+      <c r="T367" s="11"/>
       <c r="U367" s="11"/>
     </row>
     <row r="368" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="22" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H368" s="22" t="s">
         <v>25</v>
@@ -14754,21 +14815,9 @@
       <c r="T368" s="8"/>
       <c r="U368" s="11"/>
     </row>
-    <row r="369" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="21" t="s">
-        <v>720</v>
-      </c>
+    <row r="369" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="C369" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="F369" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G369" s="22" t="s">
-        <v>162</v>
+        <v>718</v>
       </c>
       <c r="H369" s="22" t="s">
         <v>25</v>
@@ -14783,9 +14832,21 @@
       <c r="T369" s="8"/>
       <c r="U369" s="11"/>
     </row>
-    <row r="370" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="21" t="s">
+        <v>719</v>
+      </c>
       <c r="B370" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
+      </c>
+      <c r="C370" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="F370" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G370" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="H370" s="22" t="s">
         <v>25</v>
@@ -14800,70 +14861,61 @@
       <c r="T370" s="8"/>
       <c r="U370" s="11"/>
     </row>
-    <row r="371" spans="1:21" s="31" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="23" t="s">
+    <row r="371" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B371" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="H371" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L371" s="8"/>
+      <c r="P371" s="22">
+        <v>1</v>
+      </c>
+      <c r="R371" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T371" s="8"/>
+      <c r="U371" s="11"/>
+    </row>
+    <row r="372" spans="1:21" s="31" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="B372" s="31" t="s">
         <v>724</v>
       </c>
-      <c r="B371" s="31" t="s">
+      <c r="C372" s="31" t="s">
         <v>725</v>
       </c>
-      <c r="C371" s="31" t="s">
+      <c r="D372" s="31" t="s">
         <v>726</v>
       </c>
-      <c r="D371" s="31" t="s">
+      <c r="F372" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="G372" s="31" t="s">
         <v>727</v>
       </c>
-      <c r="F371" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="G371" s="31" t="s">
+      <c r="H372" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K372" s="31" t="s">
         <v>728</v>
       </c>
-      <c r="H371" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K371" s="31" t="s">
+      <c r="L372" s="32"/>
+      <c r="P372" s="31">
+        <v>1</v>
+      </c>
+      <c r="R372" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T372" s="32"/>
+      <c r="U372" s="30"/>
+    </row>
+    <row r="373" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B373" s="22" t="s">
         <v>729</v>
-      </c>
-      <c r="L371" s="32"/>
-      <c r="P371" s="31">
-        <v>1</v>
-      </c>
-      <c r="R371" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T371" s="32"/>
-      <c r="U371" s="30"/>
-    </row>
-    <row r="372" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="H372" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L372" s="8"/>
-      <c r="P372" s="22">
-        <v>1</v>
-      </c>
-      <c r="R372" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T372" s="8"/>
-      <c r="U372" s="11"/>
-    </row>
-    <row r="373" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="B373" s="22" t="s">
-        <v>732</v>
-      </c>
-      <c r="C373" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="F373" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="H373" s="22" t="s">
         <v>25</v>
@@ -14878,115 +14930,110 @@
       <c r="T373" s="8"/>
       <c r="U373" s="11"/>
     </row>
-    <row r="374" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+    <row r="374" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="B374" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="C374" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="F374" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H374" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L374" s="8"/>
+      <c r="P374" s="22">
+        <v>1</v>
+      </c>
+      <c r="R374" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T374" s="8"/>
+      <c r="U374" s="11"/>
+    </row>
+    <row r="375" spans="1:21" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>733</v>
+      </c>
+      <c r="B375" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C375" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="B374" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C374" s="31" t="s">
+      <c r="F375" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H375" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L375" s="32"/>
+      <c r="P375" s="31">
+        <v>1</v>
+      </c>
+      <c r="R375" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T375" s="32"/>
+      <c r="U375" s="30"/>
+    </row>
+    <row r="376" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="11"/>
+      <c r="B376" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="F374" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H374" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L374" s="32"/>
-      <c r="P374" s="31">
+      <c r="C376" s="11"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
+      <c r="F376" s="11"/>
+      <c r="G376" s="11"/>
+      <c r="H376" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I376" s="11"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="11"/>
+      <c r="L376" s="11"/>
+      <c r="M376" s="11"/>
+      <c r="N376" s="11"/>
+      <c r="O376" s="11"/>
+      <c r="P376" s="11"/>
+      <c r="Q376" s="11"/>
+      <c r="R376" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S376" s="11"/>
+      <c r="T376" s="11"/>
+      <c r="U376" s="11"/>
+    </row>
+    <row r="377" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B377" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="H377" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L377" s="8"/>
+      <c r="P377" s="22">
         <v>1</v>
       </c>
-      <c r="R374" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T374" s="32"/>
-      <c r="U374" s="30"/>
-    </row>
-    <row r="375" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="11"/>
-      <c r="B375" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="C375" s="11"/>
-      <c r="D375" s="11"/>
-      <c r="E375" s="11"/>
-      <c r="F375" s="11"/>
-      <c r="G375" s="11"/>
-      <c r="H375" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I375" s="11"/>
-      <c r="J375" s="11"/>
-      <c r="K375" s="11"/>
-      <c r="L375" s="11"/>
-      <c r="M375" s="11"/>
-      <c r="N375" s="11"/>
-      <c r="O375" s="11"/>
-      <c r="P375" s="11"/>
-      <c r="Q375" s="11"/>
-      <c r="R375" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S375" s="11"/>
-      <c r="T375" s="11"/>
-      <c r="U375" s="11"/>
-    </row>
-    <row r="376" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B376" s="22" t="s">
+      <c r="R377" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T377" s="8"/>
+      <c r="U377" s="11"/>
+    </row>
+    <row r="378" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="H376" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L376" s="8"/>
-      <c r="P376" s="22">
-        <v>1</v>
-      </c>
-      <c r="R376" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T376" s="8"/>
-      <c r="U376" s="11"/>
-    </row>
-    <row r="377" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="11" t="s">
+      <c r="B378" s="11" t="s">
         <v>738</v>
-      </c>
-      <c r="B377" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="C377" s="11"/>
-      <c r="D377" s="11"/>
-      <c r="E377" s="11"/>
-      <c r="F377" s="11"/>
-      <c r="G377" s="11"/>
-      <c r="H377" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I377" s="11"/>
-      <c r="J377" s="11"/>
-      <c r="K377" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="L377" s="11"/>
-      <c r="M377" s="11"/>
-      <c r="N377" s="11"/>
-      <c r="O377" s="11"/>
-      <c r="P377" s="11"/>
-      <c r="Q377" s="11"/>
-      <c r="R377" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S377" s="11"/>
-      <c r="T377" s="11"/>
-      <c r="U377" s="11"/>
-    </row>
-    <row r="378" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="11"/>
-      <c r="B378" s="11" t="s">
-        <v>741</v>
       </c>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
@@ -14998,7 +15045,9 @@
       </c>
       <c r="I378" s="11"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="11"/>
+      <c r="K378" s="11" t="s">
+        <v>739</v>
+      </c>
       <c r="L378" s="11"/>
       <c r="M378" s="11"/>
       <c r="N378" s="11"/>
@@ -15015,7 +15064,7 @@
     <row r="379" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="11"/>
       <c r="B379" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
@@ -15044,7 +15093,7 @@
     <row r="380" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="11"/>
       <c r="B380" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
@@ -15073,7 +15122,7 @@
     <row r="381" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="11"/>
       <c r="B381" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
@@ -15102,7 +15151,7 @@
     <row r="382" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="11"/>
       <c r="B382" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
@@ -15131,7 +15180,7 @@
     <row r="383" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="11"/>
       <c r="B383" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
@@ -15160,7 +15209,7 @@
     <row r="384" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="11"/>
       <c r="B384" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
@@ -15189,7 +15238,7 @@
     <row r="385" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="11"/>
       <c r="B385" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
@@ -15218,7 +15267,7 @@
     <row r="386" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="11"/>
       <c r="B386" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
@@ -15247,7 +15296,7 @@
     <row r="387" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="11"/>
       <c r="B387" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
@@ -15276,7 +15325,7 @@
     <row r="388" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="11"/>
       <c r="B388" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
@@ -15305,7 +15354,7 @@
     <row r="389" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="11"/>
       <c r="B389" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
@@ -15332,25 +15381,37 @@
       <c r="U389" s="11"/>
     </row>
     <row r="390" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="H390" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L390" s="8"/>
-      <c r="P390" s="22">
-        <v>1</v>
-      </c>
-      <c r="R390" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T390" s="8"/>
+      <c r="A390" s="11"/>
+      <c r="B390" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="C390" s="11"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
+      <c r="F390" s="11"/>
+      <c r="G390" s="11"/>
+      <c r="H390" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I390" s="11"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="11"/>
+      <c r="L390" s="11"/>
+      <c r="M390" s="11"/>
+      <c r="N390" s="11"/>
+      <c r="O390" s="11"/>
+      <c r="P390" s="11"/>
+      <c r="Q390" s="11"/>
+      <c r="R390" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S390" s="11"/>
+      <c r="T390" s="11"/>
       <c r="U390" s="11"/>
     </row>
     <row r="391" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="22" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H391" s="22" t="s">
         <v>25</v>
@@ -15367,7 +15428,7 @@
     </row>
     <row r="392" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="22" t="s">
-        <v>76</v>
+        <v>753</v>
       </c>
       <c r="H392" s="22" t="s">
         <v>25</v>
@@ -15384,7 +15445,7 @@
     </row>
     <row r="393" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="22" t="s">
-        <v>755</v>
+        <v>76</v>
       </c>
       <c r="H393" s="22" t="s">
         <v>25</v>
@@ -15401,7 +15462,7 @@
     </row>
     <row r="394" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H394" s="22" t="s">
         <v>25</v>
@@ -15417,38 +15478,26 @@
       <c r="U394" s="11"/>
     </row>
     <row r="395" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="11"/>
-      <c r="B395" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="C395" s="11"/>
-      <c r="D395" s="11"/>
-      <c r="E395" s="11"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="11"/>
-      <c r="H395" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I395" s="11"/>
-      <c r="J395" s="11"/>
-      <c r="K395" s="11"/>
-      <c r="L395" s="11"/>
-      <c r="M395" s="11"/>
-      <c r="N395" s="11"/>
-      <c r="O395" s="11"/>
-      <c r="P395" s="11"/>
-      <c r="Q395" s="11"/>
-      <c r="R395" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S395" s="11"/>
-      <c r="T395" s="11"/>
+      <c r="B395" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="H395" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L395" s="8"/>
+      <c r="P395" s="22">
+        <v>1</v>
+      </c>
+      <c r="R395" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T395" s="8"/>
       <c r="U395" s="11"/>
     </row>
     <row r="396" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="11"/>
       <c r="B396" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
@@ -15477,7 +15526,7 @@
     <row r="397" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="11"/>
       <c r="B397" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
@@ -15506,7 +15555,7 @@
     <row r="398" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="11"/>
       <c r="B398" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
@@ -15533,25 +15582,37 @@
       <c r="U398" s="11"/>
     </row>
     <row r="399" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="22" t="s">
-        <v>761</v>
-      </c>
-      <c r="H399" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L399" s="8"/>
-      <c r="P399" s="22">
-        <v>1</v>
-      </c>
-      <c r="R399" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T399" s="8"/>
+      <c r="A399" s="11"/>
+      <c r="B399" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C399" s="11"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I399" s="11"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="11"/>
+      <c r="L399" s="11"/>
+      <c r="M399" s="11"/>
+      <c r="N399" s="11"/>
+      <c r="O399" s="11"/>
+      <c r="P399" s="11"/>
+      <c r="Q399" s="11"/>
+      <c r="R399" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S399" s="11"/>
+      <c r="T399" s="11"/>
       <c r="U399" s="11"/>
     </row>
     <row r="400" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H400" s="22" t="s">
         <v>25</v>
@@ -15567,52 +15628,40 @@
       <c r="U400" s="11"/>
     </row>
     <row r="401" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="11" t="s">
+      <c r="B401" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="H401" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L401" s="8"/>
+      <c r="P401" s="22">
+        <v>1</v>
+      </c>
+      <c r="R401" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T401" s="8"/>
+      <c r="U401" s="11"/>
+    </row>
+    <row r="402" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B402" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="B401" s="11" t="s">
+      <c r="C402" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="C401" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="D401" s="11"/>
-      <c r="E401" s="11"/>
-      <c r="F401" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G401" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H401" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I401" s="11"/>
-      <c r="J401" s="11"/>
-      <c r="K401" s="11"/>
-      <c r="L401" s="11"/>
-      <c r="M401" s="11"/>
-      <c r="N401" s="11"/>
-      <c r="O401" s="11"/>
-      <c r="P401" s="11"/>
-      <c r="Q401" s="11"/>
-      <c r="R401" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S401" s="11"/>
-      <c r="T401" s="11"/>
-      <c r="U401" s="11"/>
-    </row>
-    <row r="402" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="11"/>
-      <c r="B402" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="C402" s="11"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
-      <c r="F402" s="11"/>
-      <c r="G402" s="11"/>
+      <c r="F402" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="H402" s="11" t="s">
         <v>25</v>
       </c>
@@ -15633,25 +15682,37 @@
       <c r="U402" s="11"/>
     </row>
     <row r="403" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="H403" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L403" s="8"/>
-      <c r="P403" s="22">
-        <v>1</v>
-      </c>
-      <c r="R403" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T403" s="8"/>
+      <c r="A403" s="11"/>
+      <c r="B403" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C403" s="11"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I403" s="11"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="11"/>
+      <c r="L403" s="11"/>
+      <c r="M403" s="11"/>
+      <c r="N403" s="11"/>
+      <c r="O403" s="11"/>
+      <c r="P403" s="11"/>
+      <c r="Q403" s="11"/>
+      <c r="R403" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S403" s="11"/>
+      <c r="T403" s="11"/>
       <c r="U403" s="11"/>
     </row>
     <row r="404" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="22" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H404" s="22" t="s">
         <v>25</v>
@@ -15666,33 +15727,44 @@
       <c r="T404" s="8"/>
       <c r="U404" s="11"/>
     </row>
-    <row r="405" spans="1:21" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="8"/>
-      <c r="R405" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="406" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="H405" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L405" s="8"/>
+      <c r="P405" s="22">
+        <v>1</v>
+      </c>
+      <c r="R405" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T405" s="8"/>
+      <c r="U405" s="11"/>
+    </row>
+    <row r="406" spans="1:21" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="8"/>
-      <c r="H406" s="7"/>
-      <c r="I406" s="7"/>
-      <c r="J406" s="8"/>
-      <c r="K406" s="7"/>
-      <c r="L406" s="7"/>
-      <c r="M406" s="7"/>
-      <c r="N406" s="7">
+      <c r="R406" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="8"/>
+      <c r="H407" s="7"/>
+      <c r="I407" s="7"/>
+      <c r="J407" s="8"/>
+      <c r="K407" s="7"/>
+      <c r="L407" s="7"/>
+      <c r="M407" s="7"/>
+      <c r="N407" s="7">
         <v>1</v>
       </c>
-      <c r="O406" s="7"/>
-      <c r="P406" s="7"/>
-      <c r="Q406" s="7"/>
-      <c r="R406" s="7"/>
-    </row>
-    <row r="407" spans="1:21" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="8"/>
-      <c r="R407" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="O407" s="7"/>
+      <c r="P407" s="7"/>
+      <c r="Q407" s="7"/>
+      <c r="R407" s="7"/>
     </row>
     <row r="408" spans="1:21" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="8"/>
@@ -15706,45 +15778,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="410" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="8"/>
-      <c r="F410" s="7"/>
-      <c r="G410" s="7"/>
-      <c r="H410" s="7"/>
-      <c r="I410" s="7"/>
-      <c r="J410" s="7"/>
-      <c r="K410" s="7"/>
-      <c r="L410" s="7"/>
-      <c r="M410" s="7"/>
-      <c r="N410" s="7"/>
-      <c r="O410" s="7"/>
-      <c r="P410" s="7"/>
-      <c r="Q410" s="7"/>
-      <c r="R410" s="7"/>
-    </row>
-    <row r="411" spans="1:21" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R410" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="8"/>
-      <c r="R411" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="412" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F411" s="7"/>
+      <c r="G411" s="7"/>
+      <c r="H411" s="7"/>
+      <c r="I411" s="7"/>
+      <c r="J411" s="7"/>
+      <c r="K411" s="7"/>
+      <c r="L411" s="7"/>
+      <c r="M411" s="7"/>
+      <c r="N411" s="7"/>
+      <c r="O411" s="7"/>
+      <c r="P411" s="7"/>
+      <c r="Q411" s="7"/>
+      <c r="R411" s="7"/>
+    </row>
+    <row r="412" spans="1:21" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="8"/>
-      <c r="C412" s="7"/>
-      <c r="D412" s="7"/>
-      <c r="F412" s="7"/>
-      <c r="G412" s="7"/>
-      <c r="H412" s="7"/>
-      <c r="I412" s="7"/>
-      <c r="J412" s="7"/>
-      <c r="K412" s="7"/>
-      <c r="L412" s="7"/>
-      <c r="M412" s="7"/>
-      <c r="N412" s="7"/>
-      <c r="O412" s="7"/>
-      <c r="P412" s="7"/>
-      <c r="Q412" s="7"/>
-      <c r="R412" s="7"/>
+      <c r="R412" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="413" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="8"/>
@@ -15766,10 +15826,25 @@
     </row>
     <row r="414" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="8"/>
-      <c r="S414" s="7"/>
+      <c r="C414" s="7"/>
+      <c r="D414" s="7"/>
+      <c r="F414" s="7"/>
+      <c r="G414" s="7"/>
+      <c r="H414" s="7"/>
+      <c r="I414" s="7"/>
+      <c r="J414" s="7"/>
+      <c r="K414" s="7"/>
+      <c r="L414" s="7"/>
+      <c r="M414" s="7"/>
+      <c r="N414" s="7"/>
+      <c r="O414" s="7"/>
+      <c r="P414" s="7"/>
+      <c r="Q414" s="7"/>
+      <c r="R414" s="7"/>
     </row>
     <row r="415" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="8"/>
+      <c r="S415" s="7"/>
     </row>
     <row r="416" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="8"/>
@@ -15793,31 +15868,16 @@
       <c r="B422" s="8"/>
     </row>
     <row r="423" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="8"/>
       <c r="B423" s="8"/>
-      <c r="T423" s="7"/>
     </row>
     <row r="424" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="8"/>
       <c r="B424" s="8"/>
-      <c r="S424" s="7"/>
+      <c r="T424" s="7"/>
     </row>
     <row r="425" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="8"/>
-      <c r="C425" s="7"/>
-      <c r="D425" s="7"/>
-      <c r="F425" s="7"/>
-      <c r="G425" s="7"/>
-      <c r="H425" s="7"/>
-      <c r="I425" s="7"/>
-      <c r="J425" s="7"/>
-      <c r="K425" s="7"/>
-      <c r="L425" s="7"/>
-      <c r="M425" s="7"/>
-      <c r="N425" s="7"/>
-      <c r="O425" s="7"/>
-      <c r="P425" s="7"/>
-      <c r="Q425" s="7"/>
-      <c r="R425" s="7"/>
+      <c r="S425" s="7"/>
     </row>
     <row r="426" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="8"/>
@@ -15836,10 +15896,8 @@
       <c r="P426" s="7"/>
       <c r="Q426" s="7"/>
       <c r="R426" s="7"/>
-      <c r="S426" s="7"/>
     </row>
     <row r="427" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
@@ -15857,9 +15915,9 @@
       <c r="Q427" s="7"/>
       <c r="R427" s="7"/>
       <c r="S427" s="7"/>
-      <c r="T427" s="7"/>
     </row>
     <row r="428" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="7"/>
       <c r="B428" s="8"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
@@ -15877,9 +15935,29 @@
       <c r="Q428" s="7"/>
       <c r="R428" s="7"/>
       <c r="S428" s="7"/>
-    </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T428" s="7"/>
+    </row>
+    <row r="429" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="8"/>
+      <c r="C429" s="7"/>
+      <c r="D429" s="7"/>
+      <c r="F429" s="7"/>
+      <c r="G429" s="7"/>
+      <c r="H429" s="7"/>
+      <c r="I429" s="7"/>
+      <c r="J429" s="7"/>
+      <c r="K429" s="7"/>
+      <c r="L429" s="7"/>
+      <c r="M429" s="7"/>
+      <c r="N429" s="7"/>
+      <c r="O429" s="7"/>
+      <c r="P429" s="7"/>
+      <c r="Q429" s="7"/>
+      <c r="R429" s="7"/>
+      <c r="S429" s="7"/>
+    </row>
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B430" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15907,16 +15985,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -15924,10 +16002,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>772</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -15935,10 +16013,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -15946,13 +16024,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -15960,10 +16038,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -15971,13 +16049,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -15985,10 +16063,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -15996,10 +16074,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16007,10 +16085,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -16018,10 +16096,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -16029,10 +16107,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16040,10 +16118,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -16051,10 +16129,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -16062,10 +16140,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16073,10 +16151,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16084,10 +16162,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16095,10 +16173,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16106,10 +16184,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -16117,10 +16195,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -16164,16 +16242,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>9</v>
@@ -16188,18 +16266,18 @@
         <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>815</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>816</v>
       </c>
       <c r="L2" s="37">
         <v>1</v>
@@ -16207,13 +16285,13 @@
     </row>
     <row r="3" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>817</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>818</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>819</v>
       </c>
       <c r="L3" s="37">
         <v>1</v>
@@ -16221,16 +16299,16 @@
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>820</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>821</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>822</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>823</v>
       </c>
       <c r="L4" s="37">
         <v>1</v>
@@ -16238,10 +16316,10 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>824</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>825</v>
       </c>
       <c r="L5" s="37">
         <v>1</v>
@@ -16249,13 +16327,13 @@
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>826</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="E6" s="37" t="s">
         <v>827</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>828</v>
       </c>
       <c r="L6" s="37">
         <v>1</v>
@@ -16263,16 +16341,16 @@
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>829</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>827</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>830</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>828</v>
       </c>
       <c r="L7" s="37">
         <v>1</v>
@@ -16280,13 +16358,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
+        <v>830</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>832</v>
-      </c>
       <c r="E8" s="37" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L8" s="37">
         <v>1</v>
@@ -16294,13 +16372,13 @@
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
+        <v>832</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>833</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>834</v>
-      </c>
       <c r="D9" s="37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -16311,13 +16389,13 @@
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
+        <v>834</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="E10" s="37" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L10" s="37">
         <v>1</v>
@@ -16358,37 +16436,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>846</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -16396,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -16407,16 +16485,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C3" t="s">
         <v>849</v>
-      </c>
-      <c r="C3" t="s">
-        <v>850</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -16424,16 +16502,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C4" t="s">
         <v>849</v>
-      </c>
-      <c r="C4" t="s">
-        <v>850</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -16441,16 +16519,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C5" t="s">
         <v>849</v>
-      </c>
-      <c r="C5" t="s">
-        <v>850</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -16458,16 +16536,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>848</v>
+      </c>
+      <c r="C6" t="s">
         <v>849</v>
-      </c>
-      <c r="C6" t="s">
-        <v>850</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -16475,16 +16553,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C7" t="s">
         <v>849</v>
-      </c>
-      <c r="C7" t="s">
-        <v>850</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -16492,16 +16570,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C8" t="s">
         <v>849</v>
-      </c>
-      <c r="C8" t="s">
-        <v>850</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -16509,16 +16587,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C9" t="s">
         <v>849</v>
-      </c>
-      <c r="C9" t="s">
-        <v>850</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -16526,16 +16604,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>848</v>
+      </c>
+      <c r="C10" t="s">
         <v>849</v>
-      </c>
-      <c r="C10" t="s">
-        <v>850</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -16543,16 +16621,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C11" t="s">
         <v>849</v>
-      </c>
-      <c r="C11" t="s">
-        <v>850</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -16560,7 +16638,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -16572,13 +16650,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>860</v>
+      </c>
+      <c r="J12" t="s">
         <v>861</v>
       </c>
-      <c r="J12" t="s">
-        <v>862</v>
-      </c>
       <c r="K12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -16586,7 +16664,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -16598,13 +16676,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -16612,7 +16690,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -16624,13 +16702,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -16638,7 +16716,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -16650,13 +16728,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -16664,7 +16742,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -16676,13 +16754,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J16" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -16690,7 +16768,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -16702,13 +16780,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -16716,7 +16794,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -16728,13 +16806,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -16742,7 +16820,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -16754,13 +16832,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -16768,7 +16846,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -16780,13 +16858,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -16794,7 +16872,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -16806,13 +16884,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
+        <v>860</v>
+      </c>
+      <c r="J21" t="s">
         <v>861</v>
       </c>
-      <c r="J21" t="s">
-        <v>862</v>
-      </c>
       <c r="K21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -16820,7 +16898,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -16832,13 +16910,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
+        <v>860</v>
+      </c>
+      <c r="J22" t="s">
         <v>861</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>862</v>
-      </c>
-      <c r="K22" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -16846,7 +16924,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16858,13 +16936,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -16872,7 +16950,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16884,13 +16962,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -16898,7 +16976,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -16910,13 +16988,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J25" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -16924,7 +17002,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -16936,13 +17014,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -16950,7 +17028,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -16962,13 +17040,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -16976,7 +17054,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -16988,13 +17066,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K28" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -17002,7 +17080,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -17014,13 +17092,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J29" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -17028,7 +17106,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -17040,13 +17118,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirst\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EC8FF4-AE6B-496B-8989-73FC2AE7BAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04348D9-394F-43A0-840F-17930F6634CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="832">
   <si>
     <t>ID</t>
   </si>
@@ -2513,6 +2513,9 @@
   </si>
   <si>
     <t>Intramuscular injection</t>
+  </si>
+  <si>
+    <t>"Solitary drinking was defined as drinking while physically alone ".  Skrzynski CJ, Creswell KG. A systematic review and meta-analysis on solitary drinking in adults.</t>
   </si>
 </sst>
 </file>
@@ -2993,9 +2996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K354" sqref="K354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13796,7 +13799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1">
+    <row r="354" spans="1:20" s="17" customFormat="1" ht="75">
       <c r="A354" s="6"/>
       <c r="B354" s="6" t="s">
         <v>824</v>
@@ -13822,7 +13825,9 @@
       <c r="M354" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="N354" s="6"/>
+      <c r="N354" s="6" t="s">
+        <v>831</v>
+      </c>
       <c r="O354" s="6"/>
       <c r="P354" s="6"/>
       <c r="Q354" s="6"/>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C291D4E0-02DF-C243-97E2-453DB17699F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4461B29A-66E9-8C4F-8551-DA6F7CBC07C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="839">
   <si>
     <t>ID</t>
   </si>
@@ -3017,9 +3017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q410" sqref="Q410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -3639,7 +3639,9 @@
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+      <c r="S15" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:24" s="17" customFormat="1" ht="32" customHeight="1">
@@ -3665,7 +3667,9 @@
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="S16" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="32" customHeight="1">
@@ -4516,7 +4520,9 @@
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
+      <c r="S43" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="44" spans="1:19" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="6" t="s">
@@ -4551,7 +4557,9 @@
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
+      <c r="S44" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="45" spans="1:19" s="17" customFormat="1" ht="48" customHeight="1">
       <c r="A45" s="6"/>
@@ -5708,7 +5716,9 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
+      <c r="S81" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="82" spans="1:19" s="26" customFormat="1" ht="32" customHeight="1">
       <c r="A82" s="2" t="s">
@@ -5741,7 +5751,9 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
+      <c r="S82" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="83" spans="1:19" s="26" customFormat="1" ht="32" customHeight="1">
       <c r="A83" s="12" t="s">
@@ -5770,7 +5782,9 @@
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
+      <c r="S83" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:19" s="26" customFormat="1" ht="32" customHeight="1">
       <c r="A84" s="17"/>
@@ -5886,7 +5900,9 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
+      <c r="S87" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="1:19" s="26" customFormat="1" ht="32" customHeight="1">
       <c r="A88" s="6" t="s">
@@ -6078,7 +6094,9 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
+      <c r="S94" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="95" spans="1:19" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A95" s="6"/>
@@ -6702,7 +6720,9 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
+      <c r="S114" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="115" spans="1:19" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="A115" s="6"/>
@@ -9073,7 +9093,9 @@
       <c r="P186" s="12"/>
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
-      <c r="S186" s="4"/>
+      <c r="S186" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="T186" s="6"/>
     </row>
     <row r="187" spans="1:20" s="17" customFormat="1" ht="16" customHeight="1">
@@ -9107,7 +9129,9 @@
       <c r="P187" s="12"/>
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
-      <c r="S187" s="4"/>
+      <c r="S187" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="T187" s="6"/>
     </row>
     <row r="188" spans="1:20" s="26" customFormat="1" ht="32" customHeight="1">
@@ -9269,7 +9293,9 @@
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
+      <c r="S192" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="T192" s="25"/>
     </row>
     <row r="193" spans="1:20" s="26" customFormat="1" ht="48" customHeight="1">
@@ -9325,7 +9351,9 @@
       <c r="P194" s="17"/>
       <c r="Q194" s="17"/>
       <c r="R194" s="17"/>
-      <c r="S194" s="17"/>
+      <c r="S194" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="T194" s="25"/>
     </row>
     <row r="195" spans="1:20" s="26" customFormat="1" ht="48" customHeight="1">
@@ -9351,7 +9379,9 @@
       <c r="P195" s="17"/>
       <c r="Q195" s="17"/>
       <c r="R195" s="17"/>
-      <c r="S195" s="17"/>
+      <c r="S195" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="T195" s="25"/>
     </row>
     <row r="196" spans="1:20" s="26" customFormat="1" ht="48" customHeight="1">
@@ -11643,7 +11673,9 @@
       <c r="P273" s="6"/>
       <c r="Q273" s="6"/>
       <c r="R273" s="6"/>
-      <c r="S273" s="6"/>
+      <c r="S273" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="T273" s="6"/>
     </row>
     <row r="274" spans="1:20" s="17" customFormat="1" ht="16" customHeight="1">
@@ -12273,7 +12305,9 @@
       <c r="P293" s="2"/>
       <c r="Q293" s="6"/>
       <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
+      <c r="S293" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="T293" s="6"/>
     </row>
     <row r="294" spans="1:20" s="17" customFormat="1" ht="48" customHeight="1">
@@ -15256,9 +15290,6 @@
     </row>
     <row r="410" spans="1:20" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="B410" s="3"/>
-      <c r="S410" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="411" spans="1:20" s="6" customFormat="1">
       <c r="B411" s="3"/>
@@ -15275,21 +15306,12 @@
     </row>
     <row r="412" spans="1:20" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="B412" s="3"/>
-      <c r="S412" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="413" spans="1:20" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="B413" s="3"/>
-      <c r="S413" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="414" spans="1:20" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="B414" s="3"/>
-      <c r="S414" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="415" spans="1:20" s="6" customFormat="1">
       <c r="B415" s="3"/>
@@ -15308,9 +15330,6 @@
     </row>
     <row r="416" spans="1:20" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="B416" s="3"/>
-      <c r="S416" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="417" spans="1:19" s="6" customFormat="1">
       <c r="B417" s="3"/>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57B12E5-F5D2-E045-9FAD-75ECD3ADA3DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CB2494-4CD8-744F-B89D-4F47BF7BCB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="841">
   <si>
     <t>ID</t>
   </si>
@@ -2540,6 +2540,9 @@
   </si>
   <si>
     <t>youth uptake of e-cigarettes</t>
+  </si>
+  <si>
+    <t>Reviewer query</t>
   </si>
 </sst>
 </file>
@@ -2892,15 +2895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T409"/>
+  <dimension ref="A1:U409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F398" workbookViewId="0">
-      <selection activeCell="S286" sqref="S286"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2961,8 +2964,11 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>93</v>
       </c>

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -70,74 +70,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -9537,8 +9469,6 @@
           <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
           <t>process</t>
@@ -9554,27 +9484,17 @@
           <t>Human behaviour</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
       <c r="O186" t="n">
         <v>0</v>
       </c>
       <c r="P186" t="n">
         <v>0</v>
       </c>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9592,8 +9512,6 @@
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
           <t>process</t>
@@ -9609,27 +9527,17 @@
           <t>Human behaviour</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
       <c r="O187" t="n">
         <v>0</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
       </c>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9647,8 +9555,6 @@
           <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
           <t>individual human activity</t>
@@ -9664,27 +9570,17 @@
           <t>Human behaviour</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
       <c r="O188" t="n">
         <v>0</v>
       </c>
       <c r="P188" t="n">
         <v>0</v>
       </c>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr"/>
@@ -10577,7 +10473,11 @@
       <c r="U210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="inlineStr"/>
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000882</t>
+        </is>
+      </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
           <t>mulling</t>
@@ -13700,8 +13600,6 @@
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
           <t>process</t>
@@ -13717,19 +13615,12 @@
           <t>Human behaviour</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="inlineStr"/>
-      <c r="N279" t="inlineStr"/>
       <c r="O279" t="n">
         <v>0</v>
       </c>
       <c r="P279" t="n">
         <v>0</v>
       </c>
-      <c r="Q279" t="inlineStr"/>
       <c r="R279" t="inlineStr">
         <is>
           <t>JH</t>
@@ -13740,8 +13631,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="T279" t="inlineStr"/>
-      <c r="U279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -3669,134 +3669,134 @@
       <c r="U62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000649</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cigarette cessation </t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>A tobacco use pattern which involves the cessation of smoking cigarettes.</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G63" s="3" t="inlineStr">
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H63" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I63" s="3" t="inlineStr"/>
-      <c r="J63" s="3" t="inlineStr"/>
-      <c r="K63" s="3" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smoking cessation; tobacco cessation  </t>
         </is>
       </c>
-      <c r="L63" s="3" t="inlineStr"/>
-      <c r="M63" s="3" t="inlineStr">
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This represents smoking cigarette cessation only and is deliberately separate from tobacco cessation as other types of tobacco smoking may continue e.g., cannabis and tobacco use. </t>
         </is>
       </c>
-      <c r="N63" s="3" t="inlineStr"/>
-      <c r="O63" s="3" t="n">
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P63" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q63" s="3" t="inlineStr"/>
-      <c r="R63" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T63" s="3" t="inlineStr"/>
-      <c r="U63" s="3" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000634</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>cigarette daily use</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>A tobacco use pattern that involves smoking at least once per day.</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr"/>
-      <c r="E64" s="3" t="inlineStr"/>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr">
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H64" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I64" s="3" t="inlineStr"/>
-      <c r="J64" s="3" t="inlineStr"/>
-      <c r="K64" s="3" t="inlineStr"/>
-      <c r="L64" s="3" t="inlineStr"/>
-      <c r="M64" s="3" t="inlineStr"/>
-      <c r="N64" s="3" t="inlineStr"/>
-      <c r="O64" s="3" t="n">
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P64" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q64" s="3" t="inlineStr"/>
-      <c r="R64" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S64" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T64" s="3" t="inlineStr"/>
-      <c r="U64" s="3" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr"/>
+      <c r="R64" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
@@ -3860,313 +3860,313 @@
       <c r="U65" s="3" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000644</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>cigarette ever use</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Ever use in which the product is a cigarette.</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="inlineStr"/>
-      <c r="F66" s="3" t="inlineStr">
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G66" s="3" t="inlineStr">
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H66" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I66" s="3" t="inlineStr"/>
-      <c r="J66" s="3" t="inlineStr"/>
-      <c r="K66" s="3" t="inlineStr">
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr">
         <is>
           <t>Ever smoked</t>
         </is>
       </c>
-      <c r="L66" s="3" t="inlineStr"/>
-      <c r="M66" s="3" t="inlineStr"/>
-      <c r="N66" s="3" t="inlineStr"/>
-      <c r="O66" s="3" t="n">
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P66" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q66" s="3" t="inlineStr"/>
-      <c r="R66" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S66" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T66" s="3" t="inlineStr"/>
-      <c r="U66" s="3" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr"/>
+      <c r="R66" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000637</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>cigarette past 1-month use</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has smoked cigarette in the 1-month prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr"/>
-      <c r="E67" s="3" t="inlineStr"/>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G67" s="3" t="inlineStr">
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H67" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I67" s="3" t="inlineStr"/>
-      <c r="J67" s="3" t="inlineStr"/>
-      <c r="K67" s="3" t="inlineStr"/>
-      <c r="L67" s="3" t="inlineStr"/>
-      <c r="M67" s="3" t="inlineStr"/>
-      <c r="N67" s="3" t="inlineStr"/>
-      <c r="O67" s="3" t="n">
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q67" s="3" t="inlineStr"/>
-      <c r="R67" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S67" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T67" s="3" t="inlineStr"/>
-      <c r="U67" s="3" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr"/>
+      <c r="R67" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000638</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>cigarette past 1-year use</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has smoked cigarette in the 1-year prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr"/>
-      <c r="E68" s="3" t="inlineStr"/>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H68" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I68" s="3" t="inlineStr"/>
-      <c r="J68" s="3" t="inlineStr"/>
-      <c r="K68" s="3" t="inlineStr"/>
-      <c r="L68" s="3" t="inlineStr"/>
-      <c r="M68" s="3" t="inlineStr"/>
-      <c r="N68" s="3" t="inlineStr"/>
-      <c r="O68" s="3" t="n">
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
+      <c r="L68" s="2" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr"/>
+      <c r="N68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P68" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q68" s="3" t="inlineStr"/>
-      <c r="R68" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S68" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T68" s="3" t="inlineStr"/>
-      <c r="U68" s="3" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr"/>
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000635</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>cigarette past 30-day use</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has smoked cigarette in the 30-days prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr"/>
-      <c r="E69" s="3" t="inlineStr"/>
-      <c r="F69" s="3" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H69" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I69" s="3" t="inlineStr"/>
-      <c r="J69" s="3" t="inlineStr"/>
-      <c r="K69" s="3" t="inlineStr"/>
-      <c r="L69" s="3" t="inlineStr"/>
-      <c r="M69" s="3" t="inlineStr"/>
-      <c r="N69" s="3" t="inlineStr"/>
-      <c r="O69" s="3" t="n">
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" s="3" t="inlineStr"/>
-      <c r="R69" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S69" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T69" s="3" t="inlineStr"/>
-      <c r="U69" s="3" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q69" s="2" t="inlineStr"/>
+      <c r="R69" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000636</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>cigarette past 7-day use</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has smoked cigarette in the 7-days prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr"/>
-      <c r="E70" s="3" t="inlineStr"/>
-      <c r="F70" s="3" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G70" s="3" t="inlineStr">
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H70" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I70" s="3" t="inlineStr"/>
-      <c r="J70" s="3" t="inlineStr"/>
-      <c r="K70" s="3" t="inlineStr"/>
-      <c r="L70" s="3" t="inlineStr"/>
-      <c r="M70" s="3" t="inlineStr"/>
-      <c r="N70" s="3" t="inlineStr"/>
-      <c r="O70" s="3" t="n">
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" s="3" t="inlineStr"/>
-      <c r="R70" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S70" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T70" s="3" t="inlineStr"/>
-      <c r="U70" s="3" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="R70" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -4295,65 +4295,65 @@
       <c r="U72" s="3" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000648</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>cigarette regular use</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that involves regular use of cigarettes. </t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr"/>
-      <c r="E73" s="3" t="inlineStr"/>
-      <c r="F73" s="3" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G73" s="3" t="inlineStr">
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H73" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I73" s="3" t="inlineStr"/>
-      <c r="J73" s="3" t="inlineStr"/>
-      <c r="K73" s="3" t="inlineStr"/>
-      <c r="L73" s="3" t="inlineStr"/>
-      <c r="M73" s="3" t="inlineStr"/>
-      <c r="N73" s="3" t="inlineStr"/>
-      <c r="O73" s="3" t="n">
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
+      <c r="L73" s="2" t="inlineStr"/>
+      <c r="M73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr"/>
+      <c r="O73" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q73" s="3" t="inlineStr"/>
-      <c r="R73" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S73" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T73" s="3" t="inlineStr"/>
-      <c r="U73" s="3" t="inlineStr"/>
+      <c r="P73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q73" s="2" t="inlineStr"/>
+      <c r="R73" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S73" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
@@ -5807,69 +5807,69 @@
       <c r="U102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000655</t>
         </is>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>daily cigarette use</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>A tobacco use pattern that involves smoking a cigarette at least once per day.</t>
         </is>
       </c>
-      <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="inlineStr"/>
-      <c r="F103" s="3" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr"/>
+      <c r="E103" s="2" t="inlineStr"/>
+      <c r="F103" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G103" s="3" t="inlineStr">
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H103" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I103" s="3" t="inlineStr"/>
-      <c r="J103" s="3" t="inlineStr"/>
-      <c r="K103" s="3" t="inlineStr">
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr"/>
+      <c r="J103" s="2" t="inlineStr"/>
+      <c r="K103" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Everyday cigarette consumption; Daily cigarette consumption </t>
         </is>
       </c>
-      <c r="L103" s="3" t="inlineStr"/>
-      <c r="M103" s="3" t="inlineStr"/>
-      <c r="N103" s="3" t="inlineStr"/>
-      <c r="O103" s="3" t="n">
+      <c r="L103" s="2" t="inlineStr"/>
+      <c r="M103" s="2" t="inlineStr"/>
+      <c r="N103" s="2" t="inlineStr"/>
+      <c r="O103" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q103" s="3" t="inlineStr"/>
-      <c r="R103" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S103" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T103" s="3" t="inlineStr"/>
-      <c r="U103" s="3" t="inlineStr"/>
+      <c r="P103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q103" s="2" t="inlineStr"/>
+      <c r="R103" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S103" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T103" s="2" t="inlineStr"/>
+      <c r="U103" s="2" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -9508,65 +9508,65 @@
       <c r="U175" s="2" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000680</t>
         </is>
       </c>
-      <c r="B176" s="3" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>heated tobacco containing product daily use</t>
         </is>
       </c>
-      <c r="C176" s="3" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>A tobacco use pattern that involves use of a heated tobacco containing product at least once per day.</t>
         </is>
       </c>
-      <c r="D176" s="3" t="inlineStr"/>
-      <c r="E176" s="3" t="inlineStr"/>
-      <c r="F176" s="3" t="inlineStr">
+      <c r="D176" s="2" t="inlineStr"/>
+      <c r="E176" s="2" t="inlineStr"/>
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G176" s="3" t="inlineStr">
+      <c r="G176" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H176" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I176" s="3" t="inlineStr"/>
-      <c r="J176" s="3" t="inlineStr"/>
-      <c r="K176" s="3" t="inlineStr"/>
-      <c r="L176" s="3" t="inlineStr"/>
-      <c r="M176" s="3" t="inlineStr"/>
-      <c r="N176" s="3" t="inlineStr"/>
-      <c r="O176" s="3" t="n">
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="inlineStr"/>
+      <c r="J176" s="2" t="inlineStr"/>
+      <c r="K176" s="2" t="inlineStr"/>
+      <c r="L176" s="2" t="inlineStr"/>
+      <c r="M176" s="2" t="inlineStr"/>
+      <c r="N176" s="2" t="inlineStr"/>
+      <c r="O176" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P176" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q176" s="3" t="inlineStr"/>
-      <c r="R176" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S176" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T176" s="3" t="inlineStr"/>
-      <c r="U176" s="3" t="inlineStr"/>
+      <c r="P176" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q176" s="2" t="inlineStr"/>
+      <c r="R176" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S176" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T176" s="2" t="inlineStr"/>
+      <c r="U176" s="2" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
@@ -9634,309 +9634,309 @@
       <c r="U177" s="3" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="inlineStr">
+      <c r="A178" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000686</t>
         </is>
       </c>
-      <c r="B178" s="3" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>heated tobacco containing product ever use</t>
         </is>
       </c>
-      <c r="C178" s="3" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>Ever use in which the product is a heated tobacco containing product.</t>
         </is>
       </c>
-      <c r="D178" s="3" t="inlineStr"/>
-      <c r="E178" s="3" t="inlineStr"/>
-      <c r="F178" s="3" t="inlineStr">
+      <c r="D178" s="2" t="inlineStr"/>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G178" s="3" t="inlineStr">
+      <c r="G178" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H178" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I178" s="3" t="inlineStr"/>
-      <c r="J178" s="3" t="inlineStr"/>
-      <c r="K178" s="3" t="inlineStr"/>
-      <c r="L178" s="3" t="inlineStr"/>
-      <c r="M178" s="3" t="inlineStr"/>
-      <c r="N178" s="3" t="inlineStr"/>
-      <c r="O178" s="3" t="n">
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="inlineStr"/>
+      <c r="J178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr"/>
+      <c r="L178" s="2" t="inlineStr"/>
+      <c r="M178" s="2" t="inlineStr"/>
+      <c r="N178" s="2" t="inlineStr"/>
+      <c r="O178" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P178" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q178" s="3" t="inlineStr"/>
-      <c r="R178" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S178" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T178" s="3" t="inlineStr"/>
-      <c r="U178" s="3" t="inlineStr"/>
+      <c r="P178" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q178" s="2" t="inlineStr"/>
+      <c r="R178" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S178" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T178" s="2" t="inlineStr"/>
+      <c r="U178" s="2" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000683</t>
         </is>
       </c>
-      <c r="B179" s="3" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>heated tobacco containing product past 1-month use</t>
         </is>
       </c>
-      <c r="C179" s="3" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing product in the 1-month prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D179" s="3" t="inlineStr"/>
-      <c r="E179" s="3" t="inlineStr"/>
-      <c r="F179" s="3" t="inlineStr">
+      <c r="D179" s="2" t="inlineStr"/>
+      <c r="E179" s="2" t="inlineStr"/>
+      <c r="F179" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G179" s="3" t="inlineStr">
+      <c r="G179" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H179" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I179" s="3" t="inlineStr"/>
-      <c r="J179" s="3" t="inlineStr"/>
-      <c r="K179" s="3" t="inlineStr"/>
-      <c r="L179" s="3" t="inlineStr"/>
-      <c r="M179" s="3" t="inlineStr"/>
-      <c r="N179" s="3" t="inlineStr"/>
-      <c r="O179" s="3" t="n">
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr"/>
+      <c r="J179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr"/>
+      <c r="L179" s="2" t="inlineStr"/>
+      <c r="M179" s="2" t="inlineStr"/>
+      <c r="N179" s="2" t="inlineStr"/>
+      <c r="O179" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P179" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q179" s="3" t="inlineStr"/>
-      <c r="R179" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S179" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T179" s="3" t="inlineStr"/>
-      <c r="U179" s="3" t="inlineStr"/>
+      <c r="P179" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q179" s="2" t="inlineStr"/>
+      <c r="R179" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S179" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T179" s="2" t="inlineStr"/>
+      <c r="U179" s="2" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="inlineStr">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000684</t>
         </is>
       </c>
-      <c r="B180" s="3" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>heated tobacco containing product past 1-year use</t>
         </is>
       </c>
-      <c r="C180" s="3" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing product in the 1-year prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D180" s="3" t="inlineStr"/>
-      <c r="E180" s="3" t="inlineStr"/>
-      <c r="F180" s="3" t="inlineStr">
+      <c r="D180" s="2" t="inlineStr"/>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G180" s="3" t="inlineStr">
+      <c r="G180" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H180" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I180" s="3" t="inlineStr"/>
-      <c r="J180" s="3" t="inlineStr"/>
-      <c r="K180" s="3" t="inlineStr"/>
-      <c r="L180" s="3" t="inlineStr"/>
-      <c r="M180" s="3" t="inlineStr"/>
-      <c r="N180" s="3" t="inlineStr"/>
-      <c r="O180" s="3" t="n">
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="inlineStr"/>
+      <c r="J180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr"/>
+      <c r="L180" s="2" t="inlineStr"/>
+      <c r="M180" s="2" t="inlineStr"/>
+      <c r="N180" s="2" t="inlineStr"/>
+      <c r="O180" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P180" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q180" s="3" t="inlineStr"/>
-      <c r="R180" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S180" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T180" s="3" t="inlineStr"/>
-      <c r="U180" s="3" t="inlineStr"/>
+      <c r="P180" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q180" s="2" t="inlineStr"/>
+      <c r="R180" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S180" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T180" s="2" t="inlineStr"/>
+      <c r="U180" s="2" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="inlineStr">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000681</t>
         </is>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>heated tobacco containing product past 30-day use</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing product in the 30-days prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr"/>
-      <c r="E181" s="3" t="inlineStr"/>
-      <c r="F181" s="3" t="inlineStr">
+      <c r="D181" s="2" t="inlineStr"/>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G181" s="3" t="inlineStr">
+      <c r="G181" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H181" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I181" s="3" t="inlineStr"/>
-      <c r="J181" s="3" t="inlineStr"/>
-      <c r="K181" s="3" t="inlineStr"/>
-      <c r="L181" s="3" t="inlineStr"/>
-      <c r="M181" s="3" t="inlineStr"/>
-      <c r="N181" s="3" t="inlineStr"/>
-      <c r="O181" s="3" t="n">
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="inlineStr"/>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
+      <c r="L181" s="2" t="inlineStr"/>
+      <c r="M181" s="2" t="inlineStr"/>
+      <c r="N181" s="2" t="inlineStr"/>
+      <c r="O181" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P181" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q181" s="3" t="inlineStr"/>
-      <c r="R181" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S181" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T181" s="3" t="inlineStr"/>
-      <c r="U181" s="3" t="inlineStr"/>
+      <c r="P181" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q181" s="2" t="inlineStr"/>
+      <c r="R181" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S181" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T181" s="2" t="inlineStr"/>
+      <c r="U181" s="2" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000682</t>
         </is>
       </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>heated tobacco containing product past 7-day use</t>
         </is>
       </c>
-      <c r="C182" s="3" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used heated tobacco containing product in the 7-days prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D182" s="3" t="inlineStr"/>
-      <c r="E182" s="3" t="inlineStr"/>
-      <c r="F182" s="3" t="inlineStr">
+      <c r="D182" s="2" t="inlineStr"/>
+      <c r="E182" s="2" t="inlineStr"/>
+      <c r="F182" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G182" s="3" t="inlineStr">
+      <c r="G182" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H182" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I182" s="3" t="inlineStr"/>
-      <c r="J182" s="3" t="inlineStr"/>
-      <c r="K182" s="3" t="inlineStr"/>
-      <c r="L182" s="3" t="inlineStr"/>
-      <c r="M182" s="3" t="inlineStr"/>
-      <c r="N182" s="3" t="inlineStr"/>
-      <c r="O182" s="3" t="n">
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="inlineStr"/>
+      <c r="J182" s="2" t="inlineStr"/>
+      <c r="K182" s="2" t="inlineStr"/>
+      <c r="L182" s="2" t="inlineStr"/>
+      <c r="M182" s="2" t="inlineStr"/>
+      <c r="N182" s="2" t="inlineStr"/>
+      <c r="O182" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P182" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q182" s="3" t="inlineStr"/>
-      <c r="R182" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S182" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T182" s="3" t="inlineStr"/>
-      <c r="U182" s="3" t="inlineStr"/>
+      <c r="P182" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q182" s="2" t="inlineStr"/>
+      <c r="R182" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S182" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T182" s="2" t="inlineStr"/>
+      <c r="U182" s="2" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
@@ -10004,65 +10004,65 @@
       <c r="U183" s="3" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000688</t>
         </is>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>heated tobacco containing product regular use</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that involves regular use of a heated tobacco containing product. </t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr"/>
-      <c r="E184" s="3" t="inlineStr"/>
-      <c r="F184" s="3" t="inlineStr">
+      <c r="D184" s="2" t="inlineStr"/>
+      <c r="E184" s="2" t="inlineStr"/>
+      <c r="F184" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G184" s="3" t="inlineStr">
+      <c r="G184" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H184" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I184" s="3" t="inlineStr"/>
-      <c r="J184" s="3" t="inlineStr"/>
-      <c r="K184" s="3" t="inlineStr"/>
-      <c r="L184" s="3" t="inlineStr"/>
-      <c r="M184" s="3" t="inlineStr"/>
-      <c r="N184" s="3" t="inlineStr"/>
-      <c r="O184" s="3" t="n">
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="inlineStr"/>
+      <c r="J184" s="2" t="inlineStr"/>
+      <c r="K184" s="2" t="inlineStr"/>
+      <c r="L184" s="2" t="inlineStr"/>
+      <c r="M184" s="2" t="inlineStr"/>
+      <c r="N184" s="2" t="inlineStr"/>
+      <c r="O184" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P184" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q184" s="3" t="inlineStr"/>
-      <c r="R184" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S184" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T184" s="3" t="inlineStr"/>
-      <c r="U184" s="3" t="inlineStr"/>
+      <c r="P184" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q184" s="2" t="inlineStr"/>
+      <c r="R184" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S184" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T184" s="2" t="inlineStr"/>
+      <c r="U184" s="2" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr"/>
@@ -11592,65 +11592,65 @@
       <c r="U217" s="2" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="inlineStr">
+      <c r="A218" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000651</t>
         </is>
       </c>
-      <c r="B218" s="3" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>non daily cigarette use</t>
         </is>
       </c>
-      <c r="C218" s="3" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that involves smoking cigarettes less frequent than once per day. </t>
         </is>
       </c>
-      <c r="D218" s="3" t="inlineStr"/>
-      <c r="E218" s="3" t="inlineStr"/>
-      <c r="F218" s="3" t="inlineStr">
+      <c r="D218" s="2" t="inlineStr"/>
+      <c r="E218" s="2" t="inlineStr"/>
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G218" s="3" t="inlineStr">
+      <c r="G218" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H218" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I218" s="3" t="inlineStr"/>
-      <c r="J218" s="3" t="inlineStr"/>
-      <c r="K218" s="3" t="inlineStr"/>
-      <c r="L218" s="3" t="inlineStr"/>
-      <c r="M218" s="3" t="inlineStr"/>
-      <c r="N218" s="3" t="inlineStr"/>
-      <c r="O218" s="3" t="n">
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="inlineStr"/>
+      <c r="J218" s="2" t="inlineStr"/>
+      <c r="K218" s="2" t="inlineStr"/>
+      <c r="L218" s="2" t="inlineStr"/>
+      <c r="M218" s="2" t="inlineStr"/>
+      <c r="N218" s="2" t="inlineStr"/>
+      <c r="O218" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P218" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q218" s="3" t="inlineStr"/>
-      <c r="R218" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S218" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T218" s="3" t="inlineStr"/>
-      <c r="U218" s="3" t="inlineStr"/>
+      <c r="P218" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q218" s="2" t="inlineStr"/>
+      <c r="R218" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S218" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T218" s="2" t="inlineStr"/>
+      <c r="U218" s="2" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
@@ -11714,65 +11714,65 @@
       <c r="U219" s="2" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="inlineStr">
+      <c r="A220" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000710</t>
         </is>
       </c>
-      <c r="B220" s="3" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>non daily smokeless tobacco use</t>
         </is>
       </c>
-      <c r="C220" s="3" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that involves using smokeless tobacco less frequent than once per day. </t>
         </is>
       </c>
-      <c r="D220" s="3" t="inlineStr"/>
-      <c r="E220" s="3" t="inlineStr"/>
-      <c r="F220" s="3" t="inlineStr">
+      <c r="D220" s="2" t="inlineStr"/>
+      <c r="E220" s="2" t="inlineStr"/>
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G220" s="3" t="inlineStr">
+      <c r="G220" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H220" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I220" s="3" t="inlineStr"/>
-      <c r="J220" s="3" t="inlineStr"/>
-      <c r="K220" s="3" t="inlineStr"/>
-      <c r="L220" s="3" t="inlineStr"/>
-      <c r="M220" s="3" t="inlineStr"/>
-      <c r="N220" s="3" t="inlineStr"/>
-      <c r="O220" s="3" t="n">
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="inlineStr"/>
+      <c r="J220" s="2" t="inlineStr"/>
+      <c r="K220" s="2" t="inlineStr"/>
+      <c r="L220" s="2" t="inlineStr"/>
+      <c r="M220" s="2" t="inlineStr"/>
+      <c r="N220" s="2" t="inlineStr"/>
+      <c r="O220" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P220" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q220" s="3" t="inlineStr"/>
-      <c r="R220" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S220" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T220" s="3" t="inlineStr"/>
-      <c r="U220" s="3" t="inlineStr"/>
+      <c r="P220" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q220" s="2" t="inlineStr"/>
+      <c r="R220" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S220" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T220" s="2" t="inlineStr"/>
+      <c r="U220" s="2" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
@@ -16092,65 +16092,65 @@
       <c r="U311" s="2" t="inlineStr"/>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="inlineStr">
+      <c r="A312" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000729</t>
         </is>
       </c>
-      <c r="B312" s="3" t="inlineStr">
+      <c r="B312" s="2" t="inlineStr">
         <is>
           <t>quitting smoking</t>
         </is>
       </c>
-      <c r="C312" s="3" t="inlineStr">
+      <c r="C312" s="2" t="inlineStr">
         <is>
           <t>A tobacco use pattern that involves the process of quitting smoking cigarettes.</t>
         </is>
       </c>
-      <c r="D312" s="3" t="inlineStr"/>
-      <c r="E312" s="3" t="inlineStr"/>
-      <c r="F312" s="3" t="inlineStr">
+      <c r="D312" s="2" t="inlineStr"/>
+      <c r="E312" s="2" t="inlineStr"/>
+      <c r="F312" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G312" s="3" t="inlineStr"/>
-      <c r="H312" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I312" s="3" t="inlineStr"/>
-      <c r="J312" s="3" t="inlineStr"/>
-      <c r="K312" s="3" t="inlineStr"/>
-      <c r="L312" s="3" t="inlineStr"/>
-      <c r="M312" s="3" t="inlineStr">
+      <c r="G312" s="2" t="inlineStr"/>
+      <c r="H312" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I312" s="2" t="inlineStr"/>
+      <c r="J312" s="2" t="inlineStr"/>
+      <c r="K312" s="2" t="inlineStr"/>
+      <c r="L312" s="2" t="inlineStr"/>
+      <c r="M312" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Note this  quitting smoking is distinguished from smoking cessation as in this label we are describing the process of quitting. </t>
         </is>
       </c>
-      <c r="N312" s="3" t="inlineStr"/>
-      <c r="O312" s="3" t="n">
+      <c r="N312" s="2" t="inlineStr"/>
+      <c r="O312" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P312" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q312" s="3" t="inlineStr"/>
-      <c r="R312" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S312" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T312" s="3" t="inlineStr"/>
-      <c r="U312" s="3" t="inlineStr"/>
+      <c r="P312" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q312" s="2" t="inlineStr"/>
+      <c r="R312" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S312" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T312" s="2" t="inlineStr"/>
+      <c r="U312" s="2" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr"/>
@@ -17545,65 +17545,65 @@
       <c r="U344" s="2" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="inlineStr">
+      <c r="A345" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000701</t>
         </is>
       </c>
-      <c r="B345" s="3" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco daily use</t>
         </is>
       </c>
-      <c r="C345" s="3" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>A tobacco use pattern that involves use of smokeless tobacco at least once per day.</t>
         </is>
       </c>
-      <c r="D345" s="3" t="inlineStr"/>
-      <c r="E345" s="3" t="inlineStr"/>
-      <c r="F345" s="3" t="inlineStr">
+      <c r="D345" s="2" t="inlineStr"/>
+      <c r="E345" s="2" t="inlineStr"/>
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G345" s="3" t="inlineStr">
+      <c r="G345" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H345" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I345" s="3" t="inlineStr"/>
-      <c r="J345" s="3" t="inlineStr"/>
-      <c r="K345" s="3" t="inlineStr"/>
-      <c r="L345" s="3" t="inlineStr"/>
-      <c r="M345" s="3" t="inlineStr"/>
-      <c r="N345" s="3" t="inlineStr"/>
-      <c r="O345" s="3" t="n">
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="inlineStr"/>
+      <c r="J345" s="2" t="inlineStr"/>
+      <c r="K345" s="2" t="inlineStr"/>
+      <c r="L345" s="2" t="inlineStr"/>
+      <c r="M345" s="2" t="inlineStr"/>
+      <c r="N345" s="2" t="inlineStr"/>
+      <c r="O345" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P345" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q345" s="3" t="inlineStr"/>
-      <c r="R345" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S345" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T345" s="3" t="inlineStr"/>
-      <c r="U345" s="3" t="inlineStr"/>
+      <c r="P345" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q345" s="2" t="inlineStr"/>
+      <c r="R345" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S345" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T345" s="2" t="inlineStr"/>
+      <c r="U345" s="2" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="3" t="inlineStr">
@@ -17671,309 +17671,309 @@
       <c r="U346" s="3" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" s="3" t="inlineStr">
+      <c r="A347" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000707</t>
         </is>
       </c>
-      <c r="B347" s="3" t="inlineStr">
+      <c r="B347" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco ever use</t>
         </is>
       </c>
-      <c r="C347" s="3" t="inlineStr">
+      <c r="C347" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ever use in which the product is a smokeless tobacco product. </t>
         </is>
       </c>
-      <c r="D347" s="3" t="inlineStr"/>
-      <c r="E347" s="3" t="inlineStr"/>
-      <c r="F347" s="3" t="inlineStr">
+      <c r="D347" s="2" t="inlineStr"/>
+      <c r="E347" s="2" t="inlineStr"/>
+      <c r="F347" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G347" s="3" t="inlineStr">
+      <c r="G347" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H347" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I347" s="3" t="inlineStr"/>
-      <c r="J347" s="3" t="inlineStr"/>
-      <c r="K347" s="3" t="inlineStr"/>
-      <c r="L347" s="3" t="inlineStr"/>
-      <c r="M347" s="3" t="inlineStr"/>
-      <c r="N347" s="3" t="inlineStr"/>
-      <c r="O347" s="3" t="n">
+      <c r="H347" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I347" s="2" t="inlineStr"/>
+      <c r="J347" s="2" t="inlineStr"/>
+      <c r="K347" s="2" t="inlineStr"/>
+      <c r="L347" s="2" t="inlineStr"/>
+      <c r="M347" s="2" t="inlineStr"/>
+      <c r="N347" s="2" t="inlineStr"/>
+      <c r="O347" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P347" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q347" s="3" t="inlineStr"/>
-      <c r="R347" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S347" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T347" s="3" t="inlineStr"/>
-      <c r="U347" s="3" t="inlineStr"/>
+      <c r="P347" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q347" s="2" t="inlineStr"/>
+      <c r="R347" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S347" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T347" s="2" t="inlineStr"/>
+      <c r="U347" s="2" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="inlineStr">
+      <c r="A348" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000704</t>
         </is>
       </c>
-      <c r="B348" s="3" t="inlineStr">
+      <c r="B348" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco past 1-month use</t>
         </is>
       </c>
-      <c r="C348" s="3" t="inlineStr">
+      <c r="C348" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-month prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D348" s="3" t="inlineStr"/>
-      <c r="E348" s="3" t="inlineStr"/>
-      <c r="F348" s="3" t="inlineStr">
+      <c r="D348" s="2" t="inlineStr"/>
+      <c r="E348" s="2" t="inlineStr"/>
+      <c r="F348" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G348" s="3" t="inlineStr">
+      <c r="G348" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H348" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I348" s="3" t="inlineStr"/>
-      <c r="J348" s="3" t="inlineStr"/>
-      <c r="K348" s="3" t="inlineStr"/>
-      <c r="L348" s="3" t="inlineStr"/>
-      <c r="M348" s="3" t="inlineStr"/>
-      <c r="N348" s="3" t="inlineStr"/>
-      <c r="O348" s="3" t="n">
+      <c r="H348" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I348" s="2" t="inlineStr"/>
+      <c r="J348" s="2" t="inlineStr"/>
+      <c r="K348" s="2" t="inlineStr"/>
+      <c r="L348" s="2" t="inlineStr"/>
+      <c r="M348" s="2" t="inlineStr"/>
+      <c r="N348" s="2" t="inlineStr"/>
+      <c r="O348" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P348" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q348" s="3" t="inlineStr"/>
-      <c r="R348" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S348" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T348" s="3" t="inlineStr"/>
-      <c r="U348" s="3" t="inlineStr"/>
+      <c r="P348" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q348" s="2" t="inlineStr"/>
+      <c r="R348" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S348" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T348" s="2" t="inlineStr"/>
+      <c r="U348" s="2" t="inlineStr"/>
     </row>
     <row r="349">
-      <c r="A349" s="3" t="inlineStr">
+      <c r="A349" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000705</t>
         </is>
       </c>
-      <c r="B349" s="3" t="inlineStr">
+      <c r="B349" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco past 1-year use</t>
         </is>
       </c>
-      <c r="C349" s="3" t="inlineStr">
+      <c r="C349" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 1-year prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D349" s="3" t="inlineStr"/>
-      <c r="E349" s="3" t="inlineStr"/>
-      <c r="F349" s="3" t="inlineStr">
+      <c r="D349" s="2" t="inlineStr"/>
+      <c r="E349" s="2" t="inlineStr"/>
+      <c r="F349" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G349" s="3" t="inlineStr">
+      <c r="G349" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H349" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I349" s="3" t="inlineStr"/>
-      <c r="J349" s="3" t="inlineStr"/>
-      <c r="K349" s="3" t="inlineStr"/>
-      <c r="L349" s="3" t="inlineStr"/>
-      <c r="M349" s="3" t="inlineStr"/>
-      <c r="N349" s="3" t="inlineStr"/>
-      <c r="O349" s="3" t="n">
+      <c r="H349" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I349" s="2" t="inlineStr"/>
+      <c r="J349" s="2" t="inlineStr"/>
+      <c r="K349" s="2" t="inlineStr"/>
+      <c r="L349" s="2" t="inlineStr"/>
+      <c r="M349" s="2" t="inlineStr"/>
+      <c r="N349" s="2" t="inlineStr"/>
+      <c r="O349" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P349" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q349" s="3" t="inlineStr"/>
-      <c r="R349" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S349" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T349" s="3" t="inlineStr"/>
-      <c r="U349" s="3" t="inlineStr"/>
+      <c r="P349" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q349" s="2" t="inlineStr"/>
+      <c r="R349" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S349" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T349" s="2" t="inlineStr"/>
+      <c r="U349" s="2" t="inlineStr"/>
     </row>
     <row r="350">
-      <c r="A350" s="3" t="inlineStr">
+      <c r="A350" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000702</t>
         </is>
       </c>
-      <c r="B350" s="3" t="inlineStr">
+      <c r="B350" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco past 30-day use</t>
         </is>
       </c>
-      <c r="C350" s="3" t="inlineStr">
+      <c r="C350" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 30-days prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D350" s="3" t="inlineStr"/>
-      <c r="E350" s="3" t="inlineStr"/>
-      <c r="F350" s="3" t="inlineStr">
+      <c r="D350" s="2" t="inlineStr"/>
+      <c r="E350" s="2" t="inlineStr"/>
+      <c r="F350" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G350" s="3" t="inlineStr">
+      <c r="G350" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H350" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I350" s="3" t="inlineStr"/>
-      <c r="J350" s="3" t="inlineStr"/>
-      <c r="K350" s="3" t="inlineStr"/>
-      <c r="L350" s="3" t="inlineStr"/>
-      <c r="M350" s="3" t="inlineStr"/>
-      <c r="N350" s="3" t="inlineStr"/>
-      <c r="O350" s="3" t="n">
+      <c r="H350" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I350" s="2" t="inlineStr"/>
+      <c r="J350" s="2" t="inlineStr"/>
+      <c r="K350" s="2" t="inlineStr"/>
+      <c r="L350" s="2" t="inlineStr"/>
+      <c r="M350" s="2" t="inlineStr"/>
+      <c r="N350" s="2" t="inlineStr"/>
+      <c r="O350" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P350" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q350" s="3" t="inlineStr"/>
-      <c r="R350" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S350" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T350" s="3" t="inlineStr"/>
-      <c r="U350" s="3" t="inlineStr"/>
+      <c r="P350" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q350" s="2" t="inlineStr"/>
+      <c r="R350" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S350" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T350" s="2" t="inlineStr"/>
+      <c r="U350" s="2" t="inlineStr"/>
     </row>
     <row r="351">
-      <c r="A351" s="3" t="inlineStr">
+      <c r="A351" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000703</t>
         </is>
       </c>
-      <c r="B351" s="3" t="inlineStr">
+      <c r="B351" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco past 7-day use</t>
         </is>
       </c>
-      <c r="C351" s="3" t="inlineStr">
+      <c r="C351" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that indicates a person has used smokeless tobacco in the 7-days prior to the time of asking. </t>
         </is>
       </c>
-      <c r="D351" s="3" t="inlineStr"/>
-      <c r="E351" s="3" t="inlineStr"/>
-      <c r="F351" s="3" t="inlineStr">
+      <c r="D351" s="2" t="inlineStr"/>
+      <c r="E351" s="2" t="inlineStr"/>
+      <c r="F351" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G351" s="3" t="inlineStr">
+      <c r="G351" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H351" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I351" s="3" t="inlineStr"/>
-      <c r="J351" s="3" t="inlineStr"/>
-      <c r="K351" s="3" t="inlineStr"/>
-      <c r="L351" s="3" t="inlineStr"/>
-      <c r="M351" s="3" t="inlineStr"/>
-      <c r="N351" s="3" t="inlineStr"/>
-      <c r="O351" s="3" t="n">
+      <c r="H351" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I351" s="2" t="inlineStr"/>
+      <c r="J351" s="2" t="inlineStr"/>
+      <c r="K351" s="2" t="inlineStr"/>
+      <c r="L351" s="2" t="inlineStr"/>
+      <c r="M351" s="2" t="inlineStr"/>
+      <c r="N351" s="2" t="inlineStr"/>
+      <c r="O351" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P351" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q351" s="3" t="inlineStr"/>
-      <c r="R351" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S351" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T351" s="3" t="inlineStr"/>
-      <c r="U351" s="3" t="inlineStr"/>
+      <c r="P351" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q351" s="2" t="inlineStr"/>
+      <c r="R351" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S351" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T351" s="2" t="inlineStr"/>
+      <c r="U351" s="2" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="3" t="inlineStr">
@@ -18041,65 +18041,65 @@
       <c r="U352" s="3" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" s="3" t="inlineStr">
+      <c r="A353" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000709</t>
         </is>
       </c>
-      <c r="B353" s="3" t="inlineStr">
+      <c r="B353" s="2" t="inlineStr">
         <is>
           <t>smokeless tobacco regular use</t>
         </is>
       </c>
-      <c r="C353" s="3" t="inlineStr">
+      <c r="C353" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco use pattern that involves regular use of smokeless tobacco. </t>
         </is>
       </c>
-      <c r="D353" s="3" t="inlineStr"/>
-      <c r="E353" s="3" t="inlineStr"/>
-      <c r="F353" s="3" t="inlineStr">
+      <c r="D353" s="2" t="inlineStr"/>
+      <c r="E353" s="2" t="inlineStr"/>
+      <c r="F353" s="2" t="inlineStr">
         <is>
           <t>tobacco use pattern</t>
         </is>
       </c>
-      <c r="G353" s="3" t="inlineStr">
+      <c r="G353" s="2" t="inlineStr">
         <is>
           <t>Dependent continuant</t>
         </is>
       </c>
-      <c r="H353" s="3" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I353" s="3" t="inlineStr"/>
-      <c r="J353" s="3" t="inlineStr"/>
-      <c r="K353" s="3" t="inlineStr"/>
-      <c r="L353" s="3" t="inlineStr"/>
-      <c r="M353" s="3" t="inlineStr"/>
-      <c r="N353" s="3" t="inlineStr"/>
-      <c r="O353" s="3" t="n">
+      <c r="H353" s="2" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I353" s="2" t="inlineStr"/>
+      <c r="J353" s="2" t="inlineStr"/>
+      <c r="K353" s="2" t="inlineStr"/>
+      <c r="L353" s="2" t="inlineStr"/>
+      <c r="M353" s="2" t="inlineStr"/>
+      <c r="N353" s="2" t="inlineStr"/>
+      <c r="O353" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P353" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q353" s="3" t="inlineStr"/>
-      <c r="R353" s="3" t="inlineStr">
-        <is>
-          <t>SC; KS</t>
-        </is>
-      </c>
-      <c r="S353" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T353" s="3" t="inlineStr"/>
-      <c r="U353" s="3" t="inlineStr"/>
+      <c r="P353" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q353" s="2" t="inlineStr"/>
+      <c r="R353" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S353" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T353" s="2" t="inlineStr"/>
+      <c r="U353" s="2" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="3" t="inlineStr">

--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -44,12 +44,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
   </fills>
@@ -727,73 +727,73 @@
       <c r="U4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000627</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>absolute smoking reduction</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>A data item which indicates the absolute reduction number of cigarettes smoked over a period of time.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="2" t="inlineSt